--- a/GameData/SSTU/Parts/Parts-MassCalc.xlsx
+++ b/GameData/SSTU/Parts/Parts-MassCalc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="parts" sheetId="1" r:id="rId1"/>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y150"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
@@ -30401,43 +30401,153 @@
     </row>
   </sheetData>
   <mergeCells count="208">
-    <mergeCell ref="AX119:BC119"/>
-    <mergeCell ref="BF119:BK119"/>
-    <mergeCell ref="AX120:BC120"/>
-    <mergeCell ref="BF120:BK120"/>
-    <mergeCell ref="AX116:BC116"/>
-    <mergeCell ref="BF116:BK116"/>
-    <mergeCell ref="AX117:BC117"/>
-    <mergeCell ref="BF117:BK117"/>
-    <mergeCell ref="AX118:BC118"/>
-    <mergeCell ref="BF118:BK118"/>
-    <mergeCell ref="AX94:BC94"/>
-    <mergeCell ref="BF94:BK94"/>
-    <mergeCell ref="AX95:BC95"/>
-    <mergeCell ref="BF95:BK95"/>
-    <mergeCell ref="AX96:BC96"/>
-    <mergeCell ref="BF96:BK96"/>
-    <mergeCell ref="AX72:BC72"/>
-    <mergeCell ref="BF72:BK72"/>
-    <mergeCell ref="AX92:BC92"/>
-    <mergeCell ref="BF92:BK92"/>
-    <mergeCell ref="AX93:BC93"/>
-    <mergeCell ref="BF93:BK93"/>
-    <mergeCell ref="BF23:BK23"/>
-    <mergeCell ref="AX24:BC24"/>
-    <mergeCell ref="BF24:BK24"/>
-    <mergeCell ref="AX69:BC69"/>
-    <mergeCell ref="BF69:BK69"/>
-    <mergeCell ref="AX70:BC70"/>
-    <mergeCell ref="BF70:BK70"/>
-    <mergeCell ref="AX71:BC71"/>
-    <mergeCell ref="BF71:BK71"/>
-    <mergeCell ref="AX47:BC47"/>
-    <mergeCell ref="BF47:BK47"/>
-    <mergeCell ref="AX48:BC48"/>
-    <mergeCell ref="BF48:BK48"/>
-    <mergeCell ref="AX68:BC68"/>
-    <mergeCell ref="BF68:BK68"/>
+    <mergeCell ref="R117:W117"/>
+    <mergeCell ref="R118:W118"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="J45:O45"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="Z117:AE117"/>
+    <mergeCell ref="Z118:AE118"/>
+    <mergeCell ref="J117:O117"/>
+    <mergeCell ref="J118:O118"/>
+    <mergeCell ref="J119:O119"/>
+    <mergeCell ref="J120:O120"/>
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="R21:W21"/>
+    <mergeCell ref="R22:W22"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="R44:W44"/>
+    <mergeCell ref="J92:O92"/>
+    <mergeCell ref="J93:O93"/>
+    <mergeCell ref="J94:O94"/>
+    <mergeCell ref="J95:O95"/>
+    <mergeCell ref="J96:O96"/>
+    <mergeCell ref="J116:O116"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="J68:O68"/>
+    <mergeCell ref="J69:O69"/>
+    <mergeCell ref="J70:O70"/>
+    <mergeCell ref="J71:O71"/>
+    <mergeCell ref="J72:O72"/>
+    <mergeCell ref="Z116:AE116"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="Z68:AE68"/>
+    <mergeCell ref="Z69:AE69"/>
+    <mergeCell ref="Z70:AE70"/>
+    <mergeCell ref="Z71:AE71"/>
+    <mergeCell ref="Z72:AE72"/>
+    <mergeCell ref="R95:W95"/>
+    <mergeCell ref="R96:W96"/>
+    <mergeCell ref="R116:W116"/>
+    <mergeCell ref="R48:W48"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="R92:W92"/>
+    <mergeCell ref="R93:W93"/>
+    <mergeCell ref="R94:W94"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="Z92:AE92"/>
+    <mergeCell ref="Z93:AE93"/>
+    <mergeCell ref="Z94:AE94"/>
+    <mergeCell ref="Z95:AE95"/>
+    <mergeCell ref="Z96:AE96"/>
+    <mergeCell ref="R45:W45"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="R47:W47"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="R120:W120"/>
+    <mergeCell ref="Z20:AE20"/>
+    <mergeCell ref="Z21:AE21"/>
+    <mergeCell ref="Z22:AE22"/>
+    <mergeCell ref="R119:W119"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="AH46:AM46"/>
+    <mergeCell ref="AH47:AM47"/>
+    <mergeCell ref="AH48:AM48"/>
+    <mergeCell ref="AH68:AM68"/>
+    <mergeCell ref="AH71:AM71"/>
+    <mergeCell ref="AH72:AM72"/>
+    <mergeCell ref="AH92:AM92"/>
+    <mergeCell ref="AH93:AM93"/>
+    <mergeCell ref="AH44:AM44"/>
+    <mergeCell ref="AH45:AM45"/>
+    <mergeCell ref="Z23:AE23"/>
+    <mergeCell ref="Z24:AE24"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="Z46:AE46"/>
+    <mergeCell ref="Z47:AE47"/>
+    <mergeCell ref="Z119:AE119"/>
+    <mergeCell ref="Z120:AE120"/>
+    <mergeCell ref="AG1:AM1"/>
+    <mergeCell ref="AH20:AM20"/>
+    <mergeCell ref="AH21:AM21"/>
+    <mergeCell ref="AH22:AM22"/>
+    <mergeCell ref="AH23:AM23"/>
+    <mergeCell ref="AH24:AM24"/>
+    <mergeCell ref="AH119:AM119"/>
+    <mergeCell ref="AH120:AM120"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="AP20:AU20"/>
+    <mergeCell ref="AP21:AU21"/>
+    <mergeCell ref="AP22:AU22"/>
+    <mergeCell ref="AP23:AU23"/>
+    <mergeCell ref="AP24:AU24"/>
+    <mergeCell ref="AP44:AU44"/>
+    <mergeCell ref="AP45:AU45"/>
+    <mergeCell ref="AH94:AM94"/>
+    <mergeCell ref="AH95:AM95"/>
+    <mergeCell ref="AH96:AM96"/>
+    <mergeCell ref="AH116:AM116"/>
+    <mergeCell ref="AH117:AM117"/>
+    <mergeCell ref="AH118:AM118"/>
+    <mergeCell ref="AH69:AM69"/>
+    <mergeCell ref="AH70:AM70"/>
+    <mergeCell ref="AP118:AU118"/>
+    <mergeCell ref="AP119:AU119"/>
+    <mergeCell ref="AP120:AU120"/>
+    <mergeCell ref="AP71:AU71"/>
+    <mergeCell ref="AP72:AU72"/>
+    <mergeCell ref="AP92:AU92"/>
+    <mergeCell ref="AP93:AU93"/>
+    <mergeCell ref="AP94:AU94"/>
+    <mergeCell ref="AP95:AU95"/>
     <mergeCell ref="AW1:BC1"/>
     <mergeCell ref="BE1:BK1"/>
     <mergeCell ref="AX20:BC20"/>
@@ -30462,153 +30572,43 @@
     <mergeCell ref="AX22:BC22"/>
     <mergeCell ref="BF22:BK22"/>
     <mergeCell ref="AX23:BC23"/>
-    <mergeCell ref="AP118:AU118"/>
-    <mergeCell ref="AP119:AU119"/>
-    <mergeCell ref="AP120:AU120"/>
-    <mergeCell ref="AP71:AU71"/>
-    <mergeCell ref="AP72:AU72"/>
-    <mergeCell ref="AP92:AU92"/>
-    <mergeCell ref="AP93:AU93"/>
-    <mergeCell ref="AP94:AU94"/>
-    <mergeCell ref="AP95:AU95"/>
-    <mergeCell ref="AG1:AM1"/>
-    <mergeCell ref="AH20:AM20"/>
-    <mergeCell ref="AH21:AM21"/>
-    <mergeCell ref="AH22:AM22"/>
-    <mergeCell ref="AH23:AM23"/>
-    <mergeCell ref="AH24:AM24"/>
-    <mergeCell ref="AH119:AM119"/>
-    <mergeCell ref="AH120:AM120"/>
-    <mergeCell ref="AO1:AU1"/>
-    <mergeCell ref="AP20:AU20"/>
-    <mergeCell ref="AP21:AU21"/>
-    <mergeCell ref="AP22:AU22"/>
-    <mergeCell ref="AP23:AU23"/>
-    <mergeCell ref="AP24:AU24"/>
-    <mergeCell ref="AP44:AU44"/>
-    <mergeCell ref="AP45:AU45"/>
-    <mergeCell ref="AH94:AM94"/>
-    <mergeCell ref="AH95:AM95"/>
-    <mergeCell ref="AH96:AM96"/>
-    <mergeCell ref="AH116:AM116"/>
-    <mergeCell ref="AH117:AM117"/>
-    <mergeCell ref="AH118:AM118"/>
-    <mergeCell ref="AH69:AM69"/>
-    <mergeCell ref="AH70:AM70"/>
-    <mergeCell ref="R120:W120"/>
-    <mergeCell ref="Z20:AE20"/>
-    <mergeCell ref="Z21:AE21"/>
-    <mergeCell ref="Z22:AE22"/>
-    <mergeCell ref="R119:W119"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="AH46:AM46"/>
-    <mergeCell ref="AH47:AM47"/>
-    <mergeCell ref="AH48:AM48"/>
-    <mergeCell ref="AH68:AM68"/>
-    <mergeCell ref="AH71:AM71"/>
-    <mergeCell ref="AH72:AM72"/>
-    <mergeCell ref="AH92:AM92"/>
-    <mergeCell ref="AH93:AM93"/>
-    <mergeCell ref="AH44:AM44"/>
-    <mergeCell ref="AH45:AM45"/>
-    <mergeCell ref="Z23:AE23"/>
-    <mergeCell ref="Z24:AE24"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="Z46:AE46"/>
-    <mergeCell ref="Z47:AE47"/>
-    <mergeCell ref="Z119:AE119"/>
-    <mergeCell ref="Z120:AE120"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="Z92:AE92"/>
-    <mergeCell ref="Z93:AE93"/>
-    <mergeCell ref="Z94:AE94"/>
-    <mergeCell ref="Z95:AE95"/>
-    <mergeCell ref="Z96:AE96"/>
-    <mergeCell ref="R45:W45"/>
-    <mergeCell ref="R46:W46"/>
-    <mergeCell ref="R47:W47"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="Z116:AE116"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="Z68:AE68"/>
-    <mergeCell ref="Z69:AE69"/>
-    <mergeCell ref="Z70:AE70"/>
-    <mergeCell ref="Z71:AE71"/>
-    <mergeCell ref="Z72:AE72"/>
-    <mergeCell ref="R95:W95"/>
-    <mergeCell ref="R96:W96"/>
-    <mergeCell ref="R116:W116"/>
-    <mergeCell ref="R48:W48"/>
-    <mergeCell ref="R68:W68"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="R72:W72"/>
-    <mergeCell ref="R92:W92"/>
-    <mergeCell ref="R93:W93"/>
-    <mergeCell ref="R94:W94"/>
-    <mergeCell ref="Z117:AE117"/>
-    <mergeCell ref="Z118:AE118"/>
-    <mergeCell ref="J117:O117"/>
-    <mergeCell ref="J118:O118"/>
-    <mergeCell ref="J119:O119"/>
-    <mergeCell ref="J120:O120"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="R21:W21"/>
-    <mergeCell ref="R22:W22"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="R44:W44"/>
-    <mergeCell ref="J92:O92"/>
-    <mergeCell ref="J93:O93"/>
-    <mergeCell ref="J94:O94"/>
-    <mergeCell ref="J95:O95"/>
-    <mergeCell ref="J96:O96"/>
-    <mergeCell ref="J116:O116"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="J68:O68"/>
-    <mergeCell ref="J69:O69"/>
-    <mergeCell ref="J70:O70"/>
-    <mergeCell ref="J71:O71"/>
-    <mergeCell ref="J72:O72"/>
-    <mergeCell ref="R117:W117"/>
-    <mergeCell ref="R118:W118"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="J45:O45"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="BF23:BK23"/>
+    <mergeCell ref="AX24:BC24"/>
+    <mergeCell ref="BF24:BK24"/>
+    <mergeCell ref="AX69:BC69"/>
+    <mergeCell ref="BF69:BK69"/>
+    <mergeCell ref="AX70:BC70"/>
+    <mergeCell ref="BF70:BK70"/>
+    <mergeCell ref="AX71:BC71"/>
+    <mergeCell ref="BF71:BK71"/>
+    <mergeCell ref="AX47:BC47"/>
+    <mergeCell ref="BF47:BK47"/>
+    <mergeCell ref="AX48:BC48"/>
+    <mergeCell ref="BF48:BK48"/>
+    <mergeCell ref="AX68:BC68"/>
+    <mergeCell ref="BF68:BK68"/>
+    <mergeCell ref="AX94:BC94"/>
+    <mergeCell ref="BF94:BK94"/>
+    <mergeCell ref="AX95:BC95"/>
+    <mergeCell ref="BF95:BK95"/>
+    <mergeCell ref="AX96:BC96"/>
+    <mergeCell ref="BF96:BK96"/>
+    <mergeCell ref="AX72:BC72"/>
+    <mergeCell ref="BF72:BK72"/>
+    <mergeCell ref="AX92:BC92"/>
+    <mergeCell ref="BF92:BK92"/>
+    <mergeCell ref="AX93:BC93"/>
+    <mergeCell ref="BF93:BK93"/>
+    <mergeCell ref="AX119:BC119"/>
+    <mergeCell ref="BF119:BK119"/>
+    <mergeCell ref="AX120:BC120"/>
+    <mergeCell ref="BF120:BK120"/>
+    <mergeCell ref="AX116:BC116"/>
+    <mergeCell ref="BF116:BK116"/>
+    <mergeCell ref="AX117:BC117"/>
+    <mergeCell ref="BF117:BK117"/>
+    <mergeCell ref="AX118:BC118"/>
+    <mergeCell ref="BF118:BK118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
@@ -30619,7 +30619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -50512,6 +50512,198 @@
     </row>
   </sheetData>
   <mergeCells count="208">
+    <mergeCell ref="AW1:BC1"/>
+    <mergeCell ref="BE1:BK1"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="Z20:AE20"/>
+    <mergeCell ref="AH20:AM20"/>
+    <mergeCell ref="AP20:AU20"/>
+    <mergeCell ref="AX20:BC20"/>
+    <mergeCell ref="BF20:BK20"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AG1:AM1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="AX21:BC21"/>
+    <mergeCell ref="BF21:BK21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="R22:W22"/>
+    <mergeCell ref="Z22:AE22"/>
+    <mergeCell ref="AH22:AM22"/>
+    <mergeCell ref="AP22:AU22"/>
+    <mergeCell ref="AX22:BC22"/>
+    <mergeCell ref="BF22:BK22"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="R21:W21"/>
+    <mergeCell ref="Z21:AE21"/>
+    <mergeCell ref="AH21:AM21"/>
+    <mergeCell ref="AP21:AU21"/>
+    <mergeCell ref="AX23:BC23"/>
+    <mergeCell ref="BF23:BK23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="Z24:AE24"/>
+    <mergeCell ref="AH24:AM24"/>
+    <mergeCell ref="AP24:AU24"/>
+    <mergeCell ref="AX24:BC24"/>
+    <mergeCell ref="BF24:BK24"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="Z23:AE23"/>
+    <mergeCell ref="AH23:AM23"/>
+    <mergeCell ref="AP23:AU23"/>
+    <mergeCell ref="AX44:BC44"/>
+    <mergeCell ref="BF44:BK44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="J45:O45"/>
+    <mergeCell ref="R45:W45"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="AH45:AM45"/>
+    <mergeCell ref="AP45:AU45"/>
+    <mergeCell ref="AX45:BC45"/>
+    <mergeCell ref="BF45:BK45"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="R44:W44"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="AH44:AM44"/>
+    <mergeCell ref="AP44:AU44"/>
+    <mergeCell ref="AX46:BC46"/>
+    <mergeCell ref="BF46:BK46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="R47:W47"/>
+    <mergeCell ref="Z47:AE47"/>
+    <mergeCell ref="AH47:AM47"/>
+    <mergeCell ref="AP47:AU47"/>
+    <mergeCell ref="AX47:BC47"/>
+    <mergeCell ref="BF47:BK47"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="Z46:AE46"/>
+    <mergeCell ref="AH46:AM46"/>
+    <mergeCell ref="AP46:AU46"/>
+    <mergeCell ref="AX48:BC48"/>
+    <mergeCell ref="BF48:BK48"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="J68:O68"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="Z68:AE68"/>
+    <mergeCell ref="AH68:AM68"/>
+    <mergeCell ref="AP68:AU68"/>
+    <mergeCell ref="AX68:BC68"/>
+    <mergeCell ref="BF68:BK68"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="R48:W48"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="AH48:AM48"/>
+    <mergeCell ref="AP48:AU48"/>
+    <mergeCell ref="AX69:BC69"/>
+    <mergeCell ref="BF69:BK69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="J70:O70"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="Z70:AE70"/>
+    <mergeCell ref="AH70:AM70"/>
+    <mergeCell ref="AP70:AU70"/>
+    <mergeCell ref="AX70:BC70"/>
+    <mergeCell ref="BF70:BK70"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="J69:O69"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="Z69:AE69"/>
+    <mergeCell ref="AH69:AM69"/>
+    <mergeCell ref="AP69:AU69"/>
+    <mergeCell ref="AX71:BC71"/>
+    <mergeCell ref="BF71:BK71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="J72:O72"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="Z72:AE72"/>
+    <mergeCell ref="AH72:AM72"/>
+    <mergeCell ref="AP72:AU72"/>
+    <mergeCell ref="AX72:BC72"/>
+    <mergeCell ref="BF72:BK72"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="J71:O71"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="Z71:AE71"/>
+    <mergeCell ref="AH71:AM71"/>
+    <mergeCell ref="AP71:AU71"/>
+    <mergeCell ref="AX92:BC92"/>
+    <mergeCell ref="BF92:BK92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="J93:O93"/>
+    <mergeCell ref="R93:W93"/>
+    <mergeCell ref="Z93:AE93"/>
+    <mergeCell ref="AH93:AM93"/>
+    <mergeCell ref="AP93:AU93"/>
+    <mergeCell ref="AX93:BC93"/>
+    <mergeCell ref="BF93:BK93"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="J92:O92"/>
+    <mergeCell ref="R92:W92"/>
+    <mergeCell ref="Z92:AE92"/>
+    <mergeCell ref="AH92:AM92"/>
+    <mergeCell ref="AP92:AU92"/>
+    <mergeCell ref="AX94:BC94"/>
+    <mergeCell ref="BF94:BK94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="J95:O95"/>
+    <mergeCell ref="R95:W95"/>
+    <mergeCell ref="Z95:AE95"/>
+    <mergeCell ref="AH95:AM95"/>
+    <mergeCell ref="AP95:AU95"/>
+    <mergeCell ref="AX95:BC95"/>
+    <mergeCell ref="BF95:BK95"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="J94:O94"/>
+    <mergeCell ref="R94:W94"/>
+    <mergeCell ref="Z94:AE94"/>
+    <mergeCell ref="AH94:AM94"/>
+    <mergeCell ref="AP94:AU94"/>
+    <mergeCell ref="AX96:BC96"/>
+    <mergeCell ref="BF96:BK96"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="J116:O116"/>
+    <mergeCell ref="R116:W116"/>
+    <mergeCell ref="Z116:AE116"/>
+    <mergeCell ref="AH116:AM116"/>
+    <mergeCell ref="AP116:AU116"/>
+    <mergeCell ref="AX116:BC116"/>
+    <mergeCell ref="BF116:BK116"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="J96:O96"/>
+    <mergeCell ref="R96:W96"/>
+    <mergeCell ref="Z96:AE96"/>
+    <mergeCell ref="AH96:AM96"/>
+    <mergeCell ref="AP96:AU96"/>
+    <mergeCell ref="AX117:BC117"/>
+    <mergeCell ref="BF117:BK117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="J118:O118"/>
+    <mergeCell ref="R118:W118"/>
+    <mergeCell ref="Z118:AE118"/>
+    <mergeCell ref="AH118:AM118"/>
+    <mergeCell ref="AP118:AU118"/>
+    <mergeCell ref="AX118:BC118"/>
+    <mergeCell ref="BF118:BK118"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="J117:O117"/>
+    <mergeCell ref="R117:W117"/>
+    <mergeCell ref="Z117:AE117"/>
+    <mergeCell ref="AH117:AM117"/>
+    <mergeCell ref="AP117:AU117"/>
     <mergeCell ref="AX119:BC119"/>
     <mergeCell ref="BF119:BK119"/>
     <mergeCell ref="B120:G120"/>
@@ -50528,198 +50720,6 @@
     <mergeCell ref="Z119:AE119"/>
     <mergeCell ref="AH119:AM119"/>
     <mergeCell ref="AP119:AU119"/>
-    <mergeCell ref="AX117:BC117"/>
-    <mergeCell ref="BF117:BK117"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="J118:O118"/>
-    <mergeCell ref="R118:W118"/>
-    <mergeCell ref="Z118:AE118"/>
-    <mergeCell ref="AH118:AM118"/>
-    <mergeCell ref="AP118:AU118"/>
-    <mergeCell ref="AX118:BC118"/>
-    <mergeCell ref="BF118:BK118"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="J117:O117"/>
-    <mergeCell ref="R117:W117"/>
-    <mergeCell ref="Z117:AE117"/>
-    <mergeCell ref="AH117:AM117"/>
-    <mergeCell ref="AP117:AU117"/>
-    <mergeCell ref="AX96:BC96"/>
-    <mergeCell ref="BF96:BK96"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="J116:O116"/>
-    <mergeCell ref="R116:W116"/>
-    <mergeCell ref="Z116:AE116"/>
-    <mergeCell ref="AH116:AM116"/>
-    <mergeCell ref="AP116:AU116"/>
-    <mergeCell ref="AX116:BC116"/>
-    <mergeCell ref="BF116:BK116"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="J96:O96"/>
-    <mergeCell ref="R96:W96"/>
-    <mergeCell ref="Z96:AE96"/>
-    <mergeCell ref="AH96:AM96"/>
-    <mergeCell ref="AP96:AU96"/>
-    <mergeCell ref="AX94:BC94"/>
-    <mergeCell ref="BF94:BK94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="J95:O95"/>
-    <mergeCell ref="R95:W95"/>
-    <mergeCell ref="Z95:AE95"/>
-    <mergeCell ref="AH95:AM95"/>
-    <mergeCell ref="AP95:AU95"/>
-    <mergeCell ref="AX95:BC95"/>
-    <mergeCell ref="BF95:BK95"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="J94:O94"/>
-    <mergeCell ref="R94:W94"/>
-    <mergeCell ref="Z94:AE94"/>
-    <mergeCell ref="AH94:AM94"/>
-    <mergeCell ref="AP94:AU94"/>
-    <mergeCell ref="AX92:BC92"/>
-    <mergeCell ref="BF92:BK92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="J93:O93"/>
-    <mergeCell ref="R93:W93"/>
-    <mergeCell ref="Z93:AE93"/>
-    <mergeCell ref="AH93:AM93"/>
-    <mergeCell ref="AP93:AU93"/>
-    <mergeCell ref="AX93:BC93"/>
-    <mergeCell ref="BF93:BK93"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="J92:O92"/>
-    <mergeCell ref="R92:W92"/>
-    <mergeCell ref="Z92:AE92"/>
-    <mergeCell ref="AH92:AM92"/>
-    <mergeCell ref="AP92:AU92"/>
-    <mergeCell ref="AX71:BC71"/>
-    <mergeCell ref="BF71:BK71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="J72:O72"/>
-    <mergeCell ref="R72:W72"/>
-    <mergeCell ref="Z72:AE72"/>
-    <mergeCell ref="AH72:AM72"/>
-    <mergeCell ref="AP72:AU72"/>
-    <mergeCell ref="AX72:BC72"/>
-    <mergeCell ref="BF72:BK72"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="J71:O71"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="Z71:AE71"/>
-    <mergeCell ref="AH71:AM71"/>
-    <mergeCell ref="AP71:AU71"/>
-    <mergeCell ref="AX69:BC69"/>
-    <mergeCell ref="BF69:BK69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="J70:O70"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="Z70:AE70"/>
-    <mergeCell ref="AH70:AM70"/>
-    <mergeCell ref="AP70:AU70"/>
-    <mergeCell ref="AX70:BC70"/>
-    <mergeCell ref="BF70:BK70"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="J69:O69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="Z69:AE69"/>
-    <mergeCell ref="AH69:AM69"/>
-    <mergeCell ref="AP69:AU69"/>
-    <mergeCell ref="AX48:BC48"/>
-    <mergeCell ref="BF48:BK48"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="J68:O68"/>
-    <mergeCell ref="R68:W68"/>
-    <mergeCell ref="Z68:AE68"/>
-    <mergeCell ref="AH68:AM68"/>
-    <mergeCell ref="AP68:AU68"/>
-    <mergeCell ref="AX68:BC68"/>
-    <mergeCell ref="BF68:BK68"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="R48:W48"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="AH48:AM48"/>
-    <mergeCell ref="AP48:AU48"/>
-    <mergeCell ref="AX46:BC46"/>
-    <mergeCell ref="BF46:BK46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="R47:W47"/>
-    <mergeCell ref="Z47:AE47"/>
-    <mergeCell ref="AH47:AM47"/>
-    <mergeCell ref="AP47:AU47"/>
-    <mergeCell ref="AX47:BC47"/>
-    <mergeCell ref="BF47:BK47"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="R46:W46"/>
-    <mergeCell ref="Z46:AE46"/>
-    <mergeCell ref="AH46:AM46"/>
-    <mergeCell ref="AP46:AU46"/>
-    <mergeCell ref="AX44:BC44"/>
-    <mergeCell ref="BF44:BK44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="J45:O45"/>
-    <mergeCell ref="R45:W45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="AH45:AM45"/>
-    <mergeCell ref="AP45:AU45"/>
-    <mergeCell ref="AX45:BC45"/>
-    <mergeCell ref="BF45:BK45"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="R44:W44"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="AH44:AM44"/>
-    <mergeCell ref="AP44:AU44"/>
-    <mergeCell ref="AX23:BC23"/>
-    <mergeCell ref="BF23:BK23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="Z24:AE24"/>
-    <mergeCell ref="AH24:AM24"/>
-    <mergeCell ref="AP24:AU24"/>
-    <mergeCell ref="AX24:BC24"/>
-    <mergeCell ref="BF24:BK24"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="Z23:AE23"/>
-    <mergeCell ref="AH23:AM23"/>
-    <mergeCell ref="AP23:AU23"/>
-    <mergeCell ref="AX21:BC21"/>
-    <mergeCell ref="BF21:BK21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="R22:W22"/>
-    <mergeCell ref="Z22:AE22"/>
-    <mergeCell ref="AH22:AM22"/>
-    <mergeCell ref="AP22:AU22"/>
-    <mergeCell ref="AX22:BC22"/>
-    <mergeCell ref="BF22:BK22"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="R21:W21"/>
-    <mergeCell ref="Z21:AE21"/>
-    <mergeCell ref="AH21:AM21"/>
-    <mergeCell ref="AP21:AU21"/>
-    <mergeCell ref="AW1:BC1"/>
-    <mergeCell ref="BE1:BK1"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="Z20:AE20"/>
-    <mergeCell ref="AH20:AM20"/>
-    <mergeCell ref="AP20:AU20"/>
-    <mergeCell ref="AX20:BC20"/>
-    <mergeCell ref="BF20:BK20"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="AG1:AM1"/>
-    <mergeCell ref="AO1:AU1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -70606,6 +70606,198 @@
     </row>
   </sheetData>
   <mergeCells count="208">
+    <mergeCell ref="AW1:BC1"/>
+    <mergeCell ref="BE1:BK1"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="J20:O20"/>
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="Z20:AE20"/>
+    <mergeCell ref="AH20:AM20"/>
+    <mergeCell ref="AP20:AU20"/>
+    <mergeCell ref="AX20:BC20"/>
+    <mergeCell ref="BF20:BK20"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="AG1:AM1"/>
+    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="AX21:BC21"/>
+    <mergeCell ref="BF21:BK21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="R22:W22"/>
+    <mergeCell ref="Z22:AE22"/>
+    <mergeCell ref="AH22:AM22"/>
+    <mergeCell ref="AP22:AU22"/>
+    <mergeCell ref="AX22:BC22"/>
+    <mergeCell ref="BF22:BK22"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="R21:W21"/>
+    <mergeCell ref="Z21:AE21"/>
+    <mergeCell ref="AH21:AM21"/>
+    <mergeCell ref="AP21:AU21"/>
+    <mergeCell ref="AX23:BC23"/>
+    <mergeCell ref="BF23:BK23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="Z24:AE24"/>
+    <mergeCell ref="AH24:AM24"/>
+    <mergeCell ref="AP24:AU24"/>
+    <mergeCell ref="AX24:BC24"/>
+    <mergeCell ref="BF24:BK24"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="Z23:AE23"/>
+    <mergeCell ref="AH23:AM23"/>
+    <mergeCell ref="AP23:AU23"/>
+    <mergeCell ref="AX44:BC44"/>
+    <mergeCell ref="BF44:BK44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="J45:O45"/>
+    <mergeCell ref="R45:W45"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="AH45:AM45"/>
+    <mergeCell ref="AP45:AU45"/>
+    <mergeCell ref="AX45:BC45"/>
+    <mergeCell ref="BF45:BK45"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="R44:W44"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="AH44:AM44"/>
+    <mergeCell ref="AP44:AU44"/>
+    <mergeCell ref="AX46:BC46"/>
+    <mergeCell ref="BF46:BK46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="R47:W47"/>
+    <mergeCell ref="Z47:AE47"/>
+    <mergeCell ref="AH47:AM47"/>
+    <mergeCell ref="AP47:AU47"/>
+    <mergeCell ref="AX47:BC47"/>
+    <mergeCell ref="BF47:BK47"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="Z46:AE46"/>
+    <mergeCell ref="AH46:AM46"/>
+    <mergeCell ref="AP46:AU46"/>
+    <mergeCell ref="AX48:BC48"/>
+    <mergeCell ref="BF48:BK48"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="J68:O68"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="Z68:AE68"/>
+    <mergeCell ref="AH68:AM68"/>
+    <mergeCell ref="AP68:AU68"/>
+    <mergeCell ref="AX68:BC68"/>
+    <mergeCell ref="BF68:BK68"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="R48:W48"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="AH48:AM48"/>
+    <mergeCell ref="AP48:AU48"/>
+    <mergeCell ref="AX69:BC69"/>
+    <mergeCell ref="BF69:BK69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="J70:O70"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="Z70:AE70"/>
+    <mergeCell ref="AH70:AM70"/>
+    <mergeCell ref="AP70:AU70"/>
+    <mergeCell ref="AX70:BC70"/>
+    <mergeCell ref="BF70:BK70"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="J69:O69"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="Z69:AE69"/>
+    <mergeCell ref="AH69:AM69"/>
+    <mergeCell ref="AP69:AU69"/>
+    <mergeCell ref="AX71:BC71"/>
+    <mergeCell ref="BF71:BK71"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="J72:O72"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="Z72:AE72"/>
+    <mergeCell ref="AH72:AM72"/>
+    <mergeCell ref="AP72:AU72"/>
+    <mergeCell ref="AX72:BC72"/>
+    <mergeCell ref="BF72:BK72"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="J71:O71"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="Z71:AE71"/>
+    <mergeCell ref="AH71:AM71"/>
+    <mergeCell ref="AP71:AU71"/>
+    <mergeCell ref="AX92:BC92"/>
+    <mergeCell ref="BF92:BK92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="J93:O93"/>
+    <mergeCell ref="R93:W93"/>
+    <mergeCell ref="Z93:AE93"/>
+    <mergeCell ref="AH93:AM93"/>
+    <mergeCell ref="AP93:AU93"/>
+    <mergeCell ref="AX93:BC93"/>
+    <mergeCell ref="BF93:BK93"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="J92:O92"/>
+    <mergeCell ref="R92:W92"/>
+    <mergeCell ref="Z92:AE92"/>
+    <mergeCell ref="AH92:AM92"/>
+    <mergeCell ref="AP92:AU92"/>
+    <mergeCell ref="AX94:BC94"/>
+    <mergeCell ref="BF94:BK94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="J95:O95"/>
+    <mergeCell ref="R95:W95"/>
+    <mergeCell ref="Z95:AE95"/>
+    <mergeCell ref="AH95:AM95"/>
+    <mergeCell ref="AP95:AU95"/>
+    <mergeCell ref="AX95:BC95"/>
+    <mergeCell ref="BF95:BK95"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="J94:O94"/>
+    <mergeCell ref="R94:W94"/>
+    <mergeCell ref="Z94:AE94"/>
+    <mergeCell ref="AH94:AM94"/>
+    <mergeCell ref="AP94:AU94"/>
+    <mergeCell ref="AX96:BC96"/>
+    <mergeCell ref="BF96:BK96"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="J116:O116"/>
+    <mergeCell ref="R116:W116"/>
+    <mergeCell ref="Z116:AE116"/>
+    <mergeCell ref="AH116:AM116"/>
+    <mergeCell ref="AP116:AU116"/>
+    <mergeCell ref="AX116:BC116"/>
+    <mergeCell ref="BF116:BK116"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="J96:O96"/>
+    <mergeCell ref="R96:W96"/>
+    <mergeCell ref="Z96:AE96"/>
+    <mergeCell ref="AH96:AM96"/>
+    <mergeCell ref="AP96:AU96"/>
+    <mergeCell ref="AX117:BC117"/>
+    <mergeCell ref="BF117:BK117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="J118:O118"/>
+    <mergeCell ref="R118:W118"/>
+    <mergeCell ref="Z118:AE118"/>
+    <mergeCell ref="AH118:AM118"/>
+    <mergeCell ref="AP118:AU118"/>
+    <mergeCell ref="AX118:BC118"/>
+    <mergeCell ref="BF118:BK118"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="J117:O117"/>
+    <mergeCell ref="R117:W117"/>
+    <mergeCell ref="Z117:AE117"/>
+    <mergeCell ref="AH117:AM117"/>
+    <mergeCell ref="AP117:AU117"/>
     <mergeCell ref="AX119:BC119"/>
     <mergeCell ref="BF119:BK119"/>
     <mergeCell ref="B120:G120"/>
@@ -70622,198 +70814,6 @@
     <mergeCell ref="Z119:AE119"/>
     <mergeCell ref="AH119:AM119"/>
     <mergeCell ref="AP119:AU119"/>
-    <mergeCell ref="AX117:BC117"/>
-    <mergeCell ref="BF117:BK117"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="J118:O118"/>
-    <mergeCell ref="R118:W118"/>
-    <mergeCell ref="Z118:AE118"/>
-    <mergeCell ref="AH118:AM118"/>
-    <mergeCell ref="AP118:AU118"/>
-    <mergeCell ref="AX118:BC118"/>
-    <mergeCell ref="BF118:BK118"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="J117:O117"/>
-    <mergeCell ref="R117:W117"/>
-    <mergeCell ref="Z117:AE117"/>
-    <mergeCell ref="AH117:AM117"/>
-    <mergeCell ref="AP117:AU117"/>
-    <mergeCell ref="AX96:BC96"/>
-    <mergeCell ref="BF96:BK96"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="J116:O116"/>
-    <mergeCell ref="R116:W116"/>
-    <mergeCell ref="Z116:AE116"/>
-    <mergeCell ref="AH116:AM116"/>
-    <mergeCell ref="AP116:AU116"/>
-    <mergeCell ref="AX116:BC116"/>
-    <mergeCell ref="BF116:BK116"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="J96:O96"/>
-    <mergeCell ref="R96:W96"/>
-    <mergeCell ref="Z96:AE96"/>
-    <mergeCell ref="AH96:AM96"/>
-    <mergeCell ref="AP96:AU96"/>
-    <mergeCell ref="AX94:BC94"/>
-    <mergeCell ref="BF94:BK94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="J95:O95"/>
-    <mergeCell ref="R95:W95"/>
-    <mergeCell ref="Z95:AE95"/>
-    <mergeCell ref="AH95:AM95"/>
-    <mergeCell ref="AP95:AU95"/>
-    <mergeCell ref="AX95:BC95"/>
-    <mergeCell ref="BF95:BK95"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="J94:O94"/>
-    <mergeCell ref="R94:W94"/>
-    <mergeCell ref="Z94:AE94"/>
-    <mergeCell ref="AH94:AM94"/>
-    <mergeCell ref="AP94:AU94"/>
-    <mergeCell ref="AX92:BC92"/>
-    <mergeCell ref="BF92:BK92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="J93:O93"/>
-    <mergeCell ref="R93:W93"/>
-    <mergeCell ref="Z93:AE93"/>
-    <mergeCell ref="AH93:AM93"/>
-    <mergeCell ref="AP93:AU93"/>
-    <mergeCell ref="AX93:BC93"/>
-    <mergeCell ref="BF93:BK93"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="J92:O92"/>
-    <mergeCell ref="R92:W92"/>
-    <mergeCell ref="Z92:AE92"/>
-    <mergeCell ref="AH92:AM92"/>
-    <mergeCell ref="AP92:AU92"/>
-    <mergeCell ref="AX71:BC71"/>
-    <mergeCell ref="BF71:BK71"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="J72:O72"/>
-    <mergeCell ref="R72:W72"/>
-    <mergeCell ref="Z72:AE72"/>
-    <mergeCell ref="AH72:AM72"/>
-    <mergeCell ref="AP72:AU72"/>
-    <mergeCell ref="AX72:BC72"/>
-    <mergeCell ref="BF72:BK72"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="J71:O71"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="Z71:AE71"/>
-    <mergeCell ref="AH71:AM71"/>
-    <mergeCell ref="AP71:AU71"/>
-    <mergeCell ref="AX69:BC69"/>
-    <mergeCell ref="BF69:BK69"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="J70:O70"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="Z70:AE70"/>
-    <mergeCell ref="AH70:AM70"/>
-    <mergeCell ref="AP70:AU70"/>
-    <mergeCell ref="AX70:BC70"/>
-    <mergeCell ref="BF70:BK70"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="J69:O69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="Z69:AE69"/>
-    <mergeCell ref="AH69:AM69"/>
-    <mergeCell ref="AP69:AU69"/>
-    <mergeCell ref="AX48:BC48"/>
-    <mergeCell ref="BF48:BK48"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="J68:O68"/>
-    <mergeCell ref="R68:W68"/>
-    <mergeCell ref="Z68:AE68"/>
-    <mergeCell ref="AH68:AM68"/>
-    <mergeCell ref="AP68:AU68"/>
-    <mergeCell ref="AX68:BC68"/>
-    <mergeCell ref="BF68:BK68"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="R48:W48"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="AH48:AM48"/>
-    <mergeCell ref="AP48:AU48"/>
-    <mergeCell ref="AX46:BC46"/>
-    <mergeCell ref="BF46:BK46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="R47:W47"/>
-    <mergeCell ref="Z47:AE47"/>
-    <mergeCell ref="AH47:AM47"/>
-    <mergeCell ref="AP47:AU47"/>
-    <mergeCell ref="AX47:BC47"/>
-    <mergeCell ref="BF47:BK47"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="R46:W46"/>
-    <mergeCell ref="Z46:AE46"/>
-    <mergeCell ref="AH46:AM46"/>
-    <mergeCell ref="AP46:AU46"/>
-    <mergeCell ref="AX44:BC44"/>
-    <mergeCell ref="BF44:BK44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="J45:O45"/>
-    <mergeCell ref="R45:W45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="AH45:AM45"/>
-    <mergeCell ref="AP45:AU45"/>
-    <mergeCell ref="AX45:BC45"/>
-    <mergeCell ref="BF45:BK45"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="R44:W44"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="AH44:AM44"/>
-    <mergeCell ref="AP44:AU44"/>
-    <mergeCell ref="AX23:BC23"/>
-    <mergeCell ref="BF23:BK23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="Z24:AE24"/>
-    <mergeCell ref="AH24:AM24"/>
-    <mergeCell ref="AP24:AU24"/>
-    <mergeCell ref="AX24:BC24"/>
-    <mergeCell ref="BF24:BK24"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="Z23:AE23"/>
-    <mergeCell ref="AH23:AM23"/>
-    <mergeCell ref="AP23:AU23"/>
-    <mergeCell ref="AX21:BC21"/>
-    <mergeCell ref="BF21:BK21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="R22:W22"/>
-    <mergeCell ref="Z22:AE22"/>
-    <mergeCell ref="AH22:AM22"/>
-    <mergeCell ref="AP22:AU22"/>
-    <mergeCell ref="AX22:BC22"/>
-    <mergeCell ref="BF22:BK22"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="R21:W21"/>
-    <mergeCell ref="Z21:AE21"/>
-    <mergeCell ref="AH21:AM21"/>
-    <mergeCell ref="AP21:AU21"/>
-    <mergeCell ref="AW1:BC1"/>
-    <mergeCell ref="BE1:BK1"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="Z20:AE20"/>
-    <mergeCell ref="AH20:AM20"/>
-    <mergeCell ref="AP20:AU20"/>
-    <mergeCell ref="AX20:BC20"/>
-    <mergeCell ref="BF20:BK20"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="Q1:W1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="AG1:AM1"/>
-    <mergeCell ref="AO1:AU1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GameData/SSTU/Parts/Parts-MassCalc.xlsx
+++ b/GameData/SSTU/Parts/Parts-MassCalc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="parts" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="dV-Calc-SC-B" sheetId="3" r:id="rId3"/>
     <sheet name="FuelTypes" sheetId="6" r:id="rId4"/>
     <sheet name="Resource Data" sheetId="5" r:id="rId5"/>
+    <sheet name="TankVolumes" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="318">
   <si>
     <t>Part</t>
   </si>
@@ -865,6 +866,114 @@
   <si>
     <t>Entry Cost</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Nose1</t>
+  </si>
+  <si>
+    <t>Nose2</t>
+  </si>
+  <si>
+    <t>Nose3</t>
+  </si>
+  <si>
+    <t>Nose4</t>
+  </si>
+  <si>
+    <t>Nose5</t>
+  </si>
+  <si>
+    <t>2-1-flat</t>
+  </si>
+  <si>
+    <t>2-1-long</t>
+  </si>
+  <si>
+    <t>2-1-short</t>
+  </si>
+  <si>
+    <t>4-3-flat</t>
+  </si>
+  <si>
+    <t>4-3-long</t>
+  </si>
+  <si>
+    <t>4-3-short</t>
+  </si>
+  <si>
+    <t>2-1-x2</t>
+  </si>
+  <si>
+    <t>2-1-x3</t>
+  </si>
+  <si>
+    <t>2-1-x4</t>
+  </si>
+  <si>
+    <t>1-1-x2</t>
+  </si>
+  <si>
+    <t>1-1-x3</t>
+  </si>
+  <si>
+    <t>1-1-x4</t>
+  </si>
+  <si>
+    <t>4-3-x2</t>
+  </si>
+  <si>
+    <t>4-3-x3</t>
+  </si>
+  <si>
+    <t>4-3-x4</t>
+  </si>
+  <si>
+    <t>3-2-flat</t>
+  </si>
+  <si>
+    <t>3-2-short</t>
+  </si>
+  <si>
+    <t>3-2-long</t>
+  </si>
+  <si>
+    <t>3-1-flat</t>
+  </si>
+  <si>
+    <t>3-1-long</t>
+  </si>
+  <si>
+    <t>3-1-short</t>
+  </si>
 </sst>
 </file>
 
@@ -1188,7 +1297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1251,6 +1360,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1558,8 +1668,8 @@
   <dimension ref="A1:AC301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E66" sqref="E66"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47197,7 +47307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
@@ -69245,4 +69355,1597 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="12" style="34" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="34">
+        <v>6.25</v>
+      </c>
+      <c r="C1" s="34">
+        <v>5</v>
+      </c>
+      <c r="D1" s="34">
+        <v>3.75</v>
+      </c>
+      <c r="E1" s="34">
+        <v>2.5</v>
+      </c>
+      <c r="F1" s="34">
+        <v>1.875</v>
+      </c>
+      <c r="G1" s="34">
+        <v>1.25</v>
+      </c>
+      <c r="H1" s="34">
+        <v>0.625</v>
+      </c>
+      <c r="I1" s="34">
+        <v>6.61</v>
+      </c>
+      <c r="J1" s="34">
+        <v>8.4</v>
+      </c>
+      <c r="K1" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="34">
+        <f>B1/C1</f>
+        <v>1.25</v>
+      </c>
+      <c r="C2" s="34">
+        <v>1</v>
+      </c>
+      <c r="D2" s="34">
+        <f>D1/$C$1</f>
+        <v>0.75</v>
+      </c>
+      <c r="E2" s="34">
+        <f t="shared" ref="E2:H2" si="0">E1/$C$1</f>
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="34">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="G2" s="34">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="H2" s="34">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="I2" s="34">
+        <f t="shared" ref="I2" si="1">I1/$C$1</f>
+        <v>1.3220000000000001</v>
+      </c>
+      <c r="J2" s="34">
+        <f t="shared" ref="J2" si="2">J1/$C$1</f>
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="K2" s="34">
+        <f t="shared" ref="K2" si="3">K1/$C$1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="34">
+        <f>B$2*B$2*B$2*$C3</f>
+        <v>191.40625</v>
+      </c>
+      <c r="C3" s="34">
+        <v>98</v>
+      </c>
+      <c r="D3" s="34">
+        <f>D$2*D$2*D$2*$C3</f>
+        <v>41.34375</v>
+      </c>
+      <c r="E3" s="34">
+        <f t="shared" ref="E3:K3" si="4">E$2*E$2*E$2*$C3</f>
+        <v>12.25</v>
+      </c>
+      <c r="F3" s="34">
+        <f t="shared" si="4"/>
+        <v>5.16796875</v>
+      </c>
+      <c r="G3" s="34">
+        <f t="shared" si="4"/>
+        <v>1.53125</v>
+      </c>
+      <c r="H3" s="34">
+        <f t="shared" si="4"/>
+        <v>0.19140625</v>
+      </c>
+      <c r="I3" s="34">
+        <f t="shared" si="4"/>
+        <v>226.42294830400004</v>
+      </c>
+      <c r="J3" s="34">
+        <f t="shared" si="4"/>
+        <v>464.67993600000011</v>
+      </c>
+      <c r="K3" s="34">
+        <f t="shared" si="4"/>
+        <v>784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="34">
+        <f t="shared" ref="B4:K36" si="5">B$2*B$2*B$2*$C4</f>
+        <v>382.8125</v>
+      </c>
+      <c r="C4" s="34">
+        <v>196</v>
+      </c>
+      <c r="D4" s="34">
+        <f t="shared" si="5"/>
+        <v>82.6875</v>
+      </c>
+      <c r="E4" s="34">
+        <f t="shared" si="5"/>
+        <v>24.5</v>
+      </c>
+      <c r="F4" s="34">
+        <f t="shared" si="5"/>
+        <v>10.3359375</v>
+      </c>
+      <c r="G4" s="34">
+        <f t="shared" si="5"/>
+        <v>3.0625</v>
+      </c>
+      <c r="H4" s="34">
+        <f t="shared" si="5"/>
+        <v>0.3828125</v>
+      </c>
+      <c r="I4" s="34">
+        <f t="shared" si="5"/>
+        <v>452.84589660800009</v>
+      </c>
+      <c r="J4" s="34">
+        <f t="shared" si="5"/>
+        <v>929.35987200000022</v>
+      </c>
+      <c r="K4" s="34">
+        <f t="shared" si="5"/>
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="34">
+        <f t="shared" si="5"/>
+        <v>574.21875</v>
+      </c>
+      <c r="C5" s="34">
+        <v>294</v>
+      </c>
+      <c r="D5" s="34">
+        <f t="shared" si="5"/>
+        <v>124.03125</v>
+      </c>
+      <c r="E5" s="34">
+        <f t="shared" si="5"/>
+        <v>36.75</v>
+      </c>
+      <c r="F5" s="34">
+        <f t="shared" si="5"/>
+        <v>15.50390625</v>
+      </c>
+      <c r="G5" s="34">
+        <f t="shared" si="5"/>
+        <v>4.59375</v>
+      </c>
+      <c r="H5" s="34">
+        <f t="shared" si="5"/>
+        <v>0.57421875</v>
+      </c>
+      <c r="I5" s="34">
+        <f t="shared" si="5"/>
+        <v>679.26884491200019</v>
+      </c>
+      <c r="J5" s="34">
+        <f t="shared" si="5"/>
+        <v>1394.0398080000002</v>
+      </c>
+      <c r="K5" s="34">
+        <f t="shared" si="5"/>
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="34">
+        <f t="shared" si="5"/>
+        <v>765.625</v>
+      </c>
+      <c r="C6" s="34">
+        <v>392</v>
+      </c>
+      <c r="D6" s="34">
+        <f t="shared" si="5"/>
+        <v>165.375</v>
+      </c>
+      <c r="E6" s="34">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="F6" s="34">
+        <f t="shared" si="5"/>
+        <v>20.671875</v>
+      </c>
+      <c r="G6" s="34">
+        <f t="shared" si="5"/>
+        <v>6.125</v>
+      </c>
+      <c r="H6" s="34">
+        <f t="shared" si="5"/>
+        <v>0.765625</v>
+      </c>
+      <c r="I6" s="34">
+        <f t="shared" si="5"/>
+        <v>905.69179321600018</v>
+      </c>
+      <c r="J6" s="34">
+        <f t="shared" si="5"/>
+        <v>1858.7197440000004</v>
+      </c>
+      <c r="K6" s="34">
+        <f t="shared" si="5"/>
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B7" s="34">
+        <f t="shared" si="5"/>
+        <v>957.03125</v>
+      </c>
+      <c r="C7" s="34">
+        <v>490</v>
+      </c>
+      <c r="D7" s="34">
+        <f t="shared" si="5"/>
+        <v>206.71875</v>
+      </c>
+      <c r="E7" s="34">
+        <f t="shared" si="5"/>
+        <v>61.25</v>
+      </c>
+      <c r="F7" s="34">
+        <f t="shared" si="5"/>
+        <v>25.83984375</v>
+      </c>
+      <c r="G7" s="34">
+        <f t="shared" si="5"/>
+        <v>7.65625</v>
+      </c>
+      <c r="H7" s="34">
+        <f t="shared" si="5"/>
+        <v>0.95703125</v>
+      </c>
+      <c r="I7" s="34">
+        <f t="shared" si="5"/>
+        <v>1132.1147415200003</v>
+      </c>
+      <c r="J7" s="34">
+        <f t="shared" si="5"/>
+        <v>2323.3996800000004</v>
+      </c>
+      <c r="K7" s="34">
+        <f t="shared" si="5"/>
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" s="34">
+        <f t="shared" si="5"/>
+        <v>1152.34375</v>
+      </c>
+      <c r="C8" s="34">
+        <v>590</v>
+      </c>
+      <c r="D8" s="34">
+        <f t="shared" si="5"/>
+        <v>248.90625</v>
+      </c>
+      <c r="E8" s="34">
+        <f t="shared" si="5"/>
+        <v>73.75</v>
+      </c>
+      <c r="F8" s="34">
+        <f t="shared" si="5"/>
+        <v>31.11328125</v>
+      </c>
+      <c r="G8" s="34">
+        <f t="shared" si="5"/>
+        <v>9.21875</v>
+      </c>
+      <c r="H8" s="34">
+        <f t="shared" si="5"/>
+        <v>1.15234375</v>
+      </c>
+      <c r="I8" s="34">
+        <f t="shared" si="5"/>
+        <v>1363.1585663200003</v>
+      </c>
+      <c r="J8" s="34">
+        <f t="shared" si="5"/>
+        <v>2797.5628800000004</v>
+      </c>
+      <c r="K8" s="34">
+        <f t="shared" si="5"/>
+        <v>4720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" s="34">
+        <f t="shared" si="5"/>
+        <v>1341.796875</v>
+      </c>
+      <c r="C9" s="34">
+        <v>687</v>
+      </c>
+      <c r="D9" s="34">
+        <f t="shared" si="5"/>
+        <v>289.828125</v>
+      </c>
+      <c r="E9" s="34">
+        <f t="shared" si="5"/>
+        <v>85.875</v>
+      </c>
+      <c r="F9" s="34">
+        <f t="shared" si="5"/>
+        <v>36.228515625</v>
+      </c>
+      <c r="G9" s="34">
+        <f t="shared" si="5"/>
+        <v>10.734375</v>
+      </c>
+      <c r="H9" s="34">
+        <f t="shared" si="5"/>
+        <v>1.341796875</v>
+      </c>
+      <c r="I9" s="34">
+        <f t="shared" si="5"/>
+        <v>1587.2710763760003</v>
+      </c>
+      <c r="J9" s="34">
+        <f t="shared" si="5"/>
+        <v>3257.5011840000006</v>
+      </c>
+      <c r="K9" s="34">
+        <f t="shared" si="5"/>
+        <v>5496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="34">
+        <f t="shared" si="5"/>
+        <v>1533.203125</v>
+      </c>
+      <c r="C10" s="34">
+        <v>785</v>
+      </c>
+      <c r="D10" s="34">
+        <f t="shared" si="5"/>
+        <v>331.171875</v>
+      </c>
+      <c r="E10" s="34">
+        <f t="shared" si="5"/>
+        <v>98.125</v>
+      </c>
+      <c r="F10" s="34">
+        <f t="shared" si="5"/>
+        <v>41.396484375</v>
+      </c>
+      <c r="G10" s="34">
+        <f t="shared" si="5"/>
+        <v>12.265625</v>
+      </c>
+      <c r="H10" s="34">
+        <f t="shared" si="5"/>
+        <v>1.533203125</v>
+      </c>
+      <c r="I10" s="34">
+        <f t="shared" si="5"/>
+        <v>1813.6940246800004</v>
+      </c>
+      <c r="J10" s="34">
+        <f t="shared" si="5"/>
+        <v>3722.1811200000006</v>
+      </c>
+      <c r="K10" s="34">
+        <f t="shared" si="5"/>
+        <v>6280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>292</v>
+      </c>
+      <c r="B11" s="34">
+        <f t="shared" si="5"/>
+        <v>129.8828125</v>
+      </c>
+      <c r="C11" s="34">
+        <v>66.5</v>
+      </c>
+      <c r="D11" s="34">
+        <f t="shared" si="5"/>
+        <v>28.0546875</v>
+      </c>
+      <c r="E11" s="34">
+        <f t="shared" si="5"/>
+        <v>8.3125</v>
+      </c>
+      <c r="F11" s="34">
+        <f t="shared" si="5"/>
+        <v>3.5068359375</v>
+      </c>
+      <c r="G11" s="34">
+        <f t="shared" si="5"/>
+        <v>1.0390625</v>
+      </c>
+      <c r="H11" s="34">
+        <f t="shared" si="5"/>
+        <v>0.1298828125</v>
+      </c>
+      <c r="I11" s="34">
+        <f t="shared" si="5"/>
+        <v>153.64414349200004</v>
+      </c>
+      <c r="J11" s="34">
+        <f t="shared" si="5"/>
+        <v>315.31852800000007</v>
+      </c>
+      <c r="K11" s="34">
+        <f t="shared" si="5"/>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="34">
+        <f t="shared" si="5"/>
+        <v>168.9453125</v>
+      </c>
+      <c r="C12" s="34">
+        <v>86.5</v>
+      </c>
+      <c r="D12" s="34">
+        <f t="shared" si="5"/>
+        <v>36.4921875</v>
+      </c>
+      <c r="E12" s="34">
+        <f t="shared" si="5"/>
+        <v>10.8125</v>
+      </c>
+      <c r="F12" s="34">
+        <f t="shared" si="5"/>
+        <v>4.5615234375</v>
+      </c>
+      <c r="G12" s="34">
+        <f t="shared" si="5"/>
+        <v>1.3515625</v>
+      </c>
+      <c r="H12" s="34">
+        <f t="shared" si="5"/>
+        <v>0.1689453125</v>
+      </c>
+      <c r="I12" s="34">
+        <f t="shared" si="5"/>
+        <v>199.85290845200004</v>
+      </c>
+      <c r="J12" s="34">
+        <f t="shared" si="5"/>
+        <v>410.1511680000001</v>
+      </c>
+      <c r="K12" s="34">
+        <f t="shared" si="5"/>
+        <v>692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" s="34">
+        <f t="shared" si="5"/>
+        <v>66.40625</v>
+      </c>
+      <c r="C13" s="34">
+        <v>34</v>
+      </c>
+      <c r="D13" s="34">
+        <f t="shared" si="5"/>
+        <v>14.34375</v>
+      </c>
+      <c r="E13" s="34">
+        <f t="shared" si="5"/>
+        <v>4.25</v>
+      </c>
+      <c r="F13" s="34">
+        <f t="shared" si="5"/>
+        <v>1.79296875</v>
+      </c>
+      <c r="G13" s="34">
+        <f t="shared" si="5"/>
+        <v>0.53125</v>
+      </c>
+      <c r="H13" s="34">
+        <f t="shared" si="5"/>
+        <v>6.640625E-2</v>
+      </c>
+      <c r="I13" s="34">
+        <f t="shared" si="5"/>
+        <v>78.554900432000011</v>
+      </c>
+      <c r="J13" s="34">
+        <f t="shared" si="5"/>
+        <v>161.21548800000002</v>
+      </c>
+      <c r="K13" s="34">
+        <f t="shared" si="5"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B14" s="34">
+        <f t="shared" si="5"/>
+        <v>48.828125</v>
+      </c>
+      <c r="C14" s="34">
+        <v>25</v>
+      </c>
+      <c r="D14" s="34">
+        <f t="shared" si="5"/>
+        <v>10.546875</v>
+      </c>
+      <c r="E14" s="34">
+        <f t="shared" si="5"/>
+        <v>3.125</v>
+      </c>
+      <c r="F14" s="34">
+        <f t="shared" si="5"/>
+        <v>1.318359375</v>
+      </c>
+      <c r="G14" s="34">
+        <f t="shared" si="5"/>
+        <v>0.390625</v>
+      </c>
+      <c r="H14" s="34">
+        <f t="shared" si="5"/>
+        <v>4.8828125E-2</v>
+      </c>
+      <c r="I14" s="34">
+        <f t="shared" si="5"/>
+        <v>57.76095620000001</v>
+      </c>
+      <c r="J14" s="34">
+        <f t="shared" si="5"/>
+        <v>118.54080000000002</v>
+      </c>
+      <c r="K14" s="34">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="34">
+        <f t="shared" si="5"/>
+        <v>118.1640625</v>
+      </c>
+      <c r="C15" s="34">
+        <v>60.5</v>
+      </c>
+      <c r="D15" s="34">
+        <f t="shared" si="5"/>
+        <v>25.5234375</v>
+      </c>
+      <c r="E15" s="34">
+        <f t="shared" si="5"/>
+        <v>7.5625</v>
+      </c>
+      <c r="F15" s="34">
+        <f t="shared" si="5"/>
+        <v>3.1904296875</v>
+      </c>
+      <c r="G15" s="34">
+        <f t="shared" si="5"/>
+        <v>0.9453125</v>
+      </c>
+      <c r="H15" s="34">
+        <f t="shared" si="5"/>
+        <v>0.1181640625</v>
+      </c>
+      <c r="I15" s="34">
+        <f t="shared" si="5"/>
+        <v>139.78151400400003</v>
+      </c>
+      <c r="J15" s="34">
+        <f t="shared" si="5"/>
+        <v>286.86873600000007</v>
+      </c>
+      <c r="K15" s="34">
+        <f t="shared" si="5"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="34">
+        <f t="shared" si="5"/>
+        <v>7.8125</v>
+      </c>
+      <c r="C16" s="34">
+        <v>4</v>
+      </c>
+      <c r="D16" s="34">
+        <f t="shared" si="5"/>
+        <v>1.6875</v>
+      </c>
+      <c r="E16" s="34">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="34">
+        <f t="shared" si="5"/>
+        <v>0.2109375</v>
+      </c>
+      <c r="G16" s="34">
+        <f t="shared" si="5"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H16" s="34">
+        <f t="shared" si="5"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="I16" s="34">
+        <f t="shared" si="5"/>
+        <v>9.2417529920000021</v>
+      </c>
+      <c r="J16" s="34">
+        <f t="shared" si="5"/>
+        <v>18.966528000000004</v>
+      </c>
+      <c r="K16" s="34">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="34">
+        <f t="shared" si="5"/>
+        <v>108.3984375</v>
+      </c>
+      <c r="C17" s="34">
+        <v>55.5</v>
+      </c>
+      <c r="D17" s="34">
+        <f t="shared" si="5"/>
+        <v>23.4140625</v>
+      </c>
+      <c r="E17" s="34">
+        <f t="shared" si="5"/>
+        <v>6.9375</v>
+      </c>
+      <c r="F17" s="34">
+        <f t="shared" si="5"/>
+        <v>2.9267578125</v>
+      </c>
+      <c r="G17" s="34">
+        <f t="shared" si="5"/>
+        <v>0.8671875</v>
+      </c>
+      <c r="H17" s="34">
+        <f t="shared" si="5"/>
+        <v>0.1083984375</v>
+      </c>
+      <c r="I17" s="34">
+        <f t="shared" si="5"/>
+        <v>128.22932276400002</v>
+      </c>
+      <c r="J17" s="34">
+        <f t="shared" si="5"/>
+        <v>263.16057600000005</v>
+      </c>
+      <c r="K17" s="34">
+        <f t="shared" si="5"/>
+        <v>444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="34">
+        <f t="shared" si="5"/>
+        <v>52.734375</v>
+      </c>
+      <c r="C18" s="34">
+        <v>27</v>
+      </c>
+      <c r="D18" s="34">
+        <f t="shared" si="5"/>
+        <v>11.390625</v>
+      </c>
+      <c r="E18" s="34">
+        <f t="shared" si="5"/>
+        <v>3.375</v>
+      </c>
+      <c r="F18" s="34">
+        <f t="shared" si="5"/>
+        <v>1.423828125</v>
+      </c>
+      <c r="G18" s="34">
+        <f t="shared" si="5"/>
+        <v>0.421875</v>
+      </c>
+      <c r="H18" s="34">
+        <f t="shared" si="5"/>
+        <v>5.2734375E-2</v>
+      </c>
+      <c r="I18" s="34">
+        <f t="shared" si="5"/>
+        <v>62.381832696000018</v>
+      </c>
+      <c r="J18" s="34">
+        <f t="shared" si="5"/>
+        <v>128.02406400000004</v>
+      </c>
+      <c r="K18" s="34">
+        <f t="shared" si="5"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="34">
+        <f t="shared" si="5"/>
+        <v>9.765625</v>
+      </c>
+      <c r="C19" s="34">
+        <v>5</v>
+      </c>
+      <c r="D19" s="34">
+        <f t="shared" si="5"/>
+        <v>2.109375</v>
+      </c>
+      <c r="E19" s="34">
+        <f t="shared" si="5"/>
+        <v>0.625</v>
+      </c>
+      <c r="F19" s="34">
+        <f t="shared" si="5"/>
+        <v>0.263671875</v>
+      </c>
+      <c r="G19" s="34">
+        <f t="shared" si="5"/>
+        <v>7.8125E-2</v>
+      </c>
+      <c r="H19" s="34">
+        <f t="shared" si="5"/>
+        <v>9.765625E-3</v>
+      </c>
+      <c r="I19" s="34">
+        <f t="shared" si="5"/>
+        <v>11.552191240000003</v>
+      </c>
+      <c r="J19" s="34">
+        <f t="shared" si="5"/>
+        <v>23.708160000000007</v>
+      </c>
+      <c r="K19" s="34">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20" s="34">
+        <f t="shared" si="5"/>
+        <v>142.578125</v>
+      </c>
+      <c r="C20" s="34">
+        <v>73</v>
+      </c>
+      <c r="D20" s="34">
+        <f t="shared" si="5"/>
+        <v>30.796875</v>
+      </c>
+      <c r="E20" s="34">
+        <f t="shared" si="5"/>
+        <v>9.125</v>
+      </c>
+      <c r="F20" s="34">
+        <f t="shared" si="5"/>
+        <v>3.849609375</v>
+      </c>
+      <c r="G20" s="34">
+        <f t="shared" si="5"/>
+        <v>1.140625</v>
+      </c>
+      <c r="H20" s="34">
+        <f t="shared" si="5"/>
+        <v>0.142578125</v>
+      </c>
+      <c r="I20" s="34">
+        <f t="shared" si="5"/>
+        <v>168.66199210400003</v>
+      </c>
+      <c r="J20" s="34">
+        <f t="shared" si="5"/>
+        <v>346.13913600000006</v>
+      </c>
+      <c r="K20" s="34">
+        <f t="shared" si="5"/>
+        <v>584</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>302</v>
+      </c>
+      <c r="B21" s="34">
+        <f t="shared" si="5"/>
+        <v>70.3125</v>
+      </c>
+      <c r="C21" s="34">
+        <v>36</v>
+      </c>
+      <c r="D21" s="34">
+        <f t="shared" si="5"/>
+        <v>15.1875</v>
+      </c>
+      <c r="E21" s="34">
+        <f t="shared" si="5"/>
+        <v>4.5</v>
+      </c>
+      <c r="F21" s="34">
+        <f t="shared" si="5"/>
+        <v>1.8984375</v>
+      </c>
+      <c r="G21" s="34">
+        <f t="shared" si="5"/>
+        <v>0.5625</v>
+      </c>
+      <c r="H21" s="34">
+        <f t="shared" si="5"/>
+        <v>7.03125E-2</v>
+      </c>
+      <c r="I21" s="34">
+        <f t="shared" si="5"/>
+        <v>83.175776928000019</v>
+      </c>
+      <c r="J21" s="34">
+        <f t="shared" si="5"/>
+        <v>170.69875200000004</v>
+      </c>
+      <c r="K21" s="34">
+        <f t="shared" si="5"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>315</v>
+      </c>
+      <c r="B22" s="34">
+        <f t="shared" ref="B22:B24" si="6">B$2*B$2*B$2*$C22</f>
+        <v>9.66796875</v>
+      </c>
+      <c r="C22" s="34">
+        <v>4.95</v>
+      </c>
+      <c r="D22" s="34">
+        <f t="shared" ref="D22:D36" si="7">D$2*D$2*D$2*$C22</f>
+        <v>2.0882812500000001</v>
+      </c>
+      <c r="E22" s="34">
+        <f t="shared" ref="D22:K24" si="8">E$2*E$2*E$2*$C22</f>
+        <v>0.61875000000000002</v>
+      </c>
+      <c r="F22" s="34">
+        <f t="shared" si="8"/>
+        <v>0.26103515625000001</v>
+      </c>
+      <c r="G22" s="34">
+        <f t="shared" si="8"/>
+        <v>7.7343750000000003E-2</v>
+      </c>
+      <c r="H22" s="34">
+        <f t="shared" si="8"/>
+        <v>9.6679687500000003E-3</v>
+      </c>
+      <c r="I22" s="34">
+        <f t="shared" si="8"/>
+        <v>11.436669327600002</v>
+      </c>
+      <c r="J22" s="34">
+        <f t="shared" si="8"/>
+        <v>23.471078400000007</v>
+      </c>
+      <c r="K22" s="34">
+        <f t="shared" si="8"/>
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" s="34">
+        <f t="shared" si="6"/>
+        <v>89.94140625</v>
+      </c>
+      <c r="C23" s="34">
+        <v>46.05</v>
+      </c>
+      <c r="D23" s="34">
+        <f t="shared" si="7"/>
+        <v>19.427343749999999</v>
+      </c>
+      <c r="E23" s="34">
+        <f t="shared" si="8"/>
+        <v>5.7562499999999996</v>
+      </c>
+      <c r="F23" s="34">
+        <f t="shared" si="8"/>
+        <v>2.4284179687499998</v>
+      </c>
+      <c r="G23" s="34">
+        <f t="shared" si="8"/>
+        <v>0.71953124999999996</v>
+      </c>
+      <c r="H23" s="34">
+        <f t="shared" si="8"/>
+        <v>8.9941406249999994E-2</v>
+      </c>
+      <c r="I23" s="34">
+        <f t="shared" si="8"/>
+        <v>106.39568132040002</v>
+      </c>
+      <c r="J23" s="34">
+        <f t="shared" si="8"/>
+        <v>218.35215360000004</v>
+      </c>
+      <c r="K23" s="34">
+        <f t="shared" si="8"/>
+        <v>368.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24" s="34">
+        <f t="shared" si="6"/>
+        <v>46.2890625</v>
+      </c>
+      <c r="C24" s="34">
+        <v>23.7</v>
+      </c>
+      <c r="D24" s="34">
+        <f t="shared" si="7"/>
+        <v>9.9984374999999996</v>
+      </c>
+      <c r="E24" s="34">
+        <f t="shared" si="8"/>
+        <v>2.9624999999999999</v>
+      </c>
+      <c r="F24" s="34">
+        <f t="shared" si="8"/>
+        <v>1.2498046875</v>
+      </c>
+      <c r="G24" s="34">
+        <f t="shared" si="8"/>
+        <v>0.37031249999999999</v>
+      </c>
+      <c r="H24" s="34">
+        <f t="shared" si="8"/>
+        <v>4.6289062499999999E-2</v>
+      </c>
+      <c r="I24" s="34">
+        <f t="shared" si="8"/>
+        <v>54.757386477600008</v>
+      </c>
+      <c r="J24" s="34">
+        <f t="shared" si="8"/>
+        <v>112.37667840000002</v>
+      </c>
+      <c r="K24" s="34">
+        <f t="shared" si="8"/>
+        <v>189.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>312</v>
+      </c>
+      <c r="B25" s="34">
+        <f t="shared" si="5"/>
+        <v>13.671875</v>
+      </c>
+      <c r="C25" s="34">
+        <v>7</v>
+      </c>
+      <c r="D25" s="34">
+        <f t="shared" si="7"/>
+        <v>2.953125</v>
+      </c>
+      <c r="E25" s="34">
+        <f t="shared" si="5"/>
+        <v>0.875</v>
+      </c>
+      <c r="F25" s="34">
+        <f t="shared" si="5"/>
+        <v>0.369140625</v>
+      </c>
+      <c r="G25" s="34">
+        <f t="shared" si="5"/>
+        <v>0.109375</v>
+      </c>
+      <c r="H25" s="34">
+        <f t="shared" si="5"/>
+        <v>1.3671875E-2</v>
+      </c>
+      <c r="I25" s="34">
+        <f t="shared" si="5"/>
+        <v>16.173067736000004</v>
+      </c>
+      <c r="J25" s="34">
+        <f t="shared" si="5"/>
+        <v>33.191424000000005</v>
+      </c>
+      <c r="K25" s="34">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>313</v>
+      </c>
+      <c r="B26" s="34">
+        <f t="shared" si="5"/>
+        <v>130.95703125</v>
+      </c>
+      <c r="C26" s="34">
+        <v>67.05</v>
+      </c>
+      <c r="D26" s="34">
+        <f t="shared" si="7"/>
+        <v>28.286718749999999</v>
+      </c>
+      <c r="E26" s="34">
+        <f t="shared" si="5"/>
+        <v>8.3812499999999996</v>
+      </c>
+      <c r="F26" s="34">
+        <f t="shared" ref="F26:K27" si="9">F$2*F$2*F$2*$C26</f>
+        <v>3.5358398437499998</v>
+      </c>
+      <c r="G26" s="34">
+        <f t="shared" si="9"/>
+        <v>1.04765625</v>
+      </c>
+      <c r="H26" s="34">
+        <f t="shared" si="9"/>
+        <v>0.13095703124999999</v>
+      </c>
+      <c r="I26" s="34">
+        <f t="shared" si="9"/>
+        <v>154.91488452840002</v>
+      </c>
+      <c r="J26" s="34">
+        <f t="shared" si="9"/>
+        <v>317.92642560000007</v>
+      </c>
+      <c r="K26" s="34">
+        <f t="shared" si="9"/>
+        <v>536.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>314</v>
+      </c>
+      <c r="B27" s="34">
+        <f t="shared" ref="B27" si="10">B$2*B$2*B$2*$C27</f>
+        <v>64.35546875</v>
+      </c>
+      <c r="C27" s="34">
+        <v>32.950000000000003</v>
+      </c>
+      <c r="D27" s="34">
+        <f t="shared" si="7"/>
+        <v>13.900781250000001</v>
+      </c>
+      <c r="E27" s="34">
+        <f t="shared" ref="D27:E27" si="11">E$2*E$2*E$2*$C27</f>
+        <v>4.1187500000000004</v>
+      </c>
+      <c r="F27" s="34">
+        <f t="shared" si="9"/>
+        <v>1.7375976562500002</v>
+      </c>
+      <c r="G27" s="34">
+        <f t="shared" si="9"/>
+        <v>0.51484375000000004</v>
+      </c>
+      <c r="H27" s="34">
+        <f t="shared" si="9"/>
+        <v>6.4355468750000006E-2</v>
+      </c>
+      <c r="I27" s="34">
+        <f t="shared" si="9"/>
+        <v>76.12894027160003</v>
+      </c>
+      <c r="J27" s="34">
+        <f t="shared" si="9"/>
+        <v>156.23677440000006</v>
+      </c>
+      <c r="K27" s="34">
+        <f t="shared" si="9"/>
+        <v>263.60000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>306</v>
+      </c>
+      <c r="B28" s="34">
+        <f t="shared" si="5"/>
+        <v>148.4375</v>
+      </c>
+      <c r="C28" s="34">
+        <v>76</v>
+      </c>
+      <c r="D28" s="34">
+        <f t="shared" si="7"/>
+        <v>32.0625</v>
+      </c>
+      <c r="E28" s="34">
+        <f t="shared" si="5"/>
+        <v>9.5</v>
+      </c>
+      <c r="F28" s="34">
+        <f t="shared" si="5"/>
+        <v>4.0078125</v>
+      </c>
+      <c r="G28" s="34">
+        <f t="shared" si="5"/>
+        <v>1.1875</v>
+      </c>
+      <c r="H28" s="34">
+        <f t="shared" si="5"/>
+        <v>0.1484375</v>
+      </c>
+      <c r="I28" s="34">
+        <f t="shared" si="5"/>
+        <v>175.59330684800005</v>
+      </c>
+      <c r="J28" s="34">
+        <f t="shared" si="5"/>
+        <v>360.36403200000007</v>
+      </c>
+      <c r="K28" s="34">
+        <f t="shared" si="5"/>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>307</v>
+      </c>
+      <c r="B29" s="34">
+        <f t="shared" si="5"/>
+        <v>195.3125</v>
+      </c>
+      <c r="C29" s="34">
+        <v>100</v>
+      </c>
+      <c r="D29" s="34">
+        <f t="shared" si="7"/>
+        <v>42.1875</v>
+      </c>
+      <c r="E29" s="34">
+        <f t="shared" si="5"/>
+        <v>12.5</v>
+      </c>
+      <c r="F29" s="34">
+        <f t="shared" si="5"/>
+        <v>5.2734375</v>
+      </c>
+      <c r="G29" s="34">
+        <f t="shared" si="5"/>
+        <v>1.5625</v>
+      </c>
+      <c r="H29" s="34">
+        <f t="shared" si="5"/>
+        <v>0.1953125</v>
+      </c>
+      <c r="I29" s="34">
+        <f t="shared" si="5"/>
+        <v>231.04382480000004</v>
+      </c>
+      <c r="J29" s="34">
+        <f t="shared" si="5"/>
+        <v>474.16320000000007</v>
+      </c>
+      <c r="K29" s="34">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B30" s="34">
+        <f t="shared" si="5"/>
+        <v>248.046875</v>
+      </c>
+      <c r="C30" s="34">
+        <v>127</v>
+      </c>
+      <c r="D30" s="34">
+        <f t="shared" si="7"/>
+        <v>53.578125</v>
+      </c>
+      <c r="E30" s="34">
+        <f t="shared" si="5"/>
+        <v>15.875</v>
+      </c>
+      <c r="F30" s="34">
+        <f t="shared" si="5"/>
+        <v>6.697265625</v>
+      </c>
+      <c r="G30" s="34">
+        <f t="shared" si="5"/>
+        <v>1.984375</v>
+      </c>
+      <c r="H30" s="34">
+        <f t="shared" si="5"/>
+        <v>0.248046875</v>
+      </c>
+      <c r="I30" s="34">
+        <f t="shared" si="5"/>
+        <v>293.42565749600004</v>
+      </c>
+      <c r="J30" s="34">
+        <f t="shared" si="5"/>
+        <v>602.18726400000014</v>
+      </c>
+      <c r="K30" s="34">
+        <f t="shared" si="5"/>
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>309</v>
+      </c>
+      <c r="B31" s="34">
+        <f t="shared" si="5"/>
+        <v>107.421875</v>
+      </c>
+      <c r="C31" s="34">
+        <v>55</v>
+      </c>
+      <c r="D31" s="34">
+        <f t="shared" si="7"/>
+        <v>23.203125</v>
+      </c>
+      <c r="E31" s="34">
+        <f t="shared" si="5"/>
+        <v>6.875</v>
+      </c>
+      <c r="F31" s="34">
+        <f t="shared" si="5"/>
+        <v>2.900390625</v>
+      </c>
+      <c r="G31" s="34">
+        <f t="shared" si="5"/>
+        <v>0.859375</v>
+      </c>
+      <c r="H31" s="34">
+        <f t="shared" si="5"/>
+        <v>0.107421875</v>
+      </c>
+      <c r="I31" s="34">
+        <f t="shared" si="5"/>
+        <v>127.07410364000003</v>
+      </c>
+      <c r="J31" s="34">
+        <f t="shared" si="5"/>
+        <v>260.78976000000006</v>
+      </c>
+      <c r="K31" s="34">
+        <f t="shared" si="5"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>310</v>
+      </c>
+      <c r="B32" s="34">
+        <f t="shared" si="5"/>
+        <v>135.7421875</v>
+      </c>
+      <c r="C32" s="34">
+        <v>69.5</v>
+      </c>
+      <c r="D32" s="34">
+        <f t="shared" si="7"/>
+        <v>29.3203125</v>
+      </c>
+      <c r="E32" s="34">
+        <f t="shared" si="5"/>
+        <v>8.6875</v>
+      </c>
+      <c r="F32" s="34">
+        <f t="shared" si="5"/>
+        <v>3.6650390625</v>
+      </c>
+      <c r="G32" s="34">
+        <f t="shared" si="5"/>
+        <v>1.0859375</v>
+      </c>
+      <c r="H32" s="34">
+        <f t="shared" si="5"/>
+        <v>0.1357421875</v>
+      </c>
+      <c r="I32" s="34">
+        <f t="shared" si="5"/>
+        <v>160.57545823600003</v>
+      </c>
+      <c r="J32" s="34">
+        <f t="shared" si="5"/>
+        <v>329.54342400000007</v>
+      </c>
+      <c r="K32" s="34">
+        <f t="shared" si="5"/>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>311</v>
+      </c>
+      <c r="B33" s="34">
+        <f t="shared" si="5"/>
+        <v>166.9921875</v>
+      </c>
+      <c r="C33" s="34">
+        <v>85.5</v>
+      </c>
+      <c r="D33" s="34">
+        <f t="shared" si="7"/>
+        <v>36.0703125</v>
+      </c>
+      <c r="E33" s="34">
+        <f t="shared" si="5"/>
+        <v>10.6875</v>
+      </c>
+      <c r="F33" s="34">
+        <f t="shared" si="5"/>
+        <v>4.5087890625</v>
+      </c>
+      <c r="G33" s="34">
+        <f t="shared" si="5"/>
+        <v>1.3359375</v>
+      </c>
+      <c r="H33" s="34">
+        <f t="shared" si="5"/>
+        <v>0.1669921875</v>
+      </c>
+      <c r="I33" s="34">
+        <f t="shared" si="5"/>
+        <v>197.54247020400004</v>
+      </c>
+      <c r="J33" s="34">
+        <f t="shared" si="5"/>
+        <v>405.40953600000006</v>
+      </c>
+      <c r="K33" s="34">
+        <f t="shared" si="5"/>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>303</v>
+      </c>
+      <c r="B34" s="34">
+        <f t="shared" si="5"/>
+        <v>72.265625</v>
+      </c>
+      <c r="C34" s="34">
+        <v>37</v>
+      </c>
+      <c r="D34" s="34">
+        <f t="shared" si="7"/>
+        <v>15.609375</v>
+      </c>
+      <c r="E34" s="34">
+        <f t="shared" si="5"/>
+        <v>4.625</v>
+      </c>
+      <c r="F34" s="34">
+        <f t="shared" si="5"/>
+        <v>1.951171875</v>
+      </c>
+      <c r="G34" s="34">
+        <f t="shared" si="5"/>
+        <v>0.578125</v>
+      </c>
+      <c r="H34" s="34">
+        <f t="shared" si="5"/>
+        <v>7.2265625E-2</v>
+      </c>
+      <c r="I34" s="34">
+        <f t="shared" si="5"/>
+        <v>85.486215176000016</v>
+      </c>
+      <c r="J34" s="34">
+        <f t="shared" si="5"/>
+        <v>175.44038400000002</v>
+      </c>
+      <c r="K34" s="34">
+        <f t="shared" si="5"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>304</v>
+      </c>
+      <c r="B35" s="34">
+        <f t="shared" si="5"/>
+        <v>86.9140625</v>
+      </c>
+      <c r="C35" s="34">
+        <v>44.5</v>
+      </c>
+      <c r="D35" s="34">
+        <f t="shared" si="7"/>
+        <v>18.7734375</v>
+      </c>
+      <c r="E35" s="34">
+        <f t="shared" si="5"/>
+        <v>5.5625</v>
+      </c>
+      <c r="F35" s="34">
+        <f t="shared" si="5"/>
+        <v>2.3466796875</v>
+      </c>
+      <c r="G35" s="34">
+        <f t="shared" si="5"/>
+        <v>0.6953125</v>
+      </c>
+      <c r="H35" s="34">
+        <f t="shared" si="5"/>
+        <v>8.69140625E-2</v>
+      </c>
+      <c r="I35" s="34">
+        <f t="shared" si="5"/>
+        <v>102.81450203600002</v>
+      </c>
+      <c r="J35" s="34">
+        <f t="shared" si="5"/>
+        <v>211.00262400000005</v>
+      </c>
+      <c r="K35" s="34">
+        <f t="shared" si="5"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>305</v>
+      </c>
+      <c r="B36" s="34">
+        <f t="shared" si="5"/>
+        <v>102.5390625</v>
+      </c>
+      <c r="C36" s="34">
+        <v>52.5</v>
+      </c>
+      <c r="D36" s="34">
+        <f t="shared" si="7"/>
+        <v>22.1484375</v>
+      </c>
+      <c r="E36" s="34">
+        <f t="shared" si="5"/>
+        <v>6.5625</v>
+      </c>
+      <c r="F36" s="34">
+        <f t="shared" si="5"/>
+        <v>2.7685546875</v>
+      </c>
+      <c r="G36" s="34">
+        <f t="shared" si="5"/>
+        <v>0.8203125</v>
+      </c>
+      <c r="H36" s="34">
+        <f t="shared" si="5"/>
+        <v>0.1025390625</v>
+      </c>
+      <c r="I36" s="34">
+        <f t="shared" si="5"/>
+        <v>121.29800802000003</v>
+      </c>
+      <c r="J36" s="34">
+        <f t="shared" si="5"/>
+        <v>248.93568000000005</v>
+      </c>
+      <c r="K36" s="34">
+        <f t="shared" si="5"/>
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GameData/SSTU/Parts/Parts-MassCalc.xlsx
+++ b/GameData/SSTU/Parts/Parts-MassCalc.xlsx
@@ -1647,7 +1647,7 @@
   <dimension ref="A1:AC301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>

--- a/GameData/SSTU/Parts/Parts-MassCalc.xlsx
+++ b/GameData/SSTU/Parts/Parts-MassCalc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="parts" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="engineSpecs" sheetId="8" r:id="rId4"/>
     <sheet name="ChuteCalc" sheetId="9" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="10" r:id="rId6"/>
+    <sheet name="StockChuteCalc" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="352">
   <si>
     <t>Part</t>
   </si>
@@ -1007,6 +1008,75 @@
   <si>
     <t>30m/s</t>
   </si>
+  <si>
+    <t>terminal velocity</t>
+  </si>
+  <si>
+    <t>term = sqrt((2*mass*gravity)/(rho*area*cD))</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>terminal velocity 2</t>
+  </si>
+  <si>
+    <t>drag</t>
+  </si>
+  <si>
+    <t>gravForce</t>
+  </si>
+  <si>
+    <t>gforce</t>
+  </si>
+  <si>
+    <t>bv(term) = m*g</t>
+  </si>
+  <si>
+    <t>v(term) = (m*g)/b</t>
+  </si>
+  <si>
+    <t>b=(m*g)/term*term</t>
+  </si>
+  <si>
+    <t>term = sqRt((m*g)/b)</t>
+  </si>
+  <si>
+    <t>b = (1200 * 9.81)/6.028953</t>
+  </si>
+  <si>
+    <t>mk1-full</t>
+  </si>
+  <si>
+    <t>mk1-semi</t>
+  </si>
+  <si>
+    <t>act term</t>
+  </si>
+  <si>
+    <t>calc area</t>
+  </si>
+  <si>
+    <t>mk16-full</t>
+  </si>
+  <si>
+    <t>mk16-semi</t>
+  </si>
+  <si>
+    <t>dragCoef</t>
+  </si>
+  <si>
+    <t>mk2-3 x 3 full</t>
+  </si>
+  <si>
+    <t>&lt;100</t>
+  </si>
+  <si>
+    <t>mk2-3 x 3 semi</t>
+  </si>
 </sst>
 </file>
 
@@ -1459,25 +1529,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1492,14 +1550,26 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1510,6 +1580,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -27506,45 +27579,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
       <c r="H1" s="12"/>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
       <c r="P1" s="12"/>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
       <c r="X1" s="12"/>
-      <c r="Y1" s="49" t="s">
+      <c r="Y1" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
       <c r="AF1" s="12"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -29255,270 +29328,270 @@
       <c r="A20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="42">
         <f>E19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="12"/>
       <c r="I20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="42">
         <f>M19</f>
         <v>0</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="48"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="44"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R20" s="46">
+      <c r="R20" s="42">
         <f>U19</f>
         <v>0</v>
       </c>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="48"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="44"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z20" s="46">
+      <c r="Z20" s="42">
         <f>AC19</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="48"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="43"/>
+      <c r="AE20" s="44"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="42">
         <f>C19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
       <c r="H21" s="12"/>
       <c r="I21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="42">
         <f>K19</f>
         <v>0</v>
       </c>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="48"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="44"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R21" s="46">
+      <c r="R21" s="42">
         <f>S19</f>
         <v>0</v>
       </c>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="48"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="44"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z21" s="46">
+      <c r="Z21" s="42">
         <f>AA19</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="48"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="44"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="42">
         <f>IFERROR((G19/10/B20),0)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
       <c r="H22" s="12"/>
       <c r="I22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="42">
         <f>IFERROR((O19/10/J20),0)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="48"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="44"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R22" s="46">
+      <c r="R22" s="42">
         <f>IFERROR((W19/10/R20),0)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="48"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="44"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z22" s="46">
+      <c r="Z22" s="42">
         <f>IFERROR((AE19/10/Z20),0)</f>
         <v>0</v>
       </c>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="48"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="44"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="42">
         <f>IFERROR((9.82 * F19) * LN(B20/C19),0)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
       <c r="H23" s="12"/>
       <c r="I23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J23" s="42">
         <f>IFERROR((9.82 * N19) * LN(J20/K19),0)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="48"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="44"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R23" s="46">
+      <c r="R23" s="42">
         <f>IFERROR((9.82 * V19) * LN(R20/S19),0)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="48"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="44"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z23" s="46">
+      <c r="Z23" s="42">
         <f>IFERROR((9.82 * AD19) * LN(Z20/AA19),0)</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="48"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="44"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="50">
+      <c r="B24" s="39">
         <f>B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="52"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
       <c r="H24" s="12"/>
       <c r="I24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="50">
+      <c r="J24" s="39">
         <f>J23</f>
         <v>0</v>
       </c>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="52"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="41"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R24" s="50">
+      <c r="R24" s="39">
         <f>R23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="52"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="41"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z24" s="50">
+      <c r="Z24" s="39">
         <f>Z23</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="51"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="52"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="41"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31259,270 +31332,270 @@
       <c r="A44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="46">
+      <c r="B44" s="42">
         <f>E43+B20</f>
         <v>11.923108687500001</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="48"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="44"/>
       <c r="H44" s="12"/>
       <c r="I44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J44" s="46">
+      <c r="J44" s="42">
         <f>M43+J20</f>
         <v>0</v>
       </c>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="48"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="44"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R44" s="46">
+      <c r="R44" s="42">
         <f>U43+R20</f>
         <v>0</v>
       </c>
-      <c r="S44" s="47"/>
-      <c r="T44" s="47"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="47"/>
-      <c r="W44" s="48"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="44"/>
       <c r="X44" s="12"/>
       <c r="Y44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z44" s="46">
+      <c r="Z44" s="42">
         <f>AC43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="47"/>
-      <c r="AB44" s="47"/>
-      <c r="AC44" s="47"/>
-      <c r="AD44" s="47"/>
-      <c r="AE44" s="48"/>
+      <c r="AA44" s="43"/>
+      <c r="AB44" s="43"/>
+      <c r="AC44" s="43"/>
+      <c r="AD44" s="43"/>
+      <c r="AE44" s="44"/>
       <c r="AF44" s="12"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="46">
+      <c r="B45" s="42">
         <f>C43+B20</f>
         <v>2.9464924374999999</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="48"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="44"/>
       <c r="H45" s="12"/>
       <c r="I45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J45" s="46">
+      <c r="J45" s="42">
         <f>K43+J20</f>
         <v>0</v>
       </c>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="48"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="44"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R45" s="46">
+      <c r="R45" s="42">
         <f>S43+R20</f>
         <v>0</v>
       </c>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="48"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="44"/>
       <c r="X45" s="12"/>
       <c r="Y45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z45" s="46">
+      <c r="Z45" s="42">
         <f>AA43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA45" s="47"/>
-      <c r="AB45" s="47"/>
-      <c r="AC45" s="47"/>
-      <c r="AD45" s="47"/>
-      <c r="AE45" s="48"/>
+      <c r="AA45" s="43"/>
+      <c r="AB45" s="43"/>
+      <c r="AC45" s="43"/>
+      <c r="AD45" s="43"/>
+      <c r="AE45" s="44"/>
       <c r="AF45" s="12"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="46">
+      <c r="B46" s="42">
         <f>IFERROR((G43/10/B44),0)</f>
         <v>0.56193398681538265</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="48"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="44"/>
       <c r="H46" s="12"/>
       <c r="I46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J46" s="46">
+      <c r="J46" s="42">
         <f>IFERROR((O43/10/J44),0)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="48"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="44"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R46" s="46">
+      <c r="R46" s="42">
         <f>IFERROR((W43/10/R44),0)</f>
         <v>0</v>
       </c>
-      <c r="S46" s="47"/>
-      <c r="T46" s="47"/>
-      <c r="U46" s="47"/>
-      <c r="V46" s="47"/>
-      <c r="W46" s="48"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="44"/>
       <c r="X46" s="12"/>
       <c r="Y46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z46" s="46">
+      <c r="Z46" s="42">
         <f>IFERROR((AE43/10/Z44),0)</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="47"/>
-      <c r="AB46" s="47"/>
-      <c r="AC46" s="47"/>
-      <c r="AD46" s="47"/>
-      <c r="AE46" s="48"/>
+      <c r="AA46" s="43"/>
+      <c r="AB46" s="43"/>
+      <c r="AC46" s="43"/>
+      <c r="AD46" s="43"/>
+      <c r="AE46" s="44"/>
       <c r="AF46" s="12"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="46">
+      <c r="B47" s="42">
         <f>IFERROR((9.82 * F43) * LN(B44/B45),0)</f>
         <v>6245.7915133757406</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="48"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="44"/>
       <c r="H47" s="12"/>
       <c r="I47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="46">
+      <c r="J47" s="42">
         <f>IFERROR((9.82 * N43) * LN(J44/J45),0)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="48"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="44"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R47" s="46">
+      <c r="R47" s="42">
         <f>IFERROR((9.82 * V43) * LN(R44/R45),0)</f>
         <v>0</v>
       </c>
-      <c r="S47" s="47"/>
-      <c r="T47" s="47"/>
-      <c r="U47" s="47"/>
-      <c r="V47" s="47"/>
-      <c r="W47" s="48"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="44"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z47" s="46">
+      <c r="Z47" s="42">
         <f>IFERROR((9.82 * AD43) * LN(Z44/Z45),0)</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="47"/>
-      <c r="AB47" s="47"/>
-      <c r="AC47" s="47"/>
-      <c r="AD47" s="47"/>
-      <c r="AE47" s="48"/>
+      <c r="AA47" s="43"/>
+      <c r="AB47" s="43"/>
+      <c r="AC47" s="43"/>
+      <c r="AD47" s="43"/>
+      <c r="AE47" s="44"/>
       <c r="AF47" s="12"/>
     </row>
     <row r="48" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="50">
+      <c r="B48" s="39">
         <f>B47+B24</f>
         <v>6245.7915133757406</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="52"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="41"/>
       <c r="H48" s="12"/>
       <c r="I48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J48" s="50">
+      <c r="J48" s="39">
         <f>J47+J24</f>
         <v>0</v>
       </c>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="52"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="41"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R48" s="50">
+      <c r="R48" s="39">
         <f>R47+R24</f>
         <v>0</v>
       </c>
-      <c r="S48" s="51"/>
-      <c r="T48" s="51"/>
-      <c r="U48" s="51"/>
-      <c r="V48" s="51"/>
-      <c r="W48" s="52"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="41"/>
       <c r="X48" s="12"/>
       <c r="Y48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z48" s="50">
+      <c r="Z48" s="39">
         <f>Z47+Z24</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="51"/>
-      <c r="AC48" s="51"/>
-      <c r="AD48" s="51"/>
-      <c r="AE48" s="52"/>
+      <c r="AA48" s="40"/>
+      <c r="AB48" s="40"/>
+      <c r="AC48" s="40"/>
+      <c r="AD48" s="40"/>
+      <c r="AE48" s="41"/>
       <c r="AF48" s="12"/>
     </row>
     <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33259,270 +33332,270 @@
       <c r="A68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="46">
+      <c r="B68" s="42">
         <f>E67+B44</f>
         <v>11.923108687500001</v>
       </c>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="48"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="44"/>
       <c r="H68" s="12"/>
       <c r="I68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J68" s="46">
+      <c r="J68" s="42">
         <f>M67+J44</f>
         <v>0</v>
       </c>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="48"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="44"/>
       <c r="P68" s="12"/>
       <c r="Q68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R68" s="46">
+      <c r="R68" s="42">
         <f>U67+R44</f>
         <v>0</v>
       </c>
-      <c r="S68" s="47"/>
-      <c r="T68" s="47"/>
-      <c r="U68" s="47"/>
-      <c r="V68" s="47"/>
-      <c r="W68" s="48"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="43"/>
+      <c r="U68" s="43"/>
+      <c r="V68" s="43"/>
+      <c r="W68" s="44"/>
       <c r="X68" s="12"/>
       <c r="Y68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z68" s="46">
+      <c r="Z68" s="42">
         <f>AC67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA68" s="47"/>
-      <c r="AB68" s="47"/>
-      <c r="AC68" s="47"/>
-      <c r="AD68" s="47"/>
-      <c r="AE68" s="48"/>
+      <c r="AA68" s="43"/>
+      <c r="AB68" s="43"/>
+      <c r="AC68" s="43"/>
+      <c r="AD68" s="43"/>
+      <c r="AE68" s="44"/>
       <c r="AF68" s="12"/>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="46">
+      <c r="B69" s="42">
         <f>C67+B44</f>
         <v>11.923108687500001</v>
       </c>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="48"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="44"/>
       <c r="H69" s="12"/>
       <c r="I69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J69" s="46">
+      <c r="J69" s="42">
         <f>K67+J44</f>
         <v>0</v>
       </c>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
-      <c r="O69" s="48"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="44"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R69" s="46">
+      <c r="R69" s="42">
         <f>S67+R44</f>
         <v>0</v>
       </c>
-      <c r="S69" s="47"/>
-      <c r="T69" s="47"/>
-      <c r="U69" s="47"/>
-      <c r="V69" s="47"/>
-      <c r="W69" s="48"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="43"/>
+      <c r="V69" s="43"/>
+      <c r="W69" s="44"/>
       <c r="X69" s="12"/>
       <c r="Y69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z69" s="46">
+      <c r="Z69" s="42">
         <f>AA67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA69" s="47"/>
-      <c r="AB69" s="47"/>
-      <c r="AC69" s="47"/>
-      <c r="AD69" s="47"/>
-      <c r="AE69" s="48"/>
+      <c r="AA69" s="43"/>
+      <c r="AB69" s="43"/>
+      <c r="AC69" s="43"/>
+      <c r="AD69" s="43"/>
+      <c r="AE69" s="44"/>
       <c r="AF69" s="12"/>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="46">
+      <c r="B70" s="42">
         <f>IFERROR((G67/10/B68),0)</f>
         <v>0</v>
       </c>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="48"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="44"/>
       <c r="H70" s="12"/>
       <c r="I70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J70" s="46">
+      <c r="J70" s="42">
         <f>IFERROR((O67/10/J68),0)</f>
         <v>0</v>
       </c>
-      <c r="K70" s="47"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="48"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="43"/>
+      <c r="O70" s="44"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R70" s="46">
+      <c r="R70" s="42">
         <f>IFERROR((W67/10/R68),0)</f>
         <v>0</v>
       </c>
-      <c r="S70" s="47"/>
-      <c r="T70" s="47"/>
-      <c r="U70" s="47"/>
-      <c r="V70" s="47"/>
-      <c r="W70" s="48"/>
+      <c r="S70" s="43"/>
+      <c r="T70" s="43"/>
+      <c r="U70" s="43"/>
+      <c r="V70" s="43"/>
+      <c r="W70" s="44"/>
       <c r="X70" s="12"/>
       <c r="Y70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z70" s="46">
+      <c r="Z70" s="42">
         <f>IFERROR((AE67/10/Z68),0)</f>
         <v>0</v>
       </c>
-      <c r="AA70" s="47"/>
-      <c r="AB70" s="47"/>
-      <c r="AC70" s="47"/>
-      <c r="AD70" s="47"/>
-      <c r="AE70" s="48"/>
+      <c r="AA70" s="43"/>
+      <c r="AB70" s="43"/>
+      <c r="AC70" s="43"/>
+      <c r="AD70" s="43"/>
+      <c r="AE70" s="44"/>
       <c r="AF70" s="12"/>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="46">
+      <c r="B71" s="42">
         <f>IFERROR((9.82 * F67) * LN(B68/B69),0)</f>
         <v>0</v>
       </c>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="48"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="44"/>
       <c r="H71" s="12"/>
       <c r="I71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J71" s="46">
+      <c r="J71" s="42">
         <f>IFERROR((9.82 * N67) * LN(J68/J69),0)</f>
         <v>0</v>
       </c>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="48"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="44"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R71" s="46">
+      <c r="R71" s="42">
         <f>IFERROR((9.82 * V67) * LN(R68/R69),0)</f>
         <v>0</v>
       </c>
-      <c r="S71" s="47"/>
-      <c r="T71" s="47"/>
-      <c r="U71" s="47"/>
-      <c r="V71" s="47"/>
-      <c r="W71" s="48"/>
+      <c r="S71" s="43"/>
+      <c r="T71" s="43"/>
+      <c r="U71" s="43"/>
+      <c r="V71" s="43"/>
+      <c r="W71" s="44"/>
       <c r="X71" s="12"/>
       <c r="Y71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z71" s="46">
+      <c r="Z71" s="42">
         <f>IFERROR((9.82 * AD67) * LN(Z68/Z69),0)</f>
         <v>0</v>
       </c>
-      <c r="AA71" s="47"/>
-      <c r="AB71" s="47"/>
-      <c r="AC71" s="47"/>
-      <c r="AD71" s="47"/>
-      <c r="AE71" s="48"/>
+      <c r="AA71" s="43"/>
+      <c r="AB71" s="43"/>
+      <c r="AC71" s="43"/>
+      <c r="AD71" s="43"/>
+      <c r="AE71" s="44"/>
       <c r="AF71" s="12"/>
     </row>
     <row r="72" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="50">
+      <c r="B72" s="39">
         <f>B71+B48</f>
         <v>6245.7915133757406</v>
       </c>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="52"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="41"/>
       <c r="H72" s="12"/>
       <c r="I72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J72" s="50">
+      <c r="J72" s="39">
         <f>J71+J48</f>
         <v>0</v>
       </c>
-      <c r="K72" s="51"/>
-      <c r="L72" s="51"/>
-      <c r="M72" s="51"/>
-      <c r="N72" s="51"/>
-      <c r="O72" s="52"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="41"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R72" s="50">
+      <c r="R72" s="39">
         <f>R71+R48</f>
         <v>0</v>
       </c>
-      <c r="S72" s="51"/>
-      <c r="T72" s="51"/>
-      <c r="U72" s="51"/>
-      <c r="V72" s="51"/>
-      <c r="W72" s="52"/>
+      <c r="S72" s="40"/>
+      <c r="T72" s="40"/>
+      <c r="U72" s="40"/>
+      <c r="V72" s="40"/>
+      <c r="W72" s="41"/>
       <c r="X72" s="12"/>
       <c r="Y72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z72" s="50">
+      <c r="Z72" s="39">
         <f>Z71+Z48</f>
         <v>0</v>
       </c>
-      <c r="AA72" s="51"/>
-      <c r="AB72" s="51"/>
-      <c r="AC72" s="51"/>
-      <c r="AD72" s="51"/>
-      <c r="AE72" s="52"/>
+      <c r="AA72" s="40"/>
+      <c r="AB72" s="40"/>
+      <c r="AC72" s="40"/>
+      <c r="AD72" s="40"/>
+      <c r="AE72" s="41"/>
       <c r="AF72" s="12"/>
     </row>
     <row r="73" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35259,270 +35332,270 @@
       <c r="A92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="46">
+      <c r="B92" s="42">
         <f>E91+B68</f>
         <v>11.923108687500001</v>
       </c>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="48"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="44"/>
       <c r="H92" s="12"/>
       <c r="I92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J92" s="46">
+      <c r="J92" s="42">
         <f>M91+J68</f>
         <v>0</v>
       </c>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="47"/>
-      <c r="O92" s="48"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="43"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="44"/>
       <c r="P92" s="12"/>
       <c r="Q92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R92" s="46">
+      <c r="R92" s="42">
         <f>U91+R68</f>
         <v>0</v>
       </c>
-      <c r="S92" s="47"/>
-      <c r="T92" s="47"/>
-      <c r="U92" s="47"/>
-      <c r="V92" s="47"/>
-      <c r="W92" s="48"/>
+      <c r="S92" s="43"/>
+      <c r="T92" s="43"/>
+      <c r="U92" s="43"/>
+      <c r="V92" s="43"/>
+      <c r="W92" s="44"/>
       <c r="X92" s="12"/>
       <c r="Y92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z92" s="46">
+      <c r="Z92" s="42">
         <f>AC91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA92" s="47"/>
-      <c r="AB92" s="47"/>
-      <c r="AC92" s="47"/>
-      <c r="AD92" s="47"/>
-      <c r="AE92" s="48"/>
+      <c r="AA92" s="43"/>
+      <c r="AB92" s="43"/>
+      <c r="AC92" s="43"/>
+      <c r="AD92" s="43"/>
+      <c r="AE92" s="44"/>
       <c r="AF92" s="12"/>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="46">
+      <c r="B93" s="42">
         <f>C91+B68</f>
         <v>11.923108687500001</v>
       </c>
-      <c r="C93" s="47"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="48"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="44"/>
       <c r="H93" s="12"/>
       <c r="I93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J93" s="46">
+      <c r="J93" s="42">
         <f>K91+J68</f>
         <v>0</v>
       </c>
-      <c r="K93" s="47"/>
-      <c r="L93" s="47"/>
-      <c r="M93" s="47"/>
-      <c r="N93" s="47"/>
-      <c r="O93" s="48"/>
+      <c r="K93" s="43"/>
+      <c r="L93" s="43"/>
+      <c r="M93" s="43"/>
+      <c r="N93" s="43"/>
+      <c r="O93" s="44"/>
       <c r="P93" s="12"/>
       <c r="Q93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R93" s="46">
+      <c r="R93" s="42">
         <f>S91+R68</f>
         <v>0</v>
       </c>
-      <c r="S93" s="47"/>
-      <c r="T93" s="47"/>
-      <c r="U93" s="47"/>
-      <c r="V93" s="47"/>
-      <c r="W93" s="48"/>
+      <c r="S93" s="43"/>
+      <c r="T93" s="43"/>
+      <c r="U93" s="43"/>
+      <c r="V93" s="43"/>
+      <c r="W93" s="44"/>
       <c r="X93" s="12"/>
       <c r="Y93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z93" s="46">
+      <c r="Z93" s="42">
         <f>AA91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA93" s="47"/>
-      <c r="AB93" s="47"/>
-      <c r="AC93" s="47"/>
-      <c r="AD93" s="47"/>
-      <c r="AE93" s="48"/>
+      <c r="AA93" s="43"/>
+      <c r="AB93" s="43"/>
+      <c r="AC93" s="43"/>
+      <c r="AD93" s="43"/>
+      <c r="AE93" s="44"/>
       <c r="AF93" s="12"/>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="46">
+      <c r="B94" s="42">
         <f>IFERROR((G91/10/B92),0)</f>
         <v>0</v>
       </c>
-      <c r="C94" s="47"/>
-      <c r="D94" s="47"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="48"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="44"/>
       <c r="H94" s="12"/>
       <c r="I94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J94" s="46">
+      <c r="J94" s="42">
         <f>IFERROR((O91/10/J92),0)</f>
         <v>0</v>
       </c>
-      <c r="K94" s="47"/>
-      <c r="L94" s="47"/>
-      <c r="M94" s="47"/>
-      <c r="N94" s="47"/>
-      <c r="O94" s="48"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="43"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="43"/>
+      <c r="O94" s="44"/>
       <c r="P94" s="12"/>
       <c r="Q94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R94" s="46">
+      <c r="R94" s="42">
         <f>IFERROR((W91/10/R92),0)</f>
         <v>0</v>
       </c>
-      <c r="S94" s="47"/>
-      <c r="T94" s="47"/>
-      <c r="U94" s="47"/>
-      <c r="V94" s="47"/>
-      <c r="W94" s="48"/>
+      <c r="S94" s="43"/>
+      <c r="T94" s="43"/>
+      <c r="U94" s="43"/>
+      <c r="V94" s="43"/>
+      <c r="W94" s="44"/>
       <c r="X94" s="12"/>
       <c r="Y94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z94" s="46">
+      <c r="Z94" s="42">
         <f>IFERROR((AE91/10/Z92),0)</f>
         <v>0</v>
       </c>
-      <c r="AA94" s="47"/>
-      <c r="AB94" s="47"/>
-      <c r="AC94" s="47"/>
-      <c r="AD94" s="47"/>
-      <c r="AE94" s="48"/>
+      <c r="AA94" s="43"/>
+      <c r="AB94" s="43"/>
+      <c r="AC94" s="43"/>
+      <c r="AD94" s="43"/>
+      <c r="AE94" s="44"/>
       <c r="AF94" s="12"/>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="46">
+      <c r="B95" s="42">
         <f>IFERROR((9.82 * F91) * LN(B92/B93),0)</f>
         <v>0</v>
       </c>
-      <c r="C95" s="47"/>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="47"/>
-      <c r="G95" s="48"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="44"/>
       <c r="H95" s="12"/>
       <c r="I95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J95" s="46">
+      <c r="J95" s="42">
         <f>IFERROR((9.82 * N91) * LN(J92/J93),0)</f>
         <v>0</v>
       </c>
-      <c r="K95" s="47"/>
-      <c r="L95" s="47"/>
-      <c r="M95" s="47"/>
-      <c r="N95" s="47"/>
-      <c r="O95" s="48"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="43"/>
+      <c r="M95" s="43"/>
+      <c r="N95" s="43"/>
+      <c r="O95" s="44"/>
       <c r="P95" s="12"/>
       <c r="Q95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R95" s="46">
+      <c r="R95" s="42">
         <f>IFERROR((9.82 * V91) * LN(R92/R93),0)</f>
         <v>0</v>
       </c>
-      <c r="S95" s="47"/>
-      <c r="T95" s="47"/>
-      <c r="U95" s="47"/>
-      <c r="V95" s="47"/>
-      <c r="W95" s="48"/>
+      <c r="S95" s="43"/>
+      <c r="T95" s="43"/>
+      <c r="U95" s="43"/>
+      <c r="V95" s="43"/>
+      <c r="W95" s="44"/>
       <c r="X95" s="12"/>
       <c r="Y95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z95" s="46">
+      <c r="Z95" s="42">
         <f>IFERROR((9.82 * AD91) * LN(Z92/Z93),0)</f>
         <v>0</v>
       </c>
-      <c r="AA95" s="47"/>
-      <c r="AB95" s="47"/>
-      <c r="AC95" s="47"/>
-      <c r="AD95" s="47"/>
-      <c r="AE95" s="48"/>
+      <c r="AA95" s="43"/>
+      <c r="AB95" s="43"/>
+      <c r="AC95" s="43"/>
+      <c r="AD95" s="43"/>
+      <c r="AE95" s="44"/>
       <c r="AF95" s="12"/>
     </row>
     <row r="96" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="50">
+      <c r="B96" s="39">
         <f>B95+B72</f>
         <v>6245.7915133757406</v>
       </c>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
-      <c r="G96" s="52"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="41"/>
       <c r="H96" s="12"/>
       <c r="I96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J96" s="50">
+      <c r="J96" s="39">
         <f>J95+J72</f>
         <v>0</v>
       </c>
-      <c r="K96" s="51"/>
-      <c r="L96" s="51"/>
-      <c r="M96" s="51"/>
-      <c r="N96" s="51"/>
-      <c r="O96" s="52"/>
+      <c r="K96" s="40"/>
+      <c r="L96" s="40"/>
+      <c r="M96" s="40"/>
+      <c r="N96" s="40"/>
+      <c r="O96" s="41"/>
       <c r="P96" s="12"/>
       <c r="Q96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R96" s="50">
+      <c r="R96" s="39">
         <f>R95+R72</f>
         <v>0</v>
       </c>
-      <c r="S96" s="51"/>
-      <c r="T96" s="51"/>
-      <c r="U96" s="51"/>
-      <c r="V96" s="51"/>
-      <c r="W96" s="52"/>
+      <c r="S96" s="40"/>
+      <c r="T96" s="40"/>
+      <c r="U96" s="40"/>
+      <c r="V96" s="40"/>
+      <c r="W96" s="41"/>
       <c r="X96" s="12"/>
       <c r="Y96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z96" s="50">
+      <c r="Z96" s="39">
         <f>Z95+Z72</f>
         <v>0</v>
       </c>
-      <c r="AA96" s="51"/>
-      <c r="AB96" s="51"/>
-      <c r="AC96" s="51"/>
-      <c r="AD96" s="51"/>
-      <c r="AE96" s="52"/>
+      <c r="AA96" s="40"/>
+      <c r="AB96" s="40"/>
+      <c r="AC96" s="40"/>
+      <c r="AD96" s="40"/>
+      <c r="AE96" s="41"/>
       <c r="AF96" s="12"/>
     </row>
     <row r="97" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37259,270 +37332,270 @@
       <c r="A116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B116" s="46">
+      <c r="B116" s="42">
         <f>E115+B92</f>
         <v>11.923108687500001</v>
       </c>
-      <c r="C116" s="47"/>
-      <c r="D116" s="47"/>
-      <c r="E116" s="47"/>
-      <c r="F116" s="47"/>
-      <c r="G116" s="48"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="43"/>
+      <c r="F116" s="43"/>
+      <c r="G116" s="44"/>
       <c r="H116" s="12"/>
       <c r="I116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J116" s="46">
+      <c r="J116" s="42">
         <f>M115+J92</f>
         <v>0</v>
       </c>
-      <c r="K116" s="47"/>
-      <c r="L116" s="47"/>
-      <c r="M116" s="47"/>
-      <c r="N116" s="47"/>
-      <c r="O116" s="48"/>
+      <c r="K116" s="43"/>
+      <c r="L116" s="43"/>
+      <c r="M116" s="43"/>
+      <c r="N116" s="43"/>
+      <c r="O116" s="44"/>
       <c r="P116" s="12"/>
       <c r="Q116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R116" s="46">
+      <c r="R116" s="42">
         <f>U115+R92</f>
         <v>0</v>
       </c>
-      <c r="S116" s="47"/>
-      <c r="T116" s="47"/>
-      <c r="U116" s="47"/>
-      <c r="V116" s="47"/>
-      <c r="W116" s="48"/>
+      <c r="S116" s="43"/>
+      <c r="T116" s="43"/>
+      <c r="U116" s="43"/>
+      <c r="V116" s="43"/>
+      <c r="W116" s="44"/>
       <c r="X116" s="12"/>
       <c r="Y116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z116" s="46">
+      <c r="Z116" s="42">
         <f>AC115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA116" s="47"/>
-      <c r="AB116" s="47"/>
-      <c r="AC116" s="47"/>
-      <c r="AD116" s="47"/>
-      <c r="AE116" s="48"/>
+      <c r="AA116" s="43"/>
+      <c r="AB116" s="43"/>
+      <c r="AC116" s="43"/>
+      <c r="AD116" s="43"/>
+      <c r="AE116" s="44"/>
       <c r="AF116" s="12"/>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B117" s="46">
+      <c r="B117" s="42">
         <f>C115+B92</f>
         <v>11.923108687500001</v>
       </c>
-      <c r="C117" s="47"/>
-      <c r="D117" s="47"/>
-      <c r="E117" s="47"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="48"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="43"/>
+      <c r="F117" s="43"/>
+      <c r="G117" s="44"/>
       <c r="H117" s="12"/>
       <c r="I117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J117" s="46">
+      <c r="J117" s="42">
         <f>K115+J92</f>
         <v>0</v>
       </c>
-      <c r="K117" s="47"/>
-      <c r="L117" s="47"/>
-      <c r="M117" s="47"/>
-      <c r="N117" s="47"/>
-      <c r="O117" s="48"/>
+      <c r="K117" s="43"/>
+      <c r="L117" s="43"/>
+      <c r="M117" s="43"/>
+      <c r="N117" s="43"/>
+      <c r="O117" s="44"/>
       <c r="P117" s="12"/>
       <c r="Q117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R117" s="46">
+      <c r="R117" s="42">
         <f>S115+R92</f>
         <v>0</v>
       </c>
-      <c r="S117" s="47"/>
-      <c r="T117" s="47"/>
-      <c r="U117" s="47"/>
-      <c r="V117" s="47"/>
-      <c r="W117" s="48"/>
+      <c r="S117" s="43"/>
+      <c r="T117" s="43"/>
+      <c r="U117" s="43"/>
+      <c r="V117" s="43"/>
+      <c r="W117" s="44"/>
       <c r="X117" s="12"/>
       <c r="Y117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z117" s="46">
+      <c r="Z117" s="42">
         <f>AA115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA117" s="47"/>
-      <c r="AB117" s="47"/>
-      <c r="AC117" s="47"/>
-      <c r="AD117" s="47"/>
-      <c r="AE117" s="48"/>
+      <c r="AA117" s="43"/>
+      <c r="AB117" s="43"/>
+      <c r="AC117" s="43"/>
+      <c r="AD117" s="43"/>
+      <c r="AE117" s="44"/>
       <c r="AF117" s="12"/>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B118" s="46">
+      <c r="B118" s="42">
         <f>IFERROR((G115/10/B116),0)</f>
         <v>0</v>
       </c>
-      <c r="C118" s="47"/>
-      <c r="D118" s="47"/>
-      <c r="E118" s="47"/>
-      <c r="F118" s="47"/>
-      <c r="G118" s="48"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="43"/>
+      <c r="E118" s="43"/>
+      <c r="F118" s="43"/>
+      <c r="G118" s="44"/>
       <c r="H118" s="12"/>
       <c r="I118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J118" s="46">
+      <c r="J118" s="42">
         <f>IFERROR((O115/10/J116),0)</f>
         <v>0</v>
       </c>
-      <c r="K118" s="47"/>
-      <c r="L118" s="47"/>
-      <c r="M118" s="47"/>
-      <c r="N118" s="47"/>
-      <c r="O118" s="48"/>
+      <c r="K118" s="43"/>
+      <c r="L118" s="43"/>
+      <c r="M118" s="43"/>
+      <c r="N118" s="43"/>
+      <c r="O118" s="44"/>
       <c r="P118" s="12"/>
       <c r="Q118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R118" s="46">
+      <c r="R118" s="42">
         <f>IFERROR((W115/10/R116),0)</f>
         <v>0</v>
       </c>
-      <c r="S118" s="47"/>
-      <c r="T118" s="47"/>
-      <c r="U118" s="47"/>
-      <c r="V118" s="47"/>
-      <c r="W118" s="48"/>
+      <c r="S118" s="43"/>
+      <c r="T118" s="43"/>
+      <c r="U118" s="43"/>
+      <c r="V118" s="43"/>
+      <c r="W118" s="44"/>
       <c r="X118" s="12"/>
       <c r="Y118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z118" s="46">
+      <c r="Z118" s="42">
         <f>IFERROR((AE115/10/Z116),0)</f>
         <v>0</v>
       </c>
-      <c r="AA118" s="47"/>
-      <c r="AB118" s="47"/>
-      <c r="AC118" s="47"/>
-      <c r="AD118" s="47"/>
-      <c r="AE118" s="48"/>
+      <c r="AA118" s="43"/>
+      <c r="AB118" s="43"/>
+      <c r="AC118" s="43"/>
+      <c r="AD118" s="43"/>
+      <c r="AE118" s="44"/>
       <c r="AF118" s="12"/>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B119" s="46">
+      <c r="B119" s="42">
         <f>IFERROR((9.82 * F115) * LN(B116/B117),0)</f>
         <v>0</v>
       </c>
-      <c r="C119" s="47"/>
-      <c r="D119" s="47"/>
-      <c r="E119" s="47"/>
-      <c r="F119" s="47"/>
-      <c r="G119" s="48"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="43"/>
+      <c r="E119" s="43"/>
+      <c r="F119" s="43"/>
+      <c r="G119" s="44"/>
       <c r="H119" s="12"/>
       <c r="I119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J119" s="46">
+      <c r="J119" s="42">
         <f>IFERROR((9.82 * N115) * LN(J116/J117),0)</f>
         <v>0</v>
       </c>
-      <c r="K119" s="47"/>
-      <c r="L119" s="47"/>
-      <c r="M119" s="47"/>
-      <c r="N119" s="47"/>
-      <c r="O119" s="48"/>
+      <c r="K119" s="43"/>
+      <c r="L119" s="43"/>
+      <c r="M119" s="43"/>
+      <c r="N119" s="43"/>
+      <c r="O119" s="44"/>
       <c r="P119" s="12"/>
       <c r="Q119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R119" s="46">
+      <c r="R119" s="42">
         <f>IFERROR((9.82 * V115) * LN(R116/R117),0)</f>
         <v>0</v>
       </c>
-      <c r="S119" s="47"/>
-      <c r="T119" s="47"/>
-      <c r="U119" s="47"/>
-      <c r="V119" s="47"/>
-      <c r="W119" s="48"/>
+      <c r="S119" s="43"/>
+      <c r="T119" s="43"/>
+      <c r="U119" s="43"/>
+      <c r="V119" s="43"/>
+      <c r="W119" s="44"/>
       <c r="X119" s="12"/>
       <c r="Y119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z119" s="46">
+      <c r="Z119" s="42">
         <f>IFERROR((9.82 * AD115) * LN(Z116/Z117),0)</f>
         <v>0</v>
       </c>
-      <c r="AA119" s="47"/>
-      <c r="AB119" s="47"/>
-      <c r="AC119" s="47"/>
-      <c r="AD119" s="47"/>
-      <c r="AE119" s="48"/>
+      <c r="AA119" s="43"/>
+      <c r="AB119" s="43"/>
+      <c r="AC119" s="43"/>
+      <c r="AD119" s="43"/>
+      <c r="AE119" s="44"/>
       <c r="AF119" s="12"/>
     </row>
     <row r="120" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B120" s="50">
+      <c r="B120" s="39">
         <f>B119+B96</f>
         <v>6245.7915133757406</v>
       </c>
-      <c r="C120" s="51"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="51"/>
-      <c r="F120" s="51"/>
-      <c r="G120" s="52"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="40"/>
+      <c r="F120" s="40"/>
+      <c r="G120" s="41"/>
       <c r="H120" s="12"/>
       <c r="I120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J120" s="50">
+      <c r="J120" s="39">
         <f>J119+J96</f>
         <v>0</v>
       </c>
-      <c r="K120" s="51"/>
-      <c r="L120" s="51"/>
-      <c r="M120" s="51"/>
-      <c r="N120" s="51"/>
-      <c r="O120" s="52"/>
+      <c r="K120" s="40"/>
+      <c r="L120" s="40"/>
+      <c r="M120" s="40"/>
+      <c r="N120" s="40"/>
+      <c r="O120" s="41"/>
       <c r="P120" s="12"/>
       <c r="Q120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R120" s="50">
+      <c r="R120" s="39">
         <f>R119+R96</f>
         <v>0</v>
       </c>
-      <c r="S120" s="51"/>
-      <c r="T120" s="51"/>
-      <c r="U120" s="51"/>
-      <c r="V120" s="51"/>
-      <c r="W120" s="52"/>
+      <c r="S120" s="40"/>
+      <c r="T120" s="40"/>
+      <c r="U120" s="40"/>
+      <c r="V120" s="40"/>
+      <c r="W120" s="41"/>
       <c r="X120" s="12"/>
       <c r="Y120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z120" s="50">
+      <c r="Z120" s="39">
         <f>Z119+Z96</f>
         <v>0</v>
       </c>
-      <c r="AA120" s="51"/>
-      <c r="AB120" s="51"/>
-      <c r="AC120" s="51"/>
-      <c r="AD120" s="51"/>
-      <c r="AE120" s="52"/>
+      <c r="AA120" s="40"/>
+      <c r="AB120" s="40"/>
+      <c r="AC120" s="40"/>
+      <c r="AD120" s="40"/>
+      <c r="AE120" s="41"/>
       <c r="AF120" s="12"/>
     </row>
     <row r="121" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37560,315 +37633,315 @@
       <c r="AF121" s="12"/>
     </row>
     <row r="122" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="41" t="s">
+      <c r="A122" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="B122" s="42"/>
-      <c r="C122" s="42"/>
-      <c r="D122" s="42"/>
-      <c r="E122" s="42"/>
-      <c r="F122" s="42"/>
-      <c r="G122" s="43"/>
+      <c r="B122" s="47"/>
+      <c r="C122" s="47"/>
+      <c r="D122" s="47"/>
+      <c r="E122" s="47"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="48"/>
       <c r="H122" s="12"/>
-      <c r="I122" s="41" t="s">
+      <c r="I122" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="J122" s="42"/>
-      <c r="K122" s="42"/>
-      <c r="L122" s="42"/>
-      <c r="M122" s="42"/>
-      <c r="N122" s="42"/>
-      <c r="O122" s="43"/>
+      <c r="J122" s="47"/>
+      <c r="K122" s="47"/>
+      <c r="L122" s="47"/>
+      <c r="M122" s="47"/>
+      <c r="N122" s="47"/>
+      <c r="O122" s="48"/>
       <c r="P122" s="12"/>
-      <c r="Q122" s="41" t="s">
+      <c r="Q122" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="R122" s="42"/>
-      <c r="S122" s="42"/>
-      <c r="T122" s="42"/>
-      <c r="U122" s="42"/>
-      <c r="V122" s="42"/>
-      <c r="W122" s="43"/>
+      <c r="R122" s="47"/>
+      <c r="S122" s="47"/>
+      <c r="T122" s="47"/>
+      <c r="U122" s="47"/>
+      <c r="V122" s="47"/>
+      <c r="W122" s="48"/>
       <c r="X122" s="12"/>
-      <c r="Y122" s="41" t="s">
+      <c r="Y122" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="Z122" s="42"/>
-      <c r="AA122" s="42"/>
-      <c r="AB122" s="42"/>
-      <c r="AC122" s="42"/>
-      <c r="AD122" s="42"/>
-      <c r="AE122" s="43"/>
+      <c r="Z122" s="47"/>
+      <c r="AA122" s="47"/>
+      <c r="AB122" s="47"/>
+      <c r="AC122" s="47"/>
+      <c r="AD122" s="47"/>
+      <c r="AE122" s="48"/>
       <c r="AF122" s="12"/>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A123" s="44" t="s">
+      <c r="A123" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B123" s="44"/>
-      <c r="C123" s="44"/>
-      <c r="D123" s="45">
+      <c r="B123" s="51"/>
+      <c r="C123" s="51"/>
+      <c r="D123" s="50">
         <f>B115</f>
         <v>3</v>
       </c>
-      <c r="E123" s="45"/>
-      <c r="F123" s="45"/>
-      <c r="G123" s="45"/>
+      <c r="E123" s="50"/>
+      <c r="F123" s="50"/>
+      <c r="G123" s="50"/>
       <c r="H123" s="12"/>
-      <c r="I123" s="44" t="s">
+      <c r="I123" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="J123" s="44"/>
-      <c r="K123" s="44"/>
-      <c r="L123" s="45">
+      <c r="J123" s="51"/>
+      <c r="K123" s="51"/>
+      <c r="L123" s="50">
         <f>J115</f>
         <v>0</v>
       </c>
-      <c r="M123" s="45"/>
-      <c r="N123" s="45"/>
-      <c r="O123" s="45"/>
+      <c r="M123" s="50"/>
+      <c r="N123" s="50"/>
+      <c r="O123" s="50"/>
       <c r="P123" s="12"/>
-      <c r="Q123" s="44" t="s">
+      <c r="Q123" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="R123" s="44"/>
-      <c r="S123" s="44"/>
-      <c r="T123" s="45">
+      <c r="R123" s="51"/>
+      <c r="S123" s="51"/>
+      <c r="T123" s="50">
         <f>R115</f>
         <v>0</v>
       </c>
-      <c r="U123" s="45"/>
-      <c r="V123" s="45"/>
-      <c r="W123" s="45"/>
+      <c r="U123" s="50"/>
+      <c r="V123" s="50"/>
+      <c r="W123" s="50"/>
       <c r="X123" s="12"/>
-      <c r="Y123" s="44" t="s">
+      <c r="Y123" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="Z123" s="44"/>
-      <c r="AA123" s="44"/>
-      <c r="AB123" s="45">
+      <c r="Z123" s="51"/>
+      <c r="AA123" s="51"/>
+      <c r="AB123" s="50">
         <f>Z115</f>
         <v>0</v>
       </c>
-      <c r="AC123" s="45"/>
-      <c r="AD123" s="45"/>
-      <c r="AE123" s="45"/>
+      <c r="AC123" s="50"/>
+      <c r="AD123" s="50"/>
+      <c r="AE123" s="50"/>
       <c r="AF123" s="12"/>
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A124" s="39" t="s">
+      <c r="A124" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="39"/>
-      <c r="C124" s="39"/>
-      <c r="D124" s="40">
+      <c r="B124" s="52"/>
+      <c r="C124" s="52"/>
+      <c r="D124" s="49">
         <f>B116</f>
         <v>11.923108687500001</v>
       </c>
-      <c r="E124" s="40"/>
-      <c r="F124" s="40"/>
-      <c r="G124" s="40"/>
+      <c r="E124" s="49"/>
+      <c r="F124" s="49"/>
+      <c r="G124" s="49"/>
       <c r="H124" s="12"/>
-      <c r="I124" s="39" t="s">
+      <c r="I124" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="J124" s="39"/>
-      <c r="K124" s="39"/>
-      <c r="L124" s="40">
+      <c r="J124" s="52"/>
+      <c r="K124" s="52"/>
+      <c r="L124" s="49">
         <f>J116</f>
         <v>0</v>
       </c>
-      <c r="M124" s="40"/>
-      <c r="N124" s="40"/>
-      <c r="O124" s="40"/>
+      <c r="M124" s="49"/>
+      <c r="N124" s="49"/>
+      <c r="O124" s="49"/>
       <c r="P124" s="12"/>
-      <c r="Q124" s="39" t="s">
+      <c r="Q124" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="R124" s="39"/>
-      <c r="S124" s="39"/>
-      <c r="T124" s="40">
+      <c r="R124" s="52"/>
+      <c r="S124" s="52"/>
+      <c r="T124" s="49">
         <f>R116</f>
         <v>0</v>
       </c>
-      <c r="U124" s="40"/>
-      <c r="V124" s="40"/>
-      <c r="W124" s="40"/>
+      <c r="U124" s="49"/>
+      <c r="V124" s="49"/>
+      <c r="W124" s="49"/>
       <c r="X124" s="12"/>
-      <c r="Y124" s="39" t="s">
+      <c r="Y124" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="Z124" s="39"/>
-      <c r="AA124" s="39"/>
-      <c r="AB124" s="40">
+      <c r="Z124" s="52"/>
+      <c r="AA124" s="52"/>
+      <c r="AB124" s="49">
         <f>Z116</f>
         <v>0</v>
       </c>
-      <c r="AC124" s="40"/>
-      <c r="AD124" s="40"/>
-      <c r="AE124" s="40"/>
+      <c r="AC124" s="49"/>
+      <c r="AD124" s="49"/>
+      <c r="AE124" s="49"/>
       <c r="AF124" s="12"/>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A125" s="39" t="s">
+      <c r="A125" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="39"/>
-      <c r="C125" s="39"/>
-      <c r="D125" s="40">
+      <c r="B125" s="52"/>
+      <c r="C125" s="52"/>
+      <c r="D125" s="49">
         <f>D115+D91+D67+D43+D19</f>
         <v>8.9766162500000011</v>
       </c>
-      <c r="E125" s="40"/>
-      <c r="F125" s="40"/>
-      <c r="G125" s="40"/>
+      <c r="E125" s="49"/>
+      <c r="F125" s="49"/>
+      <c r="G125" s="49"/>
       <c r="H125" s="12"/>
-      <c r="I125" s="39" t="s">
+      <c r="I125" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J125" s="39"/>
-      <c r="K125" s="39"/>
-      <c r="L125" s="40">
+      <c r="J125" s="52"/>
+      <c r="K125" s="52"/>
+      <c r="L125" s="49">
         <f>L115+L91+L67+L43+L19</f>
         <v>0</v>
       </c>
-      <c r="M125" s="40"/>
-      <c r="N125" s="40"/>
-      <c r="O125" s="40"/>
+      <c r="M125" s="49"/>
+      <c r="N125" s="49"/>
+      <c r="O125" s="49"/>
       <c r="P125" s="12"/>
-      <c r="Q125" s="39" t="s">
+      <c r="Q125" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="R125" s="39"/>
-      <c r="S125" s="39"/>
-      <c r="T125" s="40">
+      <c r="R125" s="52"/>
+      <c r="S125" s="52"/>
+      <c r="T125" s="49">
         <f>T115+T91+T67+T43+T19</f>
         <v>0</v>
       </c>
-      <c r="U125" s="40"/>
-      <c r="V125" s="40"/>
-      <c r="W125" s="40"/>
+      <c r="U125" s="49"/>
+      <c r="V125" s="49"/>
+      <c r="W125" s="49"/>
       <c r="X125" s="12"/>
-      <c r="Y125" s="39" t="s">
+      <c r="Y125" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="Z125" s="39"/>
-      <c r="AA125" s="39"/>
-      <c r="AB125" s="40">
+      <c r="Z125" s="52"/>
+      <c r="AA125" s="52"/>
+      <c r="AB125" s="49">
         <f>AB115+AB91+AB67+AB43+AB19</f>
         <v>0</v>
       </c>
-      <c r="AC125" s="40"/>
-      <c r="AD125" s="40"/>
-      <c r="AE125" s="40"/>
+      <c r="AC125" s="49"/>
+      <c r="AD125" s="49"/>
+      <c r="AE125" s="49"/>
       <c r="AF125" s="12"/>
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A126" s="39" t="s">
+      <c r="A126" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="39"/>
-      <c r="C126" s="39"/>
-      <c r="D126" s="40">
+      <c r="B126" s="52"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="49">
         <f>D124-D125</f>
         <v>2.9464924374999999</v>
       </c>
-      <c r="E126" s="40"/>
-      <c r="F126" s="40"/>
-      <c r="G126" s="40"/>
+      <c r="E126" s="49"/>
+      <c r="F126" s="49"/>
+      <c r="G126" s="49"/>
       <c r="H126" s="12"/>
-      <c r="I126" s="39" t="s">
+      <c r="I126" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="J126" s="39"/>
-      <c r="K126" s="39"/>
-      <c r="L126" s="40">
+      <c r="J126" s="52"/>
+      <c r="K126" s="52"/>
+      <c r="L126" s="49">
         <f>L124-L125</f>
         <v>0</v>
       </c>
-      <c r="M126" s="40"/>
-      <c r="N126" s="40"/>
-      <c r="O126" s="40"/>
+      <c r="M126" s="49"/>
+      <c r="N126" s="49"/>
+      <c r="O126" s="49"/>
       <c r="P126" s="12"/>
-      <c r="Q126" s="39" t="s">
+      <c r="Q126" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="R126" s="39"/>
-      <c r="S126" s="39"/>
-      <c r="T126" s="40">
+      <c r="R126" s="52"/>
+      <c r="S126" s="52"/>
+      <c r="T126" s="49">
         <f>T124-T125</f>
         <v>0</v>
       </c>
-      <c r="U126" s="40"/>
-      <c r="V126" s="40"/>
-      <c r="W126" s="40"/>
+      <c r="U126" s="49"/>
+      <c r="V126" s="49"/>
+      <c r="W126" s="49"/>
       <c r="X126" s="12"/>
-      <c r="Y126" s="39" t="s">
+      <c r="Y126" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="Z126" s="39"/>
-      <c r="AA126" s="39"/>
-      <c r="AB126" s="40">
+      <c r="Z126" s="52"/>
+      <c r="AA126" s="52"/>
+      <c r="AB126" s="49">
         <f>AB124-AB125</f>
         <v>0</v>
       </c>
-      <c r="AC126" s="40"/>
-      <c r="AD126" s="40"/>
-      <c r="AE126" s="40"/>
+      <c r="AC126" s="49"/>
+      <c r="AD126" s="49"/>
+      <c r="AE126" s="49"/>
       <c r="AF126" s="12"/>
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A127" s="39" t="s">
+      <c r="A127" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="39"/>
-      <c r="C127" s="39"/>
-      <c r="D127" s="40">
+      <c r="B127" s="52"/>
+      <c r="C127" s="52"/>
+      <c r="D127" s="49">
         <f>B120</f>
         <v>6245.7915133757406</v>
       </c>
-      <c r="E127" s="40"/>
-      <c r="F127" s="40"/>
-      <c r="G127" s="40"/>
+      <c r="E127" s="49"/>
+      <c r="F127" s="49"/>
+      <c r="G127" s="49"/>
       <c r="H127" s="12"/>
-      <c r="I127" s="39" t="s">
+      <c r="I127" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="J127" s="39"/>
-      <c r="K127" s="39"/>
-      <c r="L127" s="40">
+      <c r="J127" s="52"/>
+      <c r="K127" s="52"/>
+      <c r="L127" s="49">
         <f>J120</f>
         <v>0</v>
       </c>
-      <c r="M127" s="40"/>
-      <c r="N127" s="40"/>
-      <c r="O127" s="40"/>
+      <c r="M127" s="49"/>
+      <c r="N127" s="49"/>
+      <c r="O127" s="49"/>
       <c r="P127" s="12"/>
-      <c r="Q127" s="39" t="s">
+      <c r="Q127" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="R127" s="39"/>
-      <c r="S127" s="39"/>
-      <c r="T127" s="40">
+      <c r="R127" s="52"/>
+      <c r="S127" s="52"/>
+      <c r="T127" s="49">
         <f>R120</f>
         <v>0</v>
       </c>
-      <c r="U127" s="40"/>
-      <c r="V127" s="40"/>
-      <c r="W127" s="40"/>
+      <c r="U127" s="49"/>
+      <c r="V127" s="49"/>
+      <c r="W127" s="49"/>
       <c r="X127" s="12"/>
-      <c r="Y127" s="39" t="s">
+      <c r="Y127" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="Z127" s="39"/>
-      <c r="AA127" s="39"/>
-      <c r="AB127" s="40">
+      <c r="Z127" s="52"/>
+      <c r="AA127" s="52"/>
+      <c r="AB127" s="49">
         <f>Z120</f>
         <v>0</v>
       </c>
-      <c r="AC127" s="40"/>
-      <c r="AD127" s="40"/>
-      <c r="AE127" s="40"/>
+      <c r="AC127" s="49"/>
+      <c r="AD127" s="49"/>
+      <c r="AE127" s="49"/>
       <c r="AF127" s="12"/>
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.25">
@@ -37907,87 +37980,49 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="J120:O120"/>
-    <mergeCell ref="R120:W120"/>
-    <mergeCell ref="Z120:AE120"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="J119:O119"/>
-    <mergeCell ref="R119:W119"/>
-    <mergeCell ref="Z119:AE119"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="J118:O118"/>
-    <mergeCell ref="R118:W118"/>
-    <mergeCell ref="Z118:AE118"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="J117:O117"/>
-    <mergeCell ref="R117:W117"/>
-    <mergeCell ref="Z117:AE117"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="J116:O116"/>
-    <mergeCell ref="R116:W116"/>
-    <mergeCell ref="Z116:AE116"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="J96:O96"/>
-    <mergeCell ref="R96:W96"/>
-    <mergeCell ref="Z96:AE96"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="J95:O95"/>
-    <mergeCell ref="R95:W95"/>
-    <mergeCell ref="Z95:AE95"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="J94:O94"/>
-    <mergeCell ref="R94:W94"/>
-    <mergeCell ref="Z94:AE94"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="J93:O93"/>
-    <mergeCell ref="R93:W93"/>
-    <mergeCell ref="Z93:AE93"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="J92:O92"/>
-    <mergeCell ref="R92:W92"/>
-    <mergeCell ref="Z92:AE92"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="J72:O72"/>
-    <mergeCell ref="R72:W72"/>
-    <mergeCell ref="Z72:AE72"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="J71:O71"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="Z71:AE71"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="J70:O70"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="Z70:AE70"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="J69:O69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="Z69:AE69"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="J68:O68"/>
-    <mergeCell ref="R68:W68"/>
-    <mergeCell ref="Z68:AE68"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="R48:W48"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="R47:W47"/>
-    <mergeCell ref="Z47:AE47"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="R46:W46"/>
-    <mergeCell ref="Z46:AE46"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="R44:W44"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="Z24:AE24"/>
+    <mergeCell ref="Y127:AA127"/>
+    <mergeCell ref="AB127:AE127"/>
+    <mergeCell ref="Y122:AE122"/>
+    <mergeCell ref="Y123:AA123"/>
+    <mergeCell ref="AB123:AE123"/>
+    <mergeCell ref="Y124:AA124"/>
+    <mergeCell ref="AB124:AE124"/>
+    <mergeCell ref="Y125:AA125"/>
+    <mergeCell ref="AB125:AE125"/>
+    <mergeCell ref="Y126:AA126"/>
+    <mergeCell ref="AB126:AE126"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="L127:O127"/>
+    <mergeCell ref="Q122:W122"/>
+    <mergeCell ref="Q123:S123"/>
+    <mergeCell ref="T123:W123"/>
+    <mergeCell ref="Q124:S124"/>
+    <mergeCell ref="T124:W124"/>
+    <mergeCell ref="Q125:S125"/>
+    <mergeCell ref="T125:W125"/>
+    <mergeCell ref="Q126:S126"/>
+    <mergeCell ref="T126:W126"/>
+    <mergeCell ref="Q127:S127"/>
+    <mergeCell ref="T127:W127"/>
+    <mergeCell ref="I122:O122"/>
+    <mergeCell ref="I123:K123"/>
+    <mergeCell ref="L123:O123"/>
+    <mergeCell ref="I124:K124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="I125:K125"/>
+    <mergeCell ref="L125:O125"/>
+    <mergeCell ref="I126:K126"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="D126:G126"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="J20:O20"/>
     <mergeCell ref="R20:W20"/>
@@ -38012,49 +38047,87 @@
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="J45:O45"/>
     <mergeCell ref="R45:W45"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="I127:K127"/>
-    <mergeCell ref="L127:O127"/>
-    <mergeCell ref="Q122:W122"/>
-    <mergeCell ref="Q123:S123"/>
-    <mergeCell ref="T123:W123"/>
-    <mergeCell ref="Q124:S124"/>
-    <mergeCell ref="T124:W124"/>
-    <mergeCell ref="Q125:S125"/>
-    <mergeCell ref="T125:W125"/>
-    <mergeCell ref="Q126:S126"/>
-    <mergeCell ref="T126:W126"/>
-    <mergeCell ref="Q127:S127"/>
-    <mergeCell ref="T127:W127"/>
-    <mergeCell ref="I122:O122"/>
-    <mergeCell ref="I123:K123"/>
-    <mergeCell ref="L123:O123"/>
-    <mergeCell ref="I124:K124"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="I125:K125"/>
-    <mergeCell ref="L125:O125"/>
-    <mergeCell ref="I126:K126"/>
-    <mergeCell ref="L126:O126"/>
-    <mergeCell ref="Y127:AA127"/>
-    <mergeCell ref="AB127:AE127"/>
-    <mergeCell ref="Y122:AE122"/>
-    <mergeCell ref="Y123:AA123"/>
-    <mergeCell ref="AB123:AE123"/>
-    <mergeCell ref="Y124:AA124"/>
-    <mergeCell ref="AB124:AE124"/>
-    <mergeCell ref="Y125:AA125"/>
-    <mergeCell ref="AB125:AE125"/>
-    <mergeCell ref="Y126:AA126"/>
-    <mergeCell ref="AB126:AE126"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="R44:W44"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="Z24:AE24"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="R48:W48"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="R47:W47"/>
+    <mergeCell ref="Z47:AE47"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="Z46:AE46"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="J70:O70"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="Z70:AE70"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="J69:O69"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="Z69:AE69"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="J68:O68"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="Z68:AE68"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="J92:O92"/>
+    <mergeCell ref="R92:W92"/>
+    <mergeCell ref="Z92:AE92"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="J72:O72"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="Z72:AE72"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="J71:O71"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="Z71:AE71"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="J95:O95"/>
+    <mergeCell ref="R95:W95"/>
+    <mergeCell ref="Z95:AE95"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="J94:O94"/>
+    <mergeCell ref="R94:W94"/>
+    <mergeCell ref="Z94:AE94"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="J93:O93"/>
+    <mergeCell ref="R93:W93"/>
+    <mergeCell ref="Z93:AE93"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="J117:O117"/>
+    <mergeCell ref="R117:W117"/>
+    <mergeCell ref="Z117:AE117"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="J116:O116"/>
+    <mergeCell ref="R116:W116"/>
+    <mergeCell ref="Z116:AE116"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="J96:O96"/>
+    <mergeCell ref="R96:W96"/>
+    <mergeCell ref="Z96:AE96"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="J120:O120"/>
+    <mergeCell ref="R120:W120"/>
+    <mergeCell ref="Z120:AE120"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="J119:O119"/>
+    <mergeCell ref="R119:W119"/>
+    <mergeCell ref="Z119:AE119"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="J118:O118"/>
+    <mergeCell ref="R118:W118"/>
+    <mergeCell ref="Z118:AE118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44643,19 +44716,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K234"/>
+  <dimension ref="A1:Q234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="20"/>
+    <col min="7" max="9" width="9.140625" style="20"/>
+    <col min="13" max="14" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>308</v>
       </c>
@@ -44668,35 +44743,112 @@
       <c r="D1" s="20" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="K1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" t="s">
+        <v>334</v>
+      </c>
+      <c r="M1" t="s">
+        <v>336</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1200</v>
+      </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D2" s="20">
         <f>(C2*0.5*C2*0.5)*PI()</f>
-        <v>19.634954084936208</v>
-      </c>
-      <c r="K2" t="s">
+        <v>530.92915845667505</v>
+      </c>
+      <c r="E2">
+        <v>1.22</v>
+      </c>
+      <c r="F2">
+        <f>SQRT((2*A2*9.81)/(E2*D2*B2))</f>
+        <v>6.0289533097392178</v>
+      </c>
+      <c r="G2" s="20">
+        <f>D2*F2*F2*B2*E2*0.5</f>
+        <v>11772.000000000002</v>
+      </c>
+      <c r="H2" s="20">
+        <f>A2*9.81</f>
+        <v>11772</v>
+      </c>
+      <c r="K2">
+        <v>1200</v>
+      </c>
+      <c r="L2">
+        <v>11772</v>
+      </c>
+      <c r="M2">
+        <f>9.81*K2</f>
+        <v>11772</v>
+      </c>
+      <c r="N2" s="20">
+        <f>(M2-L2)/K2</f>
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1200</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
       <c r="C3">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D3" s="20">
         <f t="shared" ref="D3:D66" si="0">(C3*0.5*C3*0.5)*PI()</f>
-        <v>78.539816339744831</v>
-      </c>
-      <c r="K3" t="s">
+        <v>530.92915845667505</v>
+      </c>
+      <c r="E3" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F3" s="20">
+        <f t="shared" ref="F3:F66" si="1">SQRT((2*A3*9.81)/(E3*D3*B3))</f>
+        <v>6.0289533097392178</v>
+      </c>
+      <c r="G3" s="20">
+        <f t="shared" ref="G3:G66" si="2">D3*F3*F3*B3*E3*0.5</f>
+        <v>11772.000000000002</v>
+      </c>
+      <c r="H3" s="20">
+        <f t="shared" ref="H3:H66" si="3">A3*9.81</f>
+        <v>11772</v>
+      </c>
+      <c r="P3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>15</v>
       </c>
@@ -44704,8 +44856,23 @@
         <f t="shared" si="0"/>
         <v>176.71458676442586</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E4" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F4" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G4" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H4" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>20</v>
       </c>
@@ -44713,8 +44880,23 @@
         <f t="shared" si="0"/>
         <v>314.15926535897933</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E5" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F5" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="20">
         <v>25</v>
       </c>
@@ -44722,8 +44904,26 @@
         <f t="shared" si="0"/>
         <v>490.87385212340519</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E6" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F6" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C7" s="20">
         <v>30</v>
       </c>
@@ -44731,8 +44931,26 @@
         <f t="shared" si="0"/>
         <v>706.85834705770344</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E7" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F7" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="20">
         <v>35</v>
       </c>
@@ -44740,8 +44958,23 @@
         <f t="shared" si="0"/>
         <v>962.11275016187415</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E8" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F8" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="20">
         <v>40</v>
       </c>
@@ -44749,8 +44982,26 @@
         <f t="shared" si="0"/>
         <v>1256.6370614359173</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F9" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G9" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="20">
         <v>45</v>
       </c>
@@ -44758,8 +45009,29 @@
         <f t="shared" si="0"/>
         <v>1590.4312808798327</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F10" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="20">
         <v>50</v>
       </c>
@@ -44767,8 +45039,30 @@
         <f t="shared" si="0"/>
         <v>1963.4954084936207</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F11" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q11">
+        <f>9.81*Q10</f>
+        <v>833.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" s="20">
         <v>55</v>
       </c>
@@ -44776,8 +45070,29 @@
         <f t="shared" si="0"/>
         <v>2375.8294442772813</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F12" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q12">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" s="20">
         <v>60</v>
       </c>
@@ -44785,8 +45100,30 @@
         <f t="shared" si="0"/>
         <v>2827.4333882308138</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F13" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q13">
+        <f>(Q11-Q12) /Q10</f>
+        <v>1.5747058823529414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" s="20">
         <v>65</v>
       </c>
@@ -44794,8 +45131,23 @@
         <f t="shared" si="0"/>
         <v>3318.3072403542192</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F14" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C15" s="20">
         <v>70</v>
       </c>
@@ -44803,8 +45155,23 @@
         <f t="shared" si="0"/>
         <v>3848.4510006474966</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F15" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G15" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C16" s="20">
         <v>75</v>
       </c>
@@ -44812,8 +45179,23 @@
         <f t="shared" si="0"/>
         <v>4417.8646691106469</v>
       </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F16" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="20">
         <v>80</v>
       </c>
@@ -44821,8 +45203,23 @@
         <f t="shared" si="0"/>
         <v>5026.5482457436692</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F17" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="20">
         <v>85</v>
       </c>
@@ -44830,8 +45227,23 @@
         <f t="shared" si="0"/>
         <v>5674.5017305465635</v>
       </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F18" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="20">
         <v>90</v>
       </c>
@@ -44839,8 +45251,23 @@
         <f t="shared" si="0"/>
         <v>6361.7251235193307</v>
       </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F19" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="20">
         <v>95</v>
       </c>
@@ -44848,8 +45275,23 @@
         <f t="shared" si="0"/>
         <v>7088.2184246619709</v>
       </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F20" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="20">
         <v>100</v>
       </c>
@@ -44857,8 +45299,23 @@
         <f t="shared" si="0"/>
         <v>7853.981633974483</v>
       </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F21" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" s="20">
         <v>105</v>
       </c>
@@ -44866,8 +45323,26 @@
         <f t="shared" si="0"/>
         <v>8659.0147514568671</v>
       </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F22" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="20">
         <v>110</v>
       </c>
@@ -44875,8 +45350,26 @@
         <f t="shared" si="0"/>
         <v>9503.317777109125</v>
       </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F23" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G23" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" s="20">
         <v>115</v>
       </c>
@@ -44884,8 +45377,26 @@
         <f t="shared" si="0"/>
         <v>10386.890710931253</v>
       </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F24" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" s="20">
         <v>120</v>
       </c>
@@ -44893,8 +45404,26 @@
         <f t="shared" si="0"/>
         <v>11309.733552923255</v>
       </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F25" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" s="20">
         <v>125</v>
       </c>
@@ -44902,8 +45431,23 @@
         <f t="shared" si="0"/>
         <v>12271.846303085129</v>
       </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F26" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" s="20">
         <v>130</v>
       </c>
@@ -44911,8 +45455,23 @@
         <f t="shared" si="0"/>
         <v>13273.228961416877</v>
       </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F27" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28" s="20">
         <v>135</v>
       </c>
@@ -44920,8 +45479,23 @@
         <f t="shared" si="0"/>
         <v>14313.881527918495</v>
       </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F28" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29" s="20">
         <v>140</v>
       </c>
@@ -44929,8 +45503,23 @@
         <f t="shared" si="0"/>
         <v>15393.804002589986</v>
       </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F29" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30" s="20">
         <v>145</v>
       </c>
@@ -44938,8 +45527,23 @@
         <f t="shared" si="0"/>
         <v>16512.99638543135</v>
       </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F30" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31" s="20">
         <v>150</v>
       </c>
@@ -44947,8 +45551,26 @@
         <f t="shared" si="0"/>
         <v>17671.458676442588</v>
       </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F31" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G31" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32" s="20">
         <v>155</v>
       </c>
@@ -44956,8 +45578,27 @@
         <f t="shared" si="0"/>
         <v>18869.190875623695</v>
       </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F32" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G32" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f>(1200*9.81)/(6.028953*6.028953)</f>
+        <v>323.86681993607374</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" s="20">
         <v>160</v>
       </c>
@@ -44965,8 +45606,27 @@
         <f t="shared" si="0"/>
         <v>20106.192982974677</v>
       </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F33" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>SQRT((1200*9.81)/L32)</f>
+        <v>6.0289529999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" s="20">
         <v>165</v>
       </c>
@@ -44974,8 +45634,23 @@
         <f t="shared" si="0"/>
         <v>21382.464998495529</v>
       </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F34" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" s="20">
         <v>170</v>
       </c>
@@ -44983,8 +45658,23 @@
         <f t="shared" si="0"/>
         <v>22698.006922186254</v>
       </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F35" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" s="20">
         <v>175</v>
       </c>
@@ -44992,8 +45682,23 @@
         <f t="shared" si="0"/>
         <v>24052.818754046853</v>
       </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F36" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G36" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" s="20">
         <v>180</v>
       </c>
@@ -45001,8 +45706,23 @@
         <f t="shared" si="0"/>
         <v>25446.900494077323</v>
       </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F37" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G37" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" s="20">
         <v>185</v>
       </c>
@@ -45010,8 +45730,23 @@
         <f t="shared" si="0"/>
         <v>26880.252142277666</v>
       </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F38" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G38" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" s="20">
         <v>190</v>
       </c>
@@ -45019,8 +45754,23 @@
         <f t="shared" si="0"/>
         <v>28352.873698647883</v>
       </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F39" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G39" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" s="20">
         <v>195</v>
       </c>
@@ -45028,8 +45778,23 @@
         <f t="shared" si="0"/>
         <v>29864.765163187971</v>
       </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F40" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" s="20">
         <v>200</v>
       </c>
@@ -45037,8 +45802,23 @@
         <f t="shared" si="0"/>
         <v>31415.926535897932</v>
       </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F41" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" s="20">
         <v>205</v>
       </c>
@@ -45046,8 +45826,23 @@
         <f t="shared" si="0"/>
         <v>33006.357816777767</v>
       </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F42" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G42" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H42" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" s="20">
         <v>210</v>
       </c>
@@ -45055,8 +45850,23 @@
         <f t="shared" si="0"/>
         <v>34636.059005827468</v>
       </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F43" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" s="20">
         <v>215</v>
       </c>
@@ -45064,8 +45874,23 @@
         <f t="shared" si="0"/>
         <v>36305.030103047044</v>
       </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F44" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G44" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H44" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45" s="20">
         <v>220</v>
       </c>
@@ -45073,8 +45898,23 @@
         <f t="shared" si="0"/>
         <v>38013.2711084365</v>
       </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F45" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G45" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H45" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" s="20">
         <v>225</v>
       </c>
@@ -45082,8 +45922,23 @@
         <f t="shared" si="0"/>
         <v>39760.782021995816</v>
       </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F46" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G46" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H46" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47" s="20">
         <v>230</v>
       </c>
@@ -45091,8 +45946,23 @@
         <f t="shared" si="0"/>
         <v>41547.562843725012</v>
       </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F47" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G47" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H47" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" s="20">
         <v>235</v>
       </c>
@@ -45100,8 +45970,23 @@
         <f t="shared" si="0"/>
         <v>43373.613573624083</v>
       </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F48" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G48" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H48" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" s="20">
         <v>240</v>
       </c>
@@ -45109,8 +45994,23 @@
         <f t="shared" si="0"/>
         <v>45238.93421169302</v>
       </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F49" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G49" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H49" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" s="20">
         <v>245</v>
       </c>
@@ -45118,8 +46018,23 @@
         <f t="shared" si="0"/>
         <v>47143.524757931831</v>
       </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F50" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G50" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H50" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" s="20">
         <v>250</v>
       </c>
@@ -45127,8 +46042,23 @@
         <f t="shared" si="0"/>
         <v>49087.385212340516</v>
       </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F51" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G51" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H51" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" s="20">
         <v>255</v>
       </c>
@@ -45136,8 +46066,23 @@
         <f t="shared" si="0"/>
         <v>51070.515574919074</v>
       </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F52" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G52" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" s="20">
         <v>260</v>
       </c>
@@ -45145,8 +46090,23 @@
         <f t="shared" si="0"/>
         <v>53092.915845667507</v>
       </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F53" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G53" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H53" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54" s="20">
         <v>265</v>
       </c>
@@ -45154,8 +46114,23 @@
         <f t="shared" si="0"/>
         <v>55154.586024585806</v>
       </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F54" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G54" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H54" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" s="20">
         <v>270</v>
       </c>
@@ -45163,8 +46138,23 @@
         <f t="shared" si="0"/>
         <v>57255.526111673978</v>
       </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F55" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G55" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H55" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56" s="20">
         <v>275</v>
       </c>
@@ -45172,8 +46162,23 @@
         <f t="shared" si="0"/>
         <v>59395.736106932025</v>
       </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F56" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G56" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H56" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" s="20">
         <v>280</v>
       </c>
@@ -45181,8 +46186,23 @@
         <f t="shared" si="0"/>
         <v>61575.216010359945</v>
       </c>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F57" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G57" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H57" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58" s="20">
         <v>285</v>
       </c>
@@ -45190,8 +46210,23 @@
         <f t="shared" si="0"/>
         <v>63793.96582195774</v>
       </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F58" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G58" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H58" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" s="20">
         <v>290</v>
       </c>
@@ -45199,8 +46234,23 @@
         <f t="shared" si="0"/>
         <v>66051.9855417254</v>
       </c>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F59" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G59" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H59" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" s="20">
         <v>295</v>
       </c>
@@ -45208,8 +46258,23 @@
         <f t="shared" si="0"/>
         <v>68349.275169662942</v>
       </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F60" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G60" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H60" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" s="20">
         <v>300</v>
       </c>
@@ -45217,8 +46282,23 @@
         <f t="shared" si="0"/>
         <v>70685.83470577035</v>
       </c>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F61" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G61" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H61" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62" s="20">
         <v>305</v>
       </c>
@@ -45226,8 +46306,23 @@
         <f t="shared" si="0"/>
         <v>73061.664150047625</v>
       </c>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F62" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G62" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H62" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C63" s="20">
         <v>310</v>
       </c>
@@ -45235,8 +46330,23 @@
         <f t="shared" si="0"/>
         <v>75476.763502494781</v>
       </c>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F63" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G63" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H63" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64" s="20">
         <v>315</v>
       </c>
@@ -45244,8 +46354,23 @@
         <f t="shared" si="0"/>
         <v>77931.132763111804</v>
       </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F64" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G64" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H64" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65" s="20">
         <v>320</v>
       </c>
@@ -45253,8 +46378,23 @@
         <f t="shared" si="0"/>
         <v>80424.771931898707</v>
       </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F65" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G65" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H65" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66" s="20">
         <v>325</v>
       </c>
@@ -45262,1517 +46402,3707 @@
         <f t="shared" si="0"/>
         <v>82957.681008855478</v>
       </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F66" s="20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G66" s="20" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H66" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" s="20">
         <v>330</v>
       </c>
       <c r="D67" s="20">
-        <f t="shared" ref="D67:D130" si="1">(C67*0.5*C67*0.5)*PI()</f>
+        <f t="shared" ref="D67:D130" si="4">(C67*0.5*C67*0.5)*PI()</f>
         <v>85529.859993982114</v>
       </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F67" s="20" t="e">
+        <f t="shared" ref="F67:F130" si="5">SQRT((2*A67*9.81)/(E67*D67*B67))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G67" s="20" t="e">
+        <f t="shared" ref="G67:G130" si="6">D67*F67*F67*B67*E67*0.5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H67" s="20">
+        <f t="shared" ref="H67:H130" si="7">A67*9.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" s="20">
         <v>335</v>
       </c>
       <c r="D68" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>88141.308887278632</v>
       </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F68" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G68" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H68" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" s="20">
         <v>340</v>
       </c>
       <c r="D69" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>90792.027688745016</v>
       </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F69" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G69" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H69" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70" s="20">
         <v>345</v>
       </c>
       <c r="D70" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>93482.016398381282</v>
       </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F70" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G70" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H70" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71" s="20">
         <v>350</v>
       </c>
       <c r="D71" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>96211.275016187414</v>
       </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F71" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G71" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H71" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72" s="20">
         <v>355</v>
       </c>
       <c r="D72" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>98979.803542163412</v>
       </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F72" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G72" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H72" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73" s="20">
         <v>360</v>
       </c>
       <c r="D73" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>101787.60197630929</v>
       </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F73" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G73" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H73" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C74" s="20">
         <v>365</v>
       </c>
       <c r="D74" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>104634.67031862505</v>
       </c>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F74" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G74" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H74" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C75" s="20">
         <v>370</v>
       </c>
       <c r="D75" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>107521.00856911067</v>
       </c>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F75" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G75" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H75" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C76" s="20">
         <v>375</v>
       </c>
       <c r="D76" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>110446.61672776616</v>
       </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F76" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G76" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H76" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C77" s="20">
         <v>380</v>
       </c>
       <c r="D77" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>113411.49479459153</v>
       </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F77" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G77" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H77" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C78" s="20">
         <v>385</v>
       </c>
       <c r="D78" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>116415.64276958678</v>
       </c>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F78" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G78" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H78" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C79" s="20">
         <v>390</v>
       </c>
       <c r="D79" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>119459.06065275188</v>
       </c>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F79" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G79" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H79" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C80" s="20">
         <v>395</v>
       </c>
       <c r="D80" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>122541.74844408687</v>
       </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F80" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G80" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H80" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C81" s="20">
         <v>400</v>
       </c>
       <c r="D81" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>125663.70614359173</v>
       </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F81" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G81" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H81" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82" s="20">
         <v>405</v>
       </c>
       <c r="D82" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>128824.93375126645</v>
       </c>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F82" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G82" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H82" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83" s="20">
         <v>410</v>
       </c>
       <c r="D83" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>132025.43126711107</v>
       </c>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F83" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G83" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H83" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84" s="20">
         <v>415</v>
       </c>
       <c r="D84" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>135265.19869112552</v>
       </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F84" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G84" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H84" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C85" s="20">
         <v>420</v>
       </c>
       <c r="D85" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>138544.23602330987</v>
       </c>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F85" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G85" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H85" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C86" s="20">
         <v>425</v>
       </c>
       <c r="D86" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>141862.54326366409</v>
       </c>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F86" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G86" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H86" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C87" s="20">
         <v>430</v>
       </c>
       <c r="D87" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>145220.12041218817</v>
       </c>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F87" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G87" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H87" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C88" s="20">
         <v>435</v>
       </c>
       <c r="D88" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>148616.96746888215</v>
       </c>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F88" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G88" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H88" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C89" s="20">
         <v>440</v>
       </c>
       <c r="D89" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>152053.084433746</v>
       </c>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F89" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G89" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H89" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C90" s="20">
         <v>445</v>
       </c>
       <c r="D90" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>155528.47130677968</v>
       </c>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F90" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G90" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H90" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C91" s="20">
         <v>450</v>
       </c>
       <c r="D91" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>159043.12808798326</v>
       </c>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F91" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G91" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H91" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C92" s="20">
         <v>455</v>
       </c>
       <c r="D92" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>162597.05477735674</v>
       </c>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F92" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G92" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H92" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C93" s="20">
         <v>460</v>
       </c>
       <c r="D93" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>166190.25137490005</v>
       </c>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F93" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G93" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H93" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C94" s="20">
         <v>465</v>
       </c>
       <c r="D94" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>169822.71788061326</v>
       </c>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F94" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G94" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H94" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C95" s="20">
         <v>470</v>
       </c>
       <c r="D95" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>173494.45429449633</v>
       </c>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F95" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G95" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H95" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C96" s="20">
         <v>475</v>
       </c>
       <c r="D96" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>177205.46061654927</v>
       </c>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F96" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G96" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H96" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C97" s="20">
         <v>480</v>
       </c>
       <c r="D97" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>180955.73684677208</v>
       </c>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F97" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G97" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H97" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C98" s="20">
         <v>485</v>
       </c>
       <c r="D98" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>184745.28298516478</v>
       </c>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F98" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G98" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H98" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C99" s="20">
         <v>490</v>
       </c>
       <c r="D99" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>188574.09903172732</v>
       </c>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F99" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G99" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H99" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C100" s="20">
         <v>495</v>
       </c>
       <c r="D100" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>192442.18498645976</v>
       </c>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F100" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G100" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C101" s="20">
         <v>500</v>
       </c>
       <c r="D101" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>196349.54084936206</v>
       </c>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F101" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G101" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H101" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C102" s="20">
         <v>505</v>
       </c>
       <c r="D102" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>200296.16662043426</v>
       </c>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F102" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G102" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H102" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C103" s="20">
         <v>510</v>
       </c>
       <c r="D103" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>204282.0622996763</v>
       </c>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F103" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G103" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H103" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C104" s="20">
         <v>515</v>
       </c>
       <c r="D104" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>208307.22788708823</v>
       </c>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F104" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G104" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H104" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C105" s="20">
         <v>520</v>
       </c>
       <c r="D105" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>212371.66338267003</v>
       </c>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F105" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G105" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H105" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C106" s="20">
         <v>525</v>
       </c>
       <c r="D106" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>216475.36878642169</v>
       </c>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F106" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G106" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C107" s="20">
         <v>530</v>
       </c>
       <c r="D107" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>220618.34409834322</v>
       </c>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F107" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G107" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H107" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C108" s="20">
         <v>535</v>
       </c>
       <c r="D108" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>224800.58931843462</v>
       </c>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F108" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G108" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H108" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C109" s="20">
         <v>540</v>
       </c>
       <c r="D109" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>229022.10444669591</v>
       </c>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F109" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G109" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H109" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C110" s="20">
         <v>545</v>
       </c>
       <c r="D110" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>233282.88948312707</v>
       </c>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F110" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G110" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H110" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C111" s="20">
         <v>550</v>
       </c>
       <c r="D111" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>237582.9444277281</v>
       </c>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F111" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G111" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H111" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C112" s="20">
         <v>555</v>
       </c>
       <c r="D112" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>241922.26928049899</v>
       </c>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F112" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G112" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H112" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C113" s="20">
         <v>560</v>
       </c>
       <c r="D113" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>246300.86404143978</v>
       </c>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F113" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G113" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H113" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C114" s="20">
         <v>565</v>
       </c>
       <c r="D114" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>250718.72871055044</v>
       </c>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F114" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G114" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H114" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C115" s="20">
         <v>570</v>
       </c>
       <c r="D115" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>255175.86328783096</v>
       </c>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F115" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G115" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H115" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C116" s="20">
         <v>575</v>
       </c>
       <c r="D116" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>259672.26777328135</v>
       </c>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F116" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G116" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H116" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C117" s="20">
         <v>580</v>
       </c>
       <c r="D117" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>264207.9421669016</v>
       </c>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F117" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G117" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H117" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C118" s="20">
         <v>585</v>
       </c>
       <c r="D118" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>268782.88646869175</v>
       </c>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F118" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G118" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H118" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C119" s="20">
         <v>590</v>
       </c>
       <c r="D119" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>273397.10067865177</v>
       </c>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="F119" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G119" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H119" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C120" s="20">
         <v>595</v>
       </c>
       <c r="D120" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>278050.58479678165</v>
       </c>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F120" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G120" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H120" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C121" s="20">
         <v>600</v>
       </c>
       <c r="D121" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>282743.3388230814</v>
       </c>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F121" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G121" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H121" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C122" s="20">
         <v>605</v>
       </c>
       <c r="D122" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>287475.36275755102</v>
       </c>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F122" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G122" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H122" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C123" s="20">
         <v>610</v>
       </c>
       <c r="D123" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>292246.6566001905</v>
       </c>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F123" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G123" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H123" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C124" s="20">
         <v>615</v>
       </c>
       <c r="D124" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>297057.22035099985</v>
       </c>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F124" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G124" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H124" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C125" s="20">
         <v>620</v>
       </c>
       <c r="D125" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>301907.05400997913</v>
       </c>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F125" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G125" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H125" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C126" s="20">
         <v>625</v>
       </c>
       <c r="D126" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>306796.15757712821</v>
       </c>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F126" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G126" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H126" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C127" s="20">
         <v>630</v>
       </c>
       <c r="D127" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>311724.53105244722</v>
       </c>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F127" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G127" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H127" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C128" s="20">
         <v>635</v>
       </c>
       <c r="D128" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>316692.17443593609</v>
       </c>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F128" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G128" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H128" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C129" s="20">
         <v>640</v>
       </c>
       <c r="D129" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>321699.08772759483</v>
       </c>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F129" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G129" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H129" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C130" s="20">
         <v>645</v>
       </c>
       <c r="D130" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>326745.27092742344</v>
       </c>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F130" s="20" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G130" s="20" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H130" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C131" s="20">
         <v>650</v>
       </c>
       <c r="D131" s="20">
-        <f t="shared" ref="D131:D194" si="2">(C131*0.5*C131*0.5)*PI()</f>
+        <f t="shared" ref="D131:D194" si="8">(C131*0.5*C131*0.5)*PI()</f>
         <v>331830.72403542191</v>
       </c>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F131" s="20" t="e">
+        <f t="shared" ref="F131:F194" si="9">SQRT((2*A131*9.81)/(E131*D131*B131))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G131" s="20" t="e">
+        <f t="shared" ref="G131:G194" si="10">D131*F131*F131*B131*E131*0.5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H131" s="20">
+        <f t="shared" ref="H131:H194" si="11">A131*9.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C132" s="20">
         <v>655</v>
       </c>
       <c r="D132" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>336955.44705159025</v>
       </c>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F132" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G132" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H132" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C133" s="20">
         <v>660</v>
       </c>
       <c r="D133" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>342119.43997592846</v>
       </c>
-    </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F133" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G133" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H133" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C134" s="20">
         <v>665</v>
       </c>
       <c r="D134" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>347322.70280843659</v>
       </c>
-    </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F134" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G134" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H134" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C135" s="20">
         <v>670</v>
       </c>
       <c r="D135" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>352565.23554911453</v>
       </c>
-    </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F135" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G135" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H135" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C136" s="20">
         <v>675</v>
       </c>
       <c r="D136" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>357847.03819796239</v>
       </c>
-    </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F136" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G136" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H136" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C137" s="20">
         <v>680</v>
       </c>
       <c r="D137" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>363168.11075498007</v>
       </c>
-    </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F137" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G137" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H137" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C138" s="20">
         <v>685</v>
       </c>
       <c r="D138" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>368528.45322016766</v>
       </c>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F138" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G138" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H138" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C139" s="20">
         <v>690</v>
       </c>
       <c r="D139" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>373928.06559352513</v>
       </c>
-    </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F139" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G139" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H139" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C140" s="20">
         <v>695</v>
       </c>
       <c r="D140" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>379366.94787505246</v>
       </c>
-    </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F140" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G140" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H140" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C141" s="20">
         <v>700</v>
       </c>
       <c r="D141" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>384845.10006474965</v>
       </c>
-    </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F141" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G141" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H141" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C142" s="20">
         <v>705</v>
       </c>
       <c r="D142" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>390362.52216261672</v>
       </c>
-    </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F142" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G142" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H142" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C143" s="20">
         <v>710</v>
       </c>
       <c r="D143" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>395919.21416865365</v>
       </c>
-    </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F143" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G143" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H143" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C144" s="20">
         <v>715</v>
       </c>
       <c r="D144" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>401515.1760828605</v>
       </c>
-    </row>
-    <row r="145" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F144" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G144" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H144" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C145" s="20">
         <v>720</v>
       </c>
       <c r="D145" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>407150.40790523717</v>
       </c>
-    </row>
-    <row r="146" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F145" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G145" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H145" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C146" s="20">
         <v>725</v>
       </c>
       <c r="D146" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>412824.90963578376</v>
       </c>
-    </row>
-    <row r="147" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F146" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G146" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H146" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C147" s="20">
         <v>730</v>
       </c>
       <c r="D147" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>418538.68127450021</v>
       </c>
-    </row>
-    <row r="148" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F147" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G147" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H147" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C148" s="20">
         <v>735</v>
       </c>
       <c r="D148" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>424291.72282138647</v>
       </c>
-    </row>
-    <row r="149" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F148" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G148" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H148" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C149" s="20">
         <v>740</v>
       </c>
       <c r="D149" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>430084.03427644266</v>
       </c>
-    </row>
-    <row r="150" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F149" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G149" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H149" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C150" s="20">
         <v>745</v>
       </c>
       <c r="D150" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>435915.61563966871</v>
       </c>
-    </row>
-    <row r="151" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F150" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G150" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H150" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C151" s="20">
         <v>750</v>
       </c>
       <c r="D151" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>441786.46691106464</v>
       </c>
-    </row>
-    <row r="152" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F151" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G151" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H151" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C152" s="20">
         <v>755</v>
       </c>
       <c r="D152" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>447696.58809063048</v>
       </c>
-    </row>
-    <row r="153" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F152" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G152" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H152" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C153" s="20">
         <v>760</v>
       </c>
       <c r="D153" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>453645.97917836613</v>
       </c>
-    </row>
-    <row r="154" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F153" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G153" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H153" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C154" s="20">
         <v>765</v>
       </c>
       <c r="D154" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>459634.64017427166</v>
       </c>
-    </row>
-    <row r="155" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F154" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G154" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H154" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C155" s="20">
         <v>770</v>
       </c>
       <c r="D155" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>465662.5710783471</v>
       </c>
-    </row>
-    <row r="156" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F155" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G155" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H155" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C156" s="20">
         <v>775</v>
       </c>
       <c r="D156" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>471729.77189059235</v>
       </c>
-    </row>
-    <row r="157" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F156" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G156" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H156" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C157" s="20">
         <v>780</v>
       </c>
       <c r="D157" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>477836.24261100753</v>
       </c>
-    </row>
-    <row r="158" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F157" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G157" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H157" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C158" s="20">
         <v>785</v>
       </c>
       <c r="D158" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>483981.98323959258</v>
       </c>
-    </row>
-    <row r="159" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F158" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G158" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H158" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C159" s="20">
         <v>790</v>
       </c>
       <c r="D159" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>490166.99377634749</v>
       </c>
-    </row>
-    <row r="160" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F159" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G159" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H159" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C160" s="20">
         <v>795</v>
       </c>
       <c r="D160" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>496391.27422127227</v>
       </c>
-    </row>
-    <row r="161" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F160" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G160" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H160" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C161" s="20">
         <v>800</v>
       </c>
       <c r="D161" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>502654.82457436691</v>
       </c>
-    </row>
-    <row r="162" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F161" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G161" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H161" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C162" s="20">
         <v>805</v>
       </c>
       <c r="D162" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>508957.64483563142</v>
       </c>
-    </row>
-    <row r="163" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F162" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G162" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H162" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C163" s="20">
         <v>810</v>
       </c>
       <c r="D163" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>515299.7350050658</v>
       </c>
-    </row>
-    <row r="164" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F163" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G163" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H163" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C164" s="20">
         <v>815</v>
       </c>
       <c r="D164" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>521681.0950826701</v>
       </c>
-    </row>
-    <row r="165" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F164" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G164" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H164" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C165" s="20">
         <v>820</v>
       </c>
       <c r="D165" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>528101.72506844427</v>
       </c>
-    </row>
-    <row r="166" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F165" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G165" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H165" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C166" s="20">
         <v>825</v>
       </c>
       <c r="D166" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>534561.62496238819</v>
       </c>
-    </row>
-    <row r="167" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F166" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G166" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H166" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C167" s="20">
         <v>830</v>
       </c>
       <c r="D167" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>541060.79476450209</v>
       </c>
-    </row>
-    <row r="168" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F167" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G167" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H167" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C168" s="20">
         <v>835</v>
       </c>
       <c r="D168" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>547599.23447478586</v>
       </c>
-    </row>
-    <row r="169" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F168" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G168" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H168" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C169" s="20">
         <v>840</v>
       </c>
       <c r="D169" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>554176.94409323949</v>
       </c>
-    </row>
-    <row r="170" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F169" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G169" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H169" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C170" s="20">
         <v>845</v>
       </c>
       <c r="D170" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>560793.923619863</v>
       </c>
-    </row>
-    <row r="171" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F170" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G170" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H170" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C171" s="20">
         <v>850</v>
       </c>
       <c r="D171" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>567450.17305465636</v>
       </c>
-    </row>
-    <row r="172" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F171" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G171" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H171" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C172" s="20">
         <v>855</v>
       </c>
       <c r="D172" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>574145.6923976196</v>
       </c>
-    </row>
-    <row r="173" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F172" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G172" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H172" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C173" s="20">
         <v>860</v>
       </c>
       <c r="D173" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>580880.4816487527</v>
       </c>
-    </row>
-    <row r="174" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F173" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G173" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H173" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C174" s="20">
         <v>865</v>
       </c>
       <c r="D174" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>587654.54080805578</v>
       </c>
-    </row>
-    <row r="175" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F174" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G174" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H174" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C175" s="20">
         <v>870</v>
       </c>
       <c r="D175" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>594467.86987552862</v>
       </c>
-    </row>
-    <row r="176" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F175" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G175" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H175" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C176" s="20">
         <v>875</v>
       </c>
       <c r="D176" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>601320.46885117132</v>
       </c>
-    </row>
-    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F176" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G176" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H176" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C177" s="20">
         <v>880</v>
       </c>
       <c r="D177" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>608212.337734984</v>
       </c>
-    </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F177" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G177" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H177" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C178" s="20">
         <v>885</v>
       </c>
       <c r="D178" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>615143.47652696643</v>
       </c>
-    </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F178" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G178" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H178" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C179" s="20">
         <v>890</v>
       </c>
       <c r="D179" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>622113.88522711874</v>
       </c>
-    </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F179" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G179" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H179" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C180" s="20">
         <v>895</v>
       </c>
       <c r="D180" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>629123.56383544102</v>
       </c>
-    </row>
-    <row r="181" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F180" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G180" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H180" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C181" s="20">
         <v>900</v>
       </c>
       <c r="D181" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>636172.51235193305</v>
       </c>
-    </row>
-    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F181" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G181" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H181" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C182" s="20">
         <v>905</v>
       </c>
       <c r="D182" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>643260.73077659507</v>
       </c>
-    </row>
-    <row r="183" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F182" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G182" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H182" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C183" s="20">
         <v>910</v>
       </c>
       <c r="D183" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>650388.21910942695</v>
       </c>
-    </row>
-    <row r="184" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F183" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G183" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H183" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C184" s="20">
         <v>915</v>
       </c>
       <c r="D184" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>657554.97735042858</v>
       </c>
-    </row>
-    <row r="185" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F184" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G184" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H184" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C185" s="20">
         <v>920</v>
       </c>
       <c r="D185" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>664761.0054996002</v>
       </c>
-    </row>
-    <row r="186" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F185" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G185" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H185" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C186" s="20">
         <v>925</v>
       </c>
       <c r="D186" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>672006.30355694168</v>
       </c>
-    </row>
-    <row r="187" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F186" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G186" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H186" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C187" s="20">
         <v>930</v>
       </c>
       <c r="D187" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>679290.87152245303</v>
       </c>
-    </row>
-    <row r="188" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F187" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G187" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H187" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C188" s="20">
         <v>935</v>
       </c>
       <c r="D188" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>686614.70939613425</v>
       </c>
-    </row>
-    <row r="189" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F188" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G188" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H188" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C189" s="20">
         <v>940</v>
       </c>
       <c r="D189" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>693977.81717798533</v>
       </c>
-    </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F189" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G189" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H189" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C190" s="20">
         <v>945</v>
       </c>
       <c r="D190" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>701380.19486800628</v>
       </c>
-    </row>
-    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F190" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G190" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H190" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C191" s="20">
         <v>950</v>
       </c>
       <c r="D191" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>708821.84246619709</v>
       </c>
-    </row>
-    <row r="192" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F191" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G191" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H191" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C192" s="20">
         <v>955</v>
       </c>
       <c r="D192" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>716302.75997255777</v>
       </c>
-    </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F192" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G192" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H192" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C193" s="20">
         <v>960</v>
       </c>
       <c r="D193" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>723822.94738708832</v>
       </c>
-    </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F193" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G193" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H193" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C194" s="20">
         <v>965</v>
       </c>
       <c r="D194" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>731382.40470978874</v>
       </c>
-    </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F194" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G194" s="20" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H194" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C195" s="20">
         <v>970</v>
       </c>
       <c r="D195" s="20">
-        <f t="shared" ref="D195:D234" si="3">(C195*0.5*C195*0.5)*PI()</f>
+        <f t="shared" ref="D195:D234" si="12">(C195*0.5*C195*0.5)*PI()</f>
         <v>738981.13194065914</v>
       </c>
-    </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F195" s="20" t="e">
+        <f t="shared" ref="F195:F234" si="13">SQRT((2*A195*9.81)/(E195*D195*B195))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G195" s="20" t="e">
+        <f t="shared" ref="G195:G234" si="14">D195*F195*F195*B195*E195*0.5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H195" s="20">
+        <f t="shared" ref="H195:H234" si="15">A195*9.81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C196" s="20">
         <v>975</v>
       </c>
       <c r="D196" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>746619.12907969928</v>
       </c>
-    </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F196" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G196" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H196" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C197" s="20">
         <v>980</v>
       </c>
       <c r="D197" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>754296.3961269093</v>
       </c>
-    </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F197" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G197" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H197" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C198" s="20">
         <v>985</v>
       </c>
       <c r="D198" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>762012.9330822893</v>
       </c>
-    </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F198" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G198" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H198" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C199" s="20">
         <v>990</v>
       </c>
       <c r="D199" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>769768.73994583904</v>
       </c>
-    </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F199" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G199" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H199" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C200" s="20">
         <v>995</v>
       </c>
       <c r="D200" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>777563.81671755877</v>
       </c>
-    </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F200" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G200" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H200" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C201" s="20">
         <v>1000</v>
       </c>
       <c r="D201" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>785398.16339744825</v>
       </c>
-    </row>
-    <row r="202" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F201" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G201" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H201" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C202" s="20">
         <v>1005</v>
       </c>
       <c r="D202" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>793271.77998550772</v>
       </c>
-    </row>
-    <row r="203" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F202" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G202" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H202" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C203" s="20">
         <v>1010</v>
       </c>
       <c r="D203" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>801184.66648173705</v>
       </c>
-    </row>
-    <row r="204" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F203" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G203" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H203" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C204" s="20">
         <v>1015</v>
       </c>
       <c r="D204" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>809136.82288613613</v>
       </c>
-    </row>
-    <row r="205" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F204" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G204" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H204" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C205" s="20">
         <v>1020</v>
       </c>
       <c r="D205" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>817128.24919870519</v>
       </c>
-    </row>
-    <row r="206" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F205" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G205" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H205" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C206" s="20">
         <v>1025</v>
       </c>
       <c r="D206" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>825158.94541944412</v>
       </c>
-    </row>
-    <row r="207" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F206" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G206" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H206" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C207" s="20">
         <v>1030</v>
       </c>
       <c r="D207" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>833228.91154835292</v>
       </c>
-    </row>
-    <row r="208" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F207" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G207" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H207" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C208" s="20">
         <v>1035</v>
       </c>
       <c r="D208" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>841338.14758543158</v>
       </c>
-    </row>
-    <row r="209" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F208" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G208" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H208" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C209" s="20">
         <v>1040</v>
       </c>
       <c r="D209" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>849486.65353068011</v>
       </c>
-    </row>
-    <row r="210" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F209" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G209" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H209" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C210" s="20">
         <v>1045</v>
       </c>
       <c r="D210" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>857674.4293840985</v>
       </c>
-    </row>
-    <row r="211" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F210" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G210" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H210" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C211" s="20">
         <v>1050</v>
       </c>
       <c r="D211" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>865901.47514568677</v>
       </c>
-    </row>
-    <row r="212" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F211" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G211" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H211" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C212" s="20">
         <v>1055</v>
       </c>
       <c r="D212" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>874167.7908154449</v>
       </c>
-    </row>
-    <row r="213" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F212" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G212" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H212" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C213" s="20">
         <v>1060</v>
       </c>
       <c r="D213" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>882473.37639337289</v>
       </c>
-    </row>
-    <row r="214" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F213" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G213" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H213" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C214" s="20">
         <v>1065</v>
       </c>
       <c r="D214" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>890818.23187947075</v>
       </c>
-    </row>
-    <row r="215" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F214" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G214" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H214" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C215" s="20">
         <v>1070</v>
       </c>
       <c r="D215" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>899202.35727373848</v>
       </c>
-    </row>
-    <row r="216" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F215" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G215" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H215" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C216" s="20">
         <v>1075</v>
       </c>
       <c r="D216" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>907625.75257617619</v>
       </c>
-    </row>
-    <row r="217" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F216" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G216" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H216" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C217" s="20">
         <v>1080</v>
       </c>
       <c r="D217" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>916088.41778678366</v>
       </c>
-    </row>
-    <row r="218" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F217" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G217" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H217" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C218" s="20">
         <v>1085</v>
       </c>
       <c r="D218" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>924590.3529055611</v>
       </c>
-    </row>
-    <row r="219" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F218" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G218" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H218" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C219" s="20">
         <v>1090</v>
       </c>
       <c r="D219" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>933131.55793250829</v>
       </c>
-    </row>
-    <row r="220" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F219" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G219" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H219" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C220" s="20">
         <v>1095</v>
       </c>
       <c r="D220" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>941712.03286762547</v>
       </c>
-    </row>
-    <row r="221" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F220" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G220" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H220" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C221" s="20">
         <v>1100</v>
       </c>
       <c r="D221" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>950331.7777109124</v>
       </c>
-    </row>
-    <row r="222" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F221" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G221" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H221" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C222" s="20">
         <v>1105</v>
       </c>
       <c r="D222" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>958990.79246236931</v>
       </c>
-    </row>
-    <row r="223" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F222" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G222" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H222" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C223" s="20">
         <v>1110</v>
       </c>
       <c r="D223" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>967689.07712199597</v>
       </c>
-    </row>
-    <row r="224" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F223" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G223" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H223" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C224" s="20">
         <v>1115</v>
       </c>
       <c r="D224" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>976426.63168979262</v>
       </c>
-    </row>
-    <row r="225" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F224" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G224" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H224" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C225" s="20">
         <v>1120</v>
       </c>
       <c r="D225" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>985203.45616575913</v>
       </c>
-    </row>
-    <row r="226" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F225" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G225" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H225" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C226" s="20">
         <v>1125</v>
       </c>
       <c r="D226" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>994019.5505498955</v>
       </c>
-    </row>
-    <row r="227" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F226" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G226" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H226" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C227" s="20">
         <v>1130</v>
       </c>
       <c r="D227" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1002874.9148422017</v>
       </c>
-    </row>
-    <row r="228" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F227" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G227" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H227" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C228" s="20">
         <v>1135</v>
       </c>
       <c r="D228" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1011769.5490426779</v>
       </c>
-    </row>
-    <row r="229" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F228" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G228" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H228" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C229" s="20">
         <v>1140</v>
       </c>
       <c r="D229" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1020703.4531513238</v>
       </c>
-    </row>
-    <row r="230" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F229" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G229" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H229" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C230" s="20">
         <v>1145</v>
       </c>
       <c r="D230" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1029676.6271681397</v>
       </c>
-    </row>
-    <row r="231" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F230" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G230" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H230" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C231" s="20">
         <v>1150</v>
       </c>
       <c r="D231" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1038689.0710931254</v>
       </c>
-    </row>
-    <row r="232" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F231" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G231" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H231" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C232" s="20">
         <v>1155</v>
       </c>
       <c r="D232" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1047740.784926281</v>
       </c>
-    </row>
-    <row r="233" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F232" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G232" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H232" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C233" s="20">
         <v>1160</v>
       </c>
       <c r="D233" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1056831.7686676064</v>
       </c>
-    </row>
-    <row r="234" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="F233" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G233" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H233" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C234" s="20">
         <v>1165</v>
       </c>
       <c r="D234" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>1065962.0223171017</v>
+      </c>
+      <c r="F234" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G234" s="20" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H234" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -46784,8 +50114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46948,4 +50278,294 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="20">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="20">
+        <v>1.22</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="20">
+        <v>5790</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" s="20">
+        <v>6</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" s="38">
+        <f>SQRT((8*B3*9.81)/(PI()*B2*B1*B4*B4))</f>
+        <v>57.386888356461014</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" s="38">
+        <f>0.5*B5*0.5*B5*PI()</f>
+        <v>2586.5163934426232</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" s="38">
+        <f>0.5*B2*B4*B4</f>
+        <v>21.96</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" s="38">
+        <f>B7*B6*B1</f>
+        <v>56799.900000000009</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" t="s">
+        <v>344</v>
+      </c>
+      <c r="F17" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>342</v>
+      </c>
+      <c r="B18">
+        <v>52.8</v>
+      </c>
+      <c r="C18">
+        <v>6.532</v>
+      </c>
+      <c r="D18">
+        <v>0.94</v>
+      </c>
+      <c r="E18">
+        <v>5.2750000000000004</v>
+      </c>
+      <c r="F18">
+        <v>76.506</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>343</v>
+      </c>
+      <c r="B19">
+        <v>0.54</v>
+      </c>
+      <c r="C19">
+        <v>0.17</v>
+      </c>
+      <c r="D19">
+        <v>0.94</v>
+      </c>
+      <c r="E19">
+        <v>150</v>
+      </c>
+      <c r="F19">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>346</v>
+      </c>
+      <c r="B20">
+        <v>115</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E20">
+        <v>8.4</v>
+      </c>
+      <c r="F20">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D21">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E21">
+        <v>115</v>
+      </c>
+      <c r="F21">
+        <v>10.28947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>349</v>
+      </c>
+      <c r="B22">
+        <f>32.25*3</f>
+        <v>96.75</v>
+      </c>
+      <c r="C22">
+        <v>27.92</v>
+      </c>
+      <c r="D22">
+        <v>4.42</v>
+      </c>
+      <c r="E22">
+        <v>6.5</v>
+      </c>
+      <c r="F22">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="B23">
+        <f>2.62683*3</f>
+        <v>7.88049</v>
+      </c>
+      <c r="C23">
+        <v>0.19</v>
+      </c>
+      <c r="D23">
+        <v>4.42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GameData/SSTU/Parts/Parts-MassCalc.xlsx
+++ b/GameData/SSTU/Parts/Parts-MassCalc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="parts" sheetId="1" r:id="rId1"/>
@@ -1533,13 +1533,25 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1554,26 +1566,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1881,7 +1881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M120" sqref="M120"/>
     </sheetView>
@@ -27764,45 +27764,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="12"/>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
       <c r="P1" s="12"/>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
       <c r="X1" s="12"/>
-      <c r="Y1" s="45" t="s">
+      <c r="Y1" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
       <c r="AF1" s="12"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -29513,270 +29513,270 @@
       <c r="A20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="46">
         <f>E19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="12"/>
       <c r="I20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="46">
         <f>M19</f>
         <v>0</v>
       </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="44"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="48"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R20" s="42">
+      <c r="R20" s="46">
         <f>U19</f>
         <v>0</v>
       </c>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="44"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="48"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z20" s="42">
+      <c r="Z20" s="46">
         <f>AC19</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="43"/>
-      <c r="AC20" s="43"/>
-      <c r="AD20" s="43"/>
-      <c r="AE20" s="44"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="48"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="46">
         <f>C19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="12"/>
       <c r="I21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="46">
         <f>K19</f>
         <v>0</v>
       </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="44"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R21" s="42">
+      <c r="R21" s="46">
         <f>S19</f>
         <v>0</v>
       </c>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="44"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="48"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z21" s="42">
+      <c r="Z21" s="46">
         <f>AA19</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="43"/>
-      <c r="AC21" s="43"/>
-      <c r="AD21" s="43"/>
-      <c r="AE21" s="44"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="48"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="42">
+      <c r="B22" s="46">
         <f>IFERROR((G19/10/B20),0)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="12"/>
       <c r="I22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="46">
         <f>IFERROR((O19/10/J20),0)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="44"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="48"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R22" s="42">
+      <c r="R22" s="46">
         <f>IFERROR((W19/10/R20),0)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="44"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="48"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z22" s="42">
+      <c r="Z22" s="46">
         <f>IFERROR((AE19/10/Z20),0)</f>
         <v>0</v>
       </c>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="43"/>
-      <c r="AC22" s="43"/>
-      <c r="AD22" s="43"/>
-      <c r="AE22" s="44"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="48"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="46">
         <f>IFERROR((9.82 * F19) * LN(B20/C19),0)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="12"/>
       <c r="I23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="46">
         <f>IFERROR((9.82 * N19) * LN(J20/K19),0)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="44"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R23" s="42">
+      <c r="R23" s="46">
         <f>IFERROR((9.82 * V19) * LN(R20/S19),0)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="44"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="48"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z23" s="42">
+      <c r="Z23" s="46">
         <f>IFERROR((9.82 * AD19) * LN(Z20/AA19),0)</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="43"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="44"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="48"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="50">
         <f>B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
       <c r="H24" s="12"/>
       <c r="I24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="39">
+      <c r="J24" s="50">
         <f>J23</f>
         <v>0</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="41"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="52"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R24" s="39">
+      <c r="R24" s="50">
         <f>R23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="41"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="52"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z24" s="39">
+      <c r="Z24" s="50">
         <f>Z23</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="41"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="52"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31517,270 +31517,270 @@
       <c r="A44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="42">
+      <c r="B44" s="46">
         <f>E43+B20</f>
         <v>11.923108687500001</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="44"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="48"/>
       <c r="H44" s="12"/>
       <c r="I44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J44" s="42">
+      <c r="J44" s="46">
         <f>M43+J20</f>
         <v>0</v>
       </c>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="44"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="48"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R44" s="42">
+      <c r="R44" s="46">
         <f>U43+R20</f>
         <v>0</v>
       </c>
-      <c r="S44" s="43"/>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43"/>
-      <c r="W44" s="44"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="47"/>
+      <c r="W44" s="48"/>
       <c r="X44" s="12"/>
       <c r="Y44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z44" s="42">
+      <c r="Z44" s="46">
         <f>AC43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="43"/>
-      <c r="AB44" s="43"/>
-      <c r="AC44" s="43"/>
-      <c r="AD44" s="43"/>
-      <c r="AE44" s="44"/>
+      <c r="AA44" s="47"/>
+      <c r="AB44" s="47"/>
+      <c r="AC44" s="47"/>
+      <c r="AD44" s="47"/>
+      <c r="AE44" s="48"/>
       <c r="AF44" s="12"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="42">
+      <c r="B45" s="46">
         <f>C43+B20</f>
         <v>2.9464924374999999</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="44"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="48"/>
       <c r="H45" s="12"/>
       <c r="I45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J45" s="42">
+      <c r="J45" s="46">
         <f>K43+J20</f>
         <v>0</v>
       </c>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="44"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="48"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R45" s="42">
+      <c r="R45" s="46">
         <f>S43+R20</f>
         <v>0</v>
       </c>
-      <c r="S45" s="43"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
-      <c r="W45" s="44"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="48"/>
       <c r="X45" s="12"/>
       <c r="Y45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z45" s="42">
+      <c r="Z45" s="46">
         <f>AA43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA45" s="43"/>
-      <c r="AB45" s="43"/>
-      <c r="AC45" s="43"/>
-      <c r="AD45" s="43"/>
-      <c r="AE45" s="44"/>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="47"/>
+      <c r="AC45" s="47"/>
+      <c r="AD45" s="47"/>
+      <c r="AE45" s="48"/>
       <c r="AF45" s="12"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="42">
+      <c r="B46" s="46">
         <f>IFERROR((G43/10/B44),0)</f>
         <v>0.56193398681538265</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="44"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="48"/>
       <c r="H46" s="12"/>
       <c r="I46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J46" s="42">
+      <c r="J46" s="46">
         <f>IFERROR((O43/10/J44),0)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="44"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="48"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R46" s="42">
+      <c r="R46" s="46">
         <f>IFERROR((W43/10/R44),0)</f>
         <v>0</v>
       </c>
-      <c r="S46" s="43"/>
-      <c r="T46" s="43"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="44"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="47"/>
+      <c r="W46" s="48"/>
       <c r="X46" s="12"/>
       <c r="Y46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z46" s="42">
+      <c r="Z46" s="46">
         <f>IFERROR((AE43/10/Z44),0)</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="43"/>
-      <c r="AB46" s="43"/>
-      <c r="AC46" s="43"/>
-      <c r="AD46" s="43"/>
-      <c r="AE46" s="44"/>
+      <c r="AA46" s="47"/>
+      <c r="AB46" s="47"/>
+      <c r="AC46" s="47"/>
+      <c r="AD46" s="47"/>
+      <c r="AE46" s="48"/>
       <c r="AF46" s="12"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="42">
+      <c r="B47" s="46">
         <f>IFERROR((9.82 * F43) * LN(B44/B45),0)</f>
         <v>6245.7915133757406</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="44"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="48"/>
       <c r="H47" s="12"/>
       <c r="I47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="42">
+      <c r="J47" s="46">
         <f>IFERROR((9.82 * N43) * LN(J44/J45),0)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="44"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="48"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R47" s="42">
+      <c r="R47" s="46">
         <f>IFERROR((9.82 * V43) * LN(R44/R45),0)</f>
         <v>0</v>
       </c>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="44"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="47"/>
+      <c r="W47" s="48"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z47" s="42">
+      <c r="Z47" s="46">
         <f>IFERROR((9.82 * AD43) * LN(Z44/Z45),0)</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="43"/>
-      <c r="AB47" s="43"/>
-      <c r="AC47" s="43"/>
-      <c r="AD47" s="43"/>
-      <c r="AE47" s="44"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="47"/>
+      <c r="AC47" s="47"/>
+      <c r="AD47" s="47"/>
+      <c r="AE47" s="48"/>
       <c r="AF47" s="12"/>
     </row>
     <row r="48" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="39">
+      <c r="B48" s="50">
         <f>B47+B24</f>
         <v>6245.7915133757406</v>
       </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="41"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="52"/>
       <c r="H48" s="12"/>
       <c r="I48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J48" s="39">
+      <c r="J48" s="50">
         <f>J47+J24</f>
         <v>0</v>
       </c>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="41"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="52"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R48" s="39">
+      <c r="R48" s="50">
         <f>R47+R24</f>
         <v>0</v>
       </c>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="40"/>
-      <c r="V48" s="40"/>
-      <c r="W48" s="41"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="51"/>
+      <c r="U48" s="51"/>
+      <c r="V48" s="51"/>
+      <c r="W48" s="52"/>
       <c r="X48" s="12"/>
       <c r="Y48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z48" s="39">
+      <c r="Z48" s="50">
         <f>Z47+Z24</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="40"/>
-      <c r="AB48" s="40"/>
-      <c r="AC48" s="40"/>
-      <c r="AD48" s="40"/>
-      <c r="AE48" s="41"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AE48" s="52"/>
       <c r="AF48" s="12"/>
     </row>
     <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33517,270 +33517,270 @@
       <c r="A68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="42">
+      <c r="B68" s="46">
         <f>E67+B44</f>
         <v>11.923108687500001</v>
       </c>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="44"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="48"/>
       <c r="H68" s="12"/>
       <c r="I68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J68" s="42">
+      <c r="J68" s="46">
         <f>M67+J44</f>
         <v>0</v>
       </c>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="44"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="48"/>
       <c r="P68" s="12"/>
       <c r="Q68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R68" s="42">
+      <c r="R68" s="46">
         <f>U67+R44</f>
         <v>0</v>
       </c>
-      <c r="S68" s="43"/>
-      <c r="T68" s="43"/>
-      <c r="U68" s="43"/>
-      <c r="V68" s="43"/>
-      <c r="W68" s="44"/>
+      <c r="S68" s="47"/>
+      <c r="T68" s="47"/>
+      <c r="U68" s="47"/>
+      <c r="V68" s="47"/>
+      <c r="W68" s="48"/>
       <c r="X68" s="12"/>
       <c r="Y68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z68" s="42">
+      <c r="Z68" s="46">
         <f>AC67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA68" s="43"/>
-      <c r="AB68" s="43"/>
-      <c r="AC68" s="43"/>
-      <c r="AD68" s="43"/>
-      <c r="AE68" s="44"/>
+      <c r="AA68" s="47"/>
+      <c r="AB68" s="47"/>
+      <c r="AC68" s="47"/>
+      <c r="AD68" s="47"/>
+      <c r="AE68" s="48"/>
       <c r="AF68" s="12"/>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="42">
+      <c r="B69" s="46">
         <f>C67+B44</f>
         <v>11.923108687500001</v>
       </c>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="44"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="48"/>
       <c r="H69" s="12"/>
       <c r="I69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J69" s="42">
+      <c r="J69" s="46">
         <f>K67+J44</f>
         <v>0</v>
       </c>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="43"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="44"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="48"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R69" s="42">
+      <c r="R69" s="46">
         <f>S67+R44</f>
         <v>0</v>
       </c>
-      <c r="S69" s="43"/>
-      <c r="T69" s="43"/>
-      <c r="U69" s="43"/>
-      <c r="V69" s="43"/>
-      <c r="W69" s="44"/>
+      <c r="S69" s="47"/>
+      <c r="T69" s="47"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="47"/>
+      <c r="W69" s="48"/>
       <c r="X69" s="12"/>
       <c r="Y69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z69" s="42">
+      <c r="Z69" s="46">
         <f>AA67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA69" s="43"/>
-      <c r="AB69" s="43"/>
-      <c r="AC69" s="43"/>
-      <c r="AD69" s="43"/>
-      <c r="AE69" s="44"/>
+      <c r="AA69" s="47"/>
+      <c r="AB69" s="47"/>
+      <c r="AC69" s="47"/>
+      <c r="AD69" s="47"/>
+      <c r="AE69" s="48"/>
       <c r="AF69" s="12"/>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="42">
+      <c r="B70" s="46">
         <f>IFERROR((G67/10/B68),0)</f>
         <v>0</v>
       </c>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="44"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="48"/>
       <c r="H70" s="12"/>
       <c r="I70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J70" s="42">
+      <c r="J70" s="46">
         <f>IFERROR((O67/10/J68),0)</f>
         <v>0</v>
       </c>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="44"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="47"/>
+      <c r="O70" s="48"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R70" s="42">
+      <c r="R70" s="46">
         <f>IFERROR((W67/10/R68),0)</f>
         <v>0</v>
       </c>
-      <c r="S70" s="43"/>
-      <c r="T70" s="43"/>
-      <c r="U70" s="43"/>
-      <c r="V70" s="43"/>
-      <c r="W70" s="44"/>
+      <c r="S70" s="47"/>
+      <c r="T70" s="47"/>
+      <c r="U70" s="47"/>
+      <c r="V70" s="47"/>
+      <c r="W70" s="48"/>
       <c r="X70" s="12"/>
       <c r="Y70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z70" s="42">
+      <c r="Z70" s="46">
         <f>IFERROR((AE67/10/Z68),0)</f>
         <v>0</v>
       </c>
-      <c r="AA70" s="43"/>
-      <c r="AB70" s="43"/>
-      <c r="AC70" s="43"/>
-      <c r="AD70" s="43"/>
-      <c r="AE70" s="44"/>
+      <c r="AA70" s="47"/>
+      <c r="AB70" s="47"/>
+      <c r="AC70" s="47"/>
+      <c r="AD70" s="47"/>
+      <c r="AE70" s="48"/>
       <c r="AF70" s="12"/>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="42">
+      <c r="B71" s="46">
         <f>IFERROR((9.82 * F67) * LN(B68/B69),0)</f>
         <v>0</v>
       </c>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="44"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="48"/>
       <c r="H71" s="12"/>
       <c r="I71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J71" s="42">
+      <c r="J71" s="46">
         <f>IFERROR((9.82 * N67) * LN(J68/J69),0)</f>
         <v>0</v>
       </c>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="44"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="48"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R71" s="42">
+      <c r="R71" s="46">
         <f>IFERROR((9.82 * V67) * LN(R68/R69),0)</f>
         <v>0</v>
       </c>
-      <c r="S71" s="43"/>
-      <c r="T71" s="43"/>
-      <c r="U71" s="43"/>
-      <c r="V71" s="43"/>
-      <c r="W71" s="44"/>
+      <c r="S71" s="47"/>
+      <c r="T71" s="47"/>
+      <c r="U71" s="47"/>
+      <c r="V71" s="47"/>
+      <c r="W71" s="48"/>
       <c r="X71" s="12"/>
       <c r="Y71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z71" s="42">
+      <c r="Z71" s="46">
         <f>IFERROR((9.82 * AD67) * LN(Z68/Z69),0)</f>
         <v>0</v>
       </c>
-      <c r="AA71" s="43"/>
-      <c r="AB71" s="43"/>
-      <c r="AC71" s="43"/>
-      <c r="AD71" s="43"/>
-      <c r="AE71" s="44"/>
+      <c r="AA71" s="47"/>
+      <c r="AB71" s="47"/>
+      <c r="AC71" s="47"/>
+      <c r="AD71" s="47"/>
+      <c r="AE71" s="48"/>
       <c r="AF71" s="12"/>
     </row>
     <row r="72" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="39">
+      <c r="B72" s="50">
         <f>B71+B48</f>
         <v>6245.7915133757406</v>
       </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="41"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="52"/>
       <c r="H72" s="12"/>
       <c r="I72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J72" s="39">
+      <c r="J72" s="50">
         <f>J71+J48</f>
         <v>0</v>
       </c>
-      <c r="K72" s="40"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="40"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="41"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="51"/>
+      <c r="M72" s="51"/>
+      <c r="N72" s="51"/>
+      <c r="O72" s="52"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R72" s="39">
+      <c r="R72" s="50">
         <f>R71+R48</f>
         <v>0</v>
       </c>
-      <c r="S72" s="40"/>
-      <c r="T72" s="40"/>
-      <c r="U72" s="40"/>
-      <c r="V72" s="40"/>
-      <c r="W72" s="41"/>
+      <c r="S72" s="51"/>
+      <c r="T72" s="51"/>
+      <c r="U72" s="51"/>
+      <c r="V72" s="51"/>
+      <c r="W72" s="52"/>
       <c r="X72" s="12"/>
       <c r="Y72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z72" s="39">
+      <c r="Z72" s="50">
         <f>Z71+Z48</f>
         <v>0</v>
       </c>
-      <c r="AA72" s="40"/>
-      <c r="AB72" s="40"/>
-      <c r="AC72" s="40"/>
-      <c r="AD72" s="40"/>
-      <c r="AE72" s="41"/>
+      <c r="AA72" s="51"/>
+      <c r="AB72" s="51"/>
+      <c r="AC72" s="51"/>
+      <c r="AD72" s="51"/>
+      <c r="AE72" s="52"/>
       <c r="AF72" s="12"/>
     </row>
     <row r="73" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35517,270 +35517,270 @@
       <c r="A92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="42">
+      <c r="B92" s="46">
         <f>E91+B68</f>
         <v>11.923108687500001</v>
       </c>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="44"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="48"/>
       <c r="H92" s="12"/>
       <c r="I92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J92" s="42">
+      <c r="J92" s="46">
         <f>M91+J68</f>
         <v>0</v>
       </c>
-      <c r="K92" s="43"/>
-      <c r="L92" s="43"/>
-      <c r="M92" s="43"/>
-      <c r="N92" s="43"/>
-      <c r="O92" s="44"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="47"/>
+      <c r="N92" s="47"/>
+      <c r="O92" s="48"/>
       <c r="P92" s="12"/>
       <c r="Q92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R92" s="42">
+      <c r="R92" s="46">
         <f>U91+R68</f>
         <v>0</v>
       </c>
-      <c r="S92" s="43"/>
-      <c r="T92" s="43"/>
-      <c r="U92" s="43"/>
-      <c r="V92" s="43"/>
-      <c r="W92" s="44"/>
+      <c r="S92" s="47"/>
+      <c r="T92" s="47"/>
+      <c r="U92" s="47"/>
+      <c r="V92" s="47"/>
+      <c r="W92" s="48"/>
       <c r="X92" s="12"/>
       <c r="Y92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z92" s="42">
+      <c r="Z92" s="46">
         <f>AC91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA92" s="43"/>
-      <c r="AB92" s="43"/>
-      <c r="AC92" s="43"/>
-      <c r="AD92" s="43"/>
-      <c r="AE92" s="44"/>
+      <c r="AA92" s="47"/>
+      <c r="AB92" s="47"/>
+      <c r="AC92" s="47"/>
+      <c r="AD92" s="47"/>
+      <c r="AE92" s="48"/>
       <c r="AF92" s="12"/>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="42">
+      <c r="B93" s="46">
         <f>C91+B68</f>
         <v>11.923108687500001</v>
       </c>
-      <c r="C93" s="43"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="44"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="48"/>
       <c r="H93" s="12"/>
       <c r="I93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J93" s="42">
+      <c r="J93" s="46">
         <f>K91+J68</f>
         <v>0</v>
       </c>
-      <c r="K93" s="43"/>
-      <c r="L93" s="43"/>
-      <c r="M93" s="43"/>
-      <c r="N93" s="43"/>
-      <c r="O93" s="44"/>
+      <c r="K93" s="47"/>
+      <c r="L93" s="47"/>
+      <c r="M93" s="47"/>
+      <c r="N93" s="47"/>
+      <c r="O93" s="48"/>
       <c r="P93" s="12"/>
       <c r="Q93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R93" s="42">
+      <c r="R93" s="46">
         <f>S91+R68</f>
         <v>0</v>
       </c>
-      <c r="S93" s="43"/>
-      <c r="T93" s="43"/>
-      <c r="U93" s="43"/>
-      <c r="V93" s="43"/>
-      <c r="W93" s="44"/>
+      <c r="S93" s="47"/>
+      <c r="T93" s="47"/>
+      <c r="U93" s="47"/>
+      <c r="V93" s="47"/>
+      <c r="W93" s="48"/>
       <c r="X93" s="12"/>
       <c r="Y93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z93" s="42">
+      <c r="Z93" s="46">
         <f>AA91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA93" s="43"/>
-      <c r="AB93" s="43"/>
-      <c r="AC93" s="43"/>
-      <c r="AD93" s="43"/>
-      <c r="AE93" s="44"/>
+      <c r="AA93" s="47"/>
+      <c r="AB93" s="47"/>
+      <c r="AC93" s="47"/>
+      <c r="AD93" s="47"/>
+      <c r="AE93" s="48"/>
       <c r="AF93" s="12"/>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="42">
+      <c r="B94" s="46">
         <f>IFERROR((G91/10/B92),0)</f>
         <v>0</v>
       </c>
-      <c r="C94" s="43"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="44"/>
+      <c r="C94" s="47"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="48"/>
       <c r="H94" s="12"/>
       <c r="I94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J94" s="42">
+      <c r="J94" s="46">
         <f>IFERROR((O91/10/J92),0)</f>
         <v>0</v>
       </c>
-      <c r="K94" s="43"/>
-      <c r="L94" s="43"/>
-      <c r="M94" s="43"/>
-      <c r="N94" s="43"/>
-      <c r="O94" s="44"/>
+      <c r="K94" s="47"/>
+      <c r="L94" s="47"/>
+      <c r="M94" s="47"/>
+      <c r="N94" s="47"/>
+      <c r="O94" s="48"/>
       <c r="P94" s="12"/>
       <c r="Q94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R94" s="42">
+      <c r="R94" s="46">
         <f>IFERROR((W91/10/R92),0)</f>
         <v>0</v>
       </c>
-      <c r="S94" s="43"/>
-      <c r="T94" s="43"/>
-      <c r="U94" s="43"/>
-      <c r="V94" s="43"/>
-      <c r="W94" s="44"/>
+      <c r="S94" s="47"/>
+      <c r="T94" s="47"/>
+      <c r="U94" s="47"/>
+      <c r="V94" s="47"/>
+      <c r="W94" s="48"/>
       <c r="X94" s="12"/>
       <c r="Y94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z94" s="42">
+      <c r="Z94" s="46">
         <f>IFERROR((AE91/10/Z92),0)</f>
         <v>0</v>
       </c>
-      <c r="AA94" s="43"/>
-      <c r="AB94" s="43"/>
-      <c r="AC94" s="43"/>
-      <c r="AD94" s="43"/>
-      <c r="AE94" s="44"/>
+      <c r="AA94" s="47"/>
+      <c r="AB94" s="47"/>
+      <c r="AC94" s="47"/>
+      <c r="AD94" s="47"/>
+      <c r="AE94" s="48"/>
       <c r="AF94" s="12"/>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="42">
+      <c r="B95" s="46">
         <f>IFERROR((9.82 * F91) * LN(B92/B93),0)</f>
         <v>0</v>
       </c>
-      <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="44"/>
+      <c r="C95" s="47"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="48"/>
       <c r="H95" s="12"/>
       <c r="I95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J95" s="42">
+      <c r="J95" s="46">
         <f>IFERROR((9.82 * N91) * LN(J92/J93),0)</f>
         <v>0</v>
       </c>
-      <c r="K95" s="43"/>
-      <c r="L95" s="43"/>
-      <c r="M95" s="43"/>
-      <c r="N95" s="43"/>
-      <c r="O95" s="44"/>
+      <c r="K95" s="47"/>
+      <c r="L95" s="47"/>
+      <c r="M95" s="47"/>
+      <c r="N95" s="47"/>
+      <c r="O95" s="48"/>
       <c r="P95" s="12"/>
       <c r="Q95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R95" s="42">
+      <c r="R95" s="46">
         <f>IFERROR((9.82 * V91) * LN(R92/R93),0)</f>
         <v>0</v>
       </c>
-      <c r="S95" s="43"/>
-      <c r="T95" s="43"/>
-      <c r="U95" s="43"/>
-      <c r="V95" s="43"/>
-      <c r="W95" s="44"/>
+      <c r="S95" s="47"/>
+      <c r="T95" s="47"/>
+      <c r="U95" s="47"/>
+      <c r="V95" s="47"/>
+      <c r="W95" s="48"/>
       <c r="X95" s="12"/>
       <c r="Y95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z95" s="42">
+      <c r="Z95" s="46">
         <f>IFERROR((9.82 * AD91) * LN(Z92/Z93),0)</f>
         <v>0</v>
       </c>
-      <c r="AA95" s="43"/>
-      <c r="AB95" s="43"/>
-      <c r="AC95" s="43"/>
-      <c r="AD95" s="43"/>
-      <c r="AE95" s="44"/>
+      <c r="AA95" s="47"/>
+      <c r="AB95" s="47"/>
+      <c r="AC95" s="47"/>
+      <c r="AD95" s="47"/>
+      <c r="AE95" s="48"/>
       <c r="AF95" s="12"/>
     </row>
     <row r="96" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="39">
+      <c r="B96" s="50">
         <f>B95+B72</f>
         <v>6245.7915133757406</v>
       </c>
-      <c r="C96" s="40"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="40"/>
-      <c r="F96" s="40"/>
-      <c r="G96" s="41"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="52"/>
       <c r="H96" s="12"/>
       <c r="I96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J96" s="39">
+      <c r="J96" s="50">
         <f>J95+J72</f>
         <v>0</v>
       </c>
-      <c r="K96" s="40"/>
-      <c r="L96" s="40"/>
-      <c r="M96" s="40"/>
-      <c r="N96" s="40"/>
-      <c r="O96" s="41"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="51"/>
+      <c r="M96" s="51"/>
+      <c r="N96" s="51"/>
+      <c r="O96" s="52"/>
       <c r="P96" s="12"/>
       <c r="Q96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R96" s="39">
+      <c r="R96" s="50">
         <f>R95+R72</f>
         <v>0</v>
       </c>
-      <c r="S96" s="40"/>
-      <c r="T96" s="40"/>
-      <c r="U96" s="40"/>
-      <c r="V96" s="40"/>
-      <c r="W96" s="41"/>
+      <c r="S96" s="51"/>
+      <c r="T96" s="51"/>
+      <c r="U96" s="51"/>
+      <c r="V96" s="51"/>
+      <c r="W96" s="52"/>
       <c r="X96" s="12"/>
       <c r="Y96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z96" s="39">
+      <c r="Z96" s="50">
         <f>Z95+Z72</f>
         <v>0</v>
       </c>
-      <c r="AA96" s="40"/>
-      <c r="AB96" s="40"/>
-      <c r="AC96" s="40"/>
-      <c r="AD96" s="40"/>
-      <c r="AE96" s="41"/>
+      <c r="AA96" s="51"/>
+      <c r="AB96" s="51"/>
+      <c r="AC96" s="51"/>
+      <c r="AD96" s="51"/>
+      <c r="AE96" s="52"/>
       <c r="AF96" s="12"/>
     </row>
     <row r="97" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37517,270 +37517,270 @@
       <c r="A116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B116" s="42">
+      <c r="B116" s="46">
         <f>E115+B92</f>
         <v>11.923108687500001</v>
       </c>
-      <c r="C116" s="43"/>
-      <c r="D116" s="43"/>
-      <c r="E116" s="43"/>
-      <c r="F116" s="43"/>
-      <c r="G116" s="44"/>
+      <c r="C116" s="47"/>
+      <c r="D116" s="47"/>
+      <c r="E116" s="47"/>
+      <c r="F116" s="47"/>
+      <c r="G116" s="48"/>
       <c r="H116" s="12"/>
       <c r="I116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J116" s="42">
+      <c r="J116" s="46">
         <f>M115+J92</f>
         <v>0</v>
       </c>
-      <c r="K116" s="43"/>
-      <c r="L116" s="43"/>
-      <c r="M116" s="43"/>
-      <c r="N116" s="43"/>
-      <c r="O116" s="44"/>
+      <c r="K116" s="47"/>
+      <c r="L116" s="47"/>
+      <c r="M116" s="47"/>
+      <c r="N116" s="47"/>
+      <c r="O116" s="48"/>
       <c r="P116" s="12"/>
       <c r="Q116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R116" s="42">
+      <c r="R116" s="46">
         <f>U115+R92</f>
         <v>0</v>
       </c>
-      <c r="S116" s="43"/>
-      <c r="T116" s="43"/>
-      <c r="U116" s="43"/>
-      <c r="V116" s="43"/>
-      <c r="W116" s="44"/>
+      <c r="S116" s="47"/>
+      <c r="T116" s="47"/>
+      <c r="U116" s="47"/>
+      <c r="V116" s="47"/>
+      <c r="W116" s="48"/>
       <c r="X116" s="12"/>
       <c r="Y116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z116" s="42">
+      <c r="Z116" s="46">
         <f>AC115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA116" s="43"/>
-      <c r="AB116" s="43"/>
-      <c r="AC116" s="43"/>
-      <c r="AD116" s="43"/>
-      <c r="AE116" s="44"/>
+      <c r="AA116" s="47"/>
+      <c r="AB116" s="47"/>
+      <c r="AC116" s="47"/>
+      <c r="AD116" s="47"/>
+      <c r="AE116" s="48"/>
       <c r="AF116" s="12"/>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B117" s="42">
+      <c r="B117" s="46">
         <f>C115+B92</f>
         <v>11.923108687500001</v>
       </c>
-      <c r="C117" s="43"/>
-      <c r="D117" s="43"/>
-      <c r="E117" s="43"/>
-      <c r="F117" s="43"/>
-      <c r="G117" s="44"/>
+      <c r="C117" s="47"/>
+      <c r="D117" s="47"/>
+      <c r="E117" s="47"/>
+      <c r="F117" s="47"/>
+      <c r="G117" s="48"/>
       <c r="H117" s="12"/>
       <c r="I117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J117" s="42">
+      <c r="J117" s="46">
         <f>K115+J92</f>
         <v>0</v>
       </c>
-      <c r="K117" s="43"/>
-      <c r="L117" s="43"/>
-      <c r="M117" s="43"/>
-      <c r="N117" s="43"/>
-      <c r="O117" s="44"/>
+      <c r="K117" s="47"/>
+      <c r="L117" s="47"/>
+      <c r="M117" s="47"/>
+      <c r="N117" s="47"/>
+      <c r="O117" s="48"/>
       <c r="P117" s="12"/>
       <c r="Q117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R117" s="42">
+      <c r="R117" s="46">
         <f>S115+R92</f>
         <v>0</v>
       </c>
-      <c r="S117" s="43"/>
-      <c r="T117" s="43"/>
-      <c r="U117" s="43"/>
-      <c r="V117" s="43"/>
-      <c r="W117" s="44"/>
+      <c r="S117" s="47"/>
+      <c r="T117" s="47"/>
+      <c r="U117" s="47"/>
+      <c r="V117" s="47"/>
+      <c r="W117" s="48"/>
       <c r="X117" s="12"/>
       <c r="Y117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z117" s="42">
+      <c r="Z117" s="46">
         <f>AA115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA117" s="43"/>
-      <c r="AB117" s="43"/>
-      <c r="AC117" s="43"/>
-      <c r="AD117" s="43"/>
-      <c r="AE117" s="44"/>
+      <c r="AA117" s="47"/>
+      <c r="AB117" s="47"/>
+      <c r="AC117" s="47"/>
+      <c r="AD117" s="47"/>
+      <c r="AE117" s="48"/>
       <c r="AF117" s="12"/>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B118" s="42">
+      <c r="B118" s="46">
         <f>IFERROR((G115/10/B116),0)</f>
         <v>0</v>
       </c>
-      <c r="C118" s="43"/>
-      <c r="D118" s="43"/>
-      <c r="E118" s="43"/>
-      <c r="F118" s="43"/>
-      <c r="G118" s="44"/>
+      <c r="C118" s="47"/>
+      <c r="D118" s="47"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="47"/>
+      <c r="G118" s="48"/>
       <c r="H118" s="12"/>
       <c r="I118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J118" s="42">
+      <c r="J118" s="46">
         <f>IFERROR((O115/10/J116),0)</f>
         <v>0</v>
       </c>
-      <c r="K118" s="43"/>
-      <c r="L118" s="43"/>
-      <c r="M118" s="43"/>
-      <c r="N118" s="43"/>
-      <c r="O118" s="44"/>
+      <c r="K118" s="47"/>
+      <c r="L118" s="47"/>
+      <c r="M118" s="47"/>
+      <c r="N118" s="47"/>
+      <c r="O118" s="48"/>
       <c r="P118" s="12"/>
       <c r="Q118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R118" s="42">
+      <c r="R118" s="46">
         <f>IFERROR((W115/10/R116),0)</f>
         <v>0</v>
       </c>
-      <c r="S118" s="43"/>
-      <c r="T118" s="43"/>
-      <c r="U118" s="43"/>
-      <c r="V118" s="43"/>
-      <c r="W118" s="44"/>
+      <c r="S118" s="47"/>
+      <c r="T118" s="47"/>
+      <c r="U118" s="47"/>
+      <c r="V118" s="47"/>
+      <c r="W118" s="48"/>
       <c r="X118" s="12"/>
       <c r="Y118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z118" s="42">
+      <c r="Z118" s="46">
         <f>IFERROR((AE115/10/Z116),0)</f>
         <v>0</v>
       </c>
-      <c r="AA118" s="43"/>
-      <c r="AB118" s="43"/>
-      <c r="AC118" s="43"/>
-      <c r="AD118" s="43"/>
-      <c r="AE118" s="44"/>
+      <c r="AA118" s="47"/>
+      <c r="AB118" s="47"/>
+      <c r="AC118" s="47"/>
+      <c r="AD118" s="47"/>
+      <c r="AE118" s="48"/>
       <c r="AF118" s="12"/>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B119" s="42">
+      <c r="B119" s="46">
         <f>IFERROR((9.82 * F115) * LN(B116/B117),0)</f>
         <v>0</v>
       </c>
-      <c r="C119" s="43"/>
-      <c r="D119" s="43"/>
-      <c r="E119" s="43"/>
-      <c r="F119" s="43"/>
-      <c r="G119" s="44"/>
+      <c r="C119" s="47"/>
+      <c r="D119" s="47"/>
+      <c r="E119" s="47"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="48"/>
       <c r="H119" s="12"/>
       <c r="I119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J119" s="42">
+      <c r="J119" s="46">
         <f>IFERROR((9.82 * N115) * LN(J116/J117),0)</f>
         <v>0</v>
       </c>
-      <c r="K119" s="43"/>
-      <c r="L119" s="43"/>
-      <c r="M119" s="43"/>
-      <c r="N119" s="43"/>
-      <c r="O119" s="44"/>
+      <c r="K119" s="47"/>
+      <c r="L119" s="47"/>
+      <c r="M119" s="47"/>
+      <c r="N119" s="47"/>
+      <c r="O119" s="48"/>
       <c r="P119" s="12"/>
       <c r="Q119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R119" s="42">
+      <c r="R119" s="46">
         <f>IFERROR((9.82 * V115) * LN(R116/R117),0)</f>
         <v>0</v>
       </c>
-      <c r="S119" s="43"/>
-      <c r="T119" s="43"/>
-      <c r="U119" s="43"/>
-      <c r="V119" s="43"/>
-      <c r="W119" s="44"/>
+      <c r="S119" s="47"/>
+      <c r="T119" s="47"/>
+      <c r="U119" s="47"/>
+      <c r="V119" s="47"/>
+      <c r="W119" s="48"/>
       <c r="X119" s="12"/>
       <c r="Y119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z119" s="42">
+      <c r="Z119" s="46">
         <f>IFERROR((9.82 * AD115) * LN(Z116/Z117),0)</f>
         <v>0</v>
       </c>
-      <c r="AA119" s="43"/>
-      <c r="AB119" s="43"/>
-      <c r="AC119" s="43"/>
-      <c r="AD119" s="43"/>
-      <c r="AE119" s="44"/>
+      <c r="AA119" s="47"/>
+      <c r="AB119" s="47"/>
+      <c r="AC119" s="47"/>
+      <c r="AD119" s="47"/>
+      <c r="AE119" s="48"/>
       <c r="AF119" s="12"/>
     </row>
     <row r="120" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B120" s="39">
+      <c r="B120" s="50">
         <f>B119+B96</f>
         <v>6245.7915133757406</v>
       </c>
-      <c r="C120" s="40"/>
-      <c r="D120" s="40"/>
-      <c r="E120" s="40"/>
-      <c r="F120" s="40"/>
-      <c r="G120" s="41"/>
+      <c r="C120" s="51"/>
+      <c r="D120" s="51"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="51"/>
+      <c r="G120" s="52"/>
       <c r="H120" s="12"/>
       <c r="I120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J120" s="39">
+      <c r="J120" s="50">
         <f>J119+J96</f>
         <v>0</v>
       </c>
-      <c r="K120" s="40"/>
-      <c r="L120" s="40"/>
-      <c r="M120" s="40"/>
-      <c r="N120" s="40"/>
-      <c r="O120" s="41"/>
+      <c r="K120" s="51"/>
+      <c r="L120" s="51"/>
+      <c r="M120" s="51"/>
+      <c r="N120" s="51"/>
+      <c r="O120" s="52"/>
       <c r="P120" s="12"/>
       <c r="Q120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R120" s="39">
+      <c r="R120" s="50">
         <f>R119+R96</f>
         <v>0</v>
       </c>
-      <c r="S120" s="40"/>
-      <c r="T120" s="40"/>
-      <c r="U120" s="40"/>
-      <c r="V120" s="40"/>
-      <c r="W120" s="41"/>
+      <c r="S120" s="51"/>
+      <c r="T120" s="51"/>
+      <c r="U120" s="51"/>
+      <c r="V120" s="51"/>
+      <c r="W120" s="52"/>
       <c r="X120" s="12"/>
       <c r="Y120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z120" s="39">
+      <c r="Z120" s="50">
         <f>Z119+Z96</f>
         <v>0</v>
       </c>
-      <c r="AA120" s="40"/>
-      <c r="AB120" s="40"/>
-      <c r="AC120" s="40"/>
-      <c r="AD120" s="40"/>
-      <c r="AE120" s="41"/>
+      <c r="AA120" s="51"/>
+      <c r="AB120" s="51"/>
+      <c r="AC120" s="51"/>
+      <c r="AD120" s="51"/>
+      <c r="AE120" s="52"/>
       <c r="AF120" s="12"/>
     </row>
     <row r="121" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37818,315 +37818,315 @@
       <c r="AF121" s="12"/>
     </row>
     <row r="122" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="46" t="s">
+      <c r="A122" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B122" s="47"/>
-      <c r="C122" s="47"/>
-      <c r="D122" s="47"/>
-      <c r="E122" s="47"/>
-      <c r="F122" s="47"/>
-      <c r="G122" s="48"/>
+      <c r="B122" s="42"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="42"/>
+      <c r="E122" s="42"/>
+      <c r="F122" s="42"/>
+      <c r="G122" s="43"/>
       <c r="H122" s="12"/>
-      <c r="I122" s="46" t="s">
+      <c r="I122" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="J122" s="47"/>
-      <c r="K122" s="47"/>
-      <c r="L122" s="47"/>
-      <c r="M122" s="47"/>
-      <c r="N122" s="47"/>
-      <c r="O122" s="48"/>
+      <c r="J122" s="42"/>
+      <c r="K122" s="42"/>
+      <c r="L122" s="42"/>
+      <c r="M122" s="42"/>
+      <c r="N122" s="42"/>
+      <c r="O122" s="43"/>
       <c r="P122" s="12"/>
-      <c r="Q122" s="46" t="s">
+      <c r="Q122" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="R122" s="47"/>
-      <c r="S122" s="47"/>
-      <c r="T122" s="47"/>
-      <c r="U122" s="47"/>
-      <c r="V122" s="47"/>
-      <c r="W122" s="48"/>
+      <c r="R122" s="42"/>
+      <c r="S122" s="42"/>
+      <c r="T122" s="42"/>
+      <c r="U122" s="42"/>
+      <c r="V122" s="42"/>
+      <c r="W122" s="43"/>
       <c r="X122" s="12"/>
-      <c r="Y122" s="46" t="s">
+      <c r="Y122" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="Z122" s="47"/>
-      <c r="AA122" s="47"/>
-      <c r="AB122" s="47"/>
-      <c r="AC122" s="47"/>
-      <c r="AD122" s="47"/>
-      <c r="AE122" s="48"/>
+      <c r="Z122" s="42"/>
+      <c r="AA122" s="42"/>
+      <c r="AB122" s="42"/>
+      <c r="AC122" s="42"/>
+      <c r="AD122" s="42"/>
+      <c r="AE122" s="43"/>
       <c r="AF122" s="12"/>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A123" s="51" t="s">
+      <c r="A123" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B123" s="51"/>
-      <c r="C123" s="51"/>
-      <c r="D123" s="50">
+      <c r="B123" s="44"/>
+      <c r="C123" s="44"/>
+      <c r="D123" s="45">
         <f>B115</f>
         <v>3</v>
       </c>
-      <c r="E123" s="50"/>
-      <c r="F123" s="50"/>
-      <c r="G123" s="50"/>
+      <c r="E123" s="45"/>
+      <c r="F123" s="45"/>
+      <c r="G123" s="45"/>
       <c r="H123" s="12"/>
-      <c r="I123" s="51" t="s">
+      <c r="I123" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J123" s="51"/>
-      <c r="K123" s="51"/>
-      <c r="L123" s="50">
+      <c r="J123" s="44"/>
+      <c r="K123" s="44"/>
+      <c r="L123" s="45">
         <f>J115</f>
         <v>0</v>
       </c>
-      <c r="M123" s="50"/>
-      <c r="N123" s="50"/>
-      <c r="O123" s="50"/>
+      <c r="M123" s="45"/>
+      <c r="N123" s="45"/>
+      <c r="O123" s="45"/>
       <c r="P123" s="12"/>
-      <c r="Q123" s="51" t="s">
+      <c r="Q123" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="R123" s="51"/>
-      <c r="S123" s="51"/>
-      <c r="T123" s="50">
+      <c r="R123" s="44"/>
+      <c r="S123" s="44"/>
+      <c r="T123" s="45">
         <f>R115</f>
         <v>0</v>
       </c>
-      <c r="U123" s="50"/>
-      <c r="V123" s="50"/>
-      <c r="W123" s="50"/>
+      <c r="U123" s="45"/>
+      <c r="V123" s="45"/>
+      <c r="W123" s="45"/>
       <c r="X123" s="12"/>
-      <c r="Y123" s="51" t="s">
+      <c r="Y123" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="Z123" s="51"/>
-      <c r="AA123" s="51"/>
-      <c r="AB123" s="50">
+      <c r="Z123" s="44"/>
+      <c r="AA123" s="44"/>
+      <c r="AB123" s="45">
         <f>Z115</f>
         <v>0</v>
       </c>
-      <c r="AC123" s="50"/>
-      <c r="AD123" s="50"/>
-      <c r="AE123" s="50"/>
+      <c r="AC123" s="45"/>
+      <c r="AD123" s="45"/>
+      <c r="AE123" s="45"/>
       <c r="AF123" s="12"/>
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A124" s="52" t="s">
+      <c r="A124" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="52"/>
-      <c r="C124" s="52"/>
-      <c r="D124" s="49">
+      <c r="B124" s="39"/>
+      <c r="C124" s="39"/>
+      <c r="D124" s="40">
         <f>B116</f>
         <v>11.923108687500001</v>
       </c>
-      <c r="E124" s="49"/>
-      <c r="F124" s="49"/>
-      <c r="G124" s="49"/>
+      <c r="E124" s="40"/>
+      <c r="F124" s="40"/>
+      <c r="G124" s="40"/>
       <c r="H124" s="12"/>
-      <c r="I124" s="52" t="s">
+      <c r="I124" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="J124" s="52"/>
-      <c r="K124" s="52"/>
-      <c r="L124" s="49">
+      <c r="J124" s="39"/>
+      <c r="K124" s="39"/>
+      <c r="L124" s="40">
         <f>J116</f>
         <v>0</v>
       </c>
-      <c r="M124" s="49"/>
-      <c r="N124" s="49"/>
-      <c r="O124" s="49"/>
+      <c r="M124" s="40"/>
+      <c r="N124" s="40"/>
+      <c r="O124" s="40"/>
       <c r="P124" s="12"/>
-      <c r="Q124" s="52" t="s">
+      <c r="Q124" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="R124" s="52"/>
-      <c r="S124" s="52"/>
-      <c r="T124" s="49">
+      <c r="R124" s="39"/>
+      <c r="S124" s="39"/>
+      <c r="T124" s="40">
         <f>R116</f>
         <v>0</v>
       </c>
-      <c r="U124" s="49"/>
-      <c r="V124" s="49"/>
-      <c r="W124" s="49"/>
+      <c r="U124" s="40"/>
+      <c r="V124" s="40"/>
+      <c r="W124" s="40"/>
       <c r="X124" s="12"/>
-      <c r="Y124" s="52" t="s">
+      <c r="Y124" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="Z124" s="52"/>
-      <c r="AA124" s="52"/>
-      <c r="AB124" s="49">
+      <c r="Z124" s="39"/>
+      <c r="AA124" s="39"/>
+      <c r="AB124" s="40">
         <f>Z116</f>
         <v>0</v>
       </c>
-      <c r="AC124" s="49"/>
-      <c r="AD124" s="49"/>
-      <c r="AE124" s="49"/>
+      <c r="AC124" s="40"/>
+      <c r="AD124" s="40"/>
+      <c r="AE124" s="40"/>
       <c r="AF124" s="12"/>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A125" s="52" t="s">
+      <c r="A125" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="52"/>
-      <c r="C125" s="52"/>
-      <c r="D125" s="49">
+      <c r="B125" s="39"/>
+      <c r="C125" s="39"/>
+      <c r="D125" s="40">
         <f>D115+D91+D67+D43+D19</f>
         <v>8.9766162500000011</v>
       </c>
-      <c r="E125" s="49"/>
-      <c r="F125" s="49"/>
-      <c r="G125" s="49"/>
+      <c r="E125" s="40"/>
+      <c r="F125" s="40"/>
+      <c r="G125" s="40"/>
       <c r="H125" s="12"/>
-      <c r="I125" s="52" t="s">
+      <c r="I125" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J125" s="52"/>
-      <c r="K125" s="52"/>
-      <c r="L125" s="49">
+      <c r="J125" s="39"/>
+      <c r="K125" s="39"/>
+      <c r="L125" s="40">
         <f>L115+L91+L67+L43+L19</f>
         <v>0</v>
       </c>
-      <c r="M125" s="49"/>
-      <c r="N125" s="49"/>
-      <c r="O125" s="49"/>
+      <c r="M125" s="40"/>
+      <c r="N125" s="40"/>
+      <c r="O125" s="40"/>
       <c r="P125" s="12"/>
-      <c r="Q125" s="52" t="s">
+      <c r="Q125" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="R125" s="52"/>
-      <c r="S125" s="52"/>
-      <c r="T125" s="49">
+      <c r="R125" s="39"/>
+      <c r="S125" s="39"/>
+      <c r="T125" s="40">
         <f>T115+T91+T67+T43+T19</f>
         <v>0</v>
       </c>
-      <c r="U125" s="49"/>
-      <c r="V125" s="49"/>
-      <c r="W125" s="49"/>
+      <c r="U125" s="40"/>
+      <c r="V125" s="40"/>
+      <c r="W125" s="40"/>
       <c r="X125" s="12"/>
-      <c r="Y125" s="52" t="s">
+      <c r="Y125" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="Z125" s="52"/>
-      <c r="AA125" s="52"/>
-      <c r="AB125" s="49">
+      <c r="Z125" s="39"/>
+      <c r="AA125" s="39"/>
+      <c r="AB125" s="40">
         <f>AB115+AB91+AB67+AB43+AB19</f>
         <v>0</v>
       </c>
-      <c r="AC125" s="49"/>
-      <c r="AD125" s="49"/>
-      <c r="AE125" s="49"/>
+      <c r="AC125" s="40"/>
+      <c r="AD125" s="40"/>
+      <c r="AE125" s="40"/>
       <c r="AF125" s="12"/>
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A126" s="52" t="s">
+      <c r="A126" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="52"/>
-      <c r="C126" s="52"/>
-      <c r="D126" s="49">
+      <c r="B126" s="39"/>
+      <c r="C126" s="39"/>
+      <c r="D126" s="40">
         <f>D124-D125</f>
         <v>2.9464924374999999</v>
       </c>
-      <c r="E126" s="49"/>
-      <c r="F126" s="49"/>
-      <c r="G126" s="49"/>
+      <c r="E126" s="40"/>
+      <c r="F126" s="40"/>
+      <c r="G126" s="40"/>
       <c r="H126" s="12"/>
-      <c r="I126" s="52" t="s">
+      <c r="I126" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J126" s="52"/>
-      <c r="K126" s="52"/>
-      <c r="L126" s="49">
+      <c r="J126" s="39"/>
+      <c r="K126" s="39"/>
+      <c r="L126" s="40">
         <f>L124-L125</f>
         <v>0</v>
       </c>
-      <c r="M126" s="49"/>
-      <c r="N126" s="49"/>
-      <c r="O126" s="49"/>
+      <c r="M126" s="40"/>
+      <c r="N126" s="40"/>
+      <c r="O126" s="40"/>
       <c r="P126" s="12"/>
-      <c r="Q126" s="52" t="s">
+      <c r="Q126" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="R126" s="52"/>
-      <c r="S126" s="52"/>
-      <c r="T126" s="49">
+      <c r="R126" s="39"/>
+      <c r="S126" s="39"/>
+      <c r="T126" s="40">
         <f>T124-T125</f>
         <v>0</v>
       </c>
-      <c r="U126" s="49"/>
-      <c r="V126" s="49"/>
-      <c r="W126" s="49"/>
+      <c r="U126" s="40"/>
+      <c r="V126" s="40"/>
+      <c r="W126" s="40"/>
       <c r="X126" s="12"/>
-      <c r="Y126" s="52" t="s">
+      <c r="Y126" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Z126" s="52"/>
-      <c r="AA126" s="52"/>
-      <c r="AB126" s="49">
+      <c r="Z126" s="39"/>
+      <c r="AA126" s="39"/>
+      <c r="AB126" s="40">
         <f>AB124-AB125</f>
         <v>0</v>
       </c>
-      <c r="AC126" s="49"/>
-      <c r="AD126" s="49"/>
-      <c r="AE126" s="49"/>
+      <c r="AC126" s="40"/>
+      <c r="AD126" s="40"/>
+      <c r="AE126" s="40"/>
       <c r="AF126" s="12"/>
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A127" s="52" t="s">
+      <c r="A127" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="52"/>
-      <c r="C127" s="52"/>
-      <c r="D127" s="49">
+      <c r="B127" s="39"/>
+      <c r="C127" s="39"/>
+      <c r="D127" s="40">
         <f>B120</f>
         <v>6245.7915133757406</v>
       </c>
-      <c r="E127" s="49"/>
-      <c r="F127" s="49"/>
-      <c r="G127" s="49"/>
+      <c r="E127" s="40"/>
+      <c r="F127" s="40"/>
+      <c r="G127" s="40"/>
       <c r="H127" s="12"/>
-      <c r="I127" s="52" t="s">
+      <c r="I127" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="J127" s="52"/>
-      <c r="K127" s="52"/>
-      <c r="L127" s="49">
+      <c r="J127" s="39"/>
+      <c r="K127" s="39"/>
+      <c r="L127" s="40">
         <f>J120</f>
         <v>0</v>
       </c>
-      <c r="M127" s="49"/>
-      <c r="N127" s="49"/>
-      <c r="O127" s="49"/>
+      <c r="M127" s="40"/>
+      <c r="N127" s="40"/>
+      <c r="O127" s="40"/>
       <c r="P127" s="12"/>
-      <c r="Q127" s="52" t="s">
+      <c r="Q127" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="R127" s="52"/>
-      <c r="S127" s="52"/>
-      <c r="T127" s="49">
+      <c r="R127" s="39"/>
+      <c r="S127" s="39"/>
+      <c r="T127" s="40">
         <f>R120</f>
         <v>0</v>
       </c>
-      <c r="U127" s="49"/>
-      <c r="V127" s="49"/>
-      <c r="W127" s="49"/>
+      <c r="U127" s="40"/>
+      <c r="V127" s="40"/>
+      <c r="W127" s="40"/>
       <c r="X127" s="12"/>
-      <c r="Y127" s="52" t="s">
+      <c r="Y127" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="Z127" s="52"/>
-      <c r="AA127" s="52"/>
-      <c r="AB127" s="49">
+      <c r="Z127" s="39"/>
+      <c r="AA127" s="39"/>
+      <c r="AB127" s="40">
         <f>Z120</f>
         <v>0</v>
       </c>
-      <c r="AC127" s="49"/>
-      <c r="AD127" s="49"/>
-      <c r="AE127" s="49"/>
+      <c r="AC127" s="40"/>
+      <c r="AD127" s="40"/>
+      <c r="AE127" s="40"/>
       <c r="AF127" s="12"/>
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.25">
@@ -38165,49 +38165,87 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="Y127:AA127"/>
-    <mergeCell ref="AB127:AE127"/>
-    <mergeCell ref="Y122:AE122"/>
-    <mergeCell ref="Y123:AA123"/>
-    <mergeCell ref="AB123:AE123"/>
-    <mergeCell ref="Y124:AA124"/>
-    <mergeCell ref="AB124:AE124"/>
-    <mergeCell ref="Y125:AA125"/>
-    <mergeCell ref="AB125:AE125"/>
-    <mergeCell ref="Y126:AA126"/>
-    <mergeCell ref="AB126:AE126"/>
-    <mergeCell ref="I127:K127"/>
-    <mergeCell ref="L127:O127"/>
-    <mergeCell ref="Q122:W122"/>
-    <mergeCell ref="Q123:S123"/>
-    <mergeCell ref="T123:W123"/>
-    <mergeCell ref="Q124:S124"/>
-    <mergeCell ref="T124:W124"/>
-    <mergeCell ref="Q125:S125"/>
-    <mergeCell ref="T125:W125"/>
-    <mergeCell ref="Q126:S126"/>
-    <mergeCell ref="T126:W126"/>
-    <mergeCell ref="Q127:S127"/>
-    <mergeCell ref="T127:W127"/>
-    <mergeCell ref="I122:O122"/>
-    <mergeCell ref="I123:K123"/>
-    <mergeCell ref="L123:O123"/>
-    <mergeCell ref="I124:K124"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="I125:K125"/>
-    <mergeCell ref="L125:O125"/>
-    <mergeCell ref="I126:K126"/>
-    <mergeCell ref="L126:O126"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="J120:O120"/>
+    <mergeCell ref="R120:W120"/>
+    <mergeCell ref="Z120:AE120"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="J119:O119"/>
+    <mergeCell ref="R119:W119"/>
+    <mergeCell ref="Z119:AE119"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="J118:O118"/>
+    <mergeCell ref="R118:W118"/>
+    <mergeCell ref="Z118:AE118"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="J117:O117"/>
+    <mergeCell ref="R117:W117"/>
+    <mergeCell ref="Z117:AE117"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="J116:O116"/>
+    <mergeCell ref="R116:W116"/>
+    <mergeCell ref="Z116:AE116"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="J96:O96"/>
+    <mergeCell ref="R96:W96"/>
+    <mergeCell ref="Z96:AE96"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="J95:O95"/>
+    <mergeCell ref="R95:W95"/>
+    <mergeCell ref="Z95:AE95"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="J94:O94"/>
+    <mergeCell ref="R94:W94"/>
+    <mergeCell ref="Z94:AE94"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="J93:O93"/>
+    <mergeCell ref="R93:W93"/>
+    <mergeCell ref="Z93:AE93"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="J92:O92"/>
+    <mergeCell ref="R92:W92"/>
+    <mergeCell ref="Z92:AE92"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="J72:O72"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="Z72:AE72"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="J71:O71"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="Z71:AE71"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="J70:O70"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="Z70:AE70"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="J69:O69"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="Z69:AE69"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="J68:O68"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="Z68:AE68"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="R48:W48"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="R47:W47"/>
+    <mergeCell ref="Z47:AE47"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="Z46:AE46"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="R44:W44"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="Z24:AE24"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="J20:O20"/>
     <mergeCell ref="R20:W20"/>
@@ -38232,87 +38270,49 @@
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="J45:O45"/>
     <mergeCell ref="R45:W45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="R44:W44"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="Z24:AE24"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="R48:W48"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="R47:W47"/>
-    <mergeCell ref="Z47:AE47"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="R46:W46"/>
-    <mergeCell ref="Z46:AE46"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="J70:O70"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="Z70:AE70"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="J69:O69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="Z69:AE69"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="J68:O68"/>
-    <mergeCell ref="R68:W68"/>
-    <mergeCell ref="Z68:AE68"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="J92:O92"/>
-    <mergeCell ref="R92:W92"/>
-    <mergeCell ref="Z92:AE92"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="J72:O72"/>
-    <mergeCell ref="R72:W72"/>
-    <mergeCell ref="Z72:AE72"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="J71:O71"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="Z71:AE71"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="J95:O95"/>
-    <mergeCell ref="R95:W95"/>
-    <mergeCell ref="Z95:AE95"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="J94:O94"/>
-    <mergeCell ref="R94:W94"/>
-    <mergeCell ref="Z94:AE94"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="J93:O93"/>
-    <mergeCell ref="R93:W93"/>
-    <mergeCell ref="Z93:AE93"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="J117:O117"/>
-    <mergeCell ref="R117:W117"/>
-    <mergeCell ref="Z117:AE117"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="J116:O116"/>
-    <mergeCell ref="R116:W116"/>
-    <mergeCell ref="Z116:AE116"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="J96:O96"/>
-    <mergeCell ref="R96:W96"/>
-    <mergeCell ref="Z96:AE96"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="J120:O120"/>
-    <mergeCell ref="R120:W120"/>
-    <mergeCell ref="Z120:AE120"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="J119:O119"/>
-    <mergeCell ref="R119:W119"/>
-    <mergeCell ref="Z119:AE119"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="J118:O118"/>
-    <mergeCell ref="R118:W118"/>
-    <mergeCell ref="Z118:AE118"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="L127:O127"/>
+    <mergeCell ref="Q122:W122"/>
+    <mergeCell ref="Q123:S123"/>
+    <mergeCell ref="T123:W123"/>
+    <mergeCell ref="Q124:S124"/>
+    <mergeCell ref="T124:W124"/>
+    <mergeCell ref="Q125:S125"/>
+    <mergeCell ref="T125:W125"/>
+    <mergeCell ref="Q126:S126"/>
+    <mergeCell ref="T126:W126"/>
+    <mergeCell ref="Q127:S127"/>
+    <mergeCell ref="T127:W127"/>
+    <mergeCell ref="I122:O122"/>
+    <mergeCell ref="I123:K123"/>
+    <mergeCell ref="L123:O123"/>
+    <mergeCell ref="I124:K124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="I125:K125"/>
+    <mergeCell ref="L125:O125"/>
+    <mergeCell ref="I126:K126"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="Y127:AA127"/>
+    <mergeCell ref="AB127:AE127"/>
+    <mergeCell ref="Y122:AE122"/>
+    <mergeCell ref="Y123:AA123"/>
+    <mergeCell ref="AB123:AE123"/>
+    <mergeCell ref="Y124:AA124"/>
+    <mergeCell ref="AB124:AE124"/>
+    <mergeCell ref="Y125:AA125"/>
+    <mergeCell ref="AB125:AE125"/>
+    <mergeCell ref="Y126:AA126"/>
+    <mergeCell ref="AB126:AE126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39378,8 +39378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GameData/SSTU/Parts/Parts-MassCalc.xlsx
+++ b/GameData/SSTU/Parts/Parts-MassCalc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="parts" sheetId="1" r:id="rId1"/>
@@ -1881,9 +1881,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M120" sqref="M120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7683,8 +7683,7 @@
         <v>171</v>
       </c>
       <c r="B61" s="6">
-        <f>1.6*4</f>
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="C61" s="18">
         <v>102</v>
@@ -7708,42 +7707,45 @@
       <c r="I61" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="J61" s="4"/>
+      <c r="J61" s="4">
+        <f t="shared" si="13"/>
+        <v>86.7</v>
+      </c>
       <c r="K61" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3.7119521250000007</v>
       </c>
       <c r="L61" s="4">
         <f t="shared" si="14"/>
-        <v>6.4</v>
+        <v>7.7119521250000007</v>
       </c>
       <c r="M61" s="4">
         <f>IFERROR(VLOOKUP(I61,FuelTypes!$A$1:$B$32,2,FALSE)*J61,0)</f>
-        <v>0</v>
+        <v>24.746347500000006</v>
       </c>
       <c r="N61" s="4">
         <f t="shared" si="17"/>
-        <v>6.4</v>
+        <v>32.458299625000009</v>
       </c>
       <c r="O61" s="4">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.76240430909510404</v>
       </c>
       <c r="P61" s="4">
         <f>VLOOKUP(I61, FuelTypes!$A$1:$R$12,17,FALSE)*J61</f>
-        <v>0</v>
+        <v>65025</v>
       </c>
       <c r="Q61" s="4">
         <f>VLOOKUP(I61, FuelTypes!$A$1:$R$12,18,FALSE)*J61</f>
-        <v>0</v>
+        <v>4335</v>
       </c>
       <c r="R61" s="4">
         <f t="shared" si="3"/>
-        <v>4.1875</v>
+        <v>0.82567479842222302</v>
       </c>
       <c r="S61" s="4">
         <f t="shared" si="4"/>
-        <v>1.4328358208955225</v>
+        <v>1.7265564458955227</v>
       </c>
       <c r="T61" s="4">
         <f t="shared" si="5"/>
@@ -7751,7 +7753,7 @@
       </c>
       <c r="U61" s="4">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>412.15134098367548</v>
       </c>
       <c r="W61" s="3">
         <f>IFERROR(VLOOKUP(I61,FuelTypes!$A$2:$G$40,5,FALSE)*M61,0)</f>
@@ -7767,11 +7769,11 @@
       </c>
       <c r="AB61" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.86956521739130443</v>
       </c>
       <c r="AC61" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.76240430909510404</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
@@ -7779,7 +7781,7 @@
         <v>167</v>
       </c>
       <c r="B62" s="6">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="C62" s="18">
         <v>37</v>
@@ -7812,7 +7814,7 @@
       </c>
       <c r="L62" s="4">
         <f t="shared" si="14"/>
-        <v>2.9464924374999999</v>
+        <v>2.3464924375000002</v>
       </c>
       <c r="M62" s="4">
         <f>IFERROR(VLOOKUP(I62,FuelTypes!$A$1:$B$32,2,FALSE)*J62,0)</f>
@@ -7820,11 +7822,11 @@
       </c>
       <c r="N62" s="4">
         <f t="shared" si="17"/>
-        <v>11.923108687500001</v>
+        <v>11.323108687500001</v>
       </c>
       <c r="O62" s="4">
         <f t="shared" si="15"/>
-        <v>0.75287548619018663</v>
+        <v>0.79276959161485572</v>
       </c>
       <c r="P62" s="4">
         <f>VLOOKUP(I62, FuelTypes!$A$1:$R$12,17,FALSE)*J62</f>
@@ -7836,11 +7838,11 @@
       </c>
       <c r="R62" s="4">
         <f t="shared" si="3"/>
-        <v>0.56193398681538265</v>
+        <v>0.5917102966075366</v>
       </c>
       <c r="S62" s="4">
         <f t="shared" si="4"/>
-        <v>1.5392124673507461</v>
+        <v>1.2257796315298508</v>
       </c>
       <c r="T62" s="4">
         <f t="shared" si="5"/>
@@ -7868,7 +7870,7 @@
       </c>
       <c r="AC62" s="3">
         <f t="shared" si="7"/>
-        <v>0.75287548619018663</v>
+        <v>0.79276959161485572</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
@@ -12887,10 +12889,10 @@
         <v>445</v>
       </c>
       <c r="G120" s="6">
-        <v>1398</v>
+        <v>900</v>
       </c>
       <c r="H120" s="6">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="I120" s="6" t="s">
         <v>163</v>
@@ -12929,15 +12931,15 @@
       </c>
       <c r="R120" s="4">
         <f t="shared" si="22"/>
-        <v>16.143187066974598</v>
+        <v>10.392609699769054</v>
       </c>
       <c r="S120" s="4">
         <f t="shared" si="23"/>
-        <v>1.5486409155937053</v>
+        <v>1.5395555555555556</v>
       </c>
       <c r="T120" s="4">
         <f t="shared" si="24"/>
-        <v>0.32024189946053672</v>
+        <v>0.20616431295742707</v>
       </c>
       <c r="U120" s="4">
         <f t="shared" si="30"/>
@@ -29912,7 +29914,7 @@
       </c>
       <c r="C27" s="4">
         <f>IFERROR(VLOOKUP(A27,parts!$A$2:$Z$300,12,FALSE)*B27,0)</f>
-        <v>2.9464924374999999</v>
+        <v>2.3464924375000002</v>
       </c>
       <c r="D27" s="4">
         <f>IFERROR(VLOOKUP(A27,parts!$A$2:$Z$300,13,FALSE)*B27,0)</f>
@@ -29920,7 +29922,7 @@
       </c>
       <c r="E27" s="4">
         <f>IFERROR(VLOOKUP(A27,parts!$A$2:$Z$300,14,FALSE)*B27,0)</f>
-        <v>11.923108687500001</v>
+        <v>11.323108687500001</v>
       </c>
       <c r="F27" s="4">
         <f>IFERROR(VLOOKUP(A27,parts!$A$2:$Z$300,6,FALSE),0)</f>
@@ -31409,7 +31411,7 @@
       </c>
       <c r="C43" s="4">
         <f>SUM(C27:C41)</f>
-        <v>2.9464924374999999</v>
+        <v>2.3464924375000002</v>
       </c>
       <c r="D43" s="4">
         <f>SUM(D27:D41)</f>
@@ -31417,7 +31419,7 @@
       </c>
       <c r="E43" s="4">
         <f>SUM(E27:E41)</f>
-        <v>11.923108687500001</v>
+        <v>11.323108687500001</v>
       </c>
       <c r="F43" s="4">
         <f>LARGE(F27:F41,1)</f>
@@ -31519,7 +31521,7 @@
       </c>
       <c r="B44" s="46">
         <f>E43+B20</f>
-        <v>11.923108687500001</v>
+        <v>11.323108687500001</v>
       </c>
       <c r="C44" s="47"/>
       <c r="D44" s="47"/>
@@ -31573,7 +31575,7 @@
       </c>
       <c r="B45" s="46">
         <f>C43+B20</f>
-        <v>2.9464924374999999</v>
+        <v>2.3464924375000002</v>
       </c>
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
@@ -31627,7 +31629,7 @@
       </c>
       <c r="B46" s="46">
         <f>IFERROR((G43/10/B44),0)</f>
-        <v>0.56193398681538265</v>
+        <v>0.5917102966075366</v>
       </c>
       <c r="C46" s="47"/>
       <c r="D46" s="47"/>
@@ -31681,7 +31683,7 @@
       </c>
       <c r="B47" s="46">
         <f>IFERROR((9.82 * F43) * LN(B44/B45),0)</f>
-        <v>6245.7915133757406</v>
+        <v>7032.4499171096795</v>
       </c>
       <c r="C47" s="47"/>
       <c r="D47" s="47"/>
@@ -31735,7 +31737,7 @@
       </c>
       <c r="B48" s="50">
         <f>B47+B24</f>
-        <v>6245.7915133757406</v>
+        <v>7032.4499171096795</v>
       </c>
       <c r="C48" s="51"/>
       <c r="D48" s="51"/>
@@ -33519,7 +33521,7 @@
       </c>
       <c r="B68" s="46">
         <f>E67+B44</f>
-        <v>11.923108687500001</v>
+        <v>11.323108687500001</v>
       </c>
       <c r="C68" s="47"/>
       <c r="D68" s="47"/>
@@ -33573,7 +33575,7 @@
       </c>
       <c r="B69" s="46">
         <f>C67+B44</f>
-        <v>11.923108687500001</v>
+        <v>11.323108687500001</v>
       </c>
       <c r="C69" s="47"/>
       <c r="D69" s="47"/>
@@ -33735,7 +33737,7 @@
       </c>
       <c r="B72" s="50">
         <f>B71+B48</f>
-        <v>6245.7915133757406</v>
+        <v>7032.4499171096795</v>
       </c>
       <c r="C72" s="51"/>
       <c r="D72" s="51"/>
@@ -35519,7 +35521,7 @@
       </c>
       <c r="B92" s="46">
         <f>E91+B68</f>
-        <v>11.923108687500001</v>
+        <v>11.323108687500001</v>
       </c>
       <c r="C92" s="47"/>
       <c r="D92" s="47"/>
@@ -35573,7 +35575,7 @@
       </c>
       <c r="B93" s="46">
         <f>C91+B68</f>
-        <v>11.923108687500001</v>
+        <v>11.323108687500001</v>
       </c>
       <c r="C93" s="47"/>
       <c r="D93" s="47"/>
@@ -35735,7 +35737,7 @@
       </c>
       <c r="B96" s="50">
         <f>B95+B72</f>
-        <v>6245.7915133757406</v>
+        <v>7032.4499171096795</v>
       </c>
       <c r="C96" s="51"/>
       <c r="D96" s="51"/>
@@ -37519,7 +37521,7 @@
       </c>
       <c r="B116" s="46">
         <f>E115+B92</f>
-        <v>11.923108687500001</v>
+        <v>11.323108687500001</v>
       </c>
       <c r="C116" s="47"/>
       <c r="D116" s="47"/>
@@ -37573,7 +37575,7 @@
       </c>
       <c r="B117" s="46">
         <f>C115+B92</f>
-        <v>11.923108687500001</v>
+        <v>11.323108687500001</v>
       </c>
       <c r="C117" s="47"/>
       <c r="D117" s="47"/>
@@ -37735,7 +37737,7 @@
       </c>
       <c r="B120" s="50">
         <f>B119+B96</f>
-        <v>6245.7915133757406</v>
+        <v>7032.4499171096795</v>
       </c>
       <c r="C120" s="51"/>
       <c r="D120" s="51"/>
@@ -37921,7 +37923,7 @@
       <c r="C124" s="39"/>
       <c r="D124" s="40">
         <f>B116</f>
-        <v>11.923108687500001</v>
+        <v>11.323108687500001</v>
       </c>
       <c r="E124" s="40"/>
       <c r="F124" s="40"/>
@@ -38029,7 +38031,7 @@
       <c r="C126" s="39"/>
       <c r="D126" s="40">
         <f>D124-D125</f>
-        <v>2.9464924374999999</v>
+        <v>2.3464924375000002</v>
       </c>
       <c r="E126" s="40"/>
       <c r="F126" s="40"/>
@@ -38083,7 +38085,7 @@
       <c r="C127" s="39"/>
       <c r="D127" s="40">
         <f>B120</f>
-        <v>6245.7915133757406</v>
+        <v>7032.4499171096795</v>
       </c>
       <c r="E127" s="40"/>
       <c r="F127" s="40"/>
@@ -39378,13 +39380,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -39673,7 +39679,7 @@
         <v>163</v>
       </c>
       <c r="AC3" s="34">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="27">
         <v>0.25</v>
@@ -39861,19 +39867,19 @@
       </c>
       <c r="V5" s="20">
         <f t="shared" si="11"/>
-        <v>0.61440000000000006</v>
+        <v>0.40960000000000002</v>
       </c>
       <c r="W5" s="30">
         <f t="shared" si="8"/>
-        <v>27.672796412556057</v>
+        <v>18.448530941704036</v>
       </c>
       <c r="X5" s="31">
         <f t="shared" si="12"/>
-        <v>39.813120000000005</v>
+        <v>26.542079999999999</v>
       </c>
       <c r="Y5" s="20">
         <f t="shared" si="9"/>
-        <v>0.40550400000000009</v>
+        <v>0.27033600000000002</v>
       </c>
       <c r="Z5" s="26" t="s">
         <v>261</v>
@@ -39967,19 +39973,19 @@
       </c>
       <c r="V6" s="32">
         <f t="shared" si="11"/>
-        <v>0.61440000000000006</v>
+        <v>0.40960000000000002</v>
       </c>
       <c r="W6" s="30">
         <f t="shared" si="8"/>
-        <v>22.978560000000002</v>
+        <v>15.319040000000001</v>
       </c>
       <c r="X6" s="31">
         <f t="shared" si="12"/>
-        <v>40.550400000000003</v>
+        <v>27.0336</v>
       </c>
       <c r="Y6" s="32">
         <f t="shared" si="9"/>
-        <v>0.86016000000000015</v>
+        <v>0.57343999999999995</v>
       </c>
       <c r="Z6" s="24" t="s">
         <v>265</v>
@@ -40074,19 +40080,19 @@
       </c>
       <c r="V7" s="32">
         <f t="shared" si="11"/>
-        <v>0.61440000000000006</v>
+        <v>0.40960000000000002</v>
       </c>
       <c r="W7" s="30">
         <f t="shared" si="8"/>
-        <v>30.854442013129106</v>
+        <v>20.569628008752737</v>
       </c>
       <c r="X7" s="31">
         <f t="shared" si="12"/>
-        <v>55.296000000000006</v>
+        <v>36.864000000000004</v>
       </c>
       <c r="Y7" s="32">
         <f t="shared" si="9"/>
-        <v>1.1059200000000002</v>
+        <v>0.73728000000000016</v>
       </c>
       <c r="Z7" s="26" t="s">
         <v>267</v>
@@ -40171,19 +40177,19 @@
       </c>
       <c r="V8" s="20">
         <f t="shared" si="11"/>
-        <v>0.61440000000000006</v>
+        <v>0.40960000000000002</v>
       </c>
       <c r="W8" s="30">
         <f t="shared" si="8"/>
-        <v>45.516025917926569</v>
+        <v>30.344017278617706</v>
       </c>
       <c r="X8" s="31">
         <f t="shared" si="12"/>
-        <v>60.211200000000005</v>
+        <v>40.140799999999999</v>
       </c>
       <c r="Y8" s="20">
         <f t="shared" si="9"/>
-        <v>0.59473920000000013</v>
+        <v>0.39649279999999998</v>
       </c>
       <c r="Z8" s="26" t="s">
         <v>269</v>
@@ -40271,19 +40277,19 @@
       </c>
       <c r="V9" s="32">
         <f t="shared" si="11"/>
-        <v>0.61440000000000006</v>
+        <v>0.40960000000000002</v>
       </c>
       <c r="W9" s="32">
         <f t="shared" si="8"/>
-        <v>37.0621935483871</v>
+        <v>24.708129032258068</v>
       </c>
       <c r="X9" s="32">
         <f t="shared" si="12"/>
-        <v>67.584000000000003</v>
+        <v>45.056000000000004</v>
       </c>
       <c r="Y9" s="32">
         <f t="shared" si="9"/>
-        <v>1.5974400000000002</v>
+        <v>1.0649600000000001</v>
       </c>
       <c r="Z9" s="26" t="s">
         <v>271</v>
@@ -40372,19 +40378,19 @@
       </c>
       <c r="V10" s="20">
         <f t="shared" si="11"/>
-        <v>0.61440000000000006</v>
+        <v>0.40960000000000002</v>
       </c>
       <c r="W10" s="30">
         <f t="shared" si="8"/>
-        <v>133.64851612903229</v>
+        <v>89.099010752688187</v>
       </c>
       <c r="X10" s="31">
         <f t="shared" si="12"/>
-        <v>177.56160000000003</v>
+        <v>118.37440000000001</v>
       </c>
       <c r="Y10" s="20">
         <f t="shared" si="9"/>
-        <v>1.2288000000000003</v>
+        <v>0.81920000000000015</v>
       </c>
       <c r="Z10" s="28" t="s">
         <v>273</v>
@@ -41253,7 +41259,7 @@
       <c r="AD19" s="20"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="37" t="s">
         <v>284</v>
       </c>
       <c r="B20" s="21"/>
@@ -41419,19 +41425,19 @@
       </c>
       <c r="V21" s="32">
         <f t="shared" si="11"/>
-        <v>0.61440000000000006</v>
+        <v>0.40960000000000002</v>
       </c>
       <c r="W21" s="30">
         <f t="shared" si="8"/>
-        <v>301.5084085510689</v>
+        <v>201.00560570071261</v>
       </c>
       <c r="X21" s="31">
         <f t="shared" si="12"/>
-        <v>634.67520000000002</v>
+        <v>423.11680000000001</v>
       </c>
       <c r="Y21" s="32">
         <f t="shared" si="9"/>
-        <v>4.3941888000000002</v>
+        <v>2.9294592000000002</v>
       </c>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
@@ -41610,19 +41616,19 @@
       </c>
       <c r="V23" s="32">
         <f t="shared" si="11"/>
-        <v>0.61440000000000006</v>
+        <v>0.40960000000000002</v>
       </c>
       <c r="W23" s="32">
         <f t="shared" si="8"/>
-        <v>613.02034285714296</v>
+        <v>408.68022857142864</v>
       </c>
       <c r="X23" s="32">
         <f t="shared" si="12"/>
-        <v>803.02080000000012</v>
+        <v>535.34720000000004</v>
       </c>
       <c r="Y23" s="32">
         <f t="shared" si="9"/>
-        <v>6.070272000000001</v>
+        <v>4.0468480000000007</v>
       </c>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
@@ -41895,19 +41901,19 @@
       </c>
       <c r="V26" s="32">
         <f t="shared" si="11"/>
-        <v>0.61440000000000006</v>
+        <v>0.40960000000000002</v>
       </c>
       <c r="W26" s="30">
         <f t="shared" si="8"/>
-        <v>1129.714407079646</v>
+        <v>753.1429380530974</v>
       </c>
       <c r="X26" s="31">
         <f t="shared" si="12"/>
-        <v>1398.9888000000001</v>
+        <v>932.65920000000006</v>
       </c>
       <c r="Y26" s="32">
         <f t="shared" si="9"/>
-        <v>8.6654976000000019</v>
+        <v>5.776998400000001</v>
       </c>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
@@ -42074,19 +42080,19 @@
       </c>
       <c r="V28" s="32">
         <f t="shared" si="11"/>
-        <v>0.61440000000000006</v>
+        <v>0.40960000000000002</v>
       </c>
       <c r="W28" s="32">
         <f t="shared" si="8"/>
-        <v>1811.5509073170731</v>
+        <v>1207.7006048780488</v>
       </c>
       <c r="X28" s="32">
         <f t="shared" si="12"/>
-        <v>2034.8928000000001</v>
+        <v>1356.5952</v>
       </c>
       <c r="Y28" s="32">
         <f t="shared" si="9"/>
-        <v>16.22016</v>
+        <v>10.813440000000002</v>
       </c>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
@@ -42169,19 +42175,19 @@
       </c>
       <c r="V29" s="20">
         <f t="shared" si="11"/>
-        <v>0.61440000000000006</v>
+        <v>0.40960000000000002</v>
       </c>
       <c r="W29" s="30">
         <f t="shared" si="8"/>
-        <v>1837.2780722891564</v>
+        <v>1224.852048192771</v>
       </c>
       <c r="X29" s="31">
         <f t="shared" si="12"/>
-        <v>2088.96</v>
+        <v>1392.64</v>
       </c>
       <c r="Y29" s="20">
         <f t="shared" si="9"/>
-        <v>15.974400000000001</v>
+        <v>10.649600000000001</v>
       </c>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
@@ -42265,19 +42271,19 @@
       </c>
       <c r="V30" s="20">
         <f t="shared" si="11"/>
-        <v>0.61440000000000006</v>
+        <v>0.40960000000000002</v>
       </c>
       <c r="W30" s="30">
         <f t="shared" si="8"/>
-        <v>1818.9653333333335</v>
+        <v>1212.6435555555554</v>
       </c>
       <c r="X30" s="31">
         <f t="shared" si="12"/>
-        <v>2242.5600000000004</v>
+        <v>1495.04</v>
       </c>
       <c r="Y30" s="20">
         <f t="shared" si="9"/>
-        <v>20.889600000000009</v>
+        <v>13.926400000000001</v>
       </c>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
@@ -42455,19 +42461,19 @@
       </c>
       <c r="V32" s="20">
         <f t="shared" si="11"/>
-        <v>0.61440000000000006</v>
+        <v>0.40960000000000002</v>
       </c>
       <c r="W32" s="30">
         <f t="shared" si="8"/>
-        <v>2374.1248598130846</v>
+        <v>1582.7499065420561</v>
       </c>
       <c r="X32" s="31">
         <f t="shared" si="12"/>
-        <v>3277.8240000000005</v>
+        <v>2185.2159999999999</v>
       </c>
       <c r="Y32" s="20">
         <f t="shared" si="9"/>
-        <v>22.285516800000003</v>
+        <v>14.857011200000001</v>
       </c>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>

--- a/GameData/SSTU/Parts/Parts-MassCalc.xlsx
+++ b/GameData/SSTU/Parts/Parts-MassCalc.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="355">
   <si>
     <t>Part</t>
   </si>
@@ -1081,6 +1081,12 @@
   <si>
     <t>SRB1</t>
   </si>
+  <si>
+    <t>SC-E-FS1</t>
+  </si>
+  <si>
+    <t>SC-E-FS2</t>
+  </si>
 </sst>
 </file>
 
@@ -1533,25 +1539,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1566,14 +1560,26 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1882,8 +1888,8 @@
   <dimension ref="A1:AC301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10548,14 +10554,22 @@
       </c>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
+      <c r="A93" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B93" s="6">
+        <v>37.5</v>
+      </c>
       <c r="C93" s="18"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
+      <c r="G93" s="6">
+        <v>3000</v>
+      </c>
+      <c r="H93" s="6">
+        <v>125</v>
+      </c>
       <c r="I93" s="6"/>
       <c r="J93" s="4">
         <f t="shared" si="19"/>
@@ -10567,7 +10581,7 @@
       </c>
       <c r="L93" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="M93" s="4">
         <f>IFERROR(VLOOKUP(I93,FuelTypes!$A$1:$B$32,2,FALSE)*J93,0)</f>
@@ -10575,7 +10589,7 @@
       </c>
       <c r="N93" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="O93" s="4">
         <f t="shared" si="21"/>
@@ -10591,11 +10605,11 @@
       </c>
       <c r="R93" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S93" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
       <c r="T93" s="4" t="e">
         <f t="shared" si="24"/>
@@ -10616,9 +10630,9 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="Z93" s="3" t="e">
+      <c r="Z93" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="AB93" s="3">
         <f t="shared" si="29"/>
@@ -10630,14 +10644,22 @@
       </c>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
+      <c r="A94" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B94" s="6">
+        <v>37.5</v>
+      </c>
       <c r="C94" s="18"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
+      <c r="G94" s="6">
+        <v>20</v>
+      </c>
+      <c r="H94" s="6">
+        <v>0.8</v>
+      </c>
       <c r="I94" s="6"/>
       <c r="J94" s="4">
         <f t="shared" si="19"/>
@@ -10649,7 +10671,7 @@
       </c>
       <c r="L94" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="M94" s="4">
         <f>IFERROR(VLOOKUP(I94,FuelTypes!$A$1:$B$32,2,FALSE)*J94,0)</f>
@@ -10657,7 +10679,7 @@
       </c>
       <c r="N94" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="O94" s="4">
         <f t="shared" si="21"/>
@@ -10673,11 +10695,11 @@
       </c>
       <c r="R94" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>5.3333333333333337E-2</v>
       </c>
       <c r="S94" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T94" s="4" t="e">
         <f t="shared" si="24"/>
@@ -10698,9 +10720,9 @@
         <f t="shared" si="28"/>
         <v>200</v>
       </c>
-      <c r="Z94" s="3" t="e">
+      <c r="Z94" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="AB94" s="3">
         <f t="shared" si="29"/>
@@ -27766,45 +27788,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
       <c r="H1" s="12"/>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
       <c r="P1" s="12"/>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
       <c r="X1" s="12"/>
-      <c r="Y1" s="49" t="s">
+      <c r="Y1" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
       <c r="AF1" s="12"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -29515,270 +29537,270 @@
       <c r="A20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="42">
         <f>E19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="12"/>
       <c r="I20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="42">
         <f>M19</f>
         <v>0</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="48"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="44"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R20" s="46">
+      <c r="R20" s="42">
         <f>U19</f>
         <v>0</v>
       </c>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="48"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="44"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z20" s="46">
+      <c r="Z20" s="42">
         <f>AC19</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="48"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="43"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="43"/>
+      <c r="AE20" s="44"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="42">
         <f>C19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
       <c r="H21" s="12"/>
       <c r="I21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="42">
         <f>K19</f>
         <v>0</v>
       </c>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="48"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="44"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R21" s="46">
+      <c r="R21" s="42">
         <f>S19</f>
         <v>0</v>
       </c>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="48"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="44"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z21" s="46">
+      <c r="Z21" s="42">
         <f>AA19</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="48"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="43"/>
+      <c r="AE21" s="44"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="42">
         <f>IFERROR((G19/10/B20),0)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
       <c r="H22" s="12"/>
       <c r="I22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="42">
         <f>IFERROR((O19/10/J20),0)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="48"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="44"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R22" s="46">
+      <c r="R22" s="42">
         <f>IFERROR((W19/10/R20),0)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="48"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="44"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z22" s="46">
+      <c r="Z22" s="42">
         <f>IFERROR((AE19/10/Z20),0)</f>
         <v>0</v>
       </c>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="48"/>
+      <c r="AA22" s="43"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="44"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="42">
         <f>IFERROR((9.82 * F19) * LN(B20/C19),0)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
       <c r="H23" s="12"/>
       <c r="I23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J23" s="42">
         <f>IFERROR((9.82 * N19) * LN(J20/K19),0)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="48"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="44"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R23" s="46">
+      <c r="R23" s="42">
         <f>IFERROR((9.82 * V19) * LN(R20/S19),0)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="48"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="44"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z23" s="46">
+      <c r="Z23" s="42">
         <f>IFERROR((9.82 * AD19) * LN(Z20/AA19),0)</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="48"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="43"/>
+      <c r="AE23" s="44"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="50">
+      <c r="B24" s="39">
         <f>B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="52"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="41"/>
       <c r="H24" s="12"/>
       <c r="I24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="50">
+      <c r="J24" s="39">
         <f>J23</f>
         <v>0</v>
       </c>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="52"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="41"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R24" s="50">
+      <c r="R24" s="39">
         <f>R23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="52"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="40"/>
+      <c r="W24" s="41"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z24" s="50">
+      <c r="Z24" s="39">
         <f>Z23</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="51"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="52"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="41"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31519,270 +31541,270 @@
       <c r="A44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="46">
+      <c r="B44" s="42">
         <f>E43+B20</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="48"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="44"/>
       <c r="H44" s="12"/>
       <c r="I44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J44" s="46">
+      <c r="J44" s="42">
         <f>M43+J20</f>
         <v>0</v>
       </c>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="48"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="44"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R44" s="46">
+      <c r="R44" s="42">
         <f>U43+R20</f>
         <v>0</v>
       </c>
-      <c r="S44" s="47"/>
-      <c r="T44" s="47"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="47"/>
-      <c r="W44" s="48"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="44"/>
       <c r="X44" s="12"/>
       <c r="Y44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z44" s="46">
+      <c r="Z44" s="42">
         <f>AC43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="47"/>
-      <c r="AB44" s="47"/>
-      <c r="AC44" s="47"/>
-      <c r="AD44" s="47"/>
-      <c r="AE44" s="48"/>
+      <c r="AA44" s="43"/>
+      <c r="AB44" s="43"/>
+      <c r="AC44" s="43"/>
+      <c r="AD44" s="43"/>
+      <c r="AE44" s="44"/>
       <c r="AF44" s="12"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="46">
+      <c r="B45" s="42">
         <f>C43+B20</f>
         <v>2.3464924375000002</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="48"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="44"/>
       <c r="H45" s="12"/>
       <c r="I45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J45" s="46">
+      <c r="J45" s="42">
         <f>K43+J20</f>
         <v>0</v>
       </c>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="48"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="44"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R45" s="46">
+      <c r="R45" s="42">
         <f>S43+R20</f>
         <v>0</v>
       </c>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="48"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
+      <c r="W45" s="44"/>
       <c r="X45" s="12"/>
       <c r="Y45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z45" s="46">
+      <c r="Z45" s="42">
         <f>AA43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA45" s="47"/>
-      <c r="AB45" s="47"/>
-      <c r="AC45" s="47"/>
-      <c r="AD45" s="47"/>
-      <c r="AE45" s="48"/>
+      <c r="AA45" s="43"/>
+      <c r="AB45" s="43"/>
+      <c r="AC45" s="43"/>
+      <c r="AD45" s="43"/>
+      <c r="AE45" s="44"/>
       <c r="AF45" s="12"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="46">
+      <c r="B46" s="42">
         <f>IFERROR((G43/10/B44),0)</f>
         <v>0.5917102966075366</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="48"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="44"/>
       <c r="H46" s="12"/>
       <c r="I46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J46" s="46">
+      <c r="J46" s="42">
         <f>IFERROR((O43/10/J44),0)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="48"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="44"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R46" s="46">
+      <c r="R46" s="42">
         <f>IFERROR((W43/10/R44),0)</f>
         <v>0</v>
       </c>
-      <c r="S46" s="47"/>
-      <c r="T46" s="47"/>
-      <c r="U46" s="47"/>
-      <c r="V46" s="47"/>
-      <c r="W46" s="48"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
+      <c r="W46" s="44"/>
       <c r="X46" s="12"/>
       <c r="Y46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z46" s="46">
+      <c r="Z46" s="42">
         <f>IFERROR((AE43/10/Z44),0)</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="47"/>
-      <c r="AB46" s="47"/>
-      <c r="AC46" s="47"/>
-      <c r="AD46" s="47"/>
-      <c r="AE46" s="48"/>
+      <c r="AA46" s="43"/>
+      <c r="AB46" s="43"/>
+      <c r="AC46" s="43"/>
+      <c r="AD46" s="43"/>
+      <c r="AE46" s="44"/>
       <c r="AF46" s="12"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="46">
+      <c r="B47" s="42">
         <f>IFERROR((9.82 * F43) * LN(B44/B45),0)</f>
         <v>7032.4499171096795</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="48"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="44"/>
       <c r="H47" s="12"/>
       <c r="I47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="46">
+      <c r="J47" s="42">
         <f>IFERROR((9.82 * N43) * LN(J44/J45),0)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="48"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="44"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R47" s="46">
+      <c r="R47" s="42">
         <f>IFERROR((9.82 * V43) * LN(R44/R45),0)</f>
         <v>0</v>
       </c>
-      <c r="S47" s="47"/>
-      <c r="T47" s="47"/>
-      <c r="U47" s="47"/>
-      <c r="V47" s="47"/>
-      <c r="W47" s="48"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="43"/>
+      <c r="W47" s="44"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z47" s="46">
+      <c r="Z47" s="42">
         <f>IFERROR((9.82 * AD43) * LN(Z44/Z45),0)</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="47"/>
-      <c r="AB47" s="47"/>
-      <c r="AC47" s="47"/>
-      <c r="AD47" s="47"/>
-      <c r="AE47" s="48"/>
+      <c r="AA47" s="43"/>
+      <c r="AB47" s="43"/>
+      <c r="AC47" s="43"/>
+      <c r="AD47" s="43"/>
+      <c r="AE47" s="44"/>
       <c r="AF47" s="12"/>
     </row>
     <row r="48" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="50">
+      <c r="B48" s="39">
         <f>B47+B24</f>
         <v>7032.4499171096795</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="52"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="41"/>
       <c r="H48" s="12"/>
       <c r="I48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J48" s="50">
+      <c r="J48" s="39">
         <f>J47+J24</f>
         <v>0</v>
       </c>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="52"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="41"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R48" s="50">
+      <c r="R48" s="39">
         <f>R47+R24</f>
         <v>0</v>
       </c>
-      <c r="S48" s="51"/>
-      <c r="T48" s="51"/>
-      <c r="U48" s="51"/>
-      <c r="V48" s="51"/>
-      <c r="W48" s="52"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="41"/>
       <c r="X48" s="12"/>
       <c r="Y48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z48" s="50">
+      <c r="Z48" s="39">
         <f>Z47+Z24</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="51"/>
-      <c r="AC48" s="51"/>
-      <c r="AD48" s="51"/>
-      <c r="AE48" s="52"/>
+      <c r="AA48" s="40"/>
+      <c r="AB48" s="40"/>
+      <c r="AC48" s="40"/>
+      <c r="AD48" s="40"/>
+      <c r="AE48" s="41"/>
       <c r="AF48" s="12"/>
     </row>
     <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33519,270 +33541,270 @@
       <c r="A68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="46">
+      <c r="B68" s="42">
         <f>E67+B44</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="48"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="44"/>
       <c r="H68" s="12"/>
       <c r="I68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J68" s="46">
+      <c r="J68" s="42">
         <f>M67+J44</f>
         <v>0</v>
       </c>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="48"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="43"/>
+      <c r="N68" s="43"/>
+      <c r="O68" s="44"/>
       <c r="P68" s="12"/>
       <c r="Q68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R68" s="46">
+      <c r="R68" s="42">
         <f>U67+R44</f>
         <v>0</v>
       </c>
-      <c r="S68" s="47"/>
-      <c r="T68" s="47"/>
-      <c r="U68" s="47"/>
-      <c r="V68" s="47"/>
-      <c r="W68" s="48"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="43"/>
+      <c r="U68" s="43"/>
+      <c r="V68" s="43"/>
+      <c r="W68" s="44"/>
       <c r="X68" s="12"/>
       <c r="Y68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z68" s="46">
+      <c r="Z68" s="42">
         <f>AC67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA68" s="47"/>
-      <c r="AB68" s="47"/>
-      <c r="AC68" s="47"/>
-      <c r="AD68" s="47"/>
-      <c r="AE68" s="48"/>
+      <c r="AA68" s="43"/>
+      <c r="AB68" s="43"/>
+      <c r="AC68" s="43"/>
+      <c r="AD68" s="43"/>
+      <c r="AE68" s="44"/>
       <c r="AF68" s="12"/>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="46">
+      <c r="B69" s="42">
         <f>C67+B44</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="48"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="44"/>
       <c r="H69" s="12"/>
       <c r="I69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J69" s="46">
+      <c r="J69" s="42">
         <f>K67+J44</f>
         <v>0</v>
       </c>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
-      <c r="O69" s="48"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43"/>
+      <c r="N69" s="43"/>
+      <c r="O69" s="44"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R69" s="46">
+      <c r="R69" s="42">
         <f>S67+R44</f>
         <v>0</v>
       </c>
-      <c r="S69" s="47"/>
-      <c r="T69" s="47"/>
-      <c r="U69" s="47"/>
-      <c r="V69" s="47"/>
-      <c r="W69" s="48"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="43"/>
+      <c r="V69" s="43"/>
+      <c r="W69" s="44"/>
       <c r="X69" s="12"/>
       <c r="Y69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z69" s="46">
+      <c r="Z69" s="42">
         <f>AA67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA69" s="47"/>
-      <c r="AB69" s="47"/>
-      <c r="AC69" s="47"/>
-      <c r="AD69" s="47"/>
-      <c r="AE69" s="48"/>
+      <c r="AA69" s="43"/>
+      <c r="AB69" s="43"/>
+      <c r="AC69" s="43"/>
+      <c r="AD69" s="43"/>
+      <c r="AE69" s="44"/>
       <c r="AF69" s="12"/>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="46">
+      <c r="B70" s="42">
         <f>IFERROR((G67/10/B68),0)</f>
         <v>0</v>
       </c>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="48"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="44"/>
       <c r="H70" s="12"/>
       <c r="I70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J70" s="46">
+      <c r="J70" s="42">
         <f>IFERROR((O67/10/J68),0)</f>
         <v>0</v>
       </c>
-      <c r="K70" s="47"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="48"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="43"/>
+      <c r="O70" s="44"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R70" s="46">
+      <c r="R70" s="42">
         <f>IFERROR((W67/10/R68),0)</f>
         <v>0</v>
       </c>
-      <c r="S70" s="47"/>
-      <c r="T70" s="47"/>
-      <c r="U70" s="47"/>
-      <c r="V70" s="47"/>
-      <c r="W70" s="48"/>
+      <c r="S70" s="43"/>
+      <c r="T70" s="43"/>
+      <c r="U70" s="43"/>
+      <c r="V70" s="43"/>
+      <c r="W70" s="44"/>
       <c r="X70" s="12"/>
       <c r="Y70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z70" s="46">
+      <c r="Z70" s="42">
         <f>IFERROR((AE67/10/Z68),0)</f>
         <v>0</v>
       </c>
-      <c r="AA70" s="47"/>
-      <c r="AB70" s="47"/>
-      <c r="AC70" s="47"/>
-      <c r="AD70" s="47"/>
-      <c r="AE70" s="48"/>
+      <c r="AA70" s="43"/>
+      <c r="AB70" s="43"/>
+      <c r="AC70" s="43"/>
+      <c r="AD70" s="43"/>
+      <c r="AE70" s="44"/>
       <c r="AF70" s="12"/>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="46">
+      <c r="B71" s="42">
         <f>IFERROR((9.82 * F67) * LN(B68/B69),0)</f>
         <v>0</v>
       </c>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="48"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="44"/>
       <c r="H71" s="12"/>
       <c r="I71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J71" s="46">
+      <c r="J71" s="42">
         <f>IFERROR((9.82 * N67) * LN(J68/J69),0)</f>
         <v>0</v>
       </c>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="48"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="44"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R71" s="46">
+      <c r="R71" s="42">
         <f>IFERROR((9.82 * V67) * LN(R68/R69),0)</f>
         <v>0</v>
       </c>
-      <c r="S71" s="47"/>
-      <c r="T71" s="47"/>
-      <c r="U71" s="47"/>
-      <c r="V71" s="47"/>
-      <c r="W71" s="48"/>
+      <c r="S71" s="43"/>
+      <c r="T71" s="43"/>
+      <c r="U71" s="43"/>
+      <c r="V71" s="43"/>
+      <c r="W71" s="44"/>
       <c r="X71" s="12"/>
       <c r="Y71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z71" s="46">
+      <c r="Z71" s="42">
         <f>IFERROR((9.82 * AD67) * LN(Z68/Z69),0)</f>
         <v>0</v>
       </c>
-      <c r="AA71" s="47"/>
-      <c r="AB71" s="47"/>
-      <c r="AC71" s="47"/>
-      <c r="AD71" s="47"/>
-      <c r="AE71" s="48"/>
+      <c r="AA71" s="43"/>
+      <c r="AB71" s="43"/>
+      <c r="AC71" s="43"/>
+      <c r="AD71" s="43"/>
+      <c r="AE71" s="44"/>
       <c r="AF71" s="12"/>
     </row>
     <row r="72" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="50">
+      <c r="B72" s="39">
         <f>B71+B48</f>
         <v>7032.4499171096795</v>
       </c>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="52"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="40"/>
+      <c r="G72" s="41"/>
       <c r="H72" s="12"/>
       <c r="I72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J72" s="50">
+      <c r="J72" s="39">
         <f>J71+J48</f>
         <v>0</v>
       </c>
-      <c r="K72" s="51"/>
-      <c r="L72" s="51"/>
-      <c r="M72" s="51"/>
-      <c r="N72" s="51"/>
-      <c r="O72" s="52"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="40"/>
+      <c r="N72" s="40"/>
+      <c r="O72" s="41"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R72" s="50">
+      <c r="R72" s="39">
         <f>R71+R48</f>
         <v>0</v>
       </c>
-      <c r="S72" s="51"/>
-      <c r="T72" s="51"/>
-      <c r="U72" s="51"/>
-      <c r="V72" s="51"/>
-      <c r="W72" s="52"/>
+      <c r="S72" s="40"/>
+      <c r="T72" s="40"/>
+      <c r="U72" s="40"/>
+      <c r="V72" s="40"/>
+      <c r="W72" s="41"/>
       <c r="X72" s="12"/>
       <c r="Y72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z72" s="50">
+      <c r="Z72" s="39">
         <f>Z71+Z48</f>
         <v>0</v>
       </c>
-      <c r="AA72" s="51"/>
-      <c r="AB72" s="51"/>
-      <c r="AC72" s="51"/>
-      <c r="AD72" s="51"/>
-      <c r="AE72" s="52"/>
+      <c r="AA72" s="40"/>
+      <c r="AB72" s="40"/>
+      <c r="AC72" s="40"/>
+      <c r="AD72" s="40"/>
+      <c r="AE72" s="41"/>
       <c r="AF72" s="12"/>
     </row>
     <row r="73" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35519,270 +35541,270 @@
       <c r="A92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="46">
+      <c r="B92" s="42">
         <f>E91+B68</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="48"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="44"/>
       <c r="H92" s="12"/>
       <c r="I92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J92" s="46">
+      <c r="J92" s="42">
         <f>M91+J68</f>
         <v>0</v>
       </c>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="47"/>
-      <c r="O92" s="48"/>
+      <c r="K92" s="43"/>
+      <c r="L92" s="43"/>
+      <c r="M92" s="43"/>
+      <c r="N92" s="43"/>
+      <c r="O92" s="44"/>
       <c r="P92" s="12"/>
       <c r="Q92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R92" s="46">
+      <c r="R92" s="42">
         <f>U91+R68</f>
         <v>0</v>
       </c>
-      <c r="S92" s="47"/>
-      <c r="T92" s="47"/>
-      <c r="U92" s="47"/>
-      <c r="V92" s="47"/>
-      <c r="W92" s="48"/>
+      <c r="S92" s="43"/>
+      <c r="T92" s="43"/>
+      <c r="U92" s="43"/>
+      <c r="V92" s="43"/>
+      <c r="W92" s="44"/>
       <c r="X92" s="12"/>
       <c r="Y92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z92" s="46">
+      <c r="Z92" s="42">
         <f>AC91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA92" s="47"/>
-      <c r="AB92" s="47"/>
-      <c r="AC92" s="47"/>
-      <c r="AD92" s="47"/>
-      <c r="AE92" s="48"/>
+      <c r="AA92" s="43"/>
+      <c r="AB92" s="43"/>
+      <c r="AC92" s="43"/>
+      <c r="AD92" s="43"/>
+      <c r="AE92" s="44"/>
       <c r="AF92" s="12"/>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="46">
+      <c r="B93" s="42">
         <f>C91+B68</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="C93" s="47"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="48"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="44"/>
       <c r="H93" s="12"/>
       <c r="I93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J93" s="46">
+      <c r="J93" s="42">
         <f>K91+J68</f>
         <v>0</v>
       </c>
-      <c r="K93" s="47"/>
-      <c r="L93" s="47"/>
-      <c r="M93" s="47"/>
-      <c r="N93" s="47"/>
-      <c r="O93" s="48"/>
+      <c r="K93" s="43"/>
+      <c r="L93" s="43"/>
+      <c r="M93" s="43"/>
+      <c r="N93" s="43"/>
+      <c r="O93" s="44"/>
       <c r="P93" s="12"/>
       <c r="Q93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R93" s="46">
+      <c r="R93" s="42">
         <f>S91+R68</f>
         <v>0</v>
       </c>
-      <c r="S93" s="47"/>
-      <c r="T93" s="47"/>
-      <c r="U93" s="47"/>
-      <c r="V93" s="47"/>
-      <c r="W93" s="48"/>
+      <c r="S93" s="43"/>
+      <c r="T93" s="43"/>
+      <c r="U93" s="43"/>
+      <c r="V93" s="43"/>
+      <c r="W93" s="44"/>
       <c r="X93" s="12"/>
       <c r="Y93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z93" s="46">
+      <c r="Z93" s="42">
         <f>AA91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA93" s="47"/>
-      <c r="AB93" s="47"/>
-      <c r="AC93" s="47"/>
-      <c r="AD93" s="47"/>
-      <c r="AE93" s="48"/>
+      <c r="AA93" s="43"/>
+      <c r="AB93" s="43"/>
+      <c r="AC93" s="43"/>
+      <c r="AD93" s="43"/>
+      <c r="AE93" s="44"/>
       <c r="AF93" s="12"/>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="46">
+      <c r="B94" s="42">
         <f>IFERROR((G91/10/B92),0)</f>
         <v>0</v>
       </c>
-      <c r="C94" s="47"/>
-      <c r="D94" s="47"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="48"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="44"/>
       <c r="H94" s="12"/>
       <c r="I94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J94" s="46">
+      <c r="J94" s="42">
         <f>IFERROR((O91/10/J92),0)</f>
         <v>0</v>
       </c>
-      <c r="K94" s="47"/>
-      <c r="L94" s="47"/>
-      <c r="M94" s="47"/>
-      <c r="N94" s="47"/>
-      <c r="O94" s="48"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="43"/>
+      <c r="M94" s="43"/>
+      <c r="N94" s="43"/>
+      <c r="O94" s="44"/>
       <c r="P94" s="12"/>
       <c r="Q94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R94" s="46">
+      <c r="R94" s="42">
         <f>IFERROR((W91/10/R92),0)</f>
         <v>0</v>
       </c>
-      <c r="S94" s="47"/>
-      <c r="T94" s="47"/>
-      <c r="U94" s="47"/>
-      <c r="V94" s="47"/>
-      <c r="W94" s="48"/>
+      <c r="S94" s="43"/>
+      <c r="T94" s="43"/>
+      <c r="U94" s="43"/>
+      <c r="V94" s="43"/>
+      <c r="W94" s="44"/>
       <c r="X94" s="12"/>
       <c r="Y94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z94" s="46">
+      <c r="Z94" s="42">
         <f>IFERROR((AE91/10/Z92),0)</f>
         <v>0</v>
       </c>
-      <c r="AA94" s="47"/>
-      <c r="AB94" s="47"/>
-      <c r="AC94" s="47"/>
-      <c r="AD94" s="47"/>
-      <c r="AE94" s="48"/>
+      <c r="AA94" s="43"/>
+      <c r="AB94" s="43"/>
+      <c r="AC94" s="43"/>
+      <c r="AD94" s="43"/>
+      <c r="AE94" s="44"/>
       <c r="AF94" s="12"/>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="46">
+      <c r="B95" s="42">
         <f>IFERROR((9.82 * F91) * LN(B92/B93),0)</f>
         <v>0</v>
       </c>
-      <c r="C95" s="47"/>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="47"/>
-      <c r="G95" s="48"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="44"/>
       <c r="H95" s="12"/>
       <c r="I95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J95" s="46">
+      <c r="J95" s="42">
         <f>IFERROR((9.82 * N91) * LN(J92/J93),0)</f>
         <v>0</v>
       </c>
-      <c r="K95" s="47"/>
-      <c r="L95" s="47"/>
-      <c r="M95" s="47"/>
-      <c r="N95" s="47"/>
-      <c r="O95" s="48"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="43"/>
+      <c r="M95" s="43"/>
+      <c r="N95" s="43"/>
+      <c r="O95" s="44"/>
       <c r="P95" s="12"/>
       <c r="Q95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R95" s="46">
+      <c r="R95" s="42">
         <f>IFERROR((9.82 * V91) * LN(R92/R93),0)</f>
         <v>0</v>
       </c>
-      <c r="S95" s="47"/>
-      <c r="T95" s="47"/>
-      <c r="U95" s="47"/>
-      <c r="V95" s="47"/>
-      <c r="W95" s="48"/>
+      <c r="S95" s="43"/>
+      <c r="T95" s="43"/>
+      <c r="U95" s="43"/>
+      <c r="V95" s="43"/>
+      <c r="W95" s="44"/>
       <c r="X95" s="12"/>
       <c r="Y95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z95" s="46">
+      <c r="Z95" s="42">
         <f>IFERROR((9.82 * AD91) * LN(Z92/Z93),0)</f>
         <v>0</v>
       </c>
-      <c r="AA95" s="47"/>
-      <c r="AB95" s="47"/>
-      <c r="AC95" s="47"/>
-      <c r="AD95" s="47"/>
-      <c r="AE95" s="48"/>
+      <c r="AA95" s="43"/>
+      <c r="AB95" s="43"/>
+      <c r="AC95" s="43"/>
+      <c r="AD95" s="43"/>
+      <c r="AE95" s="44"/>
       <c r="AF95" s="12"/>
     </row>
     <row r="96" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="50">
+      <c r="B96" s="39">
         <f>B95+B72</f>
         <v>7032.4499171096795</v>
       </c>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
-      <c r="G96" s="52"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="40"/>
+      <c r="G96" s="41"/>
       <c r="H96" s="12"/>
       <c r="I96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J96" s="50">
+      <c r="J96" s="39">
         <f>J95+J72</f>
         <v>0</v>
       </c>
-      <c r="K96" s="51"/>
-      <c r="L96" s="51"/>
-      <c r="M96" s="51"/>
-      <c r="N96" s="51"/>
-      <c r="O96" s="52"/>
+      <c r="K96" s="40"/>
+      <c r="L96" s="40"/>
+      <c r="M96" s="40"/>
+      <c r="N96" s="40"/>
+      <c r="O96" s="41"/>
       <c r="P96" s="12"/>
       <c r="Q96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R96" s="50">
+      <c r="R96" s="39">
         <f>R95+R72</f>
         <v>0</v>
       </c>
-      <c r="S96" s="51"/>
-      <c r="T96" s="51"/>
-      <c r="U96" s="51"/>
-      <c r="V96" s="51"/>
-      <c r="W96" s="52"/>
+      <c r="S96" s="40"/>
+      <c r="T96" s="40"/>
+      <c r="U96" s="40"/>
+      <c r="V96" s="40"/>
+      <c r="W96" s="41"/>
       <c r="X96" s="12"/>
       <c r="Y96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z96" s="50">
+      <c r="Z96" s="39">
         <f>Z95+Z72</f>
         <v>0</v>
       </c>
-      <c r="AA96" s="51"/>
-      <c r="AB96" s="51"/>
-      <c r="AC96" s="51"/>
-      <c r="AD96" s="51"/>
-      <c r="AE96" s="52"/>
+      <c r="AA96" s="40"/>
+      <c r="AB96" s="40"/>
+      <c r="AC96" s="40"/>
+      <c r="AD96" s="40"/>
+      <c r="AE96" s="41"/>
       <c r="AF96" s="12"/>
     </row>
     <row r="97" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37519,270 +37541,270 @@
       <c r="A116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B116" s="46">
+      <c r="B116" s="42">
         <f>E115+B92</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="C116" s="47"/>
-      <c r="D116" s="47"/>
-      <c r="E116" s="47"/>
-      <c r="F116" s="47"/>
-      <c r="G116" s="48"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="43"/>
+      <c r="F116" s="43"/>
+      <c r="G116" s="44"/>
       <c r="H116" s="12"/>
       <c r="I116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J116" s="46">
+      <c r="J116" s="42">
         <f>M115+J92</f>
         <v>0</v>
       </c>
-      <c r="K116" s="47"/>
-      <c r="L116" s="47"/>
-      <c r="M116" s="47"/>
-      <c r="N116" s="47"/>
-      <c r="O116" s="48"/>
+      <c r="K116" s="43"/>
+      <c r="L116" s="43"/>
+      <c r="M116" s="43"/>
+      <c r="N116" s="43"/>
+      <c r="O116" s="44"/>
       <c r="P116" s="12"/>
       <c r="Q116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R116" s="46">
+      <c r="R116" s="42">
         <f>U115+R92</f>
         <v>0</v>
       </c>
-      <c r="S116" s="47"/>
-      <c r="T116" s="47"/>
-      <c r="U116" s="47"/>
-      <c r="V116" s="47"/>
-      <c r="W116" s="48"/>
+      <c r="S116" s="43"/>
+      <c r="T116" s="43"/>
+      <c r="U116" s="43"/>
+      <c r="V116" s="43"/>
+      <c r="W116" s="44"/>
       <c r="X116" s="12"/>
       <c r="Y116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z116" s="46">
+      <c r="Z116" s="42">
         <f>AC115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA116" s="47"/>
-      <c r="AB116" s="47"/>
-      <c r="AC116" s="47"/>
-      <c r="AD116" s="47"/>
-      <c r="AE116" s="48"/>
+      <c r="AA116" s="43"/>
+      <c r="AB116" s="43"/>
+      <c r="AC116" s="43"/>
+      <c r="AD116" s="43"/>
+      <c r="AE116" s="44"/>
       <c r="AF116" s="12"/>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B117" s="46">
+      <c r="B117" s="42">
         <f>C115+B92</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="C117" s="47"/>
-      <c r="D117" s="47"/>
-      <c r="E117" s="47"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="48"/>
+      <c r="C117" s="43"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="43"/>
+      <c r="F117" s="43"/>
+      <c r="G117" s="44"/>
       <c r="H117" s="12"/>
       <c r="I117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J117" s="46">
+      <c r="J117" s="42">
         <f>K115+J92</f>
         <v>0</v>
       </c>
-      <c r="K117" s="47"/>
-      <c r="L117" s="47"/>
-      <c r="M117" s="47"/>
-      <c r="N117" s="47"/>
-      <c r="O117" s="48"/>
+      <c r="K117" s="43"/>
+      <c r="L117" s="43"/>
+      <c r="M117" s="43"/>
+      <c r="N117" s="43"/>
+      <c r="O117" s="44"/>
       <c r="P117" s="12"/>
       <c r="Q117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R117" s="46">
+      <c r="R117" s="42">
         <f>S115+R92</f>
         <v>0</v>
       </c>
-      <c r="S117" s="47"/>
-      <c r="T117" s="47"/>
-      <c r="U117" s="47"/>
-      <c r="V117" s="47"/>
-      <c r="W117" s="48"/>
+      <c r="S117" s="43"/>
+      <c r="T117" s="43"/>
+      <c r="U117" s="43"/>
+      <c r="V117" s="43"/>
+      <c r="W117" s="44"/>
       <c r="X117" s="12"/>
       <c r="Y117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z117" s="46">
+      <c r="Z117" s="42">
         <f>AA115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA117" s="47"/>
-      <c r="AB117" s="47"/>
-      <c r="AC117" s="47"/>
-      <c r="AD117" s="47"/>
-      <c r="AE117" s="48"/>
+      <c r="AA117" s="43"/>
+      <c r="AB117" s="43"/>
+      <c r="AC117" s="43"/>
+      <c r="AD117" s="43"/>
+      <c r="AE117" s="44"/>
       <c r="AF117" s="12"/>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B118" s="46">
+      <c r="B118" s="42">
         <f>IFERROR((G115/10/B116),0)</f>
         <v>0</v>
       </c>
-      <c r="C118" s="47"/>
-      <c r="D118" s="47"/>
-      <c r="E118" s="47"/>
-      <c r="F118" s="47"/>
-      <c r="G118" s="48"/>
+      <c r="C118" s="43"/>
+      <c r="D118" s="43"/>
+      <c r="E118" s="43"/>
+      <c r="F118" s="43"/>
+      <c r="G118" s="44"/>
       <c r="H118" s="12"/>
       <c r="I118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J118" s="46">
+      <c r="J118" s="42">
         <f>IFERROR((O115/10/J116),0)</f>
         <v>0</v>
       </c>
-      <c r="K118" s="47"/>
-      <c r="L118" s="47"/>
-      <c r="M118" s="47"/>
-      <c r="N118" s="47"/>
-      <c r="O118" s="48"/>
+      <c r="K118" s="43"/>
+      <c r="L118" s="43"/>
+      <c r="M118" s="43"/>
+      <c r="N118" s="43"/>
+      <c r="O118" s="44"/>
       <c r="P118" s="12"/>
       <c r="Q118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R118" s="46">
+      <c r="R118" s="42">
         <f>IFERROR((W115/10/R116),0)</f>
         <v>0</v>
       </c>
-      <c r="S118" s="47"/>
-      <c r="T118" s="47"/>
-      <c r="U118" s="47"/>
-      <c r="V118" s="47"/>
-      <c r="W118" s="48"/>
+      <c r="S118" s="43"/>
+      <c r="T118" s="43"/>
+      <c r="U118" s="43"/>
+      <c r="V118" s="43"/>
+      <c r="W118" s="44"/>
       <c r="X118" s="12"/>
       <c r="Y118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z118" s="46">
+      <c r="Z118" s="42">
         <f>IFERROR((AE115/10/Z116),0)</f>
         <v>0</v>
       </c>
-      <c r="AA118" s="47"/>
-      <c r="AB118" s="47"/>
-      <c r="AC118" s="47"/>
-      <c r="AD118" s="47"/>
-      <c r="AE118" s="48"/>
+      <c r="AA118" s="43"/>
+      <c r="AB118" s="43"/>
+      <c r="AC118" s="43"/>
+      <c r="AD118" s="43"/>
+      <c r="AE118" s="44"/>
       <c r="AF118" s="12"/>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B119" s="46">
+      <c r="B119" s="42">
         <f>IFERROR((9.82 * F115) * LN(B116/B117),0)</f>
         <v>0</v>
       </c>
-      <c r="C119" s="47"/>
-      <c r="D119" s="47"/>
-      <c r="E119" s="47"/>
-      <c r="F119" s="47"/>
-      <c r="G119" s="48"/>
+      <c r="C119" s="43"/>
+      <c r="D119" s="43"/>
+      <c r="E119" s="43"/>
+      <c r="F119" s="43"/>
+      <c r="G119" s="44"/>
       <c r="H119" s="12"/>
       <c r="I119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J119" s="46">
+      <c r="J119" s="42">
         <f>IFERROR((9.82 * N115) * LN(J116/J117),0)</f>
         <v>0</v>
       </c>
-      <c r="K119" s="47"/>
-      <c r="L119" s="47"/>
-      <c r="M119" s="47"/>
-      <c r="N119" s="47"/>
-      <c r="O119" s="48"/>
+      <c r="K119" s="43"/>
+      <c r="L119" s="43"/>
+      <c r="M119" s="43"/>
+      <c r="N119" s="43"/>
+      <c r="O119" s="44"/>
       <c r="P119" s="12"/>
       <c r="Q119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R119" s="46">
+      <c r="R119" s="42">
         <f>IFERROR((9.82 * V115) * LN(R116/R117),0)</f>
         <v>0</v>
       </c>
-      <c r="S119" s="47"/>
-      <c r="T119" s="47"/>
-      <c r="U119" s="47"/>
-      <c r="V119" s="47"/>
-      <c r="W119" s="48"/>
+      <c r="S119" s="43"/>
+      <c r="T119" s="43"/>
+      <c r="U119" s="43"/>
+      <c r="V119" s="43"/>
+      <c r="W119" s="44"/>
       <c r="X119" s="12"/>
       <c r="Y119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z119" s="46">
+      <c r="Z119" s="42">
         <f>IFERROR((9.82 * AD115) * LN(Z116/Z117),0)</f>
         <v>0</v>
       </c>
-      <c r="AA119" s="47"/>
-      <c r="AB119" s="47"/>
-      <c r="AC119" s="47"/>
-      <c r="AD119" s="47"/>
-      <c r="AE119" s="48"/>
+      <c r="AA119" s="43"/>
+      <c r="AB119" s="43"/>
+      <c r="AC119" s="43"/>
+      <c r="AD119" s="43"/>
+      <c r="AE119" s="44"/>
       <c r="AF119" s="12"/>
     </row>
     <row r="120" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B120" s="50">
+      <c r="B120" s="39">
         <f>B119+B96</f>
         <v>7032.4499171096795</v>
       </c>
-      <c r="C120" s="51"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="51"/>
-      <c r="F120" s="51"/>
-      <c r="G120" s="52"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="40"/>
+      <c r="F120" s="40"/>
+      <c r="G120" s="41"/>
       <c r="H120" s="12"/>
       <c r="I120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J120" s="50">
+      <c r="J120" s="39">
         <f>J119+J96</f>
         <v>0</v>
       </c>
-      <c r="K120" s="51"/>
-      <c r="L120" s="51"/>
-      <c r="M120" s="51"/>
-      <c r="N120" s="51"/>
-      <c r="O120" s="52"/>
+      <c r="K120" s="40"/>
+      <c r="L120" s="40"/>
+      <c r="M120" s="40"/>
+      <c r="N120" s="40"/>
+      <c r="O120" s="41"/>
       <c r="P120" s="12"/>
       <c r="Q120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R120" s="50">
+      <c r="R120" s="39">
         <f>R119+R96</f>
         <v>0</v>
       </c>
-      <c r="S120" s="51"/>
-      <c r="T120" s="51"/>
-      <c r="U120" s="51"/>
-      <c r="V120" s="51"/>
-      <c r="W120" s="52"/>
+      <c r="S120" s="40"/>
+      <c r="T120" s="40"/>
+      <c r="U120" s="40"/>
+      <c r="V120" s="40"/>
+      <c r="W120" s="41"/>
       <c r="X120" s="12"/>
       <c r="Y120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z120" s="50">
+      <c r="Z120" s="39">
         <f>Z119+Z96</f>
         <v>0</v>
       </c>
-      <c r="AA120" s="51"/>
-      <c r="AB120" s="51"/>
-      <c r="AC120" s="51"/>
-      <c r="AD120" s="51"/>
-      <c r="AE120" s="52"/>
+      <c r="AA120" s="40"/>
+      <c r="AB120" s="40"/>
+      <c r="AC120" s="40"/>
+      <c r="AD120" s="40"/>
+      <c r="AE120" s="41"/>
       <c r="AF120" s="12"/>
     </row>
     <row r="121" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37820,315 +37842,315 @@
       <c r="AF121" s="12"/>
     </row>
     <row r="122" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="41" t="s">
+      <c r="A122" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="B122" s="42"/>
-      <c r="C122" s="42"/>
-      <c r="D122" s="42"/>
-      <c r="E122" s="42"/>
-      <c r="F122" s="42"/>
-      <c r="G122" s="43"/>
+      <c r="B122" s="47"/>
+      <c r="C122" s="47"/>
+      <c r="D122" s="47"/>
+      <c r="E122" s="47"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="48"/>
       <c r="H122" s="12"/>
-      <c r="I122" s="41" t="s">
+      <c r="I122" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="J122" s="42"/>
-      <c r="K122" s="42"/>
-      <c r="L122" s="42"/>
-      <c r="M122" s="42"/>
-      <c r="N122" s="42"/>
-      <c r="O122" s="43"/>
+      <c r="J122" s="47"/>
+      <c r="K122" s="47"/>
+      <c r="L122" s="47"/>
+      <c r="M122" s="47"/>
+      <c r="N122" s="47"/>
+      <c r="O122" s="48"/>
       <c r="P122" s="12"/>
-      <c r="Q122" s="41" t="s">
+      <c r="Q122" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="R122" s="42"/>
-      <c r="S122" s="42"/>
-      <c r="T122" s="42"/>
-      <c r="U122" s="42"/>
-      <c r="V122" s="42"/>
-      <c r="W122" s="43"/>
+      <c r="R122" s="47"/>
+      <c r="S122" s="47"/>
+      <c r="T122" s="47"/>
+      <c r="U122" s="47"/>
+      <c r="V122" s="47"/>
+      <c r="W122" s="48"/>
       <c r="X122" s="12"/>
-      <c r="Y122" s="41" t="s">
+      <c r="Y122" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="Z122" s="42"/>
-      <c r="AA122" s="42"/>
-      <c r="AB122" s="42"/>
-      <c r="AC122" s="42"/>
-      <c r="AD122" s="42"/>
-      <c r="AE122" s="43"/>
+      <c r="Z122" s="47"/>
+      <c r="AA122" s="47"/>
+      <c r="AB122" s="47"/>
+      <c r="AC122" s="47"/>
+      <c r="AD122" s="47"/>
+      <c r="AE122" s="48"/>
       <c r="AF122" s="12"/>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A123" s="44" t="s">
+      <c r="A123" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B123" s="44"/>
-      <c r="C123" s="44"/>
-      <c r="D123" s="45">
+      <c r="B123" s="51"/>
+      <c r="C123" s="51"/>
+      <c r="D123" s="50">
         <f>B115</f>
         <v>3</v>
       </c>
-      <c r="E123" s="45"/>
-      <c r="F123" s="45"/>
-      <c r="G123" s="45"/>
+      <c r="E123" s="50"/>
+      <c r="F123" s="50"/>
+      <c r="G123" s="50"/>
       <c r="H123" s="12"/>
-      <c r="I123" s="44" t="s">
+      <c r="I123" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="J123" s="44"/>
-      <c r="K123" s="44"/>
-      <c r="L123" s="45">
+      <c r="J123" s="51"/>
+      <c r="K123" s="51"/>
+      <c r="L123" s="50">
         <f>J115</f>
         <v>0</v>
       </c>
-      <c r="M123" s="45"/>
-      <c r="N123" s="45"/>
-      <c r="O123" s="45"/>
+      <c r="M123" s="50"/>
+      <c r="N123" s="50"/>
+      <c r="O123" s="50"/>
       <c r="P123" s="12"/>
-      <c r="Q123" s="44" t="s">
+      <c r="Q123" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="R123" s="44"/>
-      <c r="S123" s="44"/>
-      <c r="T123" s="45">
+      <c r="R123" s="51"/>
+      <c r="S123" s="51"/>
+      <c r="T123" s="50">
         <f>R115</f>
         <v>0</v>
       </c>
-      <c r="U123" s="45"/>
-      <c r="V123" s="45"/>
-      <c r="W123" s="45"/>
+      <c r="U123" s="50"/>
+      <c r="V123" s="50"/>
+      <c r="W123" s="50"/>
       <c r="X123" s="12"/>
-      <c r="Y123" s="44" t="s">
+      <c r="Y123" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="Z123" s="44"/>
-      <c r="AA123" s="44"/>
-      <c r="AB123" s="45">
+      <c r="Z123" s="51"/>
+      <c r="AA123" s="51"/>
+      <c r="AB123" s="50">
         <f>Z115</f>
         <v>0</v>
       </c>
-      <c r="AC123" s="45"/>
-      <c r="AD123" s="45"/>
-      <c r="AE123" s="45"/>
+      <c r="AC123" s="50"/>
+      <c r="AD123" s="50"/>
+      <c r="AE123" s="50"/>
       <c r="AF123" s="12"/>
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A124" s="39" t="s">
+      <c r="A124" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="39"/>
-      <c r="C124" s="39"/>
-      <c r="D124" s="40">
+      <c r="B124" s="52"/>
+      <c r="C124" s="52"/>
+      <c r="D124" s="49">
         <f>B116</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="E124" s="40"/>
-      <c r="F124" s="40"/>
-      <c r="G124" s="40"/>
+      <c r="E124" s="49"/>
+      <c r="F124" s="49"/>
+      <c r="G124" s="49"/>
       <c r="H124" s="12"/>
-      <c r="I124" s="39" t="s">
+      <c r="I124" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="J124" s="39"/>
-      <c r="K124" s="39"/>
-      <c r="L124" s="40">
+      <c r="J124" s="52"/>
+      <c r="K124" s="52"/>
+      <c r="L124" s="49">
         <f>J116</f>
         <v>0</v>
       </c>
-      <c r="M124" s="40"/>
-      <c r="N124" s="40"/>
-      <c r="O124" s="40"/>
+      <c r="M124" s="49"/>
+      <c r="N124" s="49"/>
+      <c r="O124" s="49"/>
       <c r="P124" s="12"/>
-      <c r="Q124" s="39" t="s">
+      <c r="Q124" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="R124" s="39"/>
-      <c r="S124" s="39"/>
-      <c r="T124" s="40">
+      <c r="R124" s="52"/>
+      <c r="S124" s="52"/>
+      <c r="T124" s="49">
         <f>R116</f>
         <v>0</v>
       </c>
-      <c r="U124" s="40"/>
-      <c r="V124" s="40"/>
-      <c r="W124" s="40"/>
+      <c r="U124" s="49"/>
+      <c r="V124" s="49"/>
+      <c r="W124" s="49"/>
       <c r="X124" s="12"/>
-      <c r="Y124" s="39" t="s">
+      <c r="Y124" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="Z124" s="39"/>
-      <c r="AA124" s="39"/>
-      <c r="AB124" s="40">
+      <c r="Z124" s="52"/>
+      <c r="AA124" s="52"/>
+      <c r="AB124" s="49">
         <f>Z116</f>
         <v>0</v>
       </c>
-      <c r="AC124" s="40"/>
-      <c r="AD124" s="40"/>
-      <c r="AE124" s="40"/>
+      <c r="AC124" s="49"/>
+      <c r="AD124" s="49"/>
+      <c r="AE124" s="49"/>
       <c r="AF124" s="12"/>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A125" s="39" t="s">
+      <c r="A125" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="39"/>
-      <c r="C125" s="39"/>
-      <c r="D125" s="40">
+      <c r="B125" s="52"/>
+      <c r="C125" s="52"/>
+      <c r="D125" s="49">
         <f>D115+D91+D67+D43+D19</f>
         <v>8.9766162500000011</v>
       </c>
-      <c r="E125" s="40"/>
-      <c r="F125" s="40"/>
-      <c r="G125" s="40"/>
+      <c r="E125" s="49"/>
+      <c r="F125" s="49"/>
+      <c r="G125" s="49"/>
       <c r="H125" s="12"/>
-      <c r="I125" s="39" t="s">
+      <c r="I125" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J125" s="39"/>
-      <c r="K125" s="39"/>
-      <c r="L125" s="40">
+      <c r="J125" s="52"/>
+      <c r="K125" s="52"/>
+      <c r="L125" s="49">
         <f>L115+L91+L67+L43+L19</f>
         <v>0</v>
       </c>
-      <c r="M125" s="40"/>
-      <c r="N125" s="40"/>
-      <c r="O125" s="40"/>
+      <c r="M125" s="49"/>
+      <c r="N125" s="49"/>
+      <c r="O125" s="49"/>
       <c r="P125" s="12"/>
-      <c r="Q125" s="39" t="s">
+      <c r="Q125" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="R125" s="39"/>
-      <c r="S125" s="39"/>
-      <c r="T125" s="40">
+      <c r="R125" s="52"/>
+      <c r="S125" s="52"/>
+      <c r="T125" s="49">
         <f>T115+T91+T67+T43+T19</f>
         <v>0</v>
       </c>
-      <c r="U125" s="40"/>
-      <c r="V125" s="40"/>
-      <c r="W125" s="40"/>
+      <c r="U125" s="49"/>
+      <c r="V125" s="49"/>
+      <c r="W125" s="49"/>
       <c r="X125" s="12"/>
-      <c r="Y125" s="39" t="s">
+      <c r="Y125" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="Z125" s="39"/>
-      <c r="AA125" s="39"/>
-      <c r="AB125" s="40">
+      <c r="Z125" s="52"/>
+      <c r="AA125" s="52"/>
+      <c r="AB125" s="49">
         <f>AB115+AB91+AB67+AB43+AB19</f>
         <v>0</v>
       </c>
-      <c r="AC125" s="40"/>
-      <c r="AD125" s="40"/>
-      <c r="AE125" s="40"/>
+      <c r="AC125" s="49"/>
+      <c r="AD125" s="49"/>
+      <c r="AE125" s="49"/>
       <c r="AF125" s="12"/>
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A126" s="39" t="s">
+      <c r="A126" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="39"/>
-      <c r="C126" s="39"/>
-      <c r="D126" s="40">
+      <c r="B126" s="52"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="49">
         <f>D124-D125</f>
         <v>2.3464924375000002</v>
       </c>
-      <c r="E126" s="40"/>
-      <c r="F126" s="40"/>
-      <c r="G126" s="40"/>
+      <c r="E126" s="49"/>
+      <c r="F126" s="49"/>
+      <c r="G126" s="49"/>
       <c r="H126" s="12"/>
-      <c r="I126" s="39" t="s">
+      <c r="I126" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="J126" s="39"/>
-      <c r="K126" s="39"/>
-      <c r="L126" s="40">
+      <c r="J126" s="52"/>
+      <c r="K126" s="52"/>
+      <c r="L126" s="49">
         <f>L124-L125</f>
         <v>0</v>
       </c>
-      <c r="M126" s="40"/>
-      <c r="N126" s="40"/>
-      <c r="O126" s="40"/>
+      <c r="M126" s="49"/>
+      <c r="N126" s="49"/>
+      <c r="O126" s="49"/>
       <c r="P126" s="12"/>
-      <c r="Q126" s="39" t="s">
+      <c r="Q126" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="R126" s="39"/>
-      <c r="S126" s="39"/>
-      <c r="T126" s="40">
+      <c r="R126" s="52"/>
+      <c r="S126" s="52"/>
+      <c r="T126" s="49">
         <f>T124-T125</f>
         <v>0</v>
       </c>
-      <c r="U126" s="40"/>
-      <c r="V126" s="40"/>
-      <c r="W126" s="40"/>
+      <c r="U126" s="49"/>
+      <c r="V126" s="49"/>
+      <c r="W126" s="49"/>
       <c r="X126" s="12"/>
-      <c r="Y126" s="39" t="s">
+      <c r="Y126" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="Z126" s="39"/>
-      <c r="AA126" s="39"/>
-      <c r="AB126" s="40">
+      <c r="Z126" s="52"/>
+      <c r="AA126" s="52"/>
+      <c r="AB126" s="49">
         <f>AB124-AB125</f>
         <v>0</v>
       </c>
-      <c r="AC126" s="40"/>
-      <c r="AD126" s="40"/>
-      <c r="AE126" s="40"/>
+      <c r="AC126" s="49"/>
+      <c r="AD126" s="49"/>
+      <c r="AE126" s="49"/>
       <c r="AF126" s="12"/>
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A127" s="39" t="s">
+      <c r="A127" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="39"/>
-      <c r="C127" s="39"/>
-      <c r="D127" s="40">
+      <c r="B127" s="52"/>
+      <c r="C127" s="52"/>
+      <c r="D127" s="49">
         <f>B120</f>
         <v>7032.4499171096795</v>
       </c>
-      <c r="E127" s="40"/>
-      <c r="F127" s="40"/>
-      <c r="G127" s="40"/>
+      <c r="E127" s="49"/>
+      <c r="F127" s="49"/>
+      <c r="G127" s="49"/>
       <c r="H127" s="12"/>
-      <c r="I127" s="39" t="s">
+      <c r="I127" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="J127" s="39"/>
-      <c r="K127" s="39"/>
-      <c r="L127" s="40">
+      <c r="J127" s="52"/>
+      <c r="K127" s="52"/>
+      <c r="L127" s="49">
         <f>J120</f>
         <v>0</v>
       </c>
-      <c r="M127" s="40"/>
-      <c r="N127" s="40"/>
-      <c r="O127" s="40"/>
+      <c r="M127" s="49"/>
+      <c r="N127" s="49"/>
+      <c r="O127" s="49"/>
       <c r="P127" s="12"/>
-      <c r="Q127" s="39" t="s">
+      <c r="Q127" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="R127" s="39"/>
-      <c r="S127" s="39"/>
-      <c r="T127" s="40">
+      <c r="R127" s="52"/>
+      <c r="S127" s="52"/>
+      <c r="T127" s="49">
         <f>R120</f>
         <v>0</v>
       </c>
-      <c r="U127" s="40"/>
-      <c r="V127" s="40"/>
-      <c r="W127" s="40"/>
+      <c r="U127" s="49"/>
+      <c r="V127" s="49"/>
+      <c r="W127" s="49"/>
       <c r="X127" s="12"/>
-      <c r="Y127" s="39" t="s">
+      <c r="Y127" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="Z127" s="39"/>
-      <c r="AA127" s="39"/>
-      <c r="AB127" s="40">
+      <c r="Z127" s="52"/>
+      <c r="AA127" s="52"/>
+      <c r="AB127" s="49">
         <f>Z120</f>
         <v>0</v>
       </c>
-      <c r="AC127" s="40"/>
-      <c r="AD127" s="40"/>
-      <c r="AE127" s="40"/>
+      <c r="AC127" s="49"/>
+      <c r="AD127" s="49"/>
+      <c r="AE127" s="49"/>
       <c r="AF127" s="12"/>
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.25">
@@ -38167,87 +38189,49 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="J120:O120"/>
-    <mergeCell ref="R120:W120"/>
-    <mergeCell ref="Z120:AE120"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="J119:O119"/>
-    <mergeCell ref="R119:W119"/>
-    <mergeCell ref="Z119:AE119"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="J118:O118"/>
-    <mergeCell ref="R118:W118"/>
-    <mergeCell ref="Z118:AE118"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="J117:O117"/>
-    <mergeCell ref="R117:W117"/>
-    <mergeCell ref="Z117:AE117"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="J116:O116"/>
-    <mergeCell ref="R116:W116"/>
-    <mergeCell ref="Z116:AE116"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="J96:O96"/>
-    <mergeCell ref="R96:W96"/>
-    <mergeCell ref="Z96:AE96"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="J95:O95"/>
-    <mergeCell ref="R95:W95"/>
-    <mergeCell ref="Z95:AE95"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="J94:O94"/>
-    <mergeCell ref="R94:W94"/>
-    <mergeCell ref="Z94:AE94"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="J93:O93"/>
-    <mergeCell ref="R93:W93"/>
-    <mergeCell ref="Z93:AE93"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="J92:O92"/>
-    <mergeCell ref="R92:W92"/>
-    <mergeCell ref="Z92:AE92"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="J72:O72"/>
-    <mergeCell ref="R72:W72"/>
-    <mergeCell ref="Z72:AE72"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="J71:O71"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="Z71:AE71"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="J70:O70"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="Z70:AE70"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="J69:O69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="Z69:AE69"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="J68:O68"/>
-    <mergeCell ref="R68:W68"/>
-    <mergeCell ref="Z68:AE68"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="R48:W48"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="R47:W47"/>
-    <mergeCell ref="Z47:AE47"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="R46:W46"/>
-    <mergeCell ref="Z46:AE46"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="R44:W44"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="Z24:AE24"/>
+    <mergeCell ref="Y127:AA127"/>
+    <mergeCell ref="AB127:AE127"/>
+    <mergeCell ref="Y122:AE122"/>
+    <mergeCell ref="Y123:AA123"/>
+    <mergeCell ref="AB123:AE123"/>
+    <mergeCell ref="Y124:AA124"/>
+    <mergeCell ref="AB124:AE124"/>
+    <mergeCell ref="Y125:AA125"/>
+    <mergeCell ref="AB125:AE125"/>
+    <mergeCell ref="Y126:AA126"/>
+    <mergeCell ref="AB126:AE126"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="L127:O127"/>
+    <mergeCell ref="Q122:W122"/>
+    <mergeCell ref="Q123:S123"/>
+    <mergeCell ref="T123:W123"/>
+    <mergeCell ref="Q124:S124"/>
+    <mergeCell ref="T124:W124"/>
+    <mergeCell ref="Q125:S125"/>
+    <mergeCell ref="T125:W125"/>
+    <mergeCell ref="Q126:S126"/>
+    <mergeCell ref="T126:W126"/>
+    <mergeCell ref="Q127:S127"/>
+    <mergeCell ref="T127:W127"/>
+    <mergeCell ref="I122:O122"/>
+    <mergeCell ref="I123:K123"/>
+    <mergeCell ref="L123:O123"/>
+    <mergeCell ref="I124:K124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="I125:K125"/>
+    <mergeCell ref="L125:O125"/>
+    <mergeCell ref="I126:K126"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="D126:G126"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="J20:O20"/>
     <mergeCell ref="R20:W20"/>
@@ -38272,49 +38256,87 @@
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="J45:O45"/>
     <mergeCell ref="R45:W45"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="I127:K127"/>
-    <mergeCell ref="L127:O127"/>
-    <mergeCell ref="Q122:W122"/>
-    <mergeCell ref="Q123:S123"/>
-    <mergeCell ref="T123:W123"/>
-    <mergeCell ref="Q124:S124"/>
-    <mergeCell ref="T124:W124"/>
-    <mergeCell ref="Q125:S125"/>
-    <mergeCell ref="T125:W125"/>
-    <mergeCell ref="Q126:S126"/>
-    <mergeCell ref="T126:W126"/>
-    <mergeCell ref="Q127:S127"/>
-    <mergeCell ref="T127:W127"/>
-    <mergeCell ref="I122:O122"/>
-    <mergeCell ref="I123:K123"/>
-    <mergeCell ref="L123:O123"/>
-    <mergeCell ref="I124:K124"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="I125:K125"/>
-    <mergeCell ref="L125:O125"/>
-    <mergeCell ref="I126:K126"/>
-    <mergeCell ref="L126:O126"/>
-    <mergeCell ref="Y127:AA127"/>
-    <mergeCell ref="AB127:AE127"/>
-    <mergeCell ref="Y122:AE122"/>
-    <mergeCell ref="Y123:AA123"/>
-    <mergeCell ref="AB123:AE123"/>
-    <mergeCell ref="Y124:AA124"/>
-    <mergeCell ref="AB124:AE124"/>
-    <mergeCell ref="Y125:AA125"/>
-    <mergeCell ref="AB125:AE125"/>
-    <mergeCell ref="Y126:AA126"/>
-    <mergeCell ref="AB126:AE126"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="R44:W44"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="Z24:AE24"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="R48:W48"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="R47:W47"/>
+    <mergeCell ref="Z47:AE47"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="Z46:AE46"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="J70:O70"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="Z70:AE70"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="J69:O69"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="Z69:AE69"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="J68:O68"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="Z68:AE68"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="J92:O92"/>
+    <mergeCell ref="R92:W92"/>
+    <mergeCell ref="Z92:AE92"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="J72:O72"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="Z72:AE72"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="J71:O71"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="Z71:AE71"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="J95:O95"/>
+    <mergeCell ref="R95:W95"/>
+    <mergeCell ref="Z95:AE95"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="J94:O94"/>
+    <mergeCell ref="R94:W94"/>
+    <mergeCell ref="Z94:AE94"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="J93:O93"/>
+    <mergeCell ref="R93:W93"/>
+    <mergeCell ref="Z93:AE93"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="J117:O117"/>
+    <mergeCell ref="R117:W117"/>
+    <mergeCell ref="Z117:AE117"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="J116:O116"/>
+    <mergeCell ref="R116:W116"/>
+    <mergeCell ref="Z116:AE116"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="J96:O96"/>
+    <mergeCell ref="R96:W96"/>
+    <mergeCell ref="Z96:AE96"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="J120:O120"/>
+    <mergeCell ref="R120:W120"/>
+    <mergeCell ref="Z120:AE120"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="J119:O119"/>
+    <mergeCell ref="R119:W119"/>
+    <mergeCell ref="Z119:AE119"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="J118:O118"/>
+    <mergeCell ref="R118:W118"/>
+    <mergeCell ref="Z118:AE118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39381,7 +39403,7 @@
   <dimension ref="A1:AD63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GameData/SSTU/Parts/Parts-MassCalc.xlsx
+++ b/GameData/SSTU/Parts/Parts-MassCalc.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="357">
   <si>
     <t>Part</t>
   </si>
@@ -1087,6 +1087,12 @@
   <si>
     <t>SC-E-FS2</t>
   </si>
+  <si>
+    <t>SC-ENG-RD-107</t>
+  </si>
+  <si>
+    <t>SC-ENG-RD-1072</t>
+  </si>
 </sst>
 </file>
 
@@ -1539,13 +1545,25 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1560,26 +1578,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1889,7 +1895,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F95" sqref="F95"/>
+      <selection pane="bottomLeft" activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10396,14 +10402,22 @@
       </c>
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
+      <c r="A91" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B91" s="6">
+        <v>1.95</v>
+      </c>
       <c r="C91" s="18"/>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
+      <c r="G91" s="6">
+        <v>280</v>
+      </c>
+      <c r="H91" s="6">
+        <v>220</v>
+      </c>
       <c r="I91" s="6"/>
       <c r="J91" s="4">
         <f t="shared" si="19"/>
@@ -10415,7 +10429,7 @@
       </c>
       <c r="L91" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="M91" s="4">
         <f>IFERROR(VLOOKUP(I91,FuelTypes!$A$1:$B$32,2,FALSE)*J91,0)</f>
@@ -10423,7 +10437,7 @@
       </c>
       <c r="N91" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O91" s="4">
         <f t="shared" si="21"/>
@@ -10439,11 +10453,11 @@
       </c>
       <c r="R91" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>14.358974358974359</v>
       </c>
       <c r="S91" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.532142857142857</v>
       </c>
       <c r="T91" s="4" t="e">
         <f t="shared" si="24"/>
@@ -10461,9 +10475,9 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="e">
+      <c r="Z91" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AB91" s="3">
         <f t="shared" si="29"/>
@@ -10475,14 +10489,22 @@
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
+      <c r="A92" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B92" s="6">
+        <v>1.95</v>
+      </c>
       <c r="C92" s="18"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
+      <c r="G92" s="6">
+        <v>40</v>
+      </c>
+      <c r="H92" s="6">
+        <v>10</v>
+      </c>
       <c r="I92" s="6"/>
       <c r="J92" s="4">
         <f t="shared" si="19"/>
@@ -10494,7 +10516,7 @@
       </c>
       <c r="L92" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="M92" s="4">
         <f>IFERROR(VLOOKUP(I92,FuelTypes!$A$1:$B$32,2,FALSE)*J92,0)</f>
@@ -10502,7 +10524,7 @@
       </c>
       <c r="N92" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O92" s="4">
         <f t="shared" si="21"/>
@@ -10518,11 +10540,11 @@
       </c>
       <c r="R92" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2.0512820512820515</v>
       </c>
       <c r="S92" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="T92" s="4" t="e">
         <f t="shared" si="24"/>
@@ -10540,9 +10562,9 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="Z92" s="3" t="e">
+      <c r="Z92" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="AB92" s="3">
         <f t="shared" si="29"/>
@@ -10554,22 +10576,14 @@
       </c>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="B93" s="6">
-        <v>37.5</v>
-      </c>
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
       <c r="C93" s="18"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="6">
-        <v>3000</v>
-      </c>
-      <c r="H93" s="6">
-        <v>125</v>
-      </c>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
       <c r="I93" s="6"/>
       <c r="J93" s="4">
         <f t="shared" si="19"/>
@@ -10581,7 +10595,7 @@
       </c>
       <c r="L93" s="4">
         <f t="shared" si="20"/>
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="M93" s="4">
         <f>IFERROR(VLOOKUP(I93,FuelTypes!$A$1:$B$32,2,FALSE)*J93,0)</f>
@@ -10589,7 +10603,7 @@
       </c>
       <c r="N93" s="4">
         <f t="shared" si="17"/>
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="O93" s="4">
         <f t="shared" si="21"/>
@@ -10605,11 +10619,11 @@
       </c>
       <c r="R93" s="4">
         <f t="shared" si="22"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S93" s="4">
         <f t="shared" si="23"/>
-        <v>1.5625</v>
+        <v>0</v>
       </c>
       <c r="T93" s="4" t="e">
         <f t="shared" si="24"/>
@@ -10630,9 +10644,9 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="Z93" s="3">
+      <c r="Z93" s="3" t="e">
         <f t="shared" si="25"/>
-        <v>2.6666666666666665</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AB93" s="3">
         <f t="shared" si="29"/>
@@ -10644,22 +10658,14 @@
       </c>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="B94" s="6">
-        <v>37.5</v>
-      </c>
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
       <c r="C94" s="18"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="6">
-        <v>20</v>
-      </c>
-      <c r="H94" s="6">
-        <v>0.8</v>
-      </c>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="4">
         <f t="shared" si="19"/>
@@ -10671,7 +10677,7 @@
       </c>
       <c r="L94" s="4">
         <f t="shared" si="20"/>
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="M94" s="4">
         <f>IFERROR(VLOOKUP(I94,FuelTypes!$A$1:$B$32,2,FALSE)*J94,0)</f>
@@ -10679,7 +10685,7 @@
       </c>
       <c r="N94" s="4">
         <f t="shared" si="17"/>
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="O94" s="4">
         <f t="shared" si="21"/>
@@ -10695,11 +10701,11 @@
       </c>
       <c r="R94" s="4">
         <f t="shared" si="22"/>
-        <v>5.3333333333333337E-2</v>
+        <v>0</v>
       </c>
       <c r="S94" s="4">
         <f t="shared" si="23"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="T94" s="4" t="e">
         <f t="shared" si="24"/>
@@ -10720,9 +10726,9 @@
         <f t="shared" si="28"/>
         <v>200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="Z94" s="3" t="e">
         <f t="shared" si="25"/>
-        <v>5.333333333333333</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="AB94" s="3">
         <f t="shared" si="29"/>
@@ -10980,14 +10986,22 @@
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6"/>
+      <c r="A98" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B98" s="6">
+        <v>37.5</v>
+      </c>
       <c r="C98" s="18"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
+      <c r="G98" s="6">
+        <v>3000</v>
+      </c>
+      <c r="H98" s="6">
+        <v>125</v>
+      </c>
       <c r="I98" s="6"/>
       <c r="J98" s="4">
         <f t="shared" ref="J98:J129" si="31">C98 - (D98*C98)</f>
@@ -10999,7 +11013,7 @@
       </c>
       <c r="L98" s="4">
         <f t="shared" ref="L98:L129" si="32">K98+B98</f>
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="M98" s="4">
         <f>IFERROR(VLOOKUP(I98,FuelTypes!$A$1:$B$32,2,FALSE)*J98,0)</f>
@@ -11007,7 +11021,7 @@
       </c>
       <c r="N98" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="O98" s="4">
         <f t="shared" ref="O98:O129" si="33">IF(M98&gt;0, M98/N98,0)</f>
@@ -11023,11 +11037,11 @@
       </c>
       <c r="R98" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S98" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.5625</v>
       </c>
       <c r="T98" s="4" t="e">
         <f t="shared" si="24"/>
@@ -11048,9 +11062,9 @@
         <f t="shared" si="28"/>
         <v>600</v>
       </c>
-      <c r="Z98" s="3" t="e">
+      <c r="Z98" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>16</v>
       </c>
       <c r="AB98" s="3">
         <f t="shared" si="29"/>
@@ -11062,14 +11076,22 @@
       </c>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
+      <c r="A99" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B99" s="6">
+        <v>37.5</v>
+      </c>
       <c r="C99" s="18"/>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
+      <c r="G99" s="6">
+        <v>20</v>
+      </c>
+      <c r="H99" s="6">
+        <v>0.8</v>
+      </c>
       <c r="I99" s="6"/>
       <c r="J99" s="4">
         <f t="shared" si="31"/>
@@ -11081,7 +11103,7 @@
       </c>
       <c r="L99" s="4">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="M99" s="4">
         <f>IFERROR(VLOOKUP(I99,FuelTypes!$A$1:$B$32,2,FALSE)*J99,0)</f>
@@ -11089,7 +11111,7 @@
       </c>
       <c r="N99" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="O99" s="4">
         <f t="shared" si="33"/>
@@ -11105,11 +11127,11 @@
       </c>
       <c r="R99" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>5.3333333333333337E-2</v>
       </c>
       <c r="S99" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T99" s="4" t="e">
         <f t="shared" si="24"/>
@@ -11130,9 +11152,9 @@
         <f t="shared" si="28"/>
         <v>700</v>
       </c>
-      <c r="Z99" s="3" t="e">
+      <c r="Z99" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>18.666666666666668</v>
       </c>
       <c r="AB99" s="3">
         <f t="shared" si="29"/>
@@ -27788,45 +27810,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
       <c r="H1" s="12"/>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
       <c r="P1" s="12"/>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
       <c r="X1" s="12"/>
-      <c r="Y1" s="45" t="s">
+      <c r="Y1" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="45"/>
-      <c r="AE1" s="45"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
       <c r="AF1" s="12"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -29537,270 +29559,270 @@
       <c r="A20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="42">
+      <c r="B20" s="46">
         <f>E19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="12"/>
       <c r="I20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="42">
+      <c r="J20" s="46">
         <f>M19</f>
         <v>0</v>
       </c>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="44"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="48"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R20" s="42">
+      <c r="R20" s="46">
         <f>U19</f>
         <v>0</v>
       </c>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="44"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="48"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z20" s="42">
+      <c r="Z20" s="46">
         <f>AC19</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="43"/>
-      <c r="AC20" s="43"/>
-      <c r="AD20" s="43"/>
-      <c r="AE20" s="44"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="48"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="46">
         <f>C19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="12"/>
       <c r="I21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="46">
         <f>K19</f>
         <v>0</v>
       </c>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="44"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R21" s="42">
+      <c r="R21" s="46">
         <f>S19</f>
         <v>0</v>
       </c>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="44"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="48"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z21" s="42">
+      <c r="Z21" s="46">
         <f>AA19</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="43"/>
-      <c r="AC21" s="43"/>
-      <c r="AD21" s="43"/>
-      <c r="AE21" s="44"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="48"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="42">
+      <c r="B22" s="46">
         <f>IFERROR((G19/10/B20),0)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="12"/>
       <c r="I22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="42">
+      <c r="J22" s="46">
         <f>IFERROR((O19/10/J20),0)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="44"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="48"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R22" s="42">
+      <c r="R22" s="46">
         <f>IFERROR((W19/10/R20),0)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="44"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="48"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z22" s="42">
+      <c r="Z22" s="46">
         <f>IFERROR((AE19/10/Z20),0)</f>
         <v>0</v>
       </c>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="43"/>
-      <c r="AC22" s="43"/>
-      <c r="AD22" s="43"/>
-      <c r="AE22" s="44"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="48"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="46">
         <f>IFERROR((9.82 * F19) * LN(B20/C19),0)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="12"/>
       <c r="I23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="42">
+      <c r="J23" s="46">
         <f>IFERROR((9.82 * N19) * LN(J20/K19),0)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="44"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="48"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R23" s="42">
+      <c r="R23" s="46">
         <f>IFERROR((9.82 * V19) * LN(R20/S19),0)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="44"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="48"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z23" s="42">
+      <c r="Z23" s="46">
         <f>IFERROR((9.82 * AD19) * LN(Z20/AA19),0)</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="43"/>
-      <c r="AC23" s="43"/>
-      <c r="AD23" s="43"/>
-      <c r="AE23" s="44"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="48"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="50">
         <f>B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52"/>
       <c r="H24" s="12"/>
       <c r="I24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="39">
+      <c r="J24" s="50">
         <f>J23</f>
         <v>0</v>
       </c>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="41"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="52"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R24" s="39">
+      <c r="R24" s="50">
         <f>R23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="40"/>
-      <c r="W24" s="41"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="52"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z24" s="39">
+      <c r="Z24" s="50">
         <f>Z23</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="40"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="40"/>
-      <c r="AE24" s="41"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="52"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31541,270 +31563,270 @@
       <c r="A44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="42">
+      <c r="B44" s="46">
         <f>E43+B20</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="44"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="48"/>
       <c r="H44" s="12"/>
       <c r="I44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J44" s="42">
+      <c r="J44" s="46">
         <f>M43+J20</f>
         <v>0</v>
       </c>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="44"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="48"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R44" s="42">
+      <c r="R44" s="46">
         <f>U43+R20</f>
         <v>0</v>
       </c>
-      <c r="S44" s="43"/>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43"/>
-      <c r="W44" s="44"/>
+      <c r="S44" s="47"/>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="47"/>
+      <c r="W44" s="48"/>
       <c r="X44" s="12"/>
       <c r="Y44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z44" s="42">
+      <c r="Z44" s="46">
         <f>AC43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="43"/>
-      <c r="AB44" s="43"/>
-      <c r="AC44" s="43"/>
-      <c r="AD44" s="43"/>
-      <c r="AE44" s="44"/>
+      <c r="AA44" s="47"/>
+      <c r="AB44" s="47"/>
+      <c r="AC44" s="47"/>
+      <c r="AD44" s="47"/>
+      <c r="AE44" s="48"/>
       <c r="AF44" s="12"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="42">
+      <c r="B45" s="46">
         <f>C43+B20</f>
         <v>2.3464924375000002</v>
       </c>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="44"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="48"/>
       <c r="H45" s="12"/>
       <c r="I45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J45" s="42">
+      <c r="J45" s="46">
         <f>K43+J20</f>
         <v>0</v>
       </c>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="44"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="48"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R45" s="42">
+      <c r="R45" s="46">
         <f>S43+R20</f>
         <v>0</v>
       </c>
-      <c r="S45" s="43"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
-      <c r="W45" s="44"/>
+      <c r="S45" s="47"/>
+      <c r="T45" s="47"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="47"/>
+      <c r="W45" s="48"/>
       <c r="X45" s="12"/>
       <c r="Y45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z45" s="42">
+      <c r="Z45" s="46">
         <f>AA43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA45" s="43"/>
-      <c r="AB45" s="43"/>
-      <c r="AC45" s="43"/>
-      <c r="AD45" s="43"/>
-      <c r="AE45" s="44"/>
+      <c r="AA45" s="47"/>
+      <c r="AB45" s="47"/>
+      <c r="AC45" s="47"/>
+      <c r="AD45" s="47"/>
+      <c r="AE45" s="48"/>
       <c r="AF45" s="12"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="42">
+      <c r="B46" s="46">
         <f>IFERROR((G43/10/B44),0)</f>
         <v>0.5917102966075366</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="44"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="48"/>
       <c r="H46" s="12"/>
       <c r="I46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J46" s="42">
+      <c r="J46" s="46">
         <f>IFERROR((O43/10/J44),0)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="44"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="48"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R46" s="42">
+      <c r="R46" s="46">
         <f>IFERROR((W43/10/R44),0)</f>
         <v>0</v>
       </c>
-      <c r="S46" s="43"/>
-      <c r="T46" s="43"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="44"/>
+      <c r="S46" s="47"/>
+      <c r="T46" s="47"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="47"/>
+      <c r="W46" s="48"/>
       <c r="X46" s="12"/>
       <c r="Y46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z46" s="42">
+      <c r="Z46" s="46">
         <f>IFERROR((AE43/10/Z44),0)</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="43"/>
-      <c r="AB46" s="43"/>
-      <c r="AC46" s="43"/>
-      <c r="AD46" s="43"/>
-      <c r="AE46" s="44"/>
+      <c r="AA46" s="47"/>
+      <c r="AB46" s="47"/>
+      <c r="AC46" s="47"/>
+      <c r="AD46" s="47"/>
+      <c r="AE46" s="48"/>
       <c r="AF46" s="12"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="42">
+      <c r="B47" s="46">
         <f>IFERROR((9.82 * F43) * LN(B44/B45),0)</f>
         <v>7032.4499171096795</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="44"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="48"/>
       <c r="H47" s="12"/>
       <c r="I47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="42">
+      <c r="J47" s="46">
         <f>IFERROR((9.82 * N43) * LN(J44/J45),0)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="44"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="48"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R47" s="42">
+      <c r="R47" s="46">
         <f>IFERROR((9.82 * V43) * LN(R44/R45),0)</f>
         <v>0</v>
       </c>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="44"/>
+      <c r="S47" s="47"/>
+      <c r="T47" s="47"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="47"/>
+      <c r="W47" s="48"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z47" s="42">
+      <c r="Z47" s="46">
         <f>IFERROR((9.82 * AD43) * LN(Z44/Z45),0)</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="43"/>
-      <c r="AB47" s="43"/>
-      <c r="AC47" s="43"/>
-      <c r="AD47" s="43"/>
-      <c r="AE47" s="44"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="47"/>
+      <c r="AC47" s="47"/>
+      <c r="AD47" s="47"/>
+      <c r="AE47" s="48"/>
       <c r="AF47" s="12"/>
     </row>
     <row r="48" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="39">
+      <c r="B48" s="50">
         <f>B47+B24</f>
         <v>7032.4499171096795</v>
       </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="41"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="52"/>
       <c r="H48" s="12"/>
       <c r="I48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J48" s="39">
+      <c r="J48" s="50">
         <f>J47+J24</f>
         <v>0</v>
       </c>
-      <c r="K48" s="40"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="41"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="52"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R48" s="39">
+      <c r="R48" s="50">
         <f>R47+R24</f>
         <v>0</v>
       </c>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-      <c r="U48" s="40"/>
-      <c r="V48" s="40"/>
-      <c r="W48" s="41"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="51"/>
+      <c r="U48" s="51"/>
+      <c r="V48" s="51"/>
+      <c r="W48" s="52"/>
       <c r="X48" s="12"/>
       <c r="Y48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z48" s="39">
+      <c r="Z48" s="50">
         <f>Z47+Z24</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="40"/>
-      <c r="AB48" s="40"/>
-      <c r="AC48" s="40"/>
-      <c r="AD48" s="40"/>
-      <c r="AE48" s="41"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AE48" s="52"/>
       <c r="AF48" s="12"/>
     </row>
     <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33541,270 +33563,270 @@
       <c r="A68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="42">
+      <c r="B68" s="46">
         <f>E67+B44</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="44"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="48"/>
       <c r="H68" s="12"/>
       <c r="I68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J68" s="42">
+      <c r="J68" s="46">
         <f>M67+J44</f>
         <v>0</v>
       </c>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="44"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="47"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="47"/>
+      <c r="O68" s="48"/>
       <c r="P68" s="12"/>
       <c r="Q68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R68" s="42">
+      <c r="R68" s="46">
         <f>U67+R44</f>
         <v>0</v>
       </c>
-      <c r="S68" s="43"/>
-      <c r="T68" s="43"/>
-      <c r="U68" s="43"/>
-      <c r="V68" s="43"/>
-      <c r="W68" s="44"/>
+      <c r="S68" s="47"/>
+      <c r="T68" s="47"/>
+      <c r="U68" s="47"/>
+      <c r="V68" s="47"/>
+      <c r="W68" s="48"/>
       <c r="X68" s="12"/>
       <c r="Y68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z68" s="42">
+      <c r="Z68" s="46">
         <f>AC67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA68" s="43"/>
-      <c r="AB68" s="43"/>
-      <c r="AC68" s="43"/>
-      <c r="AD68" s="43"/>
-      <c r="AE68" s="44"/>
+      <c r="AA68" s="47"/>
+      <c r="AB68" s="47"/>
+      <c r="AC68" s="47"/>
+      <c r="AD68" s="47"/>
+      <c r="AE68" s="48"/>
       <c r="AF68" s="12"/>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="42">
+      <c r="B69" s="46">
         <f>C67+B44</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="44"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="48"/>
       <c r="H69" s="12"/>
       <c r="I69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J69" s="42">
+      <c r="J69" s="46">
         <f>K67+J44</f>
         <v>0</v>
       </c>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="43"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="44"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="48"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R69" s="42">
+      <c r="R69" s="46">
         <f>S67+R44</f>
         <v>0</v>
       </c>
-      <c r="S69" s="43"/>
-      <c r="T69" s="43"/>
-      <c r="U69" s="43"/>
-      <c r="V69" s="43"/>
-      <c r="W69" s="44"/>
+      <c r="S69" s="47"/>
+      <c r="T69" s="47"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="47"/>
+      <c r="W69" s="48"/>
       <c r="X69" s="12"/>
       <c r="Y69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z69" s="42">
+      <c r="Z69" s="46">
         <f>AA67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA69" s="43"/>
-      <c r="AB69" s="43"/>
-      <c r="AC69" s="43"/>
-      <c r="AD69" s="43"/>
-      <c r="AE69" s="44"/>
+      <c r="AA69" s="47"/>
+      <c r="AB69" s="47"/>
+      <c r="AC69" s="47"/>
+      <c r="AD69" s="47"/>
+      <c r="AE69" s="48"/>
       <c r="AF69" s="12"/>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="42">
+      <c r="B70" s="46">
         <f>IFERROR((G67/10/B68),0)</f>
         <v>0</v>
       </c>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="44"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="47"/>
+      <c r="G70" s="48"/>
       <c r="H70" s="12"/>
       <c r="I70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J70" s="42">
+      <c r="J70" s="46">
         <f>IFERROR((O67/10/J68),0)</f>
         <v>0</v>
       </c>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="44"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="47"/>
+      <c r="O70" s="48"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R70" s="42">
+      <c r="R70" s="46">
         <f>IFERROR((W67/10/R68),0)</f>
         <v>0</v>
       </c>
-      <c r="S70" s="43"/>
-      <c r="T70" s="43"/>
-      <c r="U70" s="43"/>
-      <c r="V70" s="43"/>
-      <c r="W70" s="44"/>
+      <c r="S70" s="47"/>
+      <c r="T70" s="47"/>
+      <c r="U70" s="47"/>
+      <c r="V70" s="47"/>
+      <c r="W70" s="48"/>
       <c r="X70" s="12"/>
       <c r="Y70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z70" s="42">
+      <c r="Z70" s="46">
         <f>IFERROR((AE67/10/Z68),0)</f>
         <v>0</v>
       </c>
-      <c r="AA70" s="43"/>
-      <c r="AB70" s="43"/>
-      <c r="AC70" s="43"/>
-      <c r="AD70" s="43"/>
-      <c r="AE70" s="44"/>
+      <c r="AA70" s="47"/>
+      <c r="AB70" s="47"/>
+      <c r="AC70" s="47"/>
+      <c r="AD70" s="47"/>
+      <c r="AE70" s="48"/>
       <c r="AF70" s="12"/>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="42">
+      <c r="B71" s="46">
         <f>IFERROR((9.82 * F67) * LN(B68/B69),0)</f>
         <v>0</v>
       </c>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="44"/>
+      <c r="C71" s="47"/>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="47"/>
+      <c r="G71" s="48"/>
       <c r="H71" s="12"/>
       <c r="I71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J71" s="42">
+      <c r="J71" s="46">
         <f>IFERROR((9.82 * N67) * LN(J68/J69),0)</f>
         <v>0</v>
       </c>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="44"/>
+      <c r="K71" s="47"/>
+      <c r="L71" s="47"/>
+      <c r="M71" s="47"/>
+      <c r="N71" s="47"/>
+      <c r="O71" s="48"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R71" s="42">
+      <c r="R71" s="46">
         <f>IFERROR((9.82 * V67) * LN(R68/R69),0)</f>
         <v>0</v>
       </c>
-      <c r="S71" s="43"/>
-      <c r="T71" s="43"/>
-      <c r="U71" s="43"/>
-      <c r="V71" s="43"/>
-      <c r="W71" s="44"/>
+      <c r="S71" s="47"/>
+      <c r="T71" s="47"/>
+      <c r="U71" s="47"/>
+      <c r="V71" s="47"/>
+      <c r="W71" s="48"/>
       <c r="X71" s="12"/>
       <c r="Y71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z71" s="42">
+      <c r="Z71" s="46">
         <f>IFERROR((9.82 * AD67) * LN(Z68/Z69),0)</f>
         <v>0</v>
       </c>
-      <c r="AA71" s="43"/>
-      <c r="AB71" s="43"/>
-      <c r="AC71" s="43"/>
-      <c r="AD71" s="43"/>
-      <c r="AE71" s="44"/>
+      <c r="AA71" s="47"/>
+      <c r="AB71" s="47"/>
+      <c r="AC71" s="47"/>
+      <c r="AD71" s="47"/>
+      <c r="AE71" s="48"/>
       <c r="AF71" s="12"/>
     </row>
     <row r="72" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="39">
+      <c r="B72" s="50">
         <f>B71+B48</f>
         <v>7032.4499171096795</v>
       </c>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="40"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="41"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="52"/>
       <c r="H72" s="12"/>
       <c r="I72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J72" s="39">
+      <c r="J72" s="50">
         <f>J71+J48</f>
         <v>0</v>
       </c>
-      <c r="K72" s="40"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="40"/>
-      <c r="N72" s="40"/>
-      <c r="O72" s="41"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="51"/>
+      <c r="M72" s="51"/>
+      <c r="N72" s="51"/>
+      <c r="O72" s="52"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R72" s="39">
+      <c r="R72" s="50">
         <f>R71+R48</f>
         <v>0</v>
       </c>
-      <c r="S72" s="40"/>
-      <c r="T72" s="40"/>
-      <c r="U72" s="40"/>
-      <c r="V72" s="40"/>
-      <c r="W72" s="41"/>
+      <c r="S72" s="51"/>
+      <c r="T72" s="51"/>
+      <c r="U72" s="51"/>
+      <c r="V72" s="51"/>
+      <c r="W72" s="52"/>
       <c r="X72" s="12"/>
       <c r="Y72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z72" s="39">
+      <c r="Z72" s="50">
         <f>Z71+Z48</f>
         <v>0</v>
       </c>
-      <c r="AA72" s="40"/>
-      <c r="AB72" s="40"/>
-      <c r="AC72" s="40"/>
-      <c r="AD72" s="40"/>
-      <c r="AE72" s="41"/>
+      <c r="AA72" s="51"/>
+      <c r="AB72" s="51"/>
+      <c r="AC72" s="51"/>
+      <c r="AD72" s="51"/>
+      <c r="AE72" s="52"/>
       <c r="AF72" s="12"/>
     </row>
     <row r="73" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35541,270 +35563,270 @@
       <c r="A92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="42">
+      <c r="B92" s="46">
         <f>E91+B68</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="44"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="47"/>
+      <c r="G92" s="48"/>
       <c r="H92" s="12"/>
       <c r="I92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J92" s="42">
+      <c r="J92" s="46">
         <f>M91+J68</f>
         <v>0</v>
       </c>
-      <c r="K92" s="43"/>
-      <c r="L92" s="43"/>
-      <c r="M92" s="43"/>
-      <c r="N92" s="43"/>
-      <c r="O92" s="44"/>
+      <c r="K92" s="47"/>
+      <c r="L92" s="47"/>
+      <c r="M92" s="47"/>
+      <c r="N92" s="47"/>
+      <c r="O92" s="48"/>
       <c r="P92" s="12"/>
       <c r="Q92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R92" s="42">
+      <c r="R92" s="46">
         <f>U91+R68</f>
         <v>0</v>
       </c>
-      <c r="S92" s="43"/>
-      <c r="T92" s="43"/>
-      <c r="U92" s="43"/>
-      <c r="V92" s="43"/>
-      <c r="W92" s="44"/>
+      <c r="S92" s="47"/>
+      <c r="T92" s="47"/>
+      <c r="U92" s="47"/>
+      <c r="V92" s="47"/>
+      <c r="W92" s="48"/>
       <c r="X92" s="12"/>
       <c r="Y92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z92" s="42">
+      <c r="Z92" s="46">
         <f>AC91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA92" s="43"/>
-      <c r="AB92" s="43"/>
-      <c r="AC92" s="43"/>
-      <c r="AD92" s="43"/>
-      <c r="AE92" s="44"/>
+      <c r="AA92" s="47"/>
+      <c r="AB92" s="47"/>
+      <c r="AC92" s="47"/>
+      <c r="AD92" s="47"/>
+      <c r="AE92" s="48"/>
       <c r="AF92" s="12"/>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="42">
+      <c r="B93" s="46">
         <f>C91+B68</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="C93" s="43"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="44"/>
+      <c r="C93" s="47"/>
+      <c r="D93" s="47"/>
+      <c r="E93" s="47"/>
+      <c r="F93" s="47"/>
+      <c r="G93" s="48"/>
       <c r="H93" s="12"/>
       <c r="I93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J93" s="42">
+      <c r="J93" s="46">
         <f>K91+J68</f>
         <v>0</v>
       </c>
-      <c r="K93" s="43"/>
-      <c r="L93" s="43"/>
-      <c r="M93" s="43"/>
-      <c r="N93" s="43"/>
-      <c r="O93" s="44"/>
+      <c r="K93" s="47"/>
+      <c r="L93" s="47"/>
+      <c r="M93" s="47"/>
+      <c r="N93" s="47"/>
+      <c r="O93" s="48"/>
       <c r="P93" s="12"/>
       <c r="Q93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R93" s="42">
+      <c r="R93" s="46">
         <f>S91+R68</f>
         <v>0</v>
       </c>
-      <c r="S93" s="43"/>
-      <c r="T93" s="43"/>
-      <c r="U93" s="43"/>
-      <c r="V93" s="43"/>
-      <c r="W93" s="44"/>
+      <c r="S93" s="47"/>
+      <c r="T93" s="47"/>
+      <c r="U93" s="47"/>
+      <c r="V93" s="47"/>
+      <c r="W93" s="48"/>
       <c r="X93" s="12"/>
       <c r="Y93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z93" s="42">
+      <c r="Z93" s="46">
         <f>AA91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA93" s="43"/>
-      <c r="AB93" s="43"/>
-      <c r="AC93" s="43"/>
-      <c r="AD93" s="43"/>
-      <c r="AE93" s="44"/>
+      <c r="AA93" s="47"/>
+      <c r="AB93" s="47"/>
+      <c r="AC93" s="47"/>
+      <c r="AD93" s="47"/>
+      <c r="AE93" s="48"/>
       <c r="AF93" s="12"/>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="42">
+      <c r="B94" s="46">
         <f>IFERROR((G91/10/B92),0)</f>
         <v>0</v>
       </c>
-      <c r="C94" s="43"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="44"/>
+      <c r="C94" s="47"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="48"/>
       <c r="H94" s="12"/>
       <c r="I94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J94" s="42">
+      <c r="J94" s="46">
         <f>IFERROR((O91/10/J92),0)</f>
         <v>0</v>
       </c>
-      <c r="K94" s="43"/>
-      <c r="L94" s="43"/>
-      <c r="M94" s="43"/>
-      <c r="N94" s="43"/>
-      <c r="O94" s="44"/>
+      <c r="K94" s="47"/>
+      <c r="L94" s="47"/>
+      <c r="M94" s="47"/>
+      <c r="N94" s="47"/>
+      <c r="O94" s="48"/>
       <c r="P94" s="12"/>
       <c r="Q94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R94" s="42">
+      <c r="R94" s="46">
         <f>IFERROR((W91/10/R92),0)</f>
         <v>0</v>
       </c>
-      <c r="S94" s="43"/>
-      <c r="T94" s="43"/>
-      <c r="U94" s="43"/>
-      <c r="V94" s="43"/>
-      <c r="W94" s="44"/>
+      <c r="S94" s="47"/>
+      <c r="T94" s="47"/>
+      <c r="U94" s="47"/>
+      <c r="V94" s="47"/>
+      <c r="W94" s="48"/>
       <c r="X94" s="12"/>
       <c r="Y94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z94" s="42">
+      <c r="Z94" s="46">
         <f>IFERROR((AE91/10/Z92),0)</f>
         <v>0</v>
       </c>
-      <c r="AA94" s="43"/>
-      <c r="AB94" s="43"/>
-      <c r="AC94" s="43"/>
-      <c r="AD94" s="43"/>
-      <c r="AE94" s="44"/>
+      <c r="AA94" s="47"/>
+      <c r="AB94" s="47"/>
+      <c r="AC94" s="47"/>
+      <c r="AD94" s="47"/>
+      <c r="AE94" s="48"/>
       <c r="AF94" s="12"/>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="42">
+      <c r="B95" s="46">
         <f>IFERROR((9.82 * F91) * LN(B92/B93),0)</f>
         <v>0</v>
       </c>
-      <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="44"/>
+      <c r="C95" s="47"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="48"/>
       <c r="H95" s="12"/>
       <c r="I95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J95" s="42">
+      <c r="J95" s="46">
         <f>IFERROR((9.82 * N91) * LN(J92/J93),0)</f>
         <v>0</v>
       </c>
-      <c r="K95" s="43"/>
-      <c r="L95" s="43"/>
-      <c r="M95" s="43"/>
-      <c r="N95" s="43"/>
-      <c r="O95" s="44"/>
+      <c r="K95" s="47"/>
+      <c r="L95" s="47"/>
+      <c r="M95" s="47"/>
+      <c r="N95" s="47"/>
+      <c r="O95" s="48"/>
       <c r="P95" s="12"/>
       <c r="Q95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R95" s="42">
+      <c r="R95" s="46">
         <f>IFERROR((9.82 * V91) * LN(R92/R93),0)</f>
         <v>0</v>
       </c>
-      <c r="S95" s="43"/>
-      <c r="T95" s="43"/>
-      <c r="U95" s="43"/>
-      <c r="V95" s="43"/>
-      <c r="W95" s="44"/>
+      <c r="S95" s="47"/>
+      <c r="T95" s="47"/>
+      <c r="U95" s="47"/>
+      <c r="V95" s="47"/>
+      <c r="W95" s="48"/>
       <c r="X95" s="12"/>
       <c r="Y95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z95" s="42">
+      <c r="Z95" s="46">
         <f>IFERROR((9.82 * AD91) * LN(Z92/Z93),0)</f>
         <v>0</v>
       </c>
-      <c r="AA95" s="43"/>
-      <c r="AB95" s="43"/>
-      <c r="AC95" s="43"/>
-      <c r="AD95" s="43"/>
-      <c r="AE95" s="44"/>
+      <c r="AA95" s="47"/>
+      <c r="AB95" s="47"/>
+      <c r="AC95" s="47"/>
+      <c r="AD95" s="47"/>
+      <c r="AE95" s="48"/>
       <c r="AF95" s="12"/>
     </row>
     <row r="96" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="39">
+      <c r="B96" s="50">
         <f>B95+B72</f>
         <v>7032.4499171096795</v>
       </c>
-      <c r="C96" s="40"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="40"/>
-      <c r="F96" s="40"/>
-      <c r="G96" s="41"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="52"/>
       <c r="H96" s="12"/>
       <c r="I96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J96" s="39">
+      <c r="J96" s="50">
         <f>J95+J72</f>
         <v>0</v>
       </c>
-      <c r="K96" s="40"/>
-      <c r="L96" s="40"/>
-      <c r="M96" s="40"/>
-      <c r="N96" s="40"/>
-      <c r="O96" s="41"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="51"/>
+      <c r="M96" s="51"/>
+      <c r="N96" s="51"/>
+      <c r="O96" s="52"/>
       <c r="P96" s="12"/>
       <c r="Q96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R96" s="39">
+      <c r="R96" s="50">
         <f>R95+R72</f>
         <v>0</v>
       </c>
-      <c r="S96" s="40"/>
-      <c r="T96" s="40"/>
-      <c r="U96" s="40"/>
-      <c r="V96" s="40"/>
-      <c r="W96" s="41"/>
+      <c r="S96" s="51"/>
+      <c r="T96" s="51"/>
+      <c r="U96" s="51"/>
+      <c r="V96" s="51"/>
+      <c r="W96" s="52"/>
       <c r="X96" s="12"/>
       <c r="Y96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z96" s="39">
+      <c r="Z96" s="50">
         <f>Z95+Z72</f>
         <v>0</v>
       </c>
-      <c r="AA96" s="40"/>
-      <c r="AB96" s="40"/>
-      <c r="AC96" s="40"/>
-      <c r="AD96" s="40"/>
-      <c r="AE96" s="41"/>
+      <c r="AA96" s="51"/>
+      <c r="AB96" s="51"/>
+      <c r="AC96" s="51"/>
+      <c r="AD96" s="51"/>
+      <c r="AE96" s="52"/>
       <c r="AF96" s="12"/>
     </row>
     <row r="97" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37541,270 +37563,270 @@
       <c r="A116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B116" s="42">
+      <c r="B116" s="46">
         <f>E115+B92</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="C116" s="43"/>
-      <c r="D116" s="43"/>
-      <c r="E116" s="43"/>
-      <c r="F116" s="43"/>
-      <c r="G116" s="44"/>
+      <c r="C116" s="47"/>
+      <c r="D116" s="47"/>
+      <c r="E116" s="47"/>
+      <c r="F116" s="47"/>
+      <c r="G116" s="48"/>
       <c r="H116" s="12"/>
       <c r="I116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J116" s="42">
+      <c r="J116" s="46">
         <f>M115+J92</f>
         <v>0</v>
       </c>
-      <c r="K116" s="43"/>
-      <c r="L116" s="43"/>
-      <c r="M116" s="43"/>
-      <c r="N116" s="43"/>
-      <c r="O116" s="44"/>
+      <c r="K116" s="47"/>
+      <c r="L116" s="47"/>
+      <c r="M116" s="47"/>
+      <c r="N116" s="47"/>
+      <c r="O116" s="48"/>
       <c r="P116" s="12"/>
       <c r="Q116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R116" s="42">
+      <c r="R116" s="46">
         <f>U115+R92</f>
         <v>0</v>
       </c>
-      <c r="S116" s="43"/>
-      <c r="T116" s="43"/>
-      <c r="U116" s="43"/>
-      <c r="V116" s="43"/>
-      <c r="W116" s="44"/>
+      <c r="S116" s="47"/>
+      <c r="T116" s="47"/>
+      <c r="U116" s="47"/>
+      <c r="V116" s="47"/>
+      <c r="W116" s="48"/>
       <c r="X116" s="12"/>
       <c r="Y116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z116" s="42">
+      <c r="Z116" s="46">
         <f>AC115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA116" s="43"/>
-      <c r="AB116" s="43"/>
-      <c r="AC116" s="43"/>
-      <c r="AD116" s="43"/>
-      <c r="AE116" s="44"/>
+      <c r="AA116" s="47"/>
+      <c r="AB116" s="47"/>
+      <c r="AC116" s="47"/>
+      <c r="AD116" s="47"/>
+      <c r="AE116" s="48"/>
       <c r="AF116" s="12"/>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B117" s="42">
+      <c r="B117" s="46">
         <f>C115+B92</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="C117" s="43"/>
-      <c r="D117" s="43"/>
-      <c r="E117" s="43"/>
-      <c r="F117" s="43"/>
-      <c r="G117" s="44"/>
+      <c r="C117" s="47"/>
+      <c r="D117" s="47"/>
+      <c r="E117" s="47"/>
+      <c r="F117" s="47"/>
+      <c r="G117" s="48"/>
       <c r="H117" s="12"/>
       <c r="I117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J117" s="42">
+      <c r="J117" s="46">
         <f>K115+J92</f>
         <v>0</v>
       </c>
-      <c r="K117" s="43"/>
-      <c r="L117" s="43"/>
-      <c r="M117" s="43"/>
-      <c r="N117" s="43"/>
-      <c r="O117" s="44"/>
+      <c r="K117" s="47"/>
+      <c r="L117" s="47"/>
+      <c r="M117" s="47"/>
+      <c r="N117" s="47"/>
+      <c r="O117" s="48"/>
       <c r="P117" s="12"/>
       <c r="Q117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R117" s="42">
+      <c r="R117" s="46">
         <f>S115+R92</f>
         <v>0</v>
       </c>
-      <c r="S117" s="43"/>
-      <c r="T117" s="43"/>
-      <c r="U117" s="43"/>
-      <c r="V117" s="43"/>
-      <c r="W117" s="44"/>
+      <c r="S117" s="47"/>
+      <c r="T117" s="47"/>
+      <c r="U117" s="47"/>
+      <c r="V117" s="47"/>
+      <c r="W117" s="48"/>
       <c r="X117" s="12"/>
       <c r="Y117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z117" s="42">
+      <c r="Z117" s="46">
         <f>AA115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA117" s="43"/>
-      <c r="AB117" s="43"/>
-      <c r="AC117" s="43"/>
-      <c r="AD117" s="43"/>
-      <c r="AE117" s="44"/>
+      <c r="AA117" s="47"/>
+      <c r="AB117" s="47"/>
+      <c r="AC117" s="47"/>
+      <c r="AD117" s="47"/>
+      <c r="AE117" s="48"/>
       <c r="AF117" s="12"/>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B118" s="42">
+      <c r="B118" s="46">
         <f>IFERROR((G115/10/B116),0)</f>
         <v>0</v>
       </c>
-      <c r="C118" s="43"/>
-      <c r="D118" s="43"/>
-      <c r="E118" s="43"/>
-      <c r="F118" s="43"/>
-      <c r="G118" s="44"/>
+      <c r="C118" s="47"/>
+      <c r="D118" s="47"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="47"/>
+      <c r="G118" s="48"/>
       <c r="H118" s="12"/>
       <c r="I118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J118" s="42">
+      <c r="J118" s="46">
         <f>IFERROR((O115/10/J116),0)</f>
         <v>0</v>
       </c>
-      <c r="K118" s="43"/>
-      <c r="L118" s="43"/>
-      <c r="M118" s="43"/>
-      <c r="N118" s="43"/>
-      <c r="O118" s="44"/>
+      <c r="K118" s="47"/>
+      <c r="L118" s="47"/>
+      <c r="M118" s="47"/>
+      <c r="N118" s="47"/>
+      <c r="O118" s="48"/>
       <c r="P118" s="12"/>
       <c r="Q118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R118" s="42">
+      <c r="R118" s="46">
         <f>IFERROR((W115/10/R116),0)</f>
         <v>0</v>
       </c>
-      <c r="S118" s="43"/>
-      <c r="T118" s="43"/>
-      <c r="U118" s="43"/>
-      <c r="V118" s="43"/>
-      <c r="W118" s="44"/>
+      <c r="S118" s="47"/>
+      <c r="T118" s="47"/>
+      <c r="U118" s="47"/>
+      <c r="V118" s="47"/>
+      <c r="W118" s="48"/>
       <c r="X118" s="12"/>
       <c r="Y118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z118" s="42">
+      <c r="Z118" s="46">
         <f>IFERROR((AE115/10/Z116),0)</f>
         <v>0</v>
       </c>
-      <c r="AA118" s="43"/>
-      <c r="AB118" s="43"/>
-      <c r="AC118" s="43"/>
-      <c r="AD118" s="43"/>
-      <c r="AE118" s="44"/>
+      <c r="AA118" s="47"/>
+      <c r="AB118" s="47"/>
+      <c r="AC118" s="47"/>
+      <c r="AD118" s="47"/>
+      <c r="AE118" s="48"/>
       <c r="AF118" s="12"/>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B119" s="42">
+      <c r="B119" s="46">
         <f>IFERROR((9.82 * F115) * LN(B116/B117),0)</f>
         <v>0</v>
       </c>
-      <c r="C119" s="43"/>
-      <c r="D119" s="43"/>
-      <c r="E119" s="43"/>
-      <c r="F119" s="43"/>
-      <c r="G119" s="44"/>
+      <c r="C119" s="47"/>
+      <c r="D119" s="47"/>
+      <c r="E119" s="47"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="48"/>
       <c r="H119" s="12"/>
       <c r="I119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J119" s="42">
+      <c r="J119" s="46">
         <f>IFERROR((9.82 * N115) * LN(J116/J117),0)</f>
         <v>0</v>
       </c>
-      <c r="K119" s="43"/>
-      <c r="L119" s="43"/>
-      <c r="M119" s="43"/>
-      <c r="N119" s="43"/>
-      <c r="O119" s="44"/>
+      <c r="K119" s="47"/>
+      <c r="L119" s="47"/>
+      <c r="M119" s="47"/>
+      <c r="N119" s="47"/>
+      <c r="O119" s="48"/>
       <c r="P119" s="12"/>
       <c r="Q119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R119" s="42">
+      <c r="R119" s="46">
         <f>IFERROR((9.82 * V115) * LN(R116/R117),0)</f>
         <v>0</v>
       </c>
-      <c r="S119" s="43"/>
-      <c r="T119" s="43"/>
-      <c r="U119" s="43"/>
-      <c r="V119" s="43"/>
-      <c r="W119" s="44"/>
+      <c r="S119" s="47"/>
+      <c r="T119" s="47"/>
+      <c r="U119" s="47"/>
+      <c r="V119" s="47"/>
+      <c r="W119" s="48"/>
       <c r="X119" s="12"/>
       <c r="Y119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z119" s="42">
+      <c r="Z119" s="46">
         <f>IFERROR((9.82 * AD115) * LN(Z116/Z117),0)</f>
         <v>0</v>
       </c>
-      <c r="AA119" s="43"/>
-      <c r="AB119" s="43"/>
-      <c r="AC119" s="43"/>
-      <c r="AD119" s="43"/>
-      <c r="AE119" s="44"/>
+      <c r="AA119" s="47"/>
+      <c r="AB119" s="47"/>
+      <c r="AC119" s="47"/>
+      <c r="AD119" s="47"/>
+      <c r="AE119" s="48"/>
       <c r="AF119" s="12"/>
     </row>
     <row r="120" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B120" s="39">
+      <c r="B120" s="50">
         <f>B119+B96</f>
         <v>7032.4499171096795</v>
       </c>
-      <c r="C120" s="40"/>
-      <c r="D120" s="40"/>
-      <c r="E120" s="40"/>
-      <c r="F120" s="40"/>
-      <c r="G120" s="41"/>
+      <c r="C120" s="51"/>
+      <c r="D120" s="51"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="51"/>
+      <c r="G120" s="52"/>
       <c r="H120" s="12"/>
       <c r="I120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J120" s="39">
+      <c r="J120" s="50">
         <f>J119+J96</f>
         <v>0</v>
       </c>
-      <c r="K120" s="40"/>
-      <c r="L120" s="40"/>
-      <c r="M120" s="40"/>
-      <c r="N120" s="40"/>
-      <c r="O120" s="41"/>
+      <c r="K120" s="51"/>
+      <c r="L120" s="51"/>
+      <c r="M120" s="51"/>
+      <c r="N120" s="51"/>
+      <c r="O120" s="52"/>
       <c r="P120" s="12"/>
       <c r="Q120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R120" s="39">
+      <c r="R120" s="50">
         <f>R119+R96</f>
         <v>0</v>
       </c>
-      <c r="S120" s="40"/>
-      <c r="T120" s="40"/>
-      <c r="U120" s="40"/>
-      <c r="V120" s="40"/>
-      <c r="W120" s="41"/>
+      <c r="S120" s="51"/>
+      <c r="T120" s="51"/>
+      <c r="U120" s="51"/>
+      <c r="V120" s="51"/>
+      <c r="W120" s="52"/>
       <c r="X120" s="12"/>
       <c r="Y120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z120" s="39">
+      <c r="Z120" s="50">
         <f>Z119+Z96</f>
         <v>0</v>
       </c>
-      <c r="AA120" s="40"/>
-      <c r="AB120" s="40"/>
-      <c r="AC120" s="40"/>
-      <c r="AD120" s="40"/>
-      <c r="AE120" s="41"/>
+      <c r="AA120" s="51"/>
+      <c r="AB120" s="51"/>
+      <c r="AC120" s="51"/>
+      <c r="AD120" s="51"/>
+      <c r="AE120" s="52"/>
       <c r="AF120" s="12"/>
     </row>
     <row r="121" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37842,315 +37864,315 @@
       <c r="AF121" s="12"/>
     </row>
     <row r="122" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="46" t="s">
+      <c r="A122" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B122" s="47"/>
-      <c r="C122" s="47"/>
-      <c r="D122" s="47"/>
-      <c r="E122" s="47"/>
-      <c r="F122" s="47"/>
-      <c r="G122" s="48"/>
+      <c r="B122" s="42"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="42"/>
+      <c r="E122" s="42"/>
+      <c r="F122" s="42"/>
+      <c r="G122" s="43"/>
       <c r="H122" s="12"/>
-      <c r="I122" s="46" t="s">
+      <c r="I122" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="J122" s="47"/>
-      <c r="K122" s="47"/>
-      <c r="L122" s="47"/>
-      <c r="M122" s="47"/>
-      <c r="N122" s="47"/>
-      <c r="O122" s="48"/>
+      <c r="J122" s="42"/>
+      <c r="K122" s="42"/>
+      <c r="L122" s="42"/>
+      <c r="M122" s="42"/>
+      <c r="N122" s="42"/>
+      <c r="O122" s="43"/>
       <c r="P122" s="12"/>
-      <c r="Q122" s="46" t="s">
+      <c r="Q122" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="R122" s="47"/>
-      <c r="S122" s="47"/>
-      <c r="T122" s="47"/>
-      <c r="U122" s="47"/>
-      <c r="V122" s="47"/>
-      <c r="W122" s="48"/>
+      <c r="R122" s="42"/>
+      <c r="S122" s="42"/>
+      <c r="T122" s="42"/>
+      <c r="U122" s="42"/>
+      <c r="V122" s="42"/>
+      <c r="W122" s="43"/>
       <c r="X122" s="12"/>
-      <c r="Y122" s="46" t="s">
+      <c r="Y122" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="Z122" s="47"/>
-      <c r="AA122" s="47"/>
-      <c r="AB122" s="47"/>
-      <c r="AC122" s="47"/>
-      <c r="AD122" s="47"/>
-      <c r="AE122" s="48"/>
+      <c r="Z122" s="42"/>
+      <c r="AA122" s="42"/>
+      <c r="AB122" s="42"/>
+      <c r="AC122" s="42"/>
+      <c r="AD122" s="42"/>
+      <c r="AE122" s="43"/>
       <c r="AF122" s="12"/>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A123" s="51" t="s">
+      <c r="A123" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B123" s="51"/>
-      <c r="C123" s="51"/>
-      <c r="D123" s="50">
+      <c r="B123" s="44"/>
+      <c r="C123" s="44"/>
+      <c r="D123" s="45">
         <f>B115</f>
         <v>3</v>
       </c>
-      <c r="E123" s="50"/>
-      <c r="F123" s="50"/>
-      <c r="G123" s="50"/>
+      <c r="E123" s="45"/>
+      <c r="F123" s="45"/>
+      <c r="G123" s="45"/>
       <c r="H123" s="12"/>
-      <c r="I123" s="51" t="s">
+      <c r="I123" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J123" s="51"/>
-      <c r="K123" s="51"/>
-      <c r="L123" s="50">
+      <c r="J123" s="44"/>
+      <c r="K123" s="44"/>
+      <c r="L123" s="45">
         <f>J115</f>
         <v>0</v>
       </c>
-      <c r="M123" s="50"/>
-      <c r="N123" s="50"/>
-      <c r="O123" s="50"/>
+      <c r="M123" s="45"/>
+      <c r="N123" s="45"/>
+      <c r="O123" s="45"/>
       <c r="P123" s="12"/>
-      <c r="Q123" s="51" t="s">
+      <c r="Q123" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="R123" s="51"/>
-      <c r="S123" s="51"/>
-      <c r="T123" s="50">
+      <c r="R123" s="44"/>
+      <c r="S123" s="44"/>
+      <c r="T123" s="45">
         <f>R115</f>
         <v>0</v>
       </c>
-      <c r="U123" s="50"/>
-      <c r="V123" s="50"/>
-      <c r="W123" s="50"/>
+      <c r="U123" s="45"/>
+      <c r="V123" s="45"/>
+      <c r="W123" s="45"/>
       <c r="X123" s="12"/>
-      <c r="Y123" s="51" t="s">
+      <c r="Y123" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="Z123" s="51"/>
-      <c r="AA123" s="51"/>
-      <c r="AB123" s="50">
+      <c r="Z123" s="44"/>
+      <c r="AA123" s="44"/>
+      <c r="AB123" s="45">
         <f>Z115</f>
         <v>0</v>
       </c>
-      <c r="AC123" s="50"/>
-      <c r="AD123" s="50"/>
-      <c r="AE123" s="50"/>
+      <c r="AC123" s="45"/>
+      <c r="AD123" s="45"/>
+      <c r="AE123" s="45"/>
       <c r="AF123" s="12"/>
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A124" s="52" t="s">
+      <c r="A124" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="52"/>
-      <c r="C124" s="52"/>
-      <c r="D124" s="49">
+      <c r="B124" s="39"/>
+      <c r="C124" s="39"/>
+      <c r="D124" s="40">
         <f>B116</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="E124" s="49"/>
-      <c r="F124" s="49"/>
-      <c r="G124" s="49"/>
+      <c r="E124" s="40"/>
+      <c r="F124" s="40"/>
+      <c r="G124" s="40"/>
       <c r="H124" s="12"/>
-      <c r="I124" s="52" t="s">
+      <c r="I124" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="J124" s="52"/>
-      <c r="K124" s="52"/>
-      <c r="L124" s="49">
+      <c r="J124" s="39"/>
+      <c r="K124" s="39"/>
+      <c r="L124" s="40">
         <f>J116</f>
         <v>0</v>
       </c>
-      <c r="M124" s="49"/>
-      <c r="N124" s="49"/>
-      <c r="O124" s="49"/>
+      <c r="M124" s="40"/>
+      <c r="N124" s="40"/>
+      <c r="O124" s="40"/>
       <c r="P124" s="12"/>
-      <c r="Q124" s="52" t="s">
+      <c r="Q124" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="R124" s="52"/>
-      <c r="S124" s="52"/>
-      <c r="T124" s="49">
+      <c r="R124" s="39"/>
+      <c r="S124" s="39"/>
+      <c r="T124" s="40">
         <f>R116</f>
         <v>0</v>
       </c>
-      <c r="U124" s="49"/>
-      <c r="V124" s="49"/>
-      <c r="W124" s="49"/>
+      <c r="U124" s="40"/>
+      <c r="V124" s="40"/>
+      <c r="W124" s="40"/>
       <c r="X124" s="12"/>
-      <c r="Y124" s="52" t="s">
+      <c r="Y124" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="Z124" s="52"/>
-      <c r="AA124" s="52"/>
-      <c r="AB124" s="49">
+      <c r="Z124" s="39"/>
+      <c r="AA124" s="39"/>
+      <c r="AB124" s="40">
         <f>Z116</f>
         <v>0</v>
       </c>
-      <c r="AC124" s="49"/>
-      <c r="AD124" s="49"/>
-      <c r="AE124" s="49"/>
+      <c r="AC124" s="40"/>
+      <c r="AD124" s="40"/>
+      <c r="AE124" s="40"/>
       <c r="AF124" s="12"/>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A125" s="52" t="s">
+      <c r="A125" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="52"/>
-      <c r="C125" s="52"/>
-      <c r="D125" s="49">
+      <c r="B125" s="39"/>
+      <c r="C125" s="39"/>
+      <c r="D125" s="40">
         <f>D115+D91+D67+D43+D19</f>
         <v>8.9766162500000011</v>
       </c>
-      <c r="E125" s="49"/>
-      <c r="F125" s="49"/>
-      <c r="G125" s="49"/>
+      <c r="E125" s="40"/>
+      <c r="F125" s="40"/>
+      <c r="G125" s="40"/>
       <c r="H125" s="12"/>
-      <c r="I125" s="52" t="s">
+      <c r="I125" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="J125" s="52"/>
-      <c r="K125" s="52"/>
-      <c r="L125" s="49">
+      <c r="J125" s="39"/>
+      <c r="K125" s="39"/>
+      <c r="L125" s="40">
         <f>L115+L91+L67+L43+L19</f>
         <v>0</v>
       </c>
-      <c r="M125" s="49"/>
-      <c r="N125" s="49"/>
-      <c r="O125" s="49"/>
+      <c r="M125" s="40"/>
+      <c r="N125" s="40"/>
+      <c r="O125" s="40"/>
       <c r="P125" s="12"/>
-      <c r="Q125" s="52" t="s">
+      <c r="Q125" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="R125" s="52"/>
-      <c r="S125" s="52"/>
-      <c r="T125" s="49">
+      <c r="R125" s="39"/>
+      <c r="S125" s="39"/>
+      <c r="T125" s="40">
         <f>T115+T91+T67+T43+T19</f>
         <v>0</v>
       </c>
-      <c r="U125" s="49"/>
-      <c r="V125" s="49"/>
-      <c r="W125" s="49"/>
+      <c r="U125" s="40"/>
+      <c r="V125" s="40"/>
+      <c r="W125" s="40"/>
       <c r="X125" s="12"/>
-      <c r="Y125" s="52" t="s">
+      <c r="Y125" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="Z125" s="52"/>
-      <c r="AA125" s="52"/>
-      <c r="AB125" s="49">
+      <c r="Z125" s="39"/>
+      <c r="AA125" s="39"/>
+      <c r="AB125" s="40">
         <f>AB115+AB91+AB67+AB43+AB19</f>
         <v>0</v>
       </c>
-      <c r="AC125" s="49"/>
-      <c r="AD125" s="49"/>
-      <c r="AE125" s="49"/>
+      <c r="AC125" s="40"/>
+      <c r="AD125" s="40"/>
+      <c r="AE125" s="40"/>
       <c r="AF125" s="12"/>
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A126" s="52" t="s">
+      <c r="A126" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="52"/>
-      <c r="C126" s="52"/>
-      <c r="D126" s="49">
+      <c r="B126" s="39"/>
+      <c r="C126" s="39"/>
+      <c r="D126" s="40">
         <f>D124-D125</f>
         <v>2.3464924375000002</v>
       </c>
-      <c r="E126" s="49"/>
-      <c r="F126" s="49"/>
-      <c r="G126" s="49"/>
+      <c r="E126" s="40"/>
+      <c r="F126" s="40"/>
+      <c r="G126" s="40"/>
       <c r="H126" s="12"/>
-      <c r="I126" s="52" t="s">
+      <c r="I126" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="J126" s="52"/>
-      <c r="K126" s="52"/>
-      <c r="L126" s="49">
+      <c r="J126" s="39"/>
+      <c r="K126" s="39"/>
+      <c r="L126" s="40">
         <f>L124-L125</f>
         <v>0</v>
       </c>
-      <c r="M126" s="49"/>
-      <c r="N126" s="49"/>
-      <c r="O126" s="49"/>
+      <c r="M126" s="40"/>
+      <c r="N126" s="40"/>
+      <c r="O126" s="40"/>
       <c r="P126" s="12"/>
-      <c r="Q126" s="52" t="s">
+      <c r="Q126" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="R126" s="52"/>
-      <c r="S126" s="52"/>
-      <c r="T126" s="49">
+      <c r="R126" s="39"/>
+      <c r="S126" s="39"/>
+      <c r="T126" s="40">
         <f>T124-T125</f>
         <v>0</v>
       </c>
-      <c r="U126" s="49"/>
-      <c r="V126" s="49"/>
-      <c r="W126" s="49"/>
+      <c r="U126" s="40"/>
+      <c r="V126" s="40"/>
+      <c r="W126" s="40"/>
       <c r="X126" s="12"/>
-      <c r="Y126" s="52" t="s">
+      <c r="Y126" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Z126" s="52"/>
-      <c r="AA126" s="52"/>
-      <c r="AB126" s="49">
+      <c r="Z126" s="39"/>
+      <c r="AA126" s="39"/>
+      <c r="AB126" s="40">
         <f>AB124-AB125</f>
         <v>0</v>
       </c>
-      <c r="AC126" s="49"/>
-      <c r="AD126" s="49"/>
-      <c r="AE126" s="49"/>
+      <c r="AC126" s="40"/>
+      <c r="AD126" s="40"/>
+      <c r="AE126" s="40"/>
       <c r="AF126" s="12"/>
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A127" s="52" t="s">
+      <c r="A127" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="52"/>
-      <c r="C127" s="52"/>
-      <c r="D127" s="49">
+      <c r="B127" s="39"/>
+      <c r="C127" s="39"/>
+      <c r="D127" s="40">
         <f>B120</f>
         <v>7032.4499171096795</v>
       </c>
-      <c r="E127" s="49"/>
-      <c r="F127" s="49"/>
-      <c r="G127" s="49"/>
+      <c r="E127" s="40"/>
+      <c r="F127" s="40"/>
+      <c r="G127" s="40"/>
       <c r="H127" s="12"/>
-      <c r="I127" s="52" t="s">
+      <c r="I127" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="J127" s="52"/>
-      <c r="K127" s="52"/>
-      <c r="L127" s="49">
+      <c r="J127" s="39"/>
+      <c r="K127" s="39"/>
+      <c r="L127" s="40">
         <f>J120</f>
         <v>0</v>
       </c>
-      <c r="M127" s="49"/>
-      <c r="N127" s="49"/>
-      <c r="O127" s="49"/>
+      <c r="M127" s="40"/>
+      <c r="N127" s="40"/>
+      <c r="O127" s="40"/>
       <c r="P127" s="12"/>
-      <c r="Q127" s="52" t="s">
+      <c r="Q127" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="R127" s="52"/>
-      <c r="S127" s="52"/>
-      <c r="T127" s="49">
+      <c r="R127" s="39"/>
+      <c r="S127" s="39"/>
+      <c r="T127" s="40">
         <f>R120</f>
         <v>0</v>
       </c>
-      <c r="U127" s="49"/>
-      <c r="V127" s="49"/>
-      <c r="W127" s="49"/>
+      <c r="U127" s="40"/>
+      <c r="V127" s="40"/>
+      <c r="W127" s="40"/>
       <c r="X127" s="12"/>
-      <c r="Y127" s="52" t="s">
+      <c r="Y127" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="Z127" s="52"/>
-      <c r="AA127" s="52"/>
-      <c r="AB127" s="49">
+      <c r="Z127" s="39"/>
+      <c r="AA127" s="39"/>
+      <c r="AB127" s="40">
         <f>Z120</f>
         <v>0</v>
       </c>
-      <c r="AC127" s="49"/>
-      <c r="AD127" s="49"/>
-      <c r="AE127" s="49"/>
+      <c r="AC127" s="40"/>
+      <c r="AD127" s="40"/>
+      <c r="AE127" s="40"/>
       <c r="AF127" s="12"/>
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.25">
@@ -38189,49 +38211,87 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="Y127:AA127"/>
-    <mergeCell ref="AB127:AE127"/>
-    <mergeCell ref="Y122:AE122"/>
-    <mergeCell ref="Y123:AA123"/>
-    <mergeCell ref="AB123:AE123"/>
-    <mergeCell ref="Y124:AA124"/>
-    <mergeCell ref="AB124:AE124"/>
-    <mergeCell ref="Y125:AA125"/>
-    <mergeCell ref="AB125:AE125"/>
-    <mergeCell ref="Y126:AA126"/>
-    <mergeCell ref="AB126:AE126"/>
-    <mergeCell ref="I127:K127"/>
-    <mergeCell ref="L127:O127"/>
-    <mergeCell ref="Q122:W122"/>
-    <mergeCell ref="Q123:S123"/>
-    <mergeCell ref="T123:W123"/>
-    <mergeCell ref="Q124:S124"/>
-    <mergeCell ref="T124:W124"/>
-    <mergeCell ref="Q125:S125"/>
-    <mergeCell ref="T125:W125"/>
-    <mergeCell ref="Q126:S126"/>
-    <mergeCell ref="T126:W126"/>
-    <mergeCell ref="Q127:S127"/>
-    <mergeCell ref="T127:W127"/>
-    <mergeCell ref="I122:O122"/>
-    <mergeCell ref="I123:K123"/>
-    <mergeCell ref="L123:O123"/>
-    <mergeCell ref="I124:K124"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="I125:K125"/>
-    <mergeCell ref="L125:O125"/>
-    <mergeCell ref="I126:K126"/>
-    <mergeCell ref="L126:O126"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="J120:O120"/>
+    <mergeCell ref="R120:W120"/>
+    <mergeCell ref="Z120:AE120"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="J119:O119"/>
+    <mergeCell ref="R119:W119"/>
+    <mergeCell ref="Z119:AE119"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="J118:O118"/>
+    <mergeCell ref="R118:W118"/>
+    <mergeCell ref="Z118:AE118"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="J117:O117"/>
+    <mergeCell ref="R117:W117"/>
+    <mergeCell ref="Z117:AE117"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="J116:O116"/>
+    <mergeCell ref="R116:W116"/>
+    <mergeCell ref="Z116:AE116"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="J96:O96"/>
+    <mergeCell ref="R96:W96"/>
+    <mergeCell ref="Z96:AE96"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="J95:O95"/>
+    <mergeCell ref="R95:W95"/>
+    <mergeCell ref="Z95:AE95"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="J94:O94"/>
+    <mergeCell ref="R94:W94"/>
+    <mergeCell ref="Z94:AE94"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="J93:O93"/>
+    <mergeCell ref="R93:W93"/>
+    <mergeCell ref="Z93:AE93"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="J92:O92"/>
+    <mergeCell ref="R92:W92"/>
+    <mergeCell ref="Z92:AE92"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="J72:O72"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="Z72:AE72"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="J71:O71"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="Z71:AE71"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="J70:O70"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="Z70:AE70"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="J69:O69"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="Z69:AE69"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="J68:O68"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="Z68:AE68"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="R48:W48"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="R47:W47"/>
+    <mergeCell ref="Z47:AE47"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="Z46:AE46"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="R44:W44"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="Z24:AE24"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="J20:O20"/>
     <mergeCell ref="R20:W20"/>
@@ -38256,87 +38316,49 @@
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="J45:O45"/>
     <mergeCell ref="R45:W45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="R44:W44"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="Z24:AE24"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="R48:W48"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="R47:W47"/>
-    <mergeCell ref="Z47:AE47"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="R46:W46"/>
-    <mergeCell ref="Z46:AE46"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="J70:O70"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="Z70:AE70"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="J69:O69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="Z69:AE69"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="J68:O68"/>
-    <mergeCell ref="R68:W68"/>
-    <mergeCell ref="Z68:AE68"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="J92:O92"/>
-    <mergeCell ref="R92:W92"/>
-    <mergeCell ref="Z92:AE92"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="J72:O72"/>
-    <mergeCell ref="R72:W72"/>
-    <mergeCell ref="Z72:AE72"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="J71:O71"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="Z71:AE71"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="J95:O95"/>
-    <mergeCell ref="R95:W95"/>
-    <mergeCell ref="Z95:AE95"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="J94:O94"/>
-    <mergeCell ref="R94:W94"/>
-    <mergeCell ref="Z94:AE94"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="J93:O93"/>
-    <mergeCell ref="R93:W93"/>
-    <mergeCell ref="Z93:AE93"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="J117:O117"/>
-    <mergeCell ref="R117:W117"/>
-    <mergeCell ref="Z117:AE117"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="J116:O116"/>
-    <mergeCell ref="R116:W116"/>
-    <mergeCell ref="Z116:AE116"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="J96:O96"/>
-    <mergeCell ref="R96:W96"/>
-    <mergeCell ref="Z96:AE96"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="J120:O120"/>
-    <mergeCell ref="R120:W120"/>
-    <mergeCell ref="Z120:AE120"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="J119:O119"/>
-    <mergeCell ref="R119:W119"/>
-    <mergeCell ref="Z119:AE119"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="J118:O118"/>
-    <mergeCell ref="R118:W118"/>
-    <mergeCell ref="Z118:AE118"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="L127:O127"/>
+    <mergeCell ref="Q122:W122"/>
+    <mergeCell ref="Q123:S123"/>
+    <mergeCell ref="T123:W123"/>
+    <mergeCell ref="Q124:S124"/>
+    <mergeCell ref="T124:W124"/>
+    <mergeCell ref="Q125:S125"/>
+    <mergeCell ref="T125:W125"/>
+    <mergeCell ref="Q126:S126"/>
+    <mergeCell ref="T126:W126"/>
+    <mergeCell ref="Q127:S127"/>
+    <mergeCell ref="T127:W127"/>
+    <mergeCell ref="I122:O122"/>
+    <mergeCell ref="I123:K123"/>
+    <mergeCell ref="L123:O123"/>
+    <mergeCell ref="I124:K124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="I125:K125"/>
+    <mergeCell ref="L125:O125"/>
+    <mergeCell ref="I126:K126"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="Y127:AA127"/>
+    <mergeCell ref="AB127:AE127"/>
+    <mergeCell ref="Y122:AE122"/>
+    <mergeCell ref="Y123:AA123"/>
+    <mergeCell ref="AB123:AE123"/>
+    <mergeCell ref="Y124:AA124"/>
+    <mergeCell ref="AB124:AE124"/>
+    <mergeCell ref="Y125:AA125"/>
+    <mergeCell ref="AB125:AE125"/>
+    <mergeCell ref="Y126:AA126"/>
+    <mergeCell ref="AB126:AE126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GameData/SSTU/Parts/Parts-MassCalc.xlsx
+++ b/GameData/SSTU/Parts/Parts-MassCalc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="parts" sheetId="1" r:id="rId1"/>
@@ -14,14 +14,13 @@
     <sheet name="ChuteCalc" sheetId="9" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="10" r:id="rId6"/>
     <sheet name="StockChuteCalc" sheetId="11" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="361">
   <si>
     <t>Part</t>
   </si>
@@ -1093,6 +1092,18 @@
   <si>
     <t>SC-ENG-RD-1072</t>
   </si>
+  <si>
+    <t>RD-0110</t>
+  </si>
+  <si>
+    <t>RD-0124</t>
+  </si>
+  <si>
+    <t>OR-ST?</t>
+  </si>
+  <si>
+    <t>KSP Heat</t>
+  </si>
 </sst>
 </file>
 
@@ -1505,7 +1516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1545,25 +1556,14 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1578,14 +1578,26 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1893,9 +1905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H92" sqref="H92"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S61" sqref="S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1918,7 +1930,7 @@
     <col min="16" max="16" width="10" style="2" customWidth="1"/>
     <col min="17" max="17" width="10.5703125" style="2" customWidth="1"/>
     <col min="18" max="18" width="8.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10" style="2" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" style="2" customWidth="1"/>
     <col min="20" max="21" width="12.85546875" style="2" customWidth="1"/>
     <col min="22" max="25" width="12" style="2" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="0" style="2" hidden="1" customWidth="1"/>
@@ -9020,7 +9032,9 @@
       <c r="A75" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B75" s="6"/>
+      <c r="B75" s="6">
+        <v>0.32</v>
+      </c>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="6">
@@ -9030,10 +9044,10 @@
         <v>450</v>
       </c>
       <c r="G75" s="6">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H75" s="6">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>163</v>
@@ -9048,7 +9062,7 @@
       </c>
       <c r="L75" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="M75" s="4">
         <f>IFERROR(VLOOKUP(I75,FuelTypes!$A$1:$B$32,2,FALSE)*J75,0)</f>
@@ -9056,7 +9070,7 @@
       </c>
       <c r="N75" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="O75" s="4">
         <f t="shared" si="21"/>
@@ -9072,15 +9086,15 @@
       </c>
       <c r="R75" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="S75" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="T75" s="4">
         <f t="shared" si="24"/>
-        <v>1.2458942122550686E-2</v>
+        <v>9.0610488164004979E-3</v>
       </c>
       <c r="U75" s="4">
         <f t="shared" si="30"/>
@@ -9097,9 +9111,9 @@
         <f t="shared" si="28"/>
         <v>2400</v>
       </c>
-      <c r="Z75" s="3" t="e">
+      <c r="Z75" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>7500</v>
       </c>
       <c r="AB75" s="3">
         <f t="shared" si="29"/>
@@ -9114,7 +9128,9 @@
       <c r="A76" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B76" s="6"/>
+      <c r="B76" s="6">
+        <v>0.41</v>
+      </c>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6">
@@ -9142,7 +9158,7 @@
       </c>
       <c r="L76" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="M76" s="4">
         <f>IFERROR(VLOOKUP(I76,FuelTypes!$A$1:$B$32,2,FALSE)*J76,0)</f>
@@ -9150,7 +9166,7 @@
       </c>
       <c r="N76" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="O76" s="4">
         <f t="shared" si="21"/>
@@ -9166,11 +9182,11 @@
       </c>
       <c r="R76" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>13.414634146341465</v>
       </c>
       <c r="S76" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.4909090909090907</v>
       </c>
       <c r="T76" s="4">
         <f t="shared" si="24"/>
@@ -9191,9 +9207,9 @@
         <f t="shared" si="28"/>
         <v>3600</v>
       </c>
-      <c r="Z76" s="3" t="e">
+      <c r="Z76" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>8780.4878048780502</v>
       </c>
       <c r="AB76" s="3">
         <f t="shared" si="29"/>
@@ -9208,7 +9224,9 @@
       <c r="A77" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B77" s="6"/>
+      <c r="B77" s="6">
+        <v>0.68</v>
+      </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="6">
@@ -9221,7 +9239,7 @@
         <v>67</v>
       </c>
       <c r="H77" s="6">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>163</v>
@@ -9236,7 +9254,7 @@
       </c>
       <c r="L77" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="M77" s="4">
         <f>IFERROR(VLOOKUP(I77,FuelTypes!$A$1:$B$32,2,FALSE)*J77,0)</f>
@@ -9244,7 +9262,7 @@
       </c>
       <c r="N77" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="O77" s="4">
         <f t="shared" si="21"/>
@@ -9260,11 +9278,11 @@
       </c>
       <c r="R77" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>9.852941176470587</v>
       </c>
       <c r="S77" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.5223880597014925</v>
       </c>
       <c r="T77" s="4">
         <f t="shared" si="24"/>
@@ -9285,9 +9303,9 @@
         <f t="shared" si="28"/>
         <v>4800</v>
       </c>
-      <c r="Z77" s="3" t="e">
+      <c r="Z77" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>7058.823529411764</v>
       </c>
       <c r="AB77" s="3">
         <f t="shared" si="29"/>
@@ -10413,10 +10431,10 @@
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6">
-        <v>280</v>
+        <v>413</v>
       </c>
       <c r="H91" s="6">
-        <v>220</v>
+        <v>321</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="4">
@@ -10453,11 +10471,11 @@
       </c>
       <c r="R91" s="4">
         <f t="shared" si="22"/>
-        <v>14.358974358974359</v>
+        <v>21.179487179487182</v>
       </c>
       <c r="S91" s="4">
         <f t="shared" si="23"/>
-        <v>1.532142857142857</v>
+        <v>1.5156174334140435</v>
       </c>
       <c r="T91" s="4" t="e">
         <f t="shared" si="24"/>
@@ -27810,45 +27828,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
       <c r="H1" s="12"/>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
       <c r="P1" s="12"/>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
       <c r="X1" s="12"/>
-      <c r="Y1" s="49" t="s">
+      <c r="Y1" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
       <c r="AF1" s="12"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -29559,270 +29577,270 @@
       <c r="A20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="43">
         <f>E19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="12"/>
       <c r="I20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="43">
         <f>M19</f>
         <v>0</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="48"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="45"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R20" s="46">
+      <c r="R20" s="43">
         <f>U19</f>
         <v>0</v>
       </c>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="48"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="45"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z20" s="46">
+      <c r="Z20" s="43">
         <f>AC19</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="48"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="45"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="43">
         <f>C19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="12"/>
       <c r="I21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="43">
         <f>K19</f>
         <v>0</v>
       </c>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="48"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="45"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R21" s="46">
+      <c r="R21" s="43">
         <f>S19</f>
         <v>0</v>
       </c>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="48"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="45"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z21" s="46">
+      <c r="Z21" s="43">
         <f>AA19</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="48"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="45"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="43">
         <f>IFERROR((G19/10/B20),0)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="12"/>
       <c r="I22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="43">
         <f>IFERROR((O19/10/J20),0)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="48"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="45"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R22" s="46">
+      <c r="R22" s="43">
         <f>IFERROR((W19/10/R20),0)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="48"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="45"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z22" s="46">
+      <c r="Z22" s="43">
         <f>IFERROR((AE19/10/Z20),0)</f>
         <v>0</v>
       </c>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="48"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="45"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="43">
         <f>IFERROR((9.82 * F19) * LN(B20/C19),0)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="12"/>
       <c r="I23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J23" s="43">
         <f>IFERROR((9.82 * N19) * LN(J20/K19),0)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="48"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="45"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R23" s="46">
+      <c r="R23" s="43">
         <f>IFERROR((9.82 * V19) * LN(R20/S19),0)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="48"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="45"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z23" s="46">
+      <c r="Z23" s="43">
         <f>IFERROR((9.82 * AD19) * LN(Z20/AA19),0)</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="48"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="45"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="50">
+      <c r="B24" s="40">
         <f>B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="52"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="12"/>
       <c r="I24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="50">
+      <c r="J24" s="40">
         <f>J23</f>
         <v>0</v>
       </c>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="51"/>
-      <c r="N24" s="51"/>
-      <c r="O24" s="52"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="42"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R24" s="50">
+      <c r="R24" s="40">
         <f>R23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="51"/>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51"/>
-      <c r="W24" s="52"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="42"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z24" s="50">
+      <c r="Z24" s="40">
         <f>Z23</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="51"/>
-      <c r="AC24" s="51"/>
-      <c r="AD24" s="51"/>
-      <c r="AE24" s="52"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="42"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31563,270 +31581,270 @@
       <c r="A44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="46">
+      <c r="B44" s="43">
         <f>E43+B20</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="48"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
       <c r="H44" s="12"/>
       <c r="I44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J44" s="46">
+      <c r="J44" s="43">
         <f>M43+J20</f>
         <v>0</v>
       </c>
-      <c r="K44" s="47"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="48"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="45"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R44" s="46">
+      <c r="R44" s="43">
         <f>U43+R20</f>
         <v>0</v>
       </c>
-      <c r="S44" s="47"/>
-      <c r="T44" s="47"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="47"/>
-      <c r="W44" s="48"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="45"/>
       <c r="X44" s="12"/>
       <c r="Y44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z44" s="46">
+      <c r="Z44" s="43">
         <f>AC43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="47"/>
-      <c r="AB44" s="47"/>
-      <c r="AC44" s="47"/>
-      <c r="AD44" s="47"/>
-      <c r="AE44" s="48"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="44"/>
+      <c r="AC44" s="44"/>
+      <c r="AD44" s="44"/>
+      <c r="AE44" s="45"/>
       <c r="AF44" s="12"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="46">
+      <c r="B45" s="43">
         <f>C43+B20</f>
         <v>2.3464924375000002</v>
       </c>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="48"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
       <c r="H45" s="12"/>
       <c r="I45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J45" s="46">
+      <c r="J45" s="43">
         <f>K43+J20</f>
         <v>0</v>
       </c>
-      <c r="K45" s="47"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="48"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="45"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R45" s="46">
+      <c r="R45" s="43">
         <f>S43+R20</f>
         <v>0</v>
       </c>
-      <c r="S45" s="47"/>
-      <c r="T45" s="47"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="47"/>
-      <c r="W45" s="48"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="45"/>
       <c r="X45" s="12"/>
       <c r="Y45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z45" s="46">
+      <c r="Z45" s="43">
         <f>AA43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA45" s="47"/>
-      <c r="AB45" s="47"/>
-      <c r="AC45" s="47"/>
-      <c r="AD45" s="47"/>
-      <c r="AE45" s="48"/>
+      <c r="AA45" s="44"/>
+      <c r="AB45" s="44"/>
+      <c r="AC45" s="44"/>
+      <c r="AD45" s="44"/>
+      <c r="AE45" s="45"/>
       <c r="AF45" s="12"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="46">
+      <c r="B46" s="43">
         <f>IFERROR((G43/10/B44),0)</f>
         <v>0.5917102966075366</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="48"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
       <c r="H46" s="12"/>
       <c r="I46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J46" s="46">
+      <c r="J46" s="43">
         <f>IFERROR((O43/10/J44),0)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="47"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="47"/>
-      <c r="O46" s="48"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="45"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R46" s="46">
+      <c r="R46" s="43">
         <f>IFERROR((W43/10/R44),0)</f>
         <v>0</v>
       </c>
-      <c r="S46" s="47"/>
-      <c r="T46" s="47"/>
-      <c r="U46" s="47"/>
-      <c r="V46" s="47"/>
-      <c r="W46" s="48"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="45"/>
       <c r="X46" s="12"/>
       <c r="Y46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z46" s="46">
+      <c r="Z46" s="43">
         <f>IFERROR((AE43/10/Z44),0)</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="47"/>
-      <c r="AB46" s="47"/>
-      <c r="AC46" s="47"/>
-      <c r="AD46" s="47"/>
-      <c r="AE46" s="48"/>
+      <c r="AA46" s="44"/>
+      <c r="AB46" s="44"/>
+      <c r="AC46" s="44"/>
+      <c r="AD46" s="44"/>
+      <c r="AE46" s="45"/>
       <c r="AF46" s="12"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="46">
+      <c r="B47" s="43">
         <f>IFERROR((9.82 * F43) * LN(B44/B45),0)</f>
         <v>7032.4499171096795</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="48"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="45"/>
       <c r="H47" s="12"/>
       <c r="I47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="46">
+      <c r="J47" s="43">
         <f>IFERROR((9.82 * N43) * LN(J44/J45),0)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="47"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
-      <c r="N47" s="47"/>
-      <c r="O47" s="48"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="45"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R47" s="46">
+      <c r="R47" s="43">
         <f>IFERROR((9.82 * V43) * LN(R44/R45),0)</f>
         <v>0</v>
       </c>
-      <c r="S47" s="47"/>
-      <c r="T47" s="47"/>
-      <c r="U47" s="47"/>
-      <c r="V47" s="47"/>
-      <c r="W47" s="48"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="45"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z47" s="46">
+      <c r="Z47" s="43">
         <f>IFERROR((9.82 * AD43) * LN(Z44/Z45),0)</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="47"/>
-      <c r="AB47" s="47"/>
-      <c r="AC47" s="47"/>
-      <c r="AD47" s="47"/>
-      <c r="AE47" s="48"/>
+      <c r="AA47" s="44"/>
+      <c r="AB47" s="44"/>
+      <c r="AC47" s="44"/>
+      <c r="AD47" s="44"/>
+      <c r="AE47" s="45"/>
       <c r="AF47" s="12"/>
     </row>
     <row r="48" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="50">
+      <c r="B48" s="40">
         <f>B47+B24</f>
         <v>7032.4499171096795</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="52"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="42"/>
       <c r="H48" s="12"/>
       <c r="I48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J48" s="50">
+      <c r="J48" s="40">
         <f>J47+J24</f>
         <v>0</v>
       </c>
-      <c r="K48" s="51"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="52"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="42"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R48" s="50">
+      <c r="R48" s="40">
         <f>R47+R24</f>
         <v>0</v>
       </c>
-      <c r="S48" s="51"/>
-      <c r="T48" s="51"/>
-      <c r="U48" s="51"/>
-      <c r="V48" s="51"/>
-      <c r="W48" s="52"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="42"/>
       <c r="X48" s="12"/>
       <c r="Y48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z48" s="50">
+      <c r="Z48" s="40">
         <f>Z47+Z24</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="51"/>
-      <c r="AC48" s="51"/>
-      <c r="AD48" s="51"/>
-      <c r="AE48" s="52"/>
+      <c r="AA48" s="41"/>
+      <c r="AB48" s="41"/>
+      <c r="AC48" s="41"/>
+      <c r="AD48" s="41"/>
+      <c r="AE48" s="42"/>
       <c r="AF48" s="12"/>
     </row>
     <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33563,270 +33581,270 @@
       <c r="A68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="46">
+      <c r="B68" s="43">
         <f>E67+B44</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="48"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="45"/>
       <c r="H68" s="12"/>
       <c r="I68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J68" s="46">
+      <c r="J68" s="43">
         <f>M67+J44</f>
         <v>0</v>
       </c>
-      <c r="K68" s="47"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="47"/>
-      <c r="N68" s="47"/>
-      <c r="O68" s="48"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="45"/>
       <c r="P68" s="12"/>
       <c r="Q68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R68" s="46">
+      <c r="R68" s="43">
         <f>U67+R44</f>
         <v>0</v>
       </c>
-      <c r="S68" s="47"/>
-      <c r="T68" s="47"/>
-      <c r="U68" s="47"/>
-      <c r="V68" s="47"/>
-      <c r="W68" s="48"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="44"/>
+      <c r="U68" s="44"/>
+      <c r="V68" s="44"/>
+      <c r="W68" s="45"/>
       <c r="X68" s="12"/>
       <c r="Y68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z68" s="46">
+      <c r="Z68" s="43">
         <f>AC67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA68" s="47"/>
-      <c r="AB68" s="47"/>
-      <c r="AC68" s="47"/>
-      <c r="AD68" s="47"/>
-      <c r="AE68" s="48"/>
+      <c r="AA68" s="44"/>
+      <c r="AB68" s="44"/>
+      <c r="AC68" s="44"/>
+      <c r="AD68" s="44"/>
+      <c r="AE68" s="45"/>
       <c r="AF68" s="12"/>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="46">
+      <c r="B69" s="43">
         <f>C67+B44</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47"/>
-      <c r="G69" s="48"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="45"/>
       <c r="H69" s="12"/>
       <c r="I69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J69" s="46">
+      <c r="J69" s="43">
         <f>K67+J44</f>
         <v>0</v>
       </c>
-      <c r="K69" s="47"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="47"/>
-      <c r="O69" s="48"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="45"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R69" s="46">
+      <c r="R69" s="43">
         <f>S67+R44</f>
         <v>0</v>
       </c>
-      <c r="S69" s="47"/>
-      <c r="T69" s="47"/>
-      <c r="U69" s="47"/>
-      <c r="V69" s="47"/>
-      <c r="W69" s="48"/>
+      <c r="S69" s="44"/>
+      <c r="T69" s="44"/>
+      <c r="U69" s="44"/>
+      <c r="V69" s="44"/>
+      <c r="W69" s="45"/>
       <c r="X69" s="12"/>
       <c r="Y69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z69" s="46">
+      <c r="Z69" s="43">
         <f>AA67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA69" s="47"/>
-      <c r="AB69" s="47"/>
-      <c r="AC69" s="47"/>
-      <c r="AD69" s="47"/>
-      <c r="AE69" s="48"/>
+      <c r="AA69" s="44"/>
+      <c r="AB69" s="44"/>
+      <c r="AC69" s="44"/>
+      <c r="AD69" s="44"/>
+      <c r="AE69" s="45"/>
       <c r="AF69" s="12"/>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="46">
+      <c r="B70" s="43">
         <f>IFERROR((G67/10/B68),0)</f>
         <v>0</v>
       </c>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
-      <c r="F70" s="47"/>
-      <c r="G70" s="48"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="45"/>
       <c r="H70" s="12"/>
       <c r="I70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J70" s="46">
+      <c r="J70" s="43">
         <f>IFERROR((O67/10/J68),0)</f>
         <v>0</v>
       </c>
-      <c r="K70" s="47"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="47"/>
-      <c r="O70" s="48"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="45"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R70" s="46">
+      <c r="R70" s="43">
         <f>IFERROR((W67/10/R68),0)</f>
         <v>0</v>
       </c>
-      <c r="S70" s="47"/>
-      <c r="T70" s="47"/>
-      <c r="U70" s="47"/>
-      <c r="V70" s="47"/>
-      <c r="W70" s="48"/>
+      <c r="S70" s="44"/>
+      <c r="T70" s="44"/>
+      <c r="U70" s="44"/>
+      <c r="V70" s="44"/>
+      <c r="W70" s="45"/>
       <c r="X70" s="12"/>
       <c r="Y70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z70" s="46">
+      <c r="Z70" s="43">
         <f>IFERROR((AE67/10/Z68),0)</f>
         <v>0</v>
       </c>
-      <c r="AA70" s="47"/>
-      <c r="AB70" s="47"/>
-      <c r="AC70" s="47"/>
-      <c r="AD70" s="47"/>
-      <c r="AE70" s="48"/>
+      <c r="AA70" s="44"/>
+      <c r="AB70" s="44"/>
+      <c r="AC70" s="44"/>
+      <c r="AD70" s="44"/>
+      <c r="AE70" s="45"/>
       <c r="AF70" s="12"/>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="46">
+      <c r="B71" s="43">
         <f>IFERROR((9.82 * F67) * LN(B68/B69),0)</f>
         <v>0</v>
       </c>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47"/>
-      <c r="G71" s="48"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="45"/>
       <c r="H71" s="12"/>
       <c r="I71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J71" s="46">
+      <c r="J71" s="43">
         <f>IFERROR((9.82 * N67) * LN(J68/J69),0)</f>
         <v>0</v>
       </c>
-      <c r="K71" s="47"/>
-      <c r="L71" s="47"/>
-      <c r="M71" s="47"/>
-      <c r="N71" s="47"/>
-      <c r="O71" s="48"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="45"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R71" s="46">
+      <c r="R71" s="43">
         <f>IFERROR((9.82 * V67) * LN(R68/R69),0)</f>
         <v>0</v>
       </c>
-      <c r="S71" s="47"/>
-      <c r="T71" s="47"/>
-      <c r="U71" s="47"/>
-      <c r="V71" s="47"/>
-      <c r="W71" s="48"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="44"/>
+      <c r="U71" s="44"/>
+      <c r="V71" s="44"/>
+      <c r="W71" s="45"/>
       <c r="X71" s="12"/>
       <c r="Y71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z71" s="46">
+      <c r="Z71" s="43">
         <f>IFERROR((9.82 * AD67) * LN(Z68/Z69),0)</f>
         <v>0</v>
       </c>
-      <c r="AA71" s="47"/>
-      <c r="AB71" s="47"/>
-      <c r="AC71" s="47"/>
-      <c r="AD71" s="47"/>
-      <c r="AE71" s="48"/>
+      <c r="AA71" s="44"/>
+      <c r="AB71" s="44"/>
+      <c r="AC71" s="44"/>
+      <c r="AD71" s="44"/>
+      <c r="AE71" s="45"/>
       <c r="AF71" s="12"/>
     </row>
     <row r="72" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="50">
+      <c r="B72" s="40">
         <f>B71+B48</f>
         <v>7032.4499171096795</v>
       </c>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="52"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="42"/>
       <c r="H72" s="12"/>
       <c r="I72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J72" s="50">
+      <c r="J72" s="40">
         <f>J71+J48</f>
         <v>0</v>
       </c>
-      <c r="K72" s="51"/>
-      <c r="L72" s="51"/>
-      <c r="M72" s="51"/>
-      <c r="N72" s="51"/>
-      <c r="O72" s="52"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="42"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R72" s="50">
+      <c r="R72" s="40">
         <f>R71+R48</f>
         <v>0</v>
       </c>
-      <c r="S72" s="51"/>
-      <c r="T72" s="51"/>
-      <c r="U72" s="51"/>
-      <c r="V72" s="51"/>
-      <c r="W72" s="52"/>
+      <c r="S72" s="41"/>
+      <c r="T72" s="41"/>
+      <c r="U72" s="41"/>
+      <c r="V72" s="41"/>
+      <c r="W72" s="42"/>
       <c r="X72" s="12"/>
       <c r="Y72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z72" s="50">
+      <c r="Z72" s="40">
         <f>Z71+Z48</f>
         <v>0</v>
       </c>
-      <c r="AA72" s="51"/>
-      <c r="AB72" s="51"/>
-      <c r="AC72" s="51"/>
-      <c r="AD72" s="51"/>
-      <c r="AE72" s="52"/>
+      <c r="AA72" s="41"/>
+      <c r="AB72" s="41"/>
+      <c r="AC72" s="41"/>
+      <c r="AD72" s="41"/>
+      <c r="AE72" s="42"/>
       <c r="AF72" s="12"/>
     </row>
     <row r="73" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35563,270 +35581,270 @@
       <c r="A92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="46">
+      <c r="B92" s="43">
         <f>E91+B68</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47"/>
-      <c r="G92" s="48"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="45"/>
       <c r="H92" s="12"/>
       <c r="I92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J92" s="46">
+      <c r="J92" s="43">
         <f>M91+J68</f>
         <v>0</v>
       </c>
-      <c r="K92" s="47"/>
-      <c r="L92" s="47"/>
-      <c r="M92" s="47"/>
-      <c r="N92" s="47"/>
-      <c r="O92" s="48"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="44"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="45"/>
       <c r="P92" s="12"/>
       <c r="Q92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R92" s="46">
+      <c r="R92" s="43">
         <f>U91+R68</f>
         <v>0</v>
       </c>
-      <c r="S92" s="47"/>
-      <c r="T92" s="47"/>
-      <c r="U92" s="47"/>
-      <c r="V92" s="47"/>
-      <c r="W92" s="48"/>
+      <c r="S92" s="44"/>
+      <c r="T92" s="44"/>
+      <c r="U92" s="44"/>
+      <c r="V92" s="44"/>
+      <c r="W92" s="45"/>
       <c r="X92" s="12"/>
       <c r="Y92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z92" s="46">
+      <c r="Z92" s="43">
         <f>AC91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA92" s="47"/>
-      <c r="AB92" s="47"/>
-      <c r="AC92" s="47"/>
-      <c r="AD92" s="47"/>
-      <c r="AE92" s="48"/>
+      <c r="AA92" s="44"/>
+      <c r="AB92" s="44"/>
+      <c r="AC92" s="44"/>
+      <c r="AD92" s="44"/>
+      <c r="AE92" s="45"/>
       <c r="AF92" s="12"/>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="46">
+      <c r="B93" s="43">
         <f>C91+B68</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="C93" s="47"/>
-      <c r="D93" s="47"/>
-      <c r="E93" s="47"/>
-      <c r="F93" s="47"/>
-      <c r="G93" s="48"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="45"/>
       <c r="H93" s="12"/>
       <c r="I93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J93" s="46">
+      <c r="J93" s="43">
         <f>K91+J68</f>
         <v>0</v>
       </c>
-      <c r="K93" s="47"/>
-      <c r="L93" s="47"/>
-      <c r="M93" s="47"/>
-      <c r="N93" s="47"/>
-      <c r="O93" s="48"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="44"/>
+      <c r="M93" s="44"/>
+      <c r="N93" s="44"/>
+      <c r="O93" s="45"/>
       <c r="P93" s="12"/>
       <c r="Q93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R93" s="46">
+      <c r="R93" s="43">
         <f>S91+R68</f>
         <v>0</v>
       </c>
-      <c r="S93" s="47"/>
-      <c r="T93" s="47"/>
-      <c r="U93" s="47"/>
-      <c r="V93" s="47"/>
-      <c r="W93" s="48"/>
+      <c r="S93" s="44"/>
+      <c r="T93" s="44"/>
+      <c r="U93" s="44"/>
+      <c r="V93" s="44"/>
+      <c r="W93" s="45"/>
       <c r="X93" s="12"/>
       <c r="Y93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z93" s="46">
+      <c r="Z93" s="43">
         <f>AA91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA93" s="47"/>
-      <c r="AB93" s="47"/>
-      <c r="AC93" s="47"/>
-      <c r="AD93" s="47"/>
-      <c r="AE93" s="48"/>
+      <c r="AA93" s="44"/>
+      <c r="AB93" s="44"/>
+      <c r="AC93" s="44"/>
+      <c r="AD93" s="44"/>
+      <c r="AE93" s="45"/>
       <c r="AF93" s="12"/>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="46">
+      <c r="B94" s="43">
         <f>IFERROR((G91/10/B92),0)</f>
         <v>0</v>
       </c>
-      <c r="C94" s="47"/>
-      <c r="D94" s="47"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="48"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="44"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="45"/>
       <c r="H94" s="12"/>
       <c r="I94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J94" s="46">
+      <c r="J94" s="43">
         <f>IFERROR((O91/10/J92),0)</f>
         <v>0</v>
       </c>
-      <c r="K94" s="47"/>
-      <c r="L94" s="47"/>
-      <c r="M94" s="47"/>
-      <c r="N94" s="47"/>
-      <c r="O94" s="48"/>
+      <c r="K94" s="44"/>
+      <c r="L94" s="44"/>
+      <c r="M94" s="44"/>
+      <c r="N94" s="44"/>
+      <c r="O94" s="45"/>
       <c r="P94" s="12"/>
       <c r="Q94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R94" s="46">
+      <c r="R94" s="43">
         <f>IFERROR((W91/10/R92),0)</f>
         <v>0</v>
       </c>
-      <c r="S94" s="47"/>
-      <c r="T94" s="47"/>
-      <c r="U94" s="47"/>
-      <c r="V94" s="47"/>
-      <c r="W94" s="48"/>
+      <c r="S94" s="44"/>
+      <c r="T94" s="44"/>
+      <c r="U94" s="44"/>
+      <c r="V94" s="44"/>
+      <c r="W94" s="45"/>
       <c r="X94" s="12"/>
       <c r="Y94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z94" s="46">
+      <c r="Z94" s="43">
         <f>IFERROR((AE91/10/Z92),0)</f>
         <v>0</v>
       </c>
-      <c r="AA94" s="47"/>
-      <c r="AB94" s="47"/>
-      <c r="AC94" s="47"/>
-      <c r="AD94" s="47"/>
-      <c r="AE94" s="48"/>
+      <c r="AA94" s="44"/>
+      <c r="AB94" s="44"/>
+      <c r="AC94" s="44"/>
+      <c r="AD94" s="44"/>
+      <c r="AE94" s="45"/>
       <c r="AF94" s="12"/>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="46">
+      <c r="B95" s="43">
         <f>IFERROR((9.82 * F91) * LN(B92/B93),0)</f>
         <v>0</v>
       </c>
-      <c r="C95" s="47"/>
-      <c r="D95" s="47"/>
-      <c r="E95" s="47"/>
-      <c r="F95" s="47"/>
-      <c r="G95" s="48"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="45"/>
       <c r="H95" s="12"/>
       <c r="I95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J95" s="46">
+      <c r="J95" s="43">
         <f>IFERROR((9.82 * N91) * LN(J92/J93),0)</f>
         <v>0</v>
       </c>
-      <c r="K95" s="47"/>
-      <c r="L95" s="47"/>
-      <c r="M95" s="47"/>
-      <c r="N95" s="47"/>
-      <c r="O95" s="48"/>
+      <c r="K95" s="44"/>
+      <c r="L95" s="44"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="45"/>
       <c r="P95" s="12"/>
       <c r="Q95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R95" s="46">
+      <c r="R95" s="43">
         <f>IFERROR((9.82 * V91) * LN(R92/R93),0)</f>
         <v>0</v>
       </c>
-      <c r="S95" s="47"/>
-      <c r="T95" s="47"/>
-      <c r="U95" s="47"/>
-      <c r="V95" s="47"/>
-      <c r="W95" s="48"/>
+      <c r="S95" s="44"/>
+      <c r="T95" s="44"/>
+      <c r="U95" s="44"/>
+      <c r="V95" s="44"/>
+      <c r="W95" s="45"/>
       <c r="X95" s="12"/>
       <c r="Y95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z95" s="46">
+      <c r="Z95" s="43">
         <f>IFERROR((9.82 * AD91) * LN(Z92/Z93),0)</f>
         <v>0</v>
       </c>
-      <c r="AA95" s="47"/>
-      <c r="AB95" s="47"/>
-      <c r="AC95" s="47"/>
-      <c r="AD95" s="47"/>
-      <c r="AE95" s="48"/>
+      <c r="AA95" s="44"/>
+      <c r="AB95" s="44"/>
+      <c r="AC95" s="44"/>
+      <c r="AD95" s="44"/>
+      <c r="AE95" s="45"/>
       <c r="AF95" s="12"/>
     </row>
     <row r="96" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="50">
+      <c r="B96" s="40">
         <f>B95+B72</f>
         <v>7032.4499171096795</v>
       </c>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51"/>
-      <c r="E96" s="51"/>
-      <c r="F96" s="51"/>
-      <c r="G96" s="52"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="42"/>
       <c r="H96" s="12"/>
       <c r="I96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J96" s="50">
+      <c r="J96" s="40">
         <f>J95+J72</f>
         <v>0</v>
       </c>
-      <c r="K96" s="51"/>
-      <c r="L96" s="51"/>
-      <c r="M96" s="51"/>
-      <c r="N96" s="51"/>
-      <c r="O96" s="52"/>
+      <c r="K96" s="41"/>
+      <c r="L96" s="41"/>
+      <c r="M96" s="41"/>
+      <c r="N96" s="41"/>
+      <c r="O96" s="42"/>
       <c r="P96" s="12"/>
       <c r="Q96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R96" s="50">
+      <c r="R96" s="40">
         <f>R95+R72</f>
         <v>0</v>
       </c>
-      <c r="S96" s="51"/>
-      <c r="T96" s="51"/>
-      <c r="U96" s="51"/>
-      <c r="V96" s="51"/>
-      <c r="W96" s="52"/>
+      <c r="S96" s="41"/>
+      <c r="T96" s="41"/>
+      <c r="U96" s="41"/>
+      <c r="V96" s="41"/>
+      <c r="W96" s="42"/>
       <c r="X96" s="12"/>
       <c r="Y96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z96" s="50">
+      <c r="Z96" s="40">
         <f>Z95+Z72</f>
         <v>0</v>
       </c>
-      <c r="AA96" s="51"/>
-      <c r="AB96" s="51"/>
-      <c r="AC96" s="51"/>
-      <c r="AD96" s="51"/>
-      <c r="AE96" s="52"/>
+      <c r="AA96" s="41"/>
+      <c r="AB96" s="41"/>
+      <c r="AC96" s="41"/>
+      <c r="AD96" s="41"/>
+      <c r="AE96" s="42"/>
       <c r="AF96" s="12"/>
     </row>
     <row r="97" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37563,270 +37581,270 @@
       <c r="A116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B116" s="46">
+      <c r="B116" s="43">
         <f>E115+B92</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="C116" s="47"/>
-      <c r="D116" s="47"/>
-      <c r="E116" s="47"/>
-      <c r="F116" s="47"/>
-      <c r="G116" s="48"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="44"/>
+      <c r="E116" s="44"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="45"/>
       <c r="H116" s="12"/>
       <c r="I116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J116" s="46">
+      <c r="J116" s="43">
         <f>M115+J92</f>
         <v>0</v>
       </c>
-      <c r="K116" s="47"/>
-      <c r="L116" s="47"/>
-      <c r="M116" s="47"/>
-      <c r="N116" s="47"/>
-      <c r="O116" s="48"/>
+      <c r="K116" s="44"/>
+      <c r="L116" s="44"/>
+      <c r="M116" s="44"/>
+      <c r="N116" s="44"/>
+      <c r="O116" s="45"/>
       <c r="P116" s="12"/>
       <c r="Q116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R116" s="46">
+      <c r="R116" s="43">
         <f>U115+R92</f>
         <v>0</v>
       </c>
-      <c r="S116" s="47"/>
-      <c r="T116" s="47"/>
-      <c r="U116" s="47"/>
-      <c r="V116" s="47"/>
-      <c r="W116" s="48"/>
+      <c r="S116" s="44"/>
+      <c r="T116" s="44"/>
+      <c r="U116" s="44"/>
+      <c r="V116" s="44"/>
+      <c r="W116" s="45"/>
       <c r="X116" s="12"/>
       <c r="Y116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z116" s="46">
+      <c r="Z116" s="43">
         <f>AC115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA116" s="47"/>
-      <c r="AB116" s="47"/>
-      <c r="AC116" s="47"/>
-      <c r="AD116" s="47"/>
-      <c r="AE116" s="48"/>
+      <c r="AA116" s="44"/>
+      <c r="AB116" s="44"/>
+      <c r="AC116" s="44"/>
+      <c r="AD116" s="44"/>
+      <c r="AE116" s="45"/>
       <c r="AF116" s="12"/>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B117" s="46">
+      <c r="B117" s="43">
         <f>C115+B92</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="C117" s="47"/>
-      <c r="D117" s="47"/>
-      <c r="E117" s="47"/>
-      <c r="F117" s="47"/>
-      <c r="G117" s="48"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="44"/>
+      <c r="E117" s="44"/>
+      <c r="F117" s="44"/>
+      <c r="G117" s="45"/>
       <c r="H117" s="12"/>
       <c r="I117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J117" s="46">
+      <c r="J117" s="43">
         <f>K115+J92</f>
         <v>0</v>
       </c>
-      <c r="K117" s="47"/>
-      <c r="L117" s="47"/>
-      <c r="M117" s="47"/>
-      <c r="N117" s="47"/>
-      <c r="O117" s="48"/>
+      <c r="K117" s="44"/>
+      <c r="L117" s="44"/>
+      <c r="M117" s="44"/>
+      <c r="N117" s="44"/>
+      <c r="O117" s="45"/>
       <c r="P117" s="12"/>
       <c r="Q117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R117" s="46">
+      <c r="R117" s="43">
         <f>S115+R92</f>
         <v>0</v>
       </c>
-      <c r="S117" s="47"/>
-      <c r="T117" s="47"/>
-      <c r="U117" s="47"/>
-      <c r="V117" s="47"/>
-      <c r="W117" s="48"/>
+      <c r="S117" s="44"/>
+      <c r="T117" s="44"/>
+      <c r="U117" s="44"/>
+      <c r="V117" s="44"/>
+      <c r="W117" s="45"/>
       <c r="X117" s="12"/>
       <c r="Y117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z117" s="46">
+      <c r="Z117" s="43">
         <f>AA115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA117" s="47"/>
-      <c r="AB117" s="47"/>
-      <c r="AC117" s="47"/>
-      <c r="AD117" s="47"/>
-      <c r="AE117" s="48"/>
+      <c r="AA117" s="44"/>
+      <c r="AB117" s="44"/>
+      <c r="AC117" s="44"/>
+      <c r="AD117" s="44"/>
+      <c r="AE117" s="45"/>
       <c r="AF117" s="12"/>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B118" s="46">
+      <c r="B118" s="43">
         <f>IFERROR((G115/10/B116),0)</f>
         <v>0</v>
       </c>
-      <c r="C118" s="47"/>
-      <c r="D118" s="47"/>
-      <c r="E118" s="47"/>
-      <c r="F118" s="47"/>
-      <c r="G118" s="48"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="44"/>
+      <c r="E118" s="44"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="45"/>
       <c r="H118" s="12"/>
       <c r="I118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J118" s="46">
+      <c r="J118" s="43">
         <f>IFERROR((O115/10/J116),0)</f>
         <v>0</v>
       </c>
-      <c r="K118" s="47"/>
-      <c r="L118" s="47"/>
-      <c r="M118" s="47"/>
-      <c r="N118" s="47"/>
-      <c r="O118" s="48"/>
+      <c r="K118" s="44"/>
+      <c r="L118" s="44"/>
+      <c r="M118" s="44"/>
+      <c r="N118" s="44"/>
+      <c r="O118" s="45"/>
       <c r="P118" s="12"/>
       <c r="Q118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R118" s="46">
+      <c r="R118" s="43">
         <f>IFERROR((W115/10/R116),0)</f>
         <v>0</v>
       </c>
-      <c r="S118" s="47"/>
-      <c r="T118" s="47"/>
-      <c r="U118" s="47"/>
-      <c r="V118" s="47"/>
-      <c r="W118" s="48"/>
+      <c r="S118" s="44"/>
+      <c r="T118" s="44"/>
+      <c r="U118" s="44"/>
+      <c r="V118" s="44"/>
+      <c r="W118" s="45"/>
       <c r="X118" s="12"/>
       <c r="Y118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z118" s="46">
+      <c r="Z118" s="43">
         <f>IFERROR((AE115/10/Z116),0)</f>
         <v>0</v>
       </c>
-      <c r="AA118" s="47"/>
-      <c r="AB118" s="47"/>
-      <c r="AC118" s="47"/>
-      <c r="AD118" s="47"/>
-      <c r="AE118" s="48"/>
+      <c r="AA118" s="44"/>
+      <c r="AB118" s="44"/>
+      <c r="AC118" s="44"/>
+      <c r="AD118" s="44"/>
+      <c r="AE118" s="45"/>
       <c r="AF118" s="12"/>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B119" s="46">
+      <c r="B119" s="43">
         <f>IFERROR((9.82 * F115) * LN(B116/B117),0)</f>
         <v>0</v>
       </c>
-      <c r="C119" s="47"/>
-      <c r="D119" s="47"/>
-      <c r="E119" s="47"/>
-      <c r="F119" s="47"/>
-      <c r="G119" s="48"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="44"/>
+      <c r="E119" s="44"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="45"/>
       <c r="H119" s="12"/>
       <c r="I119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J119" s="46">
+      <c r="J119" s="43">
         <f>IFERROR((9.82 * N115) * LN(J116/J117),0)</f>
         <v>0</v>
       </c>
-      <c r="K119" s="47"/>
-      <c r="L119" s="47"/>
-      <c r="M119" s="47"/>
-      <c r="N119" s="47"/>
-      <c r="O119" s="48"/>
+      <c r="K119" s="44"/>
+      <c r="L119" s="44"/>
+      <c r="M119" s="44"/>
+      <c r="N119" s="44"/>
+      <c r="O119" s="45"/>
       <c r="P119" s="12"/>
       <c r="Q119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R119" s="46">
+      <c r="R119" s="43">
         <f>IFERROR((9.82 * V115) * LN(R116/R117),0)</f>
         <v>0</v>
       </c>
-      <c r="S119" s="47"/>
-      <c r="T119" s="47"/>
-      <c r="U119" s="47"/>
-      <c r="V119" s="47"/>
-      <c r="W119" s="48"/>
+      <c r="S119" s="44"/>
+      <c r="T119" s="44"/>
+      <c r="U119" s="44"/>
+      <c r="V119" s="44"/>
+      <c r="W119" s="45"/>
       <c r="X119" s="12"/>
       <c r="Y119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z119" s="46">
+      <c r="Z119" s="43">
         <f>IFERROR((9.82 * AD115) * LN(Z116/Z117),0)</f>
         <v>0</v>
       </c>
-      <c r="AA119" s="47"/>
-      <c r="AB119" s="47"/>
-      <c r="AC119" s="47"/>
-      <c r="AD119" s="47"/>
-      <c r="AE119" s="48"/>
+      <c r="AA119" s="44"/>
+      <c r="AB119" s="44"/>
+      <c r="AC119" s="44"/>
+      <c r="AD119" s="44"/>
+      <c r="AE119" s="45"/>
       <c r="AF119" s="12"/>
     </row>
     <row r="120" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B120" s="50">
+      <c r="B120" s="40">
         <f>B119+B96</f>
         <v>7032.4499171096795</v>
       </c>
-      <c r="C120" s="51"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="51"/>
-      <c r="F120" s="51"/>
-      <c r="G120" s="52"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="41"/>
+      <c r="E120" s="41"/>
+      <c r="F120" s="41"/>
+      <c r="G120" s="42"/>
       <c r="H120" s="12"/>
       <c r="I120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J120" s="50">
+      <c r="J120" s="40">
         <f>J119+J96</f>
         <v>0</v>
       </c>
-      <c r="K120" s="51"/>
-      <c r="L120" s="51"/>
-      <c r="M120" s="51"/>
-      <c r="N120" s="51"/>
-      <c r="O120" s="52"/>
+      <c r="K120" s="41"/>
+      <c r="L120" s="41"/>
+      <c r="M120" s="41"/>
+      <c r="N120" s="41"/>
+      <c r="O120" s="42"/>
       <c r="P120" s="12"/>
       <c r="Q120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R120" s="50">
+      <c r="R120" s="40">
         <f>R119+R96</f>
         <v>0</v>
       </c>
-      <c r="S120" s="51"/>
-      <c r="T120" s="51"/>
-      <c r="U120" s="51"/>
-      <c r="V120" s="51"/>
-      <c r="W120" s="52"/>
+      <c r="S120" s="41"/>
+      <c r="T120" s="41"/>
+      <c r="U120" s="41"/>
+      <c r="V120" s="41"/>
+      <c r="W120" s="42"/>
       <c r="X120" s="12"/>
       <c r="Y120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z120" s="50">
+      <c r="Z120" s="40">
         <f>Z119+Z96</f>
         <v>0</v>
       </c>
-      <c r="AA120" s="51"/>
-      <c r="AB120" s="51"/>
-      <c r="AC120" s="51"/>
-      <c r="AD120" s="51"/>
-      <c r="AE120" s="52"/>
+      <c r="AA120" s="41"/>
+      <c r="AB120" s="41"/>
+      <c r="AC120" s="41"/>
+      <c r="AD120" s="41"/>
+      <c r="AE120" s="42"/>
       <c r="AF120" s="12"/>
     </row>
     <row r="121" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37864,315 +37882,315 @@
       <c r="AF121" s="12"/>
     </row>
     <row r="122" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="41" t="s">
+      <c r="A122" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="B122" s="42"/>
-      <c r="C122" s="42"/>
-      <c r="D122" s="42"/>
-      <c r="E122" s="42"/>
-      <c r="F122" s="42"/>
-      <c r="G122" s="43"/>
+      <c r="B122" s="48"/>
+      <c r="C122" s="48"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="49"/>
       <c r="H122" s="12"/>
-      <c r="I122" s="41" t="s">
+      <c r="I122" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="J122" s="42"/>
-      <c r="K122" s="42"/>
-      <c r="L122" s="42"/>
-      <c r="M122" s="42"/>
-      <c r="N122" s="42"/>
-      <c r="O122" s="43"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="48"/>
+      <c r="L122" s="48"/>
+      <c r="M122" s="48"/>
+      <c r="N122" s="48"/>
+      <c r="O122" s="49"/>
       <c r="P122" s="12"/>
-      <c r="Q122" s="41" t="s">
+      <c r="Q122" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="R122" s="42"/>
-      <c r="S122" s="42"/>
-      <c r="T122" s="42"/>
-      <c r="U122" s="42"/>
-      <c r="V122" s="42"/>
-      <c r="W122" s="43"/>
+      <c r="R122" s="48"/>
+      <c r="S122" s="48"/>
+      <c r="T122" s="48"/>
+      <c r="U122" s="48"/>
+      <c r="V122" s="48"/>
+      <c r="W122" s="49"/>
       <c r="X122" s="12"/>
-      <c r="Y122" s="41" t="s">
+      <c r="Y122" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="Z122" s="42"/>
-      <c r="AA122" s="42"/>
-      <c r="AB122" s="42"/>
-      <c r="AC122" s="42"/>
-      <c r="AD122" s="42"/>
-      <c r="AE122" s="43"/>
+      <c r="Z122" s="48"/>
+      <c r="AA122" s="48"/>
+      <c r="AB122" s="48"/>
+      <c r="AC122" s="48"/>
+      <c r="AD122" s="48"/>
+      <c r="AE122" s="49"/>
       <c r="AF122" s="12"/>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A123" s="44" t="s">
+      <c r="A123" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B123" s="44"/>
-      <c r="C123" s="44"/>
-      <c r="D123" s="45">
+      <c r="B123" s="52"/>
+      <c r="C123" s="52"/>
+      <c r="D123" s="51">
         <f>B115</f>
         <v>3</v>
       </c>
-      <c r="E123" s="45"/>
-      <c r="F123" s="45"/>
-      <c r="G123" s="45"/>
+      <c r="E123" s="51"/>
+      <c r="F123" s="51"/>
+      <c r="G123" s="51"/>
       <c r="H123" s="12"/>
-      <c r="I123" s="44" t="s">
+      <c r="I123" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="J123" s="44"/>
-      <c r="K123" s="44"/>
-      <c r="L123" s="45">
+      <c r="J123" s="52"/>
+      <c r="K123" s="52"/>
+      <c r="L123" s="51">
         <f>J115</f>
         <v>0</v>
       </c>
-      <c r="M123" s="45"/>
-      <c r="N123" s="45"/>
-      <c r="O123" s="45"/>
+      <c r="M123" s="51"/>
+      <c r="N123" s="51"/>
+      <c r="O123" s="51"/>
       <c r="P123" s="12"/>
-      <c r="Q123" s="44" t="s">
+      <c r="Q123" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="R123" s="44"/>
-      <c r="S123" s="44"/>
-      <c r="T123" s="45">
+      <c r="R123" s="52"/>
+      <c r="S123" s="52"/>
+      <c r="T123" s="51">
         <f>R115</f>
         <v>0</v>
       </c>
-      <c r="U123" s="45"/>
-      <c r="V123" s="45"/>
-      <c r="W123" s="45"/>
+      <c r="U123" s="51"/>
+      <c r="V123" s="51"/>
+      <c r="W123" s="51"/>
       <c r="X123" s="12"/>
-      <c r="Y123" s="44" t="s">
+      <c r="Y123" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="Z123" s="44"/>
-      <c r="AA123" s="44"/>
-      <c r="AB123" s="45">
+      <c r="Z123" s="52"/>
+      <c r="AA123" s="52"/>
+      <c r="AB123" s="51">
         <f>Z115</f>
         <v>0</v>
       </c>
-      <c r="AC123" s="45"/>
-      <c r="AD123" s="45"/>
-      <c r="AE123" s="45"/>
+      <c r="AC123" s="51"/>
+      <c r="AD123" s="51"/>
+      <c r="AE123" s="51"/>
       <c r="AF123" s="12"/>
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A124" s="39" t="s">
+      <c r="A124" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="39"/>
-      <c r="C124" s="39"/>
-      <c r="D124" s="40">
+      <c r="B124" s="53"/>
+      <c r="C124" s="53"/>
+      <c r="D124" s="50">
         <f>B116</f>
         <v>11.323108687500001</v>
       </c>
-      <c r="E124" s="40"/>
-      <c r="F124" s="40"/>
-      <c r="G124" s="40"/>
+      <c r="E124" s="50"/>
+      <c r="F124" s="50"/>
+      <c r="G124" s="50"/>
       <c r="H124" s="12"/>
-      <c r="I124" s="39" t="s">
+      <c r="I124" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J124" s="39"/>
-      <c r="K124" s="39"/>
-      <c r="L124" s="40">
+      <c r="J124" s="53"/>
+      <c r="K124" s="53"/>
+      <c r="L124" s="50">
         <f>J116</f>
         <v>0</v>
       </c>
-      <c r="M124" s="40"/>
-      <c r="N124" s="40"/>
-      <c r="O124" s="40"/>
+      <c r="M124" s="50"/>
+      <c r="N124" s="50"/>
+      <c r="O124" s="50"/>
       <c r="P124" s="12"/>
-      <c r="Q124" s="39" t="s">
+      <c r="Q124" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="R124" s="39"/>
-      <c r="S124" s="39"/>
-      <c r="T124" s="40">
+      <c r="R124" s="53"/>
+      <c r="S124" s="53"/>
+      <c r="T124" s="50">
         <f>R116</f>
         <v>0</v>
       </c>
-      <c r="U124" s="40"/>
-      <c r="V124" s="40"/>
-      <c r="W124" s="40"/>
+      <c r="U124" s="50"/>
+      <c r="V124" s="50"/>
+      <c r="W124" s="50"/>
       <c r="X124" s="12"/>
-      <c r="Y124" s="39" t="s">
+      <c r="Y124" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="Z124" s="39"/>
-      <c r="AA124" s="39"/>
-      <c r="AB124" s="40">
+      <c r="Z124" s="53"/>
+      <c r="AA124" s="53"/>
+      <c r="AB124" s="50">
         <f>Z116</f>
         <v>0</v>
       </c>
-      <c r="AC124" s="40"/>
-      <c r="AD124" s="40"/>
-      <c r="AE124" s="40"/>
+      <c r="AC124" s="50"/>
+      <c r="AD124" s="50"/>
+      <c r="AE124" s="50"/>
       <c r="AF124" s="12"/>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A125" s="39" t="s">
+      <c r="A125" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="39"/>
-      <c r="C125" s="39"/>
-      <c r="D125" s="40">
+      <c r="B125" s="53"/>
+      <c r="C125" s="53"/>
+      <c r="D125" s="50">
         <f>D115+D91+D67+D43+D19</f>
         <v>8.9766162500000011</v>
       </c>
-      <c r="E125" s="40"/>
-      <c r="F125" s="40"/>
-      <c r="G125" s="40"/>
+      <c r="E125" s="50"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="50"/>
       <c r="H125" s="12"/>
-      <c r="I125" s="39" t="s">
+      <c r="I125" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="J125" s="39"/>
-      <c r="K125" s="39"/>
-      <c r="L125" s="40">
+      <c r="J125" s="53"/>
+      <c r="K125" s="53"/>
+      <c r="L125" s="50">
         <f>L115+L91+L67+L43+L19</f>
         <v>0</v>
       </c>
-      <c r="M125" s="40"/>
-      <c r="N125" s="40"/>
-      <c r="O125" s="40"/>
+      <c r="M125" s="50"/>
+      <c r="N125" s="50"/>
+      <c r="O125" s="50"/>
       <c r="P125" s="12"/>
-      <c r="Q125" s="39" t="s">
+      <c r="Q125" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="R125" s="39"/>
-      <c r="S125" s="39"/>
-      <c r="T125" s="40">
+      <c r="R125" s="53"/>
+      <c r="S125" s="53"/>
+      <c r="T125" s="50">
         <f>T115+T91+T67+T43+T19</f>
         <v>0</v>
       </c>
-      <c r="U125" s="40"/>
-      <c r="V125" s="40"/>
-      <c r="W125" s="40"/>
+      <c r="U125" s="50"/>
+      <c r="V125" s="50"/>
+      <c r="W125" s="50"/>
       <c r="X125" s="12"/>
-      <c r="Y125" s="39" t="s">
+      <c r="Y125" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="Z125" s="39"/>
-      <c r="AA125" s="39"/>
-      <c r="AB125" s="40">
+      <c r="Z125" s="53"/>
+      <c r="AA125" s="53"/>
+      <c r="AB125" s="50">
         <f>AB115+AB91+AB67+AB43+AB19</f>
         <v>0</v>
       </c>
-      <c r="AC125" s="40"/>
-      <c r="AD125" s="40"/>
-      <c r="AE125" s="40"/>
+      <c r="AC125" s="50"/>
+      <c r="AD125" s="50"/>
+      <c r="AE125" s="50"/>
       <c r="AF125" s="12"/>
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A126" s="39" t="s">
+      <c r="A126" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="39"/>
-      <c r="C126" s="39"/>
-      <c r="D126" s="40">
+      <c r="B126" s="53"/>
+      <c r="C126" s="53"/>
+      <c r="D126" s="50">
         <f>D124-D125</f>
         <v>2.3464924375000002</v>
       </c>
-      <c r="E126" s="40"/>
-      <c r="F126" s="40"/>
-      <c r="G126" s="40"/>
+      <c r="E126" s="50"/>
+      <c r="F126" s="50"/>
+      <c r="G126" s="50"/>
       <c r="H126" s="12"/>
-      <c r="I126" s="39" t="s">
+      <c r="I126" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="J126" s="39"/>
-      <c r="K126" s="39"/>
-      <c r="L126" s="40">
+      <c r="J126" s="53"/>
+      <c r="K126" s="53"/>
+      <c r="L126" s="50">
         <f>L124-L125</f>
         <v>0</v>
       </c>
-      <c r="M126" s="40"/>
-      <c r="N126" s="40"/>
-      <c r="O126" s="40"/>
+      <c r="M126" s="50"/>
+      <c r="N126" s="50"/>
+      <c r="O126" s="50"/>
       <c r="P126" s="12"/>
-      <c r="Q126" s="39" t="s">
+      <c r="Q126" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="R126" s="39"/>
-      <c r="S126" s="39"/>
-      <c r="T126" s="40">
+      <c r="R126" s="53"/>
+      <c r="S126" s="53"/>
+      <c r="T126" s="50">
         <f>T124-T125</f>
         <v>0</v>
       </c>
-      <c r="U126" s="40"/>
-      <c r="V126" s="40"/>
-      <c r="W126" s="40"/>
+      <c r="U126" s="50"/>
+      <c r="V126" s="50"/>
+      <c r="W126" s="50"/>
       <c r="X126" s="12"/>
-      <c r="Y126" s="39" t="s">
+      <c r="Y126" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="Z126" s="39"/>
-      <c r="AA126" s="39"/>
-      <c r="AB126" s="40">
+      <c r="Z126" s="53"/>
+      <c r="AA126" s="53"/>
+      <c r="AB126" s="50">
         <f>AB124-AB125</f>
         <v>0</v>
       </c>
-      <c r="AC126" s="40"/>
-      <c r="AD126" s="40"/>
-      <c r="AE126" s="40"/>
+      <c r="AC126" s="50"/>
+      <c r="AD126" s="50"/>
+      <c r="AE126" s="50"/>
       <c r="AF126" s="12"/>
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A127" s="39" t="s">
+      <c r="A127" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="39"/>
-      <c r="C127" s="39"/>
-      <c r="D127" s="40">
+      <c r="B127" s="53"/>
+      <c r="C127" s="53"/>
+      <c r="D127" s="50">
         <f>B120</f>
         <v>7032.4499171096795</v>
       </c>
-      <c r="E127" s="40"/>
-      <c r="F127" s="40"/>
-      <c r="G127" s="40"/>
+      <c r="E127" s="50"/>
+      <c r="F127" s="50"/>
+      <c r="G127" s="50"/>
       <c r="H127" s="12"/>
-      <c r="I127" s="39" t="s">
+      <c r="I127" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="J127" s="39"/>
-      <c r="K127" s="39"/>
-      <c r="L127" s="40">
+      <c r="J127" s="53"/>
+      <c r="K127" s="53"/>
+      <c r="L127" s="50">
         <f>J120</f>
         <v>0</v>
       </c>
-      <c r="M127" s="40"/>
-      <c r="N127" s="40"/>
-      <c r="O127" s="40"/>
+      <c r="M127" s="50"/>
+      <c r="N127" s="50"/>
+      <c r="O127" s="50"/>
       <c r="P127" s="12"/>
-      <c r="Q127" s="39" t="s">
+      <c r="Q127" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="R127" s="39"/>
-      <c r="S127" s="39"/>
-      <c r="T127" s="40">
+      <c r="R127" s="53"/>
+      <c r="S127" s="53"/>
+      <c r="T127" s="50">
         <f>R120</f>
         <v>0</v>
       </c>
-      <c r="U127" s="40"/>
-      <c r="V127" s="40"/>
-      <c r="W127" s="40"/>
+      <c r="U127" s="50"/>
+      <c r="V127" s="50"/>
+      <c r="W127" s="50"/>
       <c r="X127" s="12"/>
-      <c r="Y127" s="39" t="s">
+      <c r="Y127" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="Z127" s="39"/>
-      <c r="AA127" s="39"/>
-      <c r="AB127" s="40">
+      <c r="Z127" s="53"/>
+      <c r="AA127" s="53"/>
+      <c r="AB127" s="50">
         <f>Z120</f>
         <v>0</v>
       </c>
-      <c r="AC127" s="40"/>
-      <c r="AD127" s="40"/>
-      <c r="AE127" s="40"/>
+      <c r="AC127" s="50"/>
+      <c r="AD127" s="50"/>
+      <c r="AE127" s="50"/>
       <c r="AF127" s="12"/>
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.25">
@@ -38211,87 +38229,49 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="J120:O120"/>
-    <mergeCell ref="R120:W120"/>
-    <mergeCell ref="Z120:AE120"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="J119:O119"/>
-    <mergeCell ref="R119:W119"/>
-    <mergeCell ref="Z119:AE119"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="J118:O118"/>
-    <mergeCell ref="R118:W118"/>
-    <mergeCell ref="Z118:AE118"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="J117:O117"/>
-    <mergeCell ref="R117:W117"/>
-    <mergeCell ref="Z117:AE117"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="J116:O116"/>
-    <mergeCell ref="R116:W116"/>
-    <mergeCell ref="Z116:AE116"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="J96:O96"/>
-    <mergeCell ref="R96:W96"/>
-    <mergeCell ref="Z96:AE96"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="J95:O95"/>
-    <mergeCell ref="R95:W95"/>
-    <mergeCell ref="Z95:AE95"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="J94:O94"/>
-    <mergeCell ref="R94:W94"/>
-    <mergeCell ref="Z94:AE94"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="J93:O93"/>
-    <mergeCell ref="R93:W93"/>
-    <mergeCell ref="Z93:AE93"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="J92:O92"/>
-    <mergeCell ref="R92:W92"/>
-    <mergeCell ref="Z92:AE92"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="J72:O72"/>
-    <mergeCell ref="R72:W72"/>
-    <mergeCell ref="Z72:AE72"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="J71:O71"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="Z71:AE71"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="J70:O70"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="Z70:AE70"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="J69:O69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="Z69:AE69"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="J68:O68"/>
-    <mergeCell ref="R68:W68"/>
-    <mergeCell ref="Z68:AE68"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="R48:W48"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="R47:W47"/>
-    <mergeCell ref="Z47:AE47"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="R46:W46"/>
-    <mergeCell ref="Z46:AE46"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="R44:W44"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="Z24:AE24"/>
+    <mergeCell ref="Y127:AA127"/>
+    <mergeCell ref="AB127:AE127"/>
+    <mergeCell ref="Y122:AE122"/>
+    <mergeCell ref="Y123:AA123"/>
+    <mergeCell ref="AB123:AE123"/>
+    <mergeCell ref="Y124:AA124"/>
+    <mergeCell ref="AB124:AE124"/>
+    <mergeCell ref="Y125:AA125"/>
+    <mergeCell ref="AB125:AE125"/>
+    <mergeCell ref="Y126:AA126"/>
+    <mergeCell ref="AB126:AE126"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="L127:O127"/>
+    <mergeCell ref="Q122:W122"/>
+    <mergeCell ref="Q123:S123"/>
+    <mergeCell ref="T123:W123"/>
+    <mergeCell ref="Q124:S124"/>
+    <mergeCell ref="T124:W124"/>
+    <mergeCell ref="Q125:S125"/>
+    <mergeCell ref="T125:W125"/>
+    <mergeCell ref="Q126:S126"/>
+    <mergeCell ref="T126:W126"/>
+    <mergeCell ref="Q127:S127"/>
+    <mergeCell ref="T127:W127"/>
+    <mergeCell ref="I122:O122"/>
+    <mergeCell ref="I123:K123"/>
+    <mergeCell ref="L123:O123"/>
+    <mergeCell ref="I124:K124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="I125:K125"/>
+    <mergeCell ref="L125:O125"/>
+    <mergeCell ref="I126:K126"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="D126:G126"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="J20:O20"/>
     <mergeCell ref="R20:W20"/>
@@ -38316,49 +38296,87 @@
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="J45:O45"/>
     <mergeCell ref="R45:W45"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="I127:K127"/>
-    <mergeCell ref="L127:O127"/>
-    <mergeCell ref="Q122:W122"/>
-    <mergeCell ref="Q123:S123"/>
-    <mergeCell ref="T123:W123"/>
-    <mergeCell ref="Q124:S124"/>
-    <mergeCell ref="T124:W124"/>
-    <mergeCell ref="Q125:S125"/>
-    <mergeCell ref="T125:W125"/>
-    <mergeCell ref="Q126:S126"/>
-    <mergeCell ref="T126:W126"/>
-    <mergeCell ref="Q127:S127"/>
-    <mergeCell ref="T127:W127"/>
-    <mergeCell ref="I122:O122"/>
-    <mergeCell ref="I123:K123"/>
-    <mergeCell ref="L123:O123"/>
-    <mergeCell ref="I124:K124"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="I125:K125"/>
-    <mergeCell ref="L125:O125"/>
-    <mergeCell ref="I126:K126"/>
-    <mergeCell ref="L126:O126"/>
-    <mergeCell ref="Y127:AA127"/>
-    <mergeCell ref="AB127:AE127"/>
-    <mergeCell ref="Y122:AE122"/>
-    <mergeCell ref="Y123:AA123"/>
-    <mergeCell ref="AB123:AE123"/>
-    <mergeCell ref="Y124:AA124"/>
-    <mergeCell ref="AB124:AE124"/>
-    <mergeCell ref="Y125:AA125"/>
-    <mergeCell ref="AB125:AE125"/>
-    <mergeCell ref="Y126:AA126"/>
-    <mergeCell ref="AB126:AE126"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="R44:W44"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="Z24:AE24"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="R48:W48"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="R47:W47"/>
+    <mergeCell ref="Z47:AE47"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="Z46:AE46"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="J70:O70"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="Z70:AE70"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="J69:O69"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="Z69:AE69"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="J68:O68"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="Z68:AE68"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="J92:O92"/>
+    <mergeCell ref="R92:W92"/>
+    <mergeCell ref="Z92:AE92"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="J72:O72"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="Z72:AE72"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="J71:O71"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="Z71:AE71"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="J95:O95"/>
+    <mergeCell ref="R95:W95"/>
+    <mergeCell ref="Z95:AE95"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="J94:O94"/>
+    <mergeCell ref="R94:W94"/>
+    <mergeCell ref="Z94:AE94"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="J93:O93"/>
+    <mergeCell ref="R93:W93"/>
+    <mergeCell ref="Z93:AE93"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="J117:O117"/>
+    <mergeCell ref="R117:W117"/>
+    <mergeCell ref="Z117:AE117"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="J116:O116"/>
+    <mergeCell ref="R116:W116"/>
+    <mergeCell ref="Z116:AE116"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="J96:O96"/>
+    <mergeCell ref="R96:W96"/>
+    <mergeCell ref="Z96:AE96"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="J120:O120"/>
+    <mergeCell ref="R120:W120"/>
+    <mergeCell ref="Z120:AE120"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="J119:O119"/>
+    <mergeCell ref="R119:W119"/>
+    <mergeCell ref="Z119:AE119"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="J118:O118"/>
+    <mergeCell ref="R118:W118"/>
+    <mergeCell ref="Z118:AE118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39422,10 +39440,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD63"/>
+  <dimension ref="A1:AE65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39433,11 +39452,20 @@
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" customWidth="1"/>
+    <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.140625" style="20"/>
+    <col min="27" max="27" width="9.7109375" customWidth="1"/>
+    <col min="29" max="29" width="6.7109375" customWidth="1"/>
+    <col min="30" max="30" width="3.140625" customWidth="1"/>
+    <col min="31" max="31" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>221</v>
       </c>
@@ -39513,13 +39541,16 @@
       <c r="Y1" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="Z1" s="20"/>
+      <c r="Z1" s="20" t="s">
+        <v>360</v>
+      </c>
       <c r="AA1" s="20"/>
       <c r="AB1" s="20"/>
       <c r="AC1" s="20"/>
       <c r="AD1" s="20"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE1" s="20"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>246</v>
       </c>
@@ -39543,11 +39574,11 @@
         <v>31</v>
       </c>
       <c r="I2" s="21">
-        <f t="shared" ref="I2:I63" si="0">G2*100/C2</f>
+        <f t="shared" ref="I2:I65" si="0">G2*100/C2</f>
         <v>38.46153846153846</v>
       </c>
       <c r="J2" s="21">
-        <f t="shared" ref="J2:J33" si="1">H2*100/C2</f>
+        <f t="shared" ref="J2:J35" si="1">H2*100/C2</f>
         <v>59.615384615384613</v>
       </c>
       <c r="K2" s="21">
@@ -39564,39 +39595,39 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="O2" s="21">
-        <f t="shared" ref="O2:O63" si="2">L2/K2</f>
+        <f t="shared" ref="O2:O65" si="2">L2/K2</f>
         <v>1.1962264150943396</v>
       </c>
       <c r="P2" s="21">
-        <f t="shared" ref="P2:P63" si="3">L2-$AA$5</f>
+        <f t="shared" ref="P2:P65" si="3">L2-$AB$5</f>
         <v>28</v>
       </c>
       <c r="Q2" s="20">
-        <f t="shared" ref="Q2:Q63" si="4">P2/$AA$4</f>
+        <f t="shared" ref="Q2:Q65" si="4">P2/$AB$4</f>
         <v>0.15909090909090909</v>
       </c>
       <c r="R2" s="20">
-        <f>(POWER( 1- (H2-$AA$6)/$AA$8,$AA$10))*$AA$9</f>
+        <f>(POWER( 1- (H2-$AB$6)/$AB$8,$AB$10))*$AB$9</f>
         <v>0</v>
       </c>
       <c r="S2" s="30">
-        <f t="shared" ref="S2:S63" si="5">T2/O2</f>
+        <f t="shared" ref="S2:S65" si="5">T2/O2</f>
         <v>250.40866073989105</v>
       </c>
       <c r="T2" s="31">
-        <f t="shared" ref="T2:T63" si="6">$AA$3 + Q2 * $AA$2</f>
+        <f t="shared" ref="T2:T65" si="6">$AB$3 + Q2 * $AB$2</f>
         <v>299.54545454545456</v>
       </c>
       <c r="U2" s="20">
-        <f t="shared" ref="U2:U63" si="7">VLOOKUP(M2,$AB$2:$AD$6,3,FALSE)*J2</f>
+        <f t="shared" ref="U2:U65" si="7">VLOOKUP(M2,$AC$2:$AE$6,3,FALSE)*J2</f>
         <v>14.903846153846153</v>
       </c>
       <c r="V2" s="20">
-        <f>0.64*0.64*VLOOKUP(M2,$AB$2:$AD$6,2,FALSE)*(1+R2)</f>
+        <f>0.64*0.64*VLOOKUP(M2,$AC$2:$AE$6,2,FALSE)*(1+R2)</f>
         <v>0.40960000000000002</v>
       </c>
       <c r="W2" s="30">
-        <f t="shared" ref="W2:W63" si="8">X2/O2</f>
+        <f t="shared" ref="W2:W65" si="8">X2/O2</f>
         <v>10.614712933753944</v>
       </c>
       <c r="X2" s="31">
@@ -39604,26 +39635,30 @@
         <v>12.697600000000001</v>
       </c>
       <c r="Y2" s="20">
-        <f t="shared" ref="Y2:Y63" si="9">(X2*0.1)/U2</f>
+        <f t="shared" ref="Y2:Y65" si="9">(X2*0.1)/U2</f>
         <v>8.5196800000000017E-2</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="Z2" s="20">
+        <f t="shared" ref="Z2:Z22" si="10">1.5/Y2*X2</f>
+        <v>223.55769230769226</v>
+      </c>
+      <c r="AA2" s="24" t="s">
         <v>250</v>
       </c>
-      <c r="AA2" s="35">
+      <c r="AB2" s="35">
         <v>60</v>
       </c>
-      <c r="AB2" s="24" t="s">
+      <c r="AC2" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="AC2" s="35" t="s">
+      <c r="AD2" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="AD2" s="25" t="s">
+      <c r="AE2" s="25" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>253</v>
       </c>
@@ -39682,7 +39717,7 @@
         <v>0.17045454545454544</v>
       </c>
       <c r="R3" s="32">
-        <f t="shared" ref="R3:R63" si="10">(POWER( 1- (H3-$AA$6)/$AA$8,$AA$10))*$AA$9</f>
+        <f t="shared" ref="R3:R65" si="11">(POWER( 1- (H3-$AB$6)/$AB$8,$AB$10))*$AB$9</f>
         <v>0</v>
       </c>
       <c r="S3" s="30">
@@ -39698,7 +39733,7 @@
         <v>9.1</v>
       </c>
       <c r="V3" s="32">
-        <f t="shared" ref="V3:V63" si="11">0.64*0.64*VLOOKUP(M3,$AB$2:$AD$6,2,FALSE)*(1+R3)</f>
+        <f t="shared" ref="V3:V65" si="12">0.64*0.64*VLOOKUP(M3,$AC$2:$AE$6,2,FALSE)*(1+R3)</f>
         <v>0.40960000000000002</v>
       </c>
       <c r="W3" s="30">
@@ -39706,30 +39741,34 @@
         <v>30.379736677115986</v>
       </c>
       <c r="X3" s="31">
-        <f t="shared" ref="X3:X63" si="12">H3*V3</f>
+        <f t="shared" ref="X3:X65" si="13">H3*V3</f>
         <v>37.273600000000002</v>
       </c>
       <c r="Y3" s="32">
         <f t="shared" si="9"/>
         <v>0.40960000000000008</v>
       </c>
-      <c r="Z3" s="26" t="s">
+      <c r="Z3" s="20">
+        <f t="shared" si="10"/>
+        <v>136.49999999999997</v>
+      </c>
+      <c r="AA3" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="AA3" s="34">
+      <c r="AB3" s="34">
         <v>290</v>
       </c>
-      <c r="AB3" s="26" t="s">
+      <c r="AC3" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="AC3" s="34">
+      <c r="AD3" s="34">
         <v>1</v>
       </c>
-      <c r="AD3" s="27">
+      <c r="AE3" s="27">
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>255</v>
       </c>
@@ -39787,7 +39826,7 @@
         <v>0.23295454545454544</v>
       </c>
       <c r="R4" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S4" s="30">
@@ -39803,7 +39842,7 @@
         <v>5.6599492325871976</v>
       </c>
       <c r="V4" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W4" s="30">
@@ -39811,30 +39850,34 @@
         <v>8.6164945454545467</v>
       </c>
       <c r="X4" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>10.93632</v>
       </c>
       <c r="Y4" s="32">
         <f t="shared" si="9"/>
         <v>0.19322293452800005</v>
       </c>
-      <c r="Z4" s="26" t="s">
+      <c r="Z4" s="20">
+        <f t="shared" si="10"/>
+        <v>84.899238488807953</v>
+      </c>
+      <c r="AA4" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="AA4" s="34">
+      <c r="AB4" s="34">
         <v>176</v>
       </c>
-      <c r="AB4" s="26" t="s">
+      <c r="AC4" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="AC4" s="34">
+      <c r="AD4" s="34">
         <v>1</v>
       </c>
-      <c r="AD4" s="27">
+      <c r="AE4" s="27">
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>258</v>
       </c>
@@ -39894,7 +39937,7 @@
         <v>0.89204545454545459</v>
       </c>
       <c r="R5" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S5" s="30">
@@ -39910,7 +39953,7 @@
         <v>9.8181818181818183</v>
       </c>
       <c r="V5" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W5" s="30">
@@ -39918,30 +39961,34 @@
         <v>18.448530941704036</v>
       </c>
       <c r="X5" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>26.542079999999999</v>
       </c>
       <c r="Y5" s="20">
         <f t="shared" si="9"/>
         <v>0.27033600000000002</v>
       </c>
-      <c r="Z5" s="26" t="s">
+      <c r="Z5" s="20">
+        <f t="shared" si="10"/>
+        <v>147.27272727272725</v>
+      </c>
+      <c r="AA5" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="AA5" s="34">
+      <c r="AB5" s="34">
         <v>289</v>
       </c>
-      <c r="AB5" s="26" t="s">
+      <c r="AC5" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="AC5" s="34">
+      <c r="AD5" s="34">
         <v>1</v>
       </c>
-      <c r="AD5" s="27">
+      <c r="AE5" s="27">
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>263</v>
       </c>
@@ -39950,7 +39997,7 @@
         <v>1.0572506561679791</v>
       </c>
       <c r="C6" s="32">
-        <v>350</v>
+        <v>131</v>
       </c>
       <c r="D6" s="32">
         <v>64</v>
@@ -39969,11 +40016,11 @@
       </c>
       <c r="I6" s="32">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>26.717557251908396</v>
       </c>
       <c r="J6" s="32">
         <f t="shared" si="1"/>
-        <v>18.857142857142858</v>
+        <v>50.381679389312978</v>
       </c>
       <c r="K6" s="32">
         <v>255</v>
@@ -40000,7 +40047,7 @@
         <v>0.91477272727272729</v>
       </c>
       <c r="R6" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S6" s="30">
@@ -40013,10 +40060,10 @@
       </c>
       <c r="U6" s="32">
         <f t="shared" si="7"/>
-        <v>4.7142857142857144</v>
+        <v>12.595419847328245</v>
       </c>
       <c r="V6" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W6" s="30">
@@ -40024,31 +40071,35 @@
         <v>15.319040000000001</v>
       </c>
       <c r="X6" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>27.0336</v>
       </c>
       <c r="Y6" s="32">
         <f t="shared" si="9"/>
-        <v>0.57343999999999995</v>
-      </c>
-      <c r="Z6" s="24" t="s">
+        <v>0.2146304</v>
+      </c>
+      <c r="Z6" s="20">
+        <f t="shared" si="10"/>
+        <v>188.93129770992365</v>
+      </c>
+      <c r="AA6" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="AA6" s="25">
-        <f>MIN(H2:H63)</f>
+      <c r="AB6" s="25">
+        <f>MIN(H2:H65)</f>
         <v>26.7</v>
       </c>
-      <c r="AB6" s="36" t="s">
+      <c r="AC6" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="AC6" s="36">
+      <c r="AD6" s="36">
         <v>1</v>
       </c>
-      <c r="AD6" s="29">
+      <c r="AE6" s="29">
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>266</v>
       </c>
@@ -40056,7 +40107,7 @@
         <v>1.25</v>
       </c>
       <c r="C7" s="32">
-        <v>450</v>
+        <v>168</v>
       </c>
       <c r="D7" s="32">
         <v>84</v>
@@ -40075,11 +40126,11 @@
       </c>
       <c r="I7" s="32">
         <f t="shared" si="0"/>
-        <v>11.111111111111111</v>
+        <v>29.761904761904763</v>
       </c>
       <c r="J7" s="32">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>53.571428571428569</v>
       </c>
       <c r="K7" s="32">
         <v>255</v>
@@ -40107,7 +40158,7 @@
         <v>0.95454545454545459</v>
       </c>
       <c r="R7" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S7" s="30">
@@ -40120,10 +40171,10 @@
       </c>
       <c r="U7" s="32">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>13.392857142857142</v>
       </c>
       <c r="V7" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W7" s="30">
@@ -40131,25 +40182,29 @@
         <v>20.569628008752737</v>
       </c>
       <c r="X7" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>36.864000000000004</v>
       </c>
       <c r="Y7" s="32">
         <f t="shared" si="9"/>
-        <v>0.73728000000000016</v>
-      </c>
-      <c r="Z7" s="26" t="s">
+        <v>0.27525120000000008</v>
+      </c>
+      <c r="Z7" s="20">
+        <f t="shared" si="10"/>
+        <v>200.89285714285711</v>
+      </c>
+      <c r="AA7" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="AA7" s="27">
-        <f>MAX(H2:H63)</f>
+      <c r="AB7" s="27">
+        <f>MAX(H2:H65)</f>
         <v>10230</v>
       </c>
-      <c r="AB7" s="20"/>
       <c r="AC7" s="20"/>
       <c r="AD7" s="20"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE7" s="20"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>268</v>
       </c>
@@ -40204,7 +40259,7 @@
         <v>0.98863636363636365</v>
       </c>
       <c r="R8" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S8" s="30">
@@ -40220,7 +40275,7 @@
         <v>10.12396694214876</v>
       </c>
       <c r="V8" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W8" s="30">
@@ -40228,25 +40283,29 @@
         <v>30.344017278617706</v>
       </c>
       <c r="X8" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40.140799999999999</v>
       </c>
       <c r="Y8" s="20">
         <f t="shared" si="9"/>
         <v>0.39649279999999998</v>
       </c>
-      <c r="Z8" s="26" t="s">
+      <c r="Z8" s="20">
+        <f t="shared" si="10"/>
+        <v>151.85950413223142</v>
+      </c>
+      <c r="AA8" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="AA8" s="27">
-        <f>AA7-AA6</f>
+      <c r="AB8" s="27">
+        <f>AB7-AB6</f>
         <v>10203.299999999999</v>
       </c>
-      <c r="AB8" s="20"/>
       <c r="AC8" s="20"/>
       <c r="AD8" s="20"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE8" s="20"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>270</v>
       </c>
@@ -40254,7 +40313,7 @@
         <v>2.13</v>
       </c>
       <c r="C9" s="32">
-        <v>650</v>
+        <v>277</v>
       </c>
       <c r="D9" s="32">
         <v>280</v>
@@ -40273,11 +40332,11 @@
       </c>
       <c r="I9" s="32">
         <f t="shared" si="0"/>
-        <v>9.2307692307692299</v>
+        <v>21.660649819494584</v>
       </c>
       <c r="J9" s="32">
         <f t="shared" si="1"/>
-        <v>16.923076923076923</v>
+        <v>39.711191335740075</v>
       </c>
       <c r="K9" s="32">
         <v>255</v>
@@ -40304,7 +40363,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S9" s="32">
@@ -40317,10 +40376,10 @@
       </c>
       <c r="U9" s="32">
         <f t="shared" si="7"/>
-        <v>4.2307692307692308</v>
+        <v>9.9277978339350188</v>
       </c>
       <c r="V9" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W9" s="32">
@@ -40328,24 +40387,28 @@
         <v>24.708129032258068</v>
       </c>
       <c r="X9" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>45.056000000000004</v>
       </c>
       <c r="Y9" s="32">
         <f t="shared" si="9"/>
-        <v>1.0649600000000001</v>
-      </c>
-      <c r="Z9" s="26" t="s">
+        <v>0.45383679999999998</v>
+      </c>
+      <c r="Z9" s="20">
+        <f t="shared" si="10"/>
+        <v>148.91696750902528</v>
+      </c>
+      <c r="AA9" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="AA9" s="27">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="20"/>
+      <c r="AB9" s="27">
+        <v>0</v>
+      </c>
       <c r="AC9" s="20"/>
       <c r="AD9" s="20"/>
-    </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE9" s="20"/>
+    </row>
+    <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>272</v>
       </c>
@@ -40405,7 +40468,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S10" s="30">
@@ -40421,7 +40484,7 @@
         <v>14.45</v>
       </c>
       <c r="V10" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W10" s="30">
@@ -40429,321 +40492,328 @@
         <v>89.099010752688187</v>
       </c>
       <c r="X10" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>118.37440000000001</v>
       </c>
       <c r="Y10" s="20">
         <f t="shared" si="9"/>
         <v>0.81920000000000015</v>
       </c>
-      <c r="Z10" s="28" t="s">
+      <c r="Z10" s="20">
+        <f t="shared" si="10"/>
+        <v>216.74999999999997</v>
+      </c>
+      <c r="AA10" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="AA10" s="29">
+      <c r="AB10" s="29">
         <v>1</v>
       </c>
-      <c r="AB10" s="20"/>
       <c r="AC10" s="20"/>
       <c r="AD10" s="20"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="B11" s="22">
-        <v>1.125</v>
-      </c>
-      <c r="C11" s="22">
-        <v>400</v>
-      </c>
-      <c r="D11" s="22">
-        <v>14</v>
-      </c>
+      <c r="AE10" s="20"/>
+    </row>
+    <row r="11" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="B11" s="21">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C11" s="21">
+        <v>408.5</v>
+      </c>
+      <c r="D11" s="22"/>
       <c r="E11" s="21" t="s">
         <v>259</v>
       </c>
       <c r="F11" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="22">
+        <v>207.86830357142856</v>
+      </c>
+      <c r="H11" s="21">
+        <v>298</v>
+      </c>
+      <c r="I11" s="21">
+        <f t="shared" ref="I11:I12" si="14">G11*100/C11</f>
+        <v>50.88575362825668</v>
+      </c>
+      <c r="J11" s="21">
+        <f t="shared" ref="J11:J12" si="15">H11*100/C11</f>
+        <v>72.949816401468794</v>
+      </c>
+      <c r="K11" s="22">
+        <v>280</v>
+      </c>
+      <c r="L11" s="21">
+        <v>326</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="N11" s="21">
+        <f t="shared" ref="N11:N12" si="16">0.64*B11</f>
+        <v>1.4336000000000002</v>
+      </c>
+      <c r="O11" s="21">
+        <f t="shared" ref="O11:O12" si="17">L11/K11</f>
+        <v>1.1642857142857144</v>
+      </c>
+      <c r="P11" s="21">
+        <f t="shared" ref="P11:P12" si="18">L11-$AB$5</f>
+        <v>37</v>
+      </c>
+      <c r="Q11" s="20">
+        <f t="shared" ref="Q11:Q12" si="19">P11/$AB$4</f>
+        <v>0.21022727272727273</v>
+      </c>
+      <c r="R11" s="20">
+        <f t="shared" ref="R11:R12" si="20">(POWER( 1- (H11-$AB$6)/$AB$8,$AB$10))*$AB$9</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="30">
+        <f t="shared" ref="S11:S12" si="21">T11/O11</f>
+        <v>259.91355270496376</v>
+      </c>
+      <c r="T11" s="31">
+        <f t="shared" ref="T11:T12" si="22">$AB$3 + Q11 * $AB$2</f>
+        <v>302.61363636363637</v>
+      </c>
+      <c r="U11" s="20">
+        <f t="shared" ref="U11:U12" si="23">VLOOKUP(M11,$AC$2:$AE$6,3,FALSE)*J11</f>
+        <v>18.237454100367199</v>
+      </c>
+      <c r="V11" s="20">
+        <f t="shared" ref="V11:V12" si="24">0.64*0.64*VLOOKUP(M11,$AC$2:$AE$6,2,FALSE)*(1+R11)</f>
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="W11" s="30">
+        <f t="shared" ref="W11:W12" si="25">X11/O11</f>
+        <v>104.83749693251534</v>
+      </c>
+      <c r="X11" s="31">
+        <f t="shared" ref="X11:X12" si="26">H11*V11</f>
+        <v>122.0608</v>
+      </c>
+      <c r="Y11" s="20">
+        <f t="shared" ref="Y11:Y12" si="27">(X11*0.1)/U11</f>
+        <v>0.66928639999999995</v>
+      </c>
+      <c r="Z11" s="20">
+        <f t="shared" si="10"/>
+        <v>273.56181150550793</v>
+      </c>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+    </row>
+    <row r="12" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="B12" s="21">
+        <v>2.4</v>
+      </c>
+      <c r="C12" s="21">
+        <v>572</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="G12" s="22">
+        <v>191.40625</v>
+      </c>
+      <c r="H12" s="21">
+        <v>294</v>
+      </c>
+      <c r="I12" s="21">
+        <f t="shared" si="14"/>
+        <v>33.46263111888112</v>
+      </c>
+      <c r="J12" s="21">
+        <f t="shared" si="15"/>
+        <v>51.3986013986014</v>
+      </c>
+      <c r="K12" s="22">
+        <v>320</v>
+      </c>
+      <c r="L12" s="21">
+        <v>359</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="N12" s="21">
+        <f t="shared" si="16"/>
+        <v>1.536</v>
+      </c>
+      <c r="O12" s="21">
+        <f t="shared" si="17"/>
+        <v>1.121875</v>
+      </c>
+      <c r="P12" s="21">
+        <f t="shared" si="18"/>
+        <v>70</v>
+      </c>
+      <c r="Q12" s="20">
+        <f t="shared" si="19"/>
+        <v>0.39772727272727271</v>
+      </c>
+      <c r="R12" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="30">
+        <f t="shared" si="21"/>
+        <v>279.76702962775386</v>
+      </c>
+      <c r="T12" s="31">
+        <f t="shared" si="22"/>
+        <v>313.86363636363637</v>
+      </c>
+      <c r="U12" s="20">
+        <f t="shared" si="23"/>
+        <v>12.84965034965035</v>
+      </c>
+      <c r="V12" s="20">
+        <f t="shared" si="24"/>
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="W12" s="30">
+        <f t="shared" si="25"/>
+        <v>107.3403008356546</v>
+      </c>
+      <c r="X12" s="31">
+        <f t="shared" si="26"/>
+        <v>120.42240000000001</v>
+      </c>
+      <c r="Y12" s="20">
+        <f t="shared" si="27"/>
+        <v>0.93716480000000013</v>
+      </c>
+      <c r="Z12" s="20">
+        <f t="shared" si="10"/>
+        <v>192.74475524475525</v>
+      </c>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" s="22">
+        <v>1.125</v>
+      </c>
+      <c r="C13" s="22">
+        <v>400</v>
+      </c>
+      <c r="D13" s="22">
+        <v>14</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="37" t="s">
         <v>275</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G13" s="22">
         <v>360</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H13" s="22">
         <v>400</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I13" s="37">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J13" s="37">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K13" s="22">
         <v>270</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L13" s="22">
         <v>300</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M13" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="N11" s="21">
+      <c r="N13" s="37">
         <v>0.72</v>
       </c>
-      <c r="O11" s="21">
+      <c r="O13" s="37">
         <f t="shared" si="2"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="P11" s="21">
+      <c r="P13" s="37">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q13" s="37">
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="R11" s="20">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="30">
+      <c r="R13" s="37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="37">
         <f t="shared" si="5"/>
         <v>264.375</v>
       </c>
-      <c r="T11" s="31">
+      <c r="T13" s="37">
         <f t="shared" si="6"/>
         <v>293.75</v>
       </c>
-      <c r="U11" s="20">
+      <c r="U13" s="37">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="V11" s="20">
-        <f t="shared" si="11"/>
+      <c r="V13" s="37">
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
-      <c r="W11" s="30">
+      <c r="W13" s="37">
         <f t="shared" si="8"/>
         <v>147.45599999999999</v>
       </c>
-      <c r="X11" s="31">
-        <f t="shared" si="12"/>
+      <c r="X13" s="37">
+        <f t="shared" si="13"/>
         <v>163.84</v>
       </c>
-      <c r="Y11" s="20">
+      <c r="Y13" s="37">
         <f t="shared" si="9"/>
         <v>0.65536000000000005</v>
       </c>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="B12" s="22">
-        <v>1.65</v>
-      </c>
-      <c r="C12" s="22">
-        <v>450</v>
-      </c>
-      <c r="D12" s="21">
-        <v>18</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="G12" s="22">
-        <v>400</v>
-      </c>
-      <c r="H12" s="22">
-        <v>450</v>
-      </c>
-      <c r="I12" s="21">
-        <f t="shared" si="0"/>
-        <v>88.888888888888886</v>
-      </c>
-      <c r="J12" s="21">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="K12" s="22">
-        <v>265</v>
-      </c>
-      <c r="L12" s="22">
-        <v>335</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="N12" s="21">
-        <f>0.64*B12</f>
-        <v>1.056</v>
-      </c>
-      <c r="O12" s="21">
-        <f t="shared" si="2"/>
-        <v>1.2641509433962264</v>
-      </c>
-      <c r="P12" s="21">
-        <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="Q12" s="20">
-        <f t="shared" si="4"/>
-        <v>0.26136363636363635</v>
-      </c>
-      <c r="R12" s="20">
+      <c r="Z13" s="20">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="30">
-        <f t="shared" si="5"/>
-        <v>241.80800542740843</v>
-      </c>
-      <c r="T12" s="31">
-        <f t="shared" si="6"/>
-        <v>305.68181818181819</v>
-      </c>
-      <c r="U12" s="20">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="V12" s="20">
-        <f t="shared" si="11"/>
-        <v>0.40960000000000002</v>
-      </c>
-      <c r="W12" s="30">
-        <f t="shared" si="8"/>
-        <v>145.80537313432839</v>
-      </c>
-      <c r="X12" s="31">
-        <f t="shared" si="12"/>
-        <v>184.32000000000002</v>
-      </c>
-      <c r="Y12" s="20">
-        <f t="shared" si="9"/>
-        <v>0.73728000000000005</v>
-      </c>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="B13" s="22">
-        <v>1.25</v>
-      </c>
-      <c r="C13" s="22">
-        <v>480</v>
-      </c>
-      <c r="D13" s="21">
-        <v>14.5</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="G13" s="22">
-        <v>420</v>
-      </c>
-      <c r="H13" s="22">
-        <v>480</v>
-      </c>
-      <c r="I13" s="21">
-        <f t="shared" si="0"/>
-        <v>87.5</v>
-      </c>
-      <c r="J13" s="21">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="K13" s="22">
-        <v>266</v>
-      </c>
-      <c r="L13" s="22">
-        <v>305</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="N13" s="21">
-        <v>0.8</v>
-      </c>
-      <c r="O13" s="21">
-        <f t="shared" si="2"/>
-        <v>1.1466165413533835</v>
-      </c>
-      <c r="P13" s="21">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="Q13" s="20">
-        <f t="shared" si="4"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="R13" s="20">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="30">
-        <f t="shared" si="5"/>
-        <v>257.67511177347239</v>
-      </c>
-      <c r="T13" s="31">
-        <f t="shared" si="6"/>
-        <v>295.45454545454544</v>
-      </c>
-      <c r="U13" s="20">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="V13" s="20">
-        <f t="shared" si="11"/>
-        <v>0.40960000000000002</v>
-      </c>
-      <c r="W13" s="30">
-        <f t="shared" si="8"/>
-        <v>171.4679606557377</v>
-      </c>
-      <c r="X13" s="31">
-        <f t="shared" si="12"/>
-        <v>196.608</v>
-      </c>
-      <c r="Y13" s="20">
-        <f t="shared" si="9"/>
-        <v>0.78643200000000002</v>
-      </c>
-      <c r="Z13" s="20"/>
+        <v>375</v>
+      </c>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
       <c r="AC13" s="20"/>
       <c r="AD13" s="20"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE13" s="20"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B14" s="22">
-        <v>1.875</v>
+        <v>1.65</v>
       </c>
       <c r="C14" s="22">
-        <v>520</v>
+        <v>450</v>
       </c>
       <c r="D14" s="21">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>259</v>
@@ -40752,94 +40822,98 @@
         <v>260</v>
       </c>
       <c r="G14" s="22">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="H14" s="22">
-        <v>520</v>
+        <v>450</v>
       </c>
       <c r="I14" s="21">
         <f t="shared" si="0"/>
-        <v>84.615384615384613</v>
+        <v>88.888888888888886</v>
       </c>
       <c r="J14" s="21">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K14" s="22">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="L14" s="22">
-        <v>336</v>
-      </c>
-      <c r="M14" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="M14" s="23" t="s">
         <v>257</v>
       </c>
       <c r="N14" s="21">
         <f>0.64*B14</f>
-        <v>1.2</v>
+        <v>1.056</v>
       </c>
       <c r="O14" s="21">
         <f t="shared" si="2"/>
-        <v>1.2218181818181819</v>
+        <v>1.2641509433962264</v>
       </c>
       <c r="P14" s="21">
         <f t="shared" si="3"/>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="20">
         <f t="shared" si="4"/>
-        <v>0.26704545454545453</v>
+        <v>0.26136363636363635</v>
       </c>
       <c r="R14" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S14" s="30">
         <f t="shared" si="5"/>
-        <v>250.46502976190473</v>
+        <v>241.80800542740843</v>
       </c>
       <c r="T14" s="31">
         <f t="shared" si="6"/>
-        <v>306.02272727272725</v>
+        <v>305.68181818181819</v>
       </c>
       <c r="U14" s="20">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="V14" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W14" s="30">
         <f t="shared" si="8"/>
-        <v>174.32380952380953</v>
+        <v>145.80537313432839</v>
       </c>
       <c r="X14" s="31">
-        <f t="shared" si="12"/>
-        <v>212.99200000000002</v>
+        <f t="shared" si="13"/>
+        <v>184.32000000000002</v>
       </c>
       <c r="Y14" s="20">
         <f t="shared" si="9"/>
-        <v>0.85196800000000006</v>
-      </c>
-      <c r="Z14" s="20"/>
+        <v>0.73728000000000005</v>
+      </c>
+      <c r="Z14" s="20">
+        <f t="shared" si="10"/>
+        <v>375</v>
+      </c>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
       <c r="AC14" s="20"/>
       <c r="AD14" s="20"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE14" s="20"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B15" s="22">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="C15" s="22">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D15" s="21">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>259</v>
@@ -40848,2401 +40922,2552 @@
         <v>275</v>
       </c>
       <c r="G15" s="22">
-        <v>655</v>
+        <v>420</v>
       </c>
       <c r="H15" s="22">
-        <v>723</v>
+        <v>480</v>
       </c>
       <c r="I15" s="21">
         <f t="shared" si="0"/>
-        <v>139.36170212765958</v>
+        <v>87.5</v>
       </c>
       <c r="J15" s="21">
         <f t="shared" si="1"/>
-        <v>153.82978723404256</v>
+        <v>100</v>
       </c>
       <c r="K15" s="22">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="L15" s="22">
-        <v>311</v>
-      </c>
-      <c r="M15" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="M15" s="23" t="s">
         <v>257</v>
       </c>
       <c r="N15" s="21">
-        <f>0.64*B15</f>
-        <v>1.44</v>
+        <v>0.8</v>
       </c>
       <c r="O15" s="21">
         <f t="shared" si="2"/>
-        <v>1.1028368794326242</v>
+        <v>1.1466165413533835</v>
       </c>
       <c r="P15" s="21">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="20">
         <f t="shared" si="4"/>
-        <v>0.125</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="R15" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S15" s="30">
         <f t="shared" si="5"/>
-        <v>269.75884244372986</v>
+        <v>257.67511177347239</v>
       </c>
       <c r="T15" s="31">
         <f t="shared" si="6"/>
-        <v>297.5</v>
+        <v>295.45454545454544</v>
       </c>
       <c r="U15" s="20">
         <f t="shared" si="7"/>
-        <v>38.457446808510639</v>
+        <v>25</v>
       </c>
       <c r="V15" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W15" s="30">
         <f t="shared" si="8"/>
-        <v>268.52638456591637</v>
+        <v>171.4679606557377</v>
       </c>
       <c r="X15" s="31">
-        <f>H15*V15</f>
-        <v>296.14080000000001</v>
+        <f t="shared" si="13"/>
+        <v>196.608</v>
       </c>
       <c r="Y15" s="20">
         <f t="shared" si="9"/>
-        <v>0.77004800000000007</v>
-      </c>
-      <c r="Z15" s="20"/>
+        <v>0.78643200000000002</v>
+      </c>
+      <c r="Z15" s="20">
+        <f t="shared" si="10"/>
+        <v>375</v>
+      </c>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
       <c r="AC15" s="20"/>
       <c r="AD15" s="20"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE15" s="20"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="B16" s="21">
-        <v>1</v>
-      </c>
-      <c r="C16" s="21">
-        <v>826</v>
-      </c>
-      <c r="D16" s="22"/>
+        <v>278</v>
+      </c>
+      <c r="B16" s="22">
+        <v>1.875</v>
+      </c>
+      <c r="C16" s="22">
+        <v>520</v>
+      </c>
+      <c r="D16" s="21">
+        <v>20</v>
+      </c>
       <c r="E16" s="21" t="s">
         <v>259</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="G16" s="21">
-        <v>670</v>
-      </c>
-      <c r="H16" s="21">
-        <v>750</v>
+        <v>260</v>
+      </c>
+      <c r="G16" s="22">
+        <v>440</v>
+      </c>
+      <c r="H16" s="22">
+        <v>520</v>
       </c>
       <c r="I16" s="21">
         <f t="shared" si="0"/>
-        <v>81.1138014527845</v>
+        <v>84.615384615384613</v>
       </c>
       <c r="J16" s="21">
         <f t="shared" si="1"/>
-        <v>90.799031476997584</v>
+        <v>100</v>
       </c>
       <c r="K16" s="22">
-        <v>260</v>
-      </c>
-      <c r="L16" s="21">
-        <v>290</v>
-      </c>
-      <c r="M16" s="23" t="s">
-        <v>249</v>
+        <v>275</v>
+      </c>
+      <c r="L16" s="22">
+        <v>336</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>257</v>
       </c>
       <c r="N16" s="21">
         <f>0.64*B16</f>
-        <v>0.64</v>
+        <v>1.2</v>
       </c>
       <c r="O16" s="21">
         <f t="shared" si="2"/>
-        <v>1.1153846153846154</v>
+        <v>1.2218181818181819</v>
       </c>
       <c r="P16" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="Q16" s="20">
         <f t="shared" si="4"/>
-        <v>5.681818181818182E-3</v>
+        <v>0.26704545454545453</v>
       </c>
       <c r="R16" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S16" s="30">
         <f t="shared" si="5"/>
-        <v>260.30564263322879</v>
+        <v>250.46502976190473</v>
       </c>
       <c r="T16" s="31">
         <f t="shared" si="6"/>
-        <v>290.34090909090907</v>
+        <v>306.02272727272725</v>
       </c>
       <c r="U16" s="20">
         <f t="shared" si="7"/>
-        <v>22.699757869249396</v>
+        <v>25</v>
       </c>
       <c r="V16" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W16" s="30">
         <f t="shared" si="8"/>
-        <v>275.4206896551724</v>
+        <v>174.32380952380953</v>
       </c>
       <c r="X16" s="31">
-        <f t="shared" si="12"/>
-        <v>307.2</v>
+        <f t="shared" si="13"/>
+        <v>212.99200000000002</v>
       </c>
       <c r="Y16" s="20">
         <f t="shared" si="9"/>
-        <v>1.3533183999999998</v>
-      </c>
-      <c r="Z16" s="20"/>
+        <v>0.85196800000000006</v>
+      </c>
+      <c r="Z16" s="20">
+        <f t="shared" si="10"/>
+        <v>375</v>
+      </c>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
       <c r="AC16" s="20"/>
       <c r="AD16" s="20"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE16" s="20"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="B17" s="21">
-        <v>2.8</v>
+        <v>279</v>
+      </c>
+      <c r="B17" s="22">
+        <v>2.25</v>
       </c>
       <c r="C17" s="22">
-        <v>950</v>
-      </c>
-      <c r="D17" s="22"/>
+        <v>470</v>
+      </c>
+      <c r="D17" s="21">
+        <v>16</v>
+      </c>
       <c r="E17" s="21" t="s">
         <v>259</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="21">
-        <v>800</v>
+        <v>275</v>
+      </c>
+      <c r="G17" s="22">
+        <v>655</v>
+      </c>
+      <c r="H17" s="22">
+        <v>723</v>
       </c>
       <c r="I17" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>139.36170212765958</v>
       </c>
       <c r="J17" s="21">
         <f t="shared" si="1"/>
-        <v>84.21052631578948</v>
+        <v>153.82978723404256</v>
       </c>
       <c r="K17" s="22">
-        <v>260</v>
-      </c>
-      <c r="L17" s="21">
-        <v>290</v>
-      </c>
-      <c r="M17" s="23" t="s">
-        <v>249</v>
+        <v>282</v>
+      </c>
+      <c r="L17" s="22">
+        <v>311</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>257</v>
       </c>
       <c r="N17" s="21">
         <f>0.64*B17</f>
-        <v>1.7919999999999998</v>
+        <v>1.44</v>
       </c>
       <c r="O17" s="21">
         <f t="shared" si="2"/>
-        <v>1.1153846153846154</v>
+        <v>1.1028368794326242</v>
       </c>
       <c r="P17" s="21">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="20">
         <f t="shared" si="4"/>
-        <v>5.681818181818182E-3</v>
+        <v>0.125</v>
       </c>
       <c r="R17" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S17" s="30">
         <f t="shared" si="5"/>
-        <v>260.30564263322879</v>
+        <v>269.75884244372986</v>
       </c>
       <c r="T17" s="31">
         <f t="shared" si="6"/>
-        <v>290.34090909090907</v>
+        <v>297.5</v>
       </c>
       <c r="U17" s="20">
         <f t="shared" si="7"/>
-        <v>21.05263157894737</v>
+        <v>38.457446808510639</v>
       </c>
       <c r="V17" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W17" s="30">
         <f t="shared" si="8"/>
-        <v>293.78206896551723</v>
+        <v>268.52638456591637</v>
       </c>
       <c r="X17" s="31">
-        <f t="shared" si="12"/>
-        <v>327.68</v>
+        <f>H17*V17</f>
+        <v>296.14080000000001</v>
       </c>
       <c r="Y17" s="20">
         <f t="shared" si="9"/>
-        <v>1.5564799999999999</v>
-      </c>
-      <c r="Z17" s="20"/>
+        <v>0.77004800000000007</v>
+      </c>
+      <c r="Z17" s="20">
+        <f t="shared" si="10"/>
+        <v>576.86170212765956</v>
+      </c>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
       <c r="AC17" s="20"/>
       <c r="AD17" s="20"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE17" s="20"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="B18" s="22">
-        <v>2.8</v>
-      </c>
-      <c r="C18" s="22">
-        <v>525</v>
-      </c>
-      <c r="D18" s="21">
-        <v>24</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="B18" s="21">
+        <v>1</v>
+      </c>
+      <c r="C18" s="21">
+        <v>826</v>
+      </c>
+      <c r="D18" s="22"/>
       <c r="E18" s="21" t="s">
         <v>259</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="G18" s="22">
-        <v>700</v>
-      </c>
-      <c r="H18" s="22">
-        <v>801</v>
+        <v>275</v>
+      </c>
+      <c r="G18" s="21">
+        <v>670</v>
+      </c>
+      <c r="H18" s="21">
+        <v>750</v>
       </c>
       <c r="I18" s="21">
         <f t="shared" si="0"/>
-        <v>133.33333333333334</v>
+        <v>81.1138014527845</v>
       </c>
       <c r="J18" s="21">
         <f t="shared" si="1"/>
-        <v>152.57142857142858</v>
+        <v>90.799031476997584</v>
       </c>
       <c r="K18" s="22">
-        <v>285</v>
-      </c>
-      <c r="L18" s="22">
-        <v>348</v>
-      </c>
-      <c r="M18" s="21" t="s">
-        <v>257</v>
+        <v>260</v>
+      </c>
+      <c r="L18" s="21">
+        <v>290</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>249</v>
       </c>
       <c r="N18" s="21">
         <f>0.64*B18</f>
-        <v>1.7919999999999998</v>
+        <v>0.64</v>
       </c>
       <c r="O18" s="21">
         <f t="shared" si="2"/>
-        <v>1.2210526315789474</v>
+        <v>1.1153846153846154</v>
       </c>
       <c r="P18" s="21">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="20">
         <f t="shared" si="4"/>
-        <v>0.33522727272727271</v>
+        <v>5.681818181818182E-3</v>
       </c>
       <c r="R18" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S18" s="30">
         <f t="shared" si="5"/>
-        <v>253.97237460815049</v>
+        <v>260.30564263322879</v>
       </c>
       <c r="T18" s="31">
         <f t="shared" si="6"/>
-        <v>310.11363636363637</v>
+        <v>290.34090909090907</v>
       </c>
       <c r="U18" s="20">
         <f t="shared" si="7"/>
-        <v>38.142857142857146</v>
+        <v>22.699757869249396</v>
       </c>
       <c r="V18" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W18" s="30">
         <f t="shared" si="8"/>
-        <v>268.69406896551726</v>
+        <v>275.4206896551724</v>
       </c>
       <c r="X18" s="31">
-        <f t="shared" si="12"/>
-        <v>328.08960000000002</v>
+        <f t="shared" si="13"/>
+        <v>307.2</v>
       </c>
       <c r="Y18" s="20">
         <f t="shared" si="9"/>
-        <v>0.86016000000000015</v>
-      </c>
-      <c r="Z18" s="20"/>
+        <v>1.3533183999999998</v>
+      </c>
+      <c r="Z18" s="20">
+        <f t="shared" si="10"/>
+        <v>340.49636803874097</v>
+      </c>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
       <c r="AC18" s="20"/>
       <c r="AD18" s="20"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>283</v>
+      <c r="AE18" s="20"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>281</v>
       </c>
       <c r="B19" s="21">
-        <f>4.9/3.048</f>
-        <v>1.6076115485564306</v>
-      </c>
-      <c r="C19" s="21">
-        <v>1000</v>
-      </c>
-      <c r="D19" s="21">
-        <v>8</v>
-      </c>
+        <v>2.8</v>
+      </c>
+      <c r="C19" s="22">
+        <v>950</v>
+      </c>
+      <c r="D19" s="22"/>
       <c r="E19" s="21" t="s">
         <v>259</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="G19" s="21">
-        <v>836</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="G19" s="22"/>
       <c r="H19" s="21">
-        <v>947</v>
+        <v>800</v>
       </c>
       <c r="I19" s="21">
         <f t="shared" si="0"/>
-        <v>83.6</v>
+        <v>0</v>
       </c>
       <c r="J19" s="21">
         <f t="shared" si="1"/>
-        <v>94.7</v>
-      </c>
-      <c r="K19" s="21">
-        <v>255</v>
+        <v>84.21052631578948</v>
+      </c>
+      <c r="K19" s="22">
+        <v>260</v>
       </c>
       <c r="L19" s="21">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M19" s="23" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="N19" s="21">
-        <v>1</v>
+        <f>0.64*B19</f>
+        <v>1.7919999999999998</v>
       </c>
       <c r="O19" s="21">
         <f t="shared" si="2"/>
-        <v>1.1333333333333333</v>
+        <v>1.1153846153846154</v>
       </c>
       <c r="P19" s="21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.681818181818182E-3</v>
       </c>
       <c r="R19" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S19" s="30">
         <f t="shared" si="5"/>
-        <v>255.88235294117646</v>
+        <v>260.30564263322879</v>
       </c>
       <c r="T19" s="31">
         <f t="shared" si="6"/>
-        <v>290</v>
+        <v>290.34090909090907</v>
       </c>
       <c r="U19" s="20">
         <f t="shared" si="7"/>
-        <v>23.675000000000001</v>
+        <v>21.05263157894737</v>
       </c>
       <c r="V19" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W19" s="30">
         <f t="shared" si="8"/>
-        <v>342.2569411764706</v>
+        <v>293.78206896551723</v>
       </c>
       <c r="X19" s="31">
-        <f t="shared" si="12"/>
-        <v>387.89120000000003</v>
+        <f t="shared" si="13"/>
+        <v>327.68</v>
       </c>
       <c r="Y19" s="20">
         <f t="shared" si="9"/>
-        <v>1.6384000000000001</v>
-      </c>
-      <c r="Z19" s="20"/>
+        <v>1.5564799999999999</v>
+      </c>
+      <c r="Z19" s="20">
+        <f t="shared" si="10"/>
+        <v>315.78947368421058</v>
+      </c>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
       <c r="AC19" s="20"/>
       <c r="AD19" s="20"/>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>284</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21">
-        <v>1190</v>
-      </c>
-      <c r="D20" s="21"/>
+      <c r="AE19" s="20"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20" s="22">
+        <v>2.8</v>
+      </c>
+      <c r="C20" s="22">
+        <v>525</v>
+      </c>
+      <c r="D20" s="21">
+        <v>24</v>
+      </c>
       <c r="E20" s="21" t="s">
         <v>259</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="G20" s="21">
-        <v>839</v>
-      </c>
-      <c r="H20" s="21">
-        <v>1019</v>
+        <v>260</v>
+      </c>
+      <c r="G20" s="22">
+        <v>700</v>
+      </c>
+      <c r="H20" s="22">
+        <v>801</v>
       </c>
       <c r="I20" s="21">
         <f t="shared" si="0"/>
-        <v>70.504201680672267</v>
+        <v>133.33333333333334</v>
       </c>
       <c r="J20" s="21">
         <f t="shared" si="1"/>
-        <v>85.630252100840337</v>
-      </c>
-      <c r="K20" s="21">
-        <v>263</v>
-      </c>
-      <c r="L20" s="21">
-        <v>320</v>
-      </c>
-      <c r="M20" s="23" t="s">
+        <v>152.57142857142858</v>
+      </c>
+      <c r="K20" s="22">
+        <v>285</v>
+      </c>
+      <c r="L20" s="22">
+        <v>348</v>
+      </c>
+      <c r="M20" s="21" t="s">
         <v>257</v>
       </c>
       <c r="N20" s="21">
         <f>0.64*B20</f>
-        <v>0</v>
+        <v>1.7919999999999998</v>
       </c>
       <c r="O20" s="21">
         <f t="shared" si="2"/>
-        <v>1.2167300380228137</v>
+        <v>1.2210526315789474</v>
       </c>
       <c r="P20" s="21">
         <f t="shared" si="3"/>
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="20">
         <f t="shared" si="4"/>
-        <v>0.17613636363636365</v>
+        <v>0.33522727272727271</v>
       </c>
       <c r="R20" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S20" s="30">
         <f t="shared" si="5"/>
-        <v>247.02947443181819</v>
+        <v>253.97237460815049</v>
       </c>
       <c r="T20" s="31">
         <f t="shared" si="6"/>
-        <v>300.56818181818181</v>
+        <v>310.11363636363637</v>
       </c>
       <c r="U20" s="20">
         <f t="shared" si="7"/>
-        <v>21.407563025210084</v>
+        <v>38.142857142857146</v>
       </c>
       <c r="V20" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W20" s="30">
         <f t="shared" si="8"/>
-        <v>343.03616000000005</v>
+        <v>268.69406896551726</v>
       </c>
       <c r="X20" s="31">
-        <f t="shared" si="12"/>
-        <v>417.38240000000002</v>
+        <f t="shared" si="13"/>
+        <v>328.08960000000002</v>
       </c>
       <c r="Y20" s="20">
         <f t="shared" si="9"/>
-        <v>1.9496960000000001</v>
-      </c>
-      <c r="Z20" s="20"/>
+        <v>0.86016000000000015</v>
+      </c>
+      <c r="Z20" s="20">
+        <f t="shared" si="10"/>
+        <v>572.142857142857</v>
+      </c>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
       <c r="AC20" s="20"/>
       <c r="AD20" s="20"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="B21" s="32">
-        <v>2.1</v>
-      </c>
-      <c r="C21" s="32">
-        <v>1788</v>
-      </c>
-      <c r="D21" s="32">
-        <v>27.5</v>
-      </c>
-      <c r="E21" s="32" t="s">
+      <c r="AE20" s="20"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B21" s="37">
+        <f>4.9/3.048</f>
+        <v>1.6076115485564306</v>
+      </c>
+      <c r="C21" s="37">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="37">
+        <v>8</v>
+      </c>
+      <c r="E21" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="F21" s="32" t="s">
-        <v>260</v>
-      </c>
-      <c r="G21" s="32">
-        <v>486</v>
-      </c>
-      <c r="H21" s="32">
-        <v>1033</v>
-      </c>
-      <c r="I21" s="32">
+      <c r="F21" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="G21" s="37">
+        <v>836</v>
+      </c>
+      <c r="H21" s="37">
+        <v>947</v>
+      </c>
+      <c r="I21" s="37">
         <f t="shared" si="0"/>
-        <v>27.181208053691275</v>
-      </c>
-      <c r="J21" s="32">
+        <v>83.6</v>
+      </c>
+      <c r="J21" s="37">
         <f t="shared" si="1"/>
-        <v>57.774049217002236</v>
-      </c>
-      <c r="K21" s="32">
-        <v>200</v>
-      </c>
-      <c r="L21" s="32">
-        <v>421</v>
-      </c>
-      <c r="M21" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="N21" s="32">
-        <v>1.3</v>
-      </c>
-      <c r="O21" s="32">
+        <v>94.7</v>
+      </c>
+      <c r="K21" s="37">
+        <v>255</v>
+      </c>
+      <c r="L21" s="37">
+        <v>289</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>257</v>
+      </c>
+      <c r="N21" s="37">
+        <v>1</v>
+      </c>
+      <c r="O21" s="37">
         <f t="shared" si="2"/>
-        <v>2.105</v>
-      </c>
-      <c r="P21" s="32">
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="P21" s="37">
         <f t="shared" si="3"/>
-        <v>132</v>
-      </c>
-      <c r="Q21" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="37">
         <f t="shared" si="4"/>
-        <v>0.75</v>
-      </c>
-      <c r="R21" s="32">
+        <v>0</v>
+      </c>
+      <c r="R21" s="37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="37">
+        <f t="shared" si="5"/>
+        <v>255.88235294117646</v>
+      </c>
+      <c r="T21" s="37">
+        <f t="shared" si="6"/>
+        <v>290</v>
+      </c>
+      <c r="U21" s="37">
+        <f t="shared" si="7"/>
+        <v>23.675000000000001</v>
+      </c>
+      <c r="V21" s="37">
+        <f t="shared" si="12"/>
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="W21" s="37">
+        <f t="shared" si="8"/>
+        <v>342.2569411764706</v>
+      </c>
+      <c r="X21" s="37">
+        <f t="shared" si="13"/>
+        <v>387.89120000000003</v>
+      </c>
+      <c r="Y21" s="37">
+        <f t="shared" si="9"/>
+        <v>1.6384000000000001</v>
+      </c>
+      <c r="Z21" s="20">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S21" s="30">
-        <f t="shared" si="5"/>
-        <v>159.14489311163896</v>
-      </c>
-      <c r="T21" s="31">
-        <f t="shared" si="6"/>
-        <v>335</v>
-      </c>
-      <c r="U21" s="32">
-        <f t="shared" si="7"/>
-        <v>14.443512304250559</v>
-      </c>
-      <c r="V21" s="32">
-        <f t="shared" si="11"/>
-        <v>0.40960000000000002</v>
-      </c>
-      <c r="W21" s="30">
-        <f t="shared" si="8"/>
-        <v>201.00560570071261</v>
-      </c>
-      <c r="X21" s="31">
-        <f t="shared" si="12"/>
-        <v>423.11680000000001</v>
-      </c>
-      <c r="Y21" s="32">
-        <f t="shared" si="9"/>
-        <v>2.9294592000000002</v>
-      </c>
-      <c r="Z21" s="20"/>
+        <v>355.125</v>
+      </c>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
       <c r="AC21" s="20"/>
       <c r="AD21" s="20"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="B22" s="21">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="C22" s="21">
-        <v>739</v>
-      </c>
-      <c r="D22" s="21">
-        <v>8</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="F22" s="21" t="s">
+      <c r="AE21" s="20"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="B22" s="32">
+        <v>0.73</v>
+      </c>
+      <c r="C22" s="32">
+        <v>1190</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F22" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="G22" s="21">
-        <v>956</v>
-      </c>
-      <c r="H22" s="21">
-        <v>1096</v>
-      </c>
-      <c r="I22" s="21">
+      <c r="G22" s="32">
+        <v>839</v>
+      </c>
+      <c r="H22" s="32">
+        <v>1019</v>
+      </c>
+      <c r="I22" s="32">
         <f t="shared" si="0"/>
-        <v>129.36400541271991</v>
-      </c>
-      <c r="J22" s="21">
+        <v>70.504201680672267</v>
+      </c>
+      <c r="J22" s="32">
         <f t="shared" si="1"/>
-        <v>148.30852503382951</v>
-      </c>
-      <c r="K22" s="21">
-        <v>259</v>
-      </c>
-      <c r="L22" s="21">
-        <v>297</v>
-      </c>
-      <c r="M22" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="N22" s="21">
+        <v>85.630252100840337</v>
+      </c>
+      <c r="K22" s="32">
+        <v>263</v>
+      </c>
+      <c r="L22" s="32">
+        <v>320</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="N22" s="32">
         <f>0.64*B22</f>
-        <v>1.4591999999999998</v>
-      </c>
-      <c r="O22" s="21">
+        <v>0.4672</v>
+      </c>
+      <c r="O22" s="32">
         <f t="shared" si="2"/>
-        <v>1.1467181467181466</v>
-      </c>
-      <c r="P22" s="21">
+        <v>1.2167300380228137</v>
+      </c>
+      <c r="P22" s="32">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="Q22" s="20">
+        <v>31</v>
+      </c>
+      <c r="Q22" s="32">
         <f t="shared" si="4"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="R22" s="20">
+        <v>0.17613636363636365</v>
+      </c>
+      <c r="R22" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="32">
+        <f t="shared" si="5"/>
+        <v>247.02947443181819</v>
+      </c>
+      <c r="T22" s="32">
+        <f t="shared" si="6"/>
+        <v>300.56818181818181</v>
+      </c>
+      <c r="U22" s="32">
+        <f t="shared" si="7"/>
+        <v>21.407563025210084</v>
+      </c>
+      <c r="V22" s="32">
+        <f t="shared" si="12"/>
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="W22" s="32">
+        <f t="shared" si="8"/>
+        <v>343.03616000000005</v>
+      </c>
+      <c r="X22" s="32">
+        <f t="shared" si="13"/>
+        <v>417.38240000000002</v>
+      </c>
+      <c r="Y22" s="32">
+        <f t="shared" si="9"/>
+        <v>1.9496960000000001</v>
+      </c>
+      <c r="Z22" s="20">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="30">
-        <f t="shared" si="5"/>
-        <v>255.27395163758803</v>
-      </c>
-      <c r="T22" s="31">
-        <f t="shared" si="6"/>
-        <v>292.72727272727275</v>
-      </c>
-      <c r="U22" s="20">
-        <f t="shared" si="7"/>
-        <v>37.077131258457378</v>
-      </c>
-      <c r="V22" s="20">
-        <f t="shared" si="11"/>
-        <v>0.40960000000000002</v>
-      </c>
-      <c r="W22" s="30">
-        <f t="shared" si="8"/>
-        <v>391.48381952861956</v>
-      </c>
-      <c r="X22" s="31">
-        <f t="shared" si="12"/>
-        <v>448.92160000000001</v>
-      </c>
-      <c r="Y22" s="20">
-        <f t="shared" si="9"/>
-        <v>1.2107776000000001</v>
-      </c>
-      <c r="Z22" s="20"/>
+        <v>321.11344537815125</v>
+      </c>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
       <c r="AC22" s="20"/>
       <c r="AD22" s="20"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="B23" s="33">
-        <v>3</v>
-      </c>
-      <c r="C23" s="33">
-        <v>2470</v>
-      </c>
-      <c r="D23" s="33">
-        <v>92</v>
-      </c>
-      <c r="E23" s="33" t="s">
+      <c r="AE22" s="20"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23" s="32">
+        <v>2.1</v>
+      </c>
+      <c r="C23" s="32">
+        <v>1788</v>
+      </c>
+      <c r="D23" s="32">
+        <v>27.5</v>
+      </c>
+      <c r="E23" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="G23" s="33">
-        <v>1000</v>
-      </c>
-      <c r="H23" s="33">
-        <v>1307</v>
-      </c>
-      <c r="I23" s="33">
+      <c r="G23" s="32">
+        <v>486</v>
+      </c>
+      <c r="H23" s="32">
+        <v>1033</v>
+      </c>
+      <c r="I23" s="32">
         <f t="shared" si="0"/>
-        <v>40.48582995951417</v>
-      </c>
-      <c r="J23" s="33">
+        <v>27.181208053691275</v>
+      </c>
+      <c r="J23" s="32">
         <f t="shared" si="1"/>
-        <v>52.914979757085021</v>
-      </c>
-      <c r="K23" s="33">
-        <v>342</v>
-      </c>
-      <c r="L23" s="33">
-        <v>448</v>
-      </c>
-      <c r="M23" s="33" t="s">
+        <v>57.774049217002236</v>
+      </c>
+      <c r="K23" s="32">
+        <v>200</v>
+      </c>
+      <c r="L23" s="32">
+        <v>421</v>
+      </c>
+      <c r="M23" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="N23" s="33">
-        <v>1.95</v>
-      </c>
-      <c r="O23" s="33">
+      <c r="N23" s="32">
+        <v>1.3</v>
+      </c>
+      <c r="O23" s="32">
         <f t="shared" si="2"/>
-        <v>1.3099415204678362</v>
+        <v>2.105</v>
       </c>
       <c r="P23" s="32">
         <f t="shared" si="3"/>
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="Q23" s="32">
         <f t="shared" si="4"/>
-        <v>0.90340909090909094</v>
+        <v>0.75</v>
       </c>
       <c r="R23" s="32">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="30">
         <f t="shared" si="5"/>
-        <v>262.76329139610391</v>
-      </c>
-      <c r="T23" s="32">
+        <v>159.14489311163896</v>
+      </c>
+      <c r="T23" s="31">
         <f t="shared" si="6"/>
-        <v>344.20454545454544</v>
+        <v>335</v>
       </c>
       <c r="U23" s="32">
         <f t="shared" si="7"/>
-        <v>13.228744939271255</v>
+        <v>14.443512304250559</v>
       </c>
       <c r="V23" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
-      <c r="W23" s="32">
+      <c r="W23" s="30">
         <f t="shared" si="8"/>
-        <v>408.68022857142864</v>
-      </c>
-      <c r="X23" s="32">
-        <f t="shared" si="12"/>
-        <v>535.34720000000004</v>
+        <v>201.00560570071261</v>
+      </c>
+      <c r="X23" s="31">
+        <f t="shared" si="13"/>
+        <v>423.11680000000001</v>
       </c>
       <c r="Y23" s="32">
         <f t="shared" si="9"/>
-        <v>4.0468480000000007</v>
-      </c>
-      <c r="Z23" s="20"/>
+        <v>2.9294592000000002</v>
+      </c>
+      <c r="Z23" s="20">
+        <f t="shared" ref="Z23:Z40" si="28">1.5/Y23*X23</f>
+        <v>216.65268456375838</v>
+      </c>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
       <c r="AC23" s="20"/>
       <c r="AD23" s="20"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE23" s="20"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B24" s="21">
-        <v>2</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="C24" s="21">
-        <v>1240</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="D24" s="21">
+        <v>8</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>287</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G24" s="21">
-        <v>1510</v>
+        <v>956</v>
       </c>
       <c r="H24" s="21">
-        <v>1680</v>
+        <v>1096</v>
       </c>
       <c r="I24" s="21">
         <f t="shared" si="0"/>
-        <v>121.7741935483871</v>
+        <v>129.36400541271991</v>
       </c>
       <c r="J24" s="21">
         <f t="shared" si="1"/>
-        <v>135.48387096774192</v>
+        <v>148.30852503382951</v>
       </c>
       <c r="K24" s="21">
+        <v>259</v>
+      </c>
+      <c r="L24" s="21">
         <v>297</v>
       </c>
-      <c r="L24" s="21">
-        <v>331</v>
-      </c>
       <c r="M24" s="21" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="N24" s="21">
         <f>0.64*B24</f>
-        <v>1.28</v>
+        <v>1.4591999999999998</v>
       </c>
       <c r="O24" s="21">
         <f t="shared" si="2"/>
-        <v>1.1144781144781144</v>
+        <v>1.1467181467181466</v>
       </c>
       <c r="P24" s="21">
         <f t="shared" si="3"/>
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="Q24" s="20">
         <f t="shared" si="4"/>
-        <v>0.23863636363636365</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="R24" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S24" s="30">
         <f t="shared" si="5"/>
-        <v>273.05891238670694</v>
+        <v>255.27395163758803</v>
       </c>
       <c r="T24" s="31">
         <f t="shared" si="6"/>
-        <v>304.31818181818181</v>
+        <v>292.72727272727275</v>
       </c>
       <c r="U24" s="20">
         <f t="shared" si="7"/>
-        <v>33.87096774193548</v>
+        <v>37.077131258457378</v>
       </c>
       <c r="V24" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W24" s="30">
         <f t="shared" si="8"/>
-        <v>617.44415709969792</v>
+        <v>391.48381952861956</v>
       </c>
       <c r="X24" s="31">
-        <f t="shared" si="12"/>
-        <v>688.12800000000004</v>
+        <f t="shared" si="13"/>
+        <v>448.92160000000001</v>
       </c>
       <c r="Y24" s="20">
         <f t="shared" si="9"/>
-        <v>2.0316160000000005</v>
-      </c>
-      <c r="Z24" s="20"/>
+        <v>1.2107776000000001</v>
+      </c>
+      <c r="Z24" s="20">
+        <f t="shared" si="28"/>
+        <v>556.15696887686067</v>
+      </c>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
       <c r="AC24" s="20"/>
       <c r="AD24" s="20"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="B25" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="C25" s="21">
-        <v>1070</v>
-      </c>
-      <c r="D25" s="21">
-        <v>26.2</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="G25" s="21">
-        <v>1671</v>
-      </c>
-      <c r="H25" s="21">
-        <v>1832</v>
-      </c>
-      <c r="I25" s="21">
+      <c r="AE24" s="20"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="B25" s="33">
+        <v>3</v>
+      </c>
+      <c r="C25" s="33">
+        <v>2470</v>
+      </c>
+      <c r="D25" s="33">
+        <v>92</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="G25" s="33">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="33">
+        <v>1307</v>
+      </c>
+      <c r="I25" s="33">
         <f t="shared" si="0"/>
-        <v>156.16822429906543</v>
-      </c>
-      <c r="J25" s="21">
+        <v>40.48582995951417</v>
+      </c>
+      <c r="J25" s="33">
         <f t="shared" si="1"/>
-        <v>171.21495327102804</v>
-      </c>
-      <c r="K25" s="21">
-        <v>288</v>
-      </c>
-      <c r="L25" s="21">
-        <v>316</v>
-      </c>
-      <c r="M25" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="N25" s="21">
-        <f>0.64*B25</f>
-        <v>0.96</v>
-      </c>
-      <c r="O25" s="21">
+        <v>52.914979757085021</v>
+      </c>
+      <c r="K25" s="33">
+        <v>342</v>
+      </c>
+      <c r="L25" s="33">
+        <v>448</v>
+      </c>
+      <c r="M25" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="N25" s="33">
+        <v>1.95</v>
+      </c>
+      <c r="O25" s="33">
         <f t="shared" si="2"/>
-        <v>1.0972222222222223</v>
-      </c>
-      <c r="P25" s="21">
+        <v>1.3099415204678362</v>
+      </c>
+      <c r="P25" s="32">
         <f t="shared" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="Q25" s="20">
+        <v>159</v>
+      </c>
+      <c r="Q25" s="32">
         <f t="shared" si="4"/>
-        <v>0.15340909090909091</v>
-      </c>
-      <c r="R25" s="20">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S25" s="30">
+        <v>0.90340909090909094</v>
+      </c>
+      <c r="R25" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="32">
         <f t="shared" si="5"/>
-        <v>272.69275028768698</v>
-      </c>
-      <c r="T25" s="31">
+        <v>262.76329139610391</v>
+      </c>
+      <c r="T25" s="32">
         <f t="shared" si="6"/>
-        <v>299.20454545454544</v>
-      </c>
-      <c r="U25" s="20">
+        <v>344.20454545454544</v>
+      </c>
+      <c r="U25" s="32">
         <f t="shared" si="7"/>
-        <v>42.803738317757009</v>
-      </c>
-      <c r="V25" s="20">
-        <f t="shared" si="11"/>
+        <v>13.228744939271255</v>
+      </c>
+      <c r="V25" s="32">
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
-      <c r="W25" s="30">
+      <c r="W25" s="32">
         <f t="shared" si="8"/>
-        <v>683.89719493670884</v>
-      </c>
-      <c r="X25" s="31">
-        <f t="shared" si="12"/>
-        <v>750.38720000000001</v>
-      </c>
-      <c r="Y25" s="20">
+        <v>408.68022857142864</v>
+      </c>
+      <c r="X25" s="32">
+        <f t="shared" si="13"/>
+        <v>535.34720000000004</v>
+      </c>
+      <c r="Y25" s="32">
         <f t="shared" si="9"/>
-        <v>1.753088</v>
-      </c>
-      <c r="Z25" s="20"/>
+        <v>4.0468480000000007</v>
+      </c>
+      <c r="Z25" s="20">
+        <f t="shared" si="28"/>
+        <v>198.4311740890688</v>
+      </c>
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
       <c r="AC25" s="20"/>
       <c r="AD25" s="20"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
-        <v>293</v>
-      </c>
-      <c r="B26" s="32">
-        <v>2.4</v>
-      </c>
-      <c r="C26" s="32">
-        <v>3526</v>
-      </c>
-      <c r="D26" s="32">
-        <v>69</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="G26" s="32">
-        <v>1859</v>
-      </c>
-      <c r="H26" s="32">
-        <v>2277</v>
-      </c>
-      <c r="I26" s="32">
+      <c r="AE25" s="20"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="B26" s="21">
+        <v>2</v>
+      </c>
+      <c r="C26" s="21">
+        <v>1240</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="G26" s="21">
+        <v>1510</v>
+      </c>
+      <c r="H26" s="21">
+        <v>1680</v>
+      </c>
+      <c r="I26" s="21">
         <f t="shared" si="0"/>
-        <v>52.722631877481568</v>
-      </c>
-      <c r="J26" s="32">
+        <v>121.7741935483871</v>
+      </c>
+      <c r="J26" s="21">
         <f t="shared" si="1"/>
-        <v>64.57742484401588</v>
-      </c>
-      <c r="K26" s="32">
-        <v>365</v>
-      </c>
-      <c r="L26" s="32">
-        <v>452</v>
-      </c>
-      <c r="M26" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="N26" s="32">
-        <v>1.54</v>
-      </c>
-      <c r="O26" s="32">
+        <v>135.48387096774192</v>
+      </c>
+      <c r="K26" s="21">
+        <v>297</v>
+      </c>
+      <c r="L26" s="21">
+        <v>331</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="N26" s="21">
+        <f>0.64*B26</f>
+        <v>1.28</v>
+      </c>
+      <c r="O26" s="21">
         <f t="shared" si="2"/>
-        <v>1.2383561643835617</v>
-      </c>
-      <c r="P26" s="32">
+        <v>1.1144781144781144</v>
+      </c>
+      <c r="P26" s="21">
         <f t="shared" si="3"/>
-        <v>163</v>
-      </c>
-      <c r="Q26" s="32">
+        <v>42</v>
+      </c>
+      <c r="Q26" s="20">
         <f t="shared" si="4"/>
-        <v>0.92613636363636365</v>
-      </c>
-      <c r="R26" s="32">
-        <f t="shared" si="10"/>
+        <v>0.23863636363636365</v>
+      </c>
+      <c r="R26" s="20">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S26" s="30">
         <f t="shared" si="5"/>
-        <v>279.05395213193884</v>
+        <v>273.05891238670694</v>
       </c>
       <c r="T26" s="31">
         <f t="shared" si="6"/>
-        <v>345.56818181818181</v>
-      </c>
-      <c r="U26" s="32">
+        <v>304.31818181818181</v>
+      </c>
+      <c r="U26" s="20">
         <f t="shared" si="7"/>
-        <v>16.14435621100397</v>
-      </c>
-      <c r="V26" s="32">
-        <f t="shared" si="11"/>
+        <v>33.87096774193548</v>
+      </c>
+      <c r="V26" s="20">
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W26" s="30">
         <f t="shared" si="8"/>
-        <v>753.1429380530974</v>
+        <v>617.44415709969792</v>
       </c>
       <c r="X26" s="31">
-        <f t="shared" si="12"/>
-        <v>932.65920000000006</v>
-      </c>
-      <c r="Y26" s="32">
+        <f t="shared" si="13"/>
+        <v>688.12800000000004</v>
+      </c>
+      <c r="Y26" s="20">
         <f t="shared" si="9"/>
-        <v>5.776998400000001</v>
-      </c>
-      <c r="Z26" s="20"/>
+        <v>2.0316160000000005</v>
+      </c>
+      <c r="Z26" s="20">
+        <f t="shared" si="28"/>
+        <v>508.0645161290322</v>
+      </c>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
       <c r="AC26" s="20"/>
       <c r="AD26" s="20"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE26" s="20"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+        <v>291</v>
+      </c>
+      <c r="B27" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="C27" s="21">
+        <v>1070</v>
+      </c>
+      <c r="D27" s="21">
+        <v>26.2</v>
+      </c>
       <c r="E27" s="21" t="s">
         <v>292</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="G27" s="22"/>
+      <c r="G27" s="21">
+        <v>1671</v>
+      </c>
       <c r="H27" s="21">
-        <v>2400</v>
-      </c>
-      <c r="I27" s="21" t="e">
+        <v>1832</v>
+      </c>
+      <c r="I27" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="21" t="e">
+        <v>156.16822429906543</v>
+      </c>
+      <c r="J27" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
+        <v>171.21495327102804</v>
+      </c>
+      <c r="K27" s="21">
+        <v>288</v>
+      </c>
+      <c r="L27" s="21">
+        <v>316</v>
+      </c>
       <c r="M27" s="21" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="N27" s="21">
         <f>0.64*B27</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="21" t="e">
+        <v>0.96</v>
+      </c>
+      <c r="O27" s="21">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.0972222222222223</v>
       </c>
       <c r="P27" s="21">
         <f t="shared" si="3"/>
-        <v>-289</v>
+        <v>27</v>
       </c>
       <c r="Q27" s="20">
         <f t="shared" si="4"/>
-        <v>-1.6420454545454546</v>
+        <v>0.15340909090909091</v>
       </c>
       <c r="R27" s="20">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S27" s="30" t="e">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="30">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>272.69275028768698</v>
       </c>
       <c r="T27" s="31">
         <f t="shared" si="6"/>
-        <v>191.47727272727272</v>
-      </c>
-      <c r="U27" s="20" t="e">
+        <v>299.20454545454544</v>
+      </c>
+      <c r="U27" s="20">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>42.803738317757009</v>
       </c>
       <c r="V27" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
-      <c r="W27" s="30" t="e">
+      <c r="W27" s="30">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>683.89719493670884</v>
       </c>
       <c r="X27" s="31">
-        <f t="shared" si="12"/>
-        <v>983.04000000000008</v>
-      </c>
-      <c r="Y27" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>750.38720000000001</v>
+      </c>
+      <c r="Y27" s="20">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z27" s="20"/>
+        <v>1.753088</v>
+      </c>
+      <c r="Z27" s="20">
+        <f t="shared" si="28"/>
+        <v>642.0560747663551</v>
+      </c>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
       <c r="AC27" s="20"/>
       <c r="AD27" s="20"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE27" s="20"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B28" s="32">
-        <v>2.4300000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="C28" s="32">
-        <v>6600</v>
+        <v>3526</v>
       </c>
       <c r="D28" s="32">
         <v>69</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="F28" s="32" t="s">
         <v>275</v>
       </c>
       <c r="G28" s="32">
-        <v>2935</v>
+        <v>1859</v>
       </c>
       <c r="H28" s="32">
-        <v>3312</v>
+        <v>2277</v>
       </c>
       <c r="I28" s="32">
         <f t="shared" si="0"/>
-        <v>44.469696969696969</v>
+        <v>52.722631877481568</v>
       </c>
       <c r="J28" s="32">
         <f t="shared" si="1"/>
-        <v>50.18181818181818</v>
+        <v>64.57742484401588</v>
       </c>
       <c r="K28" s="32">
         <v>365</v>
       </c>
       <c r="L28" s="32">
-        <v>410</v>
+        <v>452</v>
       </c>
       <c r="M28" s="32" t="s">
         <v>163</v>
       </c>
       <c r="N28" s="32">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="O28" s="32">
         <f t="shared" si="2"/>
-        <v>1.1232876712328768</v>
+        <v>1.2383561643835617</v>
       </c>
       <c r="P28" s="32">
         <f t="shared" si="3"/>
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="32">
         <f t="shared" si="4"/>
-        <v>0.6875</v>
+        <v>0.92613636363636365</v>
       </c>
       <c r="R28" s="32">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="30">
         <f t="shared" si="5"/>
-        <v>294.89329268292681</v>
-      </c>
-      <c r="T28" s="32">
+        <v>279.05395213193884</v>
+      </c>
+      <c r="T28" s="31">
         <f t="shared" si="6"/>
-        <v>331.25</v>
+        <v>345.56818181818181</v>
       </c>
       <c r="U28" s="32">
         <f t="shared" si="7"/>
-        <v>12.545454545454545</v>
+        <v>16.14435621100397</v>
       </c>
       <c r="V28" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
-      <c r="W28" s="32">
+      <c r="W28" s="30">
         <f t="shared" si="8"/>
-        <v>1207.7006048780488</v>
-      </c>
-      <c r="X28" s="32">
-        <f t="shared" si="12"/>
-        <v>1356.5952</v>
+        <v>753.1429380530974</v>
+      </c>
+      <c r="X28" s="31">
+        <f t="shared" si="13"/>
+        <v>932.65920000000006</v>
       </c>
       <c r="Y28" s="32">
         <f t="shared" si="9"/>
-        <v>10.813440000000002</v>
-      </c>
-      <c r="Z28" s="20"/>
+        <v>5.776998400000001</v>
+      </c>
+      <c r="Z28" s="20">
+        <f t="shared" si="28"/>
+        <v>242.16534316505951</v>
+      </c>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
       <c r="AC28" s="20"/>
       <c r="AD28" s="20"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE28" s="20"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="B29" s="21">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="C29" s="21">
-        <v>6500</v>
-      </c>
-      <c r="D29" s="21">
-        <v>69</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="21" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="G29" s="21">
-        <v>2950</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="G29" s="22"/>
       <c r="H29" s="21">
-        <v>3400</v>
-      </c>
-      <c r="I29" s="21">
+        <v>2400</v>
+      </c>
+      <c r="I29" s="21" t="e">
         <f t="shared" si="0"/>
-        <v>45.384615384615387</v>
-      </c>
-      <c r="J29" s="21">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="21" t="e">
         <f t="shared" si="1"/>
-        <v>52.307692307692307</v>
-      </c>
-      <c r="K29" s="21">
-        <v>365</v>
-      </c>
-      <c r="L29" s="21">
-        <v>415</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
       <c r="M29" s="21" t="s">
-        <v>163</v>
+        <v>262</v>
       </c>
       <c r="N29" s="21">
-        <v>1.56</v>
-      </c>
-      <c r="O29" s="21">
+        <f>0.64*B29</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="21" t="e">
         <f t="shared" si="2"/>
-        <v>1.1369863013698631</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="P29" s="21">
         <f t="shared" si="3"/>
-        <v>126</v>
+        <v>-289</v>
       </c>
       <c r="Q29" s="20">
         <f t="shared" si="4"/>
-        <v>0.71590909090909094</v>
+        <v>-1.6420454545454546</v>
       </c>
       <c r="R29" s="20">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="30">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="30" t="e">
         <f t="shared" si="5"/>
-        <v>292.83953997809414</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="T29" s="31">
         <f t="shared" si="6"/>
-        <v>332.95454545454544</v>
-      </c>
-      <c r="U29" s="20">
+        <v>191.47727272727272</v>
+      </c>
+      <c r="U29" s="20" t="e">
         <f t="shared" si="7"/>
-        <v>13.076923076923077</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="V29" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
-      <c r="W29" s="30">
+      <c r="W29" s="30" t="e">
         <f t="shared" si="8"/>
-        <v>1224.852048192771</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="X29" s="31">
-        <f t="shared" si="12"/>
-        <v>1392.64</v>
-      </c>
-      <c r="Y29" s="20">
+        <f t="shared" si="13"/>
+        <v>983.04000000000008</v>
+      </c>
+      <c r="Y29" s="20" t="e">
         <f t="shared" si="9"/>
-        <v>10.649600000000001</v>
-      </c>
-      <c r="Z29" s="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z29" s="20" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
       <c r="AC29" s="20"/>
       <c r="AD29" s="20"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="B30" s="23">
-        <v>3.28125</v>
-      </c>
-      <c r="C30" s="23">
-        <v>8500</v>
-      </c>
-      <c r="D30" s="23">
-        <v>120</v>
-      </c>
-      <c r="E30" s="23" t="s">
+      <c r="AE29" s="20"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" s="32">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="C30" s="32">
+        <v>6600</v>
+      </c>
+      <c r="D30" s="32">
+        <v>69</v>
+      </c>
+      <c r="E30" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="F30" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="G30" s="23">
-        <v>3100</v>
-      </c>
-      <c r="H30" s="23">
-        <v>3650</v>
-      </c>
-      <c r="I30" s="23">
+      <c r="F30" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" s="32">
+        <v>2935</v>
+      </c>
+      <c r="H30" s="32">
+        <v>3312</v>
+      </c>
+      <c r="I30" s="32">
         <f t="shared" si="0"/>
-        <v>36.470588235294116</v>
-      </c>
-      <c r="J30" s="23">
+        <v>44.469696969696969</v>
+      </c>
+      <c r="J30" s="32">
         <f t="shared" si="1"/>
-        <v>42.941176470588232</v>
-      </c>
-      <c r="K30" s="23">
+        <v>50.18181818181818</v>
+      </c>
+      <c r="K30" s="32">
         <v>365</v>
       </c>
-      <c r="L30" s="23">
-        <v>450</v>
-      </c>
-      <c r="M30" s="23" t="s">
+      <c r="L30" s="32">
+        <v>410</v>
+      </c>
+      <c r="M30" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="N30" s="23">
-        <f>B30*0.64</f>
-        <v>2.1</v>
-      </c>
-      <c r="O30" s="23">
+      <c r="N30" s="32">
+        <v>1.56</v>
+      </c>
+      <c r="O30" s="32">
         <f t="shared" si="2"/>
-        <v>1.2328767123287672</v>
-      </c>
-      <c r="P30" s="21">
+        <v>1.1232876712328768</v>
+      </c>
+      <c r="P30" s="32">
         <f t="shared" si="3"/>
-        <v>161</v>
-      </c>
-      <c r="Q30" s="20">
+        <v>121</v>
+      </c>
+      <c r="Q30" s="32">
         <f t="shared" si="4"/>
-        <v>0.91477272727272729</v>
-      </c>
-      <c r="R30" s="20">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="30">
+        <v>0.6875</v>
+      </c>
+      <c r="R30" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="32">
         <f t="shared" si="5"/>
-        <v>279.74116161616161</v>
-      </c>
-      <c r="T30" s="31">
+        <v>294.89329268292681</v>
+      </c>
+      <c r="T30" s="32">
         <f t="shared" si="6"/>
-        <v>344.88636363636363</v>
-      </c>
-      <c r="U30" s="20">
+        <v>331.25</v>
+      </c>
+      <c r="U30" s="32">
         <f t="shared" si="7"/>
-        <v>10.735294117647058</v>
-      </c>
-      <c r="V30" s="20">
-        <f t="shared" si="11"/>
+        <v>12.545454545454545</v>
+      </c>
+      <c r="V30" s="32">
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
-      <c r="W30" s="30">
+      <c r="W30" s="32">
         <f t="shared" si="8"/>
-        <v>1212.6435555555554</v>
-      </c>
-      <c r="X30" s="31">
-        <f t="shared" si="12"/>
-        <v>1495.04</v>
-      </c>
-      <c r="Y30" s="20">
+        <v>1207.7006048780488</v>
+      </c>
+      <c r="X30" s="32">
+        <f t="shared" si="13"/>
+        <v>1356.5952</v>
+      </c>
+      <c r="Y30" s="32">
         <f t="shared" si="9"/>
-        <v>13.926400000000001</v>
-      </c>
-      <c r="Z30" s="20"/>
+        <v>10.813440000000002</v>
+      </c>
+      <c r="Z30" s="20">
+        <f t="shared" si="28"/>
+        <v>188.18181818181816</v>
+      </c>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
       <c r="AC30" s="20"/>
       <c r="AD30" s="20"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE30" s="20"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B31" s="21">
-        <v>3.15</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="C31" s="21">
-        <v>5480</v>
+        <v>6500</v>
       </c>
       <c r="D31" s="21">
-        <v>36.4</v>
+        <v>69</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="G31" s="21">
-        <v>3830</v>
+        <v>2950</v>
       </c>
       <c r="H31" s="21">
-        <v>4150</v>
+        <v>3400</v>
       </c>
       <c r="I31" s="21">
         <f t="shared" si="0"/>
-        <v>69.890510948905103</v>
+        <v>45.384615384615387</v>
       </c>
       <c r="J31" s="21">
         <f t="shared" si="1"/>
-        <v>75.729927007299267</v>
+        <v>52.307692307692307</v>
       </c>
       <c r="K31" s="21">
-        <v>313</v>
+        <v>365</v>
       </c>
       <c r="L31" s="21">
-        <v>339</v>
+        <v>415</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>257</v>
+        <v>163</v>
       </c>
       <c r="N31" s="21">
-        <f>0.64*B31</f>
-        <v>2.016</v>
+        <v>1.56</v>
       </c>
       <c r="O31" s="21">
         <f t="shared" si="2"/>
-        <v>1.0830670926517572</v>
+        <v>1.1369863013698631</v>
       </c>
       <c r="P31" s="21">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="Q31" s="20">
         <f t="shared" si="4"/>
-        <v>0.28409090909090912</v>
+        <v>0.71590909090909094</v>
       </c>
       <c r="R31" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S31" s="30">
         <f t="shared" si="5"/>
-        <v>283.49624564226337</v>
+        <v>292.83953997809414</v>
       </c>
       <c r="T31" s="31">
         <f t="shared" si="6"/>
-        <v>307.04545454545456</v>
+        <v>332.95454545454544</v>
       </c>
       <c r="U31" s="20">
         <f t="shared" si="7"/>
-        <v>18.932481751824817</v>
+        <v>13.076923076923077</v>
       </c>
       <c r="V31" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W31" s="30">
         <f t="shared" si="8"/>
-        <v>1569.4687905604721</v>
+        <v>1224.852048192771</v>
       </c>
       <c r="X31" s="31">
-        <f t="shared" si="12"/>
-        <v>1699.8400000000001</v>
+        <f t="shared" si="13"/>
+        <v>1392.64</v>
       </c>
       <c r="Y31" s="20">
         <f t="shared" si="9"/>
-        <v>8.9784320000000015</v>
-      </c>
-      <c r="Z31" s="20"/>
+        <v>10.649600000000001</v>
+      </c>
+      <c r="Z31" s="20">
+        <f t="shared" si="28"/>
+        <v>196.15384615384616</v>
+      </c>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
       <c r="AC31" s="20"/>
       <c r="AD31" s="20"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="B32" s="21">
-        <v>4.28</v>
-      </c>
-      <c r="C32" s="21">
-        <v>9068</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="21" t="s">
+      <c r="AE31" s="20"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="B32" s="23">
+        <v>3.28125</v>
+      </c>
+      <c r="C32" s="23">
+        <v>8500</v>
+      </c>
+      <c r="D32" s="23">
+        <v>120</v>
+      </c>
+      <c r="E32" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="G32" s="21">
-        <v>3864</v>
-      </c>
-      <c r="H32" s="21">
-        <v>5335</v>
-      </c>
-      <c r="I32" s="21">
+      <c r="G32" s="23">
+        <v>3100</v>
+      </c>
+      <c r="H32" s="23">
+        <v>3650</v>
+      </c>
+      <c r="I32" s="23">
         <f t="shared" si="0"/>
-        <v>42.611380679311864</v>
-      </c>
-      <c r="J32" s="21">
+        <v>36.470588235294116</v>
+      </c>
+      <c r="J32" s="23">
         <f t="shared" si="1"/>
-        <v>58.833259814733125</v>
-      </c>
-      <c r="K32" s="21">
-        <v>310</v>
-      </c>
-      <c r="L32" s="21">
-        <v>428</v>
-      </c>
-      <c r="M32" s="21" t="s">
+        <v>42.941176470588232</v>
+      </c>
+      <c r="K32" s="23">
+        <v>365</v>
+      </c>
+      <c r="L32" s="23">
+        <v>450</v>
+      </c>
+      <c r="M32" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="N32" s="21">
-        <f>0.64*B32</f>
-        <v>2.7392000000000003</v>
-      </c>
-      <c r="O32" s="21">
+      <c r="N32" s="23">
+        <f>B32*0.64</f>
+        <v>2.1</v>
+      </c>
+      <c r="O32" s="23">
         <f t="shared" si="2"/>
-        <v>1.3806451612903226</v>
+        <v>1.2328767123287672</v>
       </c>
       <c r="P32" s="21">
         <f t="shared" si="3"/>
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="Q32" s="20">
         <f t="shared" si="4"/>
-        <v>0.78977272727272729</v>
+        <v>0.91477272727272729</v>
       </c>
       <c r="R32" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S32" s="30">
         <f t="shared" si="5"/>
-        <v>244.36862786745965</v>
+        <v>279.74116161616161</v>
       </c>
       <c r="T32" s="31">
         <f t="shared" si="6"/>
-        <v>337.38636363636363</v>
+        <v>344.88636363636363</v>
       </c>
       <c r="U32" s="20">
         <f t="shared" si="7"/>
-        <v>14.708314953683281</v>
+        <v>10.735294117647058</v>
       </c>
       <c r="V32" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W32" s="30">
         <f t="shared" si="8"/>
-        <v>1582.7499065420561</v>
+        <v>1212.6435555555554</v>
       </c>
       <c r="X32" s="31">
-        <f t="shared" si="12"/>
-        <v>2185.2159999999999</v>
+        <f t="shared" si="13"/>
+        <v>1495.04</v>
       </c>
       <c r="Y32" s="20">
         <f t="shared" si="9"/>
-        <v>14.857011200000001</v>
-      </c>
-      <c r="Z32" s="20"/>
+        <v>13.926400000000001</v>
+      </c>
+      <c r="Z32" s="20">
+        <f t="shared" si="28"/>
+        <v>161.02941176470586</v>
+      </c>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
       <c r="AC32" s="20"/>
       <c r="AD32" s="20"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE32" s="20"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B33" s="21">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="C33" s="21">
-        <v>3370</v>
-      </c>
-      <c r="D33" s="22"/>
+        <v>5480</v>
+      </c>
+      <c r="D33" s="21">
+        <v>36.4</v>
+      </c>
       <c r="E33" s="21" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F33" s="21" t="s">
         <v>275</v>
       </c>
       <c r="G33" s="21">
-        <v>6270</v>
+        <v>3830</v>
       </c>
       <c r="H33" s="21">
-        <v>6710</v>
+        <v>4150</v>
       </c>
       <c r="I33" s="21">
         <f t="shared" si="0"/>
-        <v>186.053412462908</v>
+        <v>69.890510948905103</v>
       </c>
       <c r="J33" s="21">
         <f t="shared" si="1"/>
-        <v>199.10979228486647</v>
+        <v>75.729927007299267</v>
       </c>
       <c r="K33" s="21">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="L33" s="21">
-        <v>322</v>
-      </c>
-      <c r="M33" s="23" t="s">
-        <v>249</v>
+        <v>339</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>257</v>
       </c>
       <c r="N33" s="21">
         <f>0.64*B33</f>
-        <v>2.1760000000000002</v>
+        <v>2.016</v>
       </c>
       <c r="O33" s="21">
         <f t="shared" si="2"/>
-        <v>1.069767441860465</v>
+        <v>1.0830670926517572</v>
       </c>
       <c r="P33" s="21">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="20">
         <f t="shared" si="4"/>
-        <v>0.1875</v>
+        <v>0.28409090909090912</v>
       </c>
       <c r="R33" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S33" s="30">
         <f t="shared" si="5"/>
-        <v>281.60326086956525</v>
+        <v>283.49624564226337</v>
       </c>
       <c r="T33" s="31">
         <f t="shared" si="6"/>
-        <v>301.25</v>
+        <v>307.04545454545456</v>
       </c>
       <c r="U33" s="20">
         <f t="shared" si="7"/>
-        <v>49.777448071216618</v>
+        <v>18.932481751824817</v>
       </c>
       <c r="V33" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W33" s="30">
         <f t="shared" si="8"/>
-        <v>2569.1714782608701</v>
+        <v>1569.4687905604721</v>
       </c>
       <c r="X33" s="31">
-        <f t="shared" si="12"/>
-        <v>2748.4160000000002</v>
+        <f t="shared" si="13"/>
+        <v>1699.8400000000001</v>
       </c>
       <c r="Y33" s="20">
         <f t="shared" si="9"/>
-        <v>5.5214080000000001</v>
-      </c>
-      <c r="Z33" s="20"/>
+        <v>8.9784320000000015</v>
+      </c>
+      <c r="Z33" s="20">
+        <f t="shared" si="28"/>
+        <v>283.98722627737226</v>
+      </c>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
       <c r="AC33" s="20"/>
       <c r="AD33" s="20"/>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="B34" s="32">
-        <v>4.0026246719160099</v>
-      </c>
-      <c r="C34" s="32">
-        <v>8391</v>
-      </c>
-      <c r="D34" s="32">
-        <v>16</v>
-      </c>
-      <c r="E34" s="32" t="s">
+      <c r="AE33" s="20"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" s="21">
+        <v>4.28</v>
+      </c>
+      <c r="C34" s="21">
+        <v>9068</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="F34" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="G34" s="32">
-        <v>6770</v>
-      </c>
-      <c r="H34" s="32">
-        <v>7750</v>
-      </c>
-      <c r="I34" s="32">
+      <c r="F34" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="G34" s="21">
+        <v>3864</v>
+      </c>
+      <c r="H34" s="21">
+        <v>5335</v>
+      </c>
+      <c r="I34" s="21">
         <f t="shared" si="0"/>
-        <v>80.6816827553331</v>
-      </c>
-      <c r="J34" s="32">
-        <v>111.32477654629962</v>
-      </c>
-      <c r="K34" s="32">
-        <v>265</v>
-      </c>
-      <c r="L34" s="32">
+        <v>42.611380679311864</v>
+      </c>
+      <c r="J34" s="21">
+        <f t="shared" si="1"/>
+        <v>58.833259814733125</v>
+      </c>
+      <c r="K34" s="21">
         <v>310</v>
       </c>
-      <c r="M34" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="N34" s="32">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="O34" s="32">
+      <c r="L34" s="21">
+        <v>428</v>
+      </c>
+      <c r="M34" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="N34" s="21">
+        <f>0.64*B34</f>
+        <v>2.7392000000000003</v>
+      </c>
+      <c r="O34" s="21">
         <f t="shared" si="2"/>
-        <v>1.1698113207547169</v>
-      </c>
-      <c r="P34" s="32">
+        <v>1.3806451612903226</v>
+      </c>
+      <c r="P34" s="21">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="Q34" s="32">
+        <v>139</v>
+      </c>
+      <c r="Q34" s="20">
         <f t="shared" si="4"/>
-        <v>0.11931818181818182</v>
-      </c>
-      <c r="R34" s="32">
-        <f t="shared" si="10"/>
+        <v>0.78977272727272729</v>
+      </c>
+      <c r="R34" s="20">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S34" s="30">
         <f t="shared" si="5"/>
-        <v>254.02309384164226</v>
+        <v>244.36862786745965</v>
       </c>
       <c r="T34" s="31">
         <f t="shared" si="6"/>
-        <v>297.15909090909093</v>
-      </c>
-      <c r="U34" s="32">
+        <v>337.38636363636363</v>
+      </c>
+      <c r="U34" s="20">
         <f t="shared" si="7"/>
-        <v>27.831194136574904</v>
-      </c>
-      <c r="V34" s="32">
-        <f t="shared" si="11"/>
+        <v>14.708314953683281</v>
+      </c>
+      <c r="V34" s="20">
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W34" s="30">
         <f t="shared" si="8"/>
-        <v>2713.6000000000004</v>
+        <v>1582.7499065420561</v>
       </c>
       <c r="X34" s="31">
-        <f t="shared" si="12"/>
-        <v>3174.4</v>
-      </c>
-      <c r="Y34" s="32">
+        <f t="shared" si="13"/>
+        <v>2185.2159999999999</v>
+      </c>
+      <c r="Y34" s="20">
         <f t="shared" si="9"/>
-        <v>11.405906568084699</v>
-      </c>
-      <c r="Z34" s="20"/>
+        <v>14.857011200000001</v>
+      </c>
+      <c r="Z34" s="20">
+        <f t="shared" si="28"/>
+        <v>220.6247243052492</v>
+      </c>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
       <c r="AC34" s="20"/>
       <c r="AD34" s="20"/>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE34" s="20"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B35" s="21">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="C35" s="21">
-        <v>10750</v>
-      </c>
-      <c r="D35" s="21">
-        <v>36.869999999999997</v>
-      </c>
+        <v>3370</v>
+      </c>
+      <c r="D35" s="22"/>
       <c r="E35" s="21" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="F35" s="21" t="s">
         <v>275</v>
       </c>
       <c r="G35" s="21">
-        <v>7257</v>
+        <v>6270</v>
       </c>
       <c r="H35" s="21">
-        <v>7904</v>
+        <v>6710</v>
       </c>
       <c r="I35" s="21">
         <f t="shared" si="0"/>
-        <v>67.506976744186048</v>
+        <v>186.053412462908</v>
       </c>
       <c r="J35" s="21">
-        <f>H35*100/C35</f>
-        <v>73.525581395348837</v>
+        <f t="shared" si="1"/>
+        <v>199.10979228486647</v>
       </c>
       <c r="K35" s="21">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="L35" s="21">
-        <v>337</v>
-      </c>
-      <c r="M35" s="21" t="s">
-        <v>257</v>
+        <v>322</v>
+      </c>
+      <c r="M35" s="23" t="s">
+        <v>249</v>
       </c>
       <c r="N35" s="21">
-        <v>2.4500000000000002</v>
+        <f>0.64*B35</f>
+        <v>2.1760000000000002</v>
       </c>
       <c r="O35" s="21">
         <f t="shared" si="2"/>
-        <v>1.0906148867313916</v>
+        <v>1.069767441860465</v>
       </c>
       <c r="P35" s="21">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="Q35" s="20">
         <f t="shared" si="4"/>
-        <v>0.27272727272727271</v>
+        <v>0.1875</v>
       </c>
       <c r="R35" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S35" s="30">
         <f t="shared" si="5"/>
-        <v>280.90909090909093</v>
+        <v>281.60326086956525</v>
       </c>
       <c r="T35" s="31">
         <f t="shared" si="6"/>
-        <v>306.36363636363637</v>
+        <v>301.25</v>
       </c>
       <c r="U35" s="20">
         <f t="shared" si="7"/>
-        <v>18.381395348837209</v>
+        <v>49.777448071216618</v>
       </c>
       <c r="V35" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W35" s="30">
         <f t="shared" si="8"/>
-        <v>2968.4890967359047</v>
+        <v>2569.1714782608701</v>
       </c>
       <c r="X35" s="31">
-        <f t="shared" si="12"/>
-        <v>3237.4784</v>
+        <f t="shared" si="13"/>
+        <v>2748.4160000000002</v>
       </c>
       <c r="Y35" s="20">
         <f t="shared" si="9"/>
-        <v>17.6128</v>
-      </c>
-      <c r="Z35" s="20"/>
+        <v>5.5214080000000001</v>
+      </c>
+      <c r="Z35" s="20">
+        <f t="shared" si="28"/>
+        <v>746.66172106824934</v>
+      </c>
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
       <c r="AC35" s="20"/>
       <c r="AD35" s="20"/>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="B36" s="21">
-        <v>3</v>
-      </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="21">
-        <v>250</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="F36" s="21" t="s">
+      <c r="AE35" s="20"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="B36" s="32">
+        <v>4.0026246719160099</v>
+      </c>
+      <c r="C36" s="32">
+        <v>8391</v>
+      </c>
+      <c r="D36" s="32">
+        <v>16</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F36" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="G36" s="21">
-        <v>7050</v>
-      </c>
-      <c r="H36" s="21">
-        <v>8400</v>
-      </c>
-      <c r="I36" s="21" t="e">
+      <c r="G36" s="32">
+        <v>6770</v>
+      </c>
+      <c r="H36" s="32">
+        <v>7750</v>
+      </c>
+      <c r="I36" s="32">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="21" t="e">
-        <f>H36*100/C36</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K36" s="21">
-        <v>321</v>
-      </c>
-      <c r="L36" s="21">
-        <v>380</v>
-      </c>
-      <c r="M36" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="N36" s="21">
-        <f>0.64*B36</f>
-        <v>1.92</v>
-      </c>
-      <c r="O36" s="21">
+        <v>80.6816827553331</v>
+      </c>
+      <c r="J36" s="32">
+        <v>111.32477654629962</v>
+      </c>
+      <c r="K36" s="32">
+        <v>265</v>
+      </c>
+      <c r="L36" s="32">
+        <v>310</v>
+      </c>
+      <c r="M36" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="N36" s="32">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="O36" s="32">
         <f t="shared" si="2"/>
-        <v>1.1838006230529594</v>
-      </c>
-      <c r="P36" s="21">
+        <v>1.1698113207547169</v>
+      </c>
+      <c r="P36" s="32">
         <f t="shared" si="3"/>
-        <v>91</v>
-      </c>
-      <c r="Q36" s="20">
+        <v>21</v>
+      </c>
+      <c r="Q36" s="32">
         <f t="shared" si="4"/>
-        <v>0.51704545454545459</v>
-      </c>
-      <c r="R36" s="20">
-        <f t="shared" si="10"/>
+        <v>0.11931818181818182</v>
+      </c>
+      <c r="R36" s="32">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S36" s="30">
         <f t="shared" si="5"/>
-        <v>271.17972488038276</v>
+        <v>254.02309384164226</v>
       </c>
       <c r="T36" s="31">
         <f t="shared" si="6"/>
-        <v>321.02272727272725</v>
-      </c>
-      <c r="U36" s="20" t="e">
+        <v>297.15909090909093</v>
+      </c>
+      <c r="U36" s="32">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V36" s="20">
-        <f t="shared" si="11"/>
+        <v>27.831194136574904</v>
+      </c>
+      <c r="V36" s="32">
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W36" s="30">
         <f t="shared" si="8"/>
-        <v>2906.4353684210532</v>
+        <v>2713.6000000000004</v>
       </c>
       <c r="X36" s="31">
-        <f t="shared" si="12"/>
-        <v>3440.6400000000003</v>
-      </c>
-      <c r="Y36" s="20" t="e">
+        <f t="shared" si="13"/>
+        <v>3174.4</v>
+      </c>
+      <c r="Y36" s="32">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z36" s="20"/>
+        <v>11.405906568084699</v>
+      </c>
+      <c r="Z36" s="20">
+        <f t="shared" si="28"/>
+        <v>417.46791204862353</v>
+      </c>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
       <c r="AC36" s="20"/>
       <c r="AD36" s="20"/>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
-        <v>306</v>
-      </c>
-      <c r="B37" s="32">
-        <v>3.3187500000000001</v>
-      </c>
-      <c r="C37" s="32">
-        <v>8000</v>
-      </c>
-      <c r="D37" s="32">
-        <v>10</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="F37" s="32" t="s">
+      <c r="AE36" s="20"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="B37" s="21">
+        <v>3.8</v>
+      </c>
+      <c r="C37" s="21">
+        <v>10750</v>
+      </c>
+      <c r="D37" s="21">
+        <v>36.869999999999997</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="F37" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="G37" s="32">
-        <v>8006</v>
-      </c>
-      <c r="H37" s="32">
-        <v>10230</v>
-      </c>
-      <c r="I37" s="32">
+      <c r="G37" s="21">
+        <v>7257</v>
+      </c>
+      <c r="H37" s="21">
+        <v>7904</v>
+      </c>
+      <c r="I37" s="21">
         <f t="shared" si="0"/>
-        <v>100.075</v>
-      </c>
-      <c r="J37" s="32">
+        <v>67.506976744186048</v>
+      </c>
+      <c r="J37" s="21">
         <f>H37*100/C37</f>
-        <v>127.875</v>
-      </c>
-      <c r="K37" s="32">
-        <v>265</v>
-      </c>
-      <c r="L37" s="32">
-        <v>325</v>
-      </c>
-      <c r="M37" s="33" t="s">
+        <v>73.525581395348837</v>
+      </c>
+      <c r="K37" s="21">
+        <v>309</v>
+      </c>
+      <c r="L37" s="21">
+        <v>337</v>
+      </c>
+      <c r="M37" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="N37" s="32">
-        <v>2.125</v>
-      </c>
-      <c r="O37" s="32">
+      <c r="N37" s="21">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="O37" s="21">
         <f t="shared" si="2"/>
-        <v>1.2264150943396226</v>
-      </c>
-      <c r="P37" s="32">
+        <v>1.0906148867313916</v>
+      </c>
+      <c r="P37" s="21">
         <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="Q37" s="32">
+        <v>48</v>
+      </c>
+      <c r="Q37" s="20">
         <f t="shared" si="4"/>
-        <v>0.20454545454545456</v>
-      </c>
-      <c r="R37" s="32">
-        <f t="shared" si="10"/>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="R37" s="20">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S37" s="30">
         <f t="shared" si="5"/>
-        <v>246.46853146853147</v>
+        <v>280.90909090909093</v>
       </c>
       <c r="T37" s="31">
         <f t="shared" si="6"/>
-        <v>302.27272727272725</v>
-      </c>
-      <c r="U37" s="32">
+        <v>306.36363636363637</v>
+      </c>
+      <c r="U37" s="20">
         <f t="shared" si="7"/>
-        <v>31.96875</v>
-      </c>
-      <c r="V37" s="32">
-        <f t="shared" si="11"/>
+        <v>18.381395348837209</v>
+      </c>
+      <c r="V37" s="20">
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W37" s="30">
         <f t="shared" si="8"/>
-        <v>3416.6311384615392</v>
+        <v>2968.4890967359047</v>
       </c>
       <c r="X37" s="31">
-        <f t="shared" si="12"/>
-        <v>4190.2080000000005</v>
-      </c>
-      <c r="Y37" s="32">
+        <f t="shared" si="13"/>
+        <v>3237.4784</v>
+      </c>
+      <c r="Y37" s="20">
         <f t="shared" si="9"/>
-        <v>13.107200000000002</v>
-      </c>
-      <c r="Z37" s="20"/>
+        <v>17.6128</v>
+      </c>
+      <c r="Z37" s="20">
+        <f t="shared" si="28"/>
+        <v>275.72093023255815</v>
+      </c>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
       <c r="AC37" s="20"/>
       <c r="AD37" s="20"/>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE37" s="20"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B38" s="21">
-        <v>1.53</v>
-      </c>
-      <c r="C38" s="21">
-        <v>643</v>
+        <v>3</v>
+      </c>
+      <c r="C38" s="22">
+        <v>8000</v>
       </c>
       <c r="D38" s="21">
-        <v>8</v>
+        <v>250</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="F38" s="21" t="s">
         <v>275</v>
       </c>
       <c r="G38" s="21">
-        <v>667</v>
+        <v>7050</v>
       </c>
       <c r="H38" s="21">
-        <f>G38*1.13709677</f>
-        <v>758.4435455900001</v>
+        <v>8400</v>
       </c>
       <c r="I38" s="21">
         <f t="shared" si="0"/>
-        <v>103.73250388802488</v>
+        <v>88.125</v>
       </c>
       <c r="J38" s="21">
-        <f t="shared" ref="J38:J63" si="13">H38*100/C38</f>
-        <v>117.95389511508556</v>
+        <f>H38*100/C38</f>
+        <v>105</v>
       </c>
       <c r="K38" s="21">
-        <v>248</v>
+        <v>321</v>
       </c>
       <c r="L38" s="21">
-        <v>282</v>
+        <v>380</v>
       </c>
       <c r="M38" s="21" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N38" s="21">
-        <f t="shared" ref="N38:N63" si="14">0.64*B38</f>
-        <v>0.97920000000000007</v>
+        <f>0.64*B38</f>
+        <v>1.92</v>
       </c>
       <c r="O38" s="21">
         <f t="shared" si="2"/>
-        <v>1.1370967741935485</v>
+        <v>1.1838006230529594</v>
       </c>
       <c r="P38" s="21">
         <f t="shared" si="3"/>
-        <v>-7</v>
+        <v>91</v>
       </c>
       <c r="Q38" s="20">
         <f t="shared" si="4"/>
-        <v>-3.9772727272727272E-2</v>
+        <v>0.51704545454545459</v>
       </c>
       <c r="R38" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S38" s="30">
         <f t="shared" si="5"/>
-        <v>252.93681495809153</v>
+        <v>271.17972488038276</v>
       </c>
       <c r="T38" s="31">
         <f t="shared" si="6"/>
-        <v>287.61363636363637</v>
+        <v>321.02272727272725</v>
       </c>
       <c r="U38" s="20">
         <f t="shared" si="7"/>
-        <v>29.48847377877139</v>
+        <v>26.25</v>
       </c>
       <c r="V38" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.40960000000000002</v>
       </c>
       <c r="W38" s="30">
         <f t="shared" si="8"/>
-        <v>273.20319899244214</v>
+        <v>2906.4353684210532</v>
       </c>
       <c r="X38" s="31">
-        <f t="shared" si="12"/>
-        <v>310.65847627366406</v>
+        <f t="shared" si="13"/>
+        <v>3440.6400000000003</v>
       </c>
       <c r="Y38" s="20">
         <f t="shared" si="9"/>
-        <v>1.0534912000000001</v>
-      </c>
-      <c r="Z38" s="20"/>
+        <v>13.107200000000002</v>
+      </c>
+      <c r="Z38" s="20">
+        <f t="shared" si="28"/>
+        <v>393.74999999999994</v>
+      </c>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
       <c r="AC38" s="20"/>
       <c r="AD38" s="20"/>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21" t="e">
+      <c r="AE38" s="20"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="B39" s="32">
+        <v>3.3187500000000001</v>
+      </c>
+      <c r="C39" s="32">
+        <v>8000</v>
+      </c>
+      <c r="D39" s="32">
+        <v>10</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="G39" s="32">
+        <v>8006</v>
+      </c>
+      <c r="H39" s="32">
+        <v>10230</v>
+      </c>
+      <c r="I39" s="32">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J39" s="21" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="21" t="e">
+        <v>100.075</v>
+      </c>
+      <c r="J39" s="32">
+        <f>H39*100/C39</f>
+        <v>127.875</v>
+      </c>
+      <c r="K39" s="32">
+        <v>265</v>
+      </c>
+      <c r="L39" s="32">
+        <v>325</v>
+      </c>
+      <c r="M39" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="N39" s="32">
+        <v>2.125</v>
+      </c>
+      <c r="O39" s="32">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P39" s="21">
+        <v>1.2264150943396226</v>
+      </c>
+      <c r="P39" s="32">
         <f t="shared" si="3"/>
-        <v>-289</v>
-      </c>
-      <c r="Q39" s="20">
+        <v>36</v>
+      </c>
+      <c r="Q39" s="32">
         <f t="shared" si="4"/>
-        <v>-1.6420454545454546</v>
-      </c>
-      <c r="R39" s="20">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S39" s="30" t="e">
+        <v>0.20454545454545456</v>
+      </c>
+      <c r="R39" s="32">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="30">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>246.46853146853147</v>
       </c>
       <c r="T39" s="31">
         <f t="shared" si="6"/>
-        <v>191.47727272727272</v>
-      </c>
-      <c r="U39" s="20" t="e">
+        <v>302.27272727272725</v>
+      </c>
+      <c r="U39" s="32">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V39" s="20" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W39" s="30" t="e">
+        <v>31.96875</v>
+      </c>
+      <c r="V39" s="32">
+        <f t="shared" si="12"/>
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="W39" s="30">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X39" s="31" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y39" s="20" t="e">
+        <v>3416.6311384615392</v>
+      </c>
+      <c r="X39" s="31">
+        <f t="shared" si="13"/>
+        <v>4190.2080000000005</v>
+      </c>
+      <c r="Y39" s="32">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z39" s="20"/>
+        <v>13.107200000000002</v>
+      </c>
+      <c r="Z39" s="20">
+        <f t="shared" si="28"/>
+        <v>479.53124999999994</v>
+      </c>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
       <c r="AC39" s="20"/>
       <c r="AD39" s="20"/>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21" t="e">
+      <c r="AE39" s="20"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B40" s="21">
+        <v>1.53</v>
+      </c>
+      <c r="C40" s="21">
+        <v>643</v>
+      </c>
+      <c r="D40" s="21">
+        <v>8</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="G40" s="21">
+        <v>667</v>
+      </c>
+      <c r="H40" s="21">
+        <f>G40*1.13709677</f>
+        <v>758.4435455900001</v>
+      </c>
+      <c r="I40" s="21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J40" s="21" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
+        <v>103.73250388802488</v>
+      </c>
+      <c r="J40" s="21">
+        <f t="shared" ref="J40:J65" si="29">H40*100/C40</f>
+        <v>117.95389511508556</v>
+      </c>
+      <c r="K40" s="21">
+        <v>248</v>
+      </c>
+      <c r="L40" s="21">
+        <v>282</v>
+      </c>
+      <c r="M40" s="21" t="s">
+        <v>257</v>
+      </c>
       <c r="N40" s="21">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O40" s="21" t="e">
+        <f t="shared" ref="N40:N65" si="30">0.64*B40</f>
+        <v>0.97920000000000007</v>
+      </c>
+      <c r="O40" s="21">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1.1370967741935485</v>
       </c>
       <c r="P40" s="21">
         <f t="shared" si="3"/>
-        <v>-289</v>
+        <v>-7</v>
       </c>
       <c r="Q40" s="20">
         <f t="shared" si="4"/>
-        <v>-1.6420454545454546</v>
+        <v>-3.9772727272727272E-2</v>
       </c>
       <c r="R40" s="20">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="S40" s="30" t="e">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="30">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>252.93681495809153</v>
       </c>
       <c r="T40" s="31">
         <f t="shared" si="6"/>
-        <v>191.47727272727272</v>
-      </c>
-      <c r="U40" s="20" t="e">
+        <v>287.61363636363637</v>
+      </c>
+      <c r="U40" s="20">
         <f t="shared" si="7"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V40" s="20" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W40" s="30" t="e">
+        <v>29.48847377877139</v>
+      </c>
+      <c r="V40" s="20">
+        <f t="shared" si="12"/>
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="W40" s="30">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X40" s="31" t="e">
-        <f t="shared" si="12"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y40" s="20" t="e">
+        <v>273.20319899244214</v>
+      </c>
+      <c r="X40" s="31">
+        <f t="shared" si="13"/>
+        <v>310.65847627366406</v>
+      </c>
+      <c r="Y40" s="20">
         <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z40" s="20"/>
+        <v>1.0534912000000001</v>
+      </c>
+      <c r="Z40" s="20">
+        <f t="shared" si="28"/>
+        <v>442.32710668157085</v>
+      </c>
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
       <c r="AC40" s="20"/>
       <c r="AD40" s="20"/>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE40" s="20"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -43256,14 +43481,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J41" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K41" s="21"/>
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
       <c r="N41" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O41" s="21" t="e">
@@ -43279,7 +43504,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R41" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S41" s="30" t="e">
@@ -43295,7 +43520,7 @@
         <v>#N/A</v>
       </c>
       <c r="V41" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W41" s="30" t="e">
@@ -43303,20 +43528,20 @@
         <v>#N/A</v>
       </c>
       <c r="X41" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y41" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
       <c r="AC41" s="20"/>
       <c r="AD41" s="20"/>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE41" s="20"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -43330,14 +43555,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J42" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
       <c r="N42" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O42" s="21" t="e">
@@ -43353,7 +43578,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R42" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S42" s="30" t="e">
@@ -43369,7 +43594,7 @@
         <v>#N/A</v>
       </c>
       <c r="V42" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W42" s="30" t="e">
@@ -43377,20 +43602,20 @@
         <v>#N/A</v>
       </c>
       <c r="X42" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y42" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
       <c r="AC42" s="20"/>
       <c r="AD42" s="20"/>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE42" s="20"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="21"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -43404,14 +43629,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J43" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K43" s="21"/>
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
       <c r="N43" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O43" s="21" t="e">
@@ -43427,7 +43652,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R43" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S43" s="30" t="e">
@@ -43443,7 +43668,7 @@
         <v>#N/A</v>
       </c>
       <c r="V43" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W43" s="30" t="e">
@@ -43451,20 +43676,20 @@
         <v>#N/A</v>
       </c>
       <c r="X43" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y43" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
       <c r="AC43" s="20"/>
       <c r="AD43" s="20"/>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE43" s="20"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
@@ -43478,14 +43703,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J44" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
       <c r="N44" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O44" s="21" t="e">
@@ -43501,7 +43726,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R44" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S44" s="30" t="e">
@@ -43517,7 +43742,7 @@
         <v>#N/A</v>
       </c>
       <c r="V44" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W44" s="30" t="e">
@@ -43525,20 +43750,20 @@
         <v>#N/A</v>
       </c>
       <c r="X44" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y44" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
       <c r="AC44" s="20"/>
       <c r="AD44" s="20"/>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE44" s="20"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
@@ -43552,14 +43777,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J45" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
       <c r="N45" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O45" s="21" t="e">
@@ -43575,7 +43800,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R45" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S45" s="30" t="e">
@@ -43591,7 +43816,7 @@
         <v>#N/A</v>
       </c>
       <c r="V45" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W45" s="30" t="e">
@@ -43599,20 +43824,20 @@
         <v>#N/A</v>
       </c>
       <c r="X45" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y45" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
       <c r="AC45" s="20"/>
       <c r="AD45" s="20"/>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE45" s="20"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="21"/>
       <c r="B46" s="21"/>
       <c r="C46" s="21"/>
@@ -43626,14 +43851,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J46" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
       <c r="N46" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O46" s="21" t="e">
@@ -43649,7 +43874,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R46" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S46" s="30" t="e">
@@ -43665,7 +43890,7 @@
         <v>#N/A</v>
       </c>
       <c r="V46" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W46" s="30" t="e">
@@ -43673,20 +43898,20 @@
         <v>#N/A</v>
       </c>
       <c r="X46" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y46" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
       <c r="AC46" s="20"/>
       <c r="AD46" s="20"/>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE46" s="20"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="21"/>
@@ -43700,14 +43925,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J47" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K47" s="21"/>
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
       <c r="N47" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O47" s="21" t="e">
@@ -43723,7 +43948,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R47" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S47" s="30" t="e">
@@ -43739,7 +43964,7 @@
         <v>#N/A</v>
       </c>
       <c r="V47" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W47" s="30" t="e">
@@ -43747,20 +43972,20 @@
         <v>#N/A</v>
       </c>
       <c r="X47" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y47" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
       <c r="AC47" s="20"/>
       <c r="AD47" s="20"/>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE47" s="20"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="21"/>
@@ -43774,14 +43999,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J48" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K48" s="21"/>
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
       <c r="N48" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O48" s="21" t="e">
@@ -43797,7 +44022,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R48" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S48" s="30" t="e">
@@ -43813,7 +44038,7 @@
         <v>#N/A</v>
       </c>
       <c r="V48" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W48" s="30" t="e">
@@ -43821,20 +44046,20 @@
         <v>#N/A</v>
       </c>
       <c r="X48" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y48" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
       <c r="AC48" s="20"/>
       <c r="AD48" s="20"/>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE48" s="20"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="21"/>
       <c r="B49" s="21"/>
       <c r="C49" s="21"/>
@@ -43848,14 +44073,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J49" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K49" s="21"/>
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
       <c r="N49" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O49" s="21" t="e">
@@ -43871,7 +44096,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R49" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S49" s="30" t="e">
@@ -43887,7 +44112,7 @@
         <v>#N/A</v>
       </c>
       <c r="V49" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W49" s="30" t="e">
@@ -43895,20 +44120,20 @@
         <v>#N/A</v>
       </c>
       <c r="X49" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y49" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
       <c r="AC49" s="20"/>
       <c r="AD49" s="20"/>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE49" s="20"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="21"/>
       <c r="B50" s="21"/>
       <c r="C50" s="21"/>
@@ -43922,14 +44147,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J50" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
       <c r="N50" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O50" s="21" t="e">
@@ -43945,7 +44170,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R50" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S50" s="30" t="e">
@@ -43961,7 +44186,7 @@
         <v>#N/A</v>
       </c>
       <c r="V50" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W50" s="30" t="e">
@@ -43969,20 +44194,20 @@
         <v>#N/A</v>
       </c>
       <c r="X50" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y50" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
       <c r="AC50" s="20"/>
       <c r="AD50" s="20"/>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE50" s="20"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="21"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -43996,14 +44221,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J51" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
       <c r="M51" s="21"/>
       <c r="N51" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O51" s="21" t="e">
@@ -44019,7 +44244,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R51" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S51" s="30" t="e">
@@ -44035,7 +44260,7 @@
         <v>#N/A</v>
       </c>
       <c r="V51" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W51" s="30" t="e">
@@ -44043,20 +44268,20 @@
         <v>#N/A</v>
       </c>
       <c r="X51" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y51" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
       <c r="AC51" s="20"/>
       <c r="AD51" s="20"/>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE51" s="20"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="21"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -44070,14 +44295,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J52" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K52" s="21"/>
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
       <c r="N52" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O52" s="21" t="e">
@@ -44093,7 +44318,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R52" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S52" s="30" t="e">
@@ -44109,7 +44334,7 @@
         <v>#N/A</v>
       </c>
       <c r="V52" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W52" s="30" t="e">
@@ -44117,20 +44342,20 @@
         <v>#N/A</v>
       </c>
       <c r="X52" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y52" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
       <c r="AC52" s="20"/>
       <c r="AD52" s="20"/>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE52" s="20"/>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="21"/>
@@ -44144,14 +44369,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J53" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K53" s="21"/>
       <c r="L53" s="21"/>
       <c r="M53" s="21"/>
       <c r="N53" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O53" s="21" t="e">
@@ -44167,7 +44392,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R53" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S53" s="30" t="e">
@@ -44183,7 +44408,7 @@
         <v>#N/A</v>
       </c>
       <c r="V53" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W53" s="30" t="e">
@@ -44191,20 +44416,20 @@
         <v>#N/A</v>
       </c>
       <c r="X53" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y53" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z53" s="20"/>
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
       <c r="AC53" s="20"/>
       <c r="AD53" s="20"/>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE53" s="20"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="21"/>
@@ -44218,14 +44443,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J54" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K54" s="21"/>
       <c r="L54" s="21"/>
       <c r="M54" s="21"/>
       <c r="N54" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O54" s="21" t="e">
@@ -44241,7 +44466,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R54" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S54" s="30" t="e">
@@ -44257,7 +44482,7 @@
         <v>#N/A</v>
       </c>
       <c r="V54" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W54" s="30" t="e">
@@ -44265,20 +44490,20 @@
         <v>#N/A</v>
       </c>
       <c r="X54" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y54" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z54" s="20"/>
       <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
       <c r="AC54" s="20"/>
       <c r="AD54" s="20"/>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE54" s="20"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="21"/>
@@ -44292,14 +44517,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J55" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K55" s="21"/>
       <c r="L55" s="21"/>
       <c r="M55" s="21"/>
       <c r="N55" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O55" s="21" t="e">
@@ -44315,7 +44540,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R55" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S55" s="30" t="e">
@@ -44331,7 +44556,7 @@
         <v>#N/A</v>
       </c>
       <c r="V55" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W55" s="30" t="e">
@@ -44339,20 +44564,20 @@
         <v>#N/A</v>
       </c>
       <c r="X55" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y55" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z55" s="20"/>
       <c r="AA55" s="20"/>
       <c r="AB55" s="20"/>
       <c r="AC55" s="20"/>
       <c r="AD55" s="20"/>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE55" s="20"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="21"/>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -44366,14 +44591,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J56" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K56" s="21"/>
       <c r="L56" s="21"/>
       <c r="M56" s="21"/>
       <c r="N56" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O56" s="21" t="e">
@@ -44389,7 +44614,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R56" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S56" s="30" t="e">
@@ -44405,7 +44630,7 @@
         <v>#N/A</v>
       </c>
       <c r="V56" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W56" s="30" t="e">
@@ -44413,20 +44638,20 @@
         <v>#N/A</v>
       </c>
       <c r="X56" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y56" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
       <c r="AC56" s="20"/>
       <c r="AD56" s="20"/>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE56" s="20"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="21"/>
       <c r="B57" s="21"/>
       <c r="C57" s="21"/>
@@ -44440,14 +44665,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J57" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K57" s="21"/>
       <c r="L57" s="21"/>
       <c r="M57" s="21"/>
       <c r="N57" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O57" s="21" t="e">
@@ -44463,7 +44688,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R57" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S57" s="30" t="e">
@@ -44479,7 +44704,7 @@
         <v>#N/A</v>
       </c>
       <c r="V57" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W57" s="30" t="e">
@@ -44487,20 +44712,20 @@
         <v>#N/A</v>
       </c>
       <c r="X57" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y57" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
       <c r="AC57" s="20"/>
       <c r="AD57" s="20"/>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE57" s="20"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="21"/>
@@ -44514,14 +44739,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J58" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K58" s="21"/>
       <c r="L58" s="21"/>
       <c r="M58" s="21"/>
       <c r="N58" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O58" s="21" t="e">
@@ -44537,7 +44762,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R58" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S58" s="30" t="e">
@@ -44553,7 +44778,7 @@
         <v>#N/A</v>
       </c>
       <c r="V58" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W58" s="30" t="e">
@@ -44561,20 +44786,20 @@
         <v>#N/A</v>
       </c>
       <c r="X58" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y58" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
       <c r="AC58" s="20"/>
       <c r="AD58" s="20"/>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE58" s="20"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="21"/>
@@ -44588,14 +44813,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J59" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K59" s="21"/>
       <c r="L59" s="21"/>
       <c r="M59" s="21"/>
       <c r="N59" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O59" s="21" t="e">
@@ -44611,7 +44836,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R59" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S59" s="30" t="e">
@@ -44627,7 +44852,7 @@
         <v>#N/A</v>
       </c>
       <c r="V59" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W59" s="30" t="e">
@@ -44635,20 +44860,20 @@
         <v>#N/A</v>
       </c>
       <c r="X59" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y59" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20"/>
       <c r="AC59" s="20"/>
       <c r="AD59" s="20"/>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE59" s="20"/>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="21"/>
       <c r="B60" s="21"/>
       <c r="C60" s="21"/>
@@ -44662,14 +44887,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J60" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K60" s="21"/>
       <c r="L60" s="21"/>
       <c r="M60" s="21"/>
       <c r="N60" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O60" s="21" t="e">
@@ -44685,7 +44910,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R60" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S60" s="30" t="e">
@@ -44701,7 +44926,7 @@
         <v>#N/A</v>
       </c>
       <c r="V60" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W60" s="30" t="e">
@@ -44709,20 +44934,20 @@
         <v>#N/A</v>
       </c>
       <c r="X60" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y60" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
       <c r="AC60" s="20"/>
       <c r="AD60" s="20"/>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE60" s="20"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="21"/>
       <c r="B61" s="21"/>
       <c r="C61" s="21"/>
@@ -44736,14 +44961,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J61" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
       <c r="M61" s="21"/>
       <c r="N61" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O61" s="21" t="e">
@@ -44759,7 +44984,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R61" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S61" s="30" t="e">
@@ -44775,7 +45000,7 @@
         <v>#N/A</v>
       </c>
       <c r="V61" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W61" s="30" t="e">
@@ -44783,20 +45008,20 @@
         <v>#N/A</v>
       </c>
       <c r="X61" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y61" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20"/>
       <c r="AC61" s="20"/>
       <c r="AD61" s="20"/>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE61" s="20"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="21"/>
       <c r="B62" s="21"/>
       <c r="C62" s="21"/>
@@ -44810,14 +45035,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J62" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K62" s="21"/>
       <c r="L62" s="21"/>
       <c r="M62" s="21"/>
       <c r="N62" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O62" s="21" t="e">
@@ -44833,7 +45058,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R62" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S62" s="30" t="e">
@@ -44849,7 +45074,7 @@
         <v>#N/A</v>
       </c>
       <c r="V62" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W62" s="30" t="e">
@@ -44857,20 +45082,20 @@
         <v>#N/A</v>
       </c>
       <c r="X62" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y62" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
       <c r="AC62" s="20"/>
       <c r="AD62" s="20"/>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE62" s="20"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="21"/>
       <c r="B63" s="21"/>
       <c r="C63" s="21"/>
@@ -44884,14 +45109,14 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J63" s="21" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K63" s="21"/>
       <c r="L63" s="21"/>
       <c r="M63" s="21"/>
       <c r="N63" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O63" s="21" t="e">
@@ -44907,7 +45132,7 @@
         <v>-1.6420454545454546</v>
       </c>
       <c r="R63" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S63" s="30" t="e">
@@ -44923,7 +45148,7 @@
         <v>#N/A</v>
       </c>
       <c r="V63" s="20" t="e">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>#N/A</v>
       </c>
       <c r="W63" s="30" t="e">
@@ -44931,18 +45156,166 @@
         <v>#N/A</v>
       </c>
       <c r="X63" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#N/A</v>
       </c>
       <c r="Y63" s="20" t="e">
         <f t="shared" si="9"/>
         <v>#N/A</v>
       </c>
-      <c r="Z63" s="20"/>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20"/>
       <c r="AC63" s="20"/>
       <c r="AD63" s="20"/>
+      <c r="AE63" s="20"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J64" s="21" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P64" s="21">
+        <f t="shared" si="3"/>
+        <v>-289</v>
+      </c>
+      <c r="Q64" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.6420454545454546</v>
+      </c>
+      <c r="R64" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S64" s="30" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T64" s="31">
+        <f t="shared" si="6"/>
+        <v>191.47727272727272</v>
+      </c>
+      <c r="U64" s="20" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V64" s="20" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W64" s="30" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X64" s="31" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y64" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA64" s="20"/>
+      <c r="AB64" s="20"/>
+      <c r="AC64" s="20"/>
+      <c r="AD64" s="20"/>
+      <c r="AE64" s="20"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J65" s="21" t="e">
+        <f t="shared" si="29"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="21" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P65" s="21">
+        <f t="shared" si="3"/>
+        <v>-289</v>
+      </c>
+      <c r="Q65" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.6420454545454546</v>
+      </c>
+      <c r="R65" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="30" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T65" s="31">
+        <f t="shared" si="6"/>
+        <v>191.47727272727272</v>
+      </c>
+      <c r="U65" s="20" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V65" s="20" t="e">
+        <f t="shared" si="12"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W65" s="30" t="e">
+        <f t="shared" si="8"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X65" s="31" t="e">
+        <f t="shared" si="13"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y65" s="20" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA65" s="20"/>
+      <c r="AB65" s="20"/>
+      <c r="AC65" s="20"/>
+      <c r="AD65" s="20"/>
+      <c r="AE65" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44954,7 +45327,7 @@
   <dimension ref="A1:Q234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50803,18 +51176,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AC9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/GameData/SSTU/Parts/Parts-MassCalc.xlsx
+++ b/GameData/SSTU/Parts/Parts-MassCalc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="parts" sheetId="1" r:id="rId1"/>
@@ -1557,13 +1557,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1578,26 +1590,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1905,9 +1905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S61" sqref="S61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7513,7 +7513,7 @@
         <v>64</v>
       </c>
       <c r="B59" s="6">
-        <v>1.6</v>
+        <v>0.68</v>
       </c>
       <c r="C59" s="6">
         <v>37</v>
@@ -7546,7 +7546,7 @@
       </c>
       <c r="L59" s="4">
         <f t="shared" si="14"/>
-        <v>6.317499999999999</v>
+        <v>5.3974999999999991</v>
       </c>
       <c r="M59" s="4">
         <f>IFERROR(VLOOKUP(I59,FuelTypes!$A$1:$B$32,2,FALSE)*J59,0)</f>
@@ -7554,11 +7554,11 @@
       </c>
       <c r="N59" s="4">
         <f t="shared" si="17"/>
-        <v>37.767499999999998</v>
+        <v>36.847499999999997</v>
       </c>
       <c r="O59" s="4">
         <f t="shared" si="15"/>
-        <v>0.83272655060567946</v>
+        <v>0.85351787773933108</v>
       </c>
       <c r="P59" s="4">
         <f>VLOOKUP(I59, FuelTypes!$A$1:$R$12,17,FALSE)*J59</f>
@@ -7570,11 +7570,11 @@
       </c>
       <c r="R59" s="4">
         <f t="shared" si="3"/>
-        <v>0.17872509432713313</v>
+        <v>0.18318746183594548</v>
       </c>
       <c r="S59" s="4">
         <f t="shared" si="4"/>
-        <v>1.0295185185185185</v>
+        <v>0.87959259259259248</v>
       </c>
       <c r="T59" s="4">
         <f t="shared" si="5"/>
@@ -7602,7 +7602,7 @@
       </c>
       <c r="AC59" s="3">
         <f t="shared" si="7"/>
-        <v>0.83272655060567946</v>
+        <v>0.85351787773933108</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
@@ -7610,7 +7610,8 @@
         <v>65</v>
       </c>
       <c r="B60" s="6">
-        <v>6.4</v>
+        <f>4*0.68</f>
+        <v>2.72</v>
       </c>
       <c r="C60" s="6">
         <v>102</v>
@@ -7643,7 +7644,7 @@
       </c>
       <c r="L60" s="4">
         <f t="shared" si="14"/>
-        <v>19.405000000000001</v>
+        <v>15.725000000000001</v>
       </c>
       <c r="M60" s="4">
         <f>IFERROR(VLOOKUP(I60,FuelTypes!$A$1:$B$32,2,FALSE)*J60,0)</f>
@@ -7651,11 +7652,11 @@
       </c>
       <c r="N60" s="4">
         <f t="shared" si="17"/>
-        <v>106.105</v>
+        <v>102.42500000000001</v>
       </c>
       <c r="O60" s="4">
         <f t="shared" si="15"/>
-        <v>0.81711512181329815</v>
+        <v>0.84647302904564303</v>
       </c>
       <c r="P60" s="4">
         <f>VLOOKUP(I60, FuelTypes!$A$1:$R$12,17,FALSE)*J60</f>
@@ -7667,11 +7668,11 @@
       </c>
       <c r="R60" s="4">
         <f t="shared" si="3"/>
-        <v>0.2544649168276707</v>
+        <v>0.26360751769587498</v>
       </c>
       <c r="S60" s="4">
         <f t="shared" si="4"/>
-        <v>1.7967592592592592</v>
+        <v>1.4560185185185186</v>
       </c>
       <c r="T60" s="4">
         <f t="shared" si="5"/>
@@ -7699,7 +7700,7 @@
       </c>
       <c r="AC60" s="3">
         <f t="shared" si="7"/>
-        <v>0.81711512181329815</v>
+        <v>0.84647302904564303</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
@@ -7707,7 +7708,8 @@
         <v>171</v>
       </c>
       <c r="B61" s="6">
-        <v>4</v>
+        <f>0.45*4</f>
+        <v>1.8</v>
       </c>
       <c r="C61" s="18">
         <v>102</v>
@@ -7722,8 +7724,8 @@
         <v>455</v>
       </c>
       <c r="G61" s="6">
-        <f>67*4</f>
-        <v>268</v>
+        <f>45*4</f>
+        <v>180</v>
       </c>
       <c r="H61" s="6">
         <v>60</v>
@@ -7741,7 +7743,7 @@
       </c>
       <c r="L61" s="4">
         <f t="shared" si="14"/>
-        <v>7.7119521250000007</v>
+        <v>5.5119521250000005</v>
       </c>
       <c r="M61" s="4">
         <f>IFERROR(VLOOKUP(I61,FuelTypes!$A$1:$B$32,2,FALSE)*J61,0)</f>
@@ -7749,11 +7751,11 @@
       </c>
       <c r="N61" s="4">
         <f t="shared" si="17"/>
-        <v>32.458299625000009</v>
+        <v>30.258299625000006</v>
       </c>
       <c r="O61" s="4">
         <f t="shared" si="15"/>
-        <v>0.76240430909510404</v>
+        <v>0.8178366863534553</v>
       </c>
       <c r="P61" s="4">
         <f>VLOOKUP(I61, FuelTypes!$A$1:$R$12,17,FALSE)*J61</f>
@@ -7765,19 +7767,19 @@
       </c>
       <c r="R61" s="4">
         <f t="shared" si="3"/>
-        <v>0.82567479842222302</v>
+        <v>0.59487810693526355</v>
       </c>
       <c r="S61" s="4">
         <f t="shared" si="4"/>
-        <v>1.7265564458955227</v>
+        <v>1.837317375</v>
       </c>
       <c r="T61" s="4">
         <f t="shared" si="5"/>
-        <v>6.0041894904280226E-2</v>
+        <v>4.0326645831232986E-2</v>
       </c>
       <c r="U61" s="4">
         <f t="shared" si="12"/>
-        <v>412.15134098367548</v>
+        <v>613.64755213125011</v>
       </c>
       <c r="W61" s="3">
         <f>IFERROR(VLOOKUP(I61,FuelTypes!$A$2:$G$40,5,FALSE)*M61,0)</f>
@@ -7797,7 +7799,7 @@
       </c>
       <c r="AC61" s="3">
         <f t="shared" si="7"/>
-        <v>0.76240430909510404</v>
+        <v>0.8178366863534553</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
@@ -7805,7 +7807,7 @@
         <v>167</v>
       </c>
       <c r="B62" s="6">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="C62" s="18">
         <v>37</v>
@@ -7820,7 +7822,7 @@
         <v>455</v>
       </c>
       <c r="G62" s="6">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H62" s="6">
         <v>35</v>
@@ -7838,7 +7840,7 @@
       </c>
       <c r="L62" s="4">
         <f t="shared" si="14"/>
-        <v>2.3464924375000002</v>
+        <v>1.7964924375</v>
       </c>
       <c r="M62" s="4">
         <f>IFERROR(VLOOKUP(I62,FuelTypes!$A$1:$B$32,2,FALSE)*J62,0)</f>
@@ -7846,11 +7848,11 @@
       </c>
       <c r="N62" s="4">
         <f t="shared" si="17"/>
-        <v>11.323108687500001</v>
+        <v>10.773108687500001</v>
       </c>
       <c r="O62" s="4">
         <f t="shared" si="15"/>
-        <v>0.79276959161485572</v>
+        <v>0.83324289305792831</v>
       </c>
       <c r="P62" s="4">
         <f>VLOOKUP(I62, FuelTypes!$A$1:$R$12,17,FALSE)*J62</f>
@@ -7862,19 +7864,19 @@
       </c>
       <c r="R62" s="4">
         <f t="shared" si="3"/>
-        <v>0.5917102966075366</v>
+        <v>0.4177067298338254</v>
       </c>
       <c r="S62" s="4">
         <f t="shared" si="4"/>
-        <v>1.2257796315298508</v>
+        <v>1.3972718958333334</v>
       </c>
       <c r="T62" s="4">
         <f t="shared" si="5"/>
-        <v>1.5010473726070056E-2</v>
+        <v>1.0081661457808247E-2</v>
       </c>
       <c r="U62" s="4">
         <f t="shared" si="12"/>
-        <v>598.02351436847027</v>
+        <v>890.39056583750016</v>
       </c>
       <c r="W62" s="3">
         <f>IFERROR(VLOOKUP(I62,FuelTypes!$A$2:$G$40,5,FALSE)*M62,0)</f>
@@ -7894,7 +7896,7 @@
       </c>
       <c r="AC62" s="3">
         <f t="shared" si="7"/>
-        <v>0.79276959161485572</v>
+        <v>0.83324289305792831</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
@@ -27828,45 +27830,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="12"/>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
       <c r="P1" s="12"/>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
       <c r="X1" s="12"/>
-      <c r="Y1" s="46" t="s">
+      <c r="Y1" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
       <c r="AF1" s="12"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -29577,270 +29579,270 @@
       <c r="A20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="47">
         <f>E19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
       <c r="H20" s="12"/>
       <c r="I20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="43">
+      <c r="J20" s="47">
         <f>M19</f>
         <v>0</v>
       </c>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="45"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="49"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R20" s="43">
+      <c r="R20" s="47">
         <f>U19</f>
         <v>0</v>
       </c>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="45"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="49"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z20" s="43">
+      <c r="Z20" s="47">
         <f>AC19</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="45"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="49"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="47">
         <f>C19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="12"/>
       <c r="I21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="43">
+      <c r="J21" s="47">
         <f>K19</f>
         <v>0</v>
       </c>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="45"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="49"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R21" s="43">
+      <c r="R21" s="47">
         <f>S19</f>
         <v>0</v>
       </c>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="45"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="49"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z21" s="43">
+      <c r="Z21" s="47">
         <f>AA19</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="45"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="49"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="47">
         <f>IFERROR((G19/10/B20),0)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="12"/>
       <c r="I22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="43">
+      <c r="J22" s="47">
         <f>IFERROR((O19/10/J20),0)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="45"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="49"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R22" s="43">
+      <c r="R22" s="47">
         <f>IFERROR((W19/10/R20),0)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="45"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="49"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z22" s="43">
+      <c r="Z22" s="47">
         <f>IFERROR((AE19/10/Z20),0)</f>
         <v>0</v>
       </c>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="45"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="49"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="47">
         <f>IFERROR((9.82 * F19) * LN(B20/C19),0)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="12"/>
       <c r="I23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="43">
+      <c r="J23" s="47">
         <f>IFERROR((9.82 * N19) * LN(J20/K19),0)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="45"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="49"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R23" s="43">
+      <c r="R23" s="47">
         <f>IFERROR((9.82 * V19) * LN(R20/S19),0)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="45"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="49"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z23" s="43">
+      <c r="Z23" s="47">
         <f>IFERROR((9.82 * AD19) * LN(Z20/AA19),0)</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="45"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="49"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="40">
+      <c r="B24" s="51">
         <f>B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
       <c r="H24" s="12"/>
       <c r="I24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="51">
         <f>J23</f>
         <v>0</v>
       </c>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="42"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="53"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R24" s="40">
+      <c r="R24" s="51">
         <f>R23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="42"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="53"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z24" s="40">
+      <c r="Z24" s="51">
         <f>Z23</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="42"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="53"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -29976,7 +29978,7 @@
       </c>
       <c r="C27" s="4">
         <f>IFERROR(VLOOKUP(A27,parts!$A$2:$Z$300,12,FALSE)*B27,0)</f>
-        <v>2.3464924375000002</v>
+        <v>1.7964924375</v>
       </c>
       <c r="D27" s="4">
         <f>IFERROR(VLOOKUP(A27,parts!$A$2:$Z$300,13,FALSE)*B27,0)</f>
@@ -29984,7 +29986,7 @@
       </c>
       <c r="E27" s="4">
         <f>IFERROR(VLOOKUP(A27,parts!$A$2:$Z$300,14,FALSE)*B27,0)</f>
-        <v>11.323108687500001</v>
+        <v>10.773108687500001</v>
       </c>
       <c r="F27" s="4">
         <f>IFERROR(VLOOKUP(A27,parts!$A$2:$Z$300,6,FALSE),0)</f>
@@ -29992,7 +29994,7 @@
       </c>
       <c r="G27" s="4">
         <f>IFERROR(VLOOKUP(A27,parts!$A$2:$Z$300,7,FALSE)*B27,0)</f>
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="11"/>
@@ -31473,7 +31475,7 @@
       </c>
       <c r="C43" s="4">
         <f>SUM(C27:C41)</f>
-        <v>2.3464924375000002</v>
+        <v>1.7964924375</v>
       </c>
       <c r="D43" s="4">
         <f>SUM(D27:D41)</f>
@@ -31481,7 +31483,7 @@
       </c>
       <c r="E43" s="4">
         <f>SUM(E27:E41)</f>
-        <v>11.323108687500001</v>
+        <v>10.773108687500001</v>
       </c>
       <c r="F43" s="4">
         <f>LARGE(F27:F41,1)</f>
@@ -31489,7 +31491,7 @@
       </c>
       <c r="G43" s="10">
         <f>SUM(G27:G41)</f>
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="16" t="s">
@@ -31581,270 +31583,270 @@
       <c r="A44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="47">
         <f>E43+B20</f>
-        <v>11.323108687500001</v>
-      </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
+        <v>10.773108687500001</v>
+      </c>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49"/>
       <c r="H44" s="12"/>
       <c r="I44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J44" s="43">
+      <c r="J44" s="47">
         <f>M43+J20</f>
         <v>0</v>
       </c>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="45"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="49"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R44" s="43">
+      <c r="R44" s="47">
         <f>U43+R20</f>
         <v>0</v>
       </c>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="45"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="48"/>
+      <c r="W44" s="49"/>
       <c r="X44" s="12"/>
       <c r="Y44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z44" s="43">
+      <c r="Z44" s="47">
         <f>AC43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="44"/>
-      <c r="AB44" s="44"/>
-      <c r="AC44" s="44"/>
-      <c r="AD44" s="44"/>
-      <c r="AE44" s="45"/>
+      <c r="AA44" s="48"/>
+      <c r="AB44" s="48"/>
+      <c r="AC44" s="48"/>
+      <c r="AD44" s="48"/>
+      <c r="AE44" s="49"/>
       <c r="AF44" s="12"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="43">
+      <c r="B45" s="47">
         <f>C43+B20</f>
-        <v>2.3464924375000002</v>
-      </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="45"/>
+        <v>1.7964924375</v>
+      </c>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="49"/>
       <c r="H45" s="12"/>
       <c r="I45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J45" s="43">
+      <c r="J45" s="47">
         <f>K43+J20</f>
         <v>0</v>
       </c>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="45"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="49"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R45" s="43">
+      <c r="R45" s="47">
         <f>S43+R20</f>
         <v>0</v>
       </c>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="45"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="48"/>
+      <c r="U45" s="48"/>
+      <c r="V45" s="48"/>
+      <c r="W45" s="49"/>
       <c r="X45" s="12"/>
       <c r="Y45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z45" s="43">
+      <c r="Z45" s="47">
         <f>AA43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA45" s="44"/>
-      <c r="AB45" s="44"/>
-      <c r="AC45" s="44"/>
-      <c r="AD45" s="44"/>
-      <c r="AE45" s="45"/>
+      <c r="AA45" s="48"/>
+      <c r="AB45" s="48"/>
+      <c r="AC45" s="48"/>
+      <c r="AD45" s="48"/>
+      <c r="AE45" s="49"/>
       <c r="AF45" s="12"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="43">
+      <c r="B46" s="47">
         <f>IFERROR((G43/10/B44),0)</f>
-        <v>0.5917102966075366</v>
-      </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
+        <v>0.4177067298338254</v>
+      </c>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49"/>
       <c r="H46" s="12"/>
       <c r="I46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J46" s="43">
+      <c r="J46" s="47">
         <f>IFERROR((O43/10/J44),0)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="45"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="49"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R46" s="43">
+      <c r="R46" s="47">
         <f>IFERROR((W43/10/R44),0)</f>
         <v>0</v>
       </c>
-      <c r="S46" s="44"/>
-      <c r="T46" s="44"/>
-      <c r="U46" s="44"/>
-      <c r="V46" s="44"/>
-      <c r="W46" s="45"/>
+      <c r="S46" s="48"/>
+      <c r="T46" s="48"/>
+      <c r="U46" s="48"/>
+      <c r="V46" s="48"/>
+      <c r="W46" s="49"/>
       <c r="X46" s="12"/>
       <c r="Y46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z46" s="43">
+      <c r="Z46" s="47">
         <f>IFERROR((AE43/10/Z44),0)</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="44"/>
-      <c r="AB46" s="44"/>
-      <c r="AC46" s="44"/>
-      <c r="AD46" s="44"/>
-      <c r="AE46" s="45"/>
+      <c r="AA46" s="48"/>
+      <c r="AB46" s="48"/>
+      <c r="AC46" s="48"/>
+      <c r="AD46" s="48"/>
+      <c r="AE46" s="49"/>
       <c r="AF46" s="12"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="43">
+      <c r="B47" s="47">
         <f>IFERROR((9.82 * F43) * LN(B44/B45),0)</f>
-        <v>7032.4499171096795</v>
-      </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="45"/>
+        <v>8003.3365648910458</v>
+      </c>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
       <c r="H47" s="12"/>
       <c r="I47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="43">
+      <c r="J47" s="47">
         <f>IFERROR((9.82 * N43) * LN(J44/J45),0)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="45"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="49"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R47" s="43">
+      <c r="R47" s="47">
         <f>IFERROR((9.82 * V43) * LN(R44/R45),0)</f>
         <v>0</v>
       </c>
-      <c r="S47" s="44"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="44"/>
-      <c r="V47" s="44"/>
-      <c r="W47" s="45"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="48"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="48"/>
+      <c r="W47" s="49"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z47" s="43">
+      <c r="Z47" s="47">
         <f>IFERROR((9.82 * AD43) * LN(Z44/Z45),0)</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="44"/>
-      <c r="AB47" s="44"/>
-      <c r="AC47" s="44"/>
-      <c r="AD47" s="44"/>
-      <c r="AE47" s="45"/>
+      <c r="AA47" s="48"/>
+      <c r="AB47" s="48"/>
+      <c r="AC47" s="48"/>
+      <c r="AD47" s="48"/>
+      <c r="AE47" s="49"/>
       <c r="AF47" s="12"/>
     </row>
     <row r="48" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="40">
+      <c r="B48" s="51">
         <f>B47+B24</f>
-        <v>7032.4499171096795</v>
-      </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="42"/>
+        <v>8003.3365648910458</v>
+      </c>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
       <c r="H48" s="12"/>
       <c r="I48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J48" s="40">
+      <c r="J48" s="51">
         <f>J47+J24</f>
         <v>0</v>
       </c>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="42"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="53"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R48" s="40">
+      <c r="R48" s="51">
         <f>R47+R24</f>
         <v>0</v>
       </c>
-      <c r="S48" s="41"/>
-      <c r="T48" s="41"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="41"/>
-      <c r="W48" s="42"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="52"/>
+      <c r="V48" s="52"/>
+      <c r="W48" s="53"/>
       <c r="X48" s="12"/>
       <c r="Y48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z48" s="40">
+      <c r="Z48" s="51">
         <f>Z47+Z24</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="41"/>
-      <c r="AB48" s="41"/>
-      <c r="AC48" s="41"/>
-      <c r="AD48" s="41"/>
-      <c r="AE48" s="42"/>
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="52"/>
+      <c r="AC48" s="52"/>
+      <c r="AD48" s="52"/>
+      <c r="AE48" s="53"/>
       <c r="AF48" s="12"/>
     </row>
     <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33581,270 +33583,270 @@
       <c r="A68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="43">
+      <c r="B68" s="47">
         <f>E67+B44</f>
-        <v>11.323108687500001</v>
-      </c>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="45"/>
+        <v>10.773108687500001</v>
+      </c>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="49"/>
       <c r="H68" s="12"/>
       <c r="I68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J68" s="43">
+      <c r="J68" s="47">
         <f>M67+J44</f>
         <v>0</v>
       </c>
-      <c r="K68" s="44"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="44"/>
-      <c r="N68" s="44"/>
-      <c r="O68" s="45"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="49"/>
       <c r="P68" s="12"/>
       <c r="Q68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R68" s="43">
+      <c r="R68" s="47">
         <f>U67+R44</f>
         <v>0</v>
       </c>
-      <c r="S68" s="44"/>
-      <c r="T68" s="44"/>
-      <c r="U68" s="44"/>
-      <c r="V68" s="44"/>
-      <c r="W68" s="45"/>
+      <c r="S68" s="48"/>
+      <c r="T68" s="48"/>
+      <c r="U68" s="48"/>
+      <c r="V68" s="48"/>
+      <c r="W68" s="49"/>
       <c r="X68" s="12"/>
       <c r="Y68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z68" s="43">
+      <c r="Z68" s="47">
         <f>AC67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA68" s="44"/>
-      <c r="AB68" s="44"/>
-      <c r="AC68" s="44"/>
-      <c r="AD68" s="44"/>
-      <c r="AE68" s="45"/>
+      <c r="AA68" s="48"/>
+      <c r="AB68" s="48"/>
+      <c r="AC68" s="48"/>
+      <c r="AD68" s="48"/>
+      <c r="AE68" s="49"/>
       <c r="AF68" s="12"/>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="43">
+      <c r="B69" s="47">
         <f>C67+B44</f>
-        <v>11.323108687500001</v>
-      </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="45"/>
+        <v>10.773108687500001</v>
+      </c>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="49"/>
       <c r="H69" s="12"/>
       <c r="I69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J69" s="43">
+      <c r="J69" s="47">
         <f>K67+J44</f>
         <v>0</v>
       </c>
-      <c r="K69" s="44"/>
-      <c r="L69" s="44"/>
-      <c r="M69" s="44"/>
-      <c r="N69" s="44"/>
-      <c r="O69" s="45"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="49"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R69" s="43">
+      <c r="R69" s="47">
         <f>S67+R44</f>
         <v>0</v>
       </c>
-      <c r="S69" s="44"/>
-      <c r="T69" s="44"/>
-      <c r="U69" s="44"/>
-      <c r="V69" s="44"/>
-      <c r="W69" s="45"/>
+      <c r="S69" s="48"/>
+      <c r="T69" s="48"/>
+      <c r="U69" s="48"/>
+      <c r="V69" s="48"/>
+      <c r="W69" s="49"/>
       <c r="X69" s="12"/>
       <c r="Y69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z69" s="43">
+      <c r="Z69" s="47">
         <f>AA67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA69" s="44"/>
-      <c r="AB69" s="44"/>
-      <c r="AC69" s="44"/>
-      <c r="AD69" s="44"/>
-      <c r="AE69" s="45"/>
+      <c r="AA69" s="48"/>
+      <c r="AB69" s="48"/>
+      <c r="AC69" s="48"/>
+      <c r="AD69" s="48"/>
+      <c r="AE69" s="49"/>
       <c r="AF69" s="12"/>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="43">
+      <c r="B70" s="47">
         <f>IFERROR((G67/10/B68),0)</f>
         <v>0</v>
       </c>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="45"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="49"/>
       <c r="H70" s="12"/>
       <c r="I70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J70" s="43">
+      <c r="J70" s="47">
         <f>IFERROR((O67/10/J68),0)</f>
         <v>0</v>
       </c>
-      <c r="K70" s="44"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="44"/>
-      <c r="N70" s="44"/>
-      <c r="O70" s="45"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="48"/>
+      <c r="O70" s="49"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R70" s="43">
+      <c r="R70" s="47">
         <f>IFERROR((W67/10/R68),0)</f>
         <v>0</v>
       </c>
-      <c r="S70" s="44"/>
-      <c r="T70" s="44"/>
-      <c r="U70" s="44"/>
-      <c r="V70" s="44"/>
-      <c r="W70" s="45"/>
+      <c r="S70" s="48"/>
+      <c r="T70" s="48"/>
+      <c r="U70" s="48"/>
+      <c r="V70" s="48"/>
+      <c r="W70" s="49"/>
       <c r="X70" s="12"/>
       <c r="Y70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z70" s="43">
+      <c r="Z70" s="47">
         <f>IFERROR((AE67/10/Z68),0)</f>
         <v>0</v>
       </c>
-      <c r="AA70" s="44"/>
-      <c r="AB70" s="44"/>
-      <c r="AC70" s="44"/>
-      <c r="AD70" s="44"/>
-      <c r="AE70" s="45"/>
+      <c r="AA70" s="48"/>
+      <c r="AB70" s="48"/>
+      <c r="AC70" s="48"/>
+      <c r="AD70" s="48"/>
+      <c r="AE70" s="49"/>
       <c r="AF70" s="12"/>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="43">
+      <c r="B71" s="47">
         <f>IFERROR((9.82 * F67) * LN(B68/B69),0)</f>
         <v>0</v>
       </c>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="45"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="49"/>
       <c r="H71" s="12"/>
       <c r="I71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J71" s="43">
+      <c r="J71" s="47">
         <f>IFERROR((9.82 * N67) * LN(J68/J69),0)</f>
         <v>0</v>
       </c>
-      <c r="K71" s="44"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="44"/>
-      <c r="O71" s="45"/>
+      <c r="K71" s="48"/>
+      <c r="L71" s="48"/>
+      <c r="M71" s="48"/>
+      <c r="N71" s="48"/>
+      <c r="O71" s="49"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R71" s="43">
+      <c r="R71" s="47">
         <f>IFERROR((9.82 * V67) * LN(R68/R69),0)</f>
         <v>0</v>
       </c>
-      <c r="S71" s="44"/>
-      <c r="T71" s="44"/>
-      <c r="U71" s="44"/>
-      <c r="V71" s="44"/>
-      <c r="W71" s="45"/>
+      <c r="S71" s="48"/>
+      <c r="T71" s="48"/>
+      <c r="U71" s="48"/>
+      <c r="V71" s="48"/>
+      <c r="W71" s="49"/>
       <c r="X71" s="12"/>
       <c r="Y71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z71" s="43">
+      <c r="Z71" s="47">
         <f>IFERROR((9.82 * AD67) * LN(Z68/Z69),0)</f>
         <v>0</v>
       </c>
-      <c r="AA71" s="44"/>
-      <c r="AB71" s="44"/>
-      <c r="AC71" s="44"/>
-      <c r="AD71" s="44"/>
-      <c r="AE71" s="45"/>
+      <c r="AA71" s="48"/>
+      <c r="AB71" s="48"/>
+      <c r="AC71" s="48"/>
+      <c r="AD71" s="48"/>
+      <c r="AE71" s="49"/>
       <c r="AF71" s="12"/>
     </row>
     <row r="72" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="40">
+      <c r="B72" s="51">
         <f>B71+B48</f>
-        <v>7032.4499171096795</v>
-      </c>
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="42"/>
+        <v>8003.3365648910458</v>
+      </c>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="53"/>
       <c r="H72" s="12"/>
       <c r="I72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J72" s="40">
+      <c r="J72" s="51">
         <f>J71+J48</f>
         <v>0</v>
       </c>
-      <c r="K72" s="41"/>
-      <c r="L72" s="41"/>
-      <c r="M72" s="41"/>
-      <c r="N72" s="41"/>
-      <c r="O72" s="42"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="52"/>
+      <c r="O72" s="53"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R72" s="40">
+      <c r="R72" s="51">
         <f>R71+R48</f>
         <v>0</v>
       </c>
-      <c r="S72" s="41"/>
-      <c r="T72" s="41"/>
-      <c r="U72" s="41"/>
-      <c r="V72" s="41"/>
-      <c r="W72" s="42"/>
+      <c r="S72" s="52"/>
+      <c r="T72" s="52"/>
+      <c r="U72" s="52"/>
+      <c r="V72" s="52"/>
+      <c r="W72" s="53"/>
       <c r="X72" s="12"/>
       <c r="Y72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z72" s="40">
+      <c r="Z72" s="51">
         <f>Z71+Z48</f>
         <v>0</v>
       </c>
-      <c r="AA72" s="41"/>
-      <c r="AB72" s="41"/>
-      <c r="AC72" s="41"/>
-      <c r="AD72" s="41"/>
-      <c r="AE72" s="42"/>
+      <c r="AA72" s="52"/>
+      <c r="AB72" s="52"/>
+      <c r="AC72" s="52"/>
+      <c r="AD72" s="52"/>
+      <c r="AE72" s="53"/>
       <c r="AF72" s="12"/>
     </row>
     <row r="73" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35581,270 +35583,270 @@
       <c r="A92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="43">
+      <c r="B92" s="47">
         <f>E91+B68</f>
-        <v>11.323108687500001</v>
-      </c>
-      <c r="C92" s="44"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="45"/>
+        <v>10.773108687500001</v>
+      </c>
+      <c r="C92" s="48"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="49"/>
       <c r="H92" s="12"/>
       <c r="I92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J92" s="43">
+      <c r="J92" s="47">
         <f>M91+J68</f>
         <v>0</v>
       </c>
-      <c r="K92" s="44"/>
-      <c r="L92" s="44"/>
-      <c r="M92" s="44"/>
-      <c r="N92" s="44"/>
-      <c r="O92" s="45"/>
+      <c r="K92" s="48"/>
+      <c r="L92" s="48"/>
+      <c r="M92" s="48"/>
+      <c r="N92" s="48"/>
+      <c r="O92" s="49"/>
       <c r="P92" s="12"/>
       <c r="Q92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R92" s="43">
+      <c r="R92" s="47">
         <f>U91+R68</f>
         <v>0</v>
       </c>
-      <c r="S92" s="44"/>
-      <c r="T92" s="44"/>
-      <c r="U92" s="44"/>
-      <c r="V92" s="44"/>
-      <c r="W92" s="45"/>
+      <c r="S92" s="48"/>
+      <c r="T92" s="48"/>
+      <c r="U92" s="48"/>
+      <c r="V92" s="48"/>
+      <c r="W92" s="49"/>
       <c r="X92" s="12"/>
       <c r="Y92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z92" s="43">
+      <c r="Z92" s="47">
         <f>AC91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA92" s="44"/>
-      <c r="AB92" s="44"/>
-      <c r="AC92" s="44"/>
-      <c r="AD92" s="44"/>
-      <c r="AE92" s="45"/>
+      <c r="AA92" s="48"/>
+      <c r="AB92" s="48"/>
+      <c r="AC92" s="48"/>
+      <c r="AD92" s="48"/>
+      <c r="AE92" s="49"/>
       <c r="AF92" s="12"/>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="43">
+      <c r="B93" s="47">
         <f>C91+B68</f>
-        <v>11.323108687500001</v>
-      </c>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="45"/>
+        <v>10.773108687500001</v>
+      </c>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="49"/>
       <c r="H93" s="12"/>
       <c r="I93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J93" s="43">
+      <c r="J93" s="47">
         <f>K91+J68</f>
         <v>0</v>
       </c>
-      <c r="K93" s="44"/>
-      <c r="L93" s="44"/>
-      <c r="M93" s="44"/>
-      <c r="N93" s="44"/>
-      <c r="O93" s="45"/>
+      <c r="K93" s="48"/>
+      <c r="L93" s="48"/>
+      <c r="M93" s="48"/>
+      <c r="N93" s="48"/>
+      <c r="O93" s="49"/>
       <c r="P93" s="12"/>
       <c r="Q93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R93" s="43">
+      <c r="R93" s="47">
         <f>S91+R68</f>
         <v>0</v>
       </c>
-      <c r="S93" s="44"/>
-      <c r="T93" s="44"/>
-      <c r="U93" s="44"/>
-      <c r="V93" s="44"/>
-      <c r="W93" s="45"/>
+      <c r="S93" s="48"/>
+      <c r="T93" s="48"/>
+      <c r="U93" s="48"/>
+      <c r="V93" s="48"/>
+      <c r="W93" s="49"/>
       <c r="X93" s="12"/>
       <c r="Y93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z93" s="43">
+      <c r="Z93" s="47">
         <f>AA91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA93" s="44"/>
-      <c r="AB93" s="44"/>
-      <c r="AC93" s="44"/>
-      <c r="AD93" s="44"/>
-      <c r="AE93" s="45"/>
+      <c r="AA93" s="48"/>
+      <c r="AB93" s="48"/>
+      <c r="AC93" s="48"/>
+      <c r="AD93" s="48"/>
+      <c r="AE93" s="49"/>
       <c r="AF93" s="12"/>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="43">
+      <c r="B94" s="47">
         <f>IFERROR((G91/10/B92),0)</f>
         <v>0</v>
       </c>
-      <c r="C94" s="44"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="45"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="49"/>
       <c r="H94" s="12"/>
       <c r="I94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J94" s="43">
+      <c r="J94" s="47">
         <f>IFERROR((O91/10/J92),0)</f>
         <v>0</v>
       </c>
-      <c r="K94" s="44"/>
-      <c r="L94" s="44"/>
-      <c r="M94" s="44"/>
-      <c r="N94" s="44"/>
-      <c r="O94" s="45"/>
+      <c r="K94" s="48"/>
+      <c r="L94" s="48"/>
+      <c r="M94" s="48"/>
+      <c r="N94" s="48"/>
+      <c r="O94" s="49"/>
       <c r="P94" s="12"/>
       <c r="Q94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R94" s="43">
+      <c r="R94" s="47">
         <f>IFERROR((W91/10/R92),0)</f>
         <v>0</v>
       </c>
-      <c r="S94" s="44"/>
-      <c r="T94" s="44"/>
-      <c r="U94" s="44"/>
-      <c r="V94" s="44"/>
-      <c r="W94" s="45"/>
+      <c r="S94" s="48"/>
+      <c r="T94" s="48"/>
+      <c r="U94" s="48"/>
+      <c r="V94" s="48"/>
+      <c r="W94" s="49"/>
       <c r="X94" s="12"/>
       <c r="Y94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z94" s="43">
+      <c r="Z94" s="47">
         <f>IFERROR((AE91/10/Z92),0)</f>
         <v>0</v>
       </c>
-      <c r="AA94" s="44"/>
-      <c r="AB94" s="44"/>
-      <c r="AC94" s="44"/>
-      <c r="AD94" s="44"/>
-      <c r="AE94" s="45"/>
+      <c r="AA94" s="48"/>
+      <c r="AB94" s="48"/>
+      <c r="AC94" s="48"/>
+      <c r="AD94" s="48"/>
+      <c r="AE94" s="49"/>
       <c r="AF94" s="12"/>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="43">
+      <c r="B95" s="47">
         <f>IFERROR((9.82 * F91) * LN(B92/B93),0)</f>
         <v>0</v>
       </c>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="44"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="45"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="49"/>
       <c r="H95" s="12"/>
       <c r="I95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J95" s="43">
+      <c r="J95" s="47">
         <f>IFERROR((9.82 * N91) * LN(J92/J93),0)</f>
         <v>0</v>
       </c>
-      <c r="K95" s="44"/>
-      <c r="L95" s="44"/>
-      <c r="M95" s="44"/>
-      <c r="N95" s="44"/>
-      <c r="O95" s="45"/>
+      <c r="K95" s="48"/>
+      <c r="L95" s="48"/>
+      <c r="M95" s="48"/>
+      <c r="N95" s="48"/>
+      <c r="O95" s="49"/>
       <c r="P95" s="12"/>
       <c r="Q95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R95" s="43">
+      <c r="R95" s="47">
         <f>IFERROR((9.82 * V91) * LN(R92/R93),0)</f>
         <v>0</v>
       </c>
-      <c r="S95" s="44"/>
-      <c r="T95" s="44"/>
-      <c r="U95" s="44"/>
-      <c r="V95" s="44"/>
-      <c r="W95" s="45"/>
+      <c r="S95" s="48"/>
+      <c r="T95" s="48"/>
+      <c r="U95" s="48"/>
+      <c r="V95" s="48"/>
+      <c r="W95" s="49"/>
       <c r="X95" s="12"/>
       <c r="Y95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z95" s="43">
+      <c r="Z95" s="47">
         <f>IFERROR((9.82 * AD91) * LN(Z92/Z93),0)</f>
         <v>0</v>
       </c>
-      <c r="AA95" s="44"/>
-      <c r="AB95" s="44"/>
-      <c r="AC95" s="44"/>
-      <c r="AD95" s="44"/>
-      <c r="AE95" s="45"/>
+      <c r="AA95" s="48"/>
+      <c r="AB95" s="48"/>
+      <c r="AC95" s="48"/>
+      <c r="AD95" s="48"/>
+      <c r="AE95" s="49"/>
       <c r="AF95" s="12"/>
     </row>
     <row r="96" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="40">
+      <c r="B96" s="51">
         <f>B95+B72</f>
-        <v>7032.4499171096795</v>
-      </c>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="42"/>
+        <v>8003.3365648910458</v>
+      </c>
+      <c r="C96" s="52"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="52"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="53"/>
       <c r="H96" s="12"/>
       <c r="I96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J96" s="40">
+      <c r="J96" s="51">
         <f>J95+J72</f>
         <v>0</v>
       </c>
-      <c r="K96" s="41"/>
-      <c r="L96" s="41"/>
-      <c r="M96" s="41"/>
-      <c r="N96" s="41"/>
-      <c r="O96" s="42"/>
+      <c r="K96" s="52"/>
+      <c r="L96" s="52"/>
+      <c r="M96" s="52"/>
+      <c r="N96" s="52"/>
+      <c r="O96" s="53"/>
       <c r="P96" s="12"/>
       <c r="Q96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R96" s="40">
+      <c r="R96" s="51">
         <f>R95+R72</f>
         <v>0</v>
       </c>
-      <c r="S96" s="41"/>
-      <c r="T96" s="41"/>
-      <c r="U96" s="41"/>
-      <c r="V96" s="41"/>
-      <c r="W96" s="42"/>
+      <c r="S96" s="52"/>
+      <c r="T96" s="52"/>
+      <c r="U96" s="52"/>
+      <c r="V96" s="52"/>
+      <c r="W96" s="53"/>
       <c r="X96" s="12"/>
       <c r="Y96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z96" s="40">
+      <c r="Z96" s="51">
         <f>Z95+Z72</f>
         <v>0</v>
       </c>
-      <c r="AA96" s="41"/>
-      <c r="AB96" s="41"/>
-      <c r="AC96" s="41"/>
-      <c r="AD96" s="41"/>
-      <c r="AE96" s="42"/>
+      <c r="AA96" s="52"/>
+      <c r="AB96" s="52"/>
+      <c r="AC96" s="52"/>
+      <c r="AD96" s="52"/>
+      <c r="AE96" s="53"/>
       <c r="AF96" s="12"/>
     </row>
     <row r="97" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37581,270 +37583,270 @@
       <c r="A116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B116" s="43">
+      <c r="B116" s="47">
         <f>E115+B92</f>
-        <v>11.323108687500001</v>
-      </c>
-      <c r="C116" s="44"/>
-      <c r="D116" s="44"/>
-      <c r="E116" s="44"/>
-      <c r="F116" s="44"/>
-      <c r="G116" s="45"/>
+        <v>10.773108687500001</v>
+      </c>
+      <c r="C116" s="48"/>
+      <c r="D116" s="48"/>
+      <c r="E116" s="48"/>
+      <c r="F116" s="48"/>
+      <c r="G116" s="49"/>
       <c r="H116" s="12"/>
       <c r="I116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J116" s="43">
+      <c r="J116" s="47">
         <f>M115+J92</f>
         <v>0</v>
       </c>
-      <c r="K116" s="44"/>
-      <c r="L116" s="44"/>
-      <c r="M116" s="44"/>
-      <c r="N116" s="44"/>
-      <c r="O116" s="45"/>
+      <c r="K116" s="48"/>
+      <c r="L116" s="48"/>
+      <c r="M116" s="48"/>
+      <c r="N116" s="48"/>
+      <c r="O116" s="49"/>
       <c r="P116" s="12"/>
       <c r="Q116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R116" s="43">
+      <c r="R116" s="47">
         <f>U115+R92</f>
         <v>0</v>
       </c>
-      <c r="S116" s="44"/>
-      <c r="T116" s="44"/>
-      <c r="U116" s="44"/>
-      <c r="V116" s="44"/>
-      <c r="W116" s="45"/>
+      <c r="S116" s="48"/>
+      <c r="T116" s="48"/>
+      <c r="U116" s="48"/>
+      <c r="V116" s="48"/>
+      <c r="W116" s="49"/>
       <c r="X116" s="12"/>
       <c r="Y116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z116" s="43">
+      <c r="Z116" s="47">
         <f>AC115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA116" s="44"/>
-      <c r="AB116" s="44"/>
-      <c r="AC116" s="44"/>
-      <c r="AD116" s="44"/>
-      <c r="AE116" s="45"/>
+      <c r="AA116" s="48"/>
+      <c r="AB116" s="48"/>
+      <c r="AC116" s="48"/>
+      <c r="AD116" s="48"/>
+      <c r="AE116" s="49"/>
       <c r="AF116" s="12"/>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B117" s="43">
+      <c r="B117" s="47">
         <f>C115+B92</f>
-        <v>11.323108687500001</v>
-      </c>
-      <c r="C117" s="44"/>
-      <c r="D117" s="44"/>
-      <c r="E117" s="44"/>
-      <c r="F117" s="44"/>
-      <c r="G117" s="45"/>
+        <v>10.773108687500001</v>
+      </c>
+      <c r="C117" s="48"/>
+      <c r="D117" s="48"/>
+      <c r="E117" s="48"/>
+      <c r="F117" s="48"/>
+      <c r="G117" s="49"/>
       <c r="H117" s="12"/>
       <c r="I117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J117" s="43">
+      <c r="J117" s="47">
         <f>K115+J92</f>
         <v>0</v>
       </c>
-      <c r="K117" s="44"/>
-      <c r="L117" s="44"/>
-      <c r="M117" s="44"/>
-      <c r="N117" s="44"/>
-      <c r="O117" s="45"/>
+      <c r="K117" s="48"/>
+      <c r="L117" s="48"/>
+      <c r="M117" s="48"/>
+      <c r="N117" s="48"/>
+      <c r="O117" s="49"/>
       <c r="P117" s="12"/>
       <c r="Q117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R117" s="43">
+      <c r="R117" s="47">
         <f>S115+R92</f>
         <v>0</v>
       </c>
-      <c r="S117" s="44"/>
-      <c r="T117" s="44"/>
-      <c r="U117" s="44"/>
-      <c r="V117" s="44"/>
-      <c r="W117" s="45"/>
+      <c r="S117" s="48"/>
+      <c r="T117" s="48"/>
+      <c r="U117" s="48"/>
+      <c r="V117" s="48"/>
+      <c r="W117" s="49"/>
       <c r="X117" s="12"/>
       <c r="Y117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z117" s="43">
+      <c r="Z117" s="47">
         <f>AA115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA117" s="44"/>
-      <c r="AB117" s="44"/>
-      <c r="AC117" s="44"/>
-      <c r="AD117" s="44"/>
-      <c r="AE117" s="45"/>
+      <c r="AA117" s="48"/>
+      <c r="AB117" s="48"/>
+      <c r="AC117" s="48"/>
+      <c r="AD117" s="48"/>
+      <c r="AE117" s="49"/>
       <c r="AF117" s="12"/>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B118" s="43">
+      <c r="B118" s="47">
         <f>IFERROR((G115/10/B116),0)</f>
         <v>0</v>
       </c>
-      <c r="C118" s="44"/>
-      <c r="D118" s="44"/>
-      <c r="E118" s="44"/>
-      <c r="F118" s="44"/>
-      <c r="G118" s="45"/>
+      <c r="C118" s="48"/>
+      <c r="D118" s="48"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="49"/>
       <c r="H118" s="12"/>
       <c r="I118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J118" s="43">
+      <c r="J118" s="47">
         <f>IFERROR((O115/10/J116),0)</f>
         <v>0</v>
       </c>
-      <c r="K118" s="44"/>
-      <c r="L118" s="44"/>
-      <c r="M118" s="44"/>
-      <c r="N118" s="44"/>
-      <c r="O118" s="45"/>
+      <c r="K118" s="48"/>
+      <c r="L118" s="48"/>
+      <c r="M118" s="48"/>
+      <c r="N118" s="48"/>
+      <c r="O118" s="49"/>
       <c r="P118" s="12"/>
       <c r="Q118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R118" s="43">
+      <c r="R118" s="47">
         <f>IFERROR((W115/10/R116),0)</f>
         <v>0</v>
       </c>
-      <c r="S118" s="44"/>
-      <c r="T118" s="44"/>
-      <c r="U118" s="44"/>
-      <c r="V118" s="44"/>
-      <c r="W118" s="45"/>
+      <c r="S118" s="48"/>
+      <c r="T118" s="48"/>
+      <c r="U118" s="48"/>
+      <c r="V118" s="48"/>
+      <c r="W118" s="49"/>
       <c r="X118" s="12"/>
       <c r="Y118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z118" s="43">
+      <c r="Z118" s="47">
         <f>IFERROR((AE115/10/Z116),0)</f>
         <v>0</v>
       </c>
-      <c r="AA118" s="44"/>
-      <c r="AB118" s="44"/>
-      <c r="AC118" s="44"/>
-      <c r="AD118" s="44"/>
-      <c r="AE118" s="45"/>
+      <c r="AA118" s="48"/>
+      <c r="AB118" s="48"/>
+      <c r="AC118" s="48"/>
+      <c r="AD118" s="48"/>
+      <c r="AE118" s="49"/>
       <c r="AF118" s="12"/>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B119" s="43">
+      <c r="B119" s="47">
         <f>IFERROR((9.82 * F115) * LN(B116/B117),0)</f>
         <v>0</v>
       </c>
-      <c r="C119" s="44"/>
-      <c r="D119" s="44"/>
-      <c r="E119" s="44"/>
-      <c r="F119" s="44"/>
-      <c r="G119" s="45"/>
+      <c r="C119" s="48"/>
+      <c r="D119" s="48"/>
+      <c r="E119" s="48"/>
+      <c r="F119" s="48"/>
+      <c r="G119" s="49"/>
       <c r="H119" s="12"/>
       <c r="I119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J119" s="43">
+      <c r="J119" s="47">
         <f>IFERROR((9.82 * N115) * LN(J116/J117),0)</f>
         <v>0</v>
       </c>
-      <c r="K119" s="44"/>
-      <c r="L119" s="44"/>
-      <c r="M119" s="44"/>
-      <c r="N119" s="44"/>
-      <c r="O119" s="45"/>
+      <c r="K119" s="48"/>
+      <c r="L119" s="48"/>
+      <c r="M119" s="48"/>
+      <c r="N119" s="48"/>
+      <c r="O119" s="49"/>
       <c r="P119" s="12"/>
       <c r="Q119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R119" s="43">
+      <c r="R119" s="47">
         <f>IFERROR((9.82 * V115) * LN(R116/R117),0)</f>
         <v>0</v>
       </c>
-      <c r="S119" s="44"/>
-      <c r="T119" s="44"/>
-      <c r="U119" s="44"/>
-      <c r="V119" s="44"/>
-      <c r="W119" s="45"/>
+      <c r="S119" s="48"/>
+      <c r="T119" s="48"/>
+      <c r="U119" s="48"/>
+      <c r="V119" s="48"/>
+      <c r="W119" s="49"/>
       <c r="X119" s="12"/>
       <c r="Y119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z119" s="43">
+      <c r="Z119" s="47">
         <f>IFERROR((9.82 * AD115) * LN(Z116/Z117),0)</f>
         <v>0</v>
       </c>
-      <c r="AA119" s="44"/>
-      <c r="AB119" s="44"/>
-      <c r="AC119" s="44"/>
-      <c r="AD119" s="44"/>
-      <c r="AE119" s="45"/>
+      <c r="AA119" s="48"/>
+      <c r="AB119" s="48"/>
+      <c r="AC119" s="48"/>
+      <c r="AD119" s="48"/>
+      <c r="AE119" s="49"/>
       <c r="AF119" s="12"/>
     </row>
     <row r="120" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B120" s="40">
+      <c r="B120" s="51">
         <f>B119+B96</f>
-        <v>7032.4499171096795</v>
-      </c>
-      <c r="C120" s="41"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="42"/>
+        <v>8003.3365648910458</v>
+      </c>
+      <c r="C120" s="52"/>
+      <c r="D120" s="52"/>
+      <c r="E120" s="52"/>
+      <c r="F120" s="52"/>
+      <c r="G120" s="53"/>
       <c r="H120" s="12"/>
       <c r="I120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J120" s="40">
+      <c r="J120" s="51">
         <f>J119+J96</f>
         <v>0</v>
       </c>
-      <c r="K120" s="41"/>
-      <c r="L120" s="41"/>
-      <c r="M120" s="41"/>
-      <c r="N120" s="41"/>
-      <c r="O120" s="42"/>
+      <c r="K120" s="52"/>
+      <c r="L120" s="52"/>
+      <c r="M120" s="52"/>
+      <c r="N120" s="52"/>
+      <c r="O120" s="53"/>
       <c r="P120" s="12"/>
       <c r="Q120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R120" s="40">
+      <c r="R120" s="51">
         <f>R119+R96</f>
         <v>0</v>
       </c>
-      <c r="S120" s="41"/>
-      <c r="T120" s="41"/>
-      <c r="U120" s="41"/>
-      <c r="V120" s="41"/>
-      <c r="W120" s="42"/>
+      <c r="S120" s="52"/>
+      <c r="T120" s="52"/>
+      <c r="U120" s="52"/>
+      <c r="V120" s="52"/>
+      <c r="W120" s="53"/>
       <c r="X120" s="12"/>
       <c r="Y120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z120" s="40">
+      <c r="Z120" s="51">
         <f>Z119+Z96</f>
         <v>0</v>
       </c>
-      <c r="AA120" s="41"/>
-      <c r="AB120" s="41"/>
-      <c r="AC120" s="41"/>
-      <c r="AD120" s="41"/>
-      <c r="AE120" s="42"/>
+      <c r="AA120" s="52"/>
+      <c r="AB120" s="52"/>
+      <c r="AC120" s="52"/>
+      <c r="AD120" s="52"/>
+      <c r="AE120" s="53"/>
       <c r="AF120" s="12"/>
     </row>
     <row r="121" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37882,315 +37884,315 @@
       <c r="AF121" s="12"/>
     </row>
     <row r="122" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="47" t="s">
+      <c r="A122" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="B122" s="48"/>
-      <c r="C122" s="48"/>
-      <c r="D122" s="48"/>
-      <c r="E122" s="48"/>
-      <c r="F122" s="48"/>
-      <c r="G122" s="49"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="43"/>
+      <c r="F122" s="43"/>
+      <c r="G122" s="44"/>
       <c r="H122" s="12"/>
-      <c r="I122" s="47" t="s">
+      <c r="I122" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="J122" s="48"/>
-      <c r="K122" s="48"/>
-      <c r="L122" s="48"/>
-      <c r="M122" s="48"/>
-      <c r="N122" s="48"/>
-      <c r="O122" s="49"/>
+      <c r="J122" s="43"/>
+      <c r="K122" s="43"/>
+      <c r="L122" s="43"/>
+      <c r="M122" s="43"/>
+      <c r="N122" s="43"/>
+      <c r="O122" s="44"/>
       <c r="P122" s="12"/>
-      <c r="Q122" s="47" t="s">
+      <c r="Q122" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="R122" s="48"/>
-      <c r="S122" s="48"/>
-      <c r="T122" s="48"/>
-      <c r="U122" s="48"/>
-      <c r="V122" s="48"/>
-      <c r="W122" s="49"/>
+      <c r="R122" s="43"/>
+      <c r="S122" s="43"/>
+      <c r="T122" s="43"/>
+      <c r="U122" s="43"/>
+      <c r="V122" s="43"/>
+      <c r="W122" s="44"/>
       <c r="X122" s="12"/>
-      <c r="Y122" s="47" t="s">
+      <c r="Y122" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="Z122" s="48"/>
-      <c r="AA122" s="48"/>
-      <c r="AB122" s="48"/>
-      <c r="AC122" s="48"/>
-      <c r="AD122" s="48"/>
-      <c r="AE122" s="49"/>
+      <c r="Z122" s="43"/>
+      <c r="AA122" s="43"/>
+      <c r="AB122" s="43"/>
+      <c r="AC122" s="43"/>
+      <c r="AD122" s="43"/>
+      <c r="AE122" s="44"/>
       <c r="AF122" s="12"/>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A123" s="52" t="s">
+      <c r="A123" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B123" s="52"/>
-      <c r="C123" s="52"/>
-      <c r="D123" s="51">
+      <c r="B123" s="45"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="46">
         <f>B115</f>
         <v>3</v>
       </c>
-      <c r="E123" s="51"/>
-      <c r="F123" s="51"/>
-      <c r="G123" s="51"/>
+      <c r="E123" s="46"/>
+      <c r="F123" s="46"/>
+      <c r="G123" s="46"/>
       <c r="H123" s="12"/>
-      <c r="I123" s="52" t="s">
+      <c r="I123" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="J123" s="52"/>
-      <c r="K123" s="52"/>
-      <c r="L123" s="51">
+      <c r="J123" s="45"/>
+      <c r="K123" s="45"/>
+      <c r="L123" s="46">
         <f>J115</f>
         <v>0</v>
       </c>
-      <c r="M123" s="51"/>
-      <c r="N123" s="51"/>
-      <c r="O123" s="51"/>
+      <c r="M123" s="46"/>
+      <c r="N123" s="46"/>
+      <c r="O123" s="46"/>
       <c r="P123" s="12"/>
-      <c r="Q123" s="52" t="s">
+      <c r="Q123" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="R123" s="52"/>
-      <c r="S123" s="52"/>
-      <c r="T123" s="51">
+      <c r="R123" s="45"/>
+      <c r="S123" s="45"/>
+      <c r="T123" s="46">
         <f>R115</f>
         <v>0</v>
       </c>
-      <c r="U123" s="51"/>
-      <c r="V123" s="51"/>
-      <c r="W123" s="51"/>
+      <c r="U123" s="46"/>
+      <c r="V123" s="46"/>
+      <c r="W123" s="46"/>
       <c r="X123" s="12"/>
-      <c r="Y123" s="52" t="s">
+      <c r="Y123" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="Z123" s="52"/>
-      <c r="AA123" s="52"/>
-      <c r="AB123" s="51">
+      <c r="Z123" s="45"/>
+      <c r="AA123" s="45"/>
+      <c r="AB123" s="46">
         <f>Z115</f>
         <v>0</v>
       </c>
-      <c r="AC123" s="51"/>
-      <c r="AD123" s="51"/>
-      <c r="AE123" s="51"/>
+      <c r="AC123" s="46"/>
+      <c r="AD123" s="46"/>
+      <c r="AE123" s="46"/>
       <c r="AF123" s="12"/>
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A124" s="53" t="s">
+      <c r="A124" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="53"/>
-      <c r="C124" s="53"/>
-      <c r="D124" s="50">
+      <c r="B124" s="40"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="41">
         <f>B116</f>
-        <v>11.323108687500001</v>
-      </c>
-      <c r="E124" s="50"/>
-      <c r="F124" s="50"/>
-      <c r="G124" s="50"/>
+        <v>10.773108687500001</v>
+      </c>
+      <c r="E124" s="41"/>
+      <c r="F124" s="41"/>
+      <c r="G124" s="41"/>
       <c r="H124" s="12"/>
-      <c r="I124" s="53" t="s">
+      <c r="I124" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
-      <c r="L124" s="50">
+      <c r="J124" s="40"/>
+      <c r="K124" s="40"/>
+      <c r="L124" s="41">
         <f>J116</f>
         <v>0</v>
       </c>
-      <c r="M124" s="50"/>
-      <c r="N124" s="50"/>
-      <c r="O124" s="50"/>
+      <c r="M124" s="41"/>
+      <c r="N124" s="41"/>
+      <c r="O124" s="41"/>
       <c r="P124" s="12"/>
-      <c r="Q124" s="53" t="s">
+      <c r="Q124" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="R124" s="53"/>
-      <c r="S124" s="53"/>
-      <c r="T124" s="50">
+      <c r="R124" s="40"/>
+      <c r="S124" s="40"/>
+      <c r="T124" s="41">
         <f>R116</f>
         <v>0</v>
       </c>
-      <c r="U124" s="50"/>
-      <c r="V124" s="50"/>
-      <c r="W124" s="50"/>
+      <c r="U124" s="41"/>
+      <c r="V124" s="41"/>
+      <c r="W124" s="41"/>
       <c r="X124" s="12"/>
-      <c r="Y124" s="53" t="s">
+      <c r="Y124" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="Z124" s="53"/>
-      <c r="AA124" s="53"/>
-      <c r="AB124" s="50">
+      <c r="Z124" s="40"/>
+      <c r="AA124" s="40"/>
+      <c r="AB124" s="41">
         <f>Z116</f>
         <v>0</v>
       </c>
-      <c r="AC124" s="50"/>
-      <c r="AD124" s="50"/>
-      <c r="AE124" s="50"/>
+      <c r="AC124" s="41"/>
+      <c r="AD124" s="41"/>
+      <c r="AE124" s="41"/>
       <c r="AF124" s="12"/>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A125" s="53" t="s">
+      <c r="A125" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="53"/>
-      <c r="C125" s="53"/>
-      <c r="D125" s="50">
+      <c r="B125" s="40"/>
+      <c r="C125" s="40"/>
+      <c r="D125" s="41">
         <f>D115+D91+D67+D43+D19</f>
         <v>8.9766162500000011</v>
       </c>
-      <c r="E125" s="50"/>
-      <c r="F125" s="50"/>
-      <c r="G125" s="50"/>
+      <c r="E125" s="41"/>
+      <c r="F125" s="41"/>
+      <c r="G125" s="41"/>
       <c r="H125" s="12"/>
-      <c r="I125" s="53" t="s">
+      <c r="I125" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="J125" s="53"/>
-      <c r="K125" s="53"/>
-      <c r="L125" s="50">
+      <c r="J125" s="40"/>
+      <c r="K125" s="40"/>
+      <c r="L125" s="41">
         <f>L115+L91+L67+L43+L19</f>
         <v>0</v>
       </c>
-      <c r="M125" s="50"/>
-      <c r="N125" s="50"/>
-      <c r="O125" s="50"/>
+      <c r="M125" s="41"/>
+      <c r="N125" s="41"/>
+      <c r="O125" s="41"/>
       <c r="P125" s="12"/>
-      <c r="Q125" s="53" t="s">
+      <c r="Q125" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="R125" s="53"/>
-      <c r="S125" s="53"/>
-      <c r="T125" s="50">
+      <c r="R125" s="40"/>
+      <c r="S125" s="40"/>
+      <c r="T125" s="41">
         <f>T115+T91+T67+T43+T19</f>
         <v>0</v>
       </c>
-      <c r="U125" s="50"/>
-      <c r="V125" s="50"/>
-      <c r="W125" s="50"/>
+      <c r="U125" s="41"/>
+      <c r="V125" s="41"/>
+      <c r="W125" s="41"/>
       <c r="X125" s="12"/>
-      <c r="Y125" s="53" t="s">
+      <c r="Y125" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="Z125" s="53"/>
-      <c r="AA125" s="53"/>
-      <c r="AB125" s="50">
+      <c r="Z125" s="40"/>
+      <c r="AA125" s="40"/>
+      <c r="AB125" s="41">
         <f>AB115+AB91+AB67+AB43+AB19</f>
         <v>0</v>
       </c>
-      <c r="AC125" s="50"/>
-      <c r="AD125" s="50"/>
-      <c r="AE125" s="50"/>
+      <c r="AC125" s="41"/>
+      <c r="AD125" s="41"/>
+      <c r="AE125" s="41"/>
       <c r="AF125" s="12"/>
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A126" s="53" t="s">
+      <c r="A126" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="53"/>
-      <c r="C126" s="53"/>
-      <c r="D126" s="50">
+      <c r="B126" s="40"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="41">
         <f>D124-D125</f>
-        <v>2.3464924375000002</v>
-      </c>
-      <c r="E126" s="50"/>
-      <c r="F126" s="50"/>
-      <c r="G126" s="50"/>
+        <v>1.7964924374999995</v>
+      </c>
+      <c r="E126" s="41"/>
+      <c r="F126" s="41"/>
+      <c r="G126" s="41"/>
       <c r="H126" s="12"/>
-      <c r="I126" s="53" t="s">
+      <c r="I126" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
-      <c r="L126" s="50">
+      <c r="J126" s="40"/>
+      <c r="K126" s="40"/>
+      <c r="L126" s="41">
         <f>L124-L125</f>
         <v>0</v>
       </c>
-      <c r="M126" s="50"/>
-      <c r="N126" s="50"/>
-      <c r="O126" s="50"/>
+      <c r="M126" s="41"/>
+      <c r="N126" s="41"/>
+      <c r="O126" s="41"/>
       <c r="P126" s="12"/>
-      <c r="Q126" s="53" t="s">
+      <c r="Q126" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="R126" s="53"/>
-      <c r="S126" s="53"/>
-      <c r="T126" s="50">
+      <c r="R126" s="40"/>
+      <c r="S126" s="40"/>
+      <c r="T126" s="41">
         <f>T124-T125</f>
         <v>0</v>
       </c>
-      <c r="U126" s="50"/>
-      <c r="V126" s="50"/>
-      <c r="W126" s="50"/>
+      <c r="U126" s="41"/>
+      <c r="V126" s="41"/>
+      <c r="W126" s="41"/>
       <c r="X126" s="12"/>
-      <c r="Y126" s="53" t="s">
+      <c r="Y126" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="Z126" s="53"/>
-      <c r="AA126" s="53"/>
-      <c r="AB126" s="50">
+      <c r="Z126" s="40"/>
+      <c r="AA126" s="40"/>
+      <c r="AB126" s="41">
         <f>AB124-AB125</f>
         <v>0</v>
       </c>
-      <c r="AC126" s="50"/>
-      <c r="AD126" s="50"/>
-      <c r="AE126" s="50"/>
+      <c r="AC126" s="41"/>
+      <c r="AD126" s="41"/>
+      <c r="AE126" s="41"/>
       <c r="AF126" s="12"/>
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A127" s="53" t="s">
+      <c r="A127" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="53"/>
-      <c r="C127" s="53"/>
-      <c r="D127" s="50">
+      <c r="B127" s="40"/>
+      <c r="C127" s="40"/>
+      <c r="D127" s="41">
         <f>B120</f>
-        <v>7032.4499171096795</v>
-      </c>
-      <c r="E127" s="50"/>
-      <c r="F127" s="50"/>
-      <c r="G127" s="50"/>
+        <v>8003.3365648910458</v>
+      </c>
+      <c r="E127" s="41"/>
+      <c r="F127" s="41"/>
+      <c r="G127" s="41"/>
       <c r="H127" s="12"/>
-      <c r="I127" s="53" t="s">
+      <c r="I127" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="J127" s="53"/>
-      <c r="K127" s="53"/>
-      <c r="L127" s="50">
+      <c r="J127" s="40"/>
+      <c r="K127" s="40"/>
+      <c r="L127" s="41">
         <f>J120</f>
         <v>0</v>
       </c>
-      <c r="M127" s="50"/>
-      <c r="N127" s="50"/>
-      <c r="O127" s="50"/>
+      <c r="M127" s="41"/>
+      <c r="N127" s="41"/>
+      <c r="O127" s="41"/>
       <c r="P127" s="12"/>
-      <c r="Q127" s="53" t="s">
+      <c r="Q127" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="R127" s="53"/>
-      <c r="S127" s="53"/>
-      <c r="T127" s="50">
+      <c r="R127" s="40"/>
+      <c r="S127" s="40"/>
+      <c r="T127" s="41">
         <f>R120</f>
         <v>0</v>
       </c>
-      <c r="U127" s="50"/>
-      <c r="V127" s="50"/>
-      <c r="W127" s="50"/>
+      <c r="U127" s="41"/>
+      <c r="V127" s="41"/>
+      <c r="W127" s="41"/>
       <c r="X127" s="12"/>
-      <c r="Y127" s="53" t="s">
+      <c r="Y127" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="Z127" s="53"/>
-      <c r="AA127" s="53"/>
-      <c r="AB127" s="50">
+      <c r="Z127" s="40"/>
+      <c r="AA127" s="40"/>
+      <c r="AB127" s="41">
         <f>Z120</f>
         <v>0</v>
       </c>
-      <c r="AC127" s="50"/>
-      <c r="AD127" s="50"/>
-      <c r="AE127" s="50"/>
+      <c r="AC127" s="41"/>
+      <c r="AD127" s="41"/>
+      <c r="AE127" s="41"/>
       <c r="AF127" s="12"/>
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.25">
@@ -38229,49 +38231,87 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="Y127:AA127"/>
-    <mergeCell ref="AB127:AE127"/>
-    <mergeCell ref="Y122:AE122"/>
-    <mergeCell ref="Y123:AA123"/>
-    <mergeCell ref="AB123:AE123"/>
-    <mergeCell ref="Y124:AA124"/>
-    <mergeCell ref="AB124:AE124"/>
-    <mergeCell ref="Y125:AA125"/>
-    <mergeCell ref="AB125:AE125"/>
-    <mergeCell ref="Y126:AA126"/>
-    <mergeCell ref="AB126:AE126"/>
-    <mergeCell ref="I127:K127"/>
-    <mergeCell ref="L127:O127"/>
-    <mergeCell ref="Q122:W122"/>
-    <mergeCell ref="Q123:S123"/>
-    <mergeCell ref="T123:W123"/>
-    <mergeCell ref="Q124:S124"/>
-    <mergeCell ref="T124:W124"/>
-    <mergeCell ref="Q125:S125"/>
-    <mergeCell ref="T125:W125"/>
-    <mergeCell ref="Q126:S126"/>
-    <mergeCell ref="T126:W126"/>
-    <mergeCell ref="Q127:S127"/>
-    <mergeCell ref="T127:W127"/>
-    <mergeCell ref="I122:O122"/>
-    <mergeCell ref="I123:K123"/>
-    <mergeCell ref="L123:O123"/>
-    <mergeCell ref="I124:K124"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="I125:K125"/>
-    <mergeCell ref="L125:O125"/>
-    <mergeCell ref="I126:K126"/>
-    <mergeCell ref="L126:O126"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="J120:O120"/>
+    <mergeCell ref="R120:W120"/>
+    <mergeCell ref="Z120:AE120"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="J119:O119"/>
+    <mergeCell ref="R119:W119"/>
+    <mergeCell ref="Z119:AE119"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="J118:O118"/>
+    <mergeCell ref="R118:W118"/>
+    <mergeCell ref="Z118:AE118"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="J117:O117"/>
+    <mergeCell ref="R117:W117"/>
+    <mergeCell ref="Z117:AE117"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="J116:O116"/>
+    <mergeCell ref="R116:W116"/>
+    <mergeCell ref="Z116:AE116"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="J96:O96"/>
+    <mergeCell ref="R96:W96"/>
+    <mergeCell ref="Z96:AE96"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="J95:O95"/>
+    <mergeCell ref="R95:W95"/>
+    <mergeCell ref="Z95:AE95"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="J94:O94"/>
+    <mergeCell ref="R94:W94"/>
+    <mergeCell ref="Z94:AE94"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="J93:O93"/>
+    <mergeCell ref="R93:W93"/>
+    <mergeCell ref="Z93:AE93"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="J92:O92"/>
+    <mergeCell ref="R92:W92"/>
+    <mergeCell ref="Z92:AE92"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="J72:O72"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="Z72:AE72"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="J71:O71"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="Z71:AE71"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="J70:O70"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="Z70:AE70"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="J69:O69"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="Z69:AE69"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="J68:O68"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="Z68:AE68"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="R48:W48"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="R47:W47"/>
+    <mergeCell ref="Z47:AE47"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="Z46:AE46"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="R44:W44"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="Z24:AE24"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="J20:O20"/>
     <mergeCell ref="R20:W20"/>
@@ -38296,87 +38336,49 @@
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="J45:O45"/>
     <mergeCell ref="R45:W45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="R44:W44"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="Z24:AE24"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="R48:W48"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="R47:W47"/>
-    <mergeCell ref="Z47:AE47"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="R46:W46"/>
-    <mergeCell ref="Z46:AE46"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="J70:O70"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="Z70:AE70"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="J69:O69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="Z69:AE69"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="J68:O68"/>
-    <mergeCell ref="R68:W68"/>
-    <mergeCell ref="Z68:AE68"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="J92:O92"/>
-    <mergeCell ref="R92:W92"/>
-    <mergeCell ref="Z92:AE92"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="J72:O72"/>
-    <mergeCell ref="R72:W72"/>
-    <mergeCell ref="Z72:AE72"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="J71:O71"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="Z71:AE71"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="J95:O95"/>
-    <mergeCell ref="R95:W95"/>
-    <mergeCell ref="Z95:AE95"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="J94:O94"/>
-    <mergeCell ref="R94:W94"/>
-    <mergeCell ref="Z94:AE94"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="J93:O93"/>
-    <mergeCell ref="R93:W93"/>
-    <mergeCell ref="Z93:AE93"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="J117:O117"/>
-    <mergeCell ref="R117:W117"/>
-    <mergeCell ref="Z117:AE117"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="J116:O116"/>
-    <mergeCell ref="R116:W116"/>
-    <mergeCell ref="Z116:AE116"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="J96:O96"/>
-    <mergeCell ref="R96:W96"/>
-    <mergeCell ref="Z96:AE96"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="J120:O120"/>
-    <mergeCell ref="R120:W120"/>
-    <mergeCell ref="Z120:AE120"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="J119:O119"/>
-    <mergeCell ref="R119:W119"/>
-    <mergeCell ref="Z119:AE119"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="J118:O118"/>
-    <mergeCell ref="R118:W118"/>
-    <mergeCell ref="Z118:AE118"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="L127:O127"/>
+    <mergeCell ref="Q122:W122"/>
+    <mergeCell ref="Q123:S123"/>
+    <mergeCell ref="T123:W123"/>
+    <mergeCell ref="Q124:S124"/>
+    <mergeCell ref="T124:W124"/>
+    <mergeCell ref="Q125:S125"/>
+    <mergeCell ref="T125:W125"/>
+    <mergeCell ref="Q126:S126"/>
+    <mergeCell ref="T126:W126"/>
+    <mergeCell ref="Q127:S127"/>
+    <mergeCell ref="T127:W127"/>
+    <mergeCell ref="I122:O122"/>
+    <mergeCell ref="I123:K123"/>
+    <mergeCell ref="L123:O123"/>
+    <mergeCell ref="I124:K124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="I125:K125"/>
+    <mergeCell ref="L125:O125"/>
+    <mergeCell ref="I126:K126"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="Y127:AA127"/>
+    <mergeCell ref="AB127:AE127"/>
+    <mergeCell ref="Y122:AE122"/>
+    <mergeCell ref="Y123:AA123"/>
+    <mergeCell ref="AB123:AE123"/>
+    <mergeCell ref="Y124:AA124"/>
+    <mergeCell ref="AB124:AE124"/>
+    <mergeCell ref="Y125:AA125"/>
+    <mergeCell ref="AB125:AE125"/>
+    <mergeCell ref="Y126:AA126"/>
+    <mergeCell ref="AB126:AE126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39442,9 +39444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
+      <selection pane="bottomLeft" activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GameData/SSTU/Parts/Parts-MassCalc.xlsx
+++ b/GameData/SSTU/Parts/Parts-MassCalc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="parts" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="ChuteCalc" sheetId="9" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="10" r:id="rId6"/>
     <sheet name="StockChuteCalc" sheetId="11" r:id="rId7"/>
+    <sheet name="RealRocketDims" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="377">
   <si>
     <t>Part</t>
   </si>
@@ -1104,6 +1105,54 @@
   <si>
     <t>KSP Heat</t>
   </si>
+  <si>
+    <t>Saturn-V</t>
+  </si>
+  <si>
+    <t>SLS</t>
+  </si>
+  <si>
+    <t>Shuttle</t>
+  </si>
+  <si>
+    <t>Scaled</t>
+  </si>
+  <si>
+    <t>S-I</t>
+  </si>
+  <si>
+    <t>S-II</t>
+  </si>
+  <si>
+    <t>S-IVB</t>
+  </si>
+  <si>
+    <t>IPA-B</t>
+  </si>
+  <si>
+    <t>IPA-T</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Booster</t>
+  </si>
+  <si>
+    <t>ICPS</t>
+  </si>
+  <si>
+    <t>HUS</t>
+  </si>
 </sst>
 </file>
 
@@ -1557,25 +1606,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1590,14 +1627,26 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1905,7 +1954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
     </sheetView>
@@ -27830,45 +27879,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
       <c r="H1" s="12"/>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
       <c r="P1" s="12"/>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
       <c r="X1" s="12"/>
-      <c r="Y1" s="50" t="s">
+      <c r="Y1" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
       <c r="AF1" s="12"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -29579,270 +29628,270 @@
       <c r="A20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="43">
         <f>E19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="12"/>
       <c r="I20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="47">
+      <c r="J20" s="43">
         <f>M19</f>
         <v>0</v>
       </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="49"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="45"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R20" s="47">
+      <c r="R20" s="43">
         <f>U19</f>
         <v>0</v>
       </c>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="49"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="45"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z20" s="47">
+      <c r="Z20" s="43">
         <f>AC19</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="49"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="45"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="47">
+      <c r="B21" s="43">
         <f>C19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="12"/>
       <c r="I21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="47">
+      <c r="J21" s="43">
         <f>K19</f>
         <v>0</v>
       </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="49"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="45"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R21" s="47">
+      <c r="R21" s="43">
         <f>S19</f>
         <v>0</v>
       </c>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="49"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="45"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z21" s="47">
+      <c r="Z21" s="43">
         <f>AA19</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="49"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="45"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="43">
         <f>IFERROR((G19/10/B20),0)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="12"/>
       <c r="I22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="47">
+      <c r="J22" s="43">
         <f>IFERROR((O19/10/J20),0)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="49"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="45"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R22" s="47">
+      <c r="R22" s="43">
         <f>IFERROR((W19/10/R20),0)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="49"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="45"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z22" s="47">
+      <c r="Z22" s="43">
         <f>IFERROR((AE19/10/Z20),0)</f>
         <v>0</v>
       </c>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="49"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="45"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="43">
         <f>IFERROR((9.82 * F19) * LN(B20/C19),0)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="49"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="12"/>
       <c r="I23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="47">
+      <c r="J23" s="43">
         <f>IFERROR((9.82 * N19) * LN(J20/K19),0)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="49"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="45"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R23" s="47">
+      <c r="R23" s="43">
         <f>IFERROR((9.82 * V19) * LN(R20/S19),0)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="49"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="45"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z23" s="47">
+      <c r="Z23" s="43">
         <f>IFERROR((9.82 * AD19) * LN(Z20/AA19),0)</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="49"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="45"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="51">
+      <c r="B24" s="40">
         <f>B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="53"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="12"/>
       <c r="I24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="51">
+      <c r="J24" s="40">
         <f>J23</f>
         <v>0</v>
       </c>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="53"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="42"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R24" s="51">
+      <c r="R24" s="40">
         <f>R23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="53"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="42"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z24" s="51">
+      <c r="Z24" s="40">
         <f>Z23</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="53"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="42"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31583,270 +31632,270 @@
       <c r="A44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="47">
+      <c r="B44" s="43">
         <f>E43+B20</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
       <c r="H44" s="12"/>
       <c r="I44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J44" s="47">
+      <c r="J44" s="43">
         <f>M43+J20</f>
         <v>0</v>
       </c>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="49"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="45"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R44" s="47">
+      <c r="R44" s="43">
         <f>U43+R20</f>
         <v>0</v>
       </c>
-      <c r="S44" s="48"/>
-      <c r="T44" s="48"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="48"/>
-      <c r="W44" s="49"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="45"/>
       <c r="X44" s="12"/>
       <c r="Y44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z44" s="47">
+      <c r="Z44" s="43">
         <f>AC43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="48"/>
-      <c r="AB44" s="48"/>
-      <c r="AC44" s="48"/>
-      <c r="AD44" s="48"/>
-      <c r="AE44" s="49"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="44"/>
+      <c r="AC44" s="44"/>
+      <c r="AD44" s="44"/>
+      <c r="AE44" s="45"/>
       <c r="AF44" s="12"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="47">
+      <c r="B45" s="43">
         <f>C43+B20</f>
         <v>1.7964924375</v>
       </c>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
       <c r="H45" s="12"/>
       <c r="I45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J45" s="47">
+      <c r="J45" s="43">
         <f>K43+J20</f>
         <v>0</v>
       </c>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="49"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="45"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R45" s="47">
+      <c r="R45" s="43">
         <f>S43+R20</f>
         <v>0</v>
       </c>
-      <c r="S45" s="48"/>
-      <c r="T45" s="48"/>
-      <c r="U45" s="48"/>
-      <c r="V45" s="48"/>
-      <c r="W45" s="49"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="45"/>
       <c r="X45" s="12"/>
       <c r="Y45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z45" s="47">
+      <c r="Z45" s="43">
         <f>AA43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA45" s="48"/>
-      <c r="AB45" s="48"/>
-      <c r="AC45" s="48"/>
-      <c r="AD45" s="48"/>
-      <c r="AE45" s="49"/>
+      <c r="AA45" s="44"/>
+      <c r="AB45" s="44"/>
+      <c r="AC45" s="44"/>
+      <c r="AD45" s="44"/>
+      <c r="AE45" s="45"/>
       <c r="AF45" s="12"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="47">
+      <c r="B46" s="43">
         <f>IFERROR((G43/10/B44),0)</f>
         <v>0.4177067298338254</v>
       </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
       <c r="H46" s="12"/>
       <c r="I46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J46" s="47">
+      <c r="J46" s="43">
         <f>IFERROR((O43/10/J44),0)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="49"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="45"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R46" s="47">
+      <c r="R46" s="43">
         <f>IFERROR((W43/10/R44),0)</f>
         <v>0</v>
       </c>
-      <c r="S46" s="48"/>
-      <c r="T46" s="48"/>
-      <c r="U46" s="48"/>
-      <c r="V46" s="48"/>
-      <c r="W46" s="49"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="45"/>
       <c r="X46" s="12"/>
       <c r="Y46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z46" s="47">
+      <c r="Z46" s="43">
         <f>IFERROR((AE43/10/Z44),0)</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="48"/>
-      <c r="AB46" s="48"/>
-      <c r="AC46" s="48"/>
-      <c r="AD46" s="48"/>
-      <c r="AE46" s="49"/>
+      <c r="AA46" s="44"/>
+      <c r="AB46" s="44"/>
+      <c r="AC46" s="44"/>
+      <c r="AD46" s="44"/>
+      <c r="AE46" s="45"/>
       <c r="AF46" s="12"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="47">
+      <c r="B47" s="43">
         <f>IFERROR((9.82 * F43) * LN(B44/B45),0)</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="45"/>
       <c r="H47" s="12"/>
       <c r="I47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="47">
+      <c r="J47" s="43">
         <f>IFERROR((9.82 * N43) * LN(J44/J45),0)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="49"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="45"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R47" s="47">
+      <c r="R47" s="43">
         <f>IFERROR((9.82 * V43) * LN(R44/R45),0)</f>
         <v>0</v>
       </c>
-      <c r="S47" s="48"/>
-      <c r="T47" s="48"/>
-      <c r="U47" s="48"/>
-      <c r="V47" s="48"/>
-      <c r="W47" s="49"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="45"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z47" s="47">
+      <c r="Z47" s="43">
         <f>IFERROR((9.82 * AD43) * LN(Z44/Z45),0)</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="48"/>
-      <c r="AB47" s="48"/>
-      <c r="AC47" s="48"/>
-      <c r="AD47" s="48"/>
-      <c r="AE47" s="49"/>
+      <c r="AA47" s="44"/>
+      <c r="AB47" s="44"/>
+      <c r="AC47" s="44"/>
+      <c r="AD47" s="44"/>
+      <c r="AE47" s="45"/>
       <c r="AF47" s="12"/>
     </row>
     <row r="48" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="51">
+      <c r="B48" s="40">
         <f>B47+B24</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="42"/>
       <c r="H48" s="12"/>
       <c r="I48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J48" s="51">
+      <c r="J48" s="40">
         <f>J47+J24</f>
         <v>0</v>
       </c>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="53"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="42"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R48" s="51">
+      <c r="R48" s="40">
         <f>R47+R24</f>
         <v>0</v>
       </c>
-      <c r="S48" s="52"/>
-      <c r="T48" s="52"/>
-      <c r="U48" s="52"/>
-      <c r="V48" s="52"/>
-      <c r="W48" s="53"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="42"/>
       <c r="X48" s="12"/>
       <c r="Y48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z48" s="51">
+      <c r="Z48" s="40">
         <f>Z47+Z24</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="52"/>
-      <c r="AB48" s="52"/>
-      <c r="AC48" s="52"/>
-      <c r="AD48" s="52"/>
-      <c r="AE48" s="53"/>
+      <c r="AA48" s="41"/>
+      <c r="AB48" s="41"/>
+      <c r="AC48" s="41"/>
+      <c r="AD48" s="41"/>
+      <c r="AE48" s="42"/>
       <c r="AF48" s="12"/>
     </row>
     <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33583,270 +33632,270 @@
       <c r="A68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="47">
+      <c r="B68" s="43">
         <f>E67+B44</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="49"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="45"/>
       <c r="H68" s="12"/>
       <c r="I68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J68" s="47">
+      <c r="J68" s="43">
         <f>M67+J44</f>
         <v>0</v>
       </c>
-      <c r="K68" s="48"/>
-      <c r="L68" s="48"/>
-      <c r="M68" s="48"/>
-      <c r="N68" s="48"/>
-      <c r="O68" s="49"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="45"/>
       <c r="P68" s="12"/>
       <c r="Q68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R68" s="47">
+      <c r="R68" s="43">
         <f>U67+R44</f>
         <v>0</v>
       </c>
-      <c r="S68" s="48"/>
-      <c r="T68" s="48"/>
-      <c r="U68" s="48"/>
-      <c r="V68" s="48"/>
-      <c r="W68" s="49"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="44"/>
+      <c r="U68" s="44"/>
+      <c r="V68" s="44"/>
+      <c r="W68" s="45"/>
       <c r="X68" s="12"/>
       <c r="Y68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z68" s="47">
+      <c r="Z68" s="43">
         <f>AC67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA68" s="48"/>
-      <c r="AB68" s="48"/>
-      <c r="AC68" s="48"/>
-      <c r="AD68" s="48"/>
-      <c r="AE68" s="49"/>
+      <c r="AA68" s="44"/>
+      <c r="AB68" s="44"/>
+      <c r="AC68" s="44"/>
+      <c r="AD68" s="44"/>
+      <c r="AE68" s="45"/>
       <c r="AF68" s="12"/>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="47">
+      <c r="B69" s="43">
         <f>C67+B44</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="49"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="45"/>
       <c r="H69" s="12"/>
       <c r="I69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J69" s="47">
+      <c r="J69" s="43">
         <f>K67+J44</f>
         <v>0</v>
       </c>
-      <c r="K69" s="48"/>
-      <c r="L69" s="48"/>
-      <c r="M69" s="48"/>
-      <c r="N69" s="48"/>
-      <c r="O69" s="49"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="45"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R69" s="47">
+      <c r="R69" s="43">
         <f>S67+R44</f>
         <v>0</v>
       </c>
-      <c r="S69" s="48"/>
-      <c r="T69" s="48"/>
-      <c r="U69" s="48"/>
-      <c r="V69" s="48"/>
-      <c r="W69" s="49"/>
+      <c r="S69" s="44"/>
+      <c r="T69" s="44"/>
+      <c r="U69" s="44"/>
+      <c r="V69" s="44"/>
+      <c r="W69" s="45"/>
       <c r="X69" s="12"/>
       <c r="Y69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z69" s="47">
+      <c r="Z69" s="43">
         <f>AA67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA69" s="48"/>
-      <c r="AB69" s="48"/>
-      <c r="AC69" s="48"/>
-      <c r="AD69" s="48"/>
-      <c r="AE69" s="49"/>
+      <c r="AA69" s="44"/>
+      <c r="AB69" s="44"/>
+      <c r="AC69" s="44"/>
+      <c r="AD69" s="44"/>
+      <c r="AE69" s="45"/>
       <c r="AF69" s="12"/>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="47">
+      <c r="B70" s="43">
         <f>IFERROR((G67/10/B68),0)</f>
         <v>0</v>
       </c>
-      <c r="C70" s="48"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="49"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="45"/>
       <c r="H70" s="12"/>
       <c r="I70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J70" s="47">
+      <c r="J70" s="43">
         <f>IFERROR((O67/10/J68),0)</f>
         <v>0</v>
       </c>
-      <c r="K70" s="48"/>
-      <c r="L70" s="48"/>
-      <c r="M70" s="48"/>
-      <c r="N70" s="48"/>
-      <c r="O70" s="49"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="45"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R70" s="47">
+      <c r="R70" s="43">
         <f>IFERROR((W67/10/R68),0)</f>
         <v>0</v>
       </c>
-      <c r="S70" s="48"/>
-      <c r="T70" s="48"/>
-      <c r="U70" s="48"/>
-      <c r="V70" s="48"/>
-      <c r="W70" s="49"/>
+      <c r="S70" s="44"/>
+      <c r="T70" s="44"/>
+      <c r="U70" s="44"/>
+      <c r="V70" s="44"/>
+      <c r="W70" s="45"/>
       <c r="X70" s="12"/>
       <c r="Y70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z70" s="47">
+      <c r="Z70" s="43">
         <f>IFERROR((AE67/10/Z68),0)</f>
         <v>0</v>
       </c>
-      <c r="AA70" s="48"/>
-      <c r="AB70" s="48"/>
-      <c r="AC70" s="48"/>
-      <c r="AD70" s="48"/>
-      <c r="AE70" s="49"/>
+      <c r="AA70" s="44"/>
+      <c r="AB70" s="44"/>
+      <c r="AC70" s="44"/>
+      <c r="AD70" s="44"/>
+      <c r="AE70" s="45"/>
       <c r="AF70" s="12"/>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="47">
+      <c r="B71" s="43">
         <f>IFERROR((9.82 * F67) * LN(B68/B69),0)</f>
         <v>0</v>
       </c>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="49"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="45"/>
       <c r="H71" s="12"/>
       <c r="I71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J71" s="47">
+      <c r="J71" s="43">
         <f>IFERROR((9.82 * N67) * LN(J68/J69),0)</f>
         <v>0</v>
       </c>
-      <c r="K71" s="48"/>
-      <c r="L71" s="48"/>
-      <c r="M71" s="48"/>
-      <c r="N71" s="48"/>
-      <c r="O71" s="49"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="45"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R71" s="47">
+      <c r="R71" s="43">
         <f>IFERROR((9.82 * V67) * LN(R68/R69),0)</f>
         <v>0</v>
       </c>
-      <c r="S71" s="48"/>
-      <c r="T71" s="48"/>
-      <c r="U71" s="48"/>
-      <c r="V71" s="48"/>
-      <c r="W71" s="49"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="44"/>
+      <c r="U71" s="44"/>
+      <c r="V71" s="44"/>
+      <c r="W71" s="45"/>
       <c r="X71" s="12"/>
       <c r="Y71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z71" s="47">
+      <c r="Z71" s="43">
         <f>IFERROR((9.82 * AD67) * LN(Z68/Z69),0)</f>
         <v>0</v>
       </c>
-      <c r="AA71" s="48"/>
-      <c r="AB71" s="48"/>
-      <c r="AC71" s="48"/>
-      <c r="AD71" s="48"/>
-      <c r="AE71" s="49"/>
+      <c r="AA71" s="44"/>
+      <c r="AB71" s="44"/>
+      <c r="AC71" s="44"/>
+      <c r="AD71" s="44"/>
+      <c r="AE71" s="45"/>
       <c r="AF71" s="12"/>
     </row>
     <row r="72" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="51">
+      <c r="B72" s="40">
         <f>B71+B48</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="42"/>
       <c r="H72" s="12"/>
       <c r="I72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J72" s="51">
+      <c r="J72" s="40">
         <f>J71+J48</f>
         <v>0</v>
       </c>
-      <c r="K72" s="52"/>
-      <c r="L72" s="52"/>
-      <c r="M72" s="52"/>
-      <c r="N72" s="52"/>
-      <c r="O72" s="53"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="42"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R72" s="51">
+      <c r="R72" s="40">
         <f>R71+R48</f>
         <v>0</v>
       </c>
-      <c r="S72" s="52"/>
-      <c r="T72" s="52"/>
-      <c r="U72" s="52"/>
-      <c r="V72" s="52"/>
-      <c r="W72" s="53"/>
+      <c r="S72" s="41"/>
+      <c r="T72" s="41"/>
+      <c r="U72" s="41"/>
+      <c r="V72" s="41"/>
+      <c r="W72" s="42"/>
       <c r="X72" s="12"/>
       <c r="Y72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z72" s="51">
+      <c r="Z72" s="40">
         <f>Z71+Z48</f>
         <v>0</v>
       </c>
-      <c r="AA72" s="52"/>
-      <c r="AB72" s="52"/>
-      <c r="AC72" s="52"/>
-      <c r="AD72" s="52"/>
-      <c r="AE72" s="53"/>
+      <c r="AA72" s="41"/>
+      <c r="AB72" s="41"/>
+      <c r="AC72" s="41"/>
+      <c r="AD72" s="41"/>
+      <c r="AE72" s="42"/>
       <c r="AF72" s="12"/>
     </row>
     <row r="73" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35583,270 +35632,270 @@
       <c r="A92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="47">
+      <c r="B92" s="43">
         <f>E91+B68</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C92" s="48"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48"/>
-      <c r="G92" s="49"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="45"/>
       <c r="H92" s="12"/>
       <c r="I92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J92" s="47">
+      <c r="J92" s="43">
         <f>M91+J68</f>
         <v>0</v>
       </c>
-      <c r="K92" s="48"/>
-      <c r="L92" s="48"/>
-      <c r="M92" s="48"/>
-      <c r="N92" s="48"/>
-      <c r="O92" s="49"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="44"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="45"/>
       <c r="P92" s="12"/>
       <c r="Q92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R92" s="47">
+      <c r="R92" s="43">
         <f>U91+R68</f>
         <v>0</v>
       </c>
-      <c r="S92" s="48"/>
-      <c r="T92" s="48"/>
-      <c r="U92" s="48"/>
-      <c r="V92" s="48"/>
-      <c r="W92" s="49"/>
+      <c r="S92" s="44"/>
+      <c r="T92" s="44"/>
+      <c r="U92" s="44"/>
+      <c r="V92" s="44"/>
+      <c r="W92" s="45"/>
       <c r="X92" s="12"/>
       <c r="Y92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z92" s="47">
+      <c r="Z92" s="43">
         <f>AC91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA92" s="48"/>
-      <c r="AB92" s="48"/>
-      <c r="AC92" s="48"/>
-      <c r="AD92" s="48"/>
-      <c r="AE92" s="49"/>
+      <c r="AA92" s="44"/>
+      <c r="AB92" s="44"/>
+      <c r="AC92" s="44"/>
+      <c r="AD92" s="44"/>
+      <c r="AE92" s="45"/>
       <c r="AF92" s="12"/>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="47">
+      <c r="B93" s="43">
         <f>C91+B68</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="48"/>
-      <c r="G93" s="49"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="45"/>
       <c r="H93" s="12"/>
       <c r="I93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J93" s="47">
+      <c r="J93" s="43">
         <f>K91+J68</f>
         <v>0</v>
       </c>
-      <c r="K93" s="48"/>
-      <c r="L93" s="48"/>
-      <c r="M93" s="48"/>
-      <c r="N93" s="48"/>
-      <c r="O93" s="49"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="44"/>
+      <c r="M93" s="44"/>
+      <c r="N93" s="44"/>
+      <c r="O93" s="45"/>
       <c r="P93" s="12"/>
       <c r="Q93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R93" s="47">
+      <c r="R93" s="43">
         <f>S91+R68</f>
         <v>0</v>
       </c>
-      <c r="S93" s="48"/>
-      <c r="T93" s="48"/>
-      <c r="U93" s="48"/>
-      <c r="V93" s="48"/>
-      <c r="W93" s="49"/>
+      <c r="S93" s="44"/>
+      <c r="T93" s="44"/>
+      <c r="U93" s="44"/>
+      <c r="V93" s="44"/>
+      <c r="W93" s="45"/>
       <c r="X93" s="12"/>
       <c r="Y93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z93" s="47">
+      <c r="Z93" s="43">
         <f>AA91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA93" s="48"/>
-      <c r="AB93" s="48"/>
-      <c r="AC93" s="48"/>
-      <c r="AD93" s="48"/>
-      <c r="AE93" s="49"/>
+      <c r="AA93" s="44"/>
+      <c r="AB93" s="44"/>
+      <c r="AC93" s="44"/>
+      <c r="AD93" s="44"/>
+      <c r="AE93" s="45"/>
       <c r="AF93" s="12"/>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="47">
+      <c r="B94" s="43">
         <f>IFERROR((G91/10/B92),0)</f>
         <v>0</v>
       </c>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="49"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="44"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="45"/>
       <c r="H94" s="12"/>
       <c r="I94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J94" s="47">
+      <c r="J94" s="43">
         <f>IFERROR((O91/10/J92),0)</f>
         <v>0</v>
       </c>
-      <c r="K94" s="48"/>
-      <c r="L94" s="48"/>
-      <c r="M94" s="48"/>
-      <c r="N94" s="48"/>
-      <c r="O94" s="49"/>
+      <c r="K94" s="44"/>
+      <c r="L94" s="44"/>
+      <c r="M94" s="44"/>
+      <c r="N94" s="44"/>
+      <c r="O94" s="45"/>
       <c r="P94" s="12"/>
       <c r="Q94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R94" s="47">
+      <c r="R94" s="43">
         <f>IFERROR((W91/10/R92),0)</f>
         <v>0</v>
       </c>
-      <c r="S94" s="48"/>
-      <c r="T94" s="48"/>
-      <c r="U94" s="48"/>
-      <c r="V94" s="48"/>
-      <c r="W94" s="49"/>
+      <c r="S94" s="44"/>
+      <c r="T94" s="44"/>
+      <c r="U94" s="44"/>
+      <c r="V94" s="44"/>
+      <c r="W94" s="45"/>
       <c r="X94" s="12"/>
       <c r="Y94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z94" s="47">
+      <c r="Z94" s="43">
         <f>IFERROR((AE91/10/Z92),0)</f>
         <v>0</v>
       </c>
-      <c r="AA94" s="48"/>
-      <c r="AB94" s="48"/>
-      <c r="AC94" s="48"/>
-      <c r="AD94" s="48"/>
-      <c r="AE94" s="49"/>
+      <c r="AA94" s="44"/>
+      <c r="AB94" s="44"/>
+      <c r="AC94" s="44"/>
+      <c r="AD94" s="44"/>
+      <c r="AE94" s="45"/>
       <c r="AF94" s="12"/>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="47">
+      <c r="B95" s="43">
         <f>IFERROR((9.82 * F91) * LN(B92/B93),0)</f>
         <v>0</v>
       </c>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="48"/>
-      <c r="G95" s="49"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="45"/>
       <c r="H95" s="12"/>
       <c r="I95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J95" s="47">
+      <c r="J95" s="43">
         <f>IFERROR((9.82 * N91) * LN(J92/J93),0)</f>
         <v>0</v>
       </c>
-      <c r="K95" s="48"/>
-      <c r="L95" s="48"/>
-      <c r="M95" s="48"/>
-      <c r="N95" s="48"/>
-      <c r="O95" s="49"/>
+      <c r="K95" s="44"/>
+      <c r="L95" s="44"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="45"/>
       <c r="P95" s="12"/>
       <c r="Q95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R95" s="47">
+      <c r="R95" s="43">
         <f>IFERROR((9.82 * V91) * LN(R92/R93),0)</f>
         <v>0</v>
       </c>
-      <c r="S95" s="48"/>
-      <c r="T95" s="48"/>
-      <c r="U95" s="48"/>
-      <c r="V95" s="48"/>
-      <c r="W95" s="49"/>
+      <c r="S95" s="44"/>
+      <c r="T95" s="44"/>
+      <c r="U95" s="44"/>
+      <c r="V95" s="44"/>
+      <c r="W95" s="45"/>
       <c r="X95" s="12"/>
       <c r="Y95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z95" s="47">
+      <c r="Z95" s="43">
         <f>IFERROR((9.82 * AD91) * LN(Z92/Z93),0)</f>
         <v>0</v>
       </c>
-      <c r="AA95" s="48"/>
-      <c r="AB95" s="48"/>
-      <c r="AC95" s="48"/>
-      <c r="AD95" s="48"/>
-      <c r="AE95" s="49"/>
+      <c r="AA95" s="44"/>
+      <c r="AB95" s="44"/>
+      <c r="AC95" s="44"/>
+      <c r="AD95" s="44"/>
+      <c r="AE95" s="45"/>
       <c r="AF95" s="12"/>
     </row>
     <row r="96" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="51">
+      <c r="B96" s="40">
         <f>B95+B72</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C96" s="52"/>
-      <c r="D96" s="52"/>
-      <c r="E96" s="52"/>
-      <c r="F96" s="52"/>
-      <c r="G96" s="53"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="42"/>
       <c r="H96" s="12"/>
       <c r="I96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J96" s="51">
+      <c r="J96" s="40">
         <f>J95+J72</f>
         <v>0</v>
       </c>
-      <c r="K96" s="52"/>
-      <c r="L96" s="52"/>
-      <c r="M96" s="52"/>
-      <c r="N96" s="52"/>
-      <c r="O96" s="53"/>
+      <c r="K96" s="41"/>
+      <c r="L96" s="41"/>
+      <c r="M96" s="41"/>
+      <c r="N96" s="41"/>
+      <c r="O96" s="42"/>
       <c r="P96" s="12"/>
       <c r="Q96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R96" s="51">
+      <c r="R96" s="40">
         <f>R95+R72</f>
         <v>0</v>
       </c>
-      <c r="S96" s="52"/>
-      <c r="T96" s="52"/>
-      <c r="U96" s="52"/>
-      <c r="V96" s="52"/>
-      <c r="W96" s="53"/>
+      <c r="S96" s="41"/>
+      <c r="T96" s="41"/>
+      <c r="U96" s="41"/>
+      <c r="V96" s="41"/>
+      <c r="W96" s="42"/>
       <c r="X96" s="12"/>
       <c r="Y96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z96" s="51">
+      <c r="Z96" s="40">
         <f>Z95+Z72</f>
         <v>0</v>
       </c>
-      <c r="AA96" s="52"/>
-      <c r="AB96" s="52"/>
-      <c r="AC96" s="52"/>
-      <c r="AD96" s="52"/>
-      <c r="AE96" s="53"/>
+      <c r="AA96" s="41"/>
+      <c r="AB96" s="41"/>
+      <c r="AC96" s="41"/>
+      <c r="AD96" s="41"/>
+      <c r="AE96" s="42"/>
       <c r="AF96" s="12"/>
     </row>
     <row r="97" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37583,270 +37632,270 @@
       <c r="A116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B116" s="47">
+      <c r="B116" s="43">
         <f>E115+B92</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C116" s="48"/>
-      <c r="D116" s="48"/>
-      <c r="E116" s="48"/>
-      <c r="F116" s="48"/>
-      <c r="G116" s="49"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="44"/>
+      <c r="E116" s="44"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="45"/>
       <c r="H116" s="12"/>
       <c r="I116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J116" s="47">
+      <c r="J116" s="43">
         <f>M115+J92</f>
         <v>0</v>
       </c>
-      <c r="K116" s="48"/>
-      <c r="L116" s="48"/>
-      <c r="M116" s="48"/>
-      <c r="N116" s="48"/>
-      <c r="O116" s="49"/>
+      <c r="K116" s="44"/>
+      <c r="L116" s="44"/>
+      <c r="M116" s="44"/>
+      <c r="N116" s="44"/>
+      <c r="O116" s="45"/>
       <c r="P116" s="12"/>
       <c r="Q116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R116" s="47">
+      <c r="R116" s="43">
         <f>U115+R92</f>
         <v>0</v>
       </c>
-      <c r="S116" s="48"/>
-      <c r="T116" s="48"/>
-      <c r="U116" s="48"/>
-      <c r="V116" s="48"/>
-      <c r="W116" s="49"/>
+      <c r="S116" s="44"/>
+      <c r="T116" s="44"/>
+      <c r="U116" s="44"/>
+      <c r="V116" s="44"/>
+      <c r="W116" s="45"/>
       <c r="X116" s="12"/>
       <c r="Y116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z116" s="47">
+      <c r="Z116" s="43">
         <f>AC115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA116" s="48"/>
-      <c r="AB116" s="48"/>
-      <c r="AC116" s="48"/>
-      <c r="AD116" s="48"/>
-      <c r="AE116" s="49"/>
+      <c r="AA116" s="44"/>
+      <c r="AB116" s="44"/>
+      <c r="AC116" s="44"/>
+      <c r="AD116" s="44"/>
+      <c r="AE116" s="45"/>
       <c r="AF116" s="12"/>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B117" s="47">
+      <c r="B117" s="43">
         <f>C115+B92</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C117" s="48"/>
-      <c r="D117" s="48"/>
-      <c r="E117" s="48"/>
-      <c r="F117" s="48"/>
-      <c r="G117" s="49"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="44"/>
+      <c r="E117" s="44"/>
+      <c r="F117" s="44"/>
+      <c r="G117" s="45"/>
       <c r="H117" s="12"/>
       <c r="I117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J117" s="47">
+      <c r="J117" s="43">
         <f>K115+J92</f>
         <v>0</v>
       </c>
-      <c r="K117" s="48"/>
-      <c r="L117" s="48"/>
-      <c r="M117" s="48"/>
-      <c r="N117" s="48"/>
-      <c r="O117" s="49"/>
+      <c r="K117" s="44"/>
+      <c r="L117" s="44"/>
+      <c r="M117" s="44"/>
+      <c r="N117" s="44"/>
+      <c r="O117" s="45"/>
       <c r="P117" s="12"/>
       <c r="Q117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R117" s="47">
+      <c r="R117" s="43">
         <f>S115+R92</f>
         <v>0</v>
       </c>
-      <c r="S117" s="48"/>
-      <c r="T117" s="48"/>
-      <c r="U117" s="48"/>
-      <c r="V117" s="48"/>
-      <c r="W117" s="49"/>
+      <c r="S117" s="44"/>
+      <c r="T117" s="44"/>
+      <c r="U117" s="44"/>
+      <c r="V117" s="44"/>
+      <c r="W117" s="45"/>
       <c r="X117" s="12"/>
       <c r="Y117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z117" s="47">
+      <c r="Z117" s="43">
         <f>AA115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA117" s="48"/>
-      <c r="AB117" s="48"/>
-      <c r="AC117" s="48"/>
-      <c r="AD117" s="48"/>
-      <c r="AE117" s="49"/>
+      <c r="AA117" s="44"/>
+      <c r="AB117" s="44"/>
+      <c r="AC117" s="44"/>
+      <c r="AD117" s="44"/>
+      <c r="AE117" s="45"/>
       <c r="AF117" s="12"/>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B118" s="47">
+      <c r="B118" s="43">
         <f>IFERROR((G115/10/B116),0)</f>
         <v>0</v>
       </c>
-      <c r="C118" s="48"/>
-      <c r="D118" s="48"/>
-      <c r="E118" s="48"/>
-      <c r="F118" s="48"/>
-      <c r="G118" s="49"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="44"/>
+      <c r="E118" s="44"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="45"/>
       <c r="H118" s="12"/>
       <c r="I118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J118" s="47">
+      <c r="J118" s="43">
         <f>IFERROR((O115/10/J116),0)</f>
         <v>0</v>
       </c>
-      <c r="K118" s="48"/>
-      <c r="L118" s="48"/>
-      <c r="M118" s="48"/>
-      <c r="N118" s="48"/>
-      <c r="O118" s="49"/>
+      <c r="K118" s="44"/>
+      <c r="L118" s="44"/>
+      <c r="M118" s="44"/>
+      <c r="N118" s="44"/>
+      <c r="O118" s="45"/>
       <c r="P118" s="12"/>
       <c r="Q118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R118" s="47">
+      <c r="R118" s="43">
         <f>IFERROR((W115/10/R116),0)</f>
         <v>0</v>
       </c>
-      <c r="S118" s="48"/>
-      <c r="T118" s="48"/>
-      <c r="U118" s="48"/>
-      <c r="V118" s="48"/>
-      <c r="W118" s="49"/>
+      <c r="S118" s="44"/>
+      <c r="T118" s="44"/>
+      <c r="U118" s="44"/>
+      <c r="V118" s="44"/>
+      <c r="W118" s="45"/>
       <c r="X118" s="12"/>
       <c r="Y118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z118" s="47">
+      <c r="Z118" s="43">
         <f>IFERROR((AE115/10/Z116),0)</f>
         <v>0</v>
       </c>
-      <c r="AA118" s="48"/>
-      <c r="AB118" s="48"/>
-      <c r="AC118" s="48"/>
-      <c r="AD118" s="48"/>
-      <c r="AE118" s="49"/>
+      <c r="AA118" s="44"/>
+      <c r="AB118" s="44"/>
+      <c r="AC118" s="44"/>
+      <c r="AD118" s="44"/>
+      <c r="AE118" s="45"/>
       <c r="AF118" s="12"/>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B119" s="47">
+      <c r="B119" s="43">
         <f>IFERROR((9.82 * F115) * LN(B116/B117),0)</f>
         <v>0</v>
       </c>
-      <c r="C119" s="48"/>
-      <c r="D119" s="48"/>
-      <c r="E119" s="48"/>
-      <c r="F119" s="48"/>
-      <c r="G119" s="49"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="44"/>
+      <c r="E119" s="44"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="45"/>
       <c r="H119" s="12"/>
       <c r="I119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J119" s="47">
+      <c r="J119" s="43">
         <f>IFERROR((9.82 * N115) * LN(J116/J117),0)</f>
         <v>0</v>
       </c>
-      <c r="K119" s="48"/>
-      <c r="L119" s="48"/>
-      <c r="M119" s="48"/>
-      <c r="N119" s="48"/>
-      <c r="O119" s="49"/>
+      <c r="K119" s="44"/>
+      <c r="L119" s="44"/>
+      <c r="M119" s="44"/>
+      <c r="N119" s="44"/>
+      <c r="O119" s="45"/>
       <c r="P119" s="12"/>
       <c r="Q119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R119" s="47">
+      <c r="R119" s="43">
         <f>IFERROR((9.82 * V115) * LN(R116/R117),0)</f>
         <v>0</v>
       </c>
-      <c r="S119" s="48"/>
-      <c r="T119" s="48"/>
-      <c r="U119" s="48"/>
-      <c r="V119" s="48"/>
-      <c r="W119" s="49"/>
+      <c r="S119" s="44"/>
+      <c r="T119" s="44"/>
+      <c r="U119" s="44"/>
+      <c r="V119" s="44"/>
+      <c r="W119" s="45"/>
       <c r="X119" s="12"/>
       <c r="Y119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z119" s="47">
+      <c r="Z119" s="43">
         <f>IFERROR((9.82 * AD115) * LN(Z116/Z117),0)</f>
         <v>0</v>
       </c>
-      <c r="AA119" s="48"/>
-      <c r="AB119" s="48"/>
-      <c r="AC119" s="48"/>
-      <c r="AD119" s="48"/>
-      <c r="AE119" s="49"/>
+      <c r="AA119" s="44"/>
+      <c r="AB119" s="44"/>
+      <c r="AC119" s="44"/>
+      <c r="AD119" s="44"/>
+      <c r="AE119" s="45"/>
       <c r="AF119" s="12"/>
     </row>
     <row r="120" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B120" s="51">
+      <c r="B120" s="40">
         <f>B119+B96</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C120" s="52"/>
-      <c r="D120" s="52"/>
-      <c r="E120" s="52"/>
-      <c r="F120" s="52"/>
-      <c r="G120" s="53"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="41"/>
+      <c r="E120" s="41"/>
+      <c r="F120" s="41"/>
+      <c r="G120" s="42"/>
       <c r="H120" s="12"/>
       <c r="I120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J120" s="51">
+      <c r="J120" s="40">
         <f>J119+J96</f>
         <v>0</v>
       </c>
-      <c r="K120" s="52"/>
-      <c r="L120" s="52"/>
-      <c r="M120" s="52"/>
-      <c r="N120" s="52"/>
-      <c r="O120" s="53"/>
+      <c r="K120" s="41"/>
+      <c r="L120" s="41"/>
+      <c r="M120" s="41"/>
+      <c r="N120" s="41"/>
+      <c r="O120" s="42"/>
       <c r="P120" s="12"/>
       <c r="Q120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R120" s="51">
+      <c r="R120" s="40">
         <f>R119+R96</f>
         <v>0</v>
       </c>
-      <c r="S120" s="52"/>
-      <c r="T120" s="52"/>
-      <c r="U120" s="52"/>
-      <c r="V120" s="52"/>
-      <c r="W120" s="53"/>
+      <c r="S120" s="41"/>
+      <c r="T120" s="41"/>
+      <c r="U120" s="41"/>
+      <c r="V120" s="41"/>
+      <c r="W120" s="42"/>
       <c r="X120" s="12"/>
       <c r="Y120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z120" s="51">
+      <c r="Z120" s="40">
         <f>Z119+Z96</f>
         <v>0</v>
       </c>
-      <c r="AA120" s="52"/>
-      <c r="AB120" s="52"/>
-      <c r="AC120" s="52"/>
-      <c r="AD120" s="52"/>
-      <c r="AE120" s="53"/>
+      <c r="AA120" s="41"/>
+      <c r="AB120" s="41"/>
+      <c r="AC120" s="41"/>
+      <c r="AD120" s="41"/>
+      <c r="AE120" s="42"/>
       <c r="AF120" s="12"/>
     </row>
     <row r="121" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37884,315 +37933,315 @@
       <c r="AF121" s="12"/>
     </row>
     <row r="122" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="42" t="s">
+      <c r="A122" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="B122" s="43"/>
-      <c r="C122" s="43"/>
-      <c r="D122" s="43"/>
-      <c r="E122" s="43"/>
-      <c r="F122" s="43"/>
-      <c r="G122" s="44"/>
+      <c r="B122" s="48"/>
+      <c r="C122" s="48"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="49"/>
       <c r="H122" s="12"/>
-      <c r="I122" s="42" t="s">
+      <c r="I122" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="J122" s="43"/>
-      <c r="K122" s="43"/>
-      <c r="L122" s="43"/>
-      <c r="M122" s="43"/>
-      <c r="N122" s="43"/>
-      <c r="O122" s="44"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="48"/>
+      <c r="L122" s="48"/>
+      <c r="M122" s="48"/>
+      <c r="N122" s="48"/>
+      <c r="O122" s="49"/>
       <c r="P122" s="12"/>
-      <c r="Q122" s="42" t="s">
+      <c r="Q122" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="R122" s="43"/>
-      <c r="S122" s="43"/>
-      <c r="T122" s="43"/>
-      <c r="U122" s="43"/>
-      <c r="V122" s="43"/>
-      <c r="W122" s="44"/>
+      <c r="R122" s="48"/>
+      <c r="S122" s="48"/>
+      <c r="T122" s="48"/>
+      <c r="U122" s="48"/>
+      <c r="V122" s="48"/>
+      <c r="W122" s="49"/>
       <c r="X122" s="12"/>
-      <c r="Y122" s="42" t="s">
+      <c r="Y122" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="Z122" s="43"/>
-      <c r="AA122" s="43"/>
-      <c r="AB122" s="43"/>
-      <c r="AC122" s="43"/>
-      <c r="AD122" s="43"/>
-      <c r="AE122" s="44"/>
+      <c r="Z122" s="48"/>
+      <c r="AA122" s="48"/>
+      <c r="AB122" s="48"/>
+      <c r="AC122" s="48"/>
+      <c r="AD122" s="48"/>
+      <c r="AE122" s="49"/>
       <c r="AF122" s="12"/>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A123" s="45" t="s">
+      <c r="A123" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B123" s="45"/>
-      <c r="C123" s="45"/>
-      <c r="D123" s="46">
+      <c r="B123" s="52"/>
+      <c r="C123" s="52"/>
+      <c r="D123" s="51">
         <f>B115</f>
         <v>3</v>
       </c>
-      <c r="E123" s="46"/>
-      <c r="F123" s="46"/>
-      <c r="G123" s="46"/>
+      <c r="E123" s="51"/>
+      <c r="F123" s="51"/>
+      <c r="G123" s="51"/>
       <c r="H123" s="12"/>
-      <c r="I123" s="45" t="s">
+      <c r="I123" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="J123" s="45"/>
-      <c r="K123" s="45"/>
-      <c r="L123" s="46">
+      <c r="J123" s="52"/>
+      <c r="K123" s="52"/>
+      <c r="L123" s="51">
         <f>J115</f>
         <v>0</v>
       </c>
-      <c r="M123" s="46"/>
-      <c r="N123" s="46"/>
-      <c r="O123" s="46"/>
+      <c r="M123" s="51"/>
+      <c r="N123" s="51"/>
+      <c r="O123" s="51"/>
       <c r="P123" s="12"/>
-      <c r="Q123" s="45" t="s">
+      <c r="Q123" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="R123" s="45"/>
-      <c r="S123" s="45"/>
-      <c r="T123" s="46">
+      <c r="R123" s="52"/>
+      <c r="S123" s="52"/>
+      <c r="T123" s="51">
         <f>R115</f>
         <v>0</v>
       </c>
-      <c r="U123" s="46"/>
-      <c r="V123" s="46"/>
-      <c r="W123" s="46"/>
+      <c r="U123" s="51"/>
+      <c r="V123" s="51"/>
+      <c r="W123" s="51"/>
       <c r="X123" s="12"/>
-      <c r="Y123" s="45" t="s">
+      <c r="Y123" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="Z123" s="45"/>
-      <c r="AA123" s="45"/>
-      <c r="AB123" s="46">
+      <c r="Z123" s="52"/>
+      <c r="AA123" s="52"/>
+      <c r="AB123" s="51">
         <f>Z115</f>
         <v>0</v>
       </c>
-      <c r="AC123" s="46"/>
-      <c r="AD123" s="46"/>
-      <c r="AE123" s="46"/>
+      <c r="AC123" s="51"/>
+      <c r="AD123" s="51"/>
+      <c r="AE123" s="51"/>
       <c r="AF123" s="12"/>
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A124" s="40" t="s">
+      <c r="A124" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="40"/>
-      <c r="C124" s="40"/>
-      <c r="D124" s="41">
+      <c r="B124" s="53"/>
+      <c r="C124" s="53"/>
+      <c r="D124" s="50">
         <f>B116</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="E124" s="41"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="41"/>
+      <c r="E124" s="50"/>
+      <c r="F124" s="50"/>
+      <c r="G124" s="50"/>
       <c r="H124" s="12"/>
-      <c r="I124" s="40" t="s">
+      <c r="I124" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J124" s="40"/>
-      <c r="K124" s="40"/>
-      <c r="L124" s="41">
+      <c r="J124" s="53"/>
+      <c r="K124" s="53"/>
+      <c r="L124" s="50">
         <f>J116</f>
         <v>0</v>
       </c>
-      <c r="M124" s="41"/>
-      <c r="N124" s="41"/>
-      <c r="O124" s="41"/>
+      <c r="M124" s="50"/>
+      <c r="N124" s="50"/>
+      <c r="O124" s="50"/>
       <c r="P124" s="12"/>
-      <c r="Q124" s="40" t="s">
+      <c r="Q124" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="R124" s="40"/>
-      <c r="S124" s="40"/>
-      <c r="T124" s="41">
+      <c r="R124" s="53"/>
+      <c r="S124" s="53"/>
+      <c r="T124" s="50">
         <f>R116</f>
         <v>0</v>
       </c>
-      <c r="U124" s="41"/>
-      <c r="V124" s="41"/>
-      <c r="W124" s="41"/>
+      <c r="U124" s="50"/>
+      <c r="V124" s="50"/>
+      <c r="W124" s="50"/>
       <c r="X124" s="12"/>
-      <c r="Y124" s="40" t="s">
+      <c r="Y124" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="Z124" s="40"/>
-      <c r="AA124" s="40"/>
-      <c r="AB124" s="41">
+      <c r="Z124" s="53"/>
+      <c r="AA124" s="53"/>
+      <c r="AB124" s="50">
         <f>Z116</f>
         <v>0</v>
       </c>
-      <c r="AC124" s="41"/>
-      <c r="AD124" s="41"/>
-      <c r="AE124" s="41"/>
+      <c r="AC124" s="50"/>
+      <c r="AD124" s="50"/>
+      <c r="AE124" s="50"/>
       <c r="AF124" s="12"/>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A125" s="40" t="s">
+      <c r="A125" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="40"/>
-      <c r="C125" s="40"/>
-      <c r="D125" s="41">
+      <c r="B125" s="53"/>
+      <c r="C125" s="53"/>
+      <c r="D125" s="50">
         <f>D115+D91+D67+D43+D19</f>
         <v>8.9766162500000011</v>
       </c>
-      <c r="E125" s="41"/>
-      <c r="F125" s="41"/>
-      <c r="G125" s="41"/>
+      <c r="E125" s="50"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="50"/>
       <c r="H125" s="12"/>
-      <c r="I125" s="40" t="s">
+      <c r="I125" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="J125" s="40"/>
-      <c r="K125" s="40"/>
-      <c r="L125" s="41">
+      <c r="J125" s="53"/>
+      <c r="K125" s="53"/>
+      <c r="L125" s="50">
         <f>L115+L91+L67+L43+L19</f>
         <v>0</v>
       </c>
-      <c r="M125" s="41"/>
-      <c r="N125" s="41"/>
-      <c r="O125" s="41"/>
+      <c r="M125" s="50"/>
+      <c r="N125" s="50"/>
+      <c r="O125" s="50"/>
       <c r="P125" s="12"/>
-      <c r="Q125" s="40" t="s">
+      <c r="Q125" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="R125" s="40"/>
-      <c r="S125" s="40"/>
-      <c r="T125" s="41">
+      <c r="R125" s="53"/>
+      <c r="S125" s="53"/>
+      <c r="T125" s="50">
         <f>T115+T91+T67+T43+T19</f>
         <v>0</v>
       </c>
-      <c r="U125" s="41"/>
-      <c r="V125" s="41"/>
-      <c r="W125" s="41"/>
+      <c r="U125" s="50"/>
+      <c r="V125" s="50"/>
+      <c r="W125" s="50"/>
       <c r="X125" s="12"/>
-      <c r="Y125" s="40" t="s">
+      <c r="Y125" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="Z125" s="40"/>
-      <c r="AA125" s="40"/>
-      <c r="AB125" s="41">
+      <c r="Z125" s="53"/>
+      <c r="AA125" s="53"/>
+      <c r="AB125" s="50">
         <f>AB115+AB91+AB67+AB43+AB19</f>
         <v>0</v>
       </c>
-      <c r="AC125" s="41"/>
-      <c r="AD125" s="41"/>
-      <c r="AE125" s="41"/>
+      <c r="AC125" s="50"/>
+      <c r="AD125" s="50"/>
+      <c r="AE125" s="50"/>
       <c r="AF125" s="12"/>
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A126" s="40" t="s">
+      <c r="A126" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="40"/>
-      <c r="C126" s="40"/>
-      <c r="D126" s="41">
+      <c r="B126" s="53"/>
+      <c r="C126" s="53"/>
+      <c r="D126" s="50">
         <f>D124-D125</f>
         <v>1.7964924374999995</v>
       </c>
-      <c r="E126" s="41"/>
-      <c r="F126" s="41"/>
-      <c r="G126" s="41"/>
+      <c r="E126" s="50"/>
+      <c r="F126" s="50"/>
+      <c r="G126" s="50"/>
       <c r="H126" s="12"/>
-      <c r="I126" s="40" t="s">
+      <c r="I126" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="J126" s="40"/>
-      <c r="K126" s="40"/>
-      <c r="L126" s="41">
+      <c r="J126" s="53"/>
+      <c r="K126" s="53"/>
+      <c r="L126" s="50">
         <f>L124-L125</f>
         <v>0</v>
       </c>
-      <c r="M126" s="41"/>
-      <c r="N126" s="41"/>
-      <c r="O126" s="41"/>
+      <c r="M126" s="50"/>
+      <c r="N126" s="50"/>
+      <c r="O126" s="50"/>
       <c r="P126" s="12"/>
-      <c r="Q126" s="40" t="s">
+      <c r="Q126" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="R126" s="40"/>
-      <c r="S126" s="40"/>
-      <c r="T126" s="41">
+      <c r="R126" s="53"/>
+      <c r="S126" s="53"/>
+      <c r="T126" s="50">
         <f>T124-T125</f>
         <v>0</v>
       </c>
-      <c r="U126" s="41"/>
-      <c r="V126" s="41"/>
-      <c r="W126" s="41"/>
+      <c r="U126" s="50"/>
+      <c r="V126" s="50"/>
+      <c r="W126" s="50"/>
       <c r="X126" s="12"/>
-      <c r="Y126" s="40" t="s">
+      <c r="Y126" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="Z126" s="40"/>
-      <c r="AA126" s="40"/>
-      <c r="AB126" s="41">
+      <c r="Z126" s="53"/>
+      <c r="AA126" s="53"/>
+      <c r="AB126" s="50">
         <f>AB124-AB125</f>
         <v>0</v>
       </c>
-      <c r="AC126" s="41"/>
-      <c r="AD126" s="41"/>
-      <c r="AE126" s="41"/>
+      <c r="AC126" s="50"/>
+      <c r="AD126" s="50"/>
+      <c r="AE126" s="50"/>
       <c r="AF126" s="12"/>
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A127" s="40" t="s">
+      <c r="A127" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="40"/>
-      <c r="C127" s="40"/>
-      <c r="D127" s="41">
+      <c r="B127" s="53"/>
+      <c r="C127" s="53"/>
+      <c r="D127" s="50">
         <f>B120</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="E127" s="41"/>
-      <c r="F127" s="41"/>
-      <c r="G127" s="41"/>
+      <c r="E127" s="50"/>
+      <c r="F127" s="50"/>
+      <c r="G127" s="50"/>
       <c r="H127" s="12"/>
-      <c r="I127" s="40" t="s">
+      <c r="I127" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="J127" s="40"/>
-      <c r="K127" s="40"/>
-      <c r="L127" s="41">
+      <c r="J127" s="53"/>
+      <c r="K127" s="53"/>
+      <c r="L127" s="50">
         <f>J120</f>
         <v>0</v>
       </c>
-      <c r="M127" s="41"/>
-      <c r="N127" s="41"/>
-      <c r="O127" s="41"/>
+      <c r="M127" s="50"/>
+      <c r="N127" s="50"/>
+      <c r="O127" s="50"/>
       <c r="P127" s="12"/>
-      <c r="Q127" s="40" t="s">
+      <c r="Q127" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="R127" s="40"/>
-      <c r="S127" s="40"/>
-      <c r="T127" s="41">
+      <c r="R127" s="53"/>
+      <c r="S127" s="53"/>
+      <c r="T127" s="50">
         <f>R120</f>
         <v>0</v>
       </c>
-      <c r="U127" s="41"/>
-      <c r="V127" s="41"/>
-      <c r="W127" s="41"/>
+      <c r="U127" s="50"/>
+      <c r="V127" s="50"/>
+      <c r="W127" s="50"/>
       <c r="X127" s="12"/>
-      <c r="Y127" s="40" t="s">
+      <c r="Y127" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="Z127" s="40"/>
-      <c r="AA127" s="40"/>
-      <c r="AB127" s="41">
+      <c r="Z127" s="53"/>
+      <c r="AA127" s="53"/>
+      <c r="AB127" s="50">
         <f>Z120</f>
         <v>0</v>
       </c>
-      <c r="AC127" s="41"/>
-      <c r="AD127" s="41"/>
-      <c r="AE127" s="41"/>
+      <c r="AC127" s="50"/>
+      <c r="AD127" s="50"/>
+      <c r="AE127" s="50"/>
       <c r="AF127" s="12"/>
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.25">
@@ -38231,87 +38280,49 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="J120:O120"/>
-    <mergeCell ref="R120:W120"/>
-    <mergeCell ref="Z120:AE120"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="J119:O119"/>
-    <mergeCell ref="R119:W119"/>
-    <mergeCell ref="Z119:AE119"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="J118:O118"/>
-    <mergeCell ref="R118:W118"/>
-    <mergeCell ref="Z118:AE118"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="J117:O117"/>
-    <mergeCell ref="R117:W117"/>
-    <mergeCell ref="Z117:AE117"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="J116:O116"/>
-    <mergeCell ref="R116:W116"/>
-    <mergeCell ref="Z116:AE116"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="J96:O96"/>
-    <mergeCell ref="R96:W96"/>
-    <mergeCell ref="Z96:AE96"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="J95:O95"/>
-    <mergeCell ref="R95:W95"/>
-    <mergeCell ref="Z95:AE95"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="J94:O94"/>
-    <mergeCell ref="R94:W94"/>
-    <mergeCell ref="Z94:AE94"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="J93:O93"/>
-    <mergeCell ref="R93:W93"/>
-    <mergeCell ref="Z93:AE93"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="J92:O92"/>
-    <mergeCell ref="R92:W92"/>
-    <mergeCell ref="Z92:AE92"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="J72:O72"/>
-    <mergeCell ref="R72:W72"/>
-    <mergeCell ref="Z72:AE72"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="J71:O71"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="Z71:AE71"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="J70:O70"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="Z70:AE70"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="J69:O69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="Z69:AE69"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="J68:O68"/>
-    <mergeCell ref="R68:W68"/>
-    <mergeCell ref="Z68:AE68"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="R48:W48"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="R47:W47"/>
-    <mergeCell ref="Z47:AE47"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="R46:W46"/>
-    <mergeCell ref="Z46:AE46"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="R44:W44"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="Z24:AE24"/>
+    <mergeCell ref="Y127:AA127"/>
+    <mergeCell ref="AB127:AE127"/>
+    <mergeCell ref="Y122:AE122"/>
+    <mergeCell ref="Y123:AA123"/>
+    <mergeCell ref="AB123:AE123"/>
+    <mergeCell ref="Y124:AA124"/>
+    <mergeCell ref="AB124:AE124"/>
+    <mergeCell ref="Y125:AA125"/>
+    <mergeCell ref="AB125:AE125"/>
+    <mergeCell ref="Y126:AA126"/>
+    <mergeCell ref="AB126:AE126"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="L127:O127"/>
+    <mergeCell ref="Q122:W122"/>
+    <mergeCell ref="Q123:S123"/>
+    <mergeCell ref="T123:W123"/>
+    <mergeCell ref="Q124:S124"/>
+    <mergeCell ref="T124:W124"/>
+    <mergeCell ref="Q125:S125"/>
+    <mergeCell ref="T125:W125"/>
+    <mergeCell ref="Q126:S126"/>
+    <mergeCell ref="T126:W126"/>
+    <mergeCell ref="Q127:S127"/>
+    <mergeCell ref="T127:W127"/>
+    <mergeCell ref="I122:O122"/>
+    <mergeCell ref="I123:K123"/>
+    <mergeCell ref="L123:O123"/>
+    <mergeCell ref="I124:K124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="I125:K125"/>
+    <mergeCell ref="L125:O125"/>
+    <mergeCell ref="I126:K126"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="D126:G126"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="J20:O20"/>
     <mergeCell ref="R20:W20"/>
@@ -38336,49 +38347,87 @@
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="J45:O45"/>
     <mergeCell ref="R45:W45"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="I127:K127"/>
-    <mergeCell ref="L127:O127"/>
-    <mergeCell ref="Q122:W122"/>
-    <mergeCell ref="Q123:S123"/>
-    <mergeCell ref="T123:W123"/>
-    <mergeCell ref="Q124:S124"/>
-    <mergeCell ref="T124:W124"/>
-    <mergeCell ref="Q125:S125"/>
-    <mergeCell ref="T125:W125"/>
-    <mergeCell ref="Q126:S126"/>
-    <mergeCell ref="T126:W126"/>
-    <mergeCell ref="Q127:S127"/>
-    <mergeCell ref="T127:W127"/>
-    <mergeCell ref="I122:O122"/>
-    <mergeCell ref="I123:K123"/>
-    <mergeCell ref="L123:O123"/>
-    <mergeCell ref="I124:K124"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="I125:K125"/>
-    <mergeCell ref="L125:O125"/>
-    <mergeCell ref="I126:K126"/>
-    <mergeCell ref="L126:O126"/>
-    <mergeCell ref="Y127:AA127"/>
-    <mergeCell ref="AB127:AE127"/>
-    <mergeCell ref="Y122:AE122"/>
-    <mergeCell ref="Y123:AA123"/>
-    <mergeCell ref="AB123:AE123"/>
-    <mergeCell ref="Y124:AA124"/>
-    <mergeCell ref="AB124:AE124"/>
-    <mergeCell ref="Y125:AA125"/>
-    <mergeCell ref="AB125:AE125"/>
-    <mergeCell ref="Y126:AA126"/>
-    <mergeCell ref="AB126:AE126"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="R44:W44"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="Z24:AE24"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="R48:W48"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="R47:W47"/>
+    <mergeCell ref="Z47:AE47"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="Z46:AE46"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="J70:O70"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="Z70:AE70"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="J69:O69"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="Z69:AE69"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="J68:O68"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="Z68:AE68"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="J92:O92"/>
+    <mergeCell ref="R92:W92"/>
+    <mergeCell ref="Z92:AE92"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="J72:O72"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="Z72:AE72"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="J71:O71"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="Z71:AE71"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="J95:O95"/>
+    <mergeCell ref="R95:W95"/>
+    <mergeCell ref="Z95:AE95"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="J94:O94"/>
+    <mergeCell ref="R94:W94"/>
+    <mergeCell ref="Z94:AE94"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="J93:O93"/>
+    <mergeCell ref="R93:W93"/>
+    <mergeCell ref="Z93:AE93"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="J117:O117"/>
+    <mergeCell ref="R117:W117"/>
+    <mergeCell ref="Z117:AE117"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="J116:O116"/>
+    <mergeCell ref="R116:W116"/>
+    <mergeCell ref="Z116:AE116"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="J96:O96"/>
+    <mergeCell ref="R96:W96"/>
+    <mergeCell ref="Z96:AE96"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="J120:O120"/>
+    <mergeCell ref="R120:W120"/>
+    <mergeCell ref="Z120:AE120"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="J119:O119"/>
+    <mergeCell ref="R119:W119"/>
+    <mergeCell ref="Z119:AE119"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="J118:O118"/>
+    <mergeCell ref="R118:W118"/>
+    <mergeCell ref="Z118:AE118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51178,4 +51227,322 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="6" width="9.140625" style="20"/>
+    <col min="10" max="12" width="9.140625" style="20"/>
+    <col min="16" max="17" width="9.140625" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="G1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="M1" t="s">
+        <v>363</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2">
+        <v>10.1</v>
+      </c>
+      <c r="C2">
+        <f>B2*0.64</f>
+        <v>6.4639999999999995</v>
+      </c>
+      <c r="D2" s="20">
+        <v>42.1</v>
+      </c>
+      <c r="E2" s="20">
+        <f>D2*0.64</f>
+        <v>26.944000000000003</v>
+      </c>
+      <c r="G2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H2">
+        <v>8.4</v>
+      </c>
+      <c r="I2" s="20">
+        <f>H2*0.64</f>
+        <v>5.3760000000000003</v>
+      </c>
+      <c r="K2" s="20">
+        <f>J2*0.64</f>
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>373</v>
+      </c>
+      <c r="O2" s="20">
+        <f>N2*0.64</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="20">
+        <f>P2*0.64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3">
+        <v>10.1</v>
+      </c>
+      <c r="C3" s="20">
+        <f t="shared" ref="C3:C8" si="0">B3*0.64</f>
+        <v>6.4639999999999995</v>
+      </c>
+      <c r="D3" s="20">
+        <v>24.8</v>
+      </c>
+      <c r="E3" s="20">
+        <f t="shared" ref="E3:E8" si="1">D3*0.64</f>
+        <v>15.872000000000002</v>
+      </c>
+      <c r="G3" t="s">
+        <v>374</v>
+      </c>
+      <c r="I3" s="20">
+        <f t="shared" ref="I3:I8" si="2">H3*0.64</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
+        <f t="shared" ref="K3:K8" si="3">J3*0.64</f>
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>374</v>
+      </c>
+      <c r="O3" s="20">
+        <f t="shared" ref="O3:O8" si="4">N3*0.64</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="20">
+        <f t="shared" ref="Q3:Q8" si="5">P3*0.64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B4">
+        <v>6.6</v>
+      </c>
+      <c r="C4" s="20">
+        <f t="shared" si="0"/>
+        <v>4.2240000000000002</v>
+      </c>
+      <c r="D4" s="20">
+        <v>18.8</v>
+      </c>
+      <c r="E4" s="20">
+        <f t="shared" si="1"/>
+        <v>12.032</v>
+      </c>
+      <c r="G4" t="s">
+        <v>375</v>
+      </c>
+      <c r="I4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>363</v>
+      </c>
+      <c r="O4" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>376</v>
+      </c>
+      <c r="I5" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>370</v>
+      </c>
+      <c r="I6" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>371</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C8" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GameData/SSTU/Parts/Parts-MassCalc.xlsx
+++ b/GameData/SSTU/Parts/Parts-MassCalc.xlsx
@@ -51234,7 +51234,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51309,6 +51309,10 @@
         <f>D2*0.64</f>
         <v>26.944000000000003</v>
       </c>
+      <c r="F2" s="20">
+        <f>E2</f>
+        <v>26.944000000000003</v>
+      </c>
       <c r="G2" t="s">
         <v>373</v>
       </c>
@@ -51353,6 +51357,10 @@
         <f t="shared" ref="E3:E8" si="1">D3*0.64</f>
         <v>15.872000000000002</v>
       </c>
+      <c r="F3" s="20">
+        <f>F2+E3</f>
+        <v>42.816000000000003</v>
+      </c>
       <c r="G3" t="s">
         <v>374</v>
       </c>
@@ -51393,6 +51401,10 @@
       <c r="E4" s="20">
         <f t="shared" si="1"/>
         <v>12.032</v>
+      </c>
+      <c r="F4" s="20">
+        <f>F3+E4</f>
+        <v>54.847999999999999</v>
       </c>
       <c r="G4" t="s">
         <v>375</v>

--- a/GameData/SSTU/Parts/Parts-MassCalc.xlsx
+++ b/GameData/SSTU/Parts/Parts-MassCalc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="parts" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="383">
   <si>
     <t>Part</t>
   </si>
@@ -1153,6 +1153,24 @@
   <si>
     <t>HUS</t>
   </si>
+  <si>
+    <t>SC-ENG-RD-108</t>
+  </si>
+  <si>
+    <t>SC-ENG-RD-1082</t>
+  </si>
+  <si>
+    <t>SC-ENG-RD-107X</t>
+  </si>
+  <si>
+    <t>RS-68-stock-1</t>
+  </si>
+  <si>
+    <t>RS-68-stock-2</t>
+  </si>
+  <si>
+    <t>SC-C-SMX</t>
+  </si>
 </sst>
 </file>
 
@@ -1954,9 +1972,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U110" sqref="U110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8820,10 +8838,11 @@
         <v>300</v>
       </c>
       <c r="G72" s="6">
-        <v>20</v>
+        <f>3*0.64*0.64</f>
+        <v>1.2287999999999999</v>
       </c>
       <c r="H72" s="6">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>109</v>
@@ -8862,19 +8881,19 @@
       </c>
       <c r="R72" s="4">
         <f t="shared" si="22"/>
-        <v>1.5360983102918586</v>
+        <v>9.4377880184331783E-2</v>
       </c>
       <c r="S72" s="4">
         <f t="shared" si="23"/>
-        <v>1.4249999999999998</v>
+        <v>1.5462239583333333</v>
       </c>
       <c r="T72" s="4">
         <f t="shared" si="24"/>
-        <v>6.7957866123003734E-3</v>
+        <v>4.1753312945973491E-4</v>
       </c>
       <c r="U72" s="4">
         <f t="shared" si="30"/>
-        <v>51.796800000000005</v>
+        <v>843.04687500000023</v>
       </c>
       <c r="W72" s="3">
         <f>IFERROR(VLOOKUP(I72,FuelTypes!$A$2:$G$40,5,FALSE)*M72,0)</f>
@@ -8901,14 +8920,22 @@
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
+      <c r="A73" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B73" s="6">
+        <v>2.9</v>
+      </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
+      <c r="G73" s="6">
+        <v>1.2287999999999999</v>
+      </c>
+      <c r="H73" s="6">
+        <v>0.6</v>
+      </c>
       <c r="I73" s="6"/>
       <c r="J73" s="4">
         <f t="shared" si="19"/>
@@ -8920,7 +8947,7 @@
       </c>
       <c r="L73" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="M73" s="4">
         <f>IFERROR(VLOOKUP(I73,FuelTypes!$A$1:$B$32,2,FALSE)*J73,0)</f>
@@ -8928,7 +8955,7 @@
       </c>
       <c r="N73" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="O73" s="4">
         <f t="shared" si="21"/>
@@ -8944,11 +8971,11 @@
       </c>
       <c r="R73" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4.2372413793103449E-2</v>
       </c>
       <c r="S73" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.416015625</v>
       </c>
       <c r="T73" s="4" t="e">
         <f t="shared" si="24"/>
@@ -8969,9 +8996,9 @@
         <f t="shared" si="28"/>
         <v>25000</v>
       </c>
-      <c r="Z73" s="3" t="e">
+      <c r="Z73" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>8620.6896551724149</v>
       </c>
       <c r="AB73" s="3">
         <f t="shared" si="29"/>
@@ -10472,7 +10499,7 @@
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="B91" s="6">
         <v>1.95</v>
@@ -10482,10 +10509,10 @@
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
       <c r="G91" s="6">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="H91" s="6">
-        <v>321</v>
+        <v>180</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="4">
@@ -10522,11 +10549,11 @@
       </c>
       <c r="R91" s="4">
         <f t="shared" si="22"/>
-        <v>21.179487179487182</v>
+        <v>19.128205128205131</v>
       </c>
       <c r="S91" s="4">
         <f t="shared" si="23"/>
-        <v>1.5156174334140435</v>
+        <v>0.94101876675603213</v>
       </c>
       <c r="T91" s="4" t="e">
         <f t="shared" si="24"/>
@@ -10559,7 +10586,7 @@
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="B92" s="6">
         <v>1.95</v>
@@ -10645,14 +10672,22 @@
       </c>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
+      <c r="A93" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B93" s="6">
+        <v>1.95</v>
+      </c>
       <c r="C93" s="18"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
-      <c r="G93" s="6"/>
-      <c r="H93" s="6"/>
+      <c r="G93" s="6">
+        <v>393</v>
+      </c>
+      <c r="H93" s="6">
+        <v>190</v>
+      </c>
       <c r="I93" s="6"/>
       <c r="J93" s="4">
         <f t="shared" si="19"/>
@@ -10664,7 +10699,7 @@
       </c>
       <c r="L93" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="M93" s="4">
         <f>IFERROR(VLOOKUP(I93,FuelTypes!$A$1:$B$32,2,FALSE)*J93,0)</f>
@@ -10672,7 +10707,7 @@
       </c>
       <c r="N93" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O93" s="4">
         <f t="shared" si="21"/>
@@ -10688,11 +10723,11 @@
       </c>
       <c r="R93" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>20.153846153846157</v>
       </c>
       <c r="S93" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.9427480916030534</v>
       </c>
       <c r="T93" s="4" t="e">
         <f t="shared" si="24"/>
@@ -10713,9 +10748,9 @@
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="Z93" s="3" t="e">
+      <c r="Z93" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>51.282051282051285</v>
       </c>
       <c r="AB93" s="3">
         <f t="shared" si="29"/>
@@ -10727,14 +10762,22 @@
       </c>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
+      <c r="A94" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B94" s="6">
+        <v>1.95</v>
+      </c>
       <c r="C94" s="18"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="6"/>
+      <c r="G94" s="6">
+        <v>20</v>
+      </c>
+      <c r="H94" s="6">
+        <v>5</v>
+      </c>
       <c r="I94" s="6"/>
       <c r="J94" s="4">
         <f t="shared" si="19"/>
@@ -10746,7 +10789,7 @@
       </c>
       <c r="L94" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="M94" s="4">
         <f>IFERROR(VLOOKUP(I94,FuelTypes!$A$1:$B$32,2,FALSE)*J94,0)</f>
@@ -10754,7 +10797,7 @@
       </c>
       <c r="N94" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O94" s="4">
         <f t="shared" si="21"/>
@@ -10770,11 +10813,11 @@
       </c>
       <c r="R94" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.0256410256410258</v>
       </c>
       <c r="S94" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.48749999999999999</v>
       </c>
       <c r="T94" s="4" t="e">
         <f t="shared" si="24"/>
@@ -10795,9 +10838,9 @@
         <f t="shared" si="28"/>
         <v>200</v>
       </c>
-      <c r="Z94" s="3" t="e">
+      <c r="Z94" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>102.56410256410257</v>
       </c>
       <c r="AB94" s="3">
         <f t="shared" si="29"/>
@@ -10809,14 +10852,22 @@
       </c>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
+      <c r="A95" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B95" s="6">
+        <v>1.95</v>
+      </c>
       <c r="C95" s="18"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
+      <c r="G95" s="6">
+        <v>373</v>
+      </c>
+      <c r="H95" s="6">
+        <v>280</v>
+      </c>
       <c r="I95" s="6"/>
       <c r="J95" s="4">
         <f t="shared" si="19"/>
@@ -10828,7 +10879,7 @@
       </c>
       <c r="L95" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="M95" s="4">
         <f>IFERROR(VLOOKUP(I95,FuelTypes!$A$1:$B$32,2,FALSE)*J95,0)</f>
@@ -10836,7 +10887,7 @@
       </c>
       <c r="N95" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="O95" s="4">
         <f t="shared" si="21"/>
@@ -10852,11 +10903,11 @@
       </c>
       <c r="R95" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>19.128205128205131</v>
       </c>
       <c r="S95" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.4638069705093832</v>
       </c>
       <c r="T95" s="4" t="e">
         <f t="shared" si="24"/>
@@ -10877,9 +10928,9 @@
         <f t="shared" si="28"/>
         <v>300</v>
       </c>
-      <c r="Z95" s="3" t="e">
+      <c r="Z95" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>153.84615384615384</v>
       </c>
       <c r="AB95" s="3">
         <f t="shared" si="29"/>
@@ -10891,14 +10942,22 @@
       </c>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
+      <c r="A96" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B96" s="6">
+        <v>16</v>
+      </c>
       <c r="C96" s="18"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
+      <c r="G96" s="6">
+        <v>1980</v>
+      </c>
+      <c r="H96" s="6">
+        <v>110</v>
+      </c>
       <c r="I96" s="6"/>
       <c r="J96" s="4">
         <f t="shared" si="19"/>
@@ -10910,7 +10969,7 @@
       </c>
       <c r="L96" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M96" s="4">
         <f>IFERROR(VLOOKUP(I96,FuelTypes!$A$1:$B$32,2,FALSE)*J96,0)</f>
@@ -10918,7 +10977,7 @@
       </c>
       <c r="N96" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O96" s="4">
         <f t="shared" si="21"/>
@@ -10934,11 +10993,11 @@
       </c>
       <c r="R96" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>12.375</v>
       </c>
       <c r="S96" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="T96" s="4" t="e">
         <f t="shared" si="24"/>
@@ -10959,9 +11018,9 @@
         <f t="shared" si="28"/>
         <v>400</v>
       </c>
-      <c r="Z96" s="3" t="e">
+      <c r="Z96" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>25</v>
       </c>
       <c r="AB96" s="3">
         <f t="shared" si="29"/>
@@ -10973,14 +11032,22 @@
       </c>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
+      <c r="A97" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B97" s="6">
+        <v>16</v>
+      </c>
       <c r="C97" s="18"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
+      <c r="G97" s="6">
+        <v>100</v>
+      </c>
+      <c r="H97" s="6">
+        <v>4</v>
+      </c>
       <c r="I97" s="6"/>
       <c r="J97" s="4">
         <f t="shared" si="19"/>
@@ -10992,7 +11059,7 @@
       </c>
       <c r="L97" s="4">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M97" s="4">
         <f>IFERROR(VLOOKUP(I97,FuelTypes!$A$1:$B$32,2,FALSE)*J97,0)</f>
@@ -11000,7 +11067,7 @@
       </c>
       <c r="N97" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O97" s="4">
         <f t="shared" si="21"/>
@@ -11016,11 +11083,11 @@
       </c>
       <c r="R97" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="S97" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="T97" s="4" t="e">
         <f t="shared" si="24"/>
@@ -11041,9 +11108,9 @@
         <f t="shared" si="28"/>
         <v>500</v>
       </c>
-      <c r="Z97" s="3" t="e">
+      <c r="Z97" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>31.25</v>
       </c>
       <c r="AB97" s="3">
         <f t="shared" si="29"/>
@@ -11235,14 +11302,22 @@
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
+      <c r="A100" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B100" s="6">
+        <v>10</v>
+      </c>
       <c r="C100" s="18"/>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
+      <c r="G100" s="6">
+        <v>1350</v>
+      </c>
+      <c r="H100" s="6">
+        <v>135</v>
+      </c>
       <c r="I100" s="6"/>
       <c r="J100" s="4">
         <f t="shared" si="31"/>
@@ -11254,7 +11329,7 @@
       </c>
       <c r="L100" s="4">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M100" s="4">
         <f>IFERROR(VLOOKUP(I100,FuelTypes!$A$1:$B$32,2,FALSE)*J100,0)</f>
@@ -11262,7 +11337,7 @@
       </c>
       <c r="N100" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O100" s="4">
         <f t="shared" si="33"/>
@@ -11278,11 +11353,11 @@
       </c>
       <c r="R100" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="S100" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T100" s="4" t="e">
         <f t="shared" si="24"/>
@@ -11303,9 +11378,9 @@
         <f t="shared" si="28"/>
         <v>800</v>
       </c>
-      <c r="Z100" s="3" t="e">
+      <c r="Z100" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>80</v>
       </c>
       <c r="AB100" s="3">
         <f t="shared" si="29"/>
@@ -11317,14 +11392,22 @@
       </c>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6"/>
+      <c r="A101" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="B101" s="6">
+        <v>10</v>
+      </c>
       <c r="C101" s="18"/>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
-      <c r="H101" s="6"/>
+      <c r="G101" s="6">
+        <v>80</v>
+      </c>
+      <c r="H101" s="6">
+        <v>4</v>
+      </c>
       <c r="I101" s="6"/>
       <c r="J101" s="4">
         <f t="shared" si="31"/>
@@ -11336,7 +11419,7 @@
       </c>
       <c r="L101" s="4">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M101" s="4">
         <f>IFERROR(VLOOKUP(I101,FuelTypes!$A$1:$B$32,2,FALSE)*J101,0)</f>
@@ -11344,7 +11427,7 @@
       </c>
       <c r="N101" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O101" s="4">
         <f t="shared" si="33"/>
@@ -11360,11 +11443,11 @@
       </c>
       <c r="R101" s="4">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="S101" s="4">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T101" s="4" t="e">
         <f t="shared" si="24"/>
@@ -11385,9 +11468,9 @@
         <f t="shared" si="28"/>
         <v>300</v>
       </c>
-      <c r="Z101" s="3" t="e">
+      <c r="Z101" s="3">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>30</v>
       </c>
       <c r="AB101" s="3">
         <f t="shared" si="29"/>
@@ -14300,20 +14383,33 @@
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
+      <c r="B134" s="6">
+        <v>0</v>
+      </c>
+      <c r="C134" s="6">
+        <v>502</v>
+      </c>
+      <c r="D134" s="6">
+        <v>0</v>
+      </c>
+      <c r="E134" s="6">
+        <v>0</v>
+      </c>
+      <c r="F134" s="6">
+        <v>268</v>
+      </c>
       <c r="G134" s="6">
-        <f>0.5*G125</f>
-        <v>263</v>
-      </c>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
+        <v>14780</v>
+      </c>
+      <c r="H134" s="6">
+        <v>20</v>
+      </c>
+      <c r="I134" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="J134" s="4">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="K134" s="4">
         <f t="shared" si="44"/>
@@ -14325,23 +14421,23 @@
       </c>
       <c r="M134" s="4">
         <f>IFERROR(VLOOKUP(I134,FuelTypes!$A$1:$B$32,2,FALSE)*J134,0)</f>
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="N134" s="4">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="O134" s="4">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="P134" s="4" t="e">
+        <v>1</v>
+      </c>
+      <c r="P134" s="4">
         <f>VLOOKUP(I134, FuelTypes!$A$1:$R$12,17,FALSE)*J134</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q134" s="4" t="e">
+        <v>45180</v>
+      </c>
+      <c r="Q134" s="4">
         <f>VLOOKUP(I134, FuelTypes!$A$1:$R$12,18,FALSE)*J134</f>
-        <v>#N/A</v>
+        <v>55220</v>
       </c>
       <c r="R134" s="4">
         <f t="shared" si="39"/>
@@ -14351,21 +14447,21 @@
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="T134" s="4" t="e">
+      <c r="T134" s="4">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U134" s="4" t="e">
+        <v>5.6217384027872868</v>
+      </c>
+      <c r="U134" s="4">
         <f t="shared" si="47"/>
-        <v>#DIV/0!</v>
+        <v>89.296221921515567</v>
       </c>
       <c r="W134" s="3">
         <f>IFERROR(VLOOKUP(I134,FuelTypes!$A$2:$G$40,5,FALSE)*M134,0)</f>
-        <v>0</v>
+        <v>23041.8</v>
       </c>
       <c r="Y134" s="3">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>23041.8</v>
       </c>
       <c r="Z134" s="3" t="e">
         <f t="shared" si="42"/>
@@ -14373,11 +14469,11 @@
       </c>
       <c r="AB134" s="3">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC134" s="3">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.25">
@@ -39495,7 +39591,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y9" sqref="Y9"/>
+      <selection pane="bottomLeft" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39813,7 +39909,7 @@
         <v>163</v>
       </c>
       <c r="AD3" s="34">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AE3" s="27">
         <v>0.25</v>
@@ -40005,19 +40101,19 @@
       </c>
       <c r="V5" s="20">
         <f t="shared" si="12"/>
-        <v>0.40960000000000002</v>
+        <v>0.61440000000000006</v>
       </c>
       <c r="W5" s="30">
         <f t="shared" si="8"/>
-        <v>18.448530941704036</v>
+        <v>27.672796412556057</v>
       </c>
       <c r="X5" s="31">
         <f t="shared" si="13"/>
-        <v>26.542079999999999</v>
+        <v>39.813120000000005</v>
       </c>
       <c r="Y5" s="20">
         <f t="shared" si="9"/>
-        <v>0.27033600000000002</v>
+        <v>0.40550400000000009</v>
       </c>
       <c r="Z5" s="20">
         <f t="shared" si="10"/>
@@ -40115,23 +40211,23 @@
       </c>
       <c r="V6" s="32">
         <f t="shared" si="12"/>
-        <v>0.40960000000000002</v>
+        <v>0.61440000000000006</v>
       </c>
       <c r="W6" s="30">
         <f t="shared" si="8"/>
-        <v>15.319040000000001</v>
+        <v>22.978560000000002</v>
       </c>
       <c r="X6" s="31">
         <f t="shared" si="13"/>
-        <v>27.0336</v>
+        <v>40.550400000000003</v>
       </c>
       <c r="Y6" s="32">
         <f t="shared" si="9"/>
-        <v>0.2146304</v>
+        <v>0.32194560000000005</v>
       </c>
       <c r="Z6" s="20">
         <f t="shared" si="10"/>
-        <v>188.93129770992365</v>
+        <v>188.93129770992363</v>
       </c>
       <c r="AA6" s="24" t="s">
         <v>265</v>
@@ -40226,23 +40322,23 @@
       </c>
       <c r="V7" s="32">
         <f t="shared" si="12"/>
-        <v>0.40960000000000002</v>
+        <v>0.61440000000000006</v>
       </c>
       <c r="W7" s="30">
         <f t="shared" si="8"/>
-        <v>20.569628008752737</v>
+        <v>30.854442013129106</v>
       </c>
       <c r="X7" s="31">
         <f t="shared" si="13"/>
-        <v>36.864000000000004</v>
+        <v>55.296000000000006</v>
       </c>
       <c r="Y7" s="32">
         <f t="shared" si="9"/>
-        <v>0.27525120000000008</v>
+        <v>0.4128768000000001</v>
       </c>
       <c r="Z7" s="20">
         <f t="shared" si="10"/>
-        <v>200.89285714285711</v>
+        <v>200.89285714285714</v>
       </c>
       <c r="AA7" s="26" t="s">
         <v>267</v>
@@ -40327,23 +40423,23 @@
       </c>
       <c r="V8" s="20">
         <f t="shared" si="12"/>
-        <v>0.40960000000000002</v>
+        <v>0.61440000000000006</v>
       </c>
       <c r="W8" s="30">
         <f t="shared" si="8"/>
-        <v>30.344017278617706</v>
+        <v>45.516025917926569</v>
       </c>
       <c r="X8" s="31">
         <f t="shared" si="13"/>
-        <v>40.140799999999999</v>
+        <v>60.211200000000005</v>
       </c>
       <c r="Y8" s="20">
         <f t="shared" si="9"/>
-        <v>0.39649279999999998</v>
+        <v>0.59473920000000013</v>
       </c>
       <c r="Z8" s="20">
         <f t="shared" si="10"/>
-        <v>151.85950413223142</v>
+        <v>151.85950413223139</v>
       </c>
       <c r="AA8" s="26" t="s">
         <v>269</v>
@@ -40431,19 +40527,19 @@
       </c>
       <c r="V9" s="32">
         <f t="shared" si="12"/>
-        <v>0.40960000000000002</v>
+        <v>0.61440000000000006</v>
       </c>
       <c r="W9" s="32">
         <f t="shared" si="8"/>
-        <v>24.708129032258068</v>
+        <v>37.0621935483871</v>
       </c>
       <c r="X9" s="32">
         <f t="shared" si="13"/>
-        <v>45.056000000000004</v>
+        <v>67.584000000000003</v>
       </c>
       <c r="Y9" s="32">
         <f t="shared" si="9"/>
-        <v>0.45383679999999998</v>
+        <v>0.6807552</v>
       </c>
       <c r="Z9" s="20">
         <f t="shared" si="10"/>
@@ -40536,23 +40632,23 @@
       </c>
       <c r="V10" s="20">
         <f t="shared" si="12"/>
-        <v>0.40960000000000002</v>
+        <v>0.61440000000000006</v>
       </c>
       <c r="W10" s="30">
         <f t="shared" si="8"/>
-        <v>89.099010752688187</v>
+        <v>133.64851612903229</v>
       </c>
       <c r="X10" s="31">
         <f t="shared" si="13"/>
-        <v>118.37440000000001</v>
+        <v>177.56160000000003</v>
       </c>
       <c r="Y10" s="20">
         <f t="shared" si="9"/>
-        <v>0.81920000000000015</v>
+        <v>1.2288000000000003</v>
       </c>
       <c r="Z10" s="20">
         <f t="shared" si="10"/>
-        <v>216.74999999999997</v>
+        <v>216.74999999999994</v>
       </c>
       <c r="AA10" s="28" t="s">
         <v>273</v>
@@ -40574,7 +40670,9 @@
       <c r="C11" s="21">
         <v>408.5</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="21">
+        <v>82.2</v>
+      </c>
       <c r="E11" s="21" t="s">
         <v>259</v>
       </c>
@@ -41819,19 +41917,19 @@
       </c>
       <c r="V23" s="32">
         <f t="shared" si="12"/>
-        <v>0.40960000000000002</v>
+        <v>0.61440000000000006</v>
       </c>
       <c r="W23" s="30">
         <f t="shared" si="8"/>
-        <v>201.00560570071261</v>
+        <v>301.5084085510689</v>
       </c>
       <c r="X23" s="31">
         <f t="shared" si="13"/>
-        <v>423.11680000000001</v>
+        <v>634.67520000000002</v>
       </c>
       <c r="Y23" s="32">
         <f t="shared" si="9"/>
-        <v>2.9294592000000002</v>
+        <v>4.3941888000000002</v>
       </c>
       <c r="Z23" s="20">
         <f t="shared" ref="Z23:Z40" si="28">1.5/Y23*X23</f>
@@ -42018,23 +42116,23 @@
       </c>
       <c r="V25" s="32">
         <f t="shared" si="12"/>
-        <v>0.40960000000000002</v>
+        <v>0.61440000000000006</v>
       </c>
       <c r="W25" s="32">
         <f t="shared" si="8"/>
-        <v>408.68022857142864</v>
+        <v>613.02034285714296</v>
       </c>
       <c r="X25" s="32">
         <f t="shared" si="13"/>
-        <v>535.34720000000004</v>
+        <v>803.02080000000012</v>
       </c>
       <c r="Y25" s="32">
         <f t="shared" si="9"/>
-        <v>4.0468480000000007</v>
+        <v>6.070272000000001</v>
       </c>
       <c r="Z25" s="20">
         <f t="shared" si="28"/>
-        <v>198.4311740890688</v>
+        <v>198.43117408906883</v>
       </c>
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
@@ -42315,19 +42413,19 @@
       </c>
       <c r="V28" s="32">
         <f t="shared" si="12"/>
-        <v>0.40960000000000002</v>
+        <v>0.61440000000000006</v>
       </c>
       <c r="W28" s="30">
         <f t="shared" si="8"/>
-        <v>753.1429380530974</v>
+        <v>1129.714407079646</v>
       </c>
       <c r="X28" s="31">
         <f t="shared" si="13"/>
-        <v>932.65920000000006</v>
+        <v>1398.9888000000001</v>
       </c>
       <c r="Y28" s="32">
         <f t="shared" si="9"/>
-        <v>5.776998400000001</v>
+        <v>8.6654976000000019</v>
       </c>
       <c r="Z28" s="20">
         <f t="shared" si="28"/>
@@ -42502,23 +42600,23 @@
       </c>
       <c r="V30" s="32">
         <f t="shared" si="12"/>
-        <v>0.40960000000000002</v>
+        <v>0.61440000000000006</v>
       </c>
       <c r="W30" s="32">
         <f t="shared" si="8"/>
-        <v>1207.7006048780488</v>
+        <v>1811.5509073170731</v>
       </c>
       <c r="X30" s="32">
         <f t="shared" si="13"/>
-        <v>1356.5952</v>
+        <v>2034.8928000000001</v>
       </c>
       <c r="Y30" s="32">
         <f t="shared" si="9"/>
-        <v>10.813440000000002</v>
+        <v>16.22016</v>
       </c>
       <c r="Z30" s="20">
         <f t="shared" si="28"/>
-        <v>188.18181818181816</v>
+        <v>188.18181818181819</v>
       </c>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
@@ -42601,23 +42699,23 @@
       </c>
       <c r="V31" s="20">
         <f t="shared" si="12"/>
-        <v>0.40960000000000002</v>
+        <v>0.61440000000000006</v>
       </c>
       <c r="W31" s="30">
         <f t="shared" si="8"/>
-        <v>1224.852048192771</v>
+        <v>1837.2780722891564</v>
       </c>
       <c r="X31" s="31">
         <f t="shared" si="13"/>
-        <v>1392.64</v>
+        <v>2088.96</v>
       </c>
       <c r="Y31" s="20">
         <f t="shared" si="9"/>
-        <v>10.649600000000001</v>
+        <v>15.974400000000001</v>
       </c>
       <c r="Z31" s="20">
         <f t="shared" si="28"/>
-        <v>196.15384615384616</v>
+        <v>196.15384615384613</v>
       </c>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
@@ -42701,19 +42799,19 @@
       </c>
       <c r="V32" s="20">
         <f t="shared" si="12"/>
-        <v>0.40960000000000002</v>
+        <v>0.61440000000000006</v>
       </c>
       <c r="W32" s="30">
         <f t="shared" si="8"/>
-        <v>1212.6435555555554</v>
+        <v>1818.9653333333335</v>
       </c>
       <c r="X32" s="31">
         <f t="shared" si="13"/>
-        <v>1495.04</v>
+        <v>2242.5600000000004</v>
       </c>
       <c r="Y32" s="20">
         <f t="shared" si="9"/>
-        <v>13.926400000000001</v>
+        <v>20.889600000000009</v>
       </c>
       <c r="Z32" s="20">
         <f t="shared" si="28"/>
@@ -42899,23 +42997,23 @@
       </c>
       <c r="V34" s="20">
         <f t="shared" si="12"/>
-        <v>0.40960000000000002</v>
+        <v>0.61440000000000006</v>
       </c>
       <c r="W34" s="30">
         <f t="shared" si="8"/>
-        <v>1582.7499065420561</v>
+        <v>2374.1248598130846</v>
       </c>
       <c r="X34" s="31">
         <f t="shared" si="13"/>
-        <v>2185.2159999999999</v>
+        <v>3277.8240000000005</v>
       </c>
       <c r="Y34" s="20">
         <f t="shared" si="9"/>
-        <v>14.857011200000001</v>
+        <v>22.285516800000003</v>
       </c>
       <c r="Z34" s="20">
         <f t="shared" si="28"/>
-        <v>220.6247243052492</v>
+        <v>220.62472430524926</v>
       </c>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
@@ -51233,7 +51331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>

--- a/GameData/SSTU/Parts/Parts-MassCalc.xlsx
+++ b/GameData/SSTU/Parts/Parts-MassCalc.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="parts" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="StockChuteCalc" sheetId="11" r:id="rId7"/>
     <sheet name="RealRocketDims" sheetId="12" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1624,13 +1624,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1645,26 +1657,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1726,7 +1726,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1761,7 +1761,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1972,7 +1972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="U110" sqref="U110"/>
     </sheetView>
@@ -27975,45 +27975,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
       <c r="H1" s="12"/>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
       <c r="P1" s="12"/>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
       <c r="X1" s="12"/>
-      <c r="Y1" s="46" t="s">
+      <c r="Y1" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
       <c r="AF1" s="12"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -29724,270 +29724,270 @@
       <c r="A20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="47">
         <f>E19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
       <c r="H20" s="12"/>
       <c r="I20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="43">
+      <c r="J20" s="47">
         <f>M19</f>
         <v>0</v>
       </c>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="45"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="49"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R20" s="43">
+      <c r="R20" s="47">
         <f>U19</f>
         <v>0</v>
       </c>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="45"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="49"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z20" s="43">
+      <c r="Z20" s="47">
         <f>AC19</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="45"/>
+      <c r="AA20" s="48"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="49"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="47">
         <f>C19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
       <c r="H21" s="12"/>
       <c r="I21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="43">
+      <c r="J21" s="47">
         <f>K19</f>
         <v>0</v>
       </c>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="45"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="49"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R21" s="43">
+      <c r="R21" s="47">
         <f>S19</f>
         <v>0</v>
       </c>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="45"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="49"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z21" s="43">
+      <c r="Z21" s="47">
         <f>AA19</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="45"/>
+      <c r="AA21" s="48"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="49"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="47">
         <f>IFERROR((G19/10/B20),0)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="12"/>
       <c r="I22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="43">
+      <c r="J22" s="47">
         <f>IFERROR((O19/10/J20),0)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="45"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="49"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R22" s="43">
+      <c r="R22" s="47">
         <f>IFERROR((W19/10/R20),0)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="45"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="49"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z22" s="43">
+      <c r="Z22" s="47">
         <f>IFERROR((AE19/10/Z20),0)</f>
         <v>0</v>
       </c>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="45"/>
+      <c r="AA22" s="48"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="49"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="47">
         <f>IFERROR((9.82 * F19) * LN(B20/C19),0)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
       <c r="H23" s="12"/>
       <c r="I23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="43">
+      <c r="J23" s="47">
         <f>IFERROR((9.82 * N19) * LN(J20/K19),0)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="45"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="49"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R23" s="43">
+      <c r="R23" s="47">
         <f>IFERROR((9.82 * V19) * LN(R20/S19),0)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="45"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="49"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z23" s="43">
+      <c r="Z23" s="47">
         <f>IFERROR((9.82 * AD19) * LN(Z20/AA19),0)</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="45"/>
+      <c r="AA23" s="48"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="48"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="49"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="40">
+      <c r="B24" s="51">
         <f>B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
       <c r="H24" s="12"/>
       <c r="I24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="51">
         <f>J23</f>
         <v>0</v>
       </c>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="42"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="53"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R24" s="40">
+      <c r="R24" s="51">
         <f>R23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="42"/>
+      <c r="S24" s="52"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52"/>
+      <c r="W24" s="53"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z24" s="40">
+      <c r="Z24" s="51">
         <f>Z23</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="42"/>
+      <c r="AA24" s="52"/>
+      <c r="AB24" s="52"/>
+      <c r="AC24" s="52"/>
+      <c r="AD24" s="52"/>
+      <c r="AE24" s="53"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31728,270 +31728,270 @@
       <c r="A44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="47">
         <f>E43+B20</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49"/>
       <c r="H44" s="12"/>
       <c r="I44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J44" s="43">
+      <c r="J44" s="47">
         <f>M43+J20</f>
         <v>0</v>
       </c>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="45"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="49"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R44" s="43">
+      <c r="R44" s="47">
         <f>U43+R20</f>
         <v>0</v>
       </c>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="45"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="48"/>
+      <c r="W44" s="49"/>
       <c r="X44" s="12"/>
       <c r="Y44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z44" s="43">
+      <c r="Z44" s="47">
         <f>AC43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="44"/>
-      <c r="AB44" s="44"/>
-      <c r="AC44" s="44"/>
-      <c r="AD44" s="44"/>
-      <c r="AE44" s="45"/>
+      <c r="AA44" s="48"/>
+      <c r="AB44" s="48"/>
+      <c r="AC44" s="48"/>
+      <c r="AD44" s="48"/>
+      <c r="AE44" s="49"/>
       <c r="AF44" s="12"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="43">
+      <c r="B45" s="47">
         <f>C43+B20</f>
         <v>1.7964924375</v>
       </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="45"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="49"/>
       <c r="H45" s="12"/>
       <c r="I45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J45" s="43">
+      <c r="J45" s="47">
         <f>K43+J20</f>
         <v>0</v>
       </c>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="45"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="49"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R45" s="43">
+      <c r="R45" s="47">
         <f>S43+R20</f>
         <v>0</v>
       </c>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="45"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="48"/>
+      <c r="U45" s="48"/>
+      <c r="V45" s="48"/>
+      <c r="W45" s="49"/>
       <c r="X45" s="12"/>
       <c r="Y45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z45" s="43">
+      <c r="Z45" s="47">
         <f>AA43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA45" s="44"/>
-      <c r="AB45" s="44"/>
-      <c r="AC45" s="44"/>
-      <c r="AD45" s="44"/>
-      <c r="AE45" s="45"/>
+      <c r="AA45" s="48"/>
+      <c r="AB45" s="48"/>
+      <c r="AC45" s="48"/>
+      <c r="AD45" s="48"/>
+      <c r="AE45" s="49"/>
       <c r="AF45" s="12"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="43">
+      <c r="B46" s="47">
         <f>IFERROR((G43/10/B44),0)</f>
         <v>0.4177067298338254</v>
       </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="49"/>
       <c r="H46" s="12"/>
       <c r="I46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J46" s="43">
+      <c r="J46" s="47">
         <f>IFERROR((O43/10/J44),0)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="45"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="49"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R46" s="43">
+      <c r="R46" s="47">
         <f>IFERROR((W43/10/R44),0)</f>
         <v>0</v>
       </c>
-      <c r="S46" s="44"/>
-      <c r="T46" s="44"/>
-      <c r="U46" s="44"/>
-      <c r="V46" s="44"/>
-      <c r="W46" s="45"/>
+      <c r="S46" s="48"/>
+      <c r="T46" s="48"/>
+      <c r="U46" s="48"/>
+      <c r="V46" s="48"/>
+      <c r="W46" s="49"/>
       <c r="X46" s="12"/>
       <c r="Y46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z46" s="43">
+      <c r="Z46" s="47">
         <f>IFERROR((AE43/10/Z44),0)</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="44"/>
-      <c r="AB46" s="44"/>
-      <c r="AC46" s="44"/>
-      <c r="AD46" s="44"/>
-      <c r="AE46" s="45"/>
+      <c r="AA46" s="48"/>
+      <c r="AB46" s="48"/>
+      <c r="AC46" s="48"/>
+      <c r="AD46" s="48"/>
+      <c r="AE46" s="49"/>
       <c r="AF46" s="12"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="43">
+      <c r="B47" s="47">
         <f>IFERROR((9.82 * F43) * LN(B44/B45),0)</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="45"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
       <c r="H47" s="12"/>
       <c r="I47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="43">
+      <c r="J47" s="47">
         <f>IFERROR((9.82 * N43) * LN(J44/J45),0)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="45"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="49"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R47" s="43">
+      <c r="R47" s="47">
         <f>IFERROR((9.82 * V43) * LN(R44/R45),0)</f>
         <v>0</v>
       </c>
-      <c r="S47" s="44"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="44"/>
-      <c r="V47" s="44"/>
-      <c r="W47" s="45"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="48"/>
+      <c r="U47" s="48"/>
+      <c r="V47" s="48"/>
+      <c r="W47" s="49"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z47" s="43">
+      <c r="Z47" s="47">
         <f>IFERROR((9.82 * AD43) * LN(Z44/Z45),0)</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="44"/>
-      <c r="AB47" s="44"/>
-      <c r="AC47" s="44"/>
-      <c r="AD47" s="44"/>
-      <c r="AE47" s="45"/>
+      <c r="AA47" s="48"/>
+      <c r="AB47" s="48"/>
+      <c r="AC47" s="48"/>
+      <c r="AD47" s="48"/>
+      <c r="AE47" s="49"/>
       <c r="AF47" s="12"/>
     </row>
     <row r="48" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="40">
+      <c r="B48" s="51">
         <f>B47+B24</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="42"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
       <c r="H48" s="12"/>
       <c r="I48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J48" s="40">
+      <c r="J48" s="51">
         <f>J47+J24</f>
         <v>0</v>
       </c>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="42"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="53"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R48" s="40">
+      <c r="R48" s="51">
         <f>R47+R24</f>
         <v>0</v>
       </c>
-      <c r="S48" s="41"/>
-      <c r="T48" s="41"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="41"/>
-      <c r="W48" s="42"/>
+      <c r="S48" s="52"/>
+      <c r="T48" s="52"/>
+      <c r="U48" s="52"/>
+      <c r="V48" s="52"/>
+      <c r="W48" s="53"/>
       <c r="X48" s="12"/>
       <c r="Y48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z48" s="40">
+      <c r="Z48" s="51">
         <f>Z47+Z24</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="41"/>
-      <c r="AB48" s="41"/>
-      <c r="AC48" s="41"/>
-      <c r="AD48" s="41"/>
-      <c r="AE48" s="42"/>
+      <c r="AA48" s="52"/>
+      <c r="AB48" s="52"/>
+      <c r="AC48" s="52"/>
+      <c r="AD48" s="52"/>
+      <c r="AE48" s="53"/>
       <c r="AF48" s="12"/>
     </row>
     <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33728,270 +33728,270 @@
       <c r="A68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="43">
+      <c r="B68" s="47">
         <f>E67+B44</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="45"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="49"/>
       <c r="H68" s="12"/>
       <c r="I68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J68" s="43">
+      <c r="J68" s="47">
         <f>M67+J44</f>
         <v>0</v>
       </c>
-      <c r="K68" s="44"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="44"/>
-      <c r="N68" s="44"/>
-      <c r="O68" s="45"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="49"/>
       <c r="P68" s="12"/>
       <c r="Q68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R68" s="43">
+      <c r="R68" s="47">
         <f>U67+R44</f>
         <v>0</v>
       </c>
-      <c r="S68" s="44"/>
-      <c r="T68" s="44"/>
-      <c r="U68" s="44"/>
-      <c r="V68" s="44"/>
-      <c r="W68" s="45"/>
+      <c r="S68" s="48"/>
+      <c r="T68" s="48"/>
+      <c r="U68" s="48"/>
+      <c r="V68" s="48"/>
+      <c r="W68" s="49"/>
       <c r="X68" s="12"/>
       <c r="Y68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z68" s="43">
+      <c r="Z68" s="47">
         <f>AC67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA68" s="44"/>
-      <c r="AB68" s="44"/>
-      <c r="AC68" s="44"/>
-      <c r="AD68" s="44"/>
-      <c r="AE68" s="45"/>
+      <c r="AA68" s="48"/>
+      <c r="AB68" s="48"/>
+      <c r="AC68" s="48"/>
+      <c r="AD68" s="48"/>
+      <c r="AE68" s="49"/>
       <c r="AF68" s="12"/>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="43">
+      <c r="B69" s="47">
         <f>C67+B44</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="45"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="49"/>
       <c r="H69" s="12"/>
       <c r="I69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J69" s="43">
+      <c r="J69" s="47">
         <f>K67+J44</f>
         <v>0</v>
       </c>
-      <c r="K69" s="44"/>
-      <c r="L69" s="44"/>
-      <c r="M69" s="44"/>
-      <c r="N69" s="44"/>
-      <c r="O69" s="45"/>
+      <c r="K69" s="48"/>
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="49"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R69" s="43">
+      <c r="R69" s="47">
         <f>S67+R44</f>
         <v>0</v>
       </c>
-      <c r="S69" s="44"/>
-      <c r="T69" s="44"/>
-      <c r="U69" s="44"/>
-      <c r="V69" s="44"/>
-      <c r="W69" s="45"/>
+      <c r="S69" s="48"/>
+      <c r="T69" s="48"/>
+      <c r="U69" s="48"/>
+      <c r="V69" s="48"/>
+      <c r="W69" s="49"/>
       <c r="X69" s="12"/>
       <c r="Y69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z69" s="43">
+      <c r="Z69" s="47">
         <f>AA67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA69" s="44"/>
-      <c r="AB69" s="44"/>
-      <c r="AC69" s="44"/>
-      <c r="AD69" s="44"/>
-      <c r="AE69" s="45"/>
+      <c r="AA69" s="48"/>
+      <c r="AB69" s="48"/>
+      <c r="AC69" s="48"/>
+      <c r="AD69" s="48"/>
+      <c r="AE69" s="49"/>
       <c r="AF69" s="12"/>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="43">
+      <c r="B70" s="47">
         <f>IFERROR((G67/10/B68),0)</f>
         <v>0</v>
       </c>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="45"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="48"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="49"/>
       <c r="H70" s="12"/>
       <c r="I70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J70" s="43">
+      <c r="J70" s="47">
         <f>IFERROR((O67/10/J68),0)</f>
         <v>0</v>
       </c>
-      <c r="K70" s="44"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="44"/>
-      <c r="N70" s="44"/>
-      <c r="O70" s="45"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="48"/>
+      <c r="O70" s="49"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R70" s="43">
+      <c r="R70" s="47">
         <f>IFERROR((W67/10/R68),0)</f>
         <v>0</v>
       </c>
-      <c r="S70" s="44"/>
-      <c r="T70" s="44"/>
-      <c r="U70" s="44"/>
-      <c r="V70" s="44"/>
-      <c r="W70" s="45"/>
+      <c r="S70" s="48"/>
+      <c r="T70" s="48"/>
+      <c r="U70" s="48"/>
+      <c r="V70" s="48"/>
+      <c r="W70" s="49"/>
       <c r="X70" s="12"/>
       <c r="Y70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z70" s="43">
+      <c r="Z70" s="47">
         <f>IFERROR((AE67/10/Z68),0)</f>
         <v>0</v>
       </c>
-      <c r="AA70" s="44"/>
-      <c r="AB70" s="44"/>
-      <c r="AC70" s="44"/>
-      <c r="AD70" s="44"/>
-      <c r="AE70" s="45"/>
+      <c r="AA70" s="48"/>
+      <c r="AB70" s="48"/>
+      <c r="AC70" s="48"/>
+      <c r="AD70" s="48"/>
+      <c r="AE70" s="49"/>
       <c r="AF70" s="12"/>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="43">
+      <c r="B71" s="47">
         <f>IFERROR((9.82 * F67) * LN(B68/B69),0)</f>
         <v>0</v>
       </c>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="45"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="48"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="49"/>
       <c r="H71" s="12"/>
       <c r="I71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J71" s="43">
+      <c r="J71" s="47">
         <f>IFERROR((9.82 * N67) * LN(J68/J69),0)</f>
         <v>0</v>
       </c>
-      <c r="K71" s="44"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="44"/>
-      <c r="O71" s="45"/>
+      <c r="K71" s="48"/>
+      <c r="L71" s="48"/>
+      <c r="M71" s="48"/>
+      <c r="N71" s="48"/>
+      <c r="O71" s="49"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R71" s="43">
+      <c r="R71" s="47">
         <f>IFERROR((9.82 * V67) * LN(R68/R69),0)</f>
         <v>0</v>
       </c>
-      <c r="S71" s="44"/>
-      <c r="T71" s="44"/>
-      <c r="U71" s="44"/>
-      <c r="V71" s="44"/>
-      <c r="W71" s="45"/>
+      <c r="S71" s="48"/>
+      <c r="T71" s="48"/>
+      <c r="U71" s="48"/>
+      <c r="V71" s="48"/>
+      <c r="W71" s="49"/>
       <c r="X71" s="12"/>
       <c r="Y71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z71" s="43">
+      <c r="Z71" s="47">
         <f>IFERROR((9.82 * AD67) * LN(Z68/Z69),0)</f>
         <v>0</v>
       </c>
-      <c r="AA71" s="44"/>
-      <c r="AB71" s="44"/>
-      <c r="AC71" s="44"/>
-      <c r="AD71" s="44"/>
-      <c r="AE71" s="45"/>
+      <c r="AA71" s="48"/>
+      <c r="AB71" s="48"/>
+      <c r="AC71" s="48"/>
+      <c r="AD71" s="48"/>
+      <c r="AE71" s="49"/>
       <c r="AF71" s="12"/>
     </row>
     <row r="72" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="40">
+      <c r="B72" s="51">
         <f>B71+B48</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="42"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="53"/>
       <c r="H72" s="12"/>
       <c r="I72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J72" s="40">
+      <c r="J72" s="51">
         <f>J71+J48</f>
         <v>0</v>
       </c>
-      <c r="K72" s="41"/>
-      <c r="L72" s="41"/>
-      <c r="M72" s="41"/>
-      <c r="N72" s="41"/>
-      <c r="O72" s="42"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="52"/>
+      <c r="O72" s="53"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R72" s="40">
+      <c r="R72" s="51">
         <f>R71+R48</f>
         <v>0</v>
       </c>
-      <c r="S72" s="41"/>
-      <c r="T72" s="41"/>
-      <c r="U72" s="41"/>
-      <c r="V72" s="41"/>
-      <c r="W72" s="42"/>
+      <c r="S72" s="52"/>
+      <c r="T72" s="52"/>
+      <c r="U72" s="52"/>
+      <c r="V72" s="52"/>
+      <c r="W72" s="53"/>
       <c r="X72" s="12"/>
       <c r="Y72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z72" s="40">
+      <c r="Z72" s="51">
         <f>Z71+Z48</f>
         <v>0</v>
       </c>
-      <c r="AA72" s="41"/>
-      <c r="AB72" s="41"/>
-      <c r="AC72" s="41"/>
-      <c r="AD72" s="41"/>
-      <c r="AE72" s="42"/>
+      <c r="AA72" s="52"/>
+      <c r="AB72" s="52"/>
+      <c r="AC72" s="52"/>
+      <c r="AD72" s="52"/>
+      <c r="AE72" s="53"/>
       <c r="AF72" s="12"/>
     </row>
     <row r="73" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35728,270 +35728,270 @@
       <c r="A92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="43">
+      <c r="B92" s="47">
         <f>E91+B68</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C92" s="44"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="45"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="49"/>
       <c r="H92" s="12"/>
       <c r="I92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J92" s="43">
+      <c r="J92" s="47">
         <f>M91+J68</f>
         <v>0</v>
       </c>
-      <c r="K92" s="44"/>
-      <c r="L92" s="44"/>
-      <c r="M92" s="44"/>
-      <c r="N92" s="44"/>
-      <c r="O92" s="45"/>
+      <c r="K92" s="48"/>
+      <c r="L92" s="48"/>
+      <c r="M92" s="48"/>
+      <c r="N92" s="48"/>
+      <c r="O92" s="49"/>
       <c r="P92" s="12"/>
       <c r="Q92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R92" s="43">
+      <c r="R92" s="47">
         <f>U91+R68</f>
         <v>0</v>
       </c>
-      <c r="S92" s="44"/>
-      <c r="T92" s="44"/>
-      <c r="U92" s="44"/>
-      <c r="V92" s="44"/>
-      <c r="W92" s="45"/>
+      <c r="S92" s="48"/>
+      <c r="T92" s="48"/>
+      <c r="U92" s="48"/>
+      <c r="V92" s="48"/>
+      <c r="W92" s="49"/>
       <c r="X92" s="12"/>
       <c r="Y92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z92" s="43">
+      <c r="Z92" s="47">
         <f>AC91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA92" s="44"/>
-      <c r="AB92" s="44"/>
-      <c r="AC92" s="44"/>
-      <c r="AD92" s="44"/>
-      <c r="AE92" s="45"/>
+      <c r="AA92" s="48"/>
+      <c r="AB92" s="48"/>
+      <c r="AC92" s="48"/>
+      <c r="AD92" s="48"/>
+      <c r="AE92" s="49"/>
       <c r="AF92" s="12"/>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="43">
+      <c r="B93" s="47">
         <f>C91+B68</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="45"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="49"/>
       <c r="H93" s="12"/>
       <c r="I93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J93" s="43">
+      <c r="J93" s="47">
         <f>K91+J68</f>
         <v>0</v>
       </c>
-      <c r="K93" s="44"/>
-      <c r="L93" s="44"/>
-      <c r="M93" s="44"/>
-      <c r="N93" s="44"/>
-      <c r="O93" s="45"/>
+      <c r="K93" s="48"/>
+      <c r="L93" s="48"/>
+      <c r="M93" s="48"/>
+      <c r="N93" s="48"/>
+      <c r="O93" s="49"/>
       <c r="P93" s="12"/>
       <c r="Q93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R93" s="43">
+      <c r="R93" s="47">
         <f>S91+R68</f>
         <v>0</v>
       </c>
-      <c r="S93" s="44"/>
-      <c r="T93" s="44"/>
-      <c r="U93" s="44"/>
-      <c r="V93" s="44"/>
-      <c r="W93" s="45"/>
+      <c r="S93" s="48"/>
+      <c r="T93" s="48"/>
+      <c r="U93" s="48"/>
+      <c r="V93" s="48"/>
+      <c r="W93" s="49"/>
       <c r="X93" s="12"/>
       <c r="Y93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z93" s="43">
+      <c r="Z93" s="47">
         <f>AA91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA93" s="44"/>
-      <c r="AB93" s="44"/>
-      <c r="AC93" s="44"/>
-      <c r="AD93" s="44"/>
-      <c r="AE93" s="45"/>
+      <c r="AA93" s="48"/>
+      <c r="AB93" s="48"/>
+      <c r="AC93" s="48"/>
+      <c r="AD93" s="48"/>
+      <c r="AE93" s="49"/>
       <c r="AF93" s="12"/>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="43">
+      <c r="B94" s="47">
         <f>IFERROR((G91/10/B92),0)</f>
         <v>0</v>
       </c>
-      <c r="C94" s="44"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="45"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="49"/>
       <c r="H94" s="12"/>
       <c r="I94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J94" s="43">
+      <c r="J94" s="47">
         <f>IFERROR((O91/10/J92),0)</f>
         <v>0</v>
       </c>
-      <c r="K94" s="44"/>
-      <c r="L94" s="44"/>
-      <c r="M94" s="44"/>
-      <c r="N94" s="44"/>
-      <c r="O94" s="45"/>
+      <c r="K94" s="48"/>
+      <c r="L94" s="48"/>
+      <c r="M94" s="48"/>
+      <c r="N94" s="48"/>
+      <c r="O94" s="49"/>
       <c r="P94" s="12"/>
       <c r="Q94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R94" s="43">
+      <c r="R94" s="47">
         <f>IFERROR((W91/10/R92),0)</f>
         <v>0</v>
       </c>
-      <c r="S94" s="44"/>
-      <c r="T94" s="44"/>
-      <c r="U94" s="44"/>
-      <c r="V94" s="44"/>
-      <c r="W94" s="45"/>
+      <c r="S94" s="48"/>
+      <c r="T94" s="48"/>
+      <c r="U94" s="48"/>
+      <c r="V94" s="48"/>
+      <c r="W94" s="49"/>
       <c r="X94" s="12"/>
       <c r="Y94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z94" s="43">
+      <c r="Z94" s="47">
         <f>IFERROR((AE91/10/Z92),0)</f>
         <v>0</v>
       </c>
-      <c r="AA94" s="44"/>
-      <c r="AB94" s="44"/>
-      <c r="AC94" s="44"/>
-      <c r="AD94" s="44"/>
-      <c r="AE94" s="45"/>
+      <c r="AA94" s="48"/>
+      <c r="AB94" s="48"/>
+      <c r="AC94" s="48"/>
+      <c r="AD94" s="48"/>
+      <c r="AE94" s="49"/>
       <c r="AF94" s="12"/>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="43">
+      <c r="B95" s="47">
         <f>IFERROR((9.82 * F91) * LN(B92/B93),0)</f>
         <v>0</v>
       </c>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="44"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="45"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="49"/>
       <c r="H95" s="12"/>
       <c r="I95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J95" s="43">
+      <c r="J95" s="47">
         <f>IFERROR((9.82 * N91) * LN(J92/J93),0)</f>
         <v>0</v>
       </c>
-      <c r="K95" s="44"/>
-      <c r="L95" s="44"/>
-      <c r="M95" s="44"/>
-      <c r="N95" s="44"/>
-      <c r="O95" s="45"/>
+      <c r="K95" s="48"/>
+      <c r="L95" s="48"/>
+      <c r="M95" s="48"/>
+      <c r="N95" s="48"/>
+      <c r="O95" s="49"/>
       <c r="P95" s="12"/>
       <c r="Q95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R95" s="43">
+      <c r="R95" s="47">
         <f>IFERROR((9.82 * V91) * LN(R92/R93),0)</f>
         <v>0</v>
       </c>
-      <c r="S95" s="44"/>
-      <c r="T95" s="44"/>
-      <c r="U95" s="44"/>
-      <c r="V95" s="44"/>
-      <c r="W95" s="45"/>
+      <c r="S95" s="48"/>
+      <c r="T95" s="48"/>
+      <c r="U95" s="48"/>
+      <c r="V95" s="48"/>
+      <c r="W95" s="49"/>
       <c r="X95" s="12"/>
       <c r="Y95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z95" s="43">
+      <c r="Z95" s="47">
         <f>IFERROR((9.82 * AD91) * LN(Z92/Z93),0)</f>
         <v>0</v>
       </c>
-      <c r="AA95" s="44"/>
-      <c r="AB95" s="44"/>
-      <c r="AC95" s="44"/>
-      <c r="AD95" s="44"/>
-      <c r="AE95" s="45"/>
+      <c r="AA95" s="48"/>
+      <c r="AB95" s="48"/>
+      <c r="AC95" s="48"/>
+      <c r="AD95" s="48"/>
+      <c r="AE95" s="49"/>
       <c r="AF95" s="12"/>
     </row>
     <row r="96" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="40">
+      <c r="B96" s="51">
         <f>B95+B72</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="42"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="52"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="53"/>
       <c r="H96" s="12"/>
       <c r="I96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J96" s="40">
+      <c r="J96" s="51">
         <f>J95+J72</f>
         <v>0</v>
       </c>
-      <c r="K96" s="41"/>
-      <c r="L96" s="41"/>
-      <c r="M96" s="41"/>
-      <c r="N96" s="41"/>
-      <c r="O96" s="42"/>
+      <c r="K96" s="52"/>
+      <c r="L96" s="52"/>
+      <c r="M96" s="52"/>
+      <c r="N96" s="52"/>
+      <c r="O96" s="53"/>
       <c r="P96" s="12"/>
       <c r="Q96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R96" s="40">
+      <c r="R96" s="51">
         <f>R95+R72</f>
         <v>0</v>
       </c>
-      <c r="S96" s="41"/>
-      <c r="T96" s="41"/>
-      <c r="U96" s="41"/>
-      <c r="V96" s="41"/>
-      <c r="W96" s="42"/>
+      <c r="S96" s="52"/>
+      <c r="T96" s="52"/>
+      <c r="U96" s="52"/>
+      <c r="V96" s="52"/>
+      <c r="W96" s="53"/>
       <c r="X96" s="12"/>
       <c r="Y96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z96" s="40">
+      <c r="Z96" s="51">
         <f>Z95+Z72</f>
         <v>0</v>
       </c>
-      <c r="AA96" s="41"/>
-      <c r="AB96" s="41"/>
-      <c r="AC96" s="41"/>
-      <c r="AD96" s="41"/>
-      <c r="AE96" s="42"/>
+      <c r="AA96" s="52"/>
+      <c r="AB96" s="52"/>
+      <c r="AC96" s="52"/>
+      <c r="AD96" s="52"/>
+      <c r="AE96" s="53"/>
       <c r="AF96" s="12"/>
     </row>
     <row r="97" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37728,270 +37728,270 @@
       <c r="A116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B116" s="43">
+      <c r="B116" s="47">
         <f>E115+B92</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C116" s="44"/>
-      <c r="D116" s="44"/>
-      <c r="E116" s="44"/>
-      <c r="F116" s="44"/>
-      <c r="G116" s="45"/>
+      <c r="C116" s="48"/>
+      <c r="D116" s="48"/>
+      <c r="E116" s="48"/>
+      <c r="F116" s="48"/>
+      <c r="G116" s="49"/>
       <c r="H116" s="12"/>
       <c r="I116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J116" s="43">
+      <c r="J116" s="47">
         <f>M115+J92</f>
         <v>0</v>
       </c>
-      <c r="K116" s="44"/>
-      <c r="L116" s="44"/>
-      <c r="M116" s="44"/>
-      <c r="N116" s="44"/>
-      <c r="O116" s="45"/>
+      <c r="K116" s="48"/>
+      <c r="L116" s="48"/>
+      <c r="M116" s="48"/>
+      <c r="N116" s="48"/>
+      <c r="O116" s="49"/>
       <c r="P116" s="12"/>
       <c r="Q116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R116" s="43">
+      <c r="R116" s="47">
         <f>U115+R92</f>
         <v>0</v>
       </c>
-      <c r="S116" s="44"/>
-      <c r="T116" s="44"/>
-      <c r="U116" s="44"/>
-      <c r="V116" s="44"/>
-      <c r="W116" s="45"/>
+      <c r="S116" s="48"/>
+      <c r="T116" s="48"/>
+      <c r="U116" s="48"/>
+      <c r="V116" s="48"/>
+      <c r="W116" s="49"/>
       <c r="X116" s="12"/>
       <c r="Y116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z116" s="43">
+      <c r="Z116" s="47">
         <f>AC115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA116" s="44"/>
-      <c r="AB116" s="44"/>
-      <c r="AC116" s="44"/>
-      <c r="AD116" s="44"/>
-      <c r="AE116" s="45"/>
+      <c r="AA116" s="48"/>
+      <c r="AB116" s="48"/>
+      <c r="AC116" s="48"/>
+      <c r="AD116" s="48"/>
+      <c r="AE116" s="49"/>
       <c r="AF116" s="12"/>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B117" s="43">
+      <c r="B117" s="47">
         <f>C115+B92</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C117" s="44"/>
-      <c r="D117" s="44"/>
-      <c r="E117" s="44"/>
-      <c r="F117" s="44"/>
-      <c r="G117" s="45"/>
+      <c r="C117" s="48"/>
+      <c r="D117" s="48"/>
+      <c r="E117" s="48"/>
+      <c r="F117" s="48"/>
+      <c r="G117" s="49"/>
       <c r="H117" s="12"/>
       <c r="I117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J117" s="43">
+      <c r="J117" s="47">
         <f>K115+J92</f>
         <v>0</v>
       </c>
-      <c r="K117" s="44"/>
-      <c r="L117" s="44"/>
-      <c r="M117" s="44"/>
-      <c r="N117" s="44"/>
-      <c r="O117" s="45"/>
+      <c r="K117" s="48"/>
+      <c r="L117" s="48"/>
+      <c r="M117" s="48"/>
+      <c r="N117" s="48"/>
+      <c r="O117" s="49"/>
       <c r="P117" s="12"/>
       <c r="Q117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R117" s="43">
+      <c r="R117" s="47">
         <f>S115+R92</f>
         <v>0</v>
       </c>
-      <c r="S117" s="44"/>
-      <c r="T117" s="44"/>
-      <c r="U117" s="44"/>
-      <c r="V117" s="44"/>
-      <c r="W117" s="45"/>
+      <c r="S117" s="48"/>
+      <c r="T117" s="48"/>
+      <c r="U117" s="48"/>
+      <c r="V117" s="48"/>
+      <c r="W117" s="49"/>
       <c r="X117" s="12"/>
       <c r="Y117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z117" s="43">
+      <c r="Z117" s="47">
         <f>AA115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA117" s="44"/>
-      <c r="AB117" s="44"/>
-      <c r="AC117" s="44"/>
-      <c r="AD117" s="44"/>
-      <c r="AE117" s="45"/>
+      <c r="AA117" s="48"/>
+      <c r="AB117" s="48"/>
+      <c r="AC117" s="48"/>
+      <c r="AD117" s="48"/>
+      <c r="AE117" s="49"/>
       <c r="AF117" s="12"/>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B118" s="43">
+      <c r="B118" s="47">
         <f>IFERROR((G115/10/B116),0)</f>
         <v>0</v>
       </c>
-      <c r="C118" s="44"/>
-      <c r="D118" s="44"/>
-      <c r="E118" s="44"/>
-      <c r="F118" s="44"/>
-      <c r="G118" s="45"/>
+      <c r="C118" s="48"/>
+      <c r="D118" s="48"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="49"/>
       <c r="H118" s="12"/>
       <c r="I118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J118" s="43">
+      <c r="J118" s="47">
         <f>IFERROR((O115/10/J116),0)</f>
         <v>0</v>
       </c>
-      <c r="K118" s="44"/>
-      <c r="L118" s="44"/>
-      <c r="M118" s="44"/>
-      <c r="N118" s="44"/>
-      <c r="O118" s="45"/>
+      <c r="K118" s="48"/>
+      <c r="L118" s="48"/>
+      <c r="M118" s="48"/>
+      <c r="N118" s="48"/>
+      <c r="O118" s="49"/>
       <c r="P118" s="12"/>
       <c r="Q118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R118" s="43">
+      <c r="R118" s="47">
         <f>IFERROR((W115/10/R116),0)</f>
         <v>0</v>
       </c>
-      <c r="S118" s="44"/>
-      <c r="T118" s="44"/>
-      <c r="U118" s="44"/>
-      <c r="V118" s="44"/>
-      <c r="W118" s="45"/>
+      <c r="S118" s="48"/>
+      <c r="T118" s="48"/>
+      <c r="U118" s="48"/>
+      <c r="V118" s="48"/>
+      <c r="W118" s="49"/>
       <c r="X118" s="12"/>
       <c r="Y118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z118" s="43">
+      <c r="Z118" s="47">
         <f>IFERROR((AE115/10/Z116),0)</f>
         <v>0</v>
       </c>
-      <c r="AA118" s="44"/>
-      <c r="AB118" s="44"/>
-      <c r="AC118" s="44"/>
-      <c r="AD118" s="44"/>
-      <c r="AE118" s="45"/>
+      <c r="AA118" s="48"/>
+      <c r="AB118" s="48"/>
+      <c r="AC118" s="48"/>
+      <c r="AD118" s="48"/>
+      <c r="AE118" s="49"/>
       <c r="AF118" s="12"/>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B119" s="43">
+      <c r="B119" s="47">
         <f>IFERROR((9.82 * F115) * LN(B116/B117),0)</f>
         <v>0</v>
       </c>
-      <c r="C119" s="44"/>
-      <c r="D119" s="44"/>
-      <c r="E119" s="44"/>
-      <c r="F119" s="44"/>
-      <c r="G119" s="45"/>
+      <c r="C119" s="48"/>
+      <c r="D119" s="48"/>
+      <c r="E119" s="48"/>
+      <c r="F119" s="48"/>
+      <c r="G119" s="49"/>
       <c r="H119" s="12"/>
       <c r="I119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J119" s="43">
+      <c r="J119" s="47">
         <f>IFERROR((9.82 * N115) * LN(J116/J117),0)</f>
         <v>0</v>
       </c>
-      <c r="K119" s="44"/>
-      <c r="L119" s="44"/>
-      <c r="M119" s="44"/>
-      <c r="N119" s="44"/>
-      <c r="O119" s="45"/>
+      <c r="K119" s="48"/>
+      <c r="L119" s="48"/>
+      <c r="M119" s="48"/>
+      <c r="N119" s="48"/>
+      <c r="O119" s="49"/>
       <c r="P119" s="12"/>
       <c r="Q119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R119" s="43">
+      <c r="R119" s="47">
         <f>IFERROR((9.82 * V115) * LN(R116/R117),0)</f>
         <v>0</v>
       </c>
-      <c r="S119" s="44"/>
-      <c r="T119" s="44"/>
-      <c r="U119" s="44"/>
-      <c r="V119" s="44"/>
-      <c r="W119" s="45"/>
+      <c r="S119" s="48"/>
+      <c r="T119" s="48"/>
+      <c r="U119" s="48"/>
+      <c r="V119" s="48"/>
+      <c r="W119" s="49"/>
       <c r="X119" s="12"/>
       <c r="Y119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z119" s="43">
+      <c r="Z119" s="47">
         <f>IFERROR((9.82 * AD115) * LN(Z116/Z117),0)</f>
         <v>0</v>
       </c>
-      <c r="AA119" s="44"/>
-      <c r="AB119" s="44"/>
-      <c r="AC119" s="44"/>
-      <c r="AD119" s="44"/>
-      <c r="AE119" s="45"/>
+      <c r="AA119" s="48"/>
+      <c r="AB119" s="48"/>
+      <c r="AC119" s="48"/>
+      <c r="AD119" s="48"/>
+      <c r="AE119" s="49"/>
       <c r="AF119" s="12"/>
     </row>
     <row r="120" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B120" s="40">
+      <c r="B120" s="51">
         <f>B119+B96</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C120" s="41"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="42"/>
+      <c r="C120" s="52"/>
+      <c r="D120" s="52"/>
+      <c r="E120" s="52"/>
+      <c r="F120" s="52"/>
+      <c r="G120" s="53"/>
       <c r="H120" s="12"/>
       <c r="I120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J120" s="40">
+      <c r="J120" s="51">
         <f>J119+J96</f>
         <v>0</v>
       </c>
-      <c r="K120" s="41"/>
-      <c r="L120" s="41"/>
-      <c r="M120" s="41"/>
-      <c r="N120" s="41"/>
-      <c r="O120" s="42"/>
+      <c r="K120" s="52"/>
+      <c r="L120" s="52"/>
+      <c r="M120" s="52"/>
+      <c r="N120" s="52"/>
+      <c r="O120" s="53"/>
       <c r="P120" s="12"/>
       <c r="Q120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R120" s="40">
+      <c r="R120" s="51">
         <f>R119+R96</f>
         <v>0</v>
       </c>
-      <c r="S120" s="41"/>
-      <c r="T120" s="41"/>
-      <c r="U120" s="41"/>
-      <c r="V120" s="41"/>
-      <c r="W120" s="42"/>
+      <c r="S120" s="52"/>
+      <c r="T120" s="52"/>
+      <c r="U120" s="52"/>
+      <c r="V120" s="52"/>
+      <c r="W120" s="53"/>
       <c r="X120" s="12"/>
       <c r="Y120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z120" s="40">
+      <c r="Z120" s="51">
         <f>Z119+Z96</f>
         <v>0</v>
       </c>
-      <c r="AA120" s="41"/>
-      <c r="AB120" s="41"/>
-      <c r="AC120" s="41"/>
-      <c r="AD120" s="41"/>
-      <c r="AE120" s="42"/>
+      <c r="AA120" s="52"/>
+      <c r="AB120" s="52"/>
+      <c r="AC120" s="52"/>
+      <c r="AD120" s="52"/>
+      <c r="AE120" s="53"/>
       <c r="AF120" s="12"/>
     </row>
     <row r="121" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -38029,315 +38029,315 @@
       <c r="AF121" s="12"/>
     </row>
     <row r="122" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="47" t="s">
+      <c r="A122" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="B122" s="48"/>
-      <c r="C122" s="48"/>
-      <c r="D122" s="48"/>
-      <c r="E122" s="48"/>
-      <c r="F122" s="48"/>
-      <c r="G122" s="49"/>
+      <c r="B122" s="43"/>
+      <c r="C122" s="43"/>
+      <c r="D122" s="43"/>
+      <c r="E122" s="43"/>
+      <c r="F122" s="43"/>
+      <c r="G122" s="44"/>
       <c r="H122" s="12"/>
-      <c r="I122" s="47" t="s">
+      <c r="I122" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="J122" s="48"/>
-      <c r="K122" s="48"/>
-      <c r="L122" s="48"/>
-      <c r="M122" s="48"/>
-      <c r="N122" s="48"/>
-      <c r="O122" s="49"/>
+      <c r="J122" s="43"/>
+      <c r="K122" s="43"/>
+      <c r="L122" s="43"/>
+      <c r="M122" s="43"/>
+      <c r="N122" s="43"/>
+      <c r="O122" s="44"/>
       <c r="P122" s="12"/>
-      <c r="Q122" s="47" t="s">
+      <c r="Q122" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="R122" s="48"/>
-      <c r="S122" s="48"/>
-      <c r="T122" s="48"/>
-      <c r="U122" s="48"/>
-      <c r="V122" s="48"/>
-      <c r="W122" s="49"/>
+      <c r="R122" s="43"/>
+      <c r="S122" s="43"/>
+      <c r="T122" s="43"/>
+      <c r="U122" s="43"/>
+      <c r="V122" s="43"/>
+      <c r="W122" s="44"/>
       <c r="X122" s="12"/>
-      <c r="Y122" s="47" t="s">
+      <c r="Y122" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="Z122" s="48"/>
-      <c r="AA122" s="48"/>
-      <c r="AB122" s="48"/>
-      <c r="AC122" s="48"/>
-      <c r="AD122" s="48"/>
-      <c r="AE122" s="49"/>
+      <c r="Z122" s="43"/>
+      <c r="AA122" s="43"/>
+      <c r="AB122" s="43"/>
+      <c r="AC122" s="43"/>
+      <c r="AD122" s="43"/>
+      <c r="AE122" s="44"/>
       <c r="AF122" s="12"/>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A123" s="52" t="s">
+      <c r="A123" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B123" s="52"/>
-      <c r="C123" s="52"/>
-      <c r="D123" s="51">
+      <c r="B123" s="45"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="46">
         <f>B115</f>
         <v>3</v>
       </c>
-      <c r="E123" s="51"/>
-      <c r="F123" s="51"/>
-      <c r="G123" s="51"/>
+      <c r="E123" s="46"/>
+      <c r="F123" s="46"/>
+      <c r="G123" s="46"/>
       <c r="H123" s="12"/>
-      <c r="I123" s="52" t="s">
+      <c r="I123" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="J123" s="52"/>
-      <c r="K123" s="52"/>
-      <c r="L123" s="51">
+      <c r="J123" s="45"/>
+      <c r="K123" s="45"/>
+      <c r="L123" s="46">
         <f>J115</f>
         <v>0</v>
       </c>
-      <c r="M123" s="51"/>
-      <c r="N123" s="51"/>
-      <c r="O123" s="51"/>
+      <c r="M123" s="46"/>
+      <c r="N123" s="46"/>
+      <c r="O123" s="46"/>
       <c r="P123" s="12"/>
-      <c r="Q123" s="52" t="s">
+      <c r="Q123" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="R123" s="52"/>
-      <c r="S123" s="52"/>
-      <c r="T123" s="51">
+      <c r="R123" s="45"/>
+      <c r="S123" s="45"/>
+      <c r="T123" s="46">
         <f>R115</f>
         <v>0</v>
       </c>
-      <c r="U123" s="51"/>
-      <c r="V123" s="51"/>
-      <c r="W123" s="51"/>
+      <c r="U123" s="46"/>
+      <c r="V123" s="46"/>
+      <c r="W123" s="46"/>
       <c r="X123" s="12"/>
-      <c r="Y123" s="52" t="s">
+      <c r="Y123" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="Z123" s="52"/>
-      <c r="AA123" s="52"/>
-      <c r="AB123" s="51">
+      <c r="Z123" s="45"/>
+      <c r="AA123" s="45"/>
+      <c r="AB123" s="46">
         <f>Z115</f>
         <v>0</v>
       </c>
-      <c r="AC123" s="51"/>
-      <c r="AD123" s="51"/>
-      <c r="AE123" s="51"/>
+      <c r="AC123" s="46"/>
+      <c r="AD123" s="46"/>
+      <c r="AE123" s="46"/>
       <c r="AF123" s="12"/>
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A124" s="53" t="s">
+      <c r="A124" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="53"/>
-      <c r="C124" s="53"/>
-      <c r="D124" s="50">
+      <c r="B124" s="40"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="41">
         <f>B116</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="E124" s="50"/>
-      <c r="F124" s="50"/>
-      <c r="G124" s="50"/>
+      <c r="E124" s="41"/>
+      <c r="F124" s="41"/>
+      <c r="G124" s="41"/>
       <c r="H124" s="12"/>
-      <c r="I124" s="53" t="s">
+      <c r="I124" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
-      <c r="L124" s="50">
+      <c r="J124" s="40"/>
+      <c r="K124" s="40"/>
+      <c r="L124" s="41">
         <f>J116</f>
         <v>0</v>
       </c>
-      <c r="M124" s="50"/>
-      <c r="N124" s="50"/>
-      <c r="O124" s="50"/>
+      <c r="M124" s="41"/>
+      <c r="N124" s="41"/>
+      <c r="O124" s="41"/>
       <c r="P124" s="12"/>
-      <c r="Q124" s="53" t="s">
+      <c r="Q124" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="R124" s="53"/>
-      <c r="S124" s="53"/>
-      <c r="T124" s="50">
+      <c r="R124" s="40"/>
+      <c r="S124" s="40"/>
+      <c r="T124" s="41">
         <f>R116</f>
         <v>0</v>
       </c>
-      <c r="U124" s="50"/>
-      <c r="V124" s="50"/>
-      <c r="W124" s="50"/>
+      <c r="U124" s="41"/>
+      <c r="V124" s="41"/>
+      <c r="W124" s="41"/>
       <c r="X124" s="12"/>
-      <c r="Y124" s="53" t="s">
+      <c r="Y124" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="Z124" s="53"/>
-      <c r="AA124" s="53"/>
-      <c r="AB124" s="50">
+      <c r="Z124" s="40"/>
+      <c r="AA124" s="40"/>
+      <c r="AB124" s="41">
         <f>Z116</f>
         <v>0</v>
       </c>
-      <c r="AC124" s="50"/>
-      <c r="AD124" s="50"/>
-      <c r="AE124" s="50"/>
+      <c r="AC124" s="41"/>
+      <c r="AD124" s="41"/>
+      <c r="AE124" s="41"/>
       <c r="AF124" s="12"/>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A125" s="53" t="s">
+      <c r="A125" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="53"/>
-      <c r="C125" s="53"/>
-      <c r="D125" s="50">
+      <c r="B125" s="40"/>
+      <c r="C125" s="40"/>
+      <c r="D125" s="41">
         <f>D115+D91+D67+D43+D19</f>
         <v>8.9766162500000011</v>
       </c>
-      <c r="E125" s="50"/>
-      <c r="F125" s="50"/>
-      <c r="G125" s="50"/>
+      <c r="E125" s="41"/>
+      <c r="F125" s="41"/>
+      <c r="G125" s="41"/>
       <c r="H125" s="12"/>
-      <c r="I125" s="53" t="s">
+      <c r="I125" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="J125" s="53"/>
-      <c r="K125" s="53"/>
-      <c r="L125" s="50">
+      <c r="J125" s="40"/>
+      <c r="K125" s="40"/>
+      <c r="L125" s="41">
         <f>L115+L91+L67+L43+L19</f>
         <v>0</v>
       </c>
-      <c r="M125" s="50"/>
-      <c r="N125" s="50"/>
-      <c r="O125" s="50"/>
+      <c r="M125" s="41"/>
+      <c r="N125" s="41"/>
+      <c r="O125" s="41"/>
       <c r="P125" s="12"/>
-      <c r="Q125" s="53" t="s">
+      <c r="Q125" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="R125" s="53"/>
-      <c r="S125" s="53"/>
-      <c r="T125" s="50">
+      <c r="R125" s="40"/>
+      <c r="S125" s="40"/>
+      <c r="T125" s="41">
         <f>T115+T91+T67+T43+T19</f>
         <v>0</v>
       </c>
-      <c r="U125" s="50"/>
-      <c r="V125" s="50"/>
-      <c r="W125" s="50"/>
+      <c r="U125" s="41"/>
+      <c r="V125" s="41"/>
+      <c r="W125" s="41"/>
       <c r="X125" s="12"/>
-      <c r="Y125" s="53" t="s">
+      <c r="Y125" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="Z125" s="53"/>
-      <c r="AA125" s="53"/>
-      <c r="AB125" s="50">
+      <c r="Z125" s="40"/>
+      <c r="AA125" s="40"/>
+      <c r="AB125" s="41">
         <f>AB115+AB91+AB67+AB43+AB19</f>
         <v>0</v>
       </c>
-      <c r="AC125" s="50"/>
-      <c r="AD125" s="50"/>
-      <c r="AE125" s="50"/>
+      <c r="AC125" s="41"/>
+      <c r="AD125" s="41"/>
+      <c r="AE125" s="41"/>
       <c r="AF125" s="12"/>
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A126" s="53" t="s">
+      <c r="A126" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="53"/>
-      <c r="C126" s="53"/>
-      <c r="D126" s="50">
+      <c r="B126" s="40"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="41">
         <f>D124-D125</f>
         <v>1.7964924374999995</v>
       </c>
-      <c r="E126" s="50"/>
-      <c r="F126" s="50"/>
-      <c r="G126" s="50"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="41"/>
+      <c r="G126" s="41"/>
       <c r="H126" s="12"/>
-      <c r="I126" s="53" t="s">
+      <c r="I126" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
-      <c r="L126" s="50">
+      <c r="J126" s="40"/>
+      <c r="K126" s="40"/>
+      <c r="L126" s="41">
         <f>L124-L125</f>
         <v>0</v>
       </c>
-      <c r="M126" s="50"/>
-      <c r="N126" s="50"/>
-      <c r="O126" s="50"/>
+      <c r="M126" s="41"/>
+      <c r="N126" s="41"/>
+      <c r="O126" s="41"/>
       <c r="P126" s="12"/>
-      <c r="Q126" s="53" t="s">
+      <c r="Q126" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="R126" s="53"/>
-      <c r="S126" s="53"/>
-      <c r="T126" s="50">
+      <c r="R126" s="40"/>
+      <c r="S126" s="40"/>
+      <c r="T126" s="41">
         <f>T124-T125</f>
         <v>0</v>
       </c>
-      <c r="U126" s="50"/>
-      <c r="V126" s="50"/>
-      <c r="W126" s="50"/>
+      <c r="U126" s="41"/>
+      <c r="V126" s="41"/>
+      <c r="W126" s="41"/>
       <c r="X126" s="12"/>
-      <c r="Y126" s="53" t="s">
+      <c r="Y126" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="Z126" s="53"/>
-      <c r="AA126" s="53"/>
-      <c r="AB126" s="50">
+      <c r="Z126" s="40"/>
+      <c r="AA126" s="40"/>
+      <c r="AB126" s="41">
         <f>AB124-AB125</f>
         <v>0</v>
       </c>
-      <c r="AC126" s="50"/>
-      <c r="AD126" s="50"/>
-      <c r="AE126" s="50"/>
+      <c r="AC126" s="41"/>
+      <c r="AD126" s="41"/>
+      <c r="AE126" s="41"/>
       <c r="AF126" s="12"/>
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A127" s="53" t="s">
+      <c r="A127" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="53"/>
-      <c r="C127" s="53"/>
-      <c r="D127" s="50">
+      <c r="B127" s="40"/>
+      <c r="C127" s="40"/>
+      <c r="D127" s="41">
         <f>B120</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="E127" s="50"/>
-      <c r="F127" s="50"/>
-      <c r="G127" s="50"/>
+      <c r="E127" s="41"/>
+      <c r="F127" s="41"/>
+      <c r="G127" s="41"/>
       <c r="H127" s="12"/>
-      <c r="I127" s="53" t="s">
+      <c r="I127" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="J127" s="53"/>
-      <c r="K127" s="53"/>
-      <c r="L127" s="50">
+      <c r="J127" s="40"/>
+      <c r="K127" s="40"/>
+      <c r="L127" s="41">
         <f>J120</f>
         <v>0</v>
       </c>
-      <c r="M127" s="50"/>
-      <c r="N127" s="50"/>
-      <c r="O127" s="50"/>
+      <c r="M127" s="41"/>
+      <c r="N127" s="41"/>
+      <c r="O127" s="41"/>
       <c r="P127" s="12"/>
-      <c r="Q127" s="53" t="s">
+      <c r="Q127" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="R127" s="53"/>
-      <c r="S127" s="53"/>
-      <c r="T127" s="50">
+      <c r="R127" s="40"/>
+      <c r="S127" s="40"/>
+      <c r="T127" s="41">
         <f>R120</f>
         <v>0</v>
       </c>
-      <c r="U127" s="50"/>
-      <c r="V127" s="50"/>
-      <c r="W127" s="50"/>
+      <c r="U127" s="41"/>
+      <c r="V127" s="41"/>
+      <c r="W127" s="41"/>
       <c r="X127" s="12"/>
-      <c r="Y127" s="53" t="s">
+      <c r="Y127" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="Z127" s="53"/>
-      <c r="AA127" s="53"/>
-      <c r="AB127" s="50">
+      <c r="Z127" s="40"/>
+      <c r="AA127" s="40"/>
+      <c r="AB127" s="41">
         <f>Z120</f>
         <v>0</v>
       </c>
-      <c r="AC127" s="50"/>
-      <c r="AD127" s="50"/>
-      <c r="AE127" s="50"/>
+      <c r="AC127" s="41"/>
+      <c r="AD127" s="41"/>
+      <c r="AE127" s="41"/>
       <c r="AF127" s="12"/>
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.25">
@@ -38376,49 +38376,87 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="Y127:AA127"/>
-    <mergeCell ref="AB127:AE127"/>
-    <mergeCell ref="Y122:AE122"/>
-    <mergeCell ref="Y123:AA123"/>
-    <mergeCell ref="AB123:AE123"/>
-    <mergeCell ref="Y124:AA124"/>
-    <mergeCell ref="AB124:AE124"/>
-    <mergeCell ref="Y125:AA125"/>
-    <mergeCell ref="AB125:AE125"/>
-    <mergeCell ref="Y126:AA126"/>
-    <mergeCell ref="AB126:AE126"/>
-    <mergeCell ref="I127:K127"/>
-    <mergeCell ref="L127:O127"/>
-    <mergeCell ref="Q122:W122"/>
-    <mergeCell ref="Q123:S123"/>
-    <mergeCell ref="T123:W123"/>
-    <mergeCell ref="Q124:S124"/>
-    <mergeCell ref="T124:W124"/>
-    <mergeCell ref="Q125:S125"/>
-    <mergeCell ref="T125:W125"/>
-    <mergeCell ref="Q126:S126"/>
-    <mergeCell ref="T126:W126"/>
-    <mergeCell ref="Q127:S127"/>
-    <mergeCell ref="T127:W127"/>
-    <mergeCell ref="I122:O122"/>
-    <mergeCell ref="I123:K123"/>
-    <mergeCell ref="L123:O123"/>
-    <mergeCell ref="I124:K124"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="I125:K125"/>
-    <mergeCell ref="L125:O125"/>
-    <mergeCell ref="I126:K126"/>
-    <mergeCell ref="L126:O126"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="J120:O120"/>
+    <mergeCell ref="R120:W120"/>
+    <mergeCell ref="Z120:AE120"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="J119:O119"/>
+    <mergeCell ref="R119:W119"/>
+    <mergeCell ref="Z119:AE119"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="J118:O118"/>
+    <mergeCell ref="R118:W118"/>
+    <mergeCell ref="Z118:AE118"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="J117:O117"/>
+    <mergeCell ref="R117:W117"/>
+    <mergeCell ref="Z117:AE117"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="J116:O116"/>
+    <mergeCell ref="R116:W116"/>
+    <mergeCell ref="Z116:AE116"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="J96:O96"/>
+    <mergeCell ref="R96:W96"/>
+    <mergeCell ref="Z96:AE96"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="J95:O95"/>
+    <mergeCell ref="R95:W95"/>
+    <mergeCell ref="Z95:AE95"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="J94:O94"/>
+    <mergeCell ref="R94:W94"/>
+    <mergeCell ref="Z94:AE94"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="J93:O93"/>
+    <mergeCell ref="R93:W93"/>
+    <mergeCell ref="Z93:AE93"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="J92:O92"/>
+    <mergeCell ref="R92:W92"/>
+    <mergeCell ref="Z92:AE92"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="J72:O72"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="Z72:AE72"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="J71:O71"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="Z71:AE71"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="J70:O70"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="Z70:AE70"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="J69:O69"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="Z69:AE69"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="J68:O68"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="Z68:AE68"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="R48:W48"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="R47:W47"/>
+    <mergeCell ref="Z47:AE47"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="Z46:AE46"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="R44:W44"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="Z24:AE24"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="J20:O20"/>
     <mergeCell ref="R20:W20"/>
@@ -38443,87 +38481,49 @@
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="J45:O45"/>
     <mergeCell ref="R45:W45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="R44:W44"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="Z24:AE24"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="R48:W48"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="R47:W47"/>
-    <mergeCell ref="Z47:AE47"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="R46:W46"/>
-    <mergeCell ref="Z46:AE46"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="J70:O70"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="Z70:AE70"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="J69:O69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="Z69:AE69"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="J68:O68"/>
-    <mergeCell ref="R68:W68"/>
-    <mergeCell ref="Z68:AE68"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="J92:O92"/>
-    <mergeCell ref="R92:W92"/>
-    <mergeCell ref="Z92:AE92"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="J72:O72"/>
-    <mergeCell ref="R72:W72"/>
-    <mergeCell ref="Z72:AE72"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="J71:O71"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="Z71:AE71"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="J95:O95"/>
-    <mergeCell ref="R95:W95"/>
-    <mergeCell ref="Z95:AE95"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="J94:O94"/>
-    <mergeCell ref="R94:W94"/>
-    <mergeCell ref="Z94:AE94"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="J93:O93"/>
-    <mergeCell ref="R93:W93"/>
-    <mergeCell ref="Z93:AE93"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="J117:O117"/>
-    <mergeCell ref="R117:W117"/>
-    <mergeCell ref="Z117:AE117"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="J116:O116"/>
-    <mergeCell ref="R116:W116"/>
-    <mergeCell ref="Z116:AE116"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="J96:O96"/>
-    <mergeCell ref="R96:W96"/>
-    <mergeCell ref="Z96:AE96"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="J120:O120"/>
-    <mergeCell ref="R120:W120"/>
-    <mergeCell ref="Z120:AE120"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="J119:O119"/>
-    <mergeCell ref="R119:W119"/>
-    <mergeCell ref="Z119:AE119"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="J118:O118"/>
-    <mergeCell ref="R118:W118"/>
-    <mergeCell ref="Z118:AE118"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="L127:O127"/>
+    <mergeCell ref="Q122:W122"/>
+    <mergeCell ref="Q123:S123"/>
+    <mergeCell ref="T123:W123"/>
+    <mergeCell ref="Q124:S124"/>
+    <mergeCell ref="T124:W124"/>
+    <mergeCell ref="Q125:S125"/>
+    <mergeCell ref="T125:W125"/>
+    <mergeCell ref="Q126:S126"/>
+    <mergeCell ref="T126:W126"/>
+    <mergeCell ref="Q127:S127"/>
+    <mergeCell ref="T127:W127"/>
+    <mergeCell ref="I122:O122"/>
+    <mergeCell ref="I123:K123"/>
+    <mergeCell ref="L123:O123"/>
+    <mergeCell ref="I124:K124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="I125:K125"/>
+    <mergeCell ref="L125:O125"/>
+    <mergeCell ref="I126:K126"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="Y127:AA127"/>
+    <mergeCell ref="AB127:AE127"/>
+    <mergeCell ref="Y122:AE122"/>
+    <mergeCell ref="Y123:AA123"/>
+    <mergeCell ref="AB123:AE123"/>
+    <mergeCell ref="Y124:AA124"/>
+    <mergeCell ref="AB124:AE124"/>
+    <mergeCell ref="Y125:AA125"/>
+    <mergeCell ref="AB125:AE125"/>
+    <mergeCell ref="Y126:AA126"/>
+    <mergeCell ref="AB126:AE126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39589,9 +39589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD4" sqref="AD4"/>
+      <selection pane="bottomLeft" activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GameData/SSTU/Parts/Parts-MassCalc.xlsx
+++ b/GameData/SSTU/Parts/Parts-MassCalc.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="parts" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,17 @@
     <sheet name="Sheet2" sheetId="10" r:id="rId6"/>
     <sheet name="StockChuteCalc" sheetId="11" r:id="rId7"/>
     <sheet name="RealRocketDims" sheetId="12" r:id="rId8"/>
+    <sheet name="HeatShieldCalc" sheetId="13" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="387">
   <si>
     <t>Part</t>
   </si>
@@ -1171,6 +1175,18 @@
   <si>
     <t>SC-C-SMX</t>
   </si>
+  <si>
+    <t>Input Heat</t>
+  </si>
+  <si>
+    <t>OutputFlux</t>
+  </si>
+  <si>
+    <t>mult</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
 </sst>
 </file>
 
@@ -1583,7 +1599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1624,25 +1640,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1657,15 +1661,28 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1676,11 +1693,274 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>HeatShieldCalc!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>HeatShieldCalc!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>925</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1310</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="65875328"/>
+        <c:axId val="65881216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="65875328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65881216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="65881216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65875328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1726,7 +2006,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1761,7 +2041,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -27975,45 +28255,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
       <c r="H1" s="12"/>
-      <c r="I1" s="50" t="s">
+      <c r="I1" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
       <c r="P1" s="12"/>
-      <c r="Q1" s="50" t="s">
+      <c r="Q1" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
       <c r="X1" s="12"/>
-      <c r="Y1" s="50" t="s">
+      <c r="Y1" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
+      <c r="Z1" s="46"/>
+      <c r="AA1" s="46"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="46"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="46"/>
       <c r="AF1" s="12"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -29724,270 +30004,270 @@
       <c r="A20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="47">
+      <c r="B20" s="43">
         <f>E19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="12"/>
       <c r="I20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="47">
+      <c r="J20" s="43">
         <f>M19</f>
         <v>0</v>
       </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="49"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="45"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R20" s="47">
+      <c r="R20" s="43">
         <f>U19</f>
         <v>0</v>
       </c>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="49"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="45"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z20" s="47">
+      <c r="Z20" s="43">
         <f>AC19</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="48"/>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="49"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="45"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="47">
+      <c r="B21" s="43">
         <f>C19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="12"/>
       <c r="I21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="47">
+      <c r="J21" s="43">
         <f>K19</f>
         <v>0</v>
       </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="49"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="45"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R21" s="47">
+      <c r="R21" s="43">
         <f>S19</f>
         <v>0</v>
       </c>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="49"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="45"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z21" s="47">
+      <c r="Z21" s="43">
         <f>AA19</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="48"/>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="49"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="45"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="43">
         <f>IFERROR((G19/10/B20),0)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="12"/>
       <c r="I22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="47">
+      <c r="J22" s="43">
         <f>IFERROR((O19/10/J20),0)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="49"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="45"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R22" s="47">
+      <c r="R22" s="43">
         <f>IFERROR((W19/10/R20),0)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="49"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="45"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z22" s="47">
+      <c r="Z22" s="43">
         <f>IFERROR((AE19/10/Z20),0)</f>
         <v>0</v>
       </c>
-      <c r="AA22" s="48"/>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="49"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="45"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="43">
         <f>IFERROR((9.82 * F19) * LN(B20/C19),0)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="49"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="12"/>
       <c r="I23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="47">
+      <c r="J23" s="43">
         <f>IFERROR((9.82 * N19) * LN(J20/K19),0)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="49"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="45"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R23" s="47">
+      <c r="R23" s="43">
         <f>IFERROR((9.82 * V19) * LN(R20/S19),0)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="49"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="45"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z23" s="47">
+      <c r="Z23" s="43">
         <f>IFERROR((9.82 * AD19) * LN(Z20/AA19),0)</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="48"/>
-      <c r="AB23" s="48"/>
-      <c r="AC23" s="48"/>
-      <c r="AD23" s="48"/>
-      <c r="AE23" s="49"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="44"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="44"/>
+      <c r="AE23" s="45"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="51">
+      <c r="B24" s="40">
         <f>B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="53"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="12"/>
       <c r="I24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="51">
+      <c r="J24" s="40">
         <f>J23</f>
         <v>0</v>
       </c>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="53"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="42"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R24" s="51">
+      <c r="R24" s="40">
         <f>R23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="53"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="42"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z24" s="51">
+      <c r="Z24" s="40">
         <f>Z23</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="52"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="53"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="42"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31728,270 +32008,270 @@
       <c r="A44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="47">
+      <c r="B44" s="43">
         <f>E43+B20</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
       <c r="H44" s="12"/>
       <c r="I44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J44" s="47">
+      <c r="J44" s="43">
         <f>M43+J20</f>
         <v>0</v>
       </c>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="49"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="45"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R44" s="47">
+      <c r="R44" s="43">
         <f>U43+R20</f>
         <v>0</v>
       </c>
-      <c r="S44" s="48"/>
-      <c r="T44" s="48"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="48"/>
-      <c r="W44" s="49"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="45"/>
       <c r="X44" s="12"/>
       <c r="Y44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z44" s="47">
+      <c r="Z44" s="43">
         <f>AC43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="48"/>
-      <c r="AB44" s="48"/>
-      <c r="AC44" s="48"/>
-      <c r="AD44" s="48"/>
-      <c r="AE44" s="49"/>
+      <c r="AA44" s="44"/>
+      <c r="AB44" s="44"/>
+      <c r="AC44" s="44"/>
+      <c r="AD44" s="44"/>
+      <c r="AE44" s="45"/>
       <c r="AF44" s="12"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="47">
+      <c r="B45" s="43">
         <f>C43+B20</f>
         <v>1.7964924375</v>
       </c>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
       <c r="H45" s="12"/>
       <c r="I45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J45" s="47">
+      <c r="J45" s="43">
         <f>K43+J20</f>
         <v>0</v>
       </c>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
-      <c r="M45" s="48"/>
-      <c r="N45" s="48"/>
-      <c r="O45" s="49"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="45"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R45" s="47">
+      <c r="R45" s="43">
         <f>S43+R20</f>
         <v>0</v>
       </c>
-      <c r="S45" s="48"/>
-      <c r="T45" s="48"/>
-      <c r="U45" s="48"/>
-      <c r="V45" s="48"/>
-      <c r="W45" s="49"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="45"/>
       <c r="X45" s="12"/>
       <c r="Y45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z45" s="47">
+      <c r="Z45" s="43">
         <f>AA43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA45" s="48"/>
-      <c r="AB45" s="48"/>
-      <c r="AC45" s="48"/>
-      <c r="AD45" s="48"/>
-      <c r="AE45" s="49"/>
+      <c r="AA45" s="44"/>
+      <c r="AB45" s="44"/>
+      <c r="AC45" s="44"/>
+      <c r="AD45" s="44"/>
+      <c r="AE45" s="45"/>
       <c r="AF45" s="12"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="47">
+      <c r="B46" s="43">
         <f>IFERROR((G43/10/B44),0)</f>
         <v>0.4177067298338254</v>
       </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
       <c r="H46" s="12"/>
       <c r="I46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J46" s="47">
+      <c r="J46" s="43">
         <f>IFERROR((O43/10/J44),0)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="49"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="45"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R46" s="47">
+      <c r="R46" s="43">
         <f>IFERROR((W43/10/R44),0)</f>
         <v>0</v>
       </c>
-      <c r="S46" s="48"/>
-      <c r="T46" s="48"/>
-      <c r="U46" s="48"/>
-      <c r="V46" s="48"/>
-      <c r="W46" s="49"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="45"/>
       <c r="X46" s="12"/>
       <c r="Y46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z46" s="47">
+      <c r="Z46" s="43">
         <f>IFERROR((AE43/10/Z44),0)</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="48"/>
-      <c r="AB46" s="48"/>
-      <c r="AC46" s="48"/>
-      <c r="AD46" s="48"/>
-      <c r="AE46" s="49"/>
+      <c r="AA46" s="44"/>
+      <c r="AB46" s="44"/>
+      <c r="AC46" s="44"/>
+      <c r="AD46" s="44"/>
+      <c r="AE46" s="45"/>
       <c r="AF46" s="12"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="47">
+      <c r="B47" s="43">
         <f>IFERROR((9.82 * F43) * LN(B44/B45),0)</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="45"/>
       <c r="H47" s="12"/>
       <c r="I47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="47">
+      <c r="J47" s="43">
         <f>IFERROR((9.82 * N43) * LN(J44/J45),0)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="49"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="45"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R47" s="47">
+      <c r="R47" s="43">
         <f>IFERROR((9.82 * V43) * LN(R44/R45),0)</f>
         <v>0</v>
       </c>
-      <c r="S47" s="48"/>
-      <c r="T47" s="48"/>
-      <c r="U47" s="48"/>
-      <c r="V47" s="48"/>
-      <c r="W47" s="49"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="45"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z47" s="47">
+      <c r="Z47" s="43">
         <f>IFERROR((9.82 * AD43) * LN(Z44/Z45),0)</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="48"/>
-      <c r="AB47" s="48"/>
-      <c r="AC47" s="48"/>
-      <c r="AD47" s="48"/>
-      <c r="AE47" s="49"/>
+      <c r="AA47" s="44"/>
+      <c r="AB47" s="44"/>
+      <c r="AC47" s="44"/>
+      <c r="AD47" s="44"/>
+      <c r="AE47" s="45"/>
       <c r="AF47" s="12"/>
     </row>
     <row r="48" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="51">
+      <c r="B48" s="40">
         <f>B47+B24</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="42"/>
       <c r="H48" s="12"/>
       <c r="I48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J48" s="51">
+      <c r="J48" s="40">
         <f>J47+J24</f>
         <v>0</v>
       </c>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="53"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="42"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R48" s="51">
+      <c r="R48" s="40">
         <f>R47+R24</f>
         <v>0</v>
       </c>
-      <c r="S48" s="52"/>
-      <c r="T48" s="52"/>
-      <c r="U48" s="52"/>
-      <c r="V48" s="52"/>
-      <c r="W48" s="53"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="42"/>
       <c r="X48" s="12"/>
       <c r="Y48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z48" s="51">
+      <c r="Z48" s="40">
         <f>Z47+Z24</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="52"/>
-      <c r="AB48" s="52"/>
-      <c r="AC48" s="52"/>
-      <c r="AD48" s="52"/>
-      <c r="AE48" s="53"/>
+      <c r="AA48" s="41"/>
+      <c r="AB48" s="41"/>
+      <c r="AC48" s="41"/>
+      <c r="AD48" s="41"/>
+      <c r="AE48" s="42"/>
       <c r="AF48" s="12"/>
     </row>
     <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33728,270 +34008,270 @@
       <c r="A68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="47">
+      <c r="B68" s="43">
         <f>E67+B44</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="49"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="45"/>
       <c r="H68" s="12"/>
       <c r="I68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J68" s="47">
+      <c r="J68" s="43">
         <f>M67+J44</f>
         <v>0</v>
       </c>
-      <c r="K68" s="48"/>
-      <c r="L68" s="48"/>
-      <c r="M68" s="48"/>
-      <c r="N68" s="48"/>
-      <c r="O68" s="49"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="45"/>
       <c r="P68" s="12"/>
       <c r="Q68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R68" s="47">
+      <c r="R68" s="43">
         <f>U67+R44</f>
         <v>0</v>
       </c>
-      <c r="S68" s="48"/>
-      <c r="T68" s="48"/>
-      <c r="U68" s="48"/>
-      <c r="V68" s="48"/>
-      <c r="W68" s="49"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="44"/>
+      <c r="U68" s="44"/>
+      <c r="V68" s="44"/>
+      <c r="W68" s="45"/>
       <c r="X68" s="12"/>
       <c r="Y68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z68" s="47">
+      <c r="Z68" s="43">
         <f>AC67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA68" s="48"/>
-      <c r="AB68" s="48"/>
-      <c r="AC68" s="48"/>
-      <c r="AD68" s="48"/>
-      <c r="AE68" s="49"/>
+      <c r="AA68" s="44"/>
+      <c r="AB68" s="44"/>
+      <c r="AC68" s="44"/>
+      <c r="AD68" s="44"/>
+      <c r="AE68" s="45"/>
       <c r="AF68" s="12"/>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="47">
+      <c r="B69" s="43">
         <f>C67+B44</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="49"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="45"/>
       <c r="H69" s="12"/>
       <c r="I69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J69" s="47">
+      <c r="J69" s="43">
         <f>K67+J44</f>
         <v>0</v>
       </c>
-      <c r="K69" s="48"/>
-      <c r="L69" s="48"/>
-      <c r="M69" s="48"/>
-      <c r="N69" s="48"/>
-      <c r="O69" s="49"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="45"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R69" s="47">
+      <c r="R69" s="43">
         <f>S67+R44</f>
         <v>0</v>
       </c>
-      <c r="S69" s="48"/>
-      <c r="T69" s="48"/>
-      <c r="U69" s="48"/>
-      <c r="V69" s="48"/>
-      <c r="W69" s="49"/>
+      <c r="S69" s="44"/>
+      <c r="T69" s="44"/>
+      <c r="U69" s="44"/>
+      <c r="V69" s="44"/>
+      <c r="W69" s="45"/>
       <c r="X69" s="12"/>
       <c r="Y69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z69" s="47">
+      <c r="Z69" s="43">
         <f>AA67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA69" s="48"/>
-      <c r="AB69" s="48"/>
-      <c r="AC69" s="48"/>
-      <c r="AD69" s="48"/>
-      <c r="AE69" s="49"/>
+      <c r="AA69" s="44"/>
+      <c r="AB69" s="44"/>
+      <c r="AC69" s="44"/>
+      <c r="AD69" s="44"/>
+      <c r="AE69" s="45"/>
       <c r="AF69" s="12"/>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="47">
+      <c r="B70" s="43">
         <f>IFERROR((G67/10/B68),0)</f>
         <v>0</v>
       </c>
-      <c r="C70" s="48"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="49"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="45"/>
       <c r="H70" s="12"/>
       <c r="I70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J70" s="47">
+      <c r="J70" s="43">
         <f>IFERROR((O67/10/J68),0)</f>
         <v>0</v>
       </c>
-      <c r="K70" s="48"/>
-      <c r="L70" s="48"/>
-      <c r="M70" s="48"/>
-      <c r="N70" s="48"/>
-      <c r="O70" s="49"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="45"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R70" s="47">
+      <c r="R70" s="43">
         <f>IFERROR((W67/10/R68),0)</f>
         <v>0</v>
       </c>
-      <c r="S70" s="48"/>
-      <c r="T70" s="48"/>
-      <c r="U70" s="48"/>
-      <c r="V70" s="48"/>
-      <c r="W70" s="49"/>
+      <c r="S70" s="44"/>
+      <c r="T70" s="44"/>
+      <c r="U70" s="44"/>
+      <c r="V70" s="44"/>
+      <c r="W70" s="45"/>
       <c r="X70" s="12"/>
       <c r="Y70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z70" s="47">
+      <c r="Z70" s="43">
         <f>IFERROR((AE67/10/Z68),0)</f>
         <v>0</v>
       </c>
-      <c r="AA70" s="48"/>
-      <c r="AB70" s="48"/>
-      <c r="AC70" s="48"/>
-      <c r="AD70" s="48"/>
-      <c r="AE70" s="49"/>
+      <c r="AA70" s="44"/>
+      <c r="AB70" s="44"/>
+      <c r="AC70" s="44"/>
+      <c r="AD70" s="44"/>
+      <c r="AE70" s="45"/>
       <c r="AF70" s="12"/>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="47">
+      <c r="B71" s="43">
         <f>IFERROR((9.82 * F67) * LN(B68/B69),0)</f>
         <v>0</v>
       </c>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="49"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="45"/>
       <c r="H71" s="12"/>
       <c r="I71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J71" s="47">
+      <c r="J71" s="43">
         <f>IFERROR((9.82 * N67) * LN(J68/J69),0)</f>
         <v>0</v>
       </c>
-      <c r="K71" s="48"/>
-      <c r="L71" s="48"/>
-      <c r="M71" s="48"/>
-      <c r="N71" s="48"/>
-      <c r="O71" s="49"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="45"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R71" s="47">
+      <c r="R71" s="43">
         <f>IFERROR((9.82 * V67) * LN(R68/R69),0)</f>
         <v>0</v>
       </c>
-      <c r="S71" s="48"/>
-      <c r="T71" s="48"/>
-      <c r="U71" s="48"/>
-      <c r="V71" s="48"/>
-      <c r="W71" s="49"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="44"/>
+      <c r="U71" s="44"/>
+      <c r="V71" s="44"/>
+      <c r="W71" s="45"/>
       <c r="X71" s="12"/>
       <c r="Y71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z71" s="47">
+      <c r="Z71" s="43">
         <f>IFERROR((9.82 * AD67) * LN(Z68/Z69),0)</f>
         <v>0</v>
       </c>
-      <c r="AA71" s="48"/>
-      <c r="AB71" s="48"/>
-      <c r="AC71" s="48"/>
-      <c r="AD71" s="48"/>
-      <c r="AE71" s="49"/>
+      <c r="AA71" s="44"/>
+      <c r="AB71" s="44"/>
+      <c r="AC71" s="44"/>
+      <c r="AD71" s="44"/>
+      <c r="AE71" s="45"/>
       <c r="AF71" s="12"/>
     </row>
     <row r="72" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="51">
+      <c r="B72" s="40">
         <f>B71+B48</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="42"/>
       <c r="H72" s="12"/>
       <c r="I72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J72" s="51">
+      <c r="J72" s="40">
         <f>J71+J48</f>
         <v>0</v>
       </c>
-      <c r="K72" s="52"/>
-      <c r="L72" s="52"/>
-      <c r="M72" s="52"/>
-      <c r="N72" s="52"/>
-      <c r="O72" s="53"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="42"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R72" s="51">
+      <c r="R72" s="40">
         <f>R71+R48</f>
         <v>0</v>
       </c>
-      <c r="S72" s="52"/>
-      <c r="T72" s="52"/>
-      <c r="U72" s="52"/>
-      <c r="V72" s="52"/>
-      <c r="W72" s="53"/>
+      <c r="S72" s="41"/>
+      <c r="T72" s="41"/>
+      <c r="U72" s="41"/>
+      <c r="V72" s="41"/>
+      <c r="W72" s="42"/>
       <c r="X72" s="12"/>
       <c r="Y72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z72" s="51">
+      <c r="Z72" s="40">
         <f>Z71+Z48</f>
         <v>0</v>
       </c>
-      <c r="AA72" s="52"/>
-      <c r="AB72" s="52"/>
-      <c r="AC72" s="52"/>
-      <c r="AD72" s="52"/>
-      <c r="AE72" s="53"/>
+      <c r="AA72" s="41"/>
+      <c r="AB72" s="41"/>
+      <c r="AC72" s="41"/>
+      <c r="AD72" s="41"/>
+      <c r="AE72" s="42"/>
       <c r="AF72" s="12"/>
     </row>
     <row r="73" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -35728,270 +36008,270 @@
       <c r="A92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="47">
+      <c r="B92" s="43">
         <f>E91+B68</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C92" s="48"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="48"/>
-      <c r="F92" s="48"/>
-      <c r="G92" s="49"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="45"/>
       <c r="H92" s="12"/>
       <c r="I92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J92" s="47">
+      <c r="J92" s="43">
         <f>M91+J68</f>
         <v>0</v>
       </c>
-      <c r="K92" s="48"/>
-      <c r="L92" s="48"/>
-      <c r="M92" s="48"/>
-      <c r="N92" s="48"/>
-      <c r="O92" s="49"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="44"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="45"/>
       <c r="P92" s="12"/>
       <c r="Q92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R92" s="47">
+      <c r="R92" s="43">
         <f>U91+R68</f>
         <v>0</v>
       </c>
-      <c r="S92" s="48"/>
-      <c r="T92" s="48"/>
-      <c r="U92" s="48"/>
-      <c r="V92" s="48"/>
-      <c r="W92" s="49"/>
+      <c r="S92" s="44"/>
+      <c r="T92" s="44"/>
+      <c r="U92" s="44"/>
+      <c r="V92" s="44"/>
+      <c r="W92" s="45"/>
       <c r="X92" s="12"/>
       <c r="Y92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z92" s="47">
+      <c r="Z92" s="43">
         <f>AC91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA92" s="48"/>
-      <c r="AB92" s="48"/>
-      <c r="AC92" s="48"/>
-      <c r="AD92" s="48"/>
-      <c r="AE92" s="49"/>
+      <c r="AA92" s="44"/>
+      <c r="AB92" s="44"/>
+      <c r="AC92" s="44"/>
+      <c r="AD92" s="44"/>
+      <c r="AE92" s="45"/>
       <c r="AF92" s="12"/>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="47">
+      <c r="B93" s="43">
         <f>C91+B68</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="48"/>
-      <c r="G93" s="49"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="45"/>
       <c r="H93" s="12"/>
       <c r="I93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J93" s="47">
+      <c r="J93" s="43">
         <f>K91+J68</f>
         <v>0</v>
       </c>
-      <c r="K93" s="48"/>
-      <c r="L93" s="48"/>
-      <c r="M93" s="48"/>
-      <c r="N93" s="48"/>
-      <c r="O93" s="49"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="44"/>
+      <c r="M93" s="44"/>
+      <c r="N93" s="44"/>
+      <c r="O93" s="45"/>
       <c r="P93" s="12"/>
       <c r="Q93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R93" s="47">
+      <c r="R93" s="43">
         <f>S91+R68</f>
         <v>0</v>
       </c>
-      <c r="S93" s="48"/>
-      <c r="T93" s="48"/>
-      <c r="U93" s="48"/>
-      <c r="V93" s="48"/>
-      <c r="W93" s="49"/>
+      <c r="S93" s="44"/>
+      <c r="T93" s="44"/>
+      <c r="U93" s="44"/>
+      <c r="V93" s="44"/>
+      <c r="W93" s="45"/>
       <c r="X93" s="12"/>
       <c r="Y93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z93" s="47">
+      <c r="Z93" s="43">
         <f>AA91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA93" s="48"/>
-      <c r="AB93" s="48"/>
-      <c r="AC93" s="48"/>
-      <c r="AD93" s="48"/>
-      <c r="AE93" s="49"/>
+      <c r="AA93" s="44"/>
+      <c r="AB93" s="44"/>
+      <c r="AC93" s="44"/>
+      <c r="AD93" s="44"/>
+      <c r="AE93" s="45"/>
       <c r="AF93" s="12"/>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="47">
+      <c r="B94" s="43">
         <f>IFERROR((G91/10/B92),0)</f>
         <v>0</v>
       </c>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="49"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="44"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="45"/>
       <c r="H94" s="12"/>
       <c r="I94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J94" s="47">
+      <c r="J94" s="43">
         <f>IFERROR((O91/10/J92),0)</f>
         <v>0</v>
       </c>
-      <c r="K94" s="48"/>
-      <c r="L94" s="48"/>
-      <c r="M94" s="48"/>
-      <c r="N94" s="48"/>
-      <c r="O94" s="49"/>
+      <c r="K94" s="44"/>
+      <c r="L94" s="44"/>
+      <c r="M94" s="44"/>
+      <c r="N94" s="44"/>
+      <c r="O94" s="45"/>
       <c r="P94" s="12"/>
       <c r="Q94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R94" s="47">
+      <c r="R94" s="43">
         <f>IFERROR((W91/10/R92),0)</f>
         <v>0</v>
       </c>
-      <c r="S94" s="48"/>
-      <c r="T94" s="48"/>
-      <c r="U94" s="48"/>
-      <c r="V94" s="48"/>
-      <c r="W94" s="49"/>
+      <c r="S94" s="44"/>
+      <c r="T94" s="44"/>
+      <c r="U94" s="44"/>
+      <c r="V94" s="44"/>
+      <c r="W94" s="45"/>
       <c r="X94" s="12"/>
       <c r="Y94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z94" s="47">
+      <c r="Z94" s="43">
         <f>IFERROR((AE91/10/Z92),0)</f>
         <v>0</v>
       </c>
-      <c r="AA94" s="48"/>
-      <c r="AB94" s="48"/>
-      <c r="AC94" s="48"/>
-      <c r="AD94" s="48"/>
-      <c r="AE94" s="49"/>
+      <c r="AA94" s="44"/>
+      <c r="AB94" s="44"/>
+      <c r="AC94" s="44"/>
+      <c r="AD94" s="44"/>
+      <c r="AE94" s="45"/>
       <c r="AF94" s="12"/>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="47">
+      <c r="B95" s="43">
         <f>IFERROR((9.82 * F91) * LN(B92/B93),0)</f>
         <v>0</v>
       </c>
-      <c r="C95" s="48"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="48"/>
-      <c r="G95" s="49"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="45"/>
       <c r="H95" s="12"/>
       <c r="I95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J95" s="47">
+      <c r="J95" s="43">
         <f>IFERROR((9.82 * N91) * LN(J92/J93),0)</f>
         <v>0</v>
       </c>
-      <c r="K95" s="48"/>
-      <c r="L95" s="48"/>
-      <c r="M95" s="48"/>
-      <c r="N95" s="48"/>
-      <c r="O95" s="49"/>
+      <c r="K95" s="44"/>
+      <c r="L95" s="44"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="45"/>
       <c r="P95" s="12"/>
       <c r="Q95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R95" s="47">
+      <c r="R95" s="43">
         <f>IFERROR((9.82 * V91) * LN(R92/R93),0)</f>
         <v>0</v>
       </c>
-      <c r="S95" s="48"/>
-      <c r="T95" s="48"/>
-      <c r="U95" s="48"/>
-      <c r="V95" s="48"/>
-      <c r="W95" s="49"/>
+      <c r="S95" s="44"/>
+      <c r="T95" s="44"/>
+      <c r="U95" s="44"/>
+      <c r="V95" s="44"/>
+      <c r="W95" s="45"/>
       <c r="X95" s="12"/>
       <c r="Y95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z95" s="47">
+      <c r="Z95" s="43">
         <f>IFERROR((9.82 * AD91) * LN(Z92/Z93),0)</f>
         <v>0</v>
       </c>
-      <c r="AA95" s="48"/>
-      <c r="AB95" s="48"/>
-      <c r="AC95" s="48"/>
-      <c r="AD95" s="48"/>
-      <c r="AE95" s="49"/>
+      <c r="AA95" s="44"/>
+      <c r="AB95" s="44"/>
+      <c r="AC95" s="44"/>
+      <c r="AD95" s="44"/>
+      <c r="AE95" s="45"/>
       <c r="AF95" s="12"/>
     </row>
     <row r="96" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="51">
+      <c r="B96" s="40">
         <f>B95+B72</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C96" s="52"/>
-      <c r="D96" s="52"/>
-      <c r="E96" s="52"/>
-      <c r="F96" s="52"/>
-      <c r="G96" s="53"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="42"/>
       <c r="H96" s="12"/>
       <c r="I96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J96" s="51">
+      <c r="J96" s="40">
         <f>J95+J72</f>
         <v>0</v>
       </c>
-      <c r="K96" s="52"/>
-      <c r="L96" s="52"/>
-      <c r="M96" s="52"/>
-      <c r="N96" s="52"/>
-      <c r="O96" s="53"/>
+      <c r="K96" s="41"/>
+      <c r="L96" s="41"/>
+      <c r="M96" s="41"/>
+      <c r="N96" s="41"/>
+      <c r="O96" s="42"/>
       <c r="P96" s="12"/>
       <c r="Q96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R96" s="51">
+      <c r="R96" s="40">
         <f>R95+R72</f>
         <v>0</v>
       </c>
-      <c r="S96" s="52"/>
-      <c r="T96" s="52"/>
-      <c r="U96" s="52"/>
-      <c r="V96" s="52"/>
-      <c r="W96" s="53"/>
+      <c r="S96" s="41"/>
+      <c r="T96" s="41"/>
+      <c r="U96" s="41"/>
+      <c r="V96" s="41"/>
+      <c r="W96" s="42"/>
       <c r="X96" s="12"/>
       <c r="Y96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z96" s="51">
+      <c r="Z96" s="40">
         <f>Z95+Z72</f>
         <v>0</v>
       </c>
-      <c r="AA96" s="52"/>
-      <c r="AB96" s="52"/>
-      <c r="AC96" s="52"/>
-      <c r="AD96" s="52"/>
-      <c r="AE96" s="53"/>
+      <c r="AA96" s="41"/>
+      <c r="AB96" s="41"/>
+      <c r="AC96" s="41"/>
+      <c r="AD96" s="41"/>
+      <c r="AE96" s="42"/>
       <c r="AF96" s="12"/>
     </row>
     <row r="97" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37728,270 +38008,270 @@
       <c r="A116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B116" s="47">
+      <c r="B116" s="43">
         <f>E115+B92</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C116" s="48"/>
-      <c r="D116" s="48"/>
-      <c r="E116" s="48"/>
-      <c r="F116" s="48"/>
-      <c r="G116" s="49"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="44"/>
+      <c r="E116" s="44"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="45"/>
       <c r="H116" s="12"/>
       <c r="I116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J116" s="47">
+      <c r="J116" s="43">
         <f>M115+J92</f>
         <v>0</v>
       </c>
-      <c r="K116" s="48"/>
-      <c r="L116" s="48"/>
-      <c r="M116" s="48"/>
-      <c r="N116" s="48"/>
-      <c r="O116" s="49"/>
+      <c r="K116" s="44"/>
+      <c r="L116" s="44"/>
+      <c r="M116" s="44"/>
+      <c r="N116" s="44"/>
+      <c r="O116" s="45"/>
       <c r="P116" s="12"/>
       <c r="Q116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R116" s="47">
+      <c r="R116" s="43">
         <f>U115+R92</f>
         <v>0</v>
       </c>
-      <c r="S116" s="48"/>
-      <c r="T116" s="48"/>
-      <c r="U116" s="48"/>
-      <c r="V116" s="48"/>
-      <c r="W116" s="49"/>
+      <c r="S116" s="44"/>
+      <c r="T116" s="44"/>
+      <c r="U116" s="44"/>
+      <c r="V116" s="44"/>
+      <c r="W116" s="45"/>
       <c r="X116" s="12"/>
       <c r="Y116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z116" s="47">
+      <c r="Z116" s="43">
         <f>AC115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA116" s="48"/>
-      <c r="AB116" s="48"/>
-      <c r="AC116" s="48"/>
-      <c r="AD116" s="48"/>
-      <c r="AE116" s="49"/>
+      <c r="AA116" s="44"/>
+      <c r="AB116" s="44"/>
+      <c r="AC116" s="44"/>
+      <c r="AD116" s="44"/>
+      <c r="AE116" s="45"/>
       <c r="AF116" s="12"/>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B117" s="47">
+      <c r="B117" s="43">
         <f>C115+B92</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C117" s="48"/>
-      <c r="D117" s="48"/>
-      <c r="E117" s="48"/>
-      <c r="F117" s="48"/>
-      <c r="G117" s="49"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="44"/>
+      <c r="E117" s="44"/>
+      <c r="F117" s="44"/>
+      <c r="G117" s="45"/>
       <c r="H117" s="12"/>
       <c r="I117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J117" s="47">
+      <c r="J117" s="43">
         <f>K115+J92</f>
         <v>0</v>
       </c>
-      <c r="K117" s="48"/>
-      <c r="L117" s="48"/>
-      <c r="M117" s="48"/>
-      <c r="N117" s="48"/>
-      <c r="O117" s="49"/>
+      <c r="K117" s="44"/>
+      <c r="L117" s="44"/>
+      <c r="M117" s="44"/>
+      <c r="N117" s="44"/>
+      <c r="O117" s="45"/>
       <c r="P117" s="12"/>
       <c r="Q117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R117" s="47">
+      <c r="R117" s="43">
         <f>S115+R92</f>
         <v>0</v>
       </c>
-      <c r="S117" s="48"/>
-      <c r="T117" s="48"/>
-      <c r="U117" s="48"/>
-      <c r="V117" s="48"/>
-      <c r="W117" s="49"/>
+      <c r="S117" s="44"/>
+      <c r="T117" s="44"/>
+      <c r="U117" s="44"/>
+      <c r="V117" s="44"/>
+      <c r="W117" s="45"/>
       <c r="X117" s="12"/>
       <c r="Y117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z117" s="47">
+      <c r="Z117" s="43">
         <f>AA115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA117" s="48"/>
-      <c r="AB117" s="48"/>
-      <c r="AC117" s="48"/>
-      <c r="AD117" s="48"/>
-      <c r="AE117" s="49"/>
+      <c r="AA117" s="44"/>
+      <c r="AB117" s="44"/>
+      <c r="AC117" s="44"/>
+      <c r="AD117" s="44"/>
+      <c r="AE117" s="45"/>
       <c r="AF117" s="12"/>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B118" s="47">
+      <c r="B118" s="43">
         <f>IFERROR((G115/10/B116),0)</f>
         <v>0</v>
       </c>
-      <c r="C118" s="48"/>
-      <c r="D118" s="48"/>
-      <c r="E118" s="48"/>
-      <c r="F118" s="48"/>
-      <c r="G118" s="49"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="44"/>
+      <c r="E118" s="44"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="45"/>
       <c r="H118" s="12"/>
       <c r="I118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J118" s="47">
+      <c r="J118" s="43">
         <f>IFERROR((O115/10/J116),0)</f>
         <v>0</v>
       </c>
-      <c r="K118" s="48"/>
-      <c r="L118" s="48"/>
-      <c r="M118" s="48"/>
-      <c r="N118" s="48"/>
-      <c r="O118" s="49"/>
+      <c r="K118" s="44"/>
+      <c r="L118" s="44"/>
+      <c r="M118" s="44"/>
+      <c r="N118" s="44"/>
+      <c r="O118" s="45"/>
       <c r="P118" s="12"/>
       <c r="Q118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R118" s="47">
+      <c r="R118" s="43">
         <f>IFERROR((W115/10/R116),0)</f>
         <v>0</v>
       </c>
-      <c r="S118" s="48"/>
-      <c r="T118" s="48"/>
-      <c r="U118" s="48"/>
-      <c r="V118" s="48"/>
-      <c r="W118" s="49"/>
+      <c r="S118" s="44"/>
+      <c r="T118" s="44"/>
+      <c r="U118" s="44"/>
+      <c r="V118" s="44"/>
+      <c r="W118" s="45"/>
       <c r="X118" s="12"/>
       <c r="Y118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z118" s="47">
+      <c r="Z118" s="43">
         <f>IFERROR((AE115/10/Z116),0)</f>
         <v>0</v>
       </c>
-      <c r="AA118" s="48"/>
-      <c r="AB118" s="48"/>
-      <c r="AC118" s="48"/>
-      <c r="AD118" s="48"/>
-      <c r="AE118" s="49"/>
+      <c r="AA118" s="44"/>
+      <c r="AB118" s="44"/>
+      <c r="AC118" s="44"/>
+      <c r="AD118" s="44"/>
+      <c r="AE118" s="45"/>
       <c r="AF118" s="12"/>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B119" s="47">
+      <c r="B119" s="43">
         <f>IFERROR((9.82 * F115) * LN(B116/B117),0)</f>
         <v>0</v>
       </c>
-      <c r="C119" s="48"/>
-      <c r="D119" s="48"/>
-      <c r="E119" s="48"/>
-      <c r="F119" s="48"/>
-      <c r="G119" s="49"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="44"/>
+      <c r="E119" s="44"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="45"/>
       <c r="H119" s="12"/>
       <c r="I119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J119" s="47">
+      <c r="J119" s="43">
         <f>IFERROR((9.82 * N115) * LN(J116/J117),0)</f>
         <v>0</v>
       </c>
-      <c r="K119" s="48"/>
-      <c r="L119" s="48"/>
-      <c r="M119" s="48"/>
-      <c r="N119" s="48"/>
-      <c r="O119" s="49"/>
+      <c r="K119" s="44"/>
+      <c r="L119" s="44"/>
+      <c r="M119" s="44"/>
+      <c r="N119" s="44"/>
+      <c r="O119" s="45"/>
       <c r="P119" s="12"/>
       <c r="Q119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R119" s="47">
+      <c r="R119" s="43">
         <f>IFERROR((9.82 * V115) * LN(R116/R117),0)</f>
         <v>0</v>
       </c>
-      <c r="S119" s="48"/>
-      <c r="T119" s="48"/>
-      <c r="U119" s="48"/>
-      <c r="V119" s="48"/>
-      <c r="W119" s="49"/>
+      <c r="S119" s="44"/>
+      <c r="T119" s="44"/>
+      <c r="U119" s="44"/>
+      <c r="V119" s="44"/>
+      <c r="W119" s="45"/>
       <c r="X119" s="12"/>
       <c r="Y119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z119" s="47">
+      <c r="Z119" s="43">
         <f>IFERROR((9.82 * AD115) * LN(Z116/Z117),0)</f>
         <v>0</v>
       </c>
-      <c r="AA119" s="48"/>
-      <c r="AB119" s="48"/>
-      <c r="AC119" s="48"/>
-      <c r="AD119" s="48"/>
-      <c r="AE119" s="49"/>
+      <c r="AA119" s="44"/>
+      <c r="AB119" s="44"/>
+      <c r="AC119" s="44"/>
+      <c r="AD119" s="44"/>
+      <c r="AE119" s="45"/>
       <c r="AF119" s="12"/>
     </row>
     <row r="120" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B120" s="51">
+      <c r="B120" s="40">
         <f>B119+B96</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C120" s="52"/>
-      <c r="D120" s="52"/>
-      <c r="E120" s="52"/>
-      <c r="F120" s="52"/>
-      <c r="G120" s="53"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="41"/>
+      <c r="E120" s="41"/>
+      <c r="F120" s="41"/>
+      <c r="G120" s="42"/>
       <c r="H120" s="12"/>
       <c r="I120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J120" s="51">
+      <c r="J120" s="40">
         <f>J119+J96</f>
         <v>0</v>
       </c>
-      <c r="K120" s="52"/>
-      <c r="L120" s="52"/>
-      <c r="M120" s="52"/>
-      <c r="N120" s="52"/>
-      <c r="O120" s="53"/>
+      <c r="K120" s="41"/>
+      <c r="L120" s="41"/>
+      <c r="M120" s="41"/>
+      <c r="N120" s="41"/>
+      <c r="O120" s="42"/>
       <c r="P120" s="12"/>
       <c r="Q120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R120" s="51">
+      <c r="R120" s="40">
         <f>R119+R96</f>
         <v>0</v>
       </c>
-      <c r="S120" s="52"/>
-      <c r="T120" s="52"/>
-      <c r="U120" s="52"/>
-      <c r="V120" s="52"/>
-      <c r="W120" s="53"/>
+      <c r="S120" s="41"/>
+      <c r="T120" s="41"/>
+      <c r="U120" s="41"/>
+      <c r="V120" s="41"/>
+      <c r="W120" s="42"/>
       <c r="X120" s="12"/>
       <c r="Y120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z120" s="51">
+      <c r="Z120" s="40">
         <f>Z119+Z96</f>
         <v>0</v>
       </c>
-      <c r="AA120" s="52"/>
-      <c r="AB120" s="52"/>
-      <c r="AC120" s="52"/>
-      <c r="AD120" s="52"/>
-      <c r="AE120" s="53"/>
+      <c r="AA120" s="41"/>
+      <c r="AB120" s="41"/>
+      <c r="AC120" s="41"/>
+      <c r="AD120" s="41"/>
+      <c r="AE120" s="42"/>
       <c r="AF120" s="12"/>
     </row>
     <row r="121" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -38029,315 +38309,315 @@
       <c r="AF121" s="12"/>
     </row>
     <row r="122" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="42" t="s">
+      <c r="A122" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="B122" s="43"/>
-      <c r="C122" s="43"/>
-      <c r="D122" s="43"/>
-      <c r="E122" s="43"/>
-      <c r="F122" s="43"/>
-      <c r="G122" s="44"/>
+      <c r="B122" s="48"/>
+      <c r="C122" s="48"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="49"/>
       <c r="H122" s="12"/>
-      <c r="I122" s="42" t="s">
+      <c r="I122" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="J122" s="43"/>
-      <c r="K122" s="43"/>
-      <c r="L122" s="43"/>
-      <c r="M122" s="43"/>
-      <c r="N122" s="43"/>
-      <c r="O122" s="44"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="48"/>
+      <c r="L122" s="48"/>
+      <c r="M122" s="48"/>
+      <c r="N122" s="48"/>
+      <c r="O122" s="49"/>
       <c r="P122" s="12"/>
-      <c r="Q122" s="42" t="s">
+      <c r="Q122" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="R122" s="43"/>
-      <c r="S122" s="43"/>
-      <c r="T122" s="43"/>
-      <c r="U122" s="43"/>
-      <c r="V122" s="43"/>
-      <c r="W122" s="44"/>
+      <c r="R122" s="48"/>
+      <c r="S122" s="48"/>
+      <c r="T122" s="48"/>
+      <c r="U122" s="48"/>
+      <c r="V122" s="48"/>
+      <c r="W122" s="49"/>
       <c r="X122" s="12"/>
-      <c r="Y122" s="42" t="s">
+      <c r="Y122" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="Z122" s="43"/>
-      <c r="AA122" s="43"/>
-      <c r="AB122" s="43"/>
-      <c r="AC122" s="43"/>
-      <c r="AD122" s="43"/>
-      <c r="AE122" s="44"/>
+      <c r="Z122" s="48"/>
+      <c r="AA122" s="48"/>
+      <c r="AB122" s="48"/>
+      <c r="AC122" s="48"/>
+      <c r="AD122" s="48"/>
+      <c r="AE122" s="49"/>
       <c r="AF122" s="12"/>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A123" s="45" t="s">
+      <c r="A123" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="B123" s="45"/>
-      <c r="C123" s="45"/>
-      <c r="D123" s="46">
+      <c r="B123" s="52"/>
+      <c r="C123" s="52"/>
+      <c r="D123" s="51">
         <f>B115</f>
         <v>3</v>
       </c>
-      <c r="E123" s="46"/>
-      <c r="F123" s="46"/>
-      <c r="G123" s="46"/>
+      <c r="E123" s="51"/>
+      <c r="F123" s="51"/>
+      <c r="G123" s="51"/>
       <c r="H123" s="12"/>
-      <c r="I123" s="45" t="s">
+      <c r="I123" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="J123" s="45"/>
-      <c r="K123" s="45"/>
-      <c r="L123" s="46">
+      <c r="J123" s="52"/>
+      <c r="K123" s="52"/>
+      <c r="L123" s="51">
         <f>J115</f>
         <v>0</v>
       </c>
-      <c r="M123" s="46"/>
-      <c r="N123" s="46"/>
-      <c r="O123" s="46"/>
+      <c r="M123" s="51"/>
+      <c r="N123" s="51"/>
+      <c r="O123" s="51"/>
       <c r="P123" s="12"/>
-      <c r="Q123" s="45" t="s">
+      <c r="Q123" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="R123" s="45"/>
-      <c r="S123" s="45"/>
-      <c r="T123" s="46">
+      <c r="R123" s="52"/>
+      <c r="S123" s="52"/>
+      <c r="T123" s="51">
         <f>R115</f>
         <v>0</v>
       </c>
-      <c r="U123" s="46"/>
-      <c r="V123" s="46"/>
-      <c r="W123" s="46"/>
+      <c r="U123" s="51"/>
+      <c r="V123" s="51"/>
+      <c r="W123" s="51"/>
       <c r="X123" s="12"/>
-      <c r="Y123" s="45" t="s">
+      <c r="Y123" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="Z123" s="45"/>
-      <c r="AA123" s="45"/>
-      <c r="AB123" s="46">
+      <c r="Z123" s="52"/>
+      <c r="AA123" s="52"/>
+      <c r="AB123" s="51">
         <f>Z115</f>
         <v>0</v>
       </c>
-      <c r="AC123" s="46"/>
-      <c r="AD123" s="46"/>
-      <c r="AE123" s="46"/>
+      <c r="AC123" s="51"/>
+      <c r="AD123" s="51"/>
+      <c r="AE123" s="51"/>
       <c r="AF123" s="12"/>
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A124" s="40" t="s">
+      <c r="A124" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="40"/>
-      <c r="C124" s="40"/>
-      <c r="D124" s="41">
+      <c r="B124" s="53"/>
+      <c r="C124" s="53"/>
+      <c r="D124" s="50">
         <f>B116</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="E124" s="41"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="41"/>
+      <c r="E124" s="50"/>
+      <c r="F124" s="50"/>
+      <c r="G124" s="50"/>
       <c r="H124" s="12"/>
-      <c r="I124" s="40" t="s">
+      <c r="I124" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J124" s="40"/>
-      <c r="K124" s="40"/>
-      <c r="L124" s="41">
+      <c r="J124" s="53"/>
+      <c r="K124" s="53"/>
+      <c r="L124" s="50">
         <f>J116</f>
         <v>0</v>
       </c>
-      <c r="M124" s="41"/>
-      <c r="N124" s="41"/>
-      <c r="O124" s="41"/>
+      <c r="M124" s="50"/>
+      <c r="N124" s="50"/>
+      <c r="O124" s="50"/>
       <c r="P124" s="12"/>
-      <c r="Q124" s="40" t="s">
+      <c r="Q124" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="R124" s="40"/>
-      <c r="S124" s="40"/>
-      <c r="T124" s="41">
+      <c r="R124" s="53"/>
+      <c r="S124" s="53"/>
+      <c r="T124" s="50">
         <f>R116</f>
         <v>0</v>
       </c>
-      <c r="U124" s="41"/>
-      <c r="V124" s="41"/>
-      <c r="W124" s="41"/>
+      <c r="U124" s="50"/>
+      <c r="V124" s="50"/>
+      <c r="W124" s="50"/>
       <c r="X124" s="12"/>
-      <c r="Y124" s="40" t="s">
+      <c r="Y124" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="Z124" s="40"/>
-      <c r="AA124" s="40"/>
-      <c r="AB124" s="41">
+      <c r="Z124" s="53"/>
+      <c r="AA124" s="53"/>
+      <c r="AB124" s="50">
         <f>Z116</f>
         <v>0</v>
       </c>
-      <c r="AC124" s="41"/>
-      <c r="AD124" s="41"/>
-      <c r="AE124" s="41"/>
+      <c r="AC124" s="50"/>
+      <c r="AD124" s="50"/>
+      <c r="AE124" s="50"/>
       <c r="AF124" s="12"/>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A125" s="40" t="s">
+      <c r="A125" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="40"/>
-      <c r="C125" s="40"/>
-      <c r="D125" s="41">
+      <c r="B125" s="53"/>
+      <c r="C125" s="53"/>
+      <c r="D125" s="50">
         <f>D115+D91+D67+D43+D19</f>
         <v>8.9766162500000011</v>
       </c>
-      <c r="E125" s="41"/>
-      <c r="F125" s="41"/>
-      <c r="G125" s="41"/>
+      <c r="E125" s="50"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="50"/>
       <c r="H125" s="12"/>
-      <c r="I125" s="40" t="s">
+      <c r="I125" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="J125" s="40"/>
-      <c r="K125" s="40"/>
-      <c r="L125" s="41">
+      <c r="J125" s="53"/>
+      <c r="K125" s="53"/>
+      <c r="L125" s="50">
         <f>L115+L91+L67+L43+L19</f>
         <v>0</v>
       </c>
-      <c r="M125" s="41"/>
-      <c r="N125" s="41"/>
-      <c r="O125" s="41"/>
+      <c r="M125" s="50"/>
+      <c r="N125" s="50"/>
+      <c r="O125" s="50"/>
       <c r="P125" s="12"/>
-      <c r="Q125" s="40" t="s">
+      <c r="Q125" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="R125" s="40"/>
-      <c r="S125" s="40"/>
-      <c r="T125" s="41">
+      <c r="R125" s="53"/>
+      <c r="S125" s="53"/>
+      <c r="T125" s="50">
         <f>T115+T91+T67+T43+T19</f>
         <v>0</v>
       </c>
-      <c r="U125" s="41"/>
-      <c r="V125" s="41"/>
-      <c r="W125" s="41"/>
+      <c r="U125" s="50"/>
+      <c r="V125" s="50"/>
+      <c r="W125" s="50"/>
       <c r="X125" s="12"/>
-      <c r="Y125" s="40" t="s">
+      <c r="Y125" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="Z125" s="40"/>
-      <c r="AA125" s="40"/>
-      <c r="AB125" s="41">
+      <c r="Z125" s="53"/>
+      <c r="AA125" s="53"/>
+      <c r="AB125" s="50">
         <f>AB115+AB91+AB67+AB43+AB19</f>
         <v>0</v>
       </c>
-      <c r="AC125" s="41"/>
-      <c r="AD125" s="41"/>
-      <c r="AE125" s="41"/>
+      <c r="AC125" s="50"/>
+      <c r="AD125" s="50"/>
+      <c r="AE125" s="50"/>
       <c r="AF125" s="12"/>
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A126" s="40" t="s">
+      <c r="A126" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="40"/>
-      <c r="C126" s="40"/>
-      <c r="D126" s="41">
+      <c r="B126" s="53"/>
+      <c r="C126" s="53"/>
+      <c r="D126" s="50">
         <f>D124-D125</f>
         <v>1.7964924374999995</v>
       </c>
-      <c r="E126" s="41"/>
-      <c r="F126" s="41"/>
-      <c r="G126" s="41"/>
+      <c r="E126" s="50"/>
+      <c r="F126" s="50"/>
+      <c r="G126" s="50"/>
       <c r="H126" s="12"/>
-      <c r="I126" s="40" t="s">
+      <c r="I126" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="J126" s="40"/>
-      <c r="K126" s="40"/>
-      <c r="L126" s="41">
+      <c r="J126" s="53"/>
+      <c r="K126" s="53"/>
+      <c r="L126" s="50">
         <f>L124-L125</f>
         <v>0</v>
       </c>
-      <c r="M126" s="41"/>
-      <c r="N126" s="41"/>
-      <c r="O126" s="41"/>
+      <c r="M126" s="50"/>
+      <c r="N126" s="50"/>
+      <c r="O126" s="50"/>
       <c r="P126" s="12"/>
-      <c r="Q126" s="40" t="s">
+      <c r="Q126" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="R126" s="40"/>
-      <c r="S126" s="40"/>
-      <c r="T126" s="41">
+      <c r="R126" s="53"/>
+      <c r="S126" s="53"/>
+      <c r="T126" s="50">
         <f>T124-T125</f>
         <v>0</v>
       </c>
-      <c r="U126" s="41"/>
-      <c r="V126" s="41"/>
-      <c r="W126" s="41"/>
+      <c r="U126" s="50"/>
+      <c r="V126" s="50"/>
+      <c r="W126" s="50"/>
       <c r="X126" s="12"/>
-      <c r="Y126" s="40" t="s">
+      <c r="Y126" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="Z126" s="40"/>
-      <c r="AA126" s="40"/>
-      <c r="AB126" s="41">
+      <c r="Z126" s="53"/>
+      <c r="AA126" s="53"/>
+      <c r="AB126" s="50">
         <f>AB124-AB125</f>
         <v>0</v>
       </c>
-      <c r="AC126" s="41"/>
-      <c r="AD126" s="41"/>
-      <c r="AE126" s="41"/>
+      <c r="AC126" s="50"/>
+      <c r="AD126" s="50"/>
+      <c r="AE126" s="50"/>
       <c r="AF126" s="12"/>
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A127" s="40" t="s">
+      <c r="A127" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="40"/>
-      <c r="C127" s="40"/>
-      <c r="D127" s="41">
+      <c r="B127" s="53"/>
+      <c r="C127" s="53"/>
+      <c r="D127" s="50">
         <f>B120</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="E127" s="41"/>
-      <c r="F127" s="41"/>
-      <c r="G127" s="41"/>
+      <c r="E127" s="50"/>
+      <c r="F127" s="50"/>
+      <c r="G127" s="50"/>
       <c r="H127" s="12"/>
-      <c r="I127" s="40" t="s">
+      <c r="I127" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="J127" s="40"/>
-      <c r="K127" s="40"/>
-      <c r="L127" s="41">
+      <c r="J127" s="53"/>
+      <c r="K127" s="53"/>
+      <c r="L127" s="50">
         <f>J120</f>
         <v>0</v>
       </c>
-      <c r="M127" s="41"/>
-      <c r="N127" s="41"/>
-      <c r="O127" s="41"/>
+      <c r="M127" s="50"/>
+      <c r="N127" s="50"/>
+      <c r="O127" s="50"/>
       <c r="P127" s="12"/>
-      <c r="Q127" s="40" t="s">
+      <c r="Q127" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="R127" s="40"/>
-      <c r="S127" s="40"/>
-      <c r="T127" s="41">
+      <c r="R127" s="53"/>
+      <c r="S127" s="53"/>
+      <c r="T127" s="50">
         <f>R120</f>
         <v>0</v>
       </c>
-      <c r="U127" s="41"/>
-      <c r="V127" s="41"/>
-      <c r="W127" s="41"/>
+      <c r="U127" s="50"/>
+      <c r="V127" s="50"/>
+      <c r="W127" s="50"/>
       <c r="X127" s="12"/>
-      <c r="Y127" s="40" t="s">
+      <c r="Y127" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="Z127" s="40"/>
-      <c r="AA127" s="40"/>
-      <c r="AB127" s="41">
+      <c r="Z127" s="53"/>
+      <c r="AA127" s="53"/>
+      <c r="AB127" s="50">
         <f>Z120</f>
         <v>0</v>
       </c>
-      <c r="AC127" s="41"/>
-      <c r="AD127" s="41"/>
-      <c r="AE127" s="41"/>
+      <c r="AC127" s="50"/>
+      <c r="AD127" s="50"/>
+      <c r="AE127" s="50"/>
       <c r="AF127" s="12"/>
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.25">
@@ -38376,87 +38656,49 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="J120:O120"/>
-    <mergeCell ref="R120:W120"/>
-    <mergeCell ref="Z120:AE120"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="J119:O119"/>
-    <mergeCell ref="R119:W119"/>
-    <mergeCell ref="Z119:AE119"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="J118:O118"/>
-    <mergeCell ref="R118:W118"/>
-    <mergeCell ref="Z118:AE118"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="J117:O117"/>
-    <mergeCell ref="R117:W117"/>
-    <mergeCell ref="Z117:AE117"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="J116:O116"/>
-    <mergeCell ref="R116:W116"/>
-    <mergeCell ref="Z116:AE116"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="J96:O96"/>
-    <mergeCell ref="R96:W96"/>
-    <mergeCell ref="Z96:AE96"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="J95:O95"/>
-    <mergeCell ref="R95:W95"/>
-    <mergeCell ref="Z95:AE95"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="J94:O94"/>
-    <mergeCell ref="R94:W94"/>
-    <mergeCell ref="Z94:AE94"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="J93:O93"/>
-    <mergeCell ref="R93:W93"/>
-    <mergeCell ref="Z93:AE93"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="J92:O92"/>
-    <mergeCell ref="R92:W92"/>
-    <mergeCell ref="Z92:AE92"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="J72:O72"/>
-    <mergeCell ref="R72:W72"/>
-    <mergeCell ref="Z72:AE72"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="J71:O71"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="Z71:AE71"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="J70:O70"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="Z70:AE70"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="J69:O69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="Z69:AE69"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="J68:O68"/>
-    <mergeCell ref="R68:W68"/>
-    <mergeCell ref="Z68:AE68"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="R48:W48"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="R47:W47"/>
-    <mergeCell ref="Z47:AE47"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="R46:W46"/>
-    <mergeCell ref="Z46:AE46"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="R44:W44"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="Z24:AE24"/>
+    <mergeCell ref="Y127:AA127"/>
+    <mergeCell ref="AB127:AE127"/>
+    <mergeCell ref="Y122:AE122"/>
+    <mergeCell ref="Y123:AA123"/>
+    <mergeCell ref="AB123:AE123"/>
+    <mergeCell ref="Y124:AA124"/>
+    <mergeCell ref="AB124:AE124"/>
+    <mergeCell ref="Y125:AA125"/>
+    <mergeCell ref="AB125:AE125"/>
+    <mergeCell ref="Y126:AA126"/>
+    <mergeCell ref="AB126:AE126"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="L127:O127"/>
+    <mergeCell ref="Q122:W122"/>
+    <mergeCell ref="Q123:S123"/>
+    <mergeCell ref="T123:W123"/>
+    <mergeCell ref="Q124:S124"/>
+    <mergeCell ref="T124:W124"/>
+    <mergeCell ref="Q125:S125"/>
+    <mergeCell ref="T125:W125"/>
+    <mergeCell ref="Q126:S126"/>
+    <mergeCell ref="T126:W126"/>
+    <mergeCell ref="Q127:S127"/>
+    <mergeCell ref="T127:W127"/>
+    <mergeCell ref="I122:O122"/>
+    <mergeCell ref="I123:K123"/>
+    <mergeCell ref="L123:O123"/>
+    <mergeCell ref="I124:K124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="I125:K125"/>
+    <mergeCell ref="L125:O125"/>
+    <mergeCell ref="I126:K126"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="D126:G126"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="J20:O20"/>
     <mergeCell ref="R20:W20"/>
@@ -38481,49 +38723,87 @@
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="J45:O45"/>
     <mergeCell ref="R45:W45"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="I127:K127"/>
-    <mergeCell ref="L127:O127"/>
-    <mergeCell ref="Q122:W122"/>
-    <mergeCell ref="Q123:S123"/>
-    <mergeCell ref="T123:W123"/>
-    <mergeCell ref="Q124:S124"/>
-    <mergeCell ref="T124:W124"/>
-    <mergeCell ref="Q125:S125"/>
-    <mergeCell ref="T125:W125"/>
-    <mergeCell ref="Q126:S126"/>
-    <mergeCell ref="T126:W126"/>
-    <mergeCell ref="Q127:S127"/>
-    <mergeCell ref="T127:W127"/>
-    <mergeCell ref="I122:O122"/>
-    <mergeCell ref="I123:K123"/>
-    <mergeCell ref="L123:O123"/>
-    <mergeCell ref="I124:K124"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="I125:K125"/>
-    <mergeCell ref="L125:O125"/>
-    <mergeCell ref="I126:K126"/>
-    <mergeCell ref="L126:O126"/>
-    <mergeCell ref="Y127:AA127"/>
-    <mergeCell ref="AB127:AE127"/>
-    <mergeCell ref="Y122:AE122"/>
-    <mergeCell ref="Y123:AA123"/>
-    <mergeCell ref="AB123:AE123"/>
-    <mergeCell ref="Y124:AA124"/>
-    <mergeCell ref="AB124:AE124"/>
-    <mergeCell ref="Y125:AA125"/>
-    <mergeCell ref="AB125:AE125"/>
-    <mergeCell ref="Y126:AA126"/>
-    <mergeCell ref="AB126:AE126"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="R44:W44"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="Z24:AE24"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="R48:W48"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="R47:W47"/>
+    <mergeCell ref="Z47:AE47"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="Z46:AE46"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="J70:O70"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="Z70:AE70"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="J69:O69"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="Z69:AE69"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="J68:O68"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="Z68:AE68"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="J92:O92"/>
+    <mergeCell ref="R92:W92"/>
+    <mergeCell ref="Z92:AE92"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="J72:O72"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="Z72:AE72"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="J71:O71"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="Z71:AE71"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="J95:O95"/>
+    <mergeCell ref="R95:W95"/>
+    <mergeCell ref="Z95:AE95"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="J94:O94"/>
+    <mergeCell ref="R94:W94"/>
+    <mergeCell ref="Z94:AE94"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="J93:O93"/>
+    <mergeCell ref="R93:W93"/>
+    <mergeCell ref="Z93:AE93"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="J117:O117"/>
+    <mergeCell ref="R117:W117"/>
+    <mergeCell ref="Z117:AE117"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="J116:O116"/>
+    <mergeCell ref="R116:W116"/>
+    <mergeCell ref="Z116:AE116"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="J96:O96"/>
+    <mergeCell ref="R96:W96"/>
+    <mergeCell ref="Z96:AE96"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="J120:O120"/>
+    <mergeCell ref="R120:W120"/>
+    <mergeCell ref="Z120:AE120"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="J119:O119"/>
+    <mergeCell ref="R119:W119"/>
+    <mergeCell ref="Z119:AE119"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="J118:O118"/>
+    <mergeCell ref="R118:W118"/>
+    <mergeCell ref="Z118:AE118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39589,7 +39869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P21" sqref="P21"/>
     </sheetView>
@@ -51655,4 +51935,308 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="54">
+        <v>10</v>
+      </c>
+      <c r="B2" s="54">
+        <v>0</v>
+      </c>
+      <c r="C2" s="54">
+        <v>13</v>
+      </c>
+      <c r="D2" s="54" t="str">
+        <f>"        "&amp;"key = "&amp;A2&amp;" "&amp;ROUND(B2*C2,2)</f>
+        <v xml:space="preserve">        key = 10 0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="54">
+        <v>15</v>
+      </c>
+      <c r="B3" s="54">
+        <v>1</v>
+      </c>
+      <c r="C3" s="54">
+        <f>C2</f>
+        <v>13</v>
+      </c>
+      <c r="D3" s="54" t="str">
+        <f t="shared" ref="D3:D18" si="0">"        "&amp;"key = "&amp;A3&amp;" "&amp;ROUND(B3*C3,2)</f>
+        <v xml:space="preserve">        key = 15 13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="54">
+        <v>50</v>
+      </c>
+      <c r="B4" s="54">
+        <v>15</v>
+      </c>
+      <c r="C4" s="54">
+        <f t="shared" ref="C4:C18" si="1">C3</f>
+        <v>13</v>
+      </c>
+      <c r="D4" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        key = 50 195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="54">
+        <v>150</v>
+      </c>
+      <c r="B5" s="54">
+        <v>25</v>
+      </c>
+      <c r="C5" s="54">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D5" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        key = 150 325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="54">
+        <v>500</v>
+      </c>
+      <c r="B6" s="54">
+        <v>100</v>
+      </c>
+      <c r="C6" s="54">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D6" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        key = 500 1300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="54">
+        <v>750</v>
+      </c>
+      <c r="B7" s="54">
+        <v>250</v>
+      </c>
+      <c r="C7" s="54">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D7" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        key = 750 3250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="54">
+        <v>1000</v>
+      </c>
+      <c r="B8" s="54">
+        <v>800</v>
+      </c>
+      <c r="C8" s="54">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D8" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        key = 1000 10400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="54">
+        <v>1100</v>
+      </c>
+      <c r="B9" s="54">
+        <v>900</v>
+      </c>
+      <c r="C9" s="54">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D9" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        key = 1100 11700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="54">
+        <v>1200</v>
+      </c>
+      <c r="B10" s="54">
+        <v>925</v>
+      </c>
+      <c r="C10" s="54">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D10" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        key = 1200 12025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="54">
+        <v>1300</v>
+      </c>
+      <c r="B11" s="54">
+        <v>950</v>
+      </c>
+      <c r="C11" s="54">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D11" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        key = 1300 12350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="54">
+        <v>1400</v>
+      </c>
+      <c r="B12" s="54">
+        <v>975</v>
+      </c>
+      <c r="C12" s="54">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D12" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        key = 1400 12675</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="54">
+        <v>1500</v>
+      </c>
+      <c r="B13" s="54">
+        <v>1000</v>
+      </c>
+      <c r="C13" s="54">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D13" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        key = 1500 13000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="54">
+        <v>2000</v>
+      </c>
+      <c r="B14" s="54">
+        <v>1100</v>
+      </c>
+      <c r="C14" s="54">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D14" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        key = 2000 14300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="54">
+        <v>2500</v>
+      </c>
+      <c r="B15" s="54">
+        <v>1150</v>
+      </c>
+      <c r="C15" s="54">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D15" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        key = 2500 14950</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="54">
+        <v>3000</v>
+      </c>
+      <c r="B16" s="54">
+        <v>1200</v>
+      </c>
+      <c r="C16" s="54">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D16" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        key = 3000 15600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="54">
+        <v>4000</v>
+      </c>
+      <c r="B17" s="54">
+        <v>1300</v>
+      </c>
+      <c r="C17" s="54">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D17" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        key = 4000 16900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="54">
+        <v>4100</v>
+      </c>
+      <c r="B18" s="54">
+        <v>1310</v>
+      </c>
+      <c r="C18" s="54">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D18" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">        key = 4100 17030</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/GameData/SSTU/Parts/Parts-MassCalc.xlsx
+++ b/GameData/SSTU/Parts/Parts-MassCalc.xlsx
@@ -17,9 +17,6 @@
     <sheet name="RealRocketDims" sheetId="12" r:id="rId8"/>
     <sheet name="HeatShieldCalc" sheetId="13" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -1640,13 +1637,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1661,28 +1671,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1861,11 +1858,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="65875328"/>
-        <c:axId val="65881216"/>
+        <c:axId val="189632512"/>
+        <c:axId val="189634048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="65875328"/>
+        <c:axId val="189632512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1875,12 +1872,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65881216"/>
+        <c:crossAx val="189634048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="65881216"/>
+        <c:axId val="189634048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1891,7 +1888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65875328"/>
+        <c:crossAx val="189632512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1948,19 +1945,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28255,45 +28239,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="12"/>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
       <c r="P1" s="12"/>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="46"/>
-      <c r="U1" s="46"/>
-      <c r="V1" s="46"/>
-      <c r="W1" s="46"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
       <c r="X1" s="12"/>
-      <c r="Y1" s="46" t="s">
+      <c r="Y1" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
       <c r="AF1" s="12"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -30004,270 +29988,270 @@
       <c r="A20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="43">
+      <c r="B20" s="48">
         <f>E19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="12"/>
       <c r="I20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="43">
+      <c r="J20" s="48">
         <f>M19</f>
         <v>0</v>
       </c>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="45"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="50"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R20" s="43">
+      <c r="R20" s="48">
         <f>U19</f>
         <v>0</v>
       </c>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="45"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="50"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z20" s="43">
+      <c r="Z20" s="48">
         <f>AC19</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="45"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="50"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="43">
+      <c r="B21" s="48">
         <f>C19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="12"/>
       <c r="I21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="43">
+      <c r="J21" s="48">
         <f>K19</f>
         <v>0</v>
       </c>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="45"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="50"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R21" s="43">
+      <c r="R21" s="48">
         <f>S19</f>
         <v>0</v>
       </c>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="45"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="50"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z21" s="43">
+      <c r="Z21" s="48">
         <f>AA19</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="45"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="50"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="43">
+      <c r="B22" s="48">
         <f>IFERROR((G19/10/B20),0)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="12"/>
       <c r="I22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="43">
+      <c r="J22" s="48">
         <f>IFERROR((O19/10/J20),0)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="45"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="50"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R22" s="43">
+      <c r="R22" s="48">
         <f>IFERROR((W19/10/R20),0)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="45"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="50"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z22" s="43">
+      <c r="Z22" s="48">
         <f>IFERROR((AE19/10/Z20),0)</f>
         <v>0</v>
       </c>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="45"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="50"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="48">
         <f>IFERROR((9.82 * F19) * LN(B20/C19),0)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="12"/>
       <c r="I23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="43">
+      <c r="J23" s="48">
         <f>IFERROR((9.82 * N19) * LN(J20/K19),0)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="45"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="50"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R23" s="43">
+      <c r="R23" s="48">
         <f>IFERROR((9.82 * V19) * LN(R20/S19),0)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="45"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="50"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z23" s="43">
+      <c r="Z23" s="48">
         <f>IFERROR((9.82 * AD19) * LN(Z20/AA19),0)</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
-      <c r="AE23" s="45"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="50"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="40">
+      <c r="B24" s="52">
         <f>B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
       <c r="H24" s="12"/>
       <c r="I24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24" s="52">
         <f>J23</f>
         <v>0</v>
       </c>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="42"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="54"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R24" s="40">
+      <c r="R24" s="52">
         <f>R23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="41"/>
-      <c r="T24" s="41"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="42"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="54"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z24" s="40">
+      <c r="Z24" s="52">
         <f>Z23</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="42"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="54"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32008,270 +31992,270 @@
       <c r="A44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="43">
+      <c r="B44" s="48">
         <f>E43+B20</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="50"/>
       <c r="H44" s="12"/>
       <c r="I44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J44" s="43">
+      <c r="J44" s="48">
         <f>M43+J20</f>
         <v>0</v>
       </c>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="45"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="50"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R44" s="43">
+      <c r="R44" s="48">
         <f>U43+R20</f>
         <v>0</v>
       </c>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="45"/>
+      <c r="S44" s="49"/>
+      <c r="T44" s="49"/>
+      <c r="U44" s="49"/>
+      <c r="V44" s="49"/>
+      <c r="W44" s="50"/>
       <c r="X44" s="12"/>
       <c r="Y44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z44" s="43">
+      <c r="Z44" s="48">
         <f>AC43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="44"/>
-      <c r="AB44" s="44"/>
-      <c r="AC44" s="44"/>
-      <c r="AD44" s="44"/>
-      <c r="AE44" s="45"/>
+      <c r="AA44" s="49"/>
+      <c r="AB44" s="49"/>
+      <c r="AC44" s="49"/>
+      <c r="AD44" s="49"/>
+      <c r="AE44" s="50"/>
       <c r="AF44" s="12"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="43">
+      <c r="B45" s="48">
         <f>C43+B20</f>
         <v>1.7964924375</v>
       </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="45"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="50"/>
       <c r="H45" s="12"/>
       <c r="I45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J45" s="43">
+      <c r="J45" s="48">
         <f>K43+J20</f>
         <v>0</v>
       </c>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="45"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="50"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R45" s="43">
+      <c r="R45" s="48">
         <f>S43+R20</f>
         <v>0</v>
       </c>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="45"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="49"/>
+      <c r="U45" s="49"/>
+      <c r="V45" s="49"/>
+      <c r="W45" s="50"/>
       <c r="X45" s="12"/>
       <c r="Y45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z45" s="43">
+      <c r="Z45" s="48">
         <f>AA43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA45" s="44"/>
-      <c r="AB45" s="44"/>
-      <c r="AC45" s="44"/>
-      <c r="AD45" s="44"/>
-      <c r="AE45" s="45"/>
+      <c r="AA45" s="49"/>
+      <c r="AB45" s="49"/>
+      <c r="AC45" s="49"/>
+      <c r="AD45" s="49"/>
+      <c r="AE45" s="50"/>
       <c r="AF45" s="12"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="43">
+      <c r="B46" s="48">
         <f>IFERROR((G43/10/B44),0)</f>
         <v>0.4177067298338254</v>
       </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="50"/>
       <c r="H46" s="12"/>
       <c r="I46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J46" s="43">
+      <c r="J46" s="48">
         <f>IFERROR((O43/10/J44),0)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="45"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="50"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R46" s="43">
+      <c r="R46" s="48">
         <f>IFERROR((W43/10/R44),0)</f>
         <v>0</v>
       </c>
-      <c r="S46" s="44"/>
-      <c r="T46" s="44"/>
-      <c r="U46" s="44"/>
-      <c r="V46" s="44"/>
-      <c r="W46" s="45"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="49"/>
+      <c r="V46" s="49"/>
+      <c r="W46" s="50"/>
       <c r="X46" s="12"/>
       <c r="Y46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z46" s="43">
+      <c r="Z46" s="48">
         <f>IFERROR((AE43/10/Z44),0)</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="44"/>
-      <c r="AB46" s="44"/>
-      <c r="AC46" s="44"/>
-      <c r="AD46" s="44"/>
-      <c r="AE46" s="45"/>
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="49"/>
+      <c r="AC46" s="49"/>
+      <c r="AD46" s="49"/>
+      <c r="AE46" s="50"/>
       <c r="AF46" s="12"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="43">
+      <c r="B47" s="48">
         <f>IFERROR((9.82 * F43) * LN(B44/B45),0)</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="45"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="50"/>
       <c r="H47" s="12"/>
       <c r="I47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="43">
+      <c r="J47" s="48">
         <f>IFERROR((9.82 * N43) * LN(J44/J45),0)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="O47" s="45"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="50"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R47" s="43">
+      <c r="R47" s="48">
         <f>IFERROR((9.82 * V43) * LN(R44/R45),0)</f>
         <v>0</v>
       </c>
-      <c r="S47" s="44"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="44"/>
-      <c r="V47" s="44"/>
-      <c r="W47" s="45"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="49"/>
+      <c r="U47" s="49"/>
+      <c r="V47" s="49"/>
+      <c r="W47" s="50"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z47" s="43">
+      <c r="Z47" s="48">
         <f>IFERROR((9.82 * AD43) * LN(Z44/Z45),0)</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="44"/>
-      <c r="AB47" s="44"/>
-      <c r="AC47" s="44"/>
-      <c r="AD47" s="44"/>
-      <c r="AE47" s="45"/>
+      <c r="AA47" s="49"/>
+      <c r="AB47" s="49"/>
+      <c r="AC47" s="49"/>
+      <c r="AD47" s="49"/>
+      <c r="AE47" s="50"/>
       <c r="AF47" s="12"/>
     </row>
     <row r="48" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="40">
+      <c r="B48" s="52">
         <f>B47+B24</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="42"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="54"/>
       <c r="H48" s="12"/>
       <c r="I48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J48" s="40">
+      <c r="J48" s="52">
         <f>J47+J24</f>
         <v>0</v>
       </c>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="42"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="54"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R48" s="40">
+      <c r="R48" s="52">
         <f>R47+R24</f>
         <v>0</v>
       </c>
-      <c r="S48" s="41"/>
-      <c r="T48" s="41"/>
-      <c r="U48" s="41"/>
-      <c r="V48" s="41"/>
-      <c r="W48" s="42"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="54"/>
       <c r="X48" s="12"/>
       <c r="Y48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z48" s="40">
+      <c r="Z48" s="52">
         <f>Z47+Z24</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="41"/>
-      <c r="AB48" s="41"/>
-      <c r="AC48" s="41"/>
-      <c r="AD48" s="41"/>
-      <c r="AE48" s="42"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="53"/>
+      <c r="AD48" s="53"/>
+      <c r="AE48" s="54"/>
       <c r="AF48" s="12"/>
     </row>
     <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34008,270 +33992,270 @@
       <c r="A68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="43">
+      <c r="B68" s="48">
         <f>E67+B44</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="45"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="50"/>
       <c r="H68" s="12"/>
       <c r="I68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J68" s="43">
+      <c r="J68" s="48">
         <f>M67+J44</f>
         <v>0</v>
       </c>
-      <c r="K68" s="44"/>
-      <c r="L68" s="44"/>
-      <c r="M68" s="44"/>
-      <c r="N68" s="44"/>
-      <c r="O68" s="45"/>
+      <c r="K68" s="49"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="50"/>
       <c r="P68" s="12"/>
       <c r="Q68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R68" s="43">
+      <c r="R68" s="48">
         <f>U67+R44</f>
         <v>0</v>
       </c>
-      <c r="S68" s="44"/>
-      <c r="T68" s="44"/>
-      <c r="U68" s="44"/>
-      <c r="V68" s="44"/>
-      <c r="W68" s="45"/>
+      <c r="S68" s="49"/>
+      <c r="T68" s="49"/>
+      <c r="U68" s="49"/>
+      <c r="V68" s="49"/>
+      <c r="W68" s="50"/>
       <c r="X68" s="12"/>
       <c r="Y68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z68" s="43">
+      <c r="Z68" s="48">
         <f>AC67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA68" s="44"/>
-      <c r="AB68" s="44"/>
-      <c r="AC68" s="44"/>
-      <c r="AD68" s="44"/>
-      <c r="AE68" s="45"/>
+      <c r="AA68" s="49"/>
+      <c r="AB68" s="49"/>
+      <c r="AC68" s="49"/>
+      <c r="AD68" s="49"/>
+      <c r="AE68" s="50"/>
       <c r="AF68" s="12"/>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="43">
+      <c r="B69" s="48">
         <f>C67+B44</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="45"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="50"/>
       <c r="H69" s="12"/>
       <c r="I69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J69" s="43">
+      <c r="J69" s="48">
         <f>K67+J44</f>
         <v>0</v>
       </c>
-      <c r="K69" s="44"/>
-      <c r="L69" s="44"/>
-      <c r="M69" s="44"/>
-      <c r="N69" s="44"/>
-      <c r="O69" s="45"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="50"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R69" s="43">
+      <c r="R69" s="48">
         <f>S67+R44</f>
         <v>0</v>
       </c>
-      <c r="S69" s="44"/>
-      <c r="T69" s="44"/>
-      <c r="U69" s="44"/>
-      <c r="V69" s="44"/>
-      <c r="W69" s="45"/>
+      <c r="S69" s="49"/>
+      <c r="T69" s="49"/>
+      <c r="U69" s="49"/>
+      <c r="V69" s="49"/>
+      <c r="W69" s="50"/>
       <c r="X69" s="12"/>
       <c r="Y69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z69" s="43">
+      <c r="Z69" s="48">
         <f>AA67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA69" s="44"/>
-      <c r="AB69" s="44"/>
-      <c r="AC69" s="44"/>
-      <c r="AD69" s="44"/>
-      <c r="AE69" s="45"/>
+      <c r="AA69" s="49"/>
+      <c r="AB69" s="49"/>
+      <c r="AC69" s="49"/>
+      <c r="AD69" s="49"/>
+      <c r="AE69" s="50"/>
       <c r="AF69" s="12"/>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="43">
+      <c r="B70" s="48">
         <f>IFERROR((G67/10/B68),0)</f>
         <v>0</v>
       </c>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="45"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="50"/>
       <c r="H70" s="12"/>
       <c r="I70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J70" s="43">
+      <c r="J70" s="48">
         <f>IFERROR((O67/10/J68),0)</f>
         <v>0</v>
       </c>
-      <c r="K70" s="44"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="44"/>
-      <c r="N70" s="44"/>
-      <c r="O70" s="45"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="49"/>
+      <c r="O70" s="50"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R70" s="43">
+      <c r="R70" s="48">
         <f>IFERROR((W67/10/R68),0)</f>
         <v>0</v>
       </c>
-      <c r="S70" s="44"/>
-      <c r="T70" s="44"/>
-      <c r="U70" s="44"/>
-      <c r="V70" s="44"/>
-      <c r="W70" s="45"/>
+      <c r="S70" s="49"/>
+      <c r="T70" s="49"/>
+      <c r="U70" s="49"/>
+      <c r="V70" s="49"/>
+      <c r="W70" s="50"/>
       <c r="X70" s="12"/>
       <c r="Y70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z70" s="43">
+      <c r="Z70" s="48">
         <f>IFERROR((AE67/10/Z68),0)</f>
         <v>0</v>
       </c>
-      <c r="AA70" s="44"/>
-      <c r="AB70" s="44"/>
-      <c r="AC70" s="44"/>
-      <c r="AD70" s="44"/>
-      <c r="AE70" s="45"/>
+      <c r="AA70" s="49"/>
+      <c r="AB70" s="49"/>
+      <c r="AC70" s="49"/>
+      <c r="AD70" s="49"/>
+      <c r="AE70" s="50"/>
       <c r="AF70" s="12"/>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="43">
+      <c r="B71" s="48">
         <f>IFERROR((9.82 * F67) * LN(B68/B69),0)</f>
         <v>0</v>
       </c>
-      <c r="C71" s="44"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="45"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="50"/>
       <c r="H71" s="12"/>
       <c r="I71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J71" s="43">
+      <c r="J71" s="48">
         <f>IFERROR((9.82 * N67) * LN(J68/J69),0)</f>
         <v>0</v>
       </c>
-      <c r="K71" s="44"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="44"/>
-      <c r="O71" s="45"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="49"/>
+      <c r="O71" s="50"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R71" s="43">
+      <c r="R71" s="48">
         <f>IFERROR((9.82 * V67) * LN(R68/R69),0)</f>
         <v>0</v>
       </c>
-      <c r="S71" s="44"/>
-      <c r="T71" s="44"/>
-      <c r="U71" s="44"/>
-      <c r="V71" s="44"/>
-      <c r="W71" s="45"/>
+      <c r="S71" s="49"/>
+      <c r="T71" s="49"/>
+      <c r="U71" s="49"/>
+      <c r="V71" s="49"/>
+      <c r="W71" s="50"/>
       <c r="X71" s="12"/>
       <c r="Y71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z71" s="43">
+      <c r="Z71" s="48">
         <f>IFERROR((9.82 * AD67) * LN(Z68/Z69),0)</f>
         <v>0</v>
       </c>
-      <c r="AA71" s="44"/>
-      <c r="AB71" s="44"/>
-      <c r="AC71" s="44"/>
-      <c r="AD71" s="44"/>
-      <c r="AE71" s="45"/>
+      <c r="AA71" s="49"/>
+      <c r="AB71" s="49"/>
+      <c r="AC71" s="49"/>
+      <c r="AD71" s="49"/>
+      <c r="AE71" s="50"/>
       <c r="AF71" s="12"/>
     </row>
     <row r="72" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="40">
+      <c r="B72" s="52">
         <f>B71+B48</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="42"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="54"/>
       <c r="H72" s="12"/>
       <c r="I72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J72" s="40">
+      <c r="J72" s="52">
         <f>J71+J48</f>
         <v>0</v>
       </c>
-      <c r="K72" s="41"/>
-      <c r="L72" s="41"/>
-      <c r="M72" s="41"/>
-      <c r="N72" s="41"/>
-      <c r="O72" s="42"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="53"/>
+      <c r="M72" s="53"/>
+      <c r="N72" s="53"/>
+      <c r="O72" s="54"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R72" s="40">
+      <c r="R72" s="52">
         <f>R71+R48</f>
         <v>0</v>
       </c>
-      <c r="S72" s="41"/>
-      <c r="T72" s="41"/>
-      <c r="U72" s="41"/>
-      <c r="V72" s="41"/>
-      <c r="W72" s="42"/>
+      <c r="S72" s="53"/>
+      <c r="T72" s="53"/>
+      <c r="U72" s="53"/>
+      <c r="V72" s="53"/>
+      <c r="W72" s="54"/>
       <c r="X72" s="12"/>
       <c r="Y72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z72" s="40">
+      <c r="Z72" s="52">
         <f>Z71+Z48</f>
         <v>0</v>
       </c>
-      <c r="AA72" s="41"/>
-      <c r="AB72" s="41"/>
-      <c r="AC72" s="41"/>
-      <c r="AD72" s="41"/>
-      <c r="AE72" s="42"/>
+      <c r="AA72" s="53"/>
+      <c r="AB72" s="53"/>
+      <c r="AC72" s="53"/>
+      <c r="AD72" s="53"/>
+      <c r="AE72" s="54"/>
       <c r="AF72" s="12"/>
     </row>
     <row r="73" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36008,270 +35992,270 @@
       <c r="A92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="43">
+      <c r="B92" s="48">
         <f>E91+B68</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C92" s="44"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="44"/>
-      <c r="F92" s="44"/>
-      <c r="G92" s="45"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="50"/>
       <c r="H92" s="12"/>
       <c r="I92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J92" s="43">
+      <c r="J92" s="48">
         <f>M91+J68</f>
         <v>0</v>
       </c>
-      <c r="K92" s="44"/>
-      <c r="L92" s="44"/>
-      <c r="M92" s="44"/>
-      <c r="N92" s="44"/>
-      <c r="O92" s="45"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="49"/>
+      <c r="N92" s="49"/>
+      <c r="O92" s="50"/>
       <c r="P92" s="12"/>
       <c r="Q92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R92" s="43">
+      <c r="R92" s="48">
         <f>U91+R68</f>
         <v>0</v>
       </c>
-      <c r="S92" s="44"/>
-      <c r="T92" s="44"/>
-      <c r="U92" s="44"/>
-      <c r="V92" s="44"/>
-      <c r="W92" s="45"/>
+      <c r="S92" s="49"/>
+      <c r="T92" s="49"/>
+      <c r="U92" s="49"/>
+      <c r="V92" s="49"/>
+      <c r="W92" s="50"/>
       <c r="X92" s="12"/>
       <c r="Y92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z92" s="43">
+      <c r="Z92" s="48">
         <f>AC91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA92" s="44"/>
-      <c r="AB92" s="44"/>
-      <c r="AC92" s="44"/>
-      <c r="AD92" s="44"/>
-      <c r="AE92" s="45"/>
+      <c r="AA92" s="49"/>
+      <c r="AB92" s="49"/>
+      <c r="AC92" s="49"/>
+      <c r="AD92" s="49"/>
+      <c r="AE92" s="50"/>
       <c r="AF92" s="12"/>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="43">
+      <c r="B93" s="48">
         <f>C91+B68</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C93" s="44"/>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="45"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="50"/>
       <c r="H93" s="12"/>
       <c r="I93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J93" s="43">
+      <c r="J93" s="48">
         <f>K91+J68</f>
         <v>0</v>
       </c>
-      <c r="K93" s="44"/>
-      <c r="L93" s="44"/>
-      <c r="M93" s="44"/>
-      <c r="N93" s="44"/>
-      <c r="O93" s="45"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="49"/>
+      <c r="N93" s="49"/>
+      <c r="O93" s="50"/>
       <c r="P93" s="12"/>
       <c r="Q93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R93" s="43">
+      <c r="R93" s="48">
         <f>S91+R68</f>
         <v>0</v>
       </c>
-      <c r="S93" s="44"/>
-      <c r="T93" s="44"/>
-      <c r="U93" s="44"/>
-      <c r="V93" s="44"/>
-      <c r="W93" s="45"/>
+      <c r="S93" s="49"/>
+      <c r="T93" s="49"/>
+      <c r="U93" s="49"/>
+      <c r="V93" s="49"/>
+      <c r="W93" s="50"/>
       <c r="X93" s="12"/>
       <c r="Y93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z93" s="43">
+      <c r="Z93" s="48">
         <f>AA91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA93" s="44"/>
-      <c r="AB93" s="44"/>
-      <c r="AC93" s="44"/>
-      <c r="AD93" s="44"/>
-      <c r="AE93" s="45"/>
+      <c r="AA93" s="49"/>
+      <c r="AB93" s="49"/>
+      <c r="AC93" s="49"/>
+      <c r="AD93" s="49"/>
+      <c r="AE93" s="50"/>
       <c r="AF93" s="12"/>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="43">
+      <c r="B94" s="48">
         <f>IFERROR((G91/10/B92),0)</f>
         <v>0</v>
       </c>
-      <c r="C94" s="44"/>
-      <c r="D94" s="44"/>
-      <c r="E94" s="44"/>
-      <c r="F94" s="44"/>
-      <c r="G94" s="45"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="50"/>
       <c r="H94" s="12"/>
       <c r="I94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J94" s="43">
+      <c r="J94" s="48">
         <f>IFERROR((O91/10/J92),0)</f>
         <v>0</v>
       </c>
-      <c r="K94" s="44"/>
-      <c r="L94" s="44"/>
-      <c r="M94" s="44"/>
-      <c r="N94" s="44"/>
-      <c r="O94" s="45"/>
+      <c r="K94" s="49"/>
+      <c r="L94" s="49"/>
+      <c r="M94" s="49"/>
+      <c r="N94" s="49"/>
+      <c r="O94" s="50"/>
       <c r="P94" s="12"/>
       <c r="Q94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R94" s="43">
+      <c r="R94" s="48">
         <f>IFERROR((W91/10/R92),0)</f>
         <v>0</v>
       </c>
-      <c r="S94" s="44"/>
-      <c r="T94" s="44"/>
-      <c r="U94" s="44"/>
-      <c r="V94" s="44"/>
-      <c r="W94" s="45"/>
+      <c r="S94" s="49"/>
+      <c r="T94" s="49"/>
+      <c r="U94" s="49"/>
+      <c r="V94" s="49"/>
+      <c r="W94" s="50"/>
       <c r="X94" s="12"/>
       <c r="Y94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z94" s="43">
+      <c r="Z94" s="48">
         <f>IFERROR((AE91/10/Z92),0)</f>
         <v>0</v>
       </c>
-      <c r="AA94" s="44"/>
-      <c r="AB94" s="44"/>
-      <c r="AC94" s="44"/>
-      <c r="AD94" s="44"/>
-      <c r="AE94" s="45"/>
+      <c r="AA94" s="49"/>
+      <c r="AB94" s="49"/>
+      <c r="AC94" s="49"/>
+      <c r="AD94" s="49"/>
+      <c r="AE94" s="50"/>
       <c r="AF94" s="12"/>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="43">
+      <c r="B95" s="48">
         <f>IFERROR((9.82 * F91) * LN(B92/B93),0)</f>
         <v>0</v>
       </c>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="44"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="45"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49"/>
+      <c r="E95" s="49"/>
+      <c r="F95" s="49"/>
+      <c r="G95" s="50"/>
       <c r="H95" s="12"/>
       <c r="I95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J95" s="43">
+      <c r="J95" s="48">
         <f>IFERROR((9.82 * N91) * LN(J92/J93),0)</f>
         <v>0</v>
       </c>
-      <c r="K95" s="44"/>
-      <c r="L95" s="44"/>
-      <c r="M95" s="44"/>
-      <c r="N95" s="44"/>
-      <c r="O95" s="45"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="49"/>
+      <c r="M95" s="49"/>
+      <c r="N95" s="49"/>
+      <c r="O95" s="50"/>
       <c r="P95" s="12"/>
       <c r="Q95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R95" s="43">
+      <c r="R95" s="48">
         <f>IFERROR((9.82 * V91) * LN(R92/R93),0)</f>
         <v>0</v>
       </c>
-      <c r="S95" s="44"/>
-      <c r="T95" s="44"/>
-      <c r="U95" s="44"/>
-      <c r="V95" s="44"/>
-      <c r="W95" s="45"/>
+      <c r="S95" s="49"/>
+      <c r="T95" s="49"/>
+      <c r="U95" s="49"/>
+      <c r="V95" s="49"/>
+      <c r="W95" s="50"/>
       <c r="X95" s="12"/>
       <c r="Y95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z95" s="43">
+      <c r="Z95" s="48">
         <f>IFERROR((9.82 * AD91) * LN(Z92/Z93),0)</f>
         <v>0</v>
       </c>
-      <c r="AA95" s="44"/>
-      <c r="AB95" s="44"/>
-      <c r="AC95" s="44"/>
-      <c r="AD95" s="44"/>
-      <c r="AE95" s="45"/>
+      <c r="AA95" s="49"/>
+      <c r="AB95" s="49"/>
+      <c r="AC95" s="49"/>
+      <c r="AD95" s="49"/>
+      <c r="AE95" s="50"/>
       <c r="AF95" s="12"/>
     </row>
     <row r="96" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="40">
+      <c r="B96" s="52">
         <f>B95+B72</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C96" s="41"/>
-      <c r="D96" s="41"/>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="42"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="54"/>
       <c r="H96" s="12"/>
       <c r="I96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J96" s="40">
+      <c r="J96" s="52">
         <f>J95+J72</f>
         <v>0</v>
       </c>
-      <c r="K96" s="41"/>
-      <c r="L96" s="41"/>
-      <c r="M96" s="41"/>
-      <c r="N96" s="41"/>
-      <c r="O96" s="42"/>
+      <c r="K96" s="53"/>
+      <c r="L96" s="53"/>
+      <c r="M96" s="53"/>
+      <c r="N96" s="53"/>
+      <c r="O96" s="54"/>
       <c r="P96" s="12"/>
       <c r="Q96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R96" s="40">
+      <c r="R96" s="52">
         <f>R95+R72</f>
         <v>0</v>
       </c>
-      <c r="S96" s="41"/>
-      <c r="T96" s="41"/>
-      <c r="U96" s="41"/>
-      <c r="V96" s="41"/>
-      <c r="W96" s="42"/>
+      <c r="S96" s="53"/>
+      <c r="T96" s="53"/>
+      <c r="U96" s="53"/>
+      <c r="V96" s="53"/>
+      <c r="W96" s="54"/>
       <c r="X96" s="12"/>
       <c r="Y96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z96" s="40">
+      <c r="Z96" s="52">
         <f>Z95+Z72</f>
         <v>0</v>
       </c>
-      <c r="AA96" s="41"/>
-      <c r="AB96" s="41"/>
-      <c r="AC96" s="41"/>
-      <c r="AD96" s="41"/>
-      <c r="AE96" s="42"/>
+      <c r="AA96" s="53"/>
+      <c r="AB96" s="53"/>
+      <c r="AC96" s="53"/>
+      <c r="AD96" s="53"/>
+      <c r="AE96" s="54"/>
       <c r="AF96" s="12"/>
     </row>
     <row r="97" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -38008,270 +37992,270 @@
       <c r="A116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B116" s="43">
+      <c r="B116" s="48">
         <f>E115+B92</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C116" s="44"/>
-      <c r="D116" s="44"/>
-      <c r="E116" s="44"/>
-      <c r="F116" s="44"/>
-      <c r="G116" s="45"/>
+      <c r="C116" s="49"/>
+      <c r="D116" s="49"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="49"/>
+      <c r="G116" s="50"/>
       <c r="H116" s="12"/>
       <c r="I116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J116" s="43">
+      <c r="J116" s="48">
         <f>M115+J92</f>
         <v>0</v>
       </c>
-      <c r="K116" s="44"/>
-      <c r="L116" s="44"/>
-      <c r="M116" s="44"/>
-      <c r="N116" s="44"/>
-      <c r="O116" s="45"/>
+      <c r="K116" s="49"/>
+      <c r="L116" s="49"/>
+      <c r="M116" s="49"/>
+      <c r="N116" s="49"/>
+      <c r="O116" s="50"/>
       <c r="P116" s="12"/>
       <c r="Q116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R116" s="43">
+      <c r="R116" s="48">
         <f>U115+R92</f>
         <v>0</v>
       </c>
-      <c r="S116" s="44"/>
-      <c r="T116" s="44"/>
-      <c r="U116" s="44"/>
-      <c r="V116" s="44"/>
-      <c r="W116" s="45"/>
+      <c r="S116" s="49"/>
+      <c r="T116" s="49"/>
+      <c r="U116" s="49"/>
+      <c r="V116" s="49"/>
+      <c r="W116" s="50"/>
       <c r="X116" s="12"/>
       <c r="Y116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z116" s="43">
+      <c r="Z116" s="48">
         <f>AC115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA116" s="44"/>
-      <c r="AB116" s="44"/>
-      <c r="AC116" s="44"/>
-      <c r="AD116" s="44"/>
-      <c r="AE116" s="45"/>
+      <c r="AA116" s="49"/>
+      <c r="AB116" s="49"/>
+      <c r="AC116" s="49"/>
+      <c r="AD116" s="49"/>
+      <c r="AE116" s="50"/>
       <c r="AF116" s="12"/>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B117" s="43">
+      <c r="B117" s="48">
         <f>C115+B92</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C117" s="44"/>
-      <c r="D117" s="44"/>
-      <c r="E117" s="44"/>
-      <c r="F117" s="44"/>
-      <c r="G117" s="45"/>
+      <c r="C117" s="49"/>
+      <c r="D117" s="49"/>
+      <c r="E117" s="49"/>
+      <c r="F117" s="49"/>
+      <c r="G117" s="50"/>
       <c r="H117" s="12"/>
       <c r="I117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J117" s="43">
+      <c r="J117" s="48">
         <f>K115+J92</f>
         <v>0</v>
       </c>
-      <c r="K117" s="44"/>
-      <c r="L117" s="44"/>
-      <c r="M117" s="44"/>
-      <c r="N117" s="44"/>
-      <c r="O117" s="45"/>
+      <c r="K117" s="49"/>
+      <c r="L117" s="49"/>
+      <c r="M117" s="49"/>
+      <c r="N117" s="49"/>
+      <c r="O117" s="50"/>
       <c r="P117" s="12"/>
       <c r="Q117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R117" s="43">
+      <c r="R117" s="48">
         <f>S115+R92</f>
         <v>0</v>
       </c>
-      <c r="S117" s="44"/>
-      <c r="T117" s="44"/>
-      <c r="U117" s="44"/>
-      <c r="V117" s="44"/>
-      <c r="W117" s="45"/>
+      <c r="S117" s="49"/>
+      <c r="T117" s="49"/>
+      <c r="U117" s="49"/>
+      <c r="V117" s="49"/>
+      <c r="W117" s="50"/>
       <c r="X117" s="12"/>
       <c r="Y117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z117" s="43">
+      <c r="Z117" s="48">
         <f>AA115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA117" s="44"/>
-      <c r="AB117" s="44"/>
-      <c r="AC117" s="44"/>
-      <c r="AD117" s="44"/>
-      <c r="AE117" s="45"/>
+      <c r="AA117" s="49"/>
+      <c r="AB117" s="49"/>
+      <c r="AC117" s="49"/>
+      <c r="AD117" s="49"/>
+      <c r="AE117" s="50"/>
       <c r="AF117" s="12"/>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B118" s="43">
+      <c r="B118" s="48">
         <f>IFERROR((G115/10/B116),0)</f>
         <v>0</v>
       </c>
-      <c r="C118" s="44"/>
-      <c r="D118" s="44"/>
-      <c r="E118" s="44"/>
-      <c r="F118" s="44"/>
-      <c r="G118" s="45"/>
+      <c r="C118" s="49"/>
+      <c r="D118" s="49"/>
+      <c r="E118" s="49"/>
+      <c r="F118" s="49"/>
+      <c r="G118" s="50"/>
       <c r="H118" s="12"/>
       <c r="I118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J118" s="43">
+      <c r="J118" s="48">
         <f>IFERROR((O115/10/J116),0)</f>
         <v>0</v>
       </c>
-      <c r="K118" s="44"/>
-      <c r="L118" s="44"/>
-      <c r="M118" s="44"/>
-      <c r="N118" s="44"/>
-      <c r="O118" s="45"/>
+      <c r="K118" s="49"/>
+      <c r="L118" s="49"/>
+      <c r="M118" s="49"/>
+      <c r="N118" s="49"/>
+      <c r="O118" s="50"/>
       <c r="P118" s="12"/>
       <c r="Q118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R118" s="43">
+      <c r="R118" s="48">
         <f>IFERROR((W115/10/R116),0)</f>
         <v>0</v>
       </c>
-      <c r="S118" s="44"/>
-      <c r="T118" s="44"/>
-      <c r="U118" s="44"/>
-      <c r="V118" s="44"/>
-      <c r="W118" s="45"/>
+      <c r="S118" s="49"/>
+      <c r="T118" s="49"/>
+      <c r="U118" s="49"/>
+      <c r="V118" s="49"/>
+      <c r="W118" s="50"/>
       <c r="X118" s="12"/>
       <c r="Y118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z118" s="43">
+      <c r="Z118" s="48">
         <f>IFERROR((AE115/10/Z116),0)</f>
         <v>0</v>
       </c>
-      <c r="AA118" s="44"/>
-      <c r="AB118" s="44"/>
-      <c r="AC118" s="44"/>
-      <c r="AD118" s="44"/>
-      <c r="AE118" s="45"/>
+      <c r="AA118" s="49"/>
+      <c r="AB118" s="49"/>
+      <c r="AC118" s="49"/>
+      <c r="AD118" s="49"/>
+      <c r="AE118" s="50"/>
       <c r="AF118" s="12"/>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B119" s="43">
+      <c r="B119" s="48">
         <f>IFERROR((9.82 * F115) * LN(B116/B117),0)</f>
         <v>0</v>
       </c>
-      <c r="C119" s="44"/>
-      <c r="D119" s="44"/>
-      <c r="E119" s="44"/>
-      <c r="F119" s="44"/>
-      <c r="G119" s="45"/>
+      <c r="C119" s="49"/>
+      <c r="D119" s="49"/>
+      <c r="E119" s="49"/>
+      <c r="F119" s="49"/>
+      <c r="G119" s="50"/>
       <c r="H119" s="12"/>
       <c r="I119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J119" s="43">
+      <c r="J119" s="48">
         <f>IFERROR((9.82 * N115) * LN(J116/J117),0)</f>
         <v>0</v>
       </c>
-      <c r="K119" s="44"/>
-      <c r="L119" s="44"/>
-      <c r="M119" s="44"/>
-      <c r="N119" s="44"/>
-      <c r="O119" s="45"/>
+      <c r="K119" s="49"/>
+      <c r="L119" s="49"/>
+      <c r="M119" s="49"/>
+      <c r="N119" s="49"/>
+      <c r="O119" s="50"/>
       <c r="P119" s="12"/>
       <c r="Q119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R119" s="43">
+      <c r="R119" s="48">
         <f>IFERROR((9.82 * V115) * LN(R116/R117),0)</f>
         <v>0</v>
       </c>
-      <c r="S119" s="44"/>
-      <c r="T119" s="44"/>
-      <c r="U119" s="44"/>
-      <c r="V119" s="44"/>
-      <c r="W119" s="45"/>
+      <c r="S119" s="49"/>
+      <c r="T119" s="49"/>
+      <c r="U119" s="49"/>
+      <c r="V119" s="49"/>
+      <c r="W119" s="50"/>
       <c r="X119" s="12"/>
       <c r="Y119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z119" s="43">
+      <c r="Z119" s="48">
         <f>IFERROR((9.82 * AD115) * LN(Z116/Z117),0)</f>
         <v>0</v>
       </c>
-      <c r="AA119" s="44"/>
-      <c r="AB119" s="44"/>
-      <c r="AC119" s="44"/>
-      <c r="AD119" s="44"/>
-      <c r="AE119" s="45"/>
+      <c r="AA119" s="49"/>
+      <c r="AB119" s="49"/>
+      <c r="AC119" s="49"/>
+      <c r="AD119" s="49"/>
+      <c r="AE119" s="50"/>
       <c r="AF119" s="12"/>
     </row>
     <row r="120" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B120" s="40">
+      <c r="B120" s="52">
         <f>B119+B96</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C120" s="41"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="41"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="42"/>
+      <c r="C120" s="53"/>
+      <c r="D120" s="53"/>
+      <c r="E120" s="53"/>
+      <c r="F120" s="53"/>
+      <c r="G120" s="54"/>
       <c r="H120" s="12"/>
       <c r="I120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J120" s="40">
+      <c r="J120" s="52">
         <f>J119+J96</f>
         <v>0</v>
       </c>
-      <c r="K120" s="41"/>
-      <c r="L120" s="41"/>
-      <c r="M120" s="41"/>
-      <c r="N120" s="41"/>
-      <c r="O120" s="42"/>
+      <c r="K120" s="53"/>
+      <c r="L120" s="53"/>
+      <c r="M120" s="53"/>
+      <c r="N120" s="53"/>
+      <c r="O120" s="54"/>
       <c r="P120" s="12"/>
       <c r="Q120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R120" s="40">
+      <c r="R120" s="52">
         <f>R119+R96</f>
         <v>0</v>
       </c>
-      <c r="S120" s="41"/>
-      <c r="T120" s="41"/>
-      <c r="U120" s="41"/>
-      <c r="V120" s="41"/>
-      <c r="W120" s="42"/>
+      <c r="S120" s="53"/>
+      <c r="T120" s="53"/>
+      <c r="U120" s="53"/>
+      <c r="V120" s="53"/>
+      <c r="W120" s="54"/>
       <c r="X120" s="12"/>
       <c r="Y120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z120" s="40">
+      <c r="Z120" s="52">
         <f>Z119+Z96</f>
         <v>0</v>
       </c>
-      <c r="AA120" s="41"/>
-      <c r="AB120" s="41"/>
-      <c r="AC120" s="41"/>
-      <c r="AD120" s="41"/>
-      <c r="AE120" s="42"/>
+      <c r="AA120" s="53"/>
+      <c r="AB120" s="53"/>
+      <c r="AC120" s="53"/>
+      <c r="AD120" s="53"/>
+      <c r="AE120" s="54"/>
       <c r="AF120" s="12"/>
     </row>
     <row r="121" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -38309,315 +38293,315 @@
       <c r="AF121" s="12"/>
     </row>
     <row r="122" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="47" t="s">
+      <c r="A122" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="B122" s="48"/>
-      <c r="C122" s="48"/>
-      <c r="D122" s="48"/>
-      <c r="E122" s="48"/>
-      <c r="F122" s="48"/>
-      <c r="G122" s="49"/>
+      <c r="B122" s="44"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="45"/>
       <c r="H122" s="12"/>
-      <c r="I122" s="47" t="s">
+      <c r="I122" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="J122" s="48"/>
-      <c r="K122" s="48"/>
-      <c r="L122" s="48"/>
-      <c r="M122" s="48"/>
-      <c r="N122" s="48"/>
-      <c r="O122" s="49"/>
+      <c r="J122" s="44"/>
+      <c r="K122" s="44"/>
+      <c r="L122" s="44"/>
+      <c r="M122" s="44"/>
+      <c r="N122" s="44"/>
+      <c r="O122" s="45"/>
       <c r="P122" s="12"/>
-      <c r="Q122" s="47" t="s">
+      <c r="Q122" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="R122" s="48"/>
-      <c r="S122" s="48"/>
-      <c r="T122" s="48"/>
-      <c r="U122" s="48"/>
-      <c r="V122" s="48"/>
-      <c r="W122" s="49"/>
+      <c r="R122" s="44"/>
+      <c r="S122" s="44"/>
+      <c r="T122" s="44"/>
+      <c r="U122" s="44"/>
+      <c r="V122" s="44"/>
+      <c r="W122" s="45"/>
       <c r="X122" s="12"/>
-      <c r="Y122" s="47" t="s">
+      <c r="Y122" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="Z122" s="48"/>
-      <c r="AA122" s="48"/>
-      <c r="AB122" s="48"/>
-      <c r="AC122" s="48"/>
-      <c r="AD122" s="48"/>
-      <c r="AE122" s="49"/>
+      <c r="Z122" s="44"/>
+      <c r="AA122" s="44"/>
+      <c r="AB122" s="44"/>
+      <c r="AC122" s="44"/>
+      <c r="AD122" s="44"/>
+      <c r="AE122" s="45"/>
       <c r="AF122" s="12"/>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A123" s="52" t="s">
+      <c r="A123" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B123" s="52"/>
-      <c r="C123" s="52"/>
-      <c r="D123" s="51">
+      <c r="B123" s="46"/>
+      <c r="C123" s="46"/>
+      <c r="D123" s="47">
         <f>B115</f>
         <v>3</v>
       </c>
-      <c r="E123" s="51"/>
-      <c r="F123" s="51"/>
-      <c r="G123" s="51"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="47"/>
+      <c r="G123" s="47"/>
       <c r="H123" s="12"/>
-      <c r="I123" s="52" t="s">
+      <c r="I123" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="J123" s="52"/>
-      <c r="K123" s="52"/>
-      <c r="L123" s="51">
+      <c r="J123" s="46"/>
+      <c r="K123" s="46"/>
+      <c r="L123" s="47">
         <f>J115</f>
         <v>0</v>
       </c>
-      <c r="M123" s="51"/>
-      <c r="N123" s="51"/>
-      <c r="O123" s="51"/>
+      <c r="M123" s="47"/>
+      <c r="N123" s="47"/>
+      <c r="O123" s="47"/>
       <c r="P123" s="12"/>
-      <c r="Q123" s="52" t="s">
+      <c r="Q123" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="R123" s="52"/>
-      <c r="S123" s="52"/>
-      <c r="T123" s="51">
+      <c r="R123" s="46"/>
+      <c r="S123" s="46"/>
+      <c r="T123" s="47">
         <f>R115</f>
         <v>0</v>
       </c>
-      <c r="U123" s="51"/>
-      <c r="V123" s="51"/>
-      <c r="W123" s="51"/>
+      <c r="U123" s="47"/>
+      <c r="V123" s="47"/>
+      <c r="W123" s="47"/>
       <c r="X123" s="12"/>
-      <c r="Y123" s="52" t="s">
+      <c r="Y123" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="Z123" s="52"/>
-      <c r="AA123" s="52"/>
-      <c r="AB123" s="51">
+      <c r="Z123" s="46"/>
+      <c r="AA123" s="46"/>
+      <c r="AB123" s="47">
         <f>Z115</f>
         <v>0</v>
       </c>
-      <c r="AC123" s="51"/>
-      <c r="AD123" s="51"/>
-      <c r="AE123" s="51"/>
+      <c r="AC123" s="47"/>
+      <c r="AD123" s="47"/>
+      <c r="AE123" s="47"/>
       <c r="AF123" s="12"/>
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A124" s="53" t="s">
+      <c r="A124" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="53"/>
-      <c r="C124" s="53"/>
-      <c r="D124" s="50">
+      <c r="B124" s="41"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="42">
         <f>B116</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="E124" s="50"/>
-      <c r="F124" s="50"/>
-      <c r="G124" s="50"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="42"/>
+      <c r="G124" s="42"/>
       <c r="H124" s="12"/>
-      <c r="I124" s="53" t="s">
+      <c r="I124" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J124" s="53"/>
-      <c r="K124" s="53"/>
-      <c r="L124" s="50">
+      <c r="J124" s="41"/>
+      <c r="K124" s="41"/>
+      <c r="L124" s="42">
         <f>J116</f>
         <v>0</v>
       </c>
-      <c r="M124" s="50"/>
-      <c r="N124" s="50"/>
-      <c r="O124" s="50"/>
+      <c r="M124" s="42"/>
+      <c r="N124" s="42"/>
+      <c r="O124" s="42"/>
       <c r="P124" s="12"/>
-      <c r="Q124" s="53" t="s">
+      <c r="Q124" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="R124" s="53"/>
-      <c r="S124" s="53"/>
-      <c r="T124" s="50">
+      <c r="R124" s="41"/>
+      <c r="S124" s="41"/>
+      <c r="T124" s="42">
         <f>R116</f>
         <v>0</v>
       </c>
-      <c r="U124" s="50"/>
-      <c r="V124" s="50"/>
-      <c r="W124" s="50"/>
+      <c r="U124" s="42"/>
+      <c r="V124" s="42"/>
+      <c r="W124" s="42"/>
       <c r="X124" s="12"/>
-      <c r="Y124" s="53" t="s">
+      <c r="Y124" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="Z124" s="53"/>
-      <c r="AA124" s="53"/>
-      <c r="AB124" s="50">
+      <c r="Z124" s="41"/>
+      <c r="AA124" s="41"/>
+      <c r="AB124" s="42">
         <f>Z116</f>
         <v>0</v>
       </c>
-      <c r="AC124" s="50"/>
-      <c r="AD124" s="50"/>
-      <c r="AE124" s="50"/>
+      <c r="AC124" s="42"/>
+      <c r="AD124" s="42"/>
+      <c r="AE124" s="42"/>
       <c r="AF124" s="12"/>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A125" s="53" t="s">
+      <c r="A125" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="53"/>
-      <c r="C125" s="53"/>
-      <c r="D125" s="50">
+      <c r="B125" s="41"/>
+      <c r="C125" s="41"/>
+      <c r="D125" s="42">
         <f>D115+D91+D67+D43+D19</f>
         <v>8.9766162500000011</v>
       </c>
-      <c r="E125" s="50"/>
-      <c r="F125" s="50"/>
-      <c r="G125" s="50"/>
+      <c r="E125" s="42"/>
+      <c r="F125" s="42"/>
+      <c r="G125" s="42"/>
       <c r="H125" s="12"/>
-      <c r="I125" s="53" t="s">
+      <c r="I125" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J125" s="53"/>
-      <c r="K125" s="53"/>
-      <c r="L125" s="50">
+      <c r="J125" s="41"/>
+      <c r="K125" s="41"/>
+      <c r="L125" s="42">
         <f>L115+L91+L67+L43+L19</f>
         <v>0</v>
       </c>
-      <c r="M125" s="50"/>
-      <c r="N125" s="50"/>
-      <c r="O125" s="50"/>
+      <c r="M125" s="42"/>
+      <c r="N125" s="42"/>
+      <c r="O125" s="42"/>
       <c r="P125" s="12"/>
-      <c r="Q125" s="53" t="s">
+      <c r="Q125" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="R125" s="53"/>
-      <c r="S125" s="53"/>
-      <c r="T125" s="50">
+      <c r="R125" s="41"/>
+      <c r="S125" s="41"/>
+      <c r="T125" s="42">
         <f>T115+T91+T67+T43+T19</f>
         <v>0</v>
       </c>
-      <c r="U125" s="50"/>
-      <c r="V125" s="50"/>
-      <c r="W125" s="50"/>
+      <c r="U125" s="42"/>
+      <c r="V125" s="42"/>
+      <c r="W125" s="42"/>
       <c r="X125" s="12"/>
-      <c r="Y125" s="53" t="s">
+      <c r="Y125" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="Z125" s="53"/>
-      <c r="AA125" s="53"/>
-      <c r="AB125" s="50">
+      <c r="Z125" s="41"/>
+      <c r="AA125" s="41"/>
+      <c r="AB125" s="42">
         <f>AB115+AB91+AB67+AB43+AB19</f>
         <v>0</v>
       </c>
-      <c r="AC125" s="50"/>
-      <c r="AD125" s="50"/>
-      <c r="AE125" s="50"/>
+      <c r="AC125" s="42"/>
+      <c r="AD125" s="42"/>
+      <c r="AE125" s="42"/>
       <c r="AF125" s="12"/>
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A126" s="53" t="s">
+      <c r="A126" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="53"/>
-      <c r="C126" s="53"/>
-      <c r="D126" s="50">
+      <c r="B126" s="41"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="42">
         <f>D124-D125</f>
         <v>1.7964924374999995</v>
       </c>
-      <c r="E126" s="50"/>
-      <c r="F126" s="50"/>
-      <c r="G126" s="50"/>
+      <c r="E126" s="42"/>
+      <c r="F126" s="42"/>
+      <c r="G126" s="42"/>
       <c r="H126" s="12"/>
-      <c r="I126" s="53" t="s">
+      <c r="I126" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J126" s="53"/>
-      <c r="K126" s="53"/>
-      <c r="L126" s="50">
+      <c r="J126" s="41"/>
+      <c r="K126" s="41"/>
+      <c r="L126" s="42">
         <f>L124-L125</f>
         <v>0</v>
       </c>
-      <c r="M126" s="50"/>
-      <c r="N126" s="50"/>
-      <c r="O126" s="50"/>
+      <c r="M126" s="42"/>
+      <c r="N126" s="42"/>
+      <c r="O126" s="42"/>
       <c r="P126" s="12"/>
-      <c r="Q126" s="53" t="s">
+      <c r="Q126" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="R126" s="53"/>
-      <c r="S126" s="53"/>
-      <c r="T126" s="50">
+      <c r="R126" s="41"/>
+      <c r="S126" s="41"/>
+      <c r="T126" s="42">
         <f>T124-T125</f>
         <v>0</v>
       </c>
-      <c r="U126" s="50"/>
-      <c r="V126" s="50"/>
-      <c r="W126" s="50"/>
+      <c r="U126" s="42"/>
+      <c r="V126" s="42"/>
+      <c r="W126" s="42"/>
       <c r="X126" s="12"/>
-      <c r="Y126" s="53" t="s">
+      <c r="Y126" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="Z126" s="53"/>
-      <c r="AA126" s="53"/>
-      <c r="AB126" s="50">
+      <c r="Z126" s="41"/>
+      <c r="AA126" s="41"/>
+      <c r="AB126" s="42">
         <f>AB124-AB125</f>
         <v>0</v>
       </c>
-      <c r="AC126" s="50"/>
-      <c r="AD126" s="50"/>
-      <c r="AE126" s="50"/>
+      <c r="AC126" s="42"/>
+      <c r="AD126" s="42"/>
+      <c r="AE126" s="42"/>
       <c r="AF126" s="12"/>
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A127" s="53" t="s">
+      <c r="A127" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="53"/>
-      <c r="C127" s="53"/>
-      <c r="D127" s="50">
+      <c r="B127" s="41"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="42">
         <f>B120</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="E127" s="50"/>
-      <c r="F127" s="50"/>
-      <c r="G127" s="50"/>
+      <c r="E127" s="42"/>
+      <c r="F127" s="42"/>
+      <c r="G127" s="42"/>
       <c r="H127" s="12"/>
-      <c r="I127" s="53" t="s">
+      <c r="I127" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="J127" s="53"/>
-      <c r="K127" s="53"/>
-      <c r="L127" s="50">
+      <c r="J127" s="41"/>
+      <c r="K127" s="41"/>
+      <c r="L127" s="42">
         <f>J120</f>
         <v>0</v>
       </c>
-      <c r="M127" s="50"/>
-      <c r="N127" s="50"/>
-      <c r="O127" s="50"/>
+      <c r="M127" s="42"/>
+      <c r="N127" s="42"/>
+      <c r="O127" s="42"/>
       <c r="P127" s="12"/>
-      <c r="Q127" s="53" t="s">
+      <c r="Q127" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="R127" s="53"/>
-      <c r="S127" s="53"/>
-      <c r="T127" s="50">
+      <c r="R127" s="41"/>
+      <c r="S127" s="41"/>
+      <c r="T127" s="42">
         <f>R120</f>
         <v>0</v>
       </c>
-      <c r="U127" s="50"/>
-      <c r="V127" s="50"/>
-      <c r="W127" s="50"/>
+      <c r="U127" s="42"/>
+      <c r="V127" s="42"/>
+      <c r="W127" s="42"/>
       <c r="X127" s="12"/>
-      <c r="Y127" s="53" t="s">
+      <c r="Y127" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="Z127" s="53"/>
-      <c r="AA127" s="53"/>
-      <c r="AB127" s="50">
+      <c r="Z127" s="41"/>
+      <c r="AA127" s="41"/>
+      <c r="AB127" s="42">
         <f>Z120</f>
         <v>0</v>
       </c>
-      <c r="AC127" s="50"/>
-      <c r="AD127" s="50"/>
-      <c r="AE127" s="50"/>
+      <c r="AC127" s="42"/>
+      <c r="AD127" s="42"/>
+      <c r="AE127" s="42"/>
       <c r="AF127" s="12"/>
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.25">
@@ -38656,49 +38640,87 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="Y127:AA127"/>
-    <mergeCell ref="AB127:AE127"/>
-    <mergeCell ref="Y122:AE122"/>
-    <mergeCell ref="Y123:AA123"/>
-    <mergeCell ref="AB123:AE123"/>
-    <mergeCell ref="Y124:AA124"/>
-    <mergeCell ref="AB124:AE124"/>
-    <mergeCell ref="Y125:AA125"/>
-    <mergeCell ref="AB125:AE125"/>
-    <mergeCell ref="Y126:AA126"/>
-    <mergeCell ref="AB126:AE126"/>
-    <mergeCell ref="I127:K127"/>
-    <mergeCell ref="L127:O127"/>
-    <mergeCell ref="Q122:W122"/>
-    <mergeCell ref="Q123:S123"/>
-    <mergeCell ref="T123:W123"/>
-    <mergeCell ref="Q124:S124"/>
-    <mergeCell ref="T124:W124"/>
-    <mergeCell ref="Q125:S125"/>
-    <mergeCell ref="T125:W125"/>
-    <mergeCell ref="Q126:S126"/>
-    <mergeCell ref="T126:W126"/>
-    <mergeCell ref="Q127:S127"/>
-    <mergeCell ref="T127:W127"/>
-    <mergeCell ref="I122:O122"/>
-    <mergeCell ref="I123:K123"/>
-    <mergeCell ref="L123:O123"/>
-    <mergeCell ref="I124:K124"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="I125:K125"/>
-    <mergeCell ref="L125:O125"/>
-    <mergeCell ref="I126:K126"/>
-    <mergeCell ref="L126:O126"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="J120:O120"/>
+    <mergeCell ref="R120:W120"/>
+    <mergeCell ref="Z120:AE120"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="J119:O119"/>
+    <mergeCell ref="R119:W119"/>
+    <mergeCell ref="Z119:AE119"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="J118:O118"/>
+    <mergeCell ref="R118:W118"/>
+    <mergeCell ref="Z118:AE118"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="J117:O117"/>
+    <mergeCell ref="R117:W117"/>
+    <mergeCell ref="Z117:AE117"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="J116:O116"/>
+    <mergeCell ref="R116:W116"/>
+    <mergeCell ref="Z116:AE116"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="J96:O96"/>
+    <mergeCell ref="R96:W96"/>
+    <mergeCell ref="Z96:AE96"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="J95:O95"/>
+    <mergeCell ref="R95:W95"/>
+    <mergeCell ref="Z95:AE95"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="J94:O94"/>
+    <mergeCell ref="R94:W94"/>
+    <mergeCell ref="Z94:AE94"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="J93:O93"/>
+    <mergeCell ref="R93:W93"/>
+    <mergeCell ref="Z93:AE93"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="J92:O92"/>
+    <mergeCell ref="R92:W92"/>
+    <mergeCell ref="Z92:AE92"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="J72:O72"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="Z72:AE72"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="J71:O71"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="Z71:AE71"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="J70:O70"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="Z70:AE70"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="J69:O69"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="Z69:AE69"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="J68:O68"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="Z68:AE68"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="R48:W48"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="R47:W47"/>
+    <mergeCell ref="Z47:AE47"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="Z46:AE46"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="R44:W44"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="Z24:AE24"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="J20:O20"/>
     <mergeCell ref="R20:W20"/>
@@ -38723,87 +38745,49 @@
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="J45:O45"/>
     <mergeCell ref="R45:W45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="R44:W44"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="Z24:AE24"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="R48:W48"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="R47:W47"/>
-    <mergeCell ref="Z47:AE47"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="R46:W46"/>
-    <mergeCell ref="Z46:AE46"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="J70:O70"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="Z70:AE70"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="J69:O69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="Z69:AE69"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="J68:O68"/>
-    <mergeCell ref="R68:W68"/>
-    <mergeCell ref="Z68:AE68"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="J92:O92"/>
-    <mergeCell ref="R92:W92"/>
-    <mergeCell ref="Z92:AE92"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="J72:O72"/>
-    <mergeCell ref="R72:W72"/>
-    <mergeCell ref="Z72:AE72"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="J71:O71"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="Z71:AE71"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="J95:O95"/>
-    <mergeCell ref="R95:W95"/>
-    <mergeCell ref="Z95:AE95"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="J94:O94"/>
-    <mergeCell ref="R94:W94"/>
-    <mergeCell ref="Z94:AE94"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="J93:O93"/>
-    <mergeCell ref="R93:W93"/>
-    <mergeCell ref="Z93:AE93"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="J117:O117"/>
-    <mergeCell ref="R117:W117"/>
-    <mergeCell ref="Z117:AE117"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="J116:O116"/>
-    <mergeCell ref="R116:W116"/>
-    <mergeCell ref="Z116:AE116"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="J96:O96"/>
-    <mergeCell ref="R96:W96"/>
-    <mergeCell ref="Z96:AE96"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="J120:O120"/>
-    <mergeCell ref="R120:W120"/>
-    <mergeCell ref="Z120:AE120"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="J119:O119"/>
-    <mergeCell ref="R119:W119"/>
-    <mergeCell ref="Z119:AE119"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="J118:O118"/>
-    <mergeCell ref="R118:W118"/>
-    <mergeCell ref="Z118:AE118"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="L127:O127"/>
+    <mergeCell ref="Q122:W122"/>
+    <mergeCell ref="Q123:S123"/>
+    <mergeCell ref="T123:W123"/>
+    <mergeCell ref="Q124:S124"/>
+    <mergeCell ref="T124:W124"/>
+    <mergeCell ref="Q125:S125"/>
+    <mergeCell ref="T125:W125"/>
+    <mergeCell ref="Q126:S126"/>
+    <mergeCell ref="T126:W126"/>
+    <mergeCell ref="Q127:S127"/>
+    <mergeCell ref="T127:W127"/>
+    <mergeCell ref="I122:O122"/>
+    <mergeCell ref="I123:K123"/>
+    <mergeCell ref="L123:O123"/>
+    <mergeCell ref="I124:K124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="I125:K125"/>
+    <mergeCell ref="L125:O125"/>
+    <mergeCell ref="I126:K126"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="Y127:AA127"/>
+    <mergeCell ref="AB127:AE127"/>
+    <mergeCell ref="Y122:AE122"/>
+    <mergeCell ref="Y123:AA123"/>
+    <mergeCell ref="AB123:AE123"/>
+    <mergeCell ref="Y124:AA124"/>
+    <mergeCell ref="AB124:AE124"/>
+    <mergeCell ref="Y125:AA125"/>
+    <mergeCell ref="AB125:AE125"/>
+    <mergeCell ref="Y126:AA126"/>
+    <mergeCell ref="AB126:AE126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -51942,7 +51926,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51951,288 +51935,288 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="40" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="54">
+      <c r="A2" s="40">
         <v>10</v>
       </c>
-      <c r="B2" s="54">
-        <v>0</v>
-      </c>
-      <c r="C2" s="54">
-        <v>13</v>
-      </c>
-      <c r="D2" s="54" t="str">
+      <c r="B2" s="40">
+        <v>0</v>
+      </c>
+      <c r="C2" s="40">
+        <v>8</v>
+      </c>
+      <c r="D2" s="40" t="str">
         <f>"        "&amp;"key = "&amp;A2&amp;" "&amp;ROUND(B2*C2,2)</f>
         <v xml:space="preserve">        key = 10 0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="54">
+      <c r="A3" s="40">
         <v>15</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="40">
         <v>1</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="40">
         <f>C2</f>
-        <v>13</v>
-      </c>
-      <c r="D3" s="54" t="str">
+        <v>8</v>
+      </c>
+      <c r="D3" s="40" t="str">
         <f t="shared" ref="D3:D18" si="0">"        "&amp;"key = "&amp;A3&amp;" "&amp;ROUND(B3*C3,2)</f>
-        <v xml:space="preserve">        key = 15 13</v>
+        <v xml:space="preserve">        key = 15 8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="54">
+      <c r="A4" s="40">
         <v>50</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="40">
         <v>15</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="40">
         <f t="shared" ref="C4:C18" si="1">C3</f>
-        <v>13</v>
-      </c>
-      <c r="D4" s="54" t="str">
+        <v>8</v>
+      </c>
+      <c r="D4" s="40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 50 195</v>
+        <v xml:space="preserve">        key = 50 120</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="54">
+      <c r="A5" s="40">
         <v>150</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="40">
         <v>25</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="40">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D5" s="54" t="str">
+        <v>8</v>
+      </c>
+      <c r="D5" s="40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 150 325</v>
+        <v xml:space="preserve">        key = 150 200</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
+      <c r="A6" s="40">
         <v>500</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="40">
         <v>100</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="40">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D6" s="54" t="str">
+        <v>8</v>
+      </c>
+      <c r="D6" s="40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 500 1300</v>
+        <v xml:space="preserve">        key = 500 800</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="54">
+      <c r="A7" s="40">
         <v>750</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="40">
         <v>250</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="40">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D7" s="54" t="str">
+        <v>8</v>
+      </c>
+      <c r="D7" s="40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 750 3250</v>
+        <v xml:space="preserve">        key = 750 2000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+      <c r="A8" s="40">
         <v>1000</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="40">
         <v>800</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="40">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D8" s="54" t="str">
+        <v>8</v>
+      </c>
+      <c r="D8" s="40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 1000 10400</v>
+        <v xml:space="preserve">        key = 1000 6400</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="54">
+      <c r="A9" s="40">
         <v>1100</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="40">
         <v>900</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="40">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D9" s="54" t="str">
+        <v>8</v>
+      </c>
+      <c r="D9" s="40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 1100 11700</v>
+        <v xml:space="preserve">        key = 1100 7200</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="54">
+      <c r="A10" s="40">
         <v>1200</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="40">
         <v>925</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="40">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D10" s="54" t="str">
+        <v>8</v>
+      </c>
+      <c r="D10" s="40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 1200 12025</v>
+        <v xml:space="preserve">        key = 1200 7400</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="54">
+      <c r="A11" s="40">
         <v>1300</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="40">
         <v>950</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="40">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D11" s="54" t="str">
+        <v>8</v>
+      </c>
+      <c r="D11" s="40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 1300 12350</v>
+        <v xml:space="preserve">        key = 1300 7600</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+      <c r="A12" s="40">
         <v>1400</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="40">
         <v>975</v>
       </c>
-      <c r="C12" s="54">
+      <c r="C12" s="40">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D12" s="54" t="str">
+        <v>8</v>
+      </c>
+      <c r="D12" s="40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 1400 12675</v>
+        <v xml:space="preserve">        key = 1400 7800</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="54">
+      <c r="A13" s="40">
         <v>1500</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="40">
         <v>1000</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="40">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D13" s="54" t="str">
+        <v>8</v>
+      </c>
+      <c r="D13" s="40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 1500 13000</v>
+        <v xml:space="preserve">        key = 1500 8000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
+      <c r="A14" s="40">
         <v>2000</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="40">
         <v>1100</v>
       </c>
-      <c r="C14" s="54">
+      <c r="C14" s="40">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D14" s="54" t="str">
+        <v>8</v>
+      </c>
+      <c r="D14" s="40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 2000 14300</v>
+        <v xml:space="preserve">        key = 2000 8800</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="54">
+      <c r="A15" s="40">
         <v>2500</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="40">
         <v>1150</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="40">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D15" s="54" t="str">
+        <v>8</v>
+      </c>
+      <c r="D15" s="40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 2500 14950</v>
+        <v xml:space="preserve">        key = 2500 9200</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="54">
+      <c r="A16" s="40">
         <v>3000</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="40">
         <v>1200</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="40">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D16" s="54" t="str">
+        <v>8</v>
+      </c>
+      <c r="D16" s="40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 3000 15600</v>
+        <v xml:space="preserve">        key = 3000 9600</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="54">
+      <c r="A17" s="40">
         <v>4000</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="40">
         <v>1300</v>
       </c>
-      <c r="C17" s="54">
+      <c r="C17" s="40">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D17" s="54" t="str">
+        <v>8</v>
+      </c>
+      <c r="D17" s="40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 4000 16900</v>
+        <v xml:space="preserve">        key = 4000 10400</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
+      <c r="A18" s="40">
         <v>4100</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18" s="40">
         <v>1310</v>
       </c>
-      <c r="C18" s="54">
+      <c r="C18" s="40">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D18" s="54" t="str">
+        <v>8</v>
+      </c>
+      <c r="D18" s="40" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 4100 17030</v>
+        <v xml:space="preserve">        key = 4100 10480</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/SSTU/Parts/Parts-MassCalc.xlsx
+++ b/GameData/SSTU/Parts/Parts-MassCalc.xlsx
@@ -16,13 +16,14 @@
     <sheet name="StockChuteCalc" sheetId="11" r:id="rId7"/>
     <sheet name="RealRocketDims" sheetId="12" r:id="rId8"/>
     <sheet name="HeatShieldCalc" sheetId="13" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="404">
   <si>
     <t>Part</t>
   </si>
@@ -1184,6 +1185,57 @@
   <si>
     <t>output</t>
   </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>amass</t>
+  </si>
+  <si>
+    <t>massfact</t>
+  </si>
+  <si>
+    <t>ablfact</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>abl</t>
+  </si>
+  <si>
+    <t>ablmass</t>
+  </si>
+  <si>
+    <t>skinmass</t>
+  </si>
+  <si>
+    <t>tmass</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>massPow</t>
+  </si>
+  <si>
+    <t>resPow</t>
+  </si>
+  <si>
+    <t>smass</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>fluxPow</t>
+  </si>
+  <si>
+    <t>actTemp</t>
+  </si>
 </sst>
 </file>
 
@@ -1201,7 +1253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1271,6 +1323,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1596,7 +1654,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1680,6 +1738,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1730,120 +1789,168 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>HeatShieldCalc!$A$2:$A$18</c:f>
+              <c:f>HeatShieldCalc!$B$2:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>312.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>412.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>462.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>487.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="15">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>750</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="20">
                   <c:v>1000</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>1100</c:v>
+                <c:pt idx="21">
+                  <c:v>1250</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="22">
                   <c:v>1500</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="23">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4100</c:v>
+                <c:pt idx="24">
+                  <c:v>2050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>HeatShieldCalc!$B$2:$B$18</c:f>
+              <c:f>HeatShieldCalc!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>800</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>900</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>925</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>950</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>975</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1000</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1100</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1150</c:v>
+                  <c:v>2375</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1200</c:v>
+                  <c:v>2450</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1300</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1310</c:v>
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2575</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2615</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1858,11 +1965,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189632512"/>
-        <c:axId val="189634048"/>
+        <c:axId val="197566848"/>
+        <c:axId val="197568384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189632512"/>
+        <c:axId val="197566848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1872,12 +1979,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189634048"/>
+        <c:crossAx val="197568384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189634048"/>
+        <c:axId val="197568384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,7 +1995,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189632512"/>
+        <c:crossAx val="197566848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1914,16 +2021,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28193,6 +28300,533 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="40"/>
+    <col min="4" max="4" width="9.140625" style="40"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.140625" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="B2" s="40">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>394</v>
+      </c>
+      <c r="B3" s="40">
+        <f>B2*0.001</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>395</v>
+      </c>
+      <c r="B4" s="40">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" s="40">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>398</v>
+      </c>
+      <c r="B6" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" t="s">
+        <v>388</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="E10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>396</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>400</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>391</v>
+      </c>
+      <c r="I10" t="s">
+        <v>195</v>
+      </c>
+      <c r="J10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.625</v>
+      </c>
+      <c r="B11" s="40">
+        <f>A11/3.75</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D11" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E11" s="40">
+        <f>POWER(B11*$B$1*D11, $B$6)</f>
+        <v>7.2337962962962959E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1.25</v>
+      </c>
+      <c r="B12" s="40">
+        <f t="shared" ref="B12:B30" si="0">A12/3.75</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="D12" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="40">
+        <f t="shared" ref="E12:E30" si="1">POWER(B12*$B$1*D12, $B$6)</f>
+        <v>5.7870370370370367E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1.875</v>
+      </c>
+      <c r="B13" s="40">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="D13" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="40">
+        <f t="shared" si="1"/>
+        <v>1.953125E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2.5</v>
+      </c>
+      <c r="B14" s="40">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E14" s="40">
+        <f t="shared" si="1"/>
+        <v>4.6296296296296294E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3.125</v>
+      </c>
+      <c r="B15" s="40">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="D15" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E15" s="40">
+        <f t="shared" si="1"/>
+        <v>9.0422453703703724E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3.75</v>
+      </c>
+      <c r="B16" s="40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="D16" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E16" s="40">
+        <f t="shared" si="1"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4.375</v>
+      </c>
+      <c r="B17" s="40">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="D17" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="40">
+        <f t="shared" si="1"/>
+        <v>2.4811921296296304E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18" s="40">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="D18" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E18" s="40">
+        <f t="shared" si="1"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5.625</v>
+      </c>
+      <c r="B19" s="40">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="D19" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E19" s="40">
+        <f t="shared" si="1"/>
+        <v>5.2734375E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6.25</v>
+      </c>
+      <c r="B20" s="40">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>392</v>
+      </c>
+      <c r="D20" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E20" s="40">
+        <f t="shared" si="1"/>
+        <v>7.2337962962962979E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
+        <v>0.625</v>
+      </c>
+      <c r="B21" s="40">
+        <f>A21/3.75</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="D21" s="40">
+        <v>1</v>
+      </c>
+      <c r="E21" s="40">
+        <f t="shared" si="1"/>
+        <v>4.6296296296296294E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
+        <v>1.25</v>
+      </c>
+      <c r="B22" s="40">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="D22" s="40">
+        <f>D21</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="40">
+        <f t="shared" si="1"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="F22" s="40">
+        <v>9.4</v>
+      </c>
+      <c r="G22" s="40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
+        <v>1.875</v>
+      </c>
+      <c r="B23" s="40">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="D23" s="40">
+        <f t="shared" ref="D23:D30" si="2">D22</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="40">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
+      <c r="F23" s="40">
+        <v>31.9</v>
+      </c>
+      <c r="G23" s="40">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="40">
+        <v>2.5</v>
+      </c>
+      <c r="B24" s="40">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="D24" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="40">
+        <f t="shared" si="1"/>
+        <v>0.29629629629629628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="40">
+        <v>3.125</v>
+      </c>
+      <c r="B25" s="40">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="D25" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="40">
+        <f t="shared" si="1"/>
+        <v>0.57870370370370383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="40">
+        <v>3.75</v>
+      </c>
+      <c r="B26" s="40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="D26" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F26" s="40">
+        <v>267.2</v>
+      </c>
+      <c r="G26" s="40">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>4.375</v>
+      </c>
+      <c r="B27" s="40">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="D27" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E27" s="40">
+        <f t="shared" si="1"/>
+        <v>1.5879629629629635</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="40">
+        <v>5</v>
+      </c>
+      <c r="B28" s="40">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="D28" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="40">
+        <f t="shared" si="1"/>
+        <v>2.3703703703703702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="40">
+        <v>5.625</v>
+      </c>
+      <c r="B29" s="40">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="D29" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="40">
+        <f t="shared" si="1"/>
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="40">
+        <v>6.25</v>
+      </c>
+      <c r="B30" s="40">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>401</v>
+      </c>
+      <c r="D30" s="40">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="40">
+        <f t="shared" si="1"/>
+        <v>4.6296296296296306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF128"/>
@@ -51923,301 +52557,751 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X23" sqref="X23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="40"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
+        <v>403</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="C1" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="D1" s="40" t="s">
         <v>385</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="E1" s="40" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="40">
-        <v>10</v>
+        <v>505</v>
       </c>
       <c r="B2" s="40">
-        <v>0</v>
+        <f>A2-500</f>
+        <v>5</v>
       </c>
       <c r="C2" s="40">
-        <v>8</v>
-      </c>
-      <c r="D2" s="40" t="str">
-        <f>"        "&amp;"key = "&amp;A2&amp;" "&amp;ROUND(B2*C2,2)</f>
-        <v xml:space="preserve">        key = 10 0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D2" s="40">
+        <v>2</v>
+      </c>
+      <c r="E2" s="40" t="str">
+        <f>"        "&amp;"key = "&amp;B2&amp;" "&amp;ROUND(C2*D2,2)</f>
+        <v xml:space="preserve">        key = 5 0</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"    "&amp;E2</f>
+        <v xml:space="preserve">            key = 5 0</v>
+      </c>
+      <c r="G2">
+        <f>B2*0.5</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="40">
+        <v>507.5</v>
+      </c>
+      <c r="B3" s="40">
+        <f t="shared" ref="B3:B26" si="0">A3-500</f>
+        <v>7.5</v>
+      </c>
+      <c r="C3" s="40">
+        <v>3.2</v>
+      </c>
+      <c r="D3" s="40">
+        <f>D2</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="40" t="str">
+        <f t="shared" ref="E3:E26" si="1">"        "&amp;"key = "&amp;B3&amp;" "&amp;ROUND(C3*D3,2)</f>
+        <v xml:space="preserve">        key = 7.5 6.4</v>
+      </c>
+      <c r="F3" s="40" t="str">
+        <f t="shared" ref="F3:F26" si="2">"    "&amp;E3</f>
+        <v xml:space="preserve">            key = 7.5 6.4</v>
+      </c>
+      <c r="G3" s="40">
+        <f t="shared" ref="G3:G26" si="3">B3*0.5</f>
+        <v>3.75</v>
+      </c>
+      <c r="H3" s="40"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
+        <v>525</v>
+      </c>
+      <c r="B4" s="40">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C4" s="40">
         <v>15</v>
       </c>
-      <c r="B3" s="40">
-        <v>1</v>
-      </c>
-      <c r="C3" s="40">
-        <f>C2</f>
-        <v>8</v>
-      </c>
-      <c r="D3" s="40" t="str">
-        <f t="shared" ref="D3:D18" si="0">"        "&amp;"key = "&amp;A3&amp;" "&amp;ROUND(B3*C3,2)</f>
-        <v xml:space="preserve">        key = 15 8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="40">
-        <v>50</v>
-      </c>
-      <c r="B4" s="40">
-        <v>15</v>
-      </c>
-      <c r="C4" s="40">
-        <f t="shared" ref="C4:C18" si="1">C3</f>
-        <v>8</v>
-      </c>
-      <c r="D4" s="40" t="str">
+      <c r="D4" s="40">
+        <f t="shared" ref="D4:D26" si="4">D3</f>
+        <v>2</v>
+      </c>
+      <c r="E4" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        key = 25 30</v>
+      </c>
+      <c r="F4" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 25 30</v>
+      </c>
+      <c r="G4" s="40">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+      <c r="H4" s="40"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
+        <v>575</v>
+      </c>
+      <c r="B5" s="40">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 50 120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="40">
-        <v>150</v>
-      </c>
-      <c r="B5" s="40">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C5" s="40">
+        <v>45</v>
+      </c>
+      <c r="D5" s="40">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E5" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D5" s="40" t="str">
+        <v xml:space="preserve">        key = 75 90</v>
+      </c>
+      <c r="F5" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 75 90</v>
+      </c>
+      <c r="G5" s="40">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>625</v>
+      </c>
+      <c r="B6" s="40">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 150 200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
+        <v>125</v>
+      </c>
+      <c r="C6" s="40">
+        <v>70</v>
+      </c>
+      <c r="D6" s="40">
+        <f t="shared" ref="D6:D7" si="5">D5</f>
+        <v>2</v>
+      </c>
+      <c r="E6" s="40" t="str">
+        <f t="shared" ref="E6:E7" si="6">"        "&amp;"key = "&amp;B6&amp;" "&amp;ROUND(C6*D6,2)</f>
+        <v xml:space="preserve">        key = 125 140</v>
+      </c>
+      <c r="F6" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 125 140</v>
+      </c>
+      <c r="G6" s="40">
+        <f t="shared" si="3"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>675</v>
+      </c>
+      <c r="B7" s="40">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="C7" s="40">
+        <v>120</v>
+      </c>
+      <c r="D7" s="40">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="E7" s="40" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve">        key = 175 240</v>
+      </c>
+      <c r="F7" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 175 240</v>
+      </c>
+      <c r="G7" s="40">
+        <f t="shared" si="3"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>750</v>
+      </c>
+      <c r="B8" s="40">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="C8" s="40">
+        <v>180</v>
+      </c>
+      <c r="D8" s="40">
+        <f>D5</f>
+        <v>2</v>
+      </c>
+      <c r="E8" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        key = 250 360</v>
+      </c>
+      <c r="F8" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 250 360</v>
+      </c>
+      <c r="G8" s="40">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>812.5</v>
+      </c>
+      <c r="B9" s="40">
+        <f t="shared" si="0"/>
+        <v>312.5</v>
+      </c>
+      <c r="C9" s="40">
+        <v>225</v>
+      </c>
+      <c r="D9" s="40">
+        <f t="shared" ref="D9:D11" si="7">D6</f>
+        <v>2</v>
+      </c>
+      <c r="E9" s="40" t="str">
+        <f t="shared" ref="E9:E11" si="8">"        "&amp;"key = "&amp;B9&amp;" "&amp;ROUND(C9*D9,2)</f>
+        <v xml:space="preserve">        key = 312.5 450</v>
+      </c>
+      <c r="F9" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 312.5 450</v>
+      </c>
+      <c r="G9" s="40">
+        <f t="shared" si="3"/>
+        <v>156.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>875</v>
+      </c>
+      <c r="B10" s="40">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="C10" s="40">
+        <v>300</v>
+      </c>
+      <c r="D10" s="40">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E10" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">        key = 375 600</v>
+      </c>
+      <c r="F10" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 375 600</v>
+      </c>
+      <c r="G10" s="40">
+        <f t="shared" si="3"/>
+        <v>187.5</v>
+      </c>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>912.5</v>
+      </c>
+      <c r="B11" s="40">
+        <f t="shared" si="0"/>
+        <v>412.5</v>
+      </c>
+      <c r="C11" s="40">
         <v>500</v>
       </c>
-      <c r="B6" s="40">
-        <v>100</v>
-      </c>
-      <c r="C6" s="40">
+      <c r="D11" s="40">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="40" t="str">
+        <f t="shared" si="8"/>
+        <v xml:space="preserve">        key = 412.5 1000</v>
+      </c>
+      <c r="F11" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 412.5 1000</v>
+      </c>
+      <c r="G11" s="40">
+        <f t="shared" si="3"/>
+        <v>206.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
+        <v>950</v>
+      </c>
+      <c r="B12" s="40">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="C12" s="40">
+        <v>700</v>
+      </c>
+      <c r="D12" s="40">
+        <f>D10</f>
+        <v>2</v>
+      </c>
+      <c r="E12" s="40" t="str">
+        <f t="shared" ref="E12" si="9">"        "&amp;"key = "&amp;B12&amp;" "&amp;ROUND(C12*D12,2)</f>
+        <v xml:space="preserve">        key = 450 1400</v>
+      </c>
+      <c r="F12" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 450 1400</v>
+      </c>
+      <c r="G12" s="40">
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
+        <v>962.5</v>
+      </c>
+      <c r="B13" s="40">
+        <f t="shared" si="0"/>
+        <v>462.5</v>
+      </c>
+      <c r="C13" s="40">
+        <v>1100</v>
+      </c>
+      <c r="D13" s="40">
+        <f t="shared" ref="D13:D15" si="10">D11</f>
+        <v>2</v>
+      </c>
+      <c r="E13" s="40" t="str">
+        <f t="shared" ref="E13:E15" si="11">"        "&amp;"key = "&amp;B13&amp;" "&amp;ROUND(C13*D13,2)</f>
+        <v xml:space="preserve">        key = 462.5 2200</v>
+      </c>
+      <c r="F13" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 462.5 2200</v>
+      </c>
+      <c r="G13" s="40">
+        <f t="shared" si="3"/>
+        <v>231.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
+        <v>975</v>
+      </c>
+      <c r="B14" s="40">
+        <f t="shared" si="0"/>
+        <v>475</v>
+      </c>
+      <c r="C14" s="38">
+        <v>1600</v>
+      </c>
+      <c r="D14" s="38">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="38" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        key = 475 3200</v>
+      </c>
+      <c r="F14" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 475 3200</v>
+      </c>
+      <c r="G14" s="38">
+        <f t="shared" si="3"/>
+        <v>237.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
+        <v>987.5</v>
+      </c>
+      <c r="B15" s="40">
+        <f t="shared" si="0"/>
+        <v>487.5</v>
+      </c>
+      <c r="C15" s="38">
+        <v>2375</v>
+      </c>
+      <c r="D15" s="38">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="38" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">        key = 487.5 4750</v>
+      </c>
+      <c r="F15" s="38" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 487.5 4750</v>
+      </c>
+      <c r="G15" s="38">
+        <f t="shared" si="3"/>
+        <v>243.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
+        <v>1000</v>
+      </c>
+      <c r="B16" s="40">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="C16" s="22">
+        <v>2450</v>
+      </c>
+      <c r="D16" s="22">
+        <f>D12</f>
+        <v>2</v>
+      </c>
+      <c r="E16" s="22" t="str">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D6" s="40" t="str">
+        <v xml:space="preserve">        key = 500 4900</v>
+      </c>
+      <c r="F16" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 500 4900</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
+        <v>1050</v>
+      </c>
+      <c r="B17" s="40">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 500 800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="40">
+        <v>550</v>
+      </c>
+      <c r="C17" s="22">
+        <v>2500</v>
+      </c>
+      <c r="D17" s="22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E17" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        key = 550 5000</v>
+      </c>
+      <c r="F17" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 550 5000</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="3"/>
+        <v>275</v>
+      </c>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <v>1100</v>
+      </c>
+      <c r="B18" s="40">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="C18" s="22">
+        <v>2550</v>
+      </c>
+      <c r="D18" s="22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        key = 600 5100</v>
+      </c>
+      <c r="F18" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 600 5100</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
+        <v>1150</v>
+      </c>
+      <c r="B19" s="40">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+      <c r="C19" s="22">
+        <v>2575</v>
+      </c>
+      <c r="D19" s="22">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E19" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        key = 650 5150</v>
+      </c>
+      <c r="F19" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 650 5150</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="3"/>
+        <v>325</v>
+      </c>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>1200</v>
+      </c>
+      <c r="B20" s="40">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="C20" s="55">
+        <v>2600</v>
+      </c>
+      <c r="D20" s="55">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E20" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">        key = 700 5200</v>
+      </c>
+      <c r="F20" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 700 5200</v>
+      </c>
+      <c r="G20" s="55">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+      <c r="H20" s="40"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
+        <v>1250</v>
+      </c>
+      <c r="B21" s="40">
+        <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="B7" s="40">
-        <v>250</v>
-      </c>
-      <c r="C7" s="40">
+      <c r="C21" s="55">
+        <v>2615</v>
+      </c>
+      <c r="D21" s="55">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D7" s="40" t="str">
+        <v xml:space="preserve">        key = 750 5230</v>
+      </c>
+      <c r="F21" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 750 5230</v>
+      </c>
+      <c r="G21" s="55">
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="H21" s="40"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
+        <v>1500</v>
+      </c>
+      <c r="B22" s="40">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 750 2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
         <v>1000</v>
       </c>
-      <c r="B8" s="40">
-        <v>800</v>
-      </c>
-      <c r="C8" s="40">
+      <c r="C22" s="55">
+        <v>2700</v>
+      </c>
+      <c r="D22" s="55">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E22" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D8" s="40" t="str">
+        <v xml:space="preserve">        key = 1000 5400</v>
+      </c>
+      <c r="F22" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 1000 5400</v>
+      </c>
+      <c r="G22" s="55">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="H22" s="40"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
+        <v>1750</v>
+      </c>
+      <c r="B23" s="40">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 1000 6400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
-        <v>1100</v>
-      </c>
-      <c r="B9" s="40">
-        <v>900</v>
-      </c>
-      <c r="C9" s="40">
+        <v>1250</v>
+      </c>
+      <c r="C23" s="55">
+        <v>2750</v>
+      </c>
+      <c r="D23" s="55">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D9" s="40" t="str">
+        <v xml:space="preserve">        key = 1250 5500</v>
+      </c>
+      <c r="F23" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 1250 5500</v>
+      </c>
+      <c r="G23" s="55">
+        <f t="shared" si="3"/>
+        <v>625</v>
+      </c>
+      <c r="H23" s="40"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="40">
+        <v>2000</v>
+      </c>
+      <c r="B24" s="40">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 1100 7200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
-        <v>1200</v>
-      </c>
-      <c r="B10" s="40">
-        <v>925</v>
-      </c>
-      <c r="C10" s="40">
+        <v>1500</v>
+      </c>
+      <c r="C24" s="55">
+        <v>2800</v>
+      </c>
+      <c r="D24" s="55">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E24" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D10" s="40" t="str">
+        <v xml:space="preserve">        key = 1500 5600</v>
+      </c>
+      <c r="F24" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 1500 5600</v>
+      </c>
+      <c r="G24" s="55">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+      <c r="H24" s="40"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="40">
+        <v>2500</v>
+      </c>
+      <c r="B25" s="40">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 1200 7400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
-        <v>1300</v>
-      </c>
-      <c r="B11" s="40">
-        <v>950</v>
-      </c>
-      <c r="C11" s="40">
+        <v>2000</v>
+      </c>
+      <c r="C25" s="55">
+        <v>2900</v>
+      </c>
+      <c r="D25" s="55">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E25" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D11" s="40" t="str">
+        <v xml:space="preserve">        key = 2000 5800</v>
+      </c>
+      <c r="F25" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 2000 5800</v>
+      </c>
+      <c r="G25" s="55">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="H25" s="40"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="40">
+        <v>2550</v>
+      </c>
+      <c r="B26" s="40">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 1300 7600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
-        <v>1400</v>
-      </c>
-      <c r="B12" s="40">
-        <v>975</v>
-      </c>
-      <c r="C12" s="40">
+        <v>2050</v>
+      </c>
+      <c r="C26" s="55">
+        <v>2901</v>
+      </c>
+      <c r="D26" s="55">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E26" s="55" t="str">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D12" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 1400 7800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="40">
-        <v>1500</v>
-      </c>
-      <c r="B13" s="40">
-        <v>1000</v>
-      </c>
-      <c r="C13" s="40">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D13" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 1500 8000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
-        <v>2000</v>
-      </c>
-      <c r="B14" s="40">
-        <v>1100</v>
-      </c>
-      <c r="C14" s="40">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D14" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 2000 8800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
-        <v>2500</v>
-      </c>
-      <c r="B15" s="40">
-        <v>1150</v>
-      </c>
-      <c r="C15" s="40">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D15" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 2500 9200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
-        <v>3000</v>
-      </c>
-      <c r="B16" s="40">
-        <v>1200</v>
-      </c>
-      <c r="C16" s="40">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D16" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 3000 9600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="40">
-        <v>4000</v>
-      </c>
-      <c r="B17" s="40">
-        <v>1300</v>
-      </c>
-      <c r="C17" s="40">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D17" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 4000 10400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
-        <v>4100</v>
-      </c>
-      <c r="B18" s="40">
-        <v>1310</v>
-      </c>
-      <c r="C18" s="40">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D18" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">        key = 4100 10480</v>
-      </c>
+        <v xml:space="preserve">        key = 2050 5802</v>
+      </c>
+      <c r="F26" s="55" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">            key = 2050 5802</v>
+      </c>
+      <c r="G26" s="55">
+        <f t="shared" si="3"/>
+        <v>1025</v>
+      </c>
+      <c r="H26" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameData/SSTU/Parts/Parts-MassCalc.xlsx
+++ b/GameData/SSTU/Parts/Parts-MassCalc.xlsx
@@ -1829,13 +1829,25 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1850,26 +1862,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2100,11 +2100,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="128985344"/>
-        <c:axId val="128991232"/>
+        <c:axId val="101710080"/>
+        <c:axId val="103550976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="128985344"/>
+        <c:axId val="101710080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2114,12 +2114,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128991232"/>
+        <c:crossAx val="103550976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="128991232"/>
+        <c:axId val="103550976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2130,7 +2130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128985344"/>
+        <c:crossAx val="101710080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -29191,45 +29191,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="12"/>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
       <c r="P1" s="12"/>
-      <c r="Q1" s="47" t="s">
+      <c r="Q1" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
       <c r="X1" s="12"/>
-      <c r="Y1" s="47" t="s">
+      <c r="Y1" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="47"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
       <c r="AF1" s="12"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -30940,270 +30940,270 @@
       <c r="A20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="48">
         <f>E19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
       <c r="H20" s="12"/>
       <c r="I20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="44">
+      <c r="J20" s="48">
         <f>M19</f>
         <v>0</v>
       </c>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="46"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="50"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R20" s="44">
+      <c r="R20" s="48">
         <f>U19</f>
         <v>0</v>
       </c>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="46"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="50"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z20" s="44">
+      <c r="Z20" s="48">
         <f>AC19</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="46"/>
+      <c r="AA20" s="49"/>
+      <c r="AB20" s="49"/>
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="49"/>
+      <c r="AE20" s="50"/>
       <c r="AF20" s="12"/>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="48">
         <f>C19</f>
         <v>0</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="50"/>
       <c r="H21" s="12"/>
       <c r="I21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J21" s="44">
+      <c r="J21" s="48">
         <f>K19</f>
         <v>0</v>
       </c>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="46"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="50"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R21" s="44">
+      <c r="R21" s="48">
         <f>S19</f>
         <v>0</v>
       </c>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="46"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="50"/>
       <c r="X21" s="12"/>
       <c r="Y21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z21" s="44">
+      <c r="Z21" s="48">
         <f>AA19</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="45"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="46"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="49"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AE21" s="50"/>
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="48">
         <f>IFERROR((G19/10/B20),0)</f>
         <v>0</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
       <c r="H22" s="12"/>
       <c r="I22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="48">
         <f>IFERROR((O19/10/J20),0)</f>
         <v>0</v>
       </c>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="45"/>
-      <c r="O22" s="46"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="50"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R22" s="44">
+      <c r="R22" s="48">
         <f>IFERROR((W19/10/R20),0)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="46"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="50"/>
       <c r="X22" s="12"/>
       <c r="Y22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z22" s="44">
+      <c r="Z22" s="48">
         <f>IFERROR((AE19/10/Z20),0)</f>
         <v>0</v>
       </c>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="45"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="46"/>
+      <c r="AA22" s="49"/>
+      <c r="AB22" s="49"/>
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AE22" s="50"/>
       <c r="AF22" s="12"/>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="48">
         <f>IFERROR((9.82 * F19) * LN(B20/C19),0)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="50"/>
       <c r="H23" s="12"/>
       <c r="I23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="44">
+      <c r="J23" s="48">
         <f>IFERROR((9.82 * N19) * LN(J20/K19),0)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="45"/>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="46"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="50"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R23" s="44">
+      <c r="R23" s="48">
         <f>IFERROR((9.82 * V19) * LN(R20/S19),0)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="46"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="50"/>
       <c r="X23" s="12"/>
       <c r="Y23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z23" s="44">
+      <c r="Z23" s="48">
         <f>IFERROR((9.82 * AD19) * LN(Z20/AA19),0)</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="46"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="50"/>
       <c r="AF23" s="12"/>
     </row>
     <row r="24" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="52">
         <f>B23</f>
         <v>0</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
       <c r="H24" s="12"/>
       <c r="I24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="52">
         <f>J23</f>
         <v>0</v>
       </c>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="43"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="54"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R24" s="41">
+      <c r="R24" s="52">
         <f>R23</f>
         <v>0</v>
       </c>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="43"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="54"/>
       <c r="X24" s="12"/>
       <c r="Y24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z24" s="41">
+      <c r="Z24" s="52">
         <f>Z23</f>
         <v>0</v>
       </c>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="43"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
+      <c r="AD24" s="53"/>
+      <c r="AE24" s="54"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32944,270 +32944,270 @@
       <c r="A44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="44">
+      <c r="B44" s="48">
         <f>E43+B20</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="46"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="50"/>
       <c r="H44" s="12"/>
       <c r="I44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J44" s="44">
+      <c r="J44" s="48">
         <f>M43+J20</f>
         <v>0</v>
       </c>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="46"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="50"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R44" s="44">
+      <c r="R44" s="48">
         <f>U43+R20</f>
         <v>0</v>
       </c>
-      <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
-      <c r="U44" s="45"/>
-      <c r="V44" s="45"/>
-      <c r="W44" s="46"/>
+      <c r="S44" s="49"/>
+      <c r="T44" s="49"/>
+      <c r="U44" s="49"/>
+      <c r="V44" s="49"/>
+      <c r="W44" s="50"/>
       <c r="X44" s="12"/>
       <c r="Y44" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z44" s="44">
+      <c r="Z44" s="48">
         <f>AC43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA44" s="45"/>
-      <c r="AB44" s="45"/>
-      <c r="AC44" s="45"/>
-      <c r="AD44" s="45"/>
-      <c r="AE44" s="46"/>
+      <c r="AA44" s="49"/>
+      <c r="AB44" s="49"/>
+      <c r="AC44" s="49"/>
+      <c r="AD44" s="49"/>
+      <c r="AE44" s="50"/>
       <c r="AF44" s="12"/>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="44">
+      <c r="B45" s="48">
         <f>C43+B20</f>
         <v>1.7964924375</v>
       </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="46"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="50"/>
       <c r="H45" s="12"/>
       <c r="I45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J45" s="44">
+      <c r="J45" s="48">
         <f>K43+J20</f>
         <v>0</v>
       </c>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
-      <c r="N45" s="45"/>
-      <c r="O45" s="46"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="50"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R45" s="44">
+      <c r="R45" s="48">
         <f>S43+R20</f>
         <v>0</v>
       </c>
-      <c r="S45" s="45"/>
-      <c r="T45" s="45"/>
-      <c r="U45" s="45"/>
-      <c r="V45" s="45"/>
-      <c r="W45" s="46"/>
+      <c r="S45" s="49"/>
+      <c r="T45" s="49"/>
+      <c r="U45" s="49"/>
+      <c r="V45" s="49"/>
+      <c r="W45" s="50"/>
       <c r="X45" s="12"/>
       <c r="Y45" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z45" s="44">
+      <c r="Z45" s="48">
         <f>AA43+Z20</f>
         <v>0</v>
       </c>
-      <c r="AA45" s="45"/>
-      <c r="AB45" s="45"/>
-      <c r="AC45" s="45"/>
-      <c r="AD45" s="45"/>
-      <c r="AE45" s="46"/>
+      <c r="AA45" s="49"/>
+      <c r="AB45" s="49"/>
+      <c r="AC45" s="49"/>
+      <c r="AD45" s="49"/>
+      <c r="AE45" s="50"/>
       <c r="AF45" s="12"/>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B46" s="44">
+      <c r="B46" s="48">
         <f>IFERROR((G43/10/B44),0)</f>
         <v>0.4177067298338254</v>
       </c>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="46"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="50"/>
       <c r="H46" s="12"/>
       <c r="I46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J46" s="44">
+      <c r="J46" s="48">
         <f>IFERROR((O43/10/J44),0)</f>
         <v>0</v>
       </c>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="45"/>
-      <c r="N46" s="45"/>
-      <c r="O46" s="46"/>
+      <c r="K46" s="49"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="50"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R46" s="44">
+      <c r="R46" s="48">
         <f>IFERROR((W43/10/R44),0)</f>
         <v>0</v>
       </c>
-      <c r="S46" s="45"/>
-      <c r="T46" s="45"/>
-      <c r="U46" s="45"/>
-      <c r="V46" s="45"/>
-      <c r="W46" s="46"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="49"/>
+      <c r="V46" s="49"/>
+      <c r="W46" s="50"/>
       <c r="X46" s="12"/>
       <c r="Y46" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z46" s="44">
+      <c r="Z46" s="48">
         <f>IFERROR((AE43/10/Z44),0)</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="45"/>
-      <c r="AB46" s="45"/>
-      <c r="AC46" s="45"/>
-      <c r="AD46" s="45"/>
-      <c r="AE46" s="46"/>
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="49"/>
+      <c r="AC46" s="49"/>
+      <c r="AD46" s="49"/>
+      <c r="AE46" s="50"/>
       <c r="AF46" s="12"/>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="44">
+      <c r="B47" s="48">
         <f>IFERROR((9.82 * F43) * LN(B44/B45),0)</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="46"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="50"/>
       <c r="H47" s="12"/>
       <c r="I47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="44">
+      <c r="J47" s="48">
         <f>IFERROR((9.82 * N43) * LN(J44/J45),0)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="46"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="50"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R47" s="44">
+      <c r="R47" s="48">
         <f>IFERROR((9.82 * V43) * LN(R44/R45),0)</f>
         <v>0</v>
       </c>
-      <c r="S47" s="45"/>
-      <c r="T47" s="45"/>
-      <c r="U47" s="45"/>
-      <c r="V47" s="45"/>
-      <c r="W47" s="46"/>
+      <c r="S47" s="49"/>
+      <c r="T47" s="49"/>
+      <c r="U47" s="49"/>
+      <c r="V47" s="49"/>
+      <c r="W47" s="50"/>
       <c r="X47" s="12"/>
       <c r="Y47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z47" s="44">
+      <c r="Z47" s="48">
         <f>IFERROR((9.82 * AD43) * LN(Z44/Z45),0)</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="45"/>
-      <c r="AB47" s="45"/>
-      <c r="AC47" s="45"/>
-      <c r="AD47" s="45"/>
-      <c r="AE47" s="46"/>
+      <c r="AA47" s="49"/>
+      <c r="AB47" s="49"/>
+      <c r="AC47" s="49"/>
+      <c r="AD47" s="49"/>
+      <c r="AE47" s="50"/>
       <c r="AF47" s="12"/>
     </row>
     <row r="48" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="41">
+      <c r="B48" s="52">
         <f>B47+B24</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="43"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="54"/>
       <c r="H48" s="12"/>
       <c r="I48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J48" s="41">
+      <c r="J48" s="52">
         <f>J47+J24</f>
         <v>0</v>
       </c>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
-      <c r="M48" s="42"/>
-      <c r="N48" s="42"/>
-      <c r="O48" s="43"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="54"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R48" s="41">
+      <c r="R48" s="52">
         <f>R47+R24</f>
         <v>0</v>
       </c>
-      <c r="S48" s="42"/>
-      <c r="T48" s="42"/>
-      <c r="U48" s="42"/>
-      <c r="V48" s="42"/>
-      <c r="W48" s="43"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="53"/>
+      <c r="V48" s="53"/>
+      <c r="W48" s="54"/>
       <c r="X48" s="12"/>
       <c r="Y48" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z48" s="41">
+      <c r="Z48" s="52">
         <f>Z47+Z24</f>
         <v>0</v>
       </c>
-      <c r="AA48" s="42"/>
-      <c r="AB48" s="42"/>
-      <c r="AC48" s="42"/>
-      <c r="AD48" s="42"/>
-      <c r="AE48" s="43"/>
+      <c r="AA48" s="53"/>
+      <c r="AB48" s="53"/>
+      <c r="AC48" s="53"/>
+      <c r="AD48" s="53"/>
+      <c r="AE48" s="54"/>
       <c r="AF48" s="12"/>
     </row>
     <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34944,270 +34944,270 @@
       <c r="A68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="44">
+      <c r="B68" s="48">
         <f>E67+B44</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="46"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="50"/>
       <c r="H68" s="12"/>
       <c r="I68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J68" s="44">
+      <c r="J68" s="48">
         <f>M67+J44</f>
         <v>0</v>
       </c>
-      <c r="K68" s="45"/>
-      <c r="L68" s="45"/>
-      <c r="M68" s="45"/>
-      <c r="N68" s="45"/>
-      <c r="O68" s="46"/>
+      <c r="K68" s="49"/>
+      <c r="L68" s="49"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="50"/>
       <c r="P68" s="12"/>
       <c r="Q68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R68" s="44">
+      <c r="R68" s="48">
         <f>U67+R44</f>
         <v>0</v>
       </c>
-      <c r="S68" s="45"/>
-      <c r="T68" s="45"/>
-      <c r="U68" s="45"/>
-      <c r="V68" s="45"/>
-      <c r="W68" s="46"/>
+      <c r="S68" s="49"/>
+      <c r="T68" s="49"/>
+      <c r="U68" s="49"/>
+      <c r="V68" s="49"/>
+      <c r="W68" s="50"/>
       <c r="X68" s="12"/>
       <c r="Y68" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z68" s="44">
+      <c r="Z68" s="48">
         <f>AC67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA68" s="45"/>
-      <c r="AB68" s="45"/>
-      <c r="AC68" s="45"/>
-      <c r="AD68" s="45"/>
-      <c r="AE68" s="46"/>
+      <c r="AA68" s="49"/>
+      <c r="AB68" s="49"/>
+      <c r="AC68" s="49"/>
+      <c r="AD68" s="49"/>
+      <c r="AE68" s="50"/>
       <c r="AF68" s="12"/>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="44">
+      <c r="B69" s="48">
         <f>C67+B44</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="46"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="50"/>
       <c r="H69" s="12"/>
       <c r="I69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J69" s="44">
+      <c r="J69" s="48">
         <f>K67+J44</f>
         <v>0</v>
       </c>
-      <c r="K69" s="45"/>
-      <c r="L69" s="45"/>
-      <c r="M69" s="45"/>
-      <c r="N69" s="45"/>
-      <c r="O69" s="46"/>
+      <c r="K69" s="49"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="50"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R69" s="44">
+      <c r="R69" s="48">
         <f>S67+R44</f>
         <v>0</v>
       </c>
-      <c r="S69" s="45"/>
-      <c r="T69" s="45"/>
-      <c r="U69" s="45"/>
-      <c r="V69" s="45"/>
-      <c r="W69" s="46"/>
+      <c r="S69" s="49"/>
+      <c r="T69" s="49"/>
+      <c r="U69" s="49"/>
+      <c r="V69" s="49"/>
+      <c r="W69" s="50"/>
       <c r="X69" s="12"/>
       <c r="Y69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z69" s="44">
+      <c r="Z69" s="48">
         <f>AA67+Z44</f>
         <v>0</v>
       </c>
-      <c r="AA69" s="45"/>
-      <c r="AB69" s="45"/>
-      <c r="AC69" s="45"/>
-      <c r="AD69" s="45"/>
-      <c r="AE69" s="46"/>
+      <c r="AA69" s="49"/>
+      <c r="AB69" s="49"/>
+      <c r="AC69" s="49"/>
+      <c r="AD69" s="49"/>
+      <c r="AE69" s="50"/>
       <c r="AF69" s="12"/>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="44">
+      <c r="B70" s="48">
         <f>IFERROR((G67/10/B68),0)</f>
         <v>0</v>
       </c>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="45"/>
-      <c r="F70" s="45"/>
-      <c r="G70" s="46"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="50"/>
       <c r="H70" s="12"/>
       <c r="I70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J70" s="44">
+      <c r="J70" s="48">
         <f>IFERROR((O67/10/J68),0)</f>
         <v>0</v>
       </c>
-      <c r="K70" s="45"/>
-      <c r="L70" s="45"/>
-      <c r="M70" s="45"/>
-      <c r="N70" s="45"/>
-      <c r="O70" s="46"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="49"/>
+      <c r="O70" s="50"/>
       <c r="P70" s="12"/>
       <c r="Q70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R70" s="44">
+      <c r="R70" s="48">
         <f>IFERROR((W67/10/R68),0)</f>
         <v>0</v>
       </c>
-      <c r="S70" s="45"/>
-      <c r="T70" s="45"/>
-      <c r="U70" s="45"/>
-      <c r="V70" s="45"/>
-      <c r="W70" s="46"/>
+      <c r="S70" s="49"/>
+      <c r="T70" s="49"/>
+      <c r="U70" s="49"/>
+      <c r="V70" s="49"/>
+      <c r="W70" s="50"/>
       <c r="X70" s="12"/>
       <c r="Y70" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z70" s="44">
+      <c r="Z70" s="48">
         <f>IFERROR((AE67/10/Z68),0)</f>
         <v>0</v>
       </c>
-      <c r="AA70" s="45"/>
-      <c r="AB70" s="45"/>
-      <c r="AC70" s="45"/>
-      <c r="AD70" s="45"/>
-      <c r="AE70" s="46"/>
+      <c r="AA70" s="49"/>
+      <c r="AB70" s="49"/>
+      <c r="AC70" s="49"/>
+      <c r="AD70" s="49"/>
+      <c r="AE70" s="50"/>
       <c r="AF70" s="12"/>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="44">
+      <c r="B71" s="48">
         <f>IFERROR((9.82 * F67) * LN(B68/B69),0)</f>
         <v>0</v>
       </c>
-      <c r="C71" s="45"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="45"/>
-      <c r="F71" s="45"/>
-      <c r="G71" s="46"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="49"/>
+      <c r="G71" s="50"/>
       <c r="H71" s="12"/>
       <c r="I71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J71" s="44">
+      <c r="J71" s="48">
         <f>IFERROR((9.82 * N67) * LN(J68/J69),0)</f>
         <v>0</v>
       </c>
-      <c r="K71" s="45"/>
-      <c r="L71" s="45"/>
-      <c r="M71" s="45"/>
-      <c r="N71" s="45"/>
-      <c r="O71" s="46"/>
+      <c r="K71" s="49"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="49"/>
+      <c r="O71" s="50"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R71" s="44">
+      <c r="R71" s="48">
         <f>IFERROR((9.82 * V67) * LN(R68/R69),0)</f>
         <v>0</v>
       </c>
-      <c r="S71" s="45"/>
-      <c r="T71" s="45"/>
-      <c r="U71" s="45"/>
-      <c r="V71" s="45"/>
-      <c r="W71" s="46"/>
+      <c r="S71" s="49"/>
+      <c r="T71" s="49"/>
+      <c r="U71" s="49"/>
+      <c r="V71" s="49"/>
+      <c r="W71" s="50"/>
       <c r="X71" s="12"/>
       <c r="Y71" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z71" s="44">
+      <c r="Z71" s="48">
         <f>IFERROR((9.82 * AD67) * LN(Z68/Z69),0)</f>
         <v>0</v>
       </c>
-      <c r="AA71" s="45"/>
-      <c r="AB71" s="45"/>
-      <c r="AC71" s="45"/>
-      <c r="AD71" s="45"/>
-      <c r="AE71" s="46"/>
+      <c r="AA71" s="49"/>
+      <c r="AB71" s="49"/>
+      <c r="AC71" s="49"/>
+      <c r="AD71" s="49"/>
+      <c r="AE71" s="50"/>
       <c r="AF71" s="12"/>
     </row>
     <row r="72" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="41">
+      <c r="B72" s="52">
         <f>B71+B48</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C72" s="42"/>
-      <c r="D72" s="42"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="43"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="54"/>
       <c r="H72" s="12"/>
       <c r="I72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J72" s="41">
+      <c r="J72" s="52">
         <f>J71+J48</f>
         <v>0</v>
       </c>
-      <c r="K72" s="42"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="42"/>
-      <c r="N72" s="42"/>
-      <c r="O72" s="43"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="53"/>
+      <c r="M72" s="53"/>
+      <c r="N72" s="53"/>
+      <c r="O72" s="54"/>
       <c r="P72" s="12"/>
       <c r="Q72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R72" s="41">
+      <c r="R72" s="52">
         <f>R71+R48</f>
         <v>0</v>
       </c>
-      <c r="S72" s="42"/>
-      <c r="T72" s="42"/>
-      <c r="U72" s="42"/>
-      <c r="V72" s="42"/>
-      <c r="W72" s="43"/>
+      <c r="S72" s="53"/>
+      <c r="T72" s="53"/>
+      <c r="U72" s="53"/>
+      <c r="V72" s="53"/>
+      <c r="W72" s="54"/>
       <c r="X72" s="12"/>
       <c r="Y72" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z72" s="41">
+      <c r="Z72" s="52">
         <f>Z71+Z48</f>
         <v>0</v>
       </c>
-      <c r="AA72" s="42"/>
-      <c r="AB72" s="42"/>
-      <c r="AC72" s="42"/>
-      <c r="AD72" s="42"/>
-      <c r="AE72" s="43"/>
+      <c r="AA72" s="53"/>
+      <c r="AB72" s="53"/>
+      <c r="AC72" s="53"/>
+      <c r="AD72" s="53"/>
+      <c r="AE72" s="54"/>
       <c r="AF72" s="12"/>
     </row>
     <row r="73" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36944,270 +36944,270 @@
       <c r="A92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B92" s="44">
+      <c r="B92" s="48">
         <f>E91+B68</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C92" s="45"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45"/>
-      <c r="G92" s="46"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="50"/>
       <c r="H92" s="12"/>
       <c r="I92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J92" s="44">
+      <c r="J92" s="48">
         <f>M91+J68</f>
         <v>0</v>
       </c>
-      <c r="K92" s="45"/>
-      <c r="L92" s="45"/>
-      <c r="M92" s="45"/>
-      <c r="N92" s="45"/>
-      <c r="O92" s="46"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="49"/>
+      <c r="N92" s="49"/>
+      <c r="O92" s="50"/>
       <c r="P92" s="12"/>
       <c r="Q92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R92" s="44">
+      <c r="R92" s="48">
         <f>U91+R68</f>
         <v>0</v>
       </c>
-      <c r="S92" s="45"/>
-      <c r="T92" s="45"/>
-      <c r="U92" s="45"/>
-      <c r="V92" s="45"/>
-      <c r="W92" s="46"/>
+      <c r="S92" s="49"/>
+      <c r="T92" s="49"/>
+      <c r="U92" s="49"/>
+      <c r="V92" s="49"/>
+      <c r="W92" s="50"/>
       <c r="X92" s="12"/>
       <c r="Y92" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z92" s="44">
+      <c r="Z92" s="48">
         <f>AC91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA92" s="45"/>
-      <c r="AB92" s="45"/>
-      <c r="AC92" s="45"/>
-      <c r="AD92" s="45"/>
-      <c r="AE92" s="46"/>
+      <c r="AA92" s="49"/>
+      <c r="AB92" s="49"/>
+      <c r="AC92" s="49"/>
+      <c r="AD92" s="49"/>
+      <c r="AE92" s="50"/>
       <c r="AF92" s="12"/>
     </row>
     <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B93" s="44">
+      <c r="B93" s="48">
         <f>C91+B68</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C93" s="45"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="45"/>
-      <c r="F93" s="45"/>
-      <c r="G93" s="46"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="50"/>
       <c r="H93" s="12"/>
       <c r="I93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J93" s="44">
+      <c r="J93" s="48">
         <f>K91+J68</f>
         <v>0</v>
       </c>
-      <c r="K93" s="45"/>
-      <c r="L93" s="45"/>
-      <c r="M93" s="45"/>
-      <c r="N93" s="45"/>
-      <c r="O93" s="46"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="49"/>
+      <c r="N93" s="49"/>
+      <c r="O93" s="50"/>
       <c r="P93" s="12"/>
       <c r="Q93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R93" s="44">
+      <c r="R93" s="48">
         <f>S91+R68</f>
         <v>0</v>
       </c>
-      <c r="S93" s="45"/>
-      <c r="T93" s="45"/>
-      <c r="U93" s="45"/>
-      <c r="V93" s="45"/>
-      <c r="W93" s="46"/>
+      <c r="S93" s="49"/>
+      <c r="T93" s="49"/>
+      <c r="U93" s="49"/>
+      <c r="V93" s="49"/>
+      <c r="W93" s="50"/>
       <c r="X93" s="12"/>
       <c r="Y93" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z93" s="44">
+      <c r="Z93" s="48">
         <f>AA91+Z68</f>
         <v>0</v>
       </c>
-      <c r="AA93" s="45"/>
-      <c r="AB93" s="45"/>
-      <c r="AC93" s="45"/>
-      <c r="AD93" s="45"/>
-      <c r="AE93" s="46"/>
+      <c r="AA93" s="49"/>
+      <c r="AB93" s="49"/>
+      <c r="AC93" s="49"/>
+      <c r="AD93" s="49"/>
+      <c r="AE93" s="50"/>
       <c r="AF93" s="12"/>
     </row>
     <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="44">
+      <c r="B94" s="48">
         <f>IFERROR((G91/10/B92),0)</f>
         <v>0</v>
       </c>
-      <c r="C94" s="45"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="46"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="50"/>
       <c r="H94" s="12"/>
       <c r="I94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J94" s="44">
+      <c r="J94" s="48">
         <f>IFERROR((O91/10/J92),0)</f>
         <v>0</v>
       </c>
-      <c r="K94" s="45"/>
-      <c r="L94" s="45"/>
-      <c r="M94" s="45"/>
-      <c r="N94" s="45"/>
-      <c r="O94" s="46"/>
+      <c r="K94" s="49"/>
+      <c r="L94" s="49"/>
+      <c r="M94" s="49"/>
+      <c r="N94" s="49"/>
+      <c r="O94" s="50"/>
       <c r="P94" s="12"/>
       <c r="Q94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R94" s="44">
+      <c r="R94" s="48">
         <f>IFERROR((W91/10/R92),0)</f>
         <v>0</v>
       </c>
-      <c r="S94" s="45"/>
-      <c r="T94" s="45"/>
-      <c r="U94" s="45"/>
-      <c r="V94" s="45"/>
-      <c r="W94" s="46"/>
+      <c r="S94" s="49"/>
+      <c r="T94" s="49"/>
+      <c r="U94" s="49"/>
+      <c r="V94" s="49"/>
+      <c r="W94" s="50"/>
       <c r="X94" s="12"/>
       <c r="Y94" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z94" s="44">
+      <c r="Z94" s="48">
         <f>IFERROR((AE91/10/Z92),0)</f>
         <v>0</v>
       </c>
-      <c r="AA94" s="45"/>
-      <c r="AB94" s="45"/>
-      <c r="AC94" s="45"/>
-      <c r="AD94" s="45"/>
-      <c r="AE94" s="46"/>
+      <c r="AA94" s="49"/>
+      <c r="AB94" s="49"/>
+      <c r="AC94" s="49"/>
+      <c r="AD94" s="49"/>
+      <c r="AE94" s="50"/>
       <c r="AF94" s="12"/>
     </row>
     <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B95" s="44">
+      <c r="B95" s="48">
         <f>IFERROR((9.82 * F91) * LN(B92/B93),0)</f>
         <v>0</v>
       </c>
-      <c r="C95" s="45"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="45"/>
-      <c r="F95" s="45"/>
-      <c r="G95" s="46"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49"/>
+      <c r="E95" s="49"/>
+      <c r="F95" s="49"/>
+      <c r="G95" s="50"/>
       <c r="H95" s="12"/>
       <c r="I95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J95" s="44">
+      <c r="J95" s="48">
         <f>IFERROR((9.82 * N91) * LN(J92/J93),0)</f>
         <v>0</v>
       </c>
-      <c r="K95" s="45"/>
-      <c r="L95" s="45"/>
-      <c r="M95" s="45"/>
-      <c r="N95" s="45"/>
-      <c r="O95" s="46"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="49"/>
+      <c r="M95" s="49"/>
+      <c r="N95" s="49"/>
+      <c r="O95" s="50"/>
       <c r="P95" s="12"/>
       <c r="Q95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R95" s="44">
+      <c r="R95" s="48">
         <f>IFERROR((9.82 * V91) * LN(R92/R93),0)</f>
         <v>0</v>
       </c>
-      <c r="S95" s="45"/>
-      <c r="T95" s="45"/>
-      <c r="U95" s="45"/>
-      <c r="V95" s="45"/>
-      <c r="W95" s="46"/>
+      <c r="S95" s="49"/>
+      <c r="T95" s="49"/>
+      <c r="U95" s="49"/>
+      <c r="V95" s="49"/>
+      <c r="W95" s="50"/>
       <c r="X95" s="12"/>
       <c r="Y95" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z95" s="44">
+      <c r="Z95" s="48">
         <f>IFERROR((9.82 * AD91) * LN(Z92/Z93),0)</f>
         <v>0</v>
       </c>
-      <c r="AA95" s="45"/>
-      <c r="AB95" s="45"/>
-      <c r="AC95" s="45"/>
-      <c r="AD95" s="45"/>
-      <c r="AE95" s="46"/>
+      <c r="AA95" s="49"/>
+      <c r="AB95" s="49"/>
+      <c r="AC95" s="49"/>
+      <c r="AD95" s="49"/>
+      <c r="AE95" s="50"/>
       <c r="AF95" s="12"/>
     </row>
     <row r="96" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="41">
+      <c r="B96" s="52">
         <f>B95+B72</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C96" s="42"/>
-      <c r="D96" s="42"/>
-      <c r="E96" s="42"/>
-      <c r="F96" s="42"/>
-      <c r="G96" s="43"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="54"/>
       <c r="H96" s="12"/>
       <c r="I96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J96" s="41">
+      <c r="J96" s="52">
         <f>J95+J72</f>
         <v>0</v>
       </c>
-      <c r="K96" s="42"/>
-      <c r="L96" s="42"/>
-      <c r="M96" s="42"/>
-      <c r="N96" s="42"/>
-      <c r="O96" s="43"/>
+      <c r="K96" s="53"/>
+      <c r="L96" s="53"/>
+      <c r="M96" s="53"/>
+      <c r="N96" s="53"/>
+      <c r="O96" s="54"/>
       <c r="P96" s="12"/>
       <c r="Q96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R96" s="41">
+      <c r="R96" s="52">
         <f>R95+R72</f>
         <v>0</v>
       </c>
-      <c r="S96" s="42"/>
-      <c r="T96" s="42"/>
-      <c r="U96" s="42"/>
-      <c r="V96" s="42"/>
-      <c r="W96" s="43"/>
+      <c r="S96" s="53"/>
+      <c r="T96" s="53"/>
+      <c r="U96" s="53"/>
+      <c r="V96" s="53"/>
+      <c r="W96" s="54"/>
       <c r="X96" s="12"/>
       <c r="Y96" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z96" s="41">
+      <c r="Z96" s="52">
         <f>Z95+Z72</f>
         <v>0</v>
       </c>
-      <c r="AA96" s="42"/>
-      <c r="AB96" s="42"/>
-      <c r="AC96" s="42"/>
-      <c r="AD96" s="42"/>
-      <c r="AE96" s="43"/>
+      <c r="AA96" s="53"/>
+      <c r="AB96" s="53"/>
+      <c r="AC96" s="53"/>
+      <c r="AD96" s="53"/>
+      <c r="AE96" s="54"/>
       <c r="AF96" s="12"/>
     </row>
     <row r="97" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -38944,270 +38944,270 @@
       <c r="A116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B116" s="44">
+      <c r="B116" s="48">
         <f>E115+B92</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C116" s="45"/>
-      <c r="D116" s="45"/>
-      <c r="E116" s="45"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="46"/>
+      <c r="C116" s="49"/>
+      <c r="D116" s="49"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="49"/>
+      <c r="G116" s="50"/>
       <c r="H116" s="12"/>
       <c r="I116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="J116" s="44">
+      <c r="J116" s="48">
         <f>M115+J92</f>
         <v>0</v>
       </c>
-      <c r="K116" s="45"/>
-      <c r="L116" s="45"/>
-      <c r="M116" s="45"/>
-      <c r="N116" s="45"/>
-      <c r="O116" s="46"/>
+      <c r="K116" s="49"/>
+      <c r="L116" s="49"/>
+      <c r="M116" s="49"/>
+      <c r="N116" s="49"/>
+      <c r="O116" s="50"/>
       <c r="P116" s="12"/>
       <c r="Q116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="R116" s="44">
+      <c r="R116" s="48">
         <f>U115+R92</f>
         <v>0</v>
       </c>
-      <c r="S116" s="45"/>
-      <c r="T116" s="45"/>
-      <c r="U116" s="45"/>
-      <c r="V116" s="45"/>
-      <c r="W116" s="46"/>
+      <c r="S116" s="49"/>
+      <c r="T116" s="49"/>
+      <c r="U116" s="49"/>
+      <c r="V116" s="49"/>
+      <c r="W116" s="50"/>
       <c r="X116" s="12"/>
       <c r="Y116" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Z116" s="44">
+      <c r="Z116" s="48">
         <f>AC115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA116" s="45"/>
-      <c r="AB116" s="45"/>
-      <c r="AC116" s="45"/>
-      <c r="AD116" s="45"/>
-      <c r="AE116" s="46"/>
+      <c r="AA116" s="49"/>
+      <c r="AB116" s="49"/>
+      <c r="AC116" s="49"/>
+      <c r="AD116" s="49"/>
+      <c r="AE116" s="50"/>
       <c r="AF116" s="12"/>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B117" s="44">
+      <c r="B117" s="48">
         <f>C115+B92</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="C117" s="45"/>
-      <c r="D117" s="45"/>
-      <c r="E117" s="45"/>
-      <c r="F117" s="45"/>
-      <c r="G117" s="46"/>
+      <c r="C117" s="49"/>
+      <c r="D117" s="49"/>
+      <c r="E117" s="49"/>
+      <c r="F117" s="49"/>
+      <c r="G117" s="50"/>
       <c r="H117" s="12"/>
       <c r="I117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J117" s="44">
+      <c r="J117" s="48">
         <f>K115+J92</f>
         <v>0</v>
       </c>
-      <c r="K117" s="45"/>
-      <c r="L117" s="45"/>
-      <c r="M117" s="45"/>
-      <c r="N117" s="45"/>
-      <c r="O117" s="46"/>
+      <c r="K117" s="49"/>
+      <c r="L117" s="49"/>
+      <c r="M117" s="49"/>
+      <c r="N117" s="49"/>
+      <c r="O117" s="50"/>
       <c r="P117" s="12"/>
       <c r="Q117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="R117" s="44">
+      <c r="R117" s="48">
         <f>S115+R92</f>
         <v>0</v>
       </c>
-      <c r="S117" s="45"/>
-      <c r="T117" s="45"/>
-      <c r="U117" s="45"/>
-      <c r="V117" s="45"/>
-      <c r="W117" s="46"/>
+      <c r="S117" s="49"/>
+      <c r="T117" s="49"/>
+      <c r="U117" s="49"/>
+      <c r="V117" s="49"/>
+      <c r="W117" s="50"/>
       <c r="X117" s="12"/>
       <c r="Y117" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="Z117" s="44">
+      <c r="Z117" s="48">
         <f>AA115+Z92</f>
         <v>0</v>
       </c>
-      <c r="AA117" s="45"/>
-      <c r="AB117" s="45"/>
-      <c r="AC117" s="45"/>
-      <c r="AD117" s="45"/>
-      <c r="AE117" s="46"/>
+      <c r="AA117" s="49"/>
+      <c r="AB117" s="49"/>
+      <c r="AC117" s="49"/>
+      <c r="AD117" s="49"/>
+      <c r="AE117" s="50"/>
       <c r="AF117" s="12"/>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B118" s="44">
+      <c r="B118" s="48">
         <f>IFERROR((G115/10/B116),0)</f>
         <v>0</v>
       </c>
-      <c r="C118" s="45"/>
-      <c r="D118" s="45"/>
-      <c r="E118" s="45"/>
-      <c r="F118" s="45"/>
-      <c r="G118" s="46"/>
+      <c r="C118" s="49"/>
+      <c r="D118" s="49"/>
+      <c r="E118" s="49"/>
+      <c r="F118" s="49"/>
+      <c r="G118" s="50"/>
       <c r="H118" s="12"/>
       <c r="I118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J118" s="44">
+      <c r="J118" s="48">
         <f>IFERROR((O115/10/J116),0)</f>
         <v>0</v>
       </c>
-      <c r="K118" s="45"/>
-      <c r="L118" s="45"/>
-      <c r="M118" s="45"/>
-      <c r="N118" s="45"/>
-      <c r="O118" s="46"/>
+      <c r="K118" s="49"/>
+      <c r="L118" s="49"/>
+      <c r="M118" s="49"/>
+      <c r="N118" s="49"/>
+      <c r="O118" s="50"/>
       <c r="P118" s="12"/>
       <c r="Q118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R118" s="44">
+      <c r="R118" s="48">
         <f>IFERROR((W115/10/R116),0)</f>
         <v>0</v>
       </c>
-      <c r="S118" s="45"/>
-      <c r="T118" s="45"/>
-      <c r="U118" s="45"/>
-      <c r="V118" s="45"/>
-      <c r="W118" s="46"/>
+      <c r="S118" s="49"/>
+      <c r="T118" s="49"/>
+      <c r="U118" s="49"/>
+      <c r="V118" s="49"/>
+      <c r="W118" s="50"/>
       <c r="X118" s="12"/>
       <c r="Y118" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="Z118" s="44">
+      <c r="Z118" s="48">
         <f>IFERROR((AE115/10/Z116),0)</f>
         <v>0</v>
       </c>
-      <c r="AA118" s="45"/>
-      <c r="AB118" s="45"/>
-      <c r="AC118" s="45"/>
-      <c r="AD118" s="45"/>
-      <c r="AE118" s="46"/>
+      <c r="AA118" s="49"/>
+      <c r="AB118" s="49"/>
+      <c r="AC118" s="49"/>
+      <c r="AD118" s="49"/>
+      <c r="AE118" s="50"/>
       <c r="AF118" s="12"/>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B119" s="44">
+      <c r="B119" s="48">
         <f>IFERROR((9.82 * F115) * LN(B116/B117),0)</f>
         <v>0</v>
       </c>
-      <c r="C119" s="45"/>
-      <c r="D119" s="45"/>
-      <c r="E119" s="45"/>
-      <c r="F119" s="45"/>
-      <c r="G119" s="46"/>
+      <c r="C119" s="49"/>
+      <c r="D119" s="49"/>
+      <c r="E119" s="49"/>
+      <c r="F119" s="49"/>
+      <c r="G119" s="50"/>
       <c r="H119" s="12"/>
       <c r="I119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="J119" s="44">
+      <c r="J119" s="48">
         <f>IFERROR((9.82 * N115) * LN(J116/J117),0)</f>
         <v>0</v>
       </c>
-      <c r="K119" s="45"/>
-      <c r="L119" s="45"/>
-      <c r="M119" s="45"/>
-      <c r="N119" s="45"/>
-      <c r="O119" s="46"/>
+      <c r="K119" s="49"/>
+      <c r="L119" s="49"/>
+      <c r="M119" s="49"/>
+      <c r="N119" s="49"/>
+      <c r="O119" s="50"/>
       <c r="P119" s="12"/>
       <c r="Q119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="R119" s="44">
+      <c r="R119" s="48">
         <f>IFERROR((9.82 * V115) * LN(R116/R117),0)</f>
         <v>0</v>
       </c>
-      <c r="S119" s="45"/>
-      <c r="T119" s="45"/>
-      <c r="U119" s="45"/>
-      <c r="V119" s="45"/>
-      <c r="W119" s="46"/>
+      <c r="S119" s="49"/>
+      <c r="T119" s="49"/>
+      <c r="U119" s="49"/>
+      <c r="V119" s="49"/>
+      <c r="W119" s="50"/>
       <c r="X119" s="12"/>
       <c r="Y119" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="Z119" s="44">
+      <c r="Z119" s="48">
         <f>IFERROR((9.82 * AD115) * LN(Z116/Z117),0)</f>
         <v>0</v>
       </c>
-      <c r="AA119" s="45"/>
-      <c r="AB119" s="45"/>
-      <c r="AC119" s="45"/>
-      <c r="AD119" s="45"/>
-      <c r="AE119" s="46"/>
+      <c r="AA119" s="49"/>
+      <c r="AB119" s="49"/>
+      <c r="AC119" s="49"/>
+      <c r="AD119" s="49"/>
+      <c r="AE119" s="50"/>
       <c r="AF119" s="12"/>
     </row>
     <row r="120" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B120" s="41">
+      <c r="B120" s="52">
         <f>B119+B96</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="C120" s="42"/>
-      <c r="D120" s="42"/>
-      <c r="E120" s="42"/>
-      <c r="F120" s="42"/>
-      <c r="G120" s="43"/>
+      <c r="C120" s="53"/>
+      <c r="D120" s="53"/>
+      <c r="E120" s="53"/>
+      <c r="F120" s="53"/>
+      <c r="G120" s="54"/>
       <c r="H120" s="12"/>
       <c r="I120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="J120" s="41">
+      <c r="J120" s="52">
         <f>J119+J96</f>
         <v>0</v>
       </c>
-      <c r="K120" s="42"/>
-      <c r="L120" s="42"/>
-      <c r="M120" s="42"/>
-      <c r="N120" s="42"/>
-      <c r="O120" s="43"/>
+      <c r="K120" s="53"/>
+      <c r="L120" s="53"/>
+      <c r="M120" s="53"/>
+      <c r="N120" s="53"/>
+      <c r="O120" s="54"/>
       <c r="P120" s="12"/>
       <c r="Q120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R120" s="41">
+      <c r="R120" s="52">
         <f>R119+R96</f>
         <v>0</v>
       </c>
-      <c r="S120" s="42"/>
-      <c r="T120" s="42"/>
-      <c r="U120" s="42"/>
-      <c r="V120" s="42"/>
-      <c r="W120" s="43"/>
+      <c r="S120" s="53"/>
+      <c r="T120" s="53"/>
+      <c r="U120" s="53"/>
+      <c r="V120" s="53"/>
+      <c r="W120" s="54"/>
       <c r="X120" s="12"/>
       <c r="Y120" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="Z120" s="41">
+      <c r="Z120" s="52">
         <f>Z119+Z96</f>
         <v>0</v>
       </c>
-      <c r="AA120" s="42"/>
-      <c r="AB120" s="42"/>
-      <c r="AC120" s="42"/>
-      <c r="AD120" s="42"/>
-      <c r="AE120" s="43"/>
+      <c r="AA120" s="53"/>
+      <c r="AB120" s="53"/>
+      <c r="AC120" s="53"/>
+      <c r="AD120" s="53"/>
+      <c r="AE120" s="54"/>
       <c r="AF120" s="12"/>
     </row>
     <row r="121" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -39245,315 +39245,315 @@
       <c r="AF121" s="12"/>
     </row>
     <row r="122" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="48" t="s">
+      <c r="A122" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="B122" s="49"/>
-      <c r="C122" s="49"/>
-      <c r="D122" s="49"/>
-      <c r="E122" s="49"/>
-      <c r="F122" s="49"/>
-      <c r="G122" s="50"/>
+      <c r="B122" s="44"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="45"/>
       <c r="H122" s="12"/>
-      <c r="I122" s="48" t="s">
+      <c r="I122" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="J122" s="49"/>
-      <c r="K122" s="49"/>
-      <c r="L122" s="49"/>
-      <c r="M122" s="49"/>
-      <c r="N122" s="49"/>
-      <c r="O122" s="50"/>
+      <c r="J122" s="44"/>
+      <c r="K122" s="44"/>
+      <c r="L122" s="44"/>
+      <c r="M122" s="44"/>
+      <c r="N122" s="44"/>
+      <c r="O122" s="45"/>
       <c r="P122" s="12"/>
-      <c r="Q122" s="48" t="s">
+      <c r="Q122" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="R122" s="49"/>
-      <c r="S122" s="49"/>
-      <c r="T122" s="49"/>
-      <c r="U122" s="49"/>
-      <c r="V122" s="49"/>
-      <c r="W122" s="50"/>
+      <c r="R122" s="44"/>
+      <c r="S122" s="44"/>
+      <c r="T122" s="44"/>
+      <c r="U122" s="44"/>
+      <c r="V122" s="44"/>
+      <c r="W122" s="45"/>
       <c r="X122" s="12"/>
-      <c r="Y122" s="48" t="s">
+      <c r="Y122" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="Z122" s="49"/>
-      <c r="AA122" s="49"/>
-      <c r="AB122" s="49"/>
-      <c r="AC122" s="49"/>
-      <c r="AD122" s="49"/>
-      <c r="AE122" s="50"/>
+      <c r="Z122" s="44"/>
+      <c r="AA122" s="44"/>
+      <c r="AB122" s="44"/>
+      <c r="AC122" s="44"/>
+      <c r="AD122" s="44"/>
+      <c r="AE122" s="45"/>
       <c r="AF122" s="12"/>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A123" s="53" t="s">
+      <c r="A123" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B123" s="53"/>
-      <c r="C123" s="53"/>
-      <c r="D123" s="52">
+      <c r="B123" s="46"/>
+      <c r="C123" s="46"/>
+      <c r="D123" s="47">
         <f>B115</f>
         <v>3</v>
       </c>
-      <c r="E123" s="52"/>
-      <c r="F123" s="52"/>
-      <c r="G123" s="52"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="47"/>
+      <c r="G123" s="47"/>
       <c r="H123" s="12"/>
-      <c r="I123" s="53" t="s">
+      <c r="I123" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="J123" s="53"/>
-      <c r="K123" s="53"/>
-      <c r="L123" s="52">
+      <c r="J123" s="46"/>
+      <c r="K123" s="46"/>
+      <c r="L123" s="47">
         <f>J115</f>
         <v>0</v>
       </c>
-      <c r="M123" s="52"/>
-      <c r="N123" s="52"/>
-      <c r="O123" s="52"/>
+      <c r="M123" s="47"/>
+      <c r="N123" s="47"/>
+      <c r="O123" s="47"/>
       <c r="P123" s="12"/>
-      <c r="Q123" s="53" t="s">
+      <c r="Q123" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="R123" s="53"/>
-      <c r="S123" s="53"/>
-      <c r="T123" s="52">
+      <c r="R123" s="46"/>
+      <c r="S123" s="46"/>
+      <c r="T123" s="47">
         <f>R115</f>
         <v>0</v>
       </c>
-      <c r="U123" s="52"/>
-      <c r="V123" s="52"/>
-      <c r="W123" s="52"/>
+      <c r="U123" s="47"/>
+      <c r="V123" s="47"/>
+      <c r="W123" s="47"/>
       <c r="X123" s="12"/>
-      <c r="Y123" s="53" t="s">
+      <c r="Y123" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="Z123" s="53"/>
-      <c r="AA123" s="53"/>
-      <c r="AB123" s="52">
+      <c r="Z123" s="46"/>
+      <c r="AA123" s="46"/>
+      <c r="AB123" s="47">
         <f>Z115</f>
         <v>0</v>
       </c>
-      <c r="AC123" s="52"/>
-      <c r="AD123" s="52"/>
-      <c r="AE123" s="52"/>
+      <c r="AC123" s="47"/>
+      <c r="AD123" s="47"/>
+      <c r="AE123" s="47"/>
       <c r="AF123" s="12"/>
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A124" s="54" t="s">
+      <c r="A124" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="54"/>
-      <c r="C124" s="54"/>
-      <c r="D124" s="51">
+      <c r="B124" s="41"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="42">
         <f>B116</f>
         <v>10.773108687500001</v>
       </c>
-      <c r="E124" s="51"/>
-      <c r="F124" s="51"/>
-      <c r="G124" s="51"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="42"/>
+      <c r="G124" s="42"/>
       <c r="H124" s="12"/>
-      <c r="I124" s="54" t="s">
+      <c r="I124" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J124" s="54"/>
-      <c r="K124" s="54"/>
-      <c r="L124" s="51">
+      <c r="J124" s="41"/>
+      <c r="K124" s="41"/>
+      <c r="L124" s="42">
         <f>J116</f>
         <v>0</v>
       </c>
-      <c r="M124" s="51"/>
-      <c r="N124" s="51"/>
-      <c r="O124" s="51"/>
+      <c r="M124" s="42"/>
+      <c r="N124" s="42"/>
+      <c r="O124" s="42"/>
       <c r="P124" s="12"/>
-      <c r="Q124" s="54" t="s">
+      <c r="Q124" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="R124" s="54"/>
-      <c r="S124" s="54"/>
-      <c r="T124" s="51">
+      <c r="R124" s="41"/>
+      <c r="S124" s="41"/>
+      <c r="T124" s="42">
         <f>R116</f>
         <v>0</v>
       </c>
-      <c r="U124" s="51"/>
-      <c r="V124" s="51"/>
-      <c r="W124" s="51"/>
+      <c r="U124" s="42"/>
+      <c r="V124" s="42"/>
+      <c r="W124" s="42"/>
       <c r="X124" s="12"/>
-      <c r="Y124" s="54" t="s">
+      <c r="Y124" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="Z124" s="54"/>
-      <c r="AA124" s="54"/>
-      <c r="AB124" s="51">
+      <c r="Z124" s="41"/>
+      <c r="AA124" s="41"/>
+      <c r="AB124" s="42">
         <f>Z116</f>
         <v>0</v>
       </c>
-      <c r="AC124" s="51"/>
-      <c r="AD124" s="51"/>
-      <c r="AE124" s="51"/>
+      <c r="AC124" s="42"/>
+      <c r="AD124" s="42"/>
+      <c r="AE124" s="42"/>
       <c r="AF124" s="12"/>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A125" s="54" t="s">
+      <c r="A125" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="54"/>
-      <c r="C125" s="54"/>
-      <c r="D125" s="51">
+      <c r="B125" s="41"/>
+      <c r="C125" s="41"/>
+      <c r="D125" s="42">
         <f>D115+D91+D67+D43+D19</f>
         <v>8.9766162500000011</v>
       </c>
-      <c r="E125" s="51"/>
-      <c r="F125" s="51"/>
-      <c r="G125" s="51"/>
+      <c r="E125" s="42"/>
+      <c r="F125" s="42"/>
+      <c r="G125" s="42"/>
       <c r="H125" s="12"/>
-      <c r="I125" s="54" t="s">
+      <c r="I125" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J125" s="54"/>
-      <c r="K125" s="54"/>
-      <c r="L125" s="51">
+      <c r="J125" s="41"/>
+      <c r="K125" s="41"/>
+      <c r="L125" s="42">
         <f>L115+L91+L67+L43+L19</f>
         <v>0</v>
       </c>
-      <c r="M125" s="51"/>
-      <c r="N125" s="51"/>
-      <c r="O125" s="51"/>
+      <c r="M125" s="42"/>
+      <c r="N125" s="42"/>
+      <c r="O125" s="42"/>
       <c r="P125" s="12"/>
-      <c r="Q125" s="54" t="s">
+      <c r="Q125" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="R125" s="54"/>
-      <c r="S125" s="54"/>
-      <c r="T125" s="51">
+      <c r="R125" s="41"/>
+      <c r="S125" s="41"/>
+      <c r="T125" s="42">
         <f>T115+T91+T67+T43+T19</f>
         <v>0</v>
       </c>
-      <c r="U125" s="51"/>
-      <c r="V125" s="51"/>
-      <c r="W125" s="51"/>
+      <c r="U125" s="42"/>
+      <c r="V125" s="42"/>
+      <c r="W125" s="42"/>
       <c r="X125" s="12"/>
-      <c r="Y125" s="54" t="s">
+      <c r="Y125" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="Z125" s="54"/>
-      <c r="AA125" s="54"/>
-      <c r="AB125" s="51">
+      <c r="Z125" s="41"/>
+      <c r="AA125" s="41"/>
+      <c r="AB125" s="42">
         <f>AB115+AB91+AB67+AB43+AB19</f>
         <v>0</v>
       </c>
-      <c r="AC125" s="51"/>
-      <c r="AD125" s="51"/>
-      <c r="AE125" s="51"/>
+      <c r="AC125" s="42"/>
+      <c r="AD125" s="42"/>
+      <c r="AE125" s="42"/>
       <c r="AF125" s="12"/>
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A126" s="54" t="s">
+      <c r="A126" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B126" s="54"/>
-      <c r="C126" s="54"/>
-      <c r="D126" s="51">
+      <c r="B126" s="41"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="42">
         <f>D124-D125</f>
         <v>1.7964924374999995</v>
       </c>
-      <c r="E126" s="51"/>
-      <c r="F126" s="51"/>
-      <c r="G126" s="51"/>
+      <c r="E126" s="42"/>
+      <c r="F126" s="42"/>
+      <c r="G126" s="42"/>
       <c r="H126" s="12"/>
-      <c r="I126" s="54" t="s">
+      <c r="I126" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="J126" s="54"/>
-      <c r="K126" s="54"/>
-      <c r="L126" s="51">
+      <c r="J126" s="41"/>
+      <c r="K126" s="41"/>
+      <c r="L126" s="42">
         <f>L124-L125</f>
         <v>0</v>
       </c>
-      <c r="M126" s="51"/>
-      <c r="N126" s="51"/>
-      <c r="O126" s="51"/>
+      <c r="M126" s="42"/>
+      <c r="N126" s="42"/>
+      <c r="O126" s="42"/>
       <c r="P126" s="12"/>
-      <c r="Q126" s="54" t="s">
+      <c r="Q126" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="R126" s="54"/>
-      <c r="S126" s="54"/>
-      <c r="T126" s="51">
+      <c r="R126" s="41"/>
+      <c r="S126" s="41"/>
+      <c r="T126" s="42">
         <f>T124-T125</f>
         <v>0</v>
       </c>
-      <c r="U126" s="51"/>
-      <c r="V126" s="51"/>
-      <c r="W126" s="51"/>
+      <c r="U126" s="42"/>
+      <c r="V126" s="42"/>
+      <c r="W126" s="42"/>
       <c r="X126" s="12"/>
-      <c r="Y126" s="54" t="s">
+      <c r="Y126" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="Z126" s="54"/>
-      <c r="AA126" s="54"/>
-      <c r="AB126" s="51">
+      <c r="Z126" s="41"/>
+      <c r="AA126" s="41"/>
+      <c r="AB126" s="42">
         <f>AB124-AB125</f>
         <v>0</v>
       </c>
-      <c r="AC126" s="51"/>
-      <c r="AD126" s="51"/>
-      <c r="AE126" s="51"/>
+      <c r="AC126" s="42"/>
+      <c r="AD126" s="42"/>
+      <c r="AE126" s="42"/>
       <c r="AF126" s="12"/>
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A127" s="54" t="s">
+      <c r="A127" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="B127" s="54"/>
-      <c r="C127" s="54"/>
-      <c r="D127" s="51">
+      <c r="B127" s="41"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="42">
         <f>B120</f>
         <v>8003.3365648910458</v>
       </c>
-      <c r="E127" s="51"/>
-      <c r="F127" s="51"/>
-      <c r="G127" s="51"/>
+      <c r="E127" s="42"/>
+      <c r="F127" s="42"/>
+      <c r="G127" s="42"/>
       <c r="H127" s="12"/>
-      <c r="I127" s="54" t="s">
+      <c r="I127" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="J127" s="54"/>
-      <c r="K127" s="54"/>
-      <c r="L127" s="51">
+      <c r="J127" s="41"/>
+      <c r="K127" s="41"/>
+      <c r="L127" s="42">
         <f>J120</f>
         <v>0</v>
       </c>
-      <c r="M127" s="51"/>
-      <c r="N127" s="51"/>
-      <c r="O127" s="51"/>
+      <c r="M127" s="42"/>
+      <c r="N127" s="42"/>
+      <c r="O127" s="42"/>
       <c r="P127" s="12"/>
-      <c r="Q127" s="54" t="s">
+      <c r="Q127" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="R127" s="54"/>
-      <c r="S127" s="54"/>
-      <c r="T127" s="51">
+      <c r="R127" s="41"/>
+      <c r="S127" s="41"/>
+      <c r="T127" s="42">
         <f>R120</f>
         <v>0</v>
       </c>
-      <c r="U127" s="51"/>
-      <c r="V127" s="51"/>
-      <c r="W127" s="51"/>
+      <c r="U127" s="42"/>
+      <c r="V127" s="42"/>
+      <c r="W127" s="42"/>
       <c r="X127" s="12"/>
-      <c r="Y127" s="54" t="s">
+      <c r="Y127" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="Z127" s="54"/>
-      <c r="AA127" s="54"/>
-      <c r="AB127" s="51">
+      <c r="Z127" s="41"/>
+      <c r="AA127" s="41"/>
+      <c r="AB127" s="42">
         <f>Z120</f>
         <v>0</v>
       </c>
-      <c r="AC127" s="51"/>
-      <c r="AD127" s="51"/>
-      <c r="AE127" s="51"/>
+      <c r="AC127" s="42"/>
+      <c r="AD127" s="42"/>
+      <c r="AE127" s="42"/>
       <c r="AF127" s="12"/>
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.25">
@@ -39592,49 +39592,87 @@
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="Y127:AA127"/>
-    <mergeCell ref="AB127:AE127"/>
-    <mergeCell ref="Y122:AE122"/>
-    <mergeCell ref="Y123:AA123"/>
-    <mergeCell ref="AB123:AE123"/>
-    <mergeCell ref="Y124:AA124"/>
-    <mergeCell ref="AB124:AE124"/>
-    <mergeCell ref="Y125:AA125"/>
-    <mergeCell ref="AB125:AE125"/>
-    <mergeCell ref="Y126:AA126"/>
-    <mergeCell ref="AB126:AE126"/>
-    <mergeCell ref="I127:K127"/>
-    <mergeCell ref="L127:O127"/>
-    <mergeCell ref="Q122:W122"/>
-    <mergeCell ref="Q123:S123"/>
-    <mergeCell ref="T123:W123"/>
-    <mergeCell ref="Q124:S124"/>
-    <mergeCell ref="T124:W124"/>
-    <mergeCell ref="Q125:S125"/>
-    <mergeCell ref="T125:W125"/>
-    <mergeCell ref="Q126:S126"/>
-    <mergeCell ref="T126:W126"/>
-    <mergeCell ref="Q127:S127"/>
-    <mergeCell ref="T127:W127"/>
-    <mergeCell ref="I122:O122"/>
-    <mergeCell ref="I123:K123"/>
-    <mergeCell ref="L123:O123"/>
-    <mergeCell ref="I124:K124"/>
-    <mergeCell ref="L124:O124"/>
-    <mergeCell ref="I125:K125"/>
-    <mergeCell ref="L125:O125"/>
-    <mergeCell ref="I126:K126"/>
-    <mergeCell ref="L126:O126"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="J120:O120"/>
+    <mergeCell ref="R120:W120"/>
+    <mergeCell ref="Z120:AE120"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="J119:O119"/>
+    <mergeCell ref="R119:W119"/>
+    <mergeCell ref="Z119:AE119"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="J118:O118"/>
+    <mergeCell ref="R118:W118"/>
+    <mergeCell ref="Z118:AE118"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="J117:O117"/>
+    <mergeCell ref="R117:W117"/>
+    <mergeCell ref="Z117:AE117"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="J116:O116"/>
+    <mergeCell ref="R116:W116"/>
+    <mergeCell ref="Z116:AE116"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="J96:O96"/>
+    <mergeCell ref="R96:W96"/>
+    <mergeCell ref="Z96:AE96"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="J95:O95"/>
+    <mergeCell ref="R95:W95"/>
+    <mergeCell ref="Z95:AE95"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="J94:O94"/>
+    <mergeCell ref="R94:W94"/>
+    <mergeCell ref="Z94:AE94"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="J93:O93"/>
+    <mergeCell ref="R93:W93"/>
+    <mergeCell ref="Z93:AE93"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="J92:O92"/>
+    <mergeCell ref="R92:W92"/>
+    <mergeCell ref="Z92:AE92"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="J72:O72"/>
+    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="Z72:AE72"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="J71:O71"/>
+    <mergeCell ref="R71:W71"/>
+    <mergeCell ref="Z71:AE71"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="J70:O70"/>
+    <mergeCell ref="R70:W70"/>
+    <mergeCell ref="Z70:AE70"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="J69:O69"/>
+    <mergeCell ref="R69:W69"/>
+    <mergeCell ref="Z69:AE69"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="J68:O68"/>
+    <mergeCell ref="R68:W68"/>
+    <mergeCell ref="Z68:AE68"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="R48:W48"/>
+    <mergeCell ref="Z48:AE48"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="R47:W47"/>
+    <mergeCell ref="Z47:AE47"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="R46:W46"/>
+    <mergeCell ref="Z46:AE46"/>
+    <mergeCell ref="Z45:AE45"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="R44:W44"/>
+    <mergeCell ref="Z44:AE44"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="Z24:AE24"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="J20:O20"/>
     <mergeCell ref="R20:W20"/>
@@ -39659,87 +39697,49 @@
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="J45:O45"/>
     <mergeCell ref="R45:W45"/>
-    <mergeCell ref="Z45:AE45"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="R44:W44"/>
-    <mergeCell ref="Z44:AE44"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="Z24:AE24"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="R48:W48"/>
-    <mergeCell ref="Z48:AE48"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="J47:O47"/>
-    <mergeCell ref="R47:W47"/>
-    <mergeCell ref="Z47:AE47"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="J46:O46"/>
-    <mergeCell ref="R46:W46"/>
-    <mergeCell ref="Z46:AE46"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="J70:O70"/>
-    <mergeCell ref="R70:W70"/>
-    <mergeCell ref="Z70:AE70"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="J69:O69"/>
-    <mergeCell ref="R69:W69"/>
-    <mergeCell ref="Z69:AE69"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="J68:O68"/>
-    <mergeCell ref="R68:W68"/>
-    <mergeCell ref="Z68:AE68"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="J92:O92"/>
-    <mergeCell ref="R92:W92"/>
-    <mergeCell ref="Z92:AE92"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="J72:O72"/>
-    <mergeCell ref="R72:W72"/>
-    <mergeCell ref="Z72:AE72"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="J71:O71"/>
-    <mergeCell ref="R71:W71"/>
-    <mergeCell ref="Z71:AE71"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="J95:O95"/>
-    <mergeCell ref="R95:W95"/>
-    <mergeCell ref="Z95:AE95"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="J94:O94"/>
-    <mergeCell ref="R94:W94"/>
-    <mergeCell ref="Z94:AE94"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="J93:O93"/>
-    <mergeCell ref="R93:W93"/>
-    <mergeCell ref="Z93:AE93"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="J117:O117"/>
-    <mergeCell ref="R117:W117"/>
-    <mergeCell ref="Z117:AE117"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="J116:O116"/>
-    <mergeCell ref="R116:W116"/>
-    <mergeCell ref="Z116:AE116"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="J96:O96"/>
-    <mergeCell ref="R96:W96"/>
-    <mergeCell ref="Z96:AE96"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="J120:O120"/>
-    <mergeCell ref="R120:W120"/>
-    <mergeCell ref="Z120:AE120"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="J119:O119"/>
-    <mergeCell ref="R119:W119"/>
-    <mergeCell ref="Z119:AE119"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="J118:O118"/>
-    <mergeCell ref="R118:W118"/>
-    <mergeCell ref="Z118:AE118"/>
+    <mergeCell ref="D127:G127"/>
+    <mergeCell ref="D125:G125"/>
+    <mergeCell ref="D124:G124"/>
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="D126:G126"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="L127:O127"/>
+    <mergeCell ref="Q122:W122"/>
+    <mergeCell ref="Q123:S123"/>
+    <mergeCell ref="T123:W123"/>
+    <mergeCell ref="Q124:S124"/>
+    <mergeCell ref="T124:W124"/>
+    <mergeCell ref="Q125:S125"/>
+    <mergeCell ref="T125:W125"/>
+    <mergeCell ref="Q126:S126"/>
+    <mergeCell ref="T126:W126"/>
+    <mergeCell ref="Q127:S127"/>
+    <mergeCell ref="T127:W127"/>
+    <mergeCell ref="I122:O122"/>
+    <mergeCell ref="I123:K123"/>
+    <mergeCell ref="L123:O123"/>
+    <mergeCell ref="I124:K124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="I125:K125"/>
+    <mergeCell ref="L125:O125"/>
+    <mergeCell ref="I126:K126"/>
+    <mergeCell ref="L126:O126"/>
+    <mergeCell ref="Y127:AA127"/>
+    <mergeCell ref="AB127:AE127"/>
+    <mergeCell ref="Y122:AE122"/>
+    <mergeCell ref="Y123:AA123"/>
+    <mergeCell ref="AB123:AE123"/>
+    <mergeCell ref="Y124:AA124"/>
+    <mergeCell ref="AB124:AE124"/>
+    <mergeCell ref="Y125:AA125"/>
+    <mergeCell ref="AB125:AE125"/>
+    <mergeCell ref="Y126:AA126"/>
+    <mergeCell ref="AB126:AE126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40807,7 +40807,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R33" sqref="R33"/>
+      <selection pane="bottomLeft" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42165,64 +42165,64 @@
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:31" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="32">
         <v>2.2400000000000002</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="32">
         <v>408.5</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="32">
         <v>82.2</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="32" t="s">
         <v>260</v>
       </c>
       <c r="G14" s="22">
         <v>207.86830357142856</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="32">
         <v>298</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="32">
         <f t="shared" si="25"/>
         <v>50.88575362825668</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="32">
         <f t="shared" si="26"/>
         <v>72.949816401468794</v>
       </c>
       <c r="K14" s="22">
         <v>280</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="32">
         <v>326</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="32">
         <f t="shared" ref="N14:N15" si="39">0.64*B14</f>
         <v>1.4336000000000002</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="32">
         <f t="shared" si="27"/>
         <v>1.1642857142857144</v>
       </c>
-      <c r="P14" s="21">
+      <c r="P14" s="32">
         <f t="shared" si="28"/>
         <v>37</v>
       </c>
-      <c r="Q14" s="39">
+      <c r="Q14" s="32">
         <f t="shared" si="29"/>
         <v>0.21022727272727273</v>
       </c>
-      <c r="R14" s="39">
+      <c r="R14" s="32">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
@@ -42234,11 +42234,11 @@
         <f t="shared" si="32"/>
         <v>302.61363636363637</v>
       </c>
-      <c r="U14" s="39">
+      <c r="U14" s="32">
         <f t="shared" si="33"/>
         <v>18.237454100367199</v>
       </c>
-      <c r="V14" s="39">
+      <c r="V14" s="32">
         <f t="shared" si="34"/>
         <v>0.40960000000000002</v>
       </c>
@@ -42250,7 +42250,7 @@
         <f t="shared" si="36"/>
         <v>122.0608</v>
       </c>
-      <c r="Y14" s="39">
+      <c r="Y14" s="32">
         <f t="shared" si="37"/>
         <v>0.66928639999999995</v>
       </c>
